--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="145">
   <si>
     <t>حلقه سمك</t>
   </si>
@@ -364,6 +364,93 @@
   </si>
   <si>
     <t>Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الخزنة </t>
+  </si>
+  <si>
+    <t>مجموع العمولات اليوميه</t>
+  </si>
+  <si>
+    <t>مكاسب المشتريات بعد بيعها</t>
+  </si>
+  <si>
+    <t>ايراد المراكب الشريكة</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> income</t>
+  </si>
+  <si>
+    <t>جدول عمولات</t>
+  </si>
+  <si>
+    <t>جدول ايراد مراكب شريكه</t>
+  </si>
+  <si>
+    <t>Boat</t>
+  </si>
+  <si>
+    <t>Commision</t>
+  </si>
+  <si>
+    <t>income</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>بعد 6 شهور</t>
+  </si>
+  <si>
+    <t>comission</t>
+  </si>
+  <si>
+    <t>finalIncome</t>
+  </si>
+  <si>
+    <t>جدول المصروفات</t>
+  </si>
+  <si>
+    <t>cause</t>
+  </si>
+  <si>
+    <t>المشتريات</t>
+  </si>
+  <si>
+    <t>اسعارهم</t>
+  </si>
+  <si>
+    <t>الشخص المشترى</t>
+  </si>
+  <si>
+    <t>الارباح</t>
+  </si>
+  <si>
+    <t>التاريخ</t>
+  </si>
+  <si>
+    <t>NameOfCustomer</t>
+  </si>
+  <si>
+    <t>FishName</t>
+  </si>
+  <si>
+    <t>IMerchantItems</t>
+  </si>
+  <si>
+    <t>IMerchantReciept</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تجميع السابق </t>
+  </si>
+  <si>
+    <t>4500-مرتب ريس المركب</t>
+  </si>
+  <si>
+    <t>9000/2</t>
   </si>
 </sst>
 </file>
@@ -386,7 +473,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -411,6 +498,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -424,7 +517,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -433,6 +526,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -730,24 +825,39 @@
   <dimension ref="A1:Y117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J100" sqref="J100:L100"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:22">
+      <c r="E1">
+        <v>2500</v>
+      </c>
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:22">
+      <c r="E2">
+        <v>3000</v>
+      </c>
+      <c r="F2">
+        <v>15000</v>
+      </c>
       <c r="M2" s="2"/>
     </row>
     <row r="3" spans="1:22">
+      <c r="E3">
+        <v>10000</v>
+      </c>
       <c r="J3" t="s">
         <v>32</v>
       </c>
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="1:22">
+      <c r="F4">
+        <v>7.5</v>
+      </c>
       <c r="M4" s="2"/>
       <c r="V4" t="s">
         <v>0</v>
@@ -758,6 +868,9 @@
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
+      <c r="F5">
+        <v>7.5</v>
+      </c>
       <c r="J5" t="s">
         <v>20</v>
       </c>
@@ -1896,13 +2009,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="D4:T57"/>
+  <dimension ref="D4:T80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:T25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" customWidth="1"/>
+    <col min="10" max="10" width="6.77734375" customWidth="1"/>
+    <col min="11" max="11" width="7" customWidth="1"/>
+    <col min="12" max="12" width="13.44140625" customWidth="1"/>
+    <col min="13" max="13" width="15.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="4" spans="4:18">
       <c r="D4" s="1" t="s">
@@ -1967,7 +2088,10 @@
       </c>
     </row>
     <row r="8" spans="4:18">
-      <c r="G8" t="s">
+      <c r="F8" t="s">
+        <v>142</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N8" t="s">
@@ -1975,9 +2099,11 @@
       </c>
     </row>
     <row r="9" spans="4:18">
-      <c r="G9" t="s">
+      <c r="F9" s="9"/>
+      <c r="G9" s="9" t="s">
         <v>73</v>
       </c>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="4:18">
       <c r="G10" t="s">
@@ -1988,6 +2114,12 @@
       </c>
     </row>
     <row r="11" spans="4:18">
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="J11" t="s">
         <v>82</v>
       </c>
@@ -2043,6 +2175,9 @@
       <c r="D18" t="s">
         <v>95</v>
       </c>
+      <c r="L18">
+        <v>10000</v>
+      </c>
       <c r="M18" t="s">
         <v>96</v>
       </c>
@@ -2062,16 +2197,35 @@
       </c>
     </row>
     <row r="20" spans="4:20">
+      <c r="K20">
+        <v>600</v>
+      </c>
+      <c r="L20" s="4">
+        <v>0.06</v>
+      </c>
       <c r="M20" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="21" spans="4:20">
+      <c r="L21">
+        <v>400</v>
+      </c>
       <c r="M21" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="22" spans="4:20">
+      <c r="G22" s="3"/>
+      <c r="H22" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="K22" t="s">
+        <v>144</v>
+      </c>
+      <c r="L22">
+        <v>9000</v>
+      </c>
       <c r="M22" t="s">
         <v>97</v>
       </c>
@@ -2081,15 +2235,41 @@
         <v>99</v>
       </c>
       <c r="E23" s="1"/>
+      <c r="G23" t="s">
+        <v>69</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="N23" s="3"/>
     </row>
     <row r="24" spans="4:20">
       <c r="D24" t="s">
         <v>101</v>
       </c>
+      <c r="G24" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="25" spans="4:20">
       <c r="D25" t="s">
         <v>100</v>
+      </c>
+      <c r="G25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="4:20">
+      <c r="G26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="4:20">
+      <c r="G27" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="4:20">
@@ -2208,28 +2388,196 @@
         <v>109</v>
       </c>
     </row>
-    <row r="54" spans="5:5">
+    <row r="49" spans="4:20">
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="2"/>
+      <c r="T49" s="2"/>
+    </row>
+    <row r="54" spans="4:20">
       <c r="E54" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="55" spans="5:5">
+    <row r="55" spans="4:20">
       <c r="E55" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="56" spans="5:5">
-      <c r="E56" t="s">
+      <c r="M55" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="56" spans="4:20">
+      <c r="E56" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="57" spans="5:5">
-      <c r="E57" t="s">
+      <c r="F56" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="M56" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="57" spans="4:20">
+      <c r="E57" s="3" t="s">
         <v>115</v>
       </c>
+      <c r="F57" s="8">
+        <v>0.06</v>
+      </c>
+      <c r="M57" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="58" spans="4:20">
+      <c r="M58" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="60" spans="4:20">
+      <c r="L60" t="s">
+        <v>122</v>
+      </c>
+      <c r="O60" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="4:20">
+      <c r="K62" s="3"/>
+      <c r="L62" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="N62" s="3"/>
+      <c r="O62" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="4:20">
+      <c r="K63" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="L63" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="N63" s="3"/>
+      <c r="O63" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="4:20">
+      <c r="K64" s="3"/>
+      <c r="L64" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="66" spans="5:11">
+      <c r="G66" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="67" spans="5:11">
+      <c r="G67" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="5:11">
+      <c r="G68" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="69" spans="5:11">
+      <c r="G69" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="70" spans="5:11">
+      <c r="G70" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="74" spans="5:11">
+      <c r="E74" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F74" s="2"/>
+      <c r="I74" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="J74" s="2"/>
+      <c r="K74" s="1"/>
+    </row>
+    <row r="75" spans="5:11">
+      <c r="E75" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F75" s="3"/>
+      <c r="I75" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="J75" s="3"/>
+    </row>
+    <row r="76" spans="5:11">
+      <c r="E76" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F76" s="3"/>
+      <c r="I76" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J76" s="3"/>
+    </row>
+    <row r="77" spans="5:11">
+      <c r="E77" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F77" s="3"/>
+      <c r="I77" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J77" s="3"/>
+    </row>
+    <row r="78" spans="5:11">
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="I78" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J78" s="3"/>
+    </row>
+    <row r="79" spans="5:11">
+      <c r="E79" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F79" s="3"/>
+      <c r="I79" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J79" s="3"/>
+    </row>
+    <row r="80" spans="5:11">
+      <c r="E80" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F80" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="157">
   <si>
     <t>حلقه سمك</t>
   </si>
@@ -451,6 +451,42 @@
   </si>
   <si>
     <t>9000/2</t>
+  </si>
+  <si>
+    <t>10 طوايل جمبرى</t>
+  </si>
+  <si>
+    <t>محمد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 طاوله جمبرى </t>
+  </si>
+  <si>
+    <t>احمد</t>
+  </si>
+  <si>
+    <t>المخزن</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 طاوله </t>
+  </si>
+  <si>
+    <t>1000 كجم</t>
+  </si>
+  <si>
+    <t>بورسعيد</t>
+  </si>
+  <si>
+    <t>دمياط</t>
+  </si>
+  <si>
+    <t>رقح</t>
+  </si>
+  <si>
+    <t xml:space="preserve">المركب اللى باع بره بيتحاسب ازاى </t>
+  </si>
+  <si>
+    <t>شريك او مستقل</t>
   </si>
 </sst>
 </file>
@@ -2009,10 +2045,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="D4:T80"/>
+  <dimension ref="B4:T80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="P68" sqref="P68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2388,7 +2424,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="49" spans="4:20">
+    <row r="49" spans="2:20">
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -2407,12 +2443,12 @@
       <c r="S49" s="2"/>
       <c r="T49" s="2"/>
     </row>
-    <row r="54" spans="4:20">
+    <row r="54" spans="2:20">
       <c r="E54" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="55" spans="4:20">
+    <row r="55" spans="2:20">
       <c r="E55" t="s">
         <v>84</v>
       </c>
@@ -2420,7 +2456,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="56" spans="4:20">
+    <row r="56" spans="2:20">
       <c r="E56" s="3" t="s">
         <v>100</v>
       </c>
@@ -2431,7 +2467,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="57" spans="4:20">
+    <row r="57" spans="2:20">
       <c r="E57" s="3" t="s">
         <v>115</v>
       </c>
@@ -2442,12 +2478,12 @@
         <v>118</v>
       </c>
     </row>
-    <row r="58" spans="4:20">
+    <row r="58" spans="2:20">
       <c r="M58" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="60" spans="4:20">
+    <row r="60" spans="2:20">
       <c r="L60" t="s">
         <v>122</v>
       </c>
@@ -2455,7 +2491,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="4:20">
+    <row r="62" spans="2:20">
       <c r="K62" s="3"/>
       <c r="L62" s="3" t="s">
         <v>123</v>
@@ -2466,7 +2502,13 @@
       </c>
       <c r="P62" s="3"/>
     </row>
-    <row r="63" spans="4:20">
+    <row r="63" spans="2:20">
+      <c r="B63" t="s">
+        <v>145</v>
+      </c>
+      <c r="C63" t="s">
+        <v>146</v>
+      </c>
       <c r="K63" s="3" t="s">
         <v>127</v>
       </c>
@@ -2479,38 +2521,77 @@
       </c>
       <c r="P63" s="3"/>
     </row>
-    <row r="64" spans="4:20">
+    <row r="64" spans="2:20">
+      <c r="B64" t="s">
+        <v>147</v>
+      </c>
+      <c r="C64" t="s">
+        <v>148</v>
+      </c>
       <c r="K64" s="3"/>
       <c r="L64" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="66" spans="5:11">
+    <row r="66" spans="2:16">
+      <c r="B66" t="s">
+        <v>150</v>
+      </c>
+      <c r="C66" t="s">
+        <v>149</v>
+      </c>
       <c r="G66" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="67" spans="5:11">
+    <row r="67" spans="2:16">
+      <c r="B67" t="s">
+        <v>151</v>
+      </c>
       <c r="G67" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="68" spans="5:11">
+      <c r="M67" t="s">
+        <v>156</v>
+      </c>
+      <c r="P67" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="68" spans="2:16">
       <c r="G68" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="69" spans="5:11">
+    <row r="69" spans="2:16">
+      <c r="B69">
+        <v>20</v>
+      </c>
+      <c r="C69">
+        <v>100</v>
+      </c>
+      <c r="D69">
+        <v>700</v>
+      </c>
       <c r="G69" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="70" spans="5:11">
+    <row r="70" spans="2:16">
+      <c r="B70" t="s">
+        <v>152</v>
+      </c>
+      <c r="C70" t="s">
+        <v>153</v>
+      </c>
+      <c r="D70" t="s">
+        <v>154</v>
+      </c>
       <c r="G70" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="74" spans="5:11">
+    <row r="74" spans="2:16">
       <c r="E74" s="2" t="s">
         <v>140</v>
       </c>
@@ -2521,7 +2602,7 @@
       <c r="J74" s="2"/>
       <c r="K74" s="1"/>
     </row>
-    <row r="75" spans="5:11">
+    <row r="75" spans="2:16">
       <c r="E75" s="3" t="s">
         <v>105</v>
       </c>
@@ -2531,7 +2612,7 @@
       </c>
       <c r="J75" s="3"/>
     </row>
-    <row r="76" spans="5:11">
+    <row r="76" spans="2:16">
       <c r="E76" s="3" t="s">
         <v>90</v>
       </c>
@@ -2541,7 +2622,7 @@
       </c>
       <c r="J76" s="3"/>
     </row>
-    <row r="77" spans="5:11">
+    <row r="77" spans="2:16">
       <c r="E77" s="3" t="s">
         <v>137</v>
       </c>
@@ -2551,7 +2632,7 @@
       </c>
       <c r="J77" s="3"/>
     </row>
-    <row r="78" spans="5:11">
+    <row r="78" spans="2:16">
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
       <c r="I78" s="3" t="s">
@@ -2559,7 +2640,7 @@
       </c>
       <c r="J78" s="3"/>
     </row>
-    <row r="79" spans="5:11">
+    <row r="79" spans="2:16">
       <c r="E79" s="3" t="s">
         <v>112</v>
       </c>
@@ -2569,7 +2650,7 @@
       </c>
       <c r="J79" s="3"/>
     </row>
-    <row r="80" spans="5:11">
+    <row r="80" spans="2:16">
       <c r="E80" s="3" t="s">
         <v>141</v>
       </c>

--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FreeLance\Mokhtar Elsamhy\Fish Business\FishBusiness\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88370027-5DA8-401C-886D-D1B62B583BFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="108" windowWidth="16212" windowHeight="5808" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="172">
   <si>
     <t>حلقه سمك</t>
   </si>
@@ -487,13 +493,58 @@
   </si>
   <si>
     <t>شريك او مستقل</t>
+  </si>
+  <si>
+    <t>الفواتير الخارجية</t>
+  </si>
+  <si>
+    <t>drp</t>
+  </si>
+  <si>
+    <t>txt</t>
+  </si>
+  <si>
+    <t>الاجمالي قبل العمولة</t>
+  </si>
+  <si>
+    <t>عمولة صاحب الحلقة</t>
+  </si>
+  <si>
+    <t>الصافي</t>
+  </si>
+  <si>
+    <t>المدفوع من الهالك</t>
+  </si>
+  <si>
+    <t>الصافي / 2</t>
+  </si>
+  <si>
+    <t>الناتج / عدد الانفار</t>
+  </si>
+  <si>
+    <t>لو شريك</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>نصيب المركب -x</t>
+  </si>
+  <si>
+    <t>income +=</t>
+  </si>
+  <si>
+    <t>حفظ</t>
+  </si>
+  <si>
+    <t>عرض الفاتورة</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -553,7 +604,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -564,12 +615,23 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -616,7 +678,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -648,9 +710,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -682,6 +762,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -857,22 +955,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E1">
         <v>2500</v>
       </c>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E2">
         <v>3000</v>
       </c>
@@ -881,7 +979,7 @@
       </c>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E3">
         <v>10000</v>
       </c>
@@ -890,7 +988,7 @@
       </c>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="F4">
         <v>7.5</v>
       </c>
@@ -899,7 +997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -918,7 +1016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
@@ -930,7 +1028,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -955,7 +1053,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -977,7 +1075,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -993,7 +1091,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -1011,7 +1109,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -1021,7 +1119,7 @@
       <c r="I11" s="3"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1039,7 +1137,7 @@
       </c>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1061,7 +1159,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -1077,7 +1175,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -1102,7 +1200,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -1121,7 +1219,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -1143,7 +1241,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -1162,7 +1260,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:24">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -1178,7 +1276,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -1197,7 +1295,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -1207,7 +1305,7 @@
       </c>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="1:24">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -1220,7 +1318,7 @@
       </c>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="1:24">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -1233,7 +1331,7 @@
       </c>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="1:24">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -1246,7 +1344,7 @@
       </c>
       <c r="M24" s="5"/>
     </row>
-    <row r="25" spans="1:24">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="H25" t="s">
         <v>24</v>
       </c>
@@ -1254,12 +1352,12 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="26" spans="1:24">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="1:24">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
         <v>26</v>
       </c>
@@ -1270,7 +1368,7 @@
         <v>5650</v>
       </c>
     </row>
-    <row r="28" spans="1:24">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="I28" s="4">
         <v>0.06</v>
       </c>
@@ -1289,12 +1387,12 @@
       <c r="R28" s="6"/>
       <c r="S28" s="6"/>
     </row>
-    <row r="29" spans="1:24">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="I29">
         <v>5311</v>
       </c>
     </row>
-    <row r="30" spans="1:24">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E30">
         <v>100</v>
       </c>
@@ -1311,7 +1409,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:24">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="H31" t="s">
         <v>29</v>
       </c>
@@ -1319,7 +1417,7 @@
         <v>5011</v>
       </c>
     </row>
-    <row r="32" spans="1:24">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="I32">
         <v>2500</v>
       </c>
@@ -1339,7 +1437,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="5:25">
+    <row r="33" spans="5:25" x14ac:dyDescent="0.25">
       <c r="I33">
         <v>2500</v>
       </c>
@@ -1353,7 +1451,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="5:25">
+    <row r="34" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5" t="s">
@@ -1372,7 +1470,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="5:25">
+    <row r="35" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
@@ -1389,7 +1487,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="5:25">
+    <row r="36" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
@@ -1406,7 +1504,7 @@
       <c r="W36" s="5"/>
       <c r="X36" s="5"/>
     </row>
-    <row r="37" spans="5:25">
+    <row r="37" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
@@ -1417,7 +1515,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="38" spans="5:25">
+    <row r="38" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E38" s="5" t="s">
         <v>41</v>
       </c>
@@ -1432,7 +1530,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="39" spans="5:25">
+    <row r="39" spans="5:25" x14ac:dyDescent="0.25">
       <c r="F39" t="s">
         <v>34</v>
       </c>
@@ -1445,7 +1543,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="40" spans="5:25">
+    <row r="40" spans="5:25" x14ac:dyDescent="0.25">
       <c r="F40" t="s">
         <v>35</v>
       </c>
@@ -1455,7 +1553,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="5:25">
+    <row r="41" spans="5:25" x14ac:dyDescent="0.25">
       <c r="F41" t="s">
         <v>36</v>
       </c>
@@ -1465,7 +1563,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="5:25">
+    <row r="42" spans="5:25" x14ac:dyDescent="0.25">
       <c r="F42" t="s">
         <v>37</v>
       </c>
@@ -1475,7 +1573,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="5:25">
+    <row r="43" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
@@ -1489,7 +1587,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="5:25">
+    <row r="44" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
@@ -1497,7 +1595,7 @@
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
     </row>
-    <row r="45" spans="5:25">
+    <row r="45" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
@@ -1505,7 +1603,7 @@
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
     </row>
-    <row r="46" spans="5:25">
+    <row r="46" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
@@ -1522,7 +1620,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="5:25">
+    <row r="47" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
@@ -1539,7 +1637,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="5:25">
+    <row r="48" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
@@ -1556,7 +1654,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="8:25">
+    <row r="49" spans="8:25" x14ac:dyDescent="0.25">
       <c r="R49" t="s">
         <v>24</v>
       </c>
@@ -1567,22 +1665,22 @@
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="8:25">
+    <row r="50" spans="8:25" x14ac:dyDescent="0.25">
       <c r="Y50" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="8:25">
+    <row r="51" spans="8:25" x14ac:dyDescent="0.25">
       <c r="X51">
         <v>20000</v>
       </c>
     </row>
-    <row r="52" spans="8:25">
+    <row r="52" spans="8:25" x14ac:dyDescent="0.25">
       <c r="Y52">
         <v>2000</v>
       </c>
     </row>
-    <row r="58" spans="8:25">
+    <row r="58" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
@@ -1597,7 +1695,7 @@
       <c r="S58" s="5"/>
       <c r="T58" s="5"/>
     </row>
-    <row r="64" spans="8:25">
+    <row r="64" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
@@ -1614,7 +1712,7 @@
       <c r="W64" s="5"/>
       <c r="X64" s="5"/>
     </row>
-    <row r="65" spans="8:25">
+    <row r="65" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
@@ -1633,7 +1731,7 @@
       <c r="W65" s="5"/>
       <c r="X65" s="5"/>
     </row>
-    <row r="66" spans="8:25">
+    <row r="66" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
@@ -1650,7 +1748,7 @@
       <c r="W66" s="5"/>
       <c r="X66" s="5"/>
     </row>
-    <row r="67" spans="8:25">
+    <row r="67" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
@@ -1667,7 +1765,7 @@
       <c r="W67" s="5"/>
       <c r="X67" s="5"/>
     </row>
-    <row r="68" spans="8:25">
+    <row r="68" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
@@ -1686,7 +1784,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="8:25">
+    <row r="69" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
@@ -1703,7 +1801,7 @@
       <c r="W69" s="5"/>
       <c r="X69" s="5"/>
     </row>
-    <row r="70" spans="8:25">
+    <row r="70" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H70" s="5"/>
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
@@ -1725,7 +1823,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="71" spans="8:25">
+    <row r="71" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
@@ -1750,7 +1848,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="72" spans="8:25">
+    <row r="72" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
@@ -1770,7 +1868,7 @@
       <c r="W72" s="5"/>
       <c r="X72" s="5"/>
     </row>
-    <row r="73" spans="8:25">
+    <row r="73" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
@@ -1790,7 +1888,7 @@
       <c r="W73" s="5"/>
       <c r="X73" s="5"/>
     </row>
-    <row r="74" spans="8:25">
+    <row r="74" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
@@ -1807,7 +1905,7 @@
       <c r="W74" s="5"/>
       <c r="X74" s="5"/>
     </row>
-    <row r="75" spans="8:25">
+    <row r="75" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
@@ -1824,7 +1922,7 @@
       <c r="W75" s="5"/>
       <c r="X75" s="5"/>
     </row>
-    <row r="76" spans="8:25">
+    <row r="76" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
@@ -1842,7 +1940,7 @@
         <v>5650</v>
       </c>
     </row>
-    <row r="77" spans="8:25">
+    <row r="77" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
@@ -1863,7 +1961,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="78" spans="8:25">
+    <row r="78" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
@@ -1878,7 +1976,7 @@
         <v>5311</v>
       </c>
     </row>
-    <row r="79" spans="8:25">
+    <row r="79" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H79" s="5"/>
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
@@ -1899,7 +1997,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="8:25">
+    <row r="80" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
@@ -1917,7 +2015,7 @@
         <v>5011</v>
       </c>
     </row>
-    <row r="81" spans="6:24">
+    <row r="81" spans="6:24" x14ac:dyDescent="0.25">
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
@@ -1934,71 +2032,71 @@
       <c r="W81" s="5"/>
       <c r="X81" s="5"/>
     </row>
-    <row r="82" spans="6:24">
+    <row r="82" spans="6:24" x14ac:dyDescent="0.25">
       <c r="T82" s="5"/>
       <c r="U82" s="5"/>
       <c r="V82" s="5"/>
       <c r="W82" s="5"/>
       <c r="X82" s="5"/>
     </row>
-    <row r="83" spans="6:24">
+    <row r="83" spans="6:24" x14ac:dyDescent="0.25">
       <c r="T83" s="5"/>
       <c r="U83" s="5"/>
       <c r="V83" s="5"/>
       <c r="W83" s="5"/>
       <c r="X83" s="5"/>
     </row>
-    <row r="84" spans="6:24">
+    <row r="84" spans="6:24" x14ac:dyDescent="0.25">
       <c r="T84" s="5"/>
       <c r="U84" s="5"/>
       <c r="V84" s="5"/>
       <c r="W84" s="5"/>
       <c r="X84" s="5"/>
     </row>
-    <row r="85" spans="6:24">
+    <row r="85" spans="6:24" x14ac:dyDescent="0.25">
       <c r="T85" s="5"/>
       <c r="U85" s="5"/>
       <c r="V85" s="5"/>
       <c r="W85" s="5"/>
       <c r="X85" s="5"/>
     </row>
-    <row r="86" spans="6:24">
+    <row r="86" spans="6:24" x14ac:dyDescent="0.25">
       <c r="T86" s="5"/>
       <c r="U86" s="5"/>
       <c r="V86" s="5"/>
       <c r="W86" s="5"/>
       <c r="X86" s="5"/>
     </row>
-    <row r="87" spans="6:24">
+    <row r="87" spans="6:24" x14ac:dyDescent="0.25">
       <c r="T87" s="5"/>
       <c r="U87" s="5"/>
       <c r="V87" s="5"/>
       <c r="W87" s="5"/>
       <c r="X87" s="5"/>
     </row>
-    <row r="88" spans="6:24">
+    <row r="88" spans="6:24" x14ac:dyDescent="0.25">
       <c r="T88" s="5"/>
       <c r="U88" s="5"/>
       <c r="V88" s="5"/>
       <c r="W88" s="5"/>
       <c r="X88" s="5"/>
     </row>
-    <row r="90" spans="6:24">
+    <row r="90" spans="6:24" x14ac:dyDescent="0.25">
       <c r="F90" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="6:24">
+    <row r="95" spans="6:24" x14ac:dyDescent="0.25">
       <c r="V95" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="96" spans="6:24">
+    <row r="96" spans="6:24" x14ac:dyDescent="0.25">
       <c r="V96" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="97" spans="20:22">
+    <row r="97" spans="20:22" x14ac:dyDescent="0.25">
       <c r="U97" t="s">
         <v>64</v>
       </c>
@@ -2006,17 +2104,17 @@
         <v>53</v>
       </c>
     </row>
-    <row r="98" spans="20:22">
+    <row r="98" spans="20:22" x14ac:dyDescent="0.25">
       <c r="V98" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="99" spans="20:22">
+    <row r="99" spans="20:22" x14ac:dyDescent="0.25">
       <c r="V99" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="100" spans="20:22">
+    <row r="100" spans="20:22" x14ac:dyDescent="0.25">
       <c r="T100" t="s">
         <v>60</v>
       </c>
@@ -2024,7 +2122,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="116" spans="20:22">
+    <row r="116" spans="20:22" x14ac:dyDescent="0.25">
       <c r="T116" t="s">
         <v>67</v>
       </c>
@@ -2032,7 +2130,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="117" spans="20:22">
+    <row r="117" spans="20:22" x14ac:dyDescent="0.25">
       <c r="V117" t="s">
         <v>66</v>
       </c>
@@ -2044,24 +2142,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B4:T80"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B4:T84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="P68" sqref="P68"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" customWidth="1"/>
-    <col min="10" max="10" width="6.77734375" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" customWidth="1"/>
     <col min="11" max="11" width="7" customWidth="1"/>
-    <col min="12" max="12" width="13.44140625" customWidth="1"/>
-    <col min="13" max="13" width="15.5546875" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:18">
+    <row r="4" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D4" s="1" t="s">
         <v>68</v>
       </c>
@@ -2078,7 +2176,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="4:18">
+    <row r="5" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>87</v>
       </c>
@@ -2095,7 +2193,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="4:18">
+    <row r="6" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>70</v>
       </c>
@@ -2112,7 +2210,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="4:18">
+    <row r="7" spans="4:18" x14ac:dyDescent="0.25">
       <c r="G7" t="s">
         <v>72</v>
       </c>
@@ -2123,7 +2221,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="4:18">
+    <row r="8" spans="4:18" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
         <v>142</v>
       </c>
@@ -2134,14 +2232,14 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="4:18">
+    <row r="9" spans="4:18" x14ac:dyDescent="0.25">
       <c r="F9" s="9"/>
       <c r="G9" s="9" t="s">
         <v>73</v>
       </c>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="4:18">
+    <row r="10" spans="4:18" x14ac:dyDescent="0.25">
       <c r="G10" t="s">
         <v>95</v>
       </c>
@@ -2149,7 +2247,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="4:18">
+    <row r="11" spans="4:18" x14ac:dyDescent="0.25">
       <c r="F11" s="3">
         <v>0</v>
       </c>
@@ -2160,17 +2258,17 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="4:18">
+    <row r="12" spans="4:18" x14ac:dyDescent="0.25">
       <c r="J12" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="4:18">
+    <row r="13" spans="4:18" x14ac:dyDescent="0.25">
       <c r="J13" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="4:18">
+    <row r="14" spans="4:18" x14ac:dyDescent="0.25">
       <c r="M14" s="1" t="s">
         <v>83</v>
       </c>
@@ -2180,7 +2278,7 @@
       </c>
       <c r="R14" s="1"/>
     </row>
-    <row r="15" spans="4:18">
+    <row r="15" spans="4:18" x14ac:dyDescent="0.25">
       <c r="M15" t="s">
         <v>86</v>
       </c>
@@ -2188,7 +2286,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="4:18">
+    <row r="16" spans="4:18" x14ac:dyDescent="0.25">
       <c r="M16" t="s">
         <v>78</v>
       </c>
@@ -2196,7 +2294,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="4:20">
+    <row r="17" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D17" s="1" t="s">
         <v>93</v>
       </c>
@@ -2207,7 +2305,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="4:20">
+    <row r="18" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>95</v>
       </c>
@@ -2221,7 +2319,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="4:20">
+    <row r="19" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>94</v>
       </c>
@@ -2232,7 +2330,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="4:20">
+    <row r="20" spans="4:20" x14ac:dyDescent="0.25">
       <c r="K20">
         <v>600</v>
       </c>
@@ -2243,7 +2341,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="4:20">
+    <row r="21" spans="4:20" x14ac:dyDescent="0.25">
       <c r="L21">
         <v>400</v>
       </c>
@@ -2251,7 +2349,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="4:20">
+    <row r="22" spans="4:20" x14ac:dyDescent="0.25">
       <c r="G22" s="3"/>
       <c r="H22" s="3" t="s">
         <v>130</v>
@@ -2266,7 +2364,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="4:20">
+    <row r="23" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D23" s="1" t="s">
         <v>99</v>
       </c>
@@ -2282,7 +2380,7 @@
       </c>
       <c r="N23" s="3"/>
     </row>
-    <row r="24" spans="4:20">
+    <row r="24" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>101</v>
       </c>
@@ -2290,7 +2388,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="4:20">
+    <row r="25" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>100</v>
       </c>
@@ -2298,17 +2396,17 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="4:20">
+    <row r="26" spans="4:20" x14ac:dyDescent="0.25">
       <c r="G26" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="4:20">
+    <row r="27" spans="4:20" x14ac:dyDescent="0.25">
       <c r="G27" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="28" spans="4:20">
+    <row r="28" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
@@ -2327,7 +2425,7 @@
       <c r="S28" s="7"/>
       <c r="T28" s="7"/>
     </row>
-    <row r="37" spans="6:18">
+    <row r="37" spans="6:18" x14ac:dyDescent="0.25">
       <c r="G37" s="1" t="s">
         <v>102</v>
       </c>
@@ -2341,7 +2439,7 @@
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
     </row>
-    <row r="38" spans="6:18">
+    <row r="38" spans="6:18" x14ac:dyDescent="0.25">
       <c r="G38" t="s">
         <v>106</v>
       </c>
@@ -2352,7 +2450,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="6:18">
+    <row r="39" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F39" t="s">
         <v>110</v>
       </c>
@@ -2366,7 +2464,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="6:18">
+    <row r="40" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F40">
         <v>20000</v>
       </c>
@@ -2380,7 +2478,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="6:18">
+    <row r="41" spans="6:18" x14ac:dyDescent="0.25">
       <c r="K41">
         <v>20000</v>
       </c>
@@ -2391,7 +2489,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="6:18">
+    <row r="42" spans="6:18" x14ac:dyDescent="0.25">
       <c r="J42" t="s">
         <v>113</v>
       </c>
@@ -2405,7 +2503,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="6:18">
+    <row r="43" spans="6:18" x14ac:dyDescent="0.25">
       <c r="K43">
         <v>5000</v>
       </c>
@@ -2416,7 +2514,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="6:18">
+    <row r="44" spans="6:18" x14ac:dyDescent="0.25">
       <c r="K44" t="s">
         <v>111</v>
       </c>
@@ -2424,7 +2522,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="49" spans="2:20">
+    <row r="49" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -2443,12 +2541,12 @@
       <c r="S49" s="2"/>
       <c r="T49" s="2"/>
     </row>
-    <row r="54" spans="2:20">
+    <row r="54" spans="2:20" x14ac:dyDescent="0.25">
       <c r="E54" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="55" spans="2:20">
+    <row r="55" spans="2:20" x14ac:dyDescent="0.25">
       <c r="E55" t="s">
         <v>84</v>
       </c>
@@ -2456,7 +2554,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="56" spans="2:20">
+    <row r="56" spans="2:20" x14ac:dyDescent="0.25">
       <c r="E56" s="3" t="s">
         <v>100</v>
       </c>
@@ -2467,7 +2565,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="57" spans="2:20">
+    <row r="57" spans="2:20" x14ac:dyDescent="0.25">
       <c r="E57" s="3" t="s">
         <v>115</v>
       </c>
@@ -2478,12 +2576,12 @@
         <v>118</v>
       </c>
     </row>
-    <row r="58" spans="2:20">
+    <row r="58" spans="2:20" x14ac:dyDescent="0.25">
       <c r="M58" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="60" spans="2:20">
+    <row r="60" spans="2:20" x14ac:dyDescent="0.25">
       <c r="L60" t="s">
         <v>122</v>
       </c>
@@ -2491,7 +2589,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="2:20">
+    <row r="62" spans="2:20" x14ac:dyDescent="0.25">
       <c r="K62" s="3"/>
       <c r="L62" s="3" t="s">
         <v>123</v>
@@ -2502,7 +2600,7 @@
       </c>
       <c r="P62" s="3"/>
     </row>
-    <row r="63" spans="2:20">
+    <row r="63" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>145</v>
       </c>
@@ -2521,7 +2619,7 @@
       </c>
       <c r="P63" s="3"/>
     </row>
-    <row r="64" spans="2:20">
+    <row r="64" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>147</v>
       </c>
@@ -2533,7 +2631,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="66" spans="2:16">
+    <row r="66" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>150</v>
       </c>
@@ -2544,7 +2642,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="67" spans="2:16">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>151</v>
       </c>
@@ -2558,12 +2656,12 @@
         <v>155</v>
       </c>
     </row>
-    <row r="68" spans="2:16">
+    <row r="68" spans="2:17" x14ac:dyDescent="0.25">
       <c r="G68" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="69" spans="2:16">
+    <row r="69" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>20</v>
       </c>
@@ -2577,7 +2675,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="70" spans="2:16">
+    <row r="70" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>152</v>
       </c>
@@ -2591,7 +2689,15 @@
         <v>135</v>
       </c>
     </row>
-    <row r="74" spans="2:16">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="N73" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="O73" s="10"/>
+      <c r="P73" s="10"/>
+      <c r="Q73" s="10"/>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E74" s="2" t="s">
         <v>140</v>
       </c>
@@ -2601,8 +2707,14 @@
       </c>
       <c r="J74" s="2"/>
       <c r="K74" s="1"/>
-    </row>
-    <row r="75" spans="2:16">
+      <c r="N74" t="s">
+        <v>158</v>
+      </c>
+      <c r="P74" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E75" s="3" t="s">
         <v>105</v>
       </c>
@@ -2611,8 +2723,14 @@
         <v>105</v>
       </c>
       <c r="J75" s="3"/>
-    </row>
-    <row r="76" spans="2:16">
+      <c r="N75" t="s">
+        <v>159</v>
+      </c>
+      <c r="P75" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E76" s="3" t="s">
         <v>90</v>
       </c>
@@ -2621,8 +2739,11 @@
         <v>138</v>
       </c>
       <c r="J76" s="3"/>
-    </row>
-    <row r="77" spans="2:16">
+      <c r="P76" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E77" s="3" t="s">
         <v>137</v>
       </c>
@@ -2631,16 +2752,22 @@
         <v>88</v>
       </c>
       <c r="J77" s="3"/>
-    </row>
-    <row r="78" spans="2:16">
+      <c r="P77" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="78" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
       <c r="I78" s="3" t="s">
         <v>89</v>
       </c>
       <c r="J78" s="3"/>
-    </row>
-    <row r="79" spans="2:16">
+      <c r="P78" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E79" s="3" t="s">
         <v>112</v>
       </c>
@@ -2649,26 +2776,62 @@
         <v>101</v>
       </c>
       <c r="J79" s="3"/>
-    </row>
-    <row r="80" spans="2:16">
+      <c r="P79" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="80" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E80" s="3" t="s">
         <v>141</v>
       </c>
       <c r="F80" s="3"/>
+      <c r="O80" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="81" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M81" t="s">
+        <v>167</v>
+      </c>
+      <c r="O81" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="82" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M82" t="s">
+        <v>169</v>
+      </c>
+      <c r="O82" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="84" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M84" t="s">
+        <v>171</v>
+      </c>
+      <c r="N84" t="s">
+        <v>170</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="N73:Q73"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FreeLance\Mokhtar Elsamhy\Fish Business\FishBusiness\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88370027-5DA8-401C-886D-D1B62B583BFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="227">
   <si>
     <t>حلقه سمك</t>
   </si>
@@ -538,13 +532,178 @@
   </si>
   <si>
     <t>عرض الفاتورة</t>
+  </si>
+  <si>
+    <t>النور</t>
+  </si>
+  <si>
+    <t>جمبرى</t>
+  </si>
+  <si>
+    <t>جمبرى ابيض</t>
+  </si>
+  <si>
+    <t>بربونى</t>
+  </si>
+  <si>
+    <t>عموله</t>
+  </si>
+  <si>
+    <t>صافى</t>
+  </si>
+  <si>
+    <t>موس</t>
+  </si>
+  <si>
+    <t>شركوس</t>
+  </si>
+  <si>
+    <t>جبرى احمر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فى حاله ان كل سرحه ليها عدد انفار مختلف </t>
+  </si>
+  <si>
+    <t>عدد الانفار</t>
+  </si>
+  <si>
+    <t xml:space="preserve">صافى </t>
+  </si>
+  <si>
+    <t>2950/2</t>
+  </si>
+  <si>
+    <t>حصه الفرد</t>
+  </si>
+  <si>
+    <t>250*2*6</t>
+  </si>
+  <si>
+    <t>3950-3000</t>
+  </si>
+  <si>
+    <t>950هالك</t>
+  </si>
+  <si>
+    <t>3000/2</t>
+  </si>
+  <si>
+    <t>1500/6</t>
+  </si>
+  <si>
+    <t>الفرد:250</t>
+  </si>
+  <si>
+    <t>1295/2</t>
+  </si>
+  <si>
+    <t>130*2*5</t>
+  </si>
+  <si>
+    <t>هالك 2045</t>
+  </si>
+  <si>
+    <t>هالك 795</t>
+  </si>
+  <si>
+    <t>طرح</t>
+  </si>
+  <si>
+    <t>بعد خصم الهالك</t>
+  </si>
+  <si>
+    <t>قسمه على 2</t>
+  </si>
+  <si>
+    <t>الانفار</t>
+  </si>
+  <si>
+    <t>4150/6</t>
+  </si>
+  <si>
+    <t>4150-700</t>
+  </si>
+  <si>
+    <t>ايراد المركب</t>
+  </si>
+  <si>
+    <t>لو عدد الانفار ثابت</t>
+  </si>
+  <si>
+    <t>قسمه على 6</t>
+  </si>
+  <si>
+    <t>عايزها 700</t>
+  </si>
+  <si>
+    <t>700*2*6</t>
+  </si>
+  <si>
+    <t>مركب</t>
+  </si>
+  <si>
+    <t>انفار</t>
+  </si>
+  <si>
+    <t>12090-8400</t>
+  </si>
+  <si>
+    <t>المفروض اللى يتم خصمه من الهالك علشان يكون نصيب الفرد 700</t>
+  </si>
+  <si>
+    <t>12090-3690</t>
+  </si>
+  <si>
+    <t>4200/6</t>
+  </si>
+  <si>
+    <t>4200-700</t>
+  </si>
+  <si>
+    <t>المخصوم من الهالك</t>
+  </si>
+  <si>
+    <t>لايجاد نصيب الفرد</t>
+  </si>
+  <si>
+    <t>جمبرى احمر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">صافى الانتاج </t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>txtbox</t>
+  </si>
+  <si>
+    <t>btn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">btn </t>
+  </si>
+  <si>
+    <t>تغيير</t>
+  </si>
+  <si>
+    <t>حساب</t>
+  </si>
+  <si>
+    <t xml:space="preserve">المفروض دفعه من اهالك </t>
+  </si>
+  <si>
+    <t>مرتب الفرد</t>
+  </si>
+  <si>
+    <t>صافى انتاج المركب</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -559,8 +718,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="0.59999389629810485"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -591,6 +757,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -604,7 +794,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -615,6 +805,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -678,7 +873,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -710,27 +905,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -762,24 +939,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -955,22 +1114,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22">
       <c r="E1">
         <v>2500</v>
       </c>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22">
       <c r="E2">
         <v>3000</v>
       </c>
@@ -979,7 +1138,7 @@
       </c>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22">
       <c r="E3">
         <v>10000</v>
       </c>
@@ -988,7 +1147,7 @@
       </c>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22">
       <c r="F4">
         <v>7.5</v>
       </c>
@@ -997,7 +1156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -1016,7 +1175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
@@ -1028,7 +1187,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -1053,7 +1212,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -1075,7 +1234,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -1091,7 +1250,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -1109,7 +1268,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -1119,7 +1278,7 @@
       <c r="I11" s="3"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1137,7 +1296,7 @@
       </c>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1159,7 +1318,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -1175,7 +1334,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -1200,7 +1359,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -1219,7 +1378,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -1241,7 +1400,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -1260,7 +1419,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -1276,7 +1435,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -1295,7 +1454,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -1305,7 +1464,7 @@
       </c>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -1318,7 +1477,7 @@
       </c>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -1331,7 +1490,7 @@
       </c>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -1344,7 +1503,7 @@
       </c>
       <c r="M24" s="5"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24">
       <c r="H25" t="s">
         <v>24</v>
       </c>
@@ -1352,12 +1511,12 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24">
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24">
       <c r="E27" t="s">
         <v>26</v>
       </c>
@@ -1368,7 +1527,7 @@
         <v>5650</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24">
       <c r="I28" s="4">
         <v>0.06</v>
       </c>
@@ -1387,12 +1546,12 @@
       <c r="R28" s="6"/>
       <c r="S28" s="6"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24">
       <c r="I29">
         <v>5311</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24">
       <c r="E30">
         <v>100</v>
       </c>
@@ -1409,7 +1568,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24">
       <c r="H31" t="s">
         <v>29</v>
       </c>
@@ -1417,7 +1576,7 @@
         <v>5011</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24">
       <c r="I32">
         <v>2500</v>
       </c>
@@ -1437,7 +1596,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:25">
       <c r="I33">
         <v>2500</v>
       </c>
@@ -1451,7 +1610,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:25">
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5" t="s">
@@ -1470,7 +1629,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:25">
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
@@ -1487,7 +1646,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:25">
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
@@ -1504,7 +1663,7 @@
       <c r="W36" s="5"/>
       <c r="X36" s="5"/>
     </row>
-    <row r="37" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:25">
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
@@ -1515,7 +1674,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="38" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:25">
       <c r="E38" s="5" t="s">
         <v>41</v>
       </c>
@@ -1530,7 +1689,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="39" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:25">
       <c r="F39" t="s">
         <v>34</v>
       </c>
@@ -1543,7 +1702,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="40" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:25">
       <c r="F40" t="s">
         <v>35</v>
       </c>
@@ -1553,7 +1712,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:25">
       <c r="F41" t="s">
         <v>36</v>
       </c>
@@ -1563,7 +1722,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:25">
       <c r="F42" t="s">
         <v>37</v>
       </c>
@@ -1573,7 +1732,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:25">
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
@@ -1587,7 +1746,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:25">
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
@@ -1595,7 +1754,7 @@
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
     </row>
-    <row r="45" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:25">
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
@@ -1603,7 +1762,7 @@
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
     </row>
-    <row r="46" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:25">
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
@@ -1620,7 +1779,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:25">
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
@@ -1637,7 +1796,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:25">
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
@@ -1654,7 +1813,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="8:25">
       <c r="R49" t="s">
         <v>24</v>
       </c>
@@ -1665,22 +1824,22 @@
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="8:25">
       <c r="Y50" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="8:25">
       <c r="X51">
         <v>20000</v>
       </c>
     </row>
-    <row r="52" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="8:25">
       <c r="Y52">
         <v>2000</v>
       </c>
     </row>
-    <row r="58" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="8:25">
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
@@ -1695,7 +1854,7 @@
       <c r="S58" s="5"/>
       <c r="T58" s="5"/>
     </row>
-    <row r="64" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="8:25">
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
@@ -1712,7 +1871,7 @@
       <c r="W64" s="5"/>
       <c r="X64" s="5"/>
     </row>
-    <row r="65" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="8:25">
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
@@ -1731,7 +1890,7 @@
       <c r="W65" s="5"/>
       <c r="X65" s="5"/>
     </row>
-    <row r="66" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="8:25">
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
@@ -1748,7 +1907,7 @@
       <c r="W66" s="5"/>
       <c r="X66" s="5"/>
     </row>
-    <row r="67" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="8:25">
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
@@ -1765,7 +1924,7 @@
       <c r="W67" s="5"/>
       <c r="X67" s="5"/>
     </row>
-    <row r="68" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="8:25">
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
@@ -1784,7 +1943,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="8:25">
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
@@ -1801,7 +1960,7 @@
       <c r="W69" s="5"/>
       <c r="X69" s="5"/>
     </row>
-    <row r="70" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="8:25">
       <c r="H70" s="5"/>
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
@@ -1823,7 +1982,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="71" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="8:25">
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
@@ -1848,7 +2007,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="72" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="8:25">
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
@@ -1868,7 +2027,7 @@
       <c r="W72" s="5"/>
       <c r="X72" s="5"/>
     </row>
-    <row r="73" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="8:25">
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
@@ -1888,7 +2047,7 @@
       <c r="W73" s="5"/>
       <c r="X73" s="5"/>
     </row>
-    <row r="74" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="8:25">
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
@@ -1905,7 +2064,7 @@
       <c r="W74" s="5"/>
       <c r="X74" s="5"/>
     </row>
-    <row r="75" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="8:25">
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
@@ -1922,7 +2081,7 @@
       <c r="W75" s="5"/>
       <c r="X75" s="5"/>
     </row>
-    <row r="76" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="8:25">
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
@@ -1940,7 +2099,7 @@
         <v>5650</v>
       </c>
     </row>
-    <row r="77" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="8:25">
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
@@ -1961,7 +2120,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="78" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="78" spans="8:25">
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
@@ -1976,7 +2135,7 @@
         <v>5311</v>
       </c>
     </row>
-    <row r="79" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="8:25">
       <c r="H79" s="5"/>
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
@@ -1997,7 +2156,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="80" spans="8:25">
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
@@ -2015,7 +2174,7 @@
         <v>5011</v>
       </c>
     </row>
-    <row r="81" spans="6:24" x14ac:dyDescent="0.25">
+    <row r="81" spans="6:24">
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
@@ -2032,71 +2191,71 @@
       <c r="W81" s="5"/>
       <c r="X81" s="5"/>
     </row>
-    <row r="82" spans="6:24" x14ac:dyDescent="0.25">
+    <row r="82" spans="6:24">
       <c r="T82" s="5"/>
       <c r="U82" s="5"/>
       <c r="V82" s="5"/>
       <c r="W82" s="5"/>
       <c r="X82" s="5"/>
     </row>
-    <row r="83" spans="6:24" x14ac:dyDescent="0.25">
+    <row r="83" spans="6:24">
       <c r="T83" s="5"/>
       <c r="U83" s="5"/>
       <c r="V83" s="5"/>
       <c r="W83" s="5"/>
       <c r="X83" s="5"/>
     </row>
-    <row r="84" spans="6:24" x14ac:dyDescent="0.25">
+    <row r="84" spans="6:24">
       <c r="T84" s="5"/>
       <c r="U84" s="5"/>
       <c r="V84" s="5"/>
       <c r="W84" s="5"/>
       <c r="X84" s="5"/>
     </row>
-    <row r="85" spans="6:24" x14ac:dyDescent="0.25">
+    <row r="85" spans="6:24">
       <c r="T85" s="5"/>
       <c r="U85" s="5"/>
       <c r="V85" s="5"/>
       <c r="W85" s="5"/>
       <c r="X85" s="5"/>
     </row>
-    <row r="86" spans="6:24" x14ac:dyDescent="0.25">
+    <row r="86" spans="6:24">
       <c r="T86" s="5"/>
       <c r="U86" s="5"/>
       <c r="V86" s="5"/>
       <c r="W86" s="5"/>
       <c r="X86" s="5"/>
     </row>
-    <row r="87" spans="6:24" x14ac:dyDescent="0.25">
+    <row r="87" spans="6:24">
       <c r="T87" s="5"/>
       <c r="U87" s="5"/>
       <c r="V87" s="5"/>
       <c r="W87" s="5"/>
       <c r="X87" s="5"/>
     </row>
-    <row r="88" spans="6:24" x14ac:dyDescent="0.25">
+    <row r="88" spans="6:24">
       <c r="T88" s="5"/>
       <c r="U88" s="5"/>
       <c r="V88" s="5"/>
       <c r="W88" s="5"/>
       <c r="X88" s="5"/>
     </row>
-    <row r="90" spans="6:24" x14ac:dyDescent="0.25">
+    <row r="90" spans="6:24">
       <c r="F90" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="6:24" x14ac:dyDescent="0.25">
+    <row r="95" spans="6:24">
       <c r="V95" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="96" spans="6:24" x14ac:dyDescent="0.25">
+    <row r="96" spans="6:24">
       <c r="V96" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="97" spans="20:22" x14ac:dyDescent="0.25">
+    <row r="97" spans="20:22">
       <c r="U97" t="s">
         <v>64</v>
       </c>
@@ -2104,17 +2263,17 @@
         <v>53</v>
       </c>
     </row>
-    <row r="98" spans="20:22" x14ac:dyDescent="0.25">
+    <row r="98" spans="20:22">
       <c r="V98" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="99" spans="20:22" x14ac:dyDescent="0.25">
+    <row r="99" spans="20:22">
       <c r="V99" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="100" spans="20:22" x14ac:dyDescent="0.25">
+    <row r="100" spans="20:22">
       <c r="T100" t="s">
         <v>60</v>
       </c>
@@ -2122,7 +2281,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="116" spans="20:22" x14ac:dyDescent="0.25">
+    <row r="116" spans="20:22">
       <c r="T116" t="s">
         <v>67</v>
       </c>
@@ -2130,7 +2289,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="117" spans="20:22" x14ac:dyDescent="0.25">
+    <row r="117" spans="20:22">
       <c r="V117" t="s">
         <v>66</v>
       </c>
@@ -2142,24 +2301,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:T84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D52" sqref="D52:S82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" customWidth="1"/>
     <col min="11" max="11" width="7" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" customWidth="1"/>
+    <col min="12" max="12" width="13.44140625" customWidth="1"/>
+    <col min="13" max="13" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:18">
       <c r="D4" s="1" t="s">
         <v>68</v>
       </c>
@@ -2176,7 +2335,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:18">
       <c r="D5" t="s">
         <v>87</v>
       </c>
@@ -2193,7 +2352,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:18">
       <c r="D6" t="s">
         <v>70</v>
       </c>
@@ -2210,7 +2369,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:18">
       <c r="G7" t="s">
         <v>72</v>
       </c>
@@ -2221,7 +2380,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:18">
       <c r="F8" t="s">
         <v>142</v>
       </c>
@@ -2232,14 +2391,14 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:18">
       <c r="F9" s="9"/>
       <c r="G9" s="9" t="s">
         <v>73</v>
       </c>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:18">
       <c r="G10" t="s">
         <v>95</v>
       </c>
@@ -2247,7 +2406,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:18">
       <c r="F11" s="3">
         <v>0</v>
       </c>
@@ -2258,17 +2417,17 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:18">
       <c r="J12" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:18">
       <c r="J13" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:18">
       <c r="M14" s="1" t="s">
         <v>83</v>
       </c>
@@ -2278,7 +2437,7 @@
       </c>
       <c r="R14" s="1"/>
     </row>
-    <row r="15" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:18">
       <c r="M15" t="s">
         <v>86</v>
       </c>
@@ -2286,7 +2445,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:18">
       <c r="M16" t="s">
         <v>78</v>
       </c>
@@ -2294,7 +2453,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:20">
       <c r="D17" s="1" t="s">
         <v>93</v>
       </c>
@@ -2305,7 +2464,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:20">
       <c r="D18" t="s">
         <v>95</v>
       </c>
@@ -2319,7 +2478,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:20">
       <c r="D19" t="s">
         <v>94</v>
       </c>
@@ -2330,7 +2489,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:20">
       <c r="K20">
         <v>600</v>
       </c>
@@ -2341,7 +2500,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:20">
       <c r="L21">
         <v>400</v>
       </c>
@@ -2349,7 +2508,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:20">
       <c r="G22" s="3"/>
       <c r="H22" s="3" t="s">
         <v>130</v>
@@ -2364,7 +2523,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:20">
       <c r="D23" s="1" t="s">
         <v>99</v>
       </c>
@@ -2380,7 +2539,7 @@
       </c>
       <c r="N23" s="3"/>
     </row>
-    <row r="24" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:20">
       <c r="D24" t="s">
         <v>101</v>
       </c>
@@ -2388,7 +2547,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:20">
       <c r="D25" t="s">
         <v>100</v>
       </c>
@@ -2396,17 +2555,17 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:20">
       <c r="G26" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:20">
       <c r="G27" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="28" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:20">
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
@@ -2425,7 +2584,7 @@
       <c r="S28" s="7"/>
       <c r="T28" s="7"/>
     </row>
-    <row r="37" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="6:18">
       <c r="G37" s="1" t="s">
         <v>102</v>
       </c>
@@ -2439,7 +2598,7 @@
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
     </row>
-    <row r="38" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="6:18">
       <c r="G38" t="s">
         <v>106</v>
       </c>
@@ -2450,7 +2609,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="6:18">
       <c r="F39" t="s">
         <v>110</v>
       </c>
@@ -2464,7 +2623,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="6:18">
       <c r="F40">
         <v>20000</v>
       </c>
@@ -2478,7 +2637,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="6:18">
       <c r="K41">
         <v>20000</v>
       </c>
@@ -2489,7 +2648,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="6:18">
       <c r="J42" t="s">
         <v>113</v>
       </c>
@@ -2503,7 +2662,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="6:18">
       <c r="K43">
         <v>5000</v>
       </c>
@@ -2514,7 +2673,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="6:18">
       <c r="K44" t="s">
         <v>111</v>
       </c>
@@ -2522,7 +2681,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="49" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:20">
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -2541,12 +2700,12 @@
       <c r="S49" s="2"/>
       <c r="T49" s="2"/>
     </row>
-    <row r="54" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:20">
       <c r="E54" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="55" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:20">
       <c r="E55" t="s">
         <v>84</v>
       </c>
@@ -2554,7 +2713,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="56" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:20">
       <c r="E56" s="3" t="s">
         <v>100</v>
       </c>
@@ -2565,7 +2724,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="57" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:20">
       <c r="E57" s="3" t="s">
         <v>115</v>
       </c>
@@ -2576,12 +2735,12 @@
         <v>118</v>
       </c>
     </row>
-    <row r="58" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:20">
       <c r="M58" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="60" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:20">
       <c r="L60" t="s">
         <v>122</v>
       </c>
@@ -2589,7 +2748,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:20">
       <c r="K62" s="3"/>
       <c r="L62" s="3" t="s">
         <v>123</v>
@@ -2600,7 +2759,7 @@
       </c>
       <c r="P62" s="3"/>
     </row>
-    <row r="63" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:20">
       <c r="B63" t="s">
         <v>145</v>
       </c>
@@ -2619,7 +2778,7 @@
       </c>
       <c r="P63" s="3"/>
     </row>
-    <row r="64" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:20">
       <c r="B64" t="s">
         <v>147</v>
       </c>
@@ -2631,7 +2790,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:17">
       <c r="B66" t="s">
         <v>150</v>
       </c>
@@ -2642,7 +2801,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:17">
       <c r="B67" t="s">
         <v>151</v>
       </c>
@@ -2656,12 +2815,12 @@
         <v>155</v>
       </c>
     </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:17">
       <c r="G68" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:17">
       <c r="B69">
         <v>20</v>
       </c>
@@ -2675,7 +2834,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:17">
       <c r="B70" t="s">
         <v>152</v>
       </c>
@@ -2689,15 +2848,15 @@
         <v>135</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="N73" s="10" t="s">
+    <row r="73" spans="2:17">
+      <c r="N73" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="O73" s="10"/>
-      <c r="P73" s="10"/>
-      <c r="Q73" s="10"/>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="O73" s="15"/>
+      <c r="P73" s="15"/>
+      <c r="Q73" s="15"/>
+    </row>
+    <row r="74" spans="2:17">
       <c r="E74" s="2" t="s">
         <v>140</v>
       </c>
@@ -2714,7 +2873,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:17">
       <c r="E75" s="3" t="s">
         <v>105</v>
       </c>
@@ -2730,7 +2889,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:17">
       <c r="E76" s="3" t="s">
         <v>90</v>
       </c>
@@ -2743,7 +2902,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:17">
       <c r="E77" s="3" t="s">
         <v>137</v>
       </c>
@@ -2756,7 +2915,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:17">
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
       <c r="I78" s="3" t="s">
@@ -2767,7 +2926,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:17">
       <c r="E79" s="3" t="s">
         <v>112</v>
       </c>
@@ -2780,7 +2939,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:17">
       <c r="E80" s="3" t="s">
         <v>141</v>
       </c>
@@ -2789,7 +2948,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="81" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="13:17">
       <c r="M81" t="s">
         <v>167</v>
       </c>
@@ -2797,7 +2956,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="82" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="13:17">
       <c r="M82" t="s">
         <v>169</v>
       </c>
@@ -2808,7 +2967,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="84" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="13:17">
       <c r="M84" t="s">
         <v>171</v>
       </c>
@@ -2826,13 +2985,776 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:V68"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="Q55" sqref="Q55:V55"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="2" spans="1:21">
+      <c r="H2" s="14"/>
+      <c r="I2" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="B3" s="13">
+        <v>13000</v>
+      </c>
+      <c r="C3">
+        <v>12000</v>
+      </c>
+      <c r="D3">
+        <v>11000</v>
+      </c>
+      <c r="E3">
+        <v>10000</v>
+      </c>
+      <c r="O3" s="3"/>
+      <c r="Q3" s="10"/>
+      <c r="T3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="O4" s="3"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5">
+        <v>1</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="O5" s="3"/>
+      <c r="R5" s="5">
+        <v>2600</v>
+      </c>
+      <c r="S5" s="5">
+        <v>1</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="D6">
+        <v>1475</v>
+      </c>
+      <c r="O6" s="3"/>
+      <c r="R6">
+        <v>700</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="I7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L7" t="s">
+        <v>183</v>
+      </c>
+      <c r="O7" s="3"/>
+      <c r="R7">
+        <v>900</v>
+      </c>
+      <c r="S7">
+        <v>3</v>
+      </c>
+      <c r="T7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="E8">
+        <v>1475</v>
+      </c>
+      <c r="F8" t="s">
+        <v>184</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="I8">
+        <v>6</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="L8" s="11">
+        <v>3950</v>
+      </c>
+      <c r="O8" s="3"/>
+      <c r="R8">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="L9">
+        <v>2950</v>
+      </c>
+      <c r="O9" s="3"/>
+      <c r="Q9" t="s">
+        <v>176</v>
+      </c>
+      <c r="R9">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10">
+        <v>245.8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>185</v>
+      </c>
+      <c r="D10">
+        <v>1475</v>
+      </c>
+      <c r="L10">
+        <v>3000</v>
+      </c>
+      <c r="O10" s="3"/>
+      <c r="Q10" t="s">
+        <v>177</v>
+      </c>
+      <c r="R10">
+        <v>3950</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11">
+        <v>250</v>
+      </c>
+      <c r="O11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="C12">
+        <v>3000</v>
+      </c>
+      <c r="D12" t="s">
+        <v>186</v>
+      </c>
+      <c r="H12" s="12">
+        <v>130</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="L12" s="11">
+        <v>2095</v>
+      </c>
+      <c r="O12" s="3"/>
+      <c r="Q12" s="10"/>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="D13">
+        <v>3000</v>
+      </c>
+      <c r="L13">
+        <v>1295</v>
+      </c>
+      <c r="O13" s="3"/>
+      <c r="R13">
+        <v>280</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="C14">
+        <v>950</v>
+      </c>
+      <c r="D14" t="s">
+        <v>187</v>
+      </c>
+      <c r="L14">
+        <v>1300</v>
+      </c>
+      <c r="O14" s="3"/>
+      <c r="R14">
+        <v>1000</v>
+      </c>
+      <c r="S14">
+        <v>2</v>
+      </c>
+      <c r="T14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="O15" s="3"/>
+      <c r="R15">
+        <v>950</v>
+      </c>
+      <c r="S15">
+        <v>2</v>
+      </c>
+      <c r="T15" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="H16" s="12">
+        <v>500</v>
+      </c>
+      <c r="I16">
+        <v>4</v>
+      </c>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="L16" s="11">
+        <v>6045</v>
+      </c>
+      <c r="O16" s="3"/>
+      <c r="R16">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="17" spans="4:21">
+      <c r="L17">
+        <v>4045</v>
+      </c>
+      <c r="O17" s="3"/>
+      <c r="R17">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="4:21">
+      <c r="D18" t="s">
+        <v>189</v>
+      </c>
+      <c r="E18">
+        <v>1500</v>
+      </c>
+      <c r="F18" t="s">
+        <v>190</v>
+      </c>
+      <c r="G18">
+        <v>250</v>
+      </c>
+      <c r="L18">
+        <v>4000</v>
+      </c>
+      <c r="O18" s="3"/>
+      <c r="R18">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="19" spans="4:21">
+      <c r="O19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="4:21">
+      <c r="H20" s="12"/>
+      <c r="J20" s="3">
+        <v>3790</v>
+      </c>
+      <c r="L20" s="11">
+        <v>12090</v>
+      </c>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="4:21">
+      <c r="O21" s="3"/>
+      <c r="R21">
+        <v>2600</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="4:21">
+      <c r="F22" t="s">
+        <v>192</v>
+      </c>
+      <c r="G22">
+        <v>647.5</v>
+      </c>
+      <c r="O22" s="3"/>
+      <c r="R22">
+        <v>700</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="4:21">
+      <c r="F23">
+        <v>129.5</v>
+      </c>
+      <c r="J23" t="s">
+        <v>196</v>
+      </c>
+      <c r="K23" s="11">
+        <v>12090</v>
+      </c>
+      <c r="O23" s="3"/>
+      <c r="R23">
+        <v>280</v>
+      </c>
+      <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="T23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24" spans="4:21">
+      <c r="F24">
+        <v>130</v>
+      </c>
+      <c r="K24" s="3">
+        <v>3790</v>
+      </c>
+      <c r="O24" s="3"/>
+      <c r="R24">
+        <v>1000</v>
+      </c>
+      <c r="S24">
+        <v>2</v>
+      </c>
+      <c r="T24" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="25" spans="4:21">
+      <c r="G25" t="s">
+        <v>193</v>
+      </c>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="O25" s="3"/>
+      <c r="R25">
+        <v>900</v>
+      </c>
+      <c r="S25">
+        <v>3</v>
+      </c>
+      <c r="T25" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="26" spans="4:21">
+      <c r="G26">
+        <v>1300</v>
+      </c>
+      <c r="J26" t="s">
+        <v>197</v>
+      </c>
+      <c r="K26">
+        <v>8300</v>
+      </c>
+      <c r="O26" s="3"/>
+      <c r="R26">
+        <v>950</v>
+      </c>
+      <c r="S26">
+        <v>2</v>
+      </c>
+      <c r="T26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="27" spans="4:21">
+      <c r="O27" s="3"/>
+      <c r="R27">
+        <v>6430</v>
+      </c>
+    </row>
+    <row r="28" spans="4:21">
+      <c r="J28" t="s">
+        <v>198</v>
+      </c>
+      <c r="K28">
+        <v>8300</v>
+      </c>
+      <c r="O28" s="3"/>
+      <c r="R28">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="29" spans="4:21">
+      <c r="K29">
+        <v>4150</v>
+      </c>
+      <c r="O29" s="3"/>
+      <c r="R29">
+        <v>6045</v>
+      </c>
+    </row>
+    <row r="30" spans="4:21">
+      <c r="J30" t="s">
+        <v>51</v>
+      </c>
+      <c r="L30" t="s">
+        <v>199</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="4:21">
+      <c r="J31" t="s">
+        <v>200</v>
+      </c>
+      <c r="L31">
+        <v>4150</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="4:21">
+      <c r="J32" t="s">
+        <v>201</v>
+      </c>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="1:22">
+      <c r="I33" t="s">
+        <v>202</v>
+      </c>
+      <c r="J33" s="13">
+        <v>3450</v>
+      </c>
+      <c r="O33" s="3"/>
+      <c r="R33">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="1:22">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+    </row>
+    <row r="36" spans="1:22">
+      <c r="O36" s="3"/>
+    </row>
+    <row r="37" spans="1:22">
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="O37" s="3"/>
+    </row>
+    <row r="38" spans="1:22">
+      <c r="O38" s="3"/>
+    </row>
+    <row r="39" spans="1:22">
+      <c r="H39" s="12"/>
+      <c r="I39">
+        <v>6</v>
+      </c>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="11">
+        <v>3950</v>
+      </c>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="1:22">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="1:22">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="1:22">
+      <c r="O42" s="3"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
+    </row>
+    <row r="43" spans="1:22">
+      <c r="H43" s="12"/>
+      <c r="I43">
+        <v>6</v>
+      </c>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="11">
+        <v>2095</v>
+      </c>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="1:22">
+      <c r="O44" s="3"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
+    </row>
+    <row r="45" spans="1:22">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="1:22">
+      <c r="O46" s="3"/>
+      <c r="R46" s="5"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="3"/>
+      <c r="U46" s="3"/>
+      <c r="V46" s="3"/>
+    </row>
+    <row r="47" spans="1:22">
+      <c r="H47" s="12"/>
+      <c r="I47">
+        <v>6</v>
+      </c>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="11">
+        <v>6045</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="1:22">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="6:22">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="6:22">
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="6:22">
+      <c r="H51" s="12"/>
+      <c r="J51" s="3"/>
+      <c r="L51" s="11">
+        <v>12090</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="6:22">
+      <c r="K52" t="s">
+        <v>214</v>
+      </c>
+      <c r="L52">
+        <v>4000</v>
+      </c>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="6:22">
+      <c r="L53">
+        <v>8090</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="6:22">
+      <c r="K54" t="s">
+        <v>198</v>
+      </c>
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="6:22">
+      <c r="L55">
+        <v>4045</v>
+      </c>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="6:22">
+      <c r="J56" t="s">
+        <v>215</v>
+      </c>
+      <c r="K56" t="s">
+        <v>204</v>
+      </c>
+      <c r="O56" s="3"/>
+      <c r="U56" t="s">
+        <v>218</v>
+      </c>
+      <c r="V56" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="57" spans="6:22">
+      <c r="K57" t="s">
+        <v>205</v>
+      </c>
+      <c r="L57">
+        <v>674</v>
+      </c>
+      <c r="O57" s="3"/>
+      <c r="S57" t="s">
+        <v>223</v>
+      </c>
+      <c r="T57" t="s">
+        <v>220</v>
+      </c>
+      <c r="U57" t="s">
+        <v>219</v>
+      </c>
+      <c r="V57" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="6:22">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="6:22">
+      <c r="L59" t="s">
+        <v>206</v>
+      </c>
+      <c r="O59" s="3"/>
+      <c r="S59" t="s">
+        <v>222</v>
+      </c>
+      <c r="T59" t="s">
+        <v>221</v>
+      </c>
+      <c r="U59" t="s">
+        <v>159</v>
+      </c>
+      <c r="V59" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="60" spans="6:22">
+      <c r="F60" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="G60" s="5">
+        <v>3500</v>
+      </c>
+      <c r="H60" t="s">
+        <v>213</v>
+      </c>
+      <c r="I60" t="s">
+        <v>207</v>
+      </c>
+      <c r="J60">
+        <v>4200</v>
+      </c>
+      <c r="L60">
+        <v>8400</v>
+      </c>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="6:22">
+      <c r="G61">
+        <v>700</v>
+      </c>
+      <c r="H61" t="s">
+        <v>212</v>
+      </c>
+      <c r="I61" t="s">
+        <v>208</v>
+      </c>
+      <c r="J61">
+        <v>4200</v>
+      </c>
+      <c r="O61" s="3"/>
+      <c r="S61" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="62" spans="6:22">
+      <c r="L62" t="s">
+        <v>209</v>
+      </c>
+      <c r="O62" s="3"/>
+      <c r="S62" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="63" spans="6:22">
+      <c r="K63" t="s">
+        <v>210</v>
+      </c>
+      <c r="L63">
+        <v>3690</v>
+      </c>
+      <c r="O63" s="3"/>
+      <c r="S63" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="64" spans="6:22">
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="12:21">
+      <c r="L65" t="s">
+        <v>211</v>
+      </c>
+      <c r="O65" s="3"/>
+      <c r="U65" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="66" spans="12:21">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="12:21">
+      <c r="L67">
+        <v>8400</v>
+      </c>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="12:21">
+      <c r="O68" s="3"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="336">
   <si>
     <t>حلقه سمك</t>
   </si>
@@ -697,13 +698,340 @@
   </si>
   <si>
     <t>صافى انتاج المركب</t>
+  </si>
+  <si>
+    <t>هنطرح المصروف هنا فى المركب المستقل</t>
+  </si>
+  <si>
+    <t>المخصوم من المصروف</t>
+  </si>
+  <si>
+    <t>تظبيط المخصوم من الهالك و مرتب الصياد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شغلهم كتجار </t>
+  </si>
+  <si>
+    <t xml:space="preserve">هيشتروا من التجار الموجودين فى الميناء </t>
+  </si>
+  <si>
+    <t xml:space="preserve">المعلم محمد الحسانين </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ديون سابقه عليهم لهذا التاجر </t>
+  </si>
+  <si>
+    <t>299 كجم</t>
+  </si>
+  <si>
+    <t>50 جنيه</t>
+  </si>
+  <si>
+    <t>سمك طوبار</t>
+  </si>
+  <si>
+    <t>3 طاوله</t>
+  </si>
+  <si>
+    <t>980 جنيه</t>
+  </si>
+  <si>
+    <t>جمع على الدين</t>
+  </si>
+  <si>
+    <t>ممكن اشترى كذا يوم ورا بعض و مخصمش حاجه من الديون اللى عليا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ممكن اخصم كذا يوم ورا بعض و مشتريش حاجه </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ممكن الخصم من الديون اللى عليه تكون سمك قصاد سمك </t>
+  </si>
+  <si>
+    <t xml:space="preserve">يعنى بدل ما يدفع 5000 كاش للتاجر  ممكن لو التاجر اشترى ب 5000 يطيروا مع بعض </t>
+  </si>
+  <si>
+    <t xml:space="preserve">خصم ... تاريخ </t>
+  </si>
+  <si>
+    <t>30/6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ممكن اشترى جديد </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ممكن اخضم </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ممكن اشترى واخصم </t>
+  </si>
+  <si>
+    <t xml:space="preserve">و هيشتروا من نفسهم </t>
+  </si>
+  <si>
+    <t>الحسانين</t>
+  </si>
+  <si>
+    <t>ابو العنين</t>
+  </si>
+  <si>
+    <t>دردره</t>
+  </si>
+  <si>
+    <t xml:space="preserve">المخزن </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> كجم3000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> كجم 900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هيبيع للتجار اللى بره البلد </t>
+  </si>
+  <si>
+    <t>فاتوره الى محمد غالى فى اسكندريه</t>
+  </si>
+  <si>
+    <t>3 بوكس</t>
+  </si>
+  <si>
+    <t>20 كجم</t>
+  </si>
+  <si>
+    <t>2 بوكس</t>
+  </si>
+  <si>
+    <t>15 كجم</t>
+  </si>
+  <si>
+    <t>السوبيد</t>
+  </si>
+  <si>
+    <t>1 بوكس</t>
+  </si>
+  <si>
+    <t>فاتوره من محمد غالى الى علاء</t>
+  </si>
+  <si>
+    <t>60 كجم</t>
+  </si>
+  <si>
+    <t>30 كجم</t>
+  </si>
+  <si>
+    <t>30 جنيه</t>
+  </si>
+  <si>
+    <t>40 جنيه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">محمد غالى </t>
+  </si>
+  <si>
+    <t>سابق دين عليه 25000</t>
+  </si>
+  <si>
+    <t>سابق دين</t>
+  </si>
+  <si>
+    <t>باقى الدين على التاجر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ابو العنين </t>
+  </si>
+  <si>
+    <t>ايمن</t>
+  </si>
+  <si>
+    <t>عثمان</t>
+  </si>
+  <si>
+    <t>اجمالى ثمن المشتريات</t>
+  </si>
+  <si>
+    <t>اجمالى ثمن المكاسب من البيع</t>
+  </si>
+  <si>
+    <t>محمد غالى</t>
+  </si>
+  <si>
+    <t>الحلقه</t>
+  </si>
+  <si>
+    <t>كريم</t>
+  </si>
+  <si>
+    <t>عامر</t>
+  </si>
+  <si>
+    <t>عمال</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عربيات </t>
+  </si>
+  <si>
+    <t>مصر</t>
+  </si>
+  <si>
+    <t>اسكندريه</t>
+  </si>
+  <si>
+    <t>بروسعيد</t>
+  </si>
+  <si>
+    <t>الحاج عمرو</t>
+  </si>
+  <si>
+    <t>الفوال</t>
+  </si>
+  <si>
+    <t>السيد</t>
+  </si>
+  <si>
+    <t>خسين</t>
+  </si>
+  <si>
+    <t>المرشدى</t>
+  </si>
+  <si>
+    <t>"-"</t>
+  </si>
+  <si>
+    <t>"="</t>
+  </si>
+  <si>
+    <t>المكسب من اجمالى المشتريات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ممكن مخصمش كذا يوم ورا بعض </t>
+  </si>
+  <si>
+    <t>خصم من الدين هتتبعت مع السواق</t>
+  </si>
+  <si>
+    <t xml:space="preserve">التحصيل اليومى </t>
+  </si>
+  <si>
+    <t>احمد فتح الله</t>
+  </si>
+  <si>
+    <t>بيدى للمراكب الهالك اللى قيمته صغيره</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فطار </t>
+  </si>
+  <si>
+    <t>بودره</t>
+  </si>
+  <si>
+    <t>مسامير</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هيفضلوا معاه لغاية تانى يوم </t>
+  </si>
+  <si>
+    <t>من</t>
+  </si>
+  <si>
+    <t>المحصل</t>
+  </si>
+  <si>
+    <t>علاء</t>
+  </si>
+  <si>
+    <t>ح/مجدى</t>
+  </si>
+  <si>
+    <t>بياخد رصيد  المحصل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بيدى هالك للحلقه </t>
+  </si>
+  <si>
+    <t>مسامير للطوايل</t>
+  </si>
+  <si>
+    <t>10 جنيه</t>
+  </si>
+  <si>
+    <t>300 جنيه</t>
+  </si>
+  <si>
+    <t>مركب مستقل</t>
+  </si>
+  <si>
+    <t>هالك</t>
+  </si>
+  <si>
+    <t>دين عرف</t>
+  </si>
+  <si>
+    <t>مسحوبات</t>
+  </si>
+  <si>
+    <t>مصروفات</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> هيسحبها ريس المركب لنفسه</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> بيسحبها ريس المركب لنفسه</t>
+  </si>
+  <si>
+    <t>من احمد فتح الله</t>
+  </si>
+  <si>
+    <t>من الحلقه</t>
+  </si>
+  <si>
+    <t>مركب مستقل : ابوحسن</t>
+  </si>
+  <si>
+    <t>مسحوبات للريس</t>
+  </si>
+  <si>
+    <t>مركب شريك : الاميره</t>
+  </si>
+  <si>
+    <t>مسحوبات ريس</t>
+  </si>
+  <si>
+    <t>مصروف مركب</t>
+  </si>
+  <si>
+    <t>رصيد سابق</t>
+  </si>
+  <si>
+    <t>اضافة رصيد</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>1- اللى اشتريته من التجار ومن نفس الصننف هيدخل المخزن</t>
+  </si>
+  <si>
+    <t>2-يتوزن و يتم فرزه</t>
+  </si>
+  <si>
+    <t>3 هبعت للتجار / ممكن جزء يبات و يتبعت تانى او تالت يوم</t>
+  </si>
+  <si>
+    <t>1000 كبير</t>
+  </si>
+  <si>
+    <t>2000 صغير</t>
+  </si>
+  <si>
+    <t>هشترى من تاجر بره البلد</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -725,8 +1053,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -781,8 +1117,55 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -790,11 +1173,122 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -810,11 +1304,54 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -828,6 +1365,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>15002</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>83826</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>8806</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="WhatsApp Image 2020-08-17 at 1.23.37 AM.jpeg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="3641653" y="19050472"/>
+          <a:ext cx="6211724" cy="6179823"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1117,7 +1697,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y117"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
@@ -2304,8 +2884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:T84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D52" sqref="D52:S82"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="S100" sqref="S100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2849,12 +3429,12 @@
       </c>
     </row>
     <row r="73" spans="2:17">
-      <c r="N73" s="15" t="s">
+      <c r="N73" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="O73" s="15"/>
-      <c r="P73" s="15"/>
-      <c r="Q73" s="15"/>
+      <c r="O73" s="16"/>
+      <c r="P73" s="16"/>
+      <c r="Q73" s="16"/>
     </row>
     <row r="74" spans="2:17">
       <c r="E74" s="2" t="s">
@@ -2922,6 +3502,11 @@
         <v>89</v>
       </c>
       <c r="J78" s="3"/>
+      <c r="L78" s="15"/>
+      <c r="M78" s="15"/>
+      <c r="N78" s="15" t="s">
+        <v>228</v>
+      </c>
       <c r="P78" t="s">
         <v>163</v>
       </c>
@@ -2935,6 +3520,11 @@
         <v>101</v>
       </c>
       <c r="J79" s="3"/>
+      <c r="L79" s="15"/>
+      <c r="M79" s="15"/>
+      <c r="N79" s="15" t="s">
+        <v>229</v>
+      </c>
       <c r="P79" t="s">
         <v>162</v>
       </c>
@@ -2988,11 +3578,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:V68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="Q55" sqref="Q55:V55"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:21">
       <c r="H2" s="14"/>
@@ -3066,6 +3660,9 @@
     <row r="7" spans="1:21">
       <c r="I7" t="s">
         <v>182</v>
+      </c>
+      <c r="K7">
+        <v>1000</v>
       </c>
       <c r="L7" t="s">
         <v>183</v>
@@ -3348,6 +3945,9 @@
       </c>
       <c r="K24" s="3">
         <v>3790</v>
+      </c>
+      <c r="N24" t="s">
+        <v>227</v>
       </c>
       <c r="O24" s="3"/>
       <c r="R24">
@@ -3757,4 +4357,2177 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:X193"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N185" sqref="N185"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="2:24">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+    </row>
+    <row r="2" spans="2:24">
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="V2" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="W2" s="17"/>
+      <c r="X2" s="19"/>
+    </row>
+    <row r="3" spans="2:24">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="43"/>
+      <c r="U3" s="43"/>
+      <c r="V3" s="43"/>
+      <c r="W3" s="19"/>
+      <c r="X3" s="19"/>
+    </row>
+    <row r="4" spans="2:24">
+      <c r="B4" s="19"/>
+      <c r="S4" t="s">
+        <v>249</v>
+      </c>
+      <c r="T4" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="X4" s="19"/>
+    </row>
+    <row r="5" spans="2:24">
+      <c r="B5" s="19"/>
+      <c r="X5" s="19"/>
+    </row>
+    <row r="6" spans="2:24">
+      <c r="B6" s="19"/>
+      <c r="X6" s="19"/>
+    </row>
+    <row r="7" spans="2:24">
+      <c r="B7" s="19"/>
+      <c r="T7" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="U7" s="17"/>
+      <c r="X7" s="19"/>
+    </row>
+    <row r="8" spans="2:24">
+      <c r="B8" s="19"/>
+      <c r="X8" s="19"/>
+    </row>
+    <row r="9" spans="2:24">
+      <c r="B9" s="19"/>
+      <c r="L9" t="s">
+        <v>240</v>
+      </c>
+      <c r="M9" s="5">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>9380</v>
+      </c>
+      <c r="S9" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+      <c r="X9" s="19"/>
+    </row>
+    <row r="10" spans="2:24">
+      <c r="B10" s="19"/>
+      <c r="L10" t="s">
+        <v>241</v>
+      </c>
+      <c r="M10" s="5">
+        <v>2</v>
+      </c>
+      <c r="X10" s="19"/>
+    </row>
+    <row r="11" spans="2:24">
+      <c r="B11" s="19"/>
+      <c r="L11" t="s">
+        <v>242</v>
+      </c>
+      <c r="M11" s="5">
+        <v>3</v>
+      </c>
+      <c r="P11" t="s">
+        <v>245</v>
+      </c>
+      <c r="R11" t="s">
+        <v>236</v>
+      </c>
+      <c r="S11" t="s">
+        <v>235</v>
+      </c>
+      <c r="T11" t="s">
+        <v>234</v>
+      </c>
+      <c r="V11" s="3">
+        <v>14950</v>
+      </c>
+      <c r="X11" s="19"/>
+    </row>
+    <row r="12" spans="2:24">
+      <c r="B12" s="19"/>
+      <c r="K12" t="s">
+        <v>243</v>
+      </c>
+      <c r="R12" t="s">
+        <v>174</v>
+      </c>
+      <c r="S12" t="s">
+        <v>238</v>
+      </c>
+      <c r="T12" t="s">
+        <v>237</v>
+      </c>
+      <c r="V12" s="3">
+        <v>2940</v>
+      </c>
+      <c r="X12" s="19"/>
+    </row>
+    <row r="13" spans="2:24">
+      <c r="B13" s="19"/>
+      <c r="X13" s="19"/>
+    </row>
+    <row r="14" spans="2:24">
+      <c r="B14" s="19"/>
+      <c r="V14" s="3">
+        <v>17890</v>
+      </c>
+      <c r="X14" s="19"/>
+    </row>
+    <row r="15" spans="2:24">
+      <c r="B15" s="19"/>
+      <c r="V15">
+        <v>9380</v>
+      </c>
+      <c r="W15" t="s">
+        <v>239</v>
+      </c>
+      <c r="X15" s="19"/>
+    </row>
+    <row r="16" spans="2:24">
+      <c r="B16" s="19"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="19"/>
+    </row>
+    <row r="17" spans="1:24">
+      <c r="B17" s="19"/>
+      <c r="V17">
+        <v>27270</v>
+      </c>
+      <c r="X17" s="19"/>
+    </row>
+    <row r="18" spans="1:24">
+      <c r="B18" s="19"/>
+      <c r="R18" t="s">
+        <v>246</v>
+      </c>
+      <c r="S18" s="10">
+        <v>44013</v>
+      </c>
+      <c r="U18" t="s">
+        <v>244</v>
+      </c>
+      <c r="V18">
+        <v>5000</v>
+      </c>
+      <c r="X18" s="19"/>
+    </row>
+    <row r="19" spans="1:24">
+      <c r="B19" s="19"/>
+      <c r="R19" t="s">
+        <v>247</v>
+      </c>
+      <c r="X19" s="19"/>
+    </row>
+    <row r="20" spans="1:24">
+      <c r="B20" s="19"/>
+      <c r="R20" t="s">
+        <v>248</v>
+      </c>
+      <c r="V20">
+        <v>22270</v>
+      </c>
+      <c r="X20" s="19"/>
+    </row>
+    <row r="21" spans="1:24">
+      <c r="B21" s="19"/>
+      <c r="X21" s="19"/>
+    </row>
+    <row r="22" spans="1:24">
+      <c r="B22" s="19"/>
+      <c r="X22" s="19"/>
+    </row>
+    <row r="23" spans="1:24">
+      <c r="B23" s="19"/>
+      <c r="X23" s="19"/>
+    </row>
+    <row r="24" spans="1:24">
+      <c r="B24" s="19"/>
+      <c r="X24" s="19"/>
+    </row>
+    <row r="25" spans="1:24">
+      <c r="B25" s="19"/>
+      <c r="R25" s="10">
+        <v>44013</v>
+      </c>
+      <c r="X25" s="19"/>
+    </row>
+    <row r="26" spans="1:24">
+      <c r="B26" s="19"/>
+      <c r="X26" s="19"/>
+    </row>
+    <row r="27" spans="1:24">
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
+      <c r="V27" s="19"/>
+      <c r="W27" s="19"/>
+      <c r="X27" s="19"/>
+    </row>
+    <row r="28" spans="1:24">
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="19"/>
+      <c r="V28" s="19"/>
+      <c r="W28" s="19"/>
+      <c r="X28" s="19"/>
+    </row>
+    <row r="29" spans="1:24">
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="19"/>
+      <c r="V29" s="19"/>
+      <c r="W29" s="19"/>
+      <c r="X29" s="19"/>
+    </row>
+    <row r="30" spans="1:24">
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="17"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="19"/>
+      <c r="V30" s="19"/>
+    </row>
+    <row r="31" spans="1:24">
+      <c r="A31" s="19"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="19"/>
+      <c r="V31" s="19"/>
+    </row>
+    <row r="32" spans="1:24">
+      <c r="A32" s="19"/>
+      <c r="I32" t="s">
+        <v>253</v>
+      </c>
+      <c r="V32" s="19"/>
+    </row>
+    <row r="33" spans="1:22">
+      <c r="A33" s="19"/>
+      <c r="V33" s="19"/>
+    </row>
+    <row r="34" spans="1:22">
+      <c r="A34" s="19"/>
+      <c r="B34" t="s">
+        <v>174</v>
+      </c>
+      <c r="C34" t="s">
+        <v>238</v>
+      </c>
+      <c r="D34" t="s">
+        <v>237</v>
+      </c>
+      <c r="I34" t="s">
+        <v>236</v>
+      </c>
+      <c r="J34" t="s">
+        <v>235</v>
+      </c>
+      <c r="K34" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>236</v>
+      </c>
+      <c r="R34" t="s">
+        <v>235</v>
+      </c>
+      <c r="S34" t="s">
+        <v>234</v>
+      </c>
+      <c r="V34" s="18" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
+      <c r="A35" s="19"/>
+      <c r="B35" t="s">
+        <v>174</v>
+      </c>
+      <c r="C35" t="s">
+        <v>238</v>
+      </c>
+      <c r="D35" t="s">
+        <v>237</v>
+      </c>
+      <c r="I35" t="s">
+        <v>236</v>
+      </c>
+      <c r="J35" t="s">
+        <v>235</v>
+      </c>
+      <c r="K35" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>174</v>
+      </c>
+      <c r="R35" t="s">
+        <v>238</v>
+      </c>
+      <c r="S35" t="s">
+        <v>237</v>
+      </c>
+      <c r="V35" s="18"/>
+    </row>
+    <row r="36" spans="1:22">
+      <c r="A36" s="19"/>
+      <c r="B36" t="s">
+        <v>174</v>
+      </c>
+      <c r="C36" t="s">
+        <v>238</v>
+      </c>
+      <c r="D36" t="s">
+        <v>237</v>
+      </c>
+      <c r="I36" t="s">
+        <v>236</v>
+      </c>
+      <c r="J36" t="s">
+        <v>235</v>
+      </c>
+      <c r="K36" t="s">
+        <v>234</v>
+      </c>
+      <c r="V36" s="18"/>
+    </row>
+    <row r="37" spans="1:22">
+      <c r="A37" s="19"/>
+      <c r="V37" s="18"/>
+    </row>
+    <row r="38" spans="1:22">
+      <c r="A38" s="19"/>
+      <c r="C38" t="s">
+        <v>254</v>
+      </c>
+      <c r="K38" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>236</v>
+      </c>
+      <c r="R38" t="s">
+        <v>235</v>
+      </c>
+      <c r="S38" t="s">
+        <v>234</v>
+      </c>
+      <c r="V38" s="18" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22">
+      <c r="A39" s="19"/>
+      <c r="Q39" t="s">
+        <v>174</v>
+      </c>
+      <c r="R39" t="s">
+        <v>238</v>
+      </c>
+      <c r="S39" t="s">
+        <v>237</v>
+      </c>
+      <c r="V39" s="18"/>
+    </row>
+    <row r="40" spans="1:22">
+      <c r="A40" s="19"/>
+      <c r="B40" t="s">
+        <v>334</v>
+      </c>
+      <c r="D40" t="s">
+        <v>333</v>
+      </c>
+      <c r="V40" s="18"/>
+    </row>
+    <row r="41" spans="1:22">
+      <c r="A41" s="19"/>
+      <c r="V41" s="18"/>
+    </row>
+    <row r="42" spans="1:22">
+      <c r="A42" s="19"/>
+      <c r="V42" s="18"/>
+    </row>
+    <row r="43" spans="1:22">
+      <c r="A43" s="19"/>
+      <c r="V43" s="18" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22">
+      <c r="A44" s="19"/>
+      <c r="I44" t="s">
+        <v>270</v>
+      </c>
+      <c r="J44" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>236</v>
+      </c>
+      <c r="R44" t="s">
+        <v>235</v>
+      </c>
+      <c r="S44" t="s">
+        <v>234</v>
+      </c>
+      <c r="V44" s="19"/>
+    </row>
+    <row r="45" spans="1:22">
+      <c r="A45" s="19"/>
+      <c r="Q45" t="s">
+        <v>174</v>
+      </c>
+      <c r="R45" t="s">
+        <v>238</v>
+      </c>
+      <c r="S45" t="s">
+        <v>237</v>
+      </c>
+      <c r="V45" s="19"/>
+    </row>
+    <row r="46" spans="1:22">
+      <c r="A46" s="19"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="J46" s="30"/>
+      <c r="K46" s="31"/>
+      <c r="V46" s="19"/>
+    </row>
+    <row r="47" spans="1:22">
+      <c r="A47" s="19"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="33"/>
+      <c r="V47" s="19"/>
+    </row>
+    <row r="48" spans="1:22">
+      <c r="A48" s="19"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="J48" s="21"/>
+      <c r="K48" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="V48" s="19"/>
+    </row>
+    <row r="49" spans="1:22">
+      <c r="A49" s="19"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="J49" s="21"/>
+      <c r="K49" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="V49" s="19"/>
+    </row>
+    <row r="50" spans="1:22">
+      <c r="A50" s="19"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="H50" s="22"/>
+      <c r="I50" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="J50" s="22"/>
+      <c r="K50" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="V50" s="19"/>
+    </row>
+    <row r="51" spans="1:22">
+      <c r="A51" s="19"/>
+      <c r="R51" s="37" t="s">
+        <v>330</v>
+      </c>
+      <c r="S51" s="37"/>
+      <c r="T51" s="37"/>
+      <c r="U51" s="37"/>
+    </row>
+    <row r="52" spans="1:22">
+      <c r="A52" s="19"/>
+      <c r="Q52" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="R52" s="17"/>
+      <c r="S52" s="17"/>
+      <c r="T52" s="17"/>
+      <c r="U52" s="17"/>
+      <c r="V52" s="17"/>
+    </row>
+    <row r="53" spans="1:22">
+      <c r="A53" s="19"/>
+      <c r="Q53" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="R53" s="17"/>
+      <c r="S53" s="17"/>
+      <c r="T53" s="17"/>
+      <c r="U53" s="17"/>
+      <c r="V53" s="19"/>
+    </row>
+    <row r="54" spans="1:22">
+      <c r="A54" s="19"/>
+      <c r="F54" s="23"/>
+      <c r="V54" s="19"/>
+    </row>
+    <row r="55" spans="1:22">
+      <c r="A55" s="19"/>
+      <c r="V55" s="19"/>
+    </row>
+    <row r="56" spans="1:22">
+      <c r="A56" s="19"/>
+      <c r="V56" s="19"/>
+    </row>
+    <row r="57" spans="1:22">
+      <c r="A57" s="19"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="23"/>
+      <c r="K57" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="L57" s="23"/>
+      <c r="M57" s="23"/>
+      <c r="V57" s="19"/>
+    </row>
+    <row r="58" spans="1:22">
+      <c r="A58" s="19"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="23"/>
+      <c r="I58" s="23"/>
+      <c r="J58" s="23"/>
+      <c r="K58" s="23"/>
+      <c r="L58" s="23"/>
+      <c r="M58" s="23"/>
+      <c r="V58" s="19"/>
+    </row>
+    <row r="59" spans="1:22">
+      <c r="A59" s="19"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="23"/>
+      <c r="H59" s="23"/>
+      <c r="I59" s="23"/>
+      <c r="J59" s="23"/>
+      <c r="K59" s="23"/>
+      <c r="L59" s="23"/>
+      <c r="M59" s="23"/>
+      <c r="Q59" s="20"/>
+      <c r="R59" s="20"/>
+      <c r="S59" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="T59" s="20"/>
+      <c r="U59" s="20"/>
+      <c r="V59" s="19"/>
+    </row>
+    <row r="60" spans="1:22">
+      <c r="A60" s="19"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="23"/>
+      <c r="H60" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="I60" s="23"/>
+      <c r="J60" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="K60" s="23"/>
+      <c r="L60" s="24">
+        <v>3000</v>
+      </c>
+      <c r="M60" s="23"/>
+      <c r="Q60" s="20"/>
+      <c r="R60" s="20"/>
+      <c r="S60" s="20"/>
+      <c r="T60" s="20"/>
+      <c r="U60" s="20"/>
+      <c r="V60" s="19"/>
+    </row>
+    <row r="61" spans="1:22">
+      <c r="A61" s="19"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="I61" s="23"/>
+      <c r="J61" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="K61" s="23"/>
+      <c r="L61" s="24">
+        <v>900</v>
+      </c>
+      <c r="M61" s="23"/>
+      <c r="Q61" s="20"/>
+      <c r="R61" s="20"/>
+      <c r="S61" s="20"/>
+      <c r="T61" s="20"/>
+      <c r="U61" s="20"/>
+      <c r="V61" s="19"/>
+    </row>
+    <row r="62" spans="1:22">
+      <c r="A62" s="19"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="I62" s="23"/>
+      <c r="J62" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="K62" s="23"/>
+      <c r="L62" s="24">
+        <v>800</v>
+      </c>
+      <c r="M62" s="23"/>
+      <c r="Q62" s="20"/>
+      <c r="R62" s="20"/>
+      <c r="S62" s="20"/>
+      <c r="T62" s="20"/>
+      <c r="U62" s="20"/>
+      <c r="V62" s="19"/>
+    </row>
+    <row r="63" spans="1:22">
+      <c r="A63" s="19"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="23"/>
+      <c r="H63" s="23"/>
+      <c r="I63" s="23"/>
+      <c r="J63" s="23"/>
+      <c r="K63" s="23"/>
+      <c r="L63" s="25">
+        <v>4700</v>
+      </c>
+      <c r="M63" s="23"/>
+      <c r="Q63" s="20"/>
+      <c r="R63" s="20"/>
+      <c r="S63" s="20"/>
+      <c r="T63" s="20"/>
+      <c r="U63" s="20"/>
+      <c r="V63" s="19"/>
+    </row>
+    <row r="64" spans="1:22">
+      <c r="A64" s="19"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="23"/>
+      <c r="I64" s="23"/>
+      <c r="J64" s="23"/>
+      <c r="K64" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="L64" s="24">
+        <v>700</v>
+      </c>
+      <c r="M64" s="23"/>
+      <c r="Q64" s="20"/>
+      <c r="R64" s="20"/>
+      <c r="S64" s="20"/>
+      <c r="T64" s="20"/>
+      <c r="U64" s="20"/>
+      <c r="V64" s="19"/>
+    </row>
+    <row r="65" spans="1:22">
+      <c r="A65" s="19"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="23"/>
+      <c r="H65" s="23"/>
+      <c r="I65" s="23"/>
+      <c r="J65" s="23"/>
+      <c r="K65" s="23"/>
+      <c r="L65" s="23"/>
+      <c r="M65" s="23"/>
+      <c r="Q65" s="20"/>
+      <c r="R65" s="20"/>
+      <c r="S65" s="20"/>
+      <c r="T65" s="20"/>
+      <c r="U65" s="20"/>
+      <c r="V65" s="19"/>
+    </row>
+    <row r="66" spans="1:22">
+      <c r="A66" s="19"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="23"/>
+      <c r="I66" s="23"/>
+      <c r="J66" s="23"/>
+      <c r="K66" s="23"/>
+      <c r="L66" s="26">
+        <v>4000</v>
+      </c>
+      <c r="M66" s="23"/>
+      <c r="Q66" s="20"/>
+      <c r="R66" s="20"/>
+      <c r="S66" s="20"/>
+      <c r="T66" s="20"/>
+      <c r="U66" s="20"/>
+      <c r="V66" s="19"/>
+    </row>
+    <row r="67" spans="1:22">
+      <c r="A67" s="19"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="23"/>
+      <c r="H67" s="23"/>
+      <c r="I67" s="23"/>
+      <c r="J67" s="23"/>
+      <c r="K67" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="L67" s="23">
+        <v>25000</v>
+      </c>
+      <c r="M67" s="23"/>
+      <c r="Q67" s="20"/>
+      <c r="R67" s="20"/>
+      <c r="S67" s="20"/>
+      <c r="T67" s="20"/>
+      <c r="U67" s="20"/>
+      <c r="V67" s="19"/>
+    </row>
+    <row r="68" spans="1:22">
+      <c r="A68" s="19"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="23"/>
+      <c r="H68" s="23"/>
+      <c r="I68" s="23"/>
+      <c r="J68" s="23"/>
+      <c r="K68" s="23"/>
+      <c r="L68" s="23"/>
+      <c r="M68" s="23"/>
+      <c r="Q68" s="20"/>
+      <c r="R68" s="20"/>
+      <c r="S68" s="20"/>
+      <c r="T68" s="20"/>
+      <c r="U68" s="20"/>
+      <c r="V68" s="19"/>
+    </row>
+    <row r="69" spans="1:22">
+      <c r="A69" s="19"/>
+      <c r="F69" s="23"/>
+      <c r="G69" s="23"/>
+      <c r="H69" s="23"/>
+      <c r="I69" s="23"/>
+      <c r="J69" s="23"/>
+      <c r="K69" s="23"/>
+      <c r="L69" s="23">
+        <v>29000</v>
+      </c>
+      <c r="M69" s="23"/>
+      <c r="Q69" s="20"/>
+      <c r="R69" s="20"/>
+      <c r="S69" s="20"/>
+      <c r="T69" s="20"/>
+      <c r="U69" s="20"/>
+      <c r="V69" s="19"/>
+    </row>
+    <row r="70" spans="1:22">
+      <c r="A70" s="19"/>
+      <c r="E70" t="s">
+        <v>295</v>
+      </c>
+      <c r="F70" s="23"/>
+      <c r="G70" s="23"/>
+      <c r="H70" s="23"/>
+      <c r="I70" s="23"/>
+      <c r="J70" s="23" t="s">
+        <v>296</v>
+      </c>
+      <c r="K70" s="23"/>
+      <c r="L70" s="23">
+        <v>10000</v>
+      </c>
+      <c r="M70" s="23"/>
+      <c r="Q70" s="20"/>
+      <c r="R70" s="20"/>
+      <c r="S70" s="20"/>
+      <c r="T70" s="20"/>
+      <c r="U70" s="20"/>
+      <c r="V70" s="19"/>
+    </row>
+    <row r="71" spans="1:22">
+      <c r="A71" s="19"/>
+      <c r="F71" s="23"/>
+      <c r="G71" s="23"/>
+      <c r="H71" s="23"/>
+      <c r="I71" s="23"/>
+      <c r="J71" s="23"/>
+      <c r="K71" s="23"/>
+      <c r="L71" s="23"/>
+      <c r="M71" s="23"/>
+      <c r="Q71" s="20"/>
+      <c r="R71" s="20"/>
+      <c r="S71" s="20"/>
+      <c r="T71" s="20"/>
+      <c r="U71" s="20"/>
+      <c r="V71" s="19"/>
+    </row>
+    <row r="72" spans="1:22">
+      <c r="A72" s="19"/>
+      <c r="F72" s="23"/>
+      <c r="G72" s="23"/>
+      <c r="H72" s="23"/>
+      <c r="I72" s="23"/>
+      <c r="J72" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="K72" s="23"/>
+      <c r="L72" s="27">
+        <v>19000</v>
+      </c>
+      <c r="M72" s="23"/>
+      <c r="V72" s="19"/>
+    </row>
+    <row r="73" spans="1:22">
+      <c r="A73" s="19"/>
+      <c r="F73" s="23"/>
+      <c r="G73" s="23"/>
+      <c r="H73" s="23"/>
+      <c r="I73" s="23"/>
+      <c r="J73" s="23"/>
+      <c r="K73" s="23"/>
+      <c r="L73" s="23"/>
+      <c r="M73" s="23"/>
+      <c r="V73" s="19"/>
+    </row>
+    <row r="74" spans="1:22">
+      <c r="A74" s="19"/>
+      <c r="V74" s="19"/>
+    </row>
+    <row r="75" spans="1:22">
+      <c r="B75" s="19"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="19"/>
+      <c r="G75" s="19"/>
+      <c r="H75" s="19"/>
+      <c r="I75" s="19"/>
+      <c r="J75" s="19"/>
+      <c r="K75" s="19"/>
+      <c r="L75" s="19"/>
+      <c r="M75" s="19"/>
+      <c r="N75" s="19"/>
+      <c r="O75" s="19"/>
+      <c r="P75" s="19"/>
+      <c r="Q75" s="19"/>
+      <c r="R75" s="19"/>
+      <c r="S75" s="19"/>
+      <c r="T75" s="19"/>
+      <c r="U75" s="19"/>
+      <c r="V75" s="19"/>
+    </row>
+    <row r="76" spans="1:22">
+      <c r="B76" s="19"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="19"/>
+      <c r="G76" s="19"/>
+      <c r="H76" s="19"/>
+      <c r="I76" s="19"/>
+      <c r="J76" s="19"/>
+      <c r="K76" s="19"/>
+      <c r="L76" s="19"/>
+      <c r="M76" s="19"/>
+      <c r="N76" s="19"/>
+      <c r="O76" s="19"/>
+      <c r="P76" s="19"/>
+      <c r="Q76" s="19"/>
+      <c r="R76" s="19"/>
+      <c r="S76" s="19"/>
+      <c r="T76" s="19"/>
+      <c r="U76" s="19"/>
+      <c r="V76" s="19"/>
+    </row>
+    <row r="77" spans="1:22">
+      <c r="B77" s="19"/>
+      <c r="J77" s="19"/>
+      <c r="K77" s="19"/>
+      <c r="L77" s="19"/>
+      <c r="M77" s="19"/>
+      <c r="N77" s="19"/>
+      <c r="S77" s="19"/>
+      <c r="T77" s="19"/>
+      <c r="U77" s="19"/>
+      <c r="V77" s="19"/>
+    </row>
+    <row r="78" spans="1:22">
+      <c r="B78" s="19"/>
+      <c r="J78" s="19"/>
+      <c r="K78" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="L78" s="17"/>
+      <c r="M78" s="17"/>
+      <c r="N78" s="19"/>
+      <c r="S78" s="19"/>
+      <c r="T78" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="U78" s="17"/>
+      <c r="V78" s="19"/>
+    </row>
+    <row r="79" spans="1:22">
+      <c r="B79" s="19"/>
+      <c r="J79" s="19"/>
+      <c r="K79" s="19"/>
+      <c r="L79" s="19"/>
+      <c r="M79" s="19"/>
+      <c r="N79" s="19"/>
+      <c r="S79" s="19"/>
+      <c r="T79" s="19"/>
+      <c r="U79" s="19"/>
+      <c r="V79" s="19"/>
+    </row>
+    <row r="80" spans="1:22">
+      <c r="B80" s="19"/>
+      <c r="K80">
+        <v>91000</v>
+      </c>
+      <c r="L80" t="s">
+        <v>287</v>
+      </c>
+      <c r="T80">
+        <v>2035</v>
+      </c>
+      <c r="U80" t="s">
+        <v>273</v>
+      </c>
+      <c r="V80" s="19"/>
+    </row>
+    <row r="81" spans="2:22">
+      <c r="B81" s="19"/>
+      <c r="K81">
+        <v>7930</v>
+      </c>
+      <c r="L81" t="s">
+        <v>288</v>
+      </c>
+      <c r="T81">
+        <v>136900</v>
+      </c>
+      <c r="U81" t="s">
+        <v>279</v>
+      </c>
+      <c r="V81" s="19"/>
+    </row>
+    <row r="82" spans="2:22">
+      <c r="B82" s="19"/>
+      <c r="K82">
+        <v>27760</v>
+      </c>
+      <c r="L82" t="s">
+        <v>289</v>
+      </c>
+      <c r="T82">
+        <v>2500</v>
+      </c>
+      <c r="U82" t="s">
+        <v>280</v>
+      </c>
+      <c r="V82" s="19"/>
+    </row>
+    <row r="83" spans="2:22">
+      <c r="B83" s="19"/>
+      <c r="K83">
+        <v>39650</v>
+      </c>
+      <c r="L83" t="s">
+        <v>148</v>
+      </c>
+      <c r="T83">
+        <v>2060</v>
+      </c>
+      <c r="U83" t="s">
+        <v>274</v>
+      </c>
+      <c r="V83" s="19"/>
+    </row>
+    <row r="84" spans="2:22">
+      <c r="B84" s="19"/>
+      <c r="K84">
+        <v>4785</v>
+      </c>
+      <c r="L84" t="s">
+        <v>290</v>
+      </c>
+      <c r="T84">
+        <v>16880</v>
+      </c>
+      <c r="U84" t="s">
+        <v>281</v>
+      </c>
+      <c r="V84" s="19"/>
+    </row>
+    <row r="85" spans="2:22">
+      <c r="B85" s="19"/>
+      <c r="K85">
+        <v>17470</v>
+      </c>
+      <c r="L85" t="s">
+        <v>278</v>
+      </c>
+      <c r="T85">
+        <v>3885</v>
+      </c>
+      <c r="U85" t="s">
+        <v>275</v>
+      </c>
+      <c r="V85" s="19"/>
+    </row>
+    <row r="86" spans="2:22">
+      <c r="B86" s="19"/>
+      <c r="K86">
+        <v>600</v>
+      </c>
+      <c r="L86" t="s">
+        <v>291</v>
+      </c>
+      <c r="V86" s="19"/>
+    </row>
+    <row r="87" spans="2:22">
+      <c r="B87" s="19"/>
+      <c r="T87">
+        <v>400</v>
+      </c>
+      <c r="U87" t="s">
+        <v>17</v>
+      </c>
+      <c r="V87" s="19"/>
+    </row>
+    <row r="88" spans="2:22">
+      <c r="B88" s="19"/>
+      <c r="T88">
+        <v>200</v>
+      </c>
+      <c r="U88" t="s">
+        <v>282</v>
+      </c>
+      <c r="V88" s="19"/>
+    </row>
+    <row r="89" spans="2:22">
+      <c r="B89" s="19"/>
+      <c r="K89">
+        <v>189195</v>
+      </c>
+      <c r="V89" s="19"/>
+    </row>
+    <row r="90" spans="2:22">
+      <c r="B90" s="19"/>
+      <c r="V90" s="19"/>
+    </row>
+    <row r="91" spans="2:22">
+      <c r="B91" s="19"/>
+      <c r="U91" t="s">
+        <v>283</v>
+      </c>
+      <c r="V91" s="19"/>
+    </row>
+    <row r="92" spans="2:22">
+      <c r="B92" s="19"/>
+      <c r="T92">
+        <v>525</v>
+      </c>
+      <c r="U92" t="s">
+        <v>284</v>
+      </c>
+      <c r="V92" s="19"/>
+    </row>
+    <row r="93" spans="2:22">
+      <c r="B93" s="19"/>
+      <c r="T93">
+        <v>550</v>
+      </c>
+      <c r="U93" t="s">
+        <v>285</v>
+      </c>
+      <c r="V93" s="19"/>
+    </row>
+    <row r="94" spans="2:22">
+      <c r="B94" s="19"/>
+      <c r="T94">
+        <v>550</v>
+      </c>
+      <c r="U94" t="s">
+        <v>152</v>
+      </c>
+      <c r="V94" s="19"/>
+    </row>
+    <row r="95" spans="2:22">
+      <c r="B95" s="19"/>
+      <c r="T95">
+        <v>550</v>
+      </c>
+      <c r="U95" t="s">
+        <v>286</v>
+      </c>
+      <c r="V95" s="19"/>
+    </row>
+    <row r="96" spans="2:22">
+      <c r="B96" s="19"/>
+      <c r="V96" s="19"/>
+    </row>
+    <row r="97" spans="2:22">
+      <c r="B97" s="19"/>
+      <c r="V97" s="19"/>
+    </row>
+    <row r="98" spans="2:22" ht="15" thickBot="1">
+      <c r="B98" s="19"/>
+      <c r="T98">
+        <v>185350</v>
+      </c>
+      <c r="V98" s="19"/>
+    </row>
+    <row r="99" spans="2:22" ht="15.6" thickTop="1" thickBot="1">
+      <c r="B99" s="19"/>
+      <c r="J99" t="s">
+        <v>294</v>
+      </c>
+      <c r="K99">
+        <v>3845</v>
+      </c>
+      <c r="L99" s="42" t="s">
+        <v>293</v>
+      </c>
+      <c r="M99">
+        <v>189195</v>
+      </c>
+      <c r="N99" s="42" t="s">
+        <v>292</v>
+      </c>
+      <c r="O99">
+        <v>185350</v>
+      </c>
+      <c r="V99" s="19"/>
+    </row>
+    <row r="100" spans="2:22" ht="15" thickTop="1">
+      <c r="B100" s="19"/>
+      <c r="V100" s="19"/>
+    </row>
+    <row r="101" spans="2:22">
+      <c r="B101" s="19"/>
+      <c r="V101" s="19"/>
+    </row>
+    <row r="102" spans="2:22">
+      <c r="B102" s="19"/>
+      <c r="C102" s="19"/>
+      <c r="D102" s="19"/>
+      <c r="E102" s="19"/>
+      <c r="F102" s="19"/>
+      <c r="G102" s="19"/>
+      <c r="H102" s="19"/>
+      <c r="I102" s="19"/>
+      <c r="J102" s="19"/>
+      <c r="K102" s="19"/>
+      <c r="L102" s="19"/>
+      <c r="M102" s="19"/>
+      <c r="N102" s="19"/>
+      <c r="O102" s="19"/>
+      <c r="P102" s="19"/>
+      <c r="Q102" s="19"/>
+      <c r="R102" s="19"/>
+      <c r="S102" s="19"/>
+      <c r="T102" s="19"/>
+      <c r="U102" s="19"/>
+      <c r="V102" s="19"/>
+    </row>
+    <row r="103" spans="2:22">
+      <c r="B103" s="19"/>
+      <c r="C103" s="19"/>
+      <c r="D103" s="19"/>
+      <c r="E103" s="19"/>
+      <c r="F103" s="19"/>
+      <c r="G103" s="19"/>
+      <c r="H103" s="19"/>
+      <c r="I103" s="19"/>
+      <c r="J103" s="19"/>
+      <c r="K103" s="19"/>
+      <c r="L103" s="19"/>
+      <c r="M103" s="19"/>
+      <c r="N103" s="19"/>
+      <c r="O103" s="19"/>
+      <c r="P103" s="19"/>
+      <c r="Q103" s="19"/>
+      <c r="R103" s="19"/>
+      <c r="S103" s="19"/>
+      <c r="T103" s="19"/>
+      <c r="U103" s="19"/>
+      <c r="V103" s="19"/>
+    </row>
+    <row r="104" spans="2:22">
+      <c r="B104" s="19"/>
+      <c r="R104" s="19"/>
+      <c r="S104" s="19"/>
+      <c r="T104" s="19"/>
+      <c r="U104" s="19"/>
+      <c r="V104" s="19"/>
+    </row>
+    <row r="105" spans="2:22">
+      <c r="B105" s="19"/>
+      <c r="R105" s="19"/>
+      <c r="S105" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="T105" s="17"/>
+      <c r="U105" s="19"/>
+      <c r="V105" s="19"/>
+    </row>
+    <row r="106" spans="2:22">
+      <c r="B106" s="19"/>
+      <c r="R106" s="19"/>
+      <c r="S106" s="19"/>
+      <c r="T106" s="19"/>
+      <c r="U106" s="19"/>
+      <c r="V106" s="19"/>
+    </row>
+    <row r="107" spans="2:22">
+      <c r="B107" s="19"/>
+      <c r="V107" s="19"/>
+    </row>
+    <row r="108" spans="2:22">
+      <c r="B108" s="19"/>
+      <c r="V108" s="19"/>
+    </row>
+    <row r="109" spans="2:22">
+      <c r="B109" s="19"/>
+      <c r="S109" s="17"/>
+      <c r="T109" s="17"/>
+      <c r="U109" s="17"/>
+      <c r="V109" s="19"/>
+    </row>
+    <row r="110" spans="2:22">
+      <c r="B110" s="19"/>
+      <c r="V110" s="19"/>
+    </row>
+    <row r="111" spans="2:22">
+      <c r="B111" s="19"/>
+      <c r="V111" s="19"/>
+    </row>
+    <row r="112" spans="2:22">
+      <c r="B112" s="19"/>
+      <c r="V112" s="19"/>
+    </row>
+    <row r="113" spans="2:22">
+      <c r="B113" s="19"/>
+      <c r="V113" s="19"/>
+    </row>
+    <row r="114" spans="2:22">
+      <c r="B114" s="19"/>
+      <c r="V114" s="19"/>
+    </row>
+    <row r="115" spans="2:22">
+      <c r="B115" s="19"/>
+      <c r="V115" s="19"/>
+    </row>
+    <row r="116" spans="2:22">
+      <c r="B116" s="19"/>
+      <c r="V116" s="19"/>
+    </row>
+    <row r="117" spans="2:22">
+      <c r="B117" s="19"/>
+      <c r="V117" s="19"/>
+    </row>
+    <row r="118" spans="2:22">
+      <c r="B118" s="19"/>
+      <c r="V118" s="19"/>
+    </row>
+    <row r="119" spans="2:22">
+      <c r="B119" s="19"/>
+      <c r="V119" s="19"/>
+    </row>
+    <row r="120" spans="2:22">
+      <c r="B120" s="19"/>
+      <c r="V120" s="19"/>
+    </row>
+    <row r="121" spans="2:22">
+      <c r="B121" s="19"/>
+      <c r="V121" s="19"/>
+    </row>
+    <row r="122" spans="2:22">
+      <c r="B122" s="19"/>
+      <c r="V122" s="19"/>
+    </row>
+    <row r="123" spans="2:22">
+      <c r="B123" s="19"/>
+      <c r="V123" s="19"/>
+    </row>
+    <row r="124" spans="2:22">
+      <c r="B124" s="19"/>
+      <c r="V124" s="19"/>
+    </row>
+    <row r="125" spans="2:22">
+      <c r="B125" s="19"/>
+      <c r="V125" s="19"/>
+    </row>
+    <row r="126" spans="2:22">
+      <c r="B126" s="19"/>
+      <c r="V126" s="19"/>
+    </row>
+    <row r="127" spans="2:22">
+      <c r="B127" s="19"/>
+      <c r="V127" s="19"/>
+    </row>
+    <row r="128" spans="2:22">
+      <c r="B128" s="19"/>
+      <c r="V128" s="19"/>
+    </row>
+    <row r="129" spans="2:22">
+      <c r="B129" s="19"/>
+      <c r="V129" s="19"/>
+    </row>
+    <row r="130" spans="2:22">
+      <c r="B130" s="19"/>
+      <c r="V130" s="19"/>
+    </row>
+    <row r="131" spans="2:22">
+      <c r="B131" s="19"/>
+      <c r="V131" s="19"/>
+    </row>
+    <row r="132" spans="2:22">
+      <c r="B132" s="19"/>
+      <c r="V132" s="19"/>
+    </row>
+    <row r="133" spans="2:22">
+      <c r="B133" s="19"/>
+      <c r="V133" s="19"/>
+    </row>
+    <row r="134" spans="2:22">
+      <c r="B134" s="19"/>
+      <c r="V134" s="19"/>
+    </row>
+    <row r="135" spans="2:22">
+      <c r="B135" s="19"/>
+      <c r="V135" s="19"/>
+    </row>
+    <row r="136" spans="2:22">
+      <c r="B136" s="19"/>
+      <c r="V136" s="19"/>
+    </row>
+    <row r="137" spans="2:22">
+      <c r="B137" s="19"/>
+      <c r="V137" s="19"/>
+    </row>
+    <row r="138" spans="2:22">
+      <c r="B138" s="19"/>
+      <c r="V138" s="19"/>
+    </row>
+    <row r="139" spans="2:22">
+      <c r="B139" s="19"/>
+      <c r="V139" s="19"/>
+    </row>
+    <row r="140" spans="2:22">
+      <c r="B140" s="19"/>
+      <c r="V140" s="19"/>
+    </row>
+    <row r="141" spans="2:22">
+      <c r="B141" s="19"/>
+      <c r="V141" s="19"/>
+    </row>
+    <row r="142" spans="2:22">
+      <c r="B142" s="19"/>
+      <c r="V142" s="19"/>
+    </row>
+    <row r="143" spans="2:22">
+      <c r="B143" s="19"/>
+      <c r="V143" s="19"/>
+    </row>
+    <row r="144" spans="2:22">
+      <c r="B144" s="19"/>
+      <c r="V144" s="19"/>
+    </row>
+    <row r="145" spans="2:22">
+      <c r="B145" s="19"/>
+      <c r="V145" s="19"/>
+    </row>
+    <row r="146" spans="2:22">
+      <c r="B146" s="19"/>
+      <c r="V146" s="19"/>
+    </row>
+    <row r="147" spans="2:22">
+      <c r="B147" s="19"/>
+      <c r="V147" s="19"/>
+    </row>
+    <row r="148" spans="2:22">
+      <c r="B148" s="19"/>
+      <c r="V148" s="19"/>
+    </row>
+    <row r="149" spans="2:22">
+      <c r="B149" s="19"/>
+      <c r="V149" s="19"/>
+    </row>
+    <row r="150" spans="2:22">
+      <c r="B150" s="19"/>
+      <c r="V150" s="19"/>
+    </row>
+    <row r="151" spans="2:22">
+      <c r="B151" s="19"/>
+      <c r="V151" s="19"/>
+    </row>
+    <row r="152" spans="2:22">
+      <c r="B152" s="19"/>
+      <c r="V152" s="19"/>
+    </row>
+    <row r="153" spans="2:22">
+      <c r="B153" s="19"/>
+      <c r="V153" s="19"/>
+    </row>
+    <row r="154" spans="2:22">
+      <c r="B154" s="19"/>
+      <c r="E154" s="28"/>
+      <c r="F154" s="29"/>
+      <c r="G154" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="H154" s="30"/>
+      <c r="I154" s="30"/>
+      <c r="J154" s="29"/>
+      <c r="K154" s="38"/>
+      <c r="Q154" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="V154" s="19"/>
+    </row>
+    <row r="155" spans="2:22">
+      <c r="B155" s="19"/>
+      <c r="E155" s="32"/>
+      <c r="F155" s="21"/>
+      <c r="G155" s="21"/>
+      <c r="H155" s="21"/>
+      <c r="I155" s="21"/>
+      <c r="J155" s="21"/>
+      <c r="K155" s="33"/>
+      <c r="Q155" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="V155" s="19"/>
+    </row>
+    <row r="156" spans="2:22">
+      <c r="B156" s="19"/>
+      <c r="E156" s="32"/>
+      <c r="F156" s="21"/>
+      <c r="G156" s="21"/>
+      <c r="H156" s="21"/>
+      <c r="I156" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="J156" s="21"/>
+      <c r="K156" s="33"/>
+      <c r="Q156" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="R156" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="S156" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="U156" t="s">
+        <v>298</v>
+      </c>
+      <c r="V156" s="19"/>
+    </row>
+    <row r="157" spans="2:22">
+      <c r="B157" s="19"/>
+      <c r="E157" s="32"/>
+      <c r="F157" s="21"/>
+      <c r="G157" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="H157" s="23"/>
+      <c r="I157" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="J157" s="21"/>
+      <c r="K157" s="33"/>
+      <c r="T157" t="s">
+        <v>299</v>
+      </c>
+      <c r="U157">
+        <v>1</v>
+      </c>
+      <c r="V157" s="19"/>
+    </row>
+    <row r="158" spans="2:22">
+      <c r="B158" s="19"/>
+      <c r="E158" s="32"/>
+      <c r="F158" s="21"/>
+      <c r="G158" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="H158" s="21"/>
+      <c r="I158" s="39" t="s">
+        <v>322</v>
+      </c>
+      <c r="J158" s="39"/>
+      <c r="K158" s="40"/>
+      <c r="R158">
+        <v>200</v>
+      </c>
+      <c r="S158" t="s">
+        <v>300</v>
+      </c>
+      <c r="V158" s="19"/>
+    </row>
+    <row r="159" spans="2:22">
+      <c r="B159" s="19"/>
+      <c r="E159" s="32"/>
+      <c r="F159" s="21"/>
+      <c r="G159" s="21" t="s">
+        <v>323</v>
+      </c>
+      <c r="H159" s="21"/>
+      <c r="I159" s="21"/>
+      <c r="J159" s="21"/>
+      <c r="K159" s="33"/>
+      <c r="R159">
+        <v>150</v>
+      </c>
+      <c r="S159" t="s">
+        <v>17</v>
+      </c>
+      <c r="V159" s="19"/>
+    </row>
+    <row r="160" spans="2:22">
+      <c r="B160" s="19"/>
+      <c r="E160" s="32"/>
+      <c r="F160" s="21"/>
+      <c r="G160" s="21"/>
+      <c r="H160" s="21"/>
+      <c r="I160" s="21"/>
+      <c r="J160" s="21"/>
+      <c r="K160" s="33"/>
+      <c r="R160">
+        <v>15</v>
+      </c>
+      <c r="S160" t="s">
+        <v>301</v>
+      </c>
+      <c r="V160" s="19"/>
+    </row>
+    <row r="161" spans="2:22">
+      <c r="B161" s="19"/>
+      <c r="E161" s="32"/>
+      <c r="F161" s="21"/>
+      <c r="G161" s="21"/>
+      <c r="H161" s="21"/>
+      <c r="I161" s="21"/>
+      <c r="J161" s="21"/>
+      <c r="K161" s="33"/>
+      <c r="R161">
+        <v>60</v>
+      </c>
+      <c r="S161" t="s">
+        <v>302</v>
+      </c>
+      <c r="V161" s="19"/>
+    </row>
+    <row r="162" spans="2:22">
+      <c r="B162" s="19"/>
+      <c r="E162" s="32"/>
+      <c r="F162" s="21"/>
+      <c r="G162" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="H162" s="21"/>
+      <c r="I162" s="39" t="s">
+        <v>324</v>
+      </c>
+      <c r="J162" s="39"/>
+      <c r="K162" s="40"/>
+      <c r="V162" s="19"/>
+    </row>
+    <row r="163" spans="2:22">
+      <c r="B163" s="19"/>
+      <c r="E163" s="32"/>
+      <c r="F163" s="21"/>
+      <c r="G163" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="H163" s="21"/>
+      <c r="I163" s="21"/>
+      <c r="J163" s="21"/>
+      <c r="K163" s="33"/>
+      <c r="R163">
+        <v>375</v>
+      </c>
+      <c r="V163" s="19"/>
+    </row>
+    <row r="164" spans="2:22">
+      <c r="B164" s="19"/>
+      <c r="E164" s="32"/>
+      <c r="F164" s="21"/>
+      <c r="G164" s="41" t="s">
+        <v>326</v>
+      </c>
+      <c r="H164" s="21"/>
+      <c r="I164" s="21"/>
+      <c r="J164" s="21"/>
+      <c r="K164" s="33"/>
+      <c r="Q164" t="s">
+        <v>303</v>
+      </c>
+      <c r="R164">
+        <v>4625</v>
+      </c>
+      <c r="V164" s="19"/>
+    </row>
+    <row r="165" spans="2:22">
+      <c r="B165" s="19"/>
+      <c r="E165" s="32"/>
+      <c r="F165" s="21"/>
+      <c r="G165" s="21"/>
+      <c r="H165" s="21"/>
+      <c r="I165" s="21"/>
+      <c r="J165" s="21"/>
+      <c r="K165" s="33"/>
+      <c r="V165" s="19"/>
+    </row>
+    <row r="166" spans="2:22">
+      <c r="B166" s="19"/>
+      <c r="E166" s="32"/>
+      <c r="F166" s="21"/>
+      <c r="G166" s="21"/>
+      <c r="H166" s="21"/>
+      <c r="I166" s="21"/>
+      <c r="J166" s="21"/>
+      <c r="K166" s="33"/>
+      <c r="T166" t="s">
+        <v>309</v>
+      </c>
+      <c r="U166">
+        <v>2</v>
+      </c>
+      <c r="V166" s="19"/>
+    </row>
+    <row r="167" spans="2:22">
+      <c r="B167" s="19"/>
+      <c r="E167" s="32"/>
+      <c r="F167" s="21"/>
+      <c r="G167" s="21"/>
+      <c r="H167" s="21"/>
+      <c r="I167" s="21"/>
+      <c r="J167" s="21"/>
+      <c r="K167" s="33"/>
+      <c r="S167" t="s">
+        <v>310</v>
+      </c>
+      <c r="T167" t="s">
+        <v>311</v>
+      </c>
+      <c r="V167" s="19"/>
+    </row>
+    <row r="168" spans="2:22">
+      <c r="B168" s="19"/>
+      <c r="E168" s="32"/>
+      <c r="F168" s="21"/>
+      <c r="G168" s="21"/>
+      <c r="H168" s="21"/>
+      <c r="I168" s="21"/>
+      <c r="J168" s="21"/>
+      <c r="K168" s="33"/>
+      <c r="S168" t="s">
+        <v>17</v>
+      </c>
+      <c r="T168" t="s">
+        <v>312</v>
+      </c>
+      <c r="V168" s="19"/>
+    </row>
+    <row r="169" spans="2:22">
+      <c r="B169" s="19"/>
+      <c r="E169" s="32"/>
+      <c r="F169" s="21"/>
+      <c r="G169" s="21"/>
+      <c r="H169" s="21"/>
+      <c r="I169" s="21"/>
+      <c r="J169" s="21"/>
+      <c r="K169" s="33"/>
+      <c r="V169" s="19"/>
+    </row>
+    <row r="170" spans="2:22">
+      <c r="B170" s="19"/>
+      <c r="E170" s="34"/>
+      <c r="F170" s="22"/>
+      <c r="G170" s="22"/>
+      <c r="H170" s="22"/>
+      <c r="I170" s="22"/>
+      <c r="J170" s="22"/>
+      <c r="K170" s="35"/>
+      <c r="V170" s="19"/>
+    </row>
+    <row r="171" spans="2:22">
+      <c r="B171" s="19"/>
+      <c r="V171" s="19"/>
+    </row>
+    <row r="172" spans="2:22">
+      <c r="B172" s="19"/>
+      <c r="C172" s="19"/>
+      <c r="D172" s="19"/>
+      <c r="E172" s="19"/>
+      <c r="F172" s="19"/>
+      <c r="G172" s="19"/>
+      <c r="H172" s="19"/>
+      <c r="I172" s="19"/>
+      <c r="J172" s="19"/>
+      <c r="K172" s="19"/>
+      <c r="L172" s="19"/>
+      <c r="M172" s="19"/>
+      <c r="N172" s="19"/>
+      <c r="O172" s="19"/>
+      <c r="P172" s="19"/>
+      <c r="Q172" s="19"/>
+      <c r="R172" s="19"/>
+      <c r="S172" s="19"/>
+      <c r="T172" s="19"/>
+      <c r="U172" s="19"/>
+      <c r="V172" s="19"/>
+    </row>
+    <row r="173" spans="2:22">
+      <c r="B173" s="19"/>
+      <c r="C173" s="19"/>
+      <c r="D173" s="19"/>
+      <c r="E173" s="19"/>
+      <c r="F173" s="19"/>
+      <c r="G173" s="19"/>
+      <c r="H173" s="19"/>
+      <c r="I173" s="19"/>
+      <c r="J173" s="19"/>
+      <c r="K173" s="19"/>
+      <c r="L173" s="19"/>
+      <c r="M173" s="19"/>
+      <c r="N173" s="19"/>
+      <c r="O173" s="19"/>
+      <c r="P173" s="19"/>
+      <c r="Q173" s="19"/>
+      <c r="R173" s="19"/>
+      <c r="S173" s="19"/>
+      <c r="T173" s="19"/>
+      <c r="U173" s="19"/>
+      <c r="V173" s="19"/>
+    </row>
+    <row r="174" spans="2:22">
+      <c r="B174" s="19"/>
+      <c r="L174" s="36"/>
+      <c r="V174" s="19"/>
+    </row>
+    <row r="175" spans="2:22">
+      <c r="B175" s="19"/>
+      <c r="L175" s="36"/>
+      <c r="V175" s="19"/>
+    </row>
+    <row r="176" spans="2:22">
+      <c r="B176" s="19"/>
+      <c r="F176" t="s">
+        <v>48</v>
+      </c>
+      <c r="L176" s="36"/>
+      <c r="Q176" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="R176" s="17"/>
+      <c r="S176" s="17"/>
+      <c r="V176" s="19"/>
+    </row>
+    <row r="177" spans="2:22">
+      <c r="B177" s="19"/>
+      <c r="L177" s="36"/>
+      <c r="V177" s="19"/>
+    </row>
+    <row r="178" spans="2:22">
+      <c r="B178" s="19"/>
+      <c r="I178" t="s">
+        <v>314</v>
+      </c>
+      <c r="L178" s="36"/>
+      <c r="S178" t="s">
+        <v>314</v>
+      </c>
+      <c r="V178" s="19"/>
+    </row>
+    <row r="179" spans="2:22">
+      <c r="B179" s="19"/>
+      <c r="I179" t="s">
+        <v>315</v>
+      </c>
+      <c r="L179" s="36"/>
+      <c r="S179" t="s">
+        <v>315</v>
+      </c>
+      <c r="V179" s="19"/>
+    </row>
+    <row r="180" spans="2:22">
+      <c r="B180" s="19"/>
+      <c r="I180" t="s">
+        <v>317</v>
+      </c>
+      <c r="L180" s="36"/>
+      <c r="O180" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q180" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="R180" s="17"/>
+      <c r="S180" t="s">
+        <v>316</v>
+      </c>
+      <c r="V180" s="19"/>
+    </row>
+    <row r="181" spans="2:22">
+      <c r="B181" s="19"/>
+      <c r="F181" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="G181" s="17"/>
+      <c r="H181" s="17"/>
+      <c r="I181" t="s">
+        <v>316</v>
+      </c>
+      <c r="L181" s="36"/>
+      <c r="O181" t="s">
+        <v>321</v>
+      </c>
+      <c r="V181" s="19"/>
+    </row>
+    <row r="182" spans="2:22">
+      <c r="B182" s="19"/>
+      <c r="L182" s="36"/>
+      <c r="V182" s="19"/>
+    </row>
+    <row r="183" spans="2:22">
+      <c r="B183" s="19"/>
+      <c r="L183" s="36"/>
+      <c r="V183" s="19"/>
+    </row>
+    <row r="184" spans="2:22">
+      <c r="B184" s="19"/>
+      <c r="L184" s="36"/>
+      <c r="V184" s="19"/>
+    </row>
+    <row r="185" spans="2:22">
+      <c r="B185" s="19"/>
+      <c r="L185" s="36"/>
+      <c r="V185" s="19"/>
+    </row>
+    <row r="186" spans="2:22">
+      <c r="B186" s="19"/>
+      <c r="L186" s="36"/>
+      <c r="V186" s="19"/>
+    </row>
+    <row r="187" spans="2:22">
+      <c r="B187" s="19"/>
+      <c r="L187" s="36"/>
+      <c r="V187" s="19"/>
+    </row>
+    <row r="188" spans="2:22">
+      <c r="B188" s="19"/>
+      <c r="L188" s="36"/>
+      <c r="V188" s="19"/>
+    </row>
+    <row r="189" spans="2:22">
+      <c r="B189" s="19"/>
+      <c r="L189" s="36"/>
+      <c r="V189" s="19"/>
+    </row>
+    <row r="190" spans="2:22">
+      <c r="B190" s="19"/>
+      <c r="L190" s="36"/>
+      <c r="V190" s="19"/>
+    </row>
+    <row r="191" spans="2:22">
+      <c r="B191" s="19"/>
+      <c r="C191" s="19"/>
+      <c r="D191" s="19"/>
+      <c r="E191" s="19"/>
+      <c r="F191" s="19"/>
+      <c r="G191" s="19"/>
+      <c r="H191" s="19"/>
+      <c r="I191" s="19"/>
+      <c r="J191" s="19"/>
+      <c r="K191" s="19"/>
+      <c r="L191" s="19"/>
+      <c r="M191" s="19"/>
+      <c r="N191" s="19"/>
+      <c r="O191" s="19"/>
+      <c r="P191" s="19"/>
+      <c r="Q191" s="19"/>
+      <c r="R191" s="19"/>
+      <c r="S191" s="19"/>
+      <c r="T191" s="19"/>
+      <c r="U191" s="19"/>
+      <c r="V191" s="19"/>
+    </row>
+    <row r="192" spans="2:22">
+      <c r="B192" s="19"/>
+      <c r="C192" s="19"/>
+      <c r="D192" s="19"/>
+      <c r="E192" s="19"/>
+      <c r="F192" s="19"/>
+      <c r="G192" s="19"/>
+      <c r="H192" s="19"/>
+      <c r="I192" s="19"/>
+      <c r="J192" s="19"/>
+      <c r="K192" s="19"/>
+      <c r="L192" s="19"/>
+      <c r="M192" s="19"/>
+      <c r="N192" s="19"/>
+      <c r="O192" s="19"/>
+      <c r="P192" s="19"/>
+      <c r="Q192" s="19"/>
+      <c r="R192" s="19"/>
+      <c r="S192" s="19"/>
+      <c r="T192" s="19"/>
+      <c r="U192" s="19"/>
+      <c r="V192" s="19"/>
+    </row>
+    <row r="193" spans="2:22">
+      <c r="B193" s="19"/>
+      <c r="C193" s="19"/>
+      <c r="D193" s="19"/>
+      <c r="E193" s="19"/>
+      <c r="F193" s="19"/>
+      <c r="G193" s="19"/>
+      <c r="H193" s="19"/>
+      <c r="I193" s="19"/>
+      <c r="J193" s="19"/>
+      <c r="K193" s="19"/>
+      <c r="L193" s="19"/>
+      <c r="M193" s="19"/>
+      <c r="N193" s="19"/>
+      <c r="O193" s="19"/>
+      <c r="P193" s="19"/>
+      <c r="Q193" s="19"/>
+      <c r="R193" s="19"/>
+      <c r="S193" s="19"/>
+      <c r="T193" s="19"/>
+      <c r="U193" s="19"/>
+      <c r="V193" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="F181:H181"/>
+    <mergeCell ref="G154:I154"/>
+    <mergeCell ref="I158:K158"/>
+    <mergeCell ref="I162:K162"/>
+    <mergeCell ref="Q52:V52"/>
+    <mergeCell ref="Q53:U53"/>
+    <mergeCell ref="T78:U78"/>
+    <mergeCell ref="K78:M78"/>
+    <mergeCell ref="S105:T105"/>
+    <mergeCell ref="S109:U109"/>
+    <mergeCell ref="Q180:R180"/>
+    <mergeCell ref="Q176:S176"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="P30:R30"/>
+    <mergeCell ref="I46:K46"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="9756" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="381">
   <si>
     <t>حلقه سمك</t>
   </si>
@@ -784,9 +785,6 @@
     <t xml:space="preserve"> كجم3000</t>
   </si>
   <si>
-    <t xml:space="preserve"> كجم 900</t>
-  </si>
-  <si>
     <t xml:space="preserve">هيبيع للتجار اللى بره البلد </t>
   </si>
   <si>
@@ -1025,13 +1023,151 @@
   </si>
   <si>
     <t>هشترى من تاجر بره البلد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هنزود col فى جدول التجار كديون لهذا التاجر </t>
+  </si>
+  <si>
+    <t xml:space="preserve">المنصوره توريل الجديده .. امام مطعم اوريجانو </t>
+  </si>
+  <si>
+    <t>التلات الجاى 12</t>
+  </si>
+  <si>
+    <t>51 جنيه</t>
+  </si>
+  <si>
+    <t>49 جنيه</t>
+  </si>
+  <si>
+    <t>300 كجم</t>
+  </si>
+  <si>
+    <t>310 كجم</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> كجم 909</t>
+  </si>
+  <si>
+    <t>fishId</t>
+  </si>
+  <si>
+    <t>Produ Typ</t>
+  </si>
+  <si>
+    <t>qty</t>
+  </si>
+  <si>
+    <t>total weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الظاهر النت وحش والصوت بيوصل متاخر </t>
+  </si>
+  <si>
+    <t>2- اظهار اسم مدخل قيمة الهالك فى صفحة تفاصيل السرحه</t>
+  </si>
+  <si>
+    <t>وطنيه</t>
+  </si>
+  <si>
+    <t>اكيا</t>
+  </si>
+  <si>
+    <t>5 designer</t>
+  </si>
+  <si>
+    <t>ui ux : 5 design -app</t>
+  </si>
+  <si>
+    <t>designer 3-5-4</t>
+  </si>
+  <si>
+    <t>flutter : 5</t>
+  </si>
+  <si>
+    <t>15-25=40</t>
+  </si>
+  <si>
+    <t>3- اضافة بت فلاج فو جدول السرحات علشان نضمن عدم استخدام بيناتات سرحه اتعملت فاتورتها</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جدول هالك الحلقه </t>
+  </si>
+  <si>
+    <t xml:space="preserve">تاريخ </t>
+  </si>
+  <si>
+    <t>نوع الهلك</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جدول مسحوبات الريس </t>
+  </si>
+  <si>
+    <t>مبلغ</t>
+  </si>
+  <si>
+    <t>boatID</t>
+  </si>
+  <si>
+    <t>وبالتالى هتزود field فى جدول ال boat اسمه ديون ريس المركب</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جدول تسديد ديون </t>
+  </si>
+  <si>
+    <t xml:space="preserve">مبلغ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">علشان وانت </t>
+  </si>
+  <si>
+    <t>بتنشا المركب تكتب الديون السابقه على ريس هذا المركب</t>
+  </si>
+  <si>
+    <t xml:space="preserve">وبالتالى مع كل تسديد هتضيف فى الجدول ده وتنقص من ديون ريس المركب الموجود فى جدول المركب </t>
+  </si>
+  <si>
+    <t xml:space="preserve">المبلغ </t>
+  </si>
+  <si>
+    <t>بالاضافه الى عرض ديون ريس المركب فى بروفايل المركب</t>
+  </si>
+  <si>
+    <t xml:space="preserve">وعلشان تزود الديون عليه </t>
+  </si>
+  <si>
+    <t>Collectings/FathAllahMainProfile</t>
+  </si>
+  <si>
+    <t>personid</t>
+  </si>
+  <si>
+    <t>المبلغ قبل الزياده</t>
+  </si>
+  <si>
+    <t>المبلغ بعد الزياده</t>
+  </si>
+  <si>
+    <t>1-هل المحصل ممكن يدفع مصروف المركب ولا احمد فتح الله والحلقه بس ؟</t>
+  </si>
+  <si>
+    <t>2- مين الحلقه ؟</t>
+  </si>
+  <si>
+    <t>3- مين يقدر يدفع مصروف المركب</t>
+  </si>
+  <si>
+    <t>4-ديون ريس المركب بيدفعها لمين احمدفتح الله ولا المحصل ؟</t>
+  </si>
+  <si>
+    <t>3-تعديل الداتا تيبل فى بروفايل المركب</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1061,8 +1197,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1161,6 +1304,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1288,7 +1437,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1305,12 +1454,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
@@ -1323,31 +1466,54 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1356,14 +1522,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1372,15 +1530,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>3</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>15002</xdr:rowOff>
+      <xdr:colOff>198124</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>17168</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>83826</xdr:colOff>
-      <xdr:row>138</xdr:row>
-      <xdr:rowOff>8806</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>472443</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>138345</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1397,8 +1555,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="3641653" y="19050472"/>
-          <a:ext cx="6211724" cy="6179823"/>
+          <a:off x="3840855" y="19996437"/>
+          <a:ext cx="5790457" cy="5760719"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1697,8 +1855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y117"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView topLeftCell="A106" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2882,10 +3040,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B4:T84"/>
+  <dimension ref="B4:V84"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="S100" sqref="S100"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3370,7 +3528,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="66" spans="2:17">
+    <row r="66" spans="2:22">
       <c r="B66" t="s">
         <v>150</v>
       </c>
@@ -3381,7 +3539,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="67" spans="2:17">
+    <row r="67" spans="2:22">
       <c r="B67" t="s">
         <v>151</v>
       </c>
@@ -3395,12 +3553,12 @@
         <v>155</v>
       </c>
     </row>
-    <row r="68" spans="2:17">
+    <row r="68" spans="2:22">
       <c r="G68" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="69" spans="2:17">
+    <row r="69" spans="2:22">
       <c r="B69">
         <v>20</v>
       </c>
@@ -3414,7 +3572,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="70" spans="2:17">
+    <row r="70" spans="2:22">
       <c r="B70" t="s">
         <v>152</v>
       </c>
@@ -3427,16 +3585,38 @@
       <c r="G70" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="73" spans="2:17">
-      <c r="N73" s="16" t="s">
+      <c r="S70" s="39"/>
+      <c r="T70" s="39" t="s">
+        <v>336</v>
+      </c>
+      <c r="U70" s="39"/>
+      <c r="V70" s="39"/>
+    </row>
+    <row r="71" spans="2:22">
+      <c r="S71" s="39"/>
+      <c r="T71" s="39"/>
+      <c r="U71" s="39"/>
+      <c r="V71" s="39"/>
+    </row>
+    <row r="72" spans="2:22">
+      <c r="S72" s="39"/>
+      <c r="T72" s="39"/>
+      <c r="U72" s="39"/>
+      <c r="V72" s="39"/>
+    </row>
+    <row r="73" spans="2:22">
+      <c r="N73" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="O73" s="16"/>
-      <c r="P73" s="16"/>
-      <c r="Q73" s="16"/>
-    </row>
-    <row r="74" spans="2:17">
+      <c r="O73" s="38"/>
+      <c r="P73" s="38"/>
+      <c r="Q73" s="38"/>
+      <c r="S73" s="39"/>
+      <c r="T73" s="39"/>
+      <c r="U73" s="39"/>
+      <c r="V73" s="39"/>
+    </row>
+    <row r="74" spans="2:22">
       <c r="E74" s="2" t="s">
         <v>140</v>
       </c>
@@ -3452,8 +3632,12 @@
       <c r="P74" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="75" spans="2:17">
+      <c r="S74" s="39"/>
+      <c r="T74" s="39"/>
+      <c r="U74" s="39"/>
+      <c r="V74" s="39"/>
+    </row>
+    <row r="75" spans="2:22">
       <c r="E75" s="3" t="s">
         <v>105</v>
       </c>
@@ -3468,8 +3652,12 @@
       <c r="P75" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="76" spans="2:17">
+      <c r="S75" s="39"/>
+      <c r="T75" s="39"/>
+      <c r="U75" s="39"/>
+      <c r="V75" s="39"/>
+    </row>
+    <row r="76" spans="2:22">
       <c r="E76" s="3" t="s">
         <v>90</v>
       </c>
@@ -3481,8 +3669,12 @@
       <c r="P76" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="77" spans="2:17">
+      <c r="S76" s="39"/>
+      <c r="T76" s="39"/>
+      <c r="U76" s="39"/>
+      <c r="V76" s="39"/>
+    </row>
+    <row r="77" spans="2:22">
       <c r="E77" s="3" t="s">
         <v>137</v>
       </c>
@@ -3495,7 +3687,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="78" spans="2:17">
+    <row r="78" spans="2:22">
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
       <c r="I78" s="3" t="s">
@@ -3510,8 +3702,11 @@
       <c r="P78" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="79" spans="2:17">
+      <c r="V78" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22">
       <c r="E79" s="3" t="s">
         <v>112</v>
       </c>
@@ -3529,7 +3724,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="80" spans="2:17">
+    <row r="80" spans="2:22">
       <c r="E80" s="3" t="s">
         <v>141</v>
       </c>
@@ -3566,8 +3761,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="N73:Q73"/>
+    <mergeCell ref="T70:V76"/>
+    <mergeCell ref="S70:S76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3578,7 +3775,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:V68"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
@@ -4361,122 +4558,128 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X193"/>
+  <dimension ref="A1:X208"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N185" sqref="N185"/>
+    <sheetView topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="L206" sqref="L206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="2:24">
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
     </row>
     <row r="2" spans="2:24">
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="V2" s="17" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="39" t="s">
         <v>230</v>
       </c>
-      <c r="W2" s="17"/>
-      <c r="X2" s="19"/>
+      <c r="W2" s="39"/>
+      <c r="X2" s="17"/>
     </row>
     <row r="3" spans="2:24">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="43"/>
-      <c r="V3" s="43"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
     </row>
     <row r="4" spans="2:24">
-      <c r="B4" s="19"/>
+      <c r="B4" s="17"/>
       <c r="S4" t="s">
         <v>249</v>
       </c>
-      <c r="T4" s="17" t="s">
+      <c r="T4" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="X4" s="19"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="X4" s="17"/>
     </row>
     <row r="5" spans="2:24">
-      <c r="B5" s="19"/>
-      <c r="X5" s="19"/>
+      <c r="B5" s="17"/>
+      <c r="X5" s="17"/>
     </row>
     <row r="6" spans="2:24">
-      <c r="B6" s="19"/>
-      <c r="X6" s="19"/>
+      <c r="B6" s="17"/>
+      <c r="X6" s="17"/>
     </row>
     <row r="7" spans="2:24">
-      <c r="B7" s="19"/>
-      <c r="T7" s="17" t="s">
+      <c r="B7" s="17"/>
+      <c r="R7" t="s">
+        <v>335</v>
+      </c>
+      <c r="T7" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="U7" s="17"/>
-      <c r="X7" s="19"/>
+      <c r="U7" s="39"/>
+      <c r="X7" s="17"/>
     </row>
     <row r="8" spans="2:24">
-      <c r="B8" s="19"/>
-      <c r="X8" s="19"/>
+      <c r="B8" s="17"/>
+      <c r="X8" s="17"/>
     </row>
     <row r="9" spans="2:24">
-      <c r="B9" s="19"/>
+      <c r="B9" s="17"/>
       <c r="L9" t="s">
         <v>240</v>
       </c>
@@ -4486,25 +4689,25 @@
       <c r="R9">
         <v>9380</v>
       </c>
-      <c r="S9" s="17" t="s">
+      <c r="S9" s="39" t="s">
         <v>233</v>
       </c>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-      <c r="X9" s="19"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="39"/>
+      <c r="X9" s="17"/>
     </row>
     <row r="10" spans="2:24">
-      <c r="B10" s="19"/>
+      <c r="B10" s="17"/>
       <c r="L10" t="s">
         <v>241</v>
       </c>
       <c r="M10" s="5">
         <v>2</v>
       </c>
-      <c r="X10" s="19"/>
+      <c r="X10" s="17"/>
     </row>
     <row r="11" spans="2:24">
-      <c r="B11" s="19"/>
+      <c r="B11" s="17"/>
       <c r="L11" t="s">
         <v>242</v>
       </c>
@@ -4526,10 +4729,10 @@
       <c r="V11" s="3">
         <v>14950</v>
       </c>
-      <c r="X11" s="19"/>
+      <c r="X11" s="17"/>
     </row>
     <row r="12" spans="2:24">
-      <c r="B12" s="19"/>
+      <c r="B12" s="17"/>
       <c r="K12" t="s">
         <v>243</v>
       </c>
@@ -4545,45 +4748,57 @@
       <c r="V12" s="3">
         <v>2940</v>
       </c>
-      <c r="X12" s="19"/>
+      <c r="X12" s="17"/>
     </row>
     <row r="13" spans="2:24">
-      <c r="B13" s="19"/>
-      <c r="X13" s="19"/>
+      <c r="B13" s="17"/>
+      <c r="X13" s="17"/>
     </row>
     <row r="14" spans="2:24">
-      <c r="B14" s="19"/>
+      <c r="B14" s="17"/>
       <c r="V14" s="3">
         <v>17890</v>
       </c>
-      <c r="X14" s="19"/>
+      <c r="X14" s="17"/>
     </row>
     <row r="15" spans="2:24">
-      <c r="B15" s="19"/>
+      <c r="B15" s="17"/>
       <c r="V15">
         <v>9380</v>
       </c>
       <c r="W15" t="s">
         <v>239</v>
       </c>
-      <c r="X15" s="19"/>
+      <c r="X15" s="17"/>
     </row>
     <row r="16" spans="2:24">
-      <c r="B16" s="19"/>
+      <c r="B16" s="17"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
       <c r="U16" s="5"/>
       <c r="V16" s="5"/>
       <c r="W16" s="5"/>
-      <c r="X16" s="19"/>
+      <c r="X16" s="17"/>
     </row>
     <row r="17" spans="1:24">
-      <c r="B17" s="19"/>
+      <c r="B17" s="17"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
       <c r="V17">
         <v>27270</v>
       </c>
-      <c r="X17" s="19"/>
+      <c r="X17" s="17"/>
     </row>
     <row r="18" spans="1:24">
-      <c r="B18" s="19"/>
+      <c r="B18" s="17"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
       <c r="R18" t="s">
         <v>246</v>
       </c>
@@ -4596,193 +4811,227 @@
       <c r="V18">
         <v>5000</v>
       </c>
-      <c r="X18" s="19"/>
+      <c r="X18" s="17"/>
     </row>
     <row r="19" spans="1:24">
-      <c r="B19" s="19"/>
+      <c r="B19" s="17"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
       <c r="R19" t="s">
         <v>247</v>
       </c>
-      <c r="X19" s="19"/>
+      <c r="X19" s="17"/>
     </row>
     <row r="20" spans="1:24">
-      <c r="B20" s="19"/>
+      <c r="B20" s="17"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
       <c r="R20" t="s">
         <v>248</v>
       </c>
       <c r="V20">
         <v>22270</v>
       </c>
-      <c r="X20" s="19"/>
+      <c r="X20" s="17"/>
     </row>
     <row r="21" spans="1:24">
-      <c r="B21" s="19"/>
-      <c r="X21" s="19"/>
+      <c r="B21" s="17"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="X21" s="17"/>
     </row>
     <row r="22" spans="1:24">
-      <c r="B22" s="19"/>
-      <c r="X22" s="19"/>
+      <c r="B22" s="17"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="X22" s="17"/>
     </row>
     <row r="23" spans="1:24">
-      <c r="B23" s="19"/>
-      <c r="X23" s="19"/>
+      <c r="B23" s="17"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="X23" s="17"/>
     </row>
     <row r="24" spans="1:24">
-      <c r="B24" s="19"/>
-      <c r="X24" s="19"/>
+      <c r="B24" s="17"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="X24" s="17"/>
     </row>
     <row r="25" spans="1:24">
-      <c r="B25" s="19"/>
+      <c r="B25" s="17"/>
       <c r="R25" s="10">
         <v>44013</v>
       </c>
-      <c r="X25" s="19"/>
+      <c r="X25" s="17"/>
     </row>
     <row r="26" spans="1:24">
-      <c r="B26" s="19"/>
-      <c r="X26" s="19"/>
+      <c r="B26" s="17"/>
+      <c r="X26" s="17"/>
     </row>
     <row r="27" spans="1:24">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="19"/>
-      <c r="S27" s="19"/>
-      <c r="T27" s="19"/>
-      <c r="U27" s="19"/>
-      <c r="V27" s="19"/>
-      <c r="W27" s="19"/>
-      <c r="X27" s="19"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="17"/>
+      <c r="S27" s="17"/>
+      <c r="T27" s="17"/>
+      <c r="U27" s="17"/>
+      <c r="V27" s="17"/>
+      <c r="W27" s="17"/>
+      <c r="X27" s="17"/>
     </row>
     <row r="28" spans="1:24">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="19"/>
-      <c r="S28" s="19"/>
-      <c r="T28" s="19"/>
-      <c r="U28" s="19"/>
-      <c r="V28" s="19"/>
-      <c r="W28" s="19"/>
-      <c r="X28" s="19"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="17"/>
+      <c r="U28" s="17"/>
+      <c r="V28" s="17"/>
+      <c r="W28" s="17"/>
+      <c r="X28" s="17"/>
     </row>
     <row r="29" spans="1:24">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="19"/>
-      <c r="S29" s="19"/>
-      <c r="T29" s="19"/>
-      <c r="U29" s="19"/>
-      <c r="V29" s="19"/>
-      <c r="W29" s="19"/>
-      <c r="X29" s="19"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17"/>
+      <c r="S29" s="17"/>
+      <c r="T29" s="17"/>
+      <c r="U29" s="17"/>
+      <c r="V29" s="17"/>
+      <c r="W29" s="17"/>
+      <c r="X29" s="17"/>
     </row>
     <row r="30" spans="1:24">
-      <c r="A30" s="19"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q30" s="17"/>
-      <c r="R30" s="17"/>
-      <c r="S30" s="19"/>
-      <c r="T30" s="19"/>
-      <c r="U30" s="19"/>
-      <c r="V30" s="19"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q30" s="39"/>
+      <c r="R30" s="39"/>
+      <c r="S30" s="17"/>
+      <c r="T30" s="17"/>
+      <c r="U30" s="17"/>
+      <c r="V30" s="17"/>
     </row>
     <row r="31" spans="1:24">
-      <c r="A31" s="19"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="19"/>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="19"/>
-      <c r="R31" s="19"/>
-      <c r="S31" s="19"/>
-      <c r="T31" s="19"/>
-      <c r="U31" s="19"/>
-      <c r="V31" s="19"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="17"/>
+      <c r="S31" s="17"/>
+      <c r="T31" s="17"/>
+      <c r="U31" s="17"/>
+      <c r="V31" s="17"/>
     </row>
     <row r="32" spans="1:24">
-      <c r="A32" s="19"/>
+      <c r="A32" s="17"/>
       <c r="I32" t="s">
         <v>253</v>
       </c>
-      <c r="V32" s="19"/>
+      <c r="V32" s="17"/>
     </row>
     <row r="33" spans="1:22">
-      <c r="A33" s="19"/>
-      <c r="V33" s="19"/>
+      <c r="A33" s="17"/>
+      <c r="V33" s="17"/>
     </row>
     <row r="34" spans="1:22">
-      <c r="A34" s="19"/>
+      <c r="A34" s="17"/>
       <c r="B34" t="s">
         <v>174</v>
       </c>
@@ -4799,7 +5048,7 @@
         <v>235</v>
       </c>
       <c r="K34" t="s">
-        <v>234</v>
+        <v>340</v>
       </c>
       <c r="Q34" t="s">
         <v>236</v>
@@ -4810,12 +5059,12 @@
       <c r="S34" t="s">
         <v>234</v>
       </c>
-      <c r="V34" s="18" t="s">
+      <c r="V34" s="16" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="35" spans="1:22">
-      <c r="A35" s="19"/>
+      <c r="A35" s="17"/>
       <c r="B35" t="s">
         <v>174</v>
       </c>
@@ -4829,10 +5078,10 @@
         <v>236</v>
       </c>
       <c r="J35" t="s">
-        <v>235</v>
+        <v>338</v>
       </c>
       <c r="K35" t="s">
-        <v>234</v>
+        <v>341</v>
       </c>
       <c r="Q35" t="s">
         <v>174</v>
@@ -4843,10 +5092,10 @@
       <c r="S35" t="s">
         <v>237</v>
       </c>
-      <c r="V35" s="18"/>
+      <c r="V35" s="16"/>
     </row>
     <row r="36" spans="1:22">
-      <c r="A36" s="19"/>
+      <c r="A36" s="17"/>
       <c r="B36" t="s">
         <v>174</v>
       </c>
@@ -4860,24 +5109,24 @@
         <v>236</v>
       </c>
       <c r="J36" t="s">
-        <v>235</v>
+        <v>339</v>
       </c>
       <c r="K36" t="s">
         <v>234</v>
       </c>
-      <c r="V36" s="18"/>
+      <c r="V36" s="16"/>
     </row>
     <row r="37" spans="1:22">
-      <c r="A37" s="19"/>
-      <c r="V37" s="18"/>
+      <c r="A37" s="17"/>
+      <c r="V37" s="16"/>
     </row>
     <row r="38" spans="1:22">
-      <c r="A38" s="19"/>
+      <c r="A38" s="17"/>
       <c r="C38" t="s">
         <v>254</v>
       </c>
       <c r="K38" t="s">
-        <v>255</v>
+        <v>342</v>
       </c>
       <c r="Q38" t="s">
         <v>236</v>
@@ -4888,12 +5137,18 @@
       <c r="S38" t="s">
         <v>234</v>
       </c>
-      <c r="V38" s="18" t="s">
+      <c r="V38" s="16" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="39" spans="1:22">
-      <c r="A39" s="19"/>
+      <c r="A39" s="17"/>
+      <c r="K39">
+        <v>250</v>
+      </c>
+      <c r="M39">
+        <v>200</v>
+      </c>
       <c r="Q39" t="s">
         <v>174</v>
       </c>
@@ -4903,39 +5158,51 @@
       <c r="S39" t="s">
         <v>237</v>
       </c>
-      <c r="V39" s="18"/>
+      <c r="V39" s="16"/>
     </row>
     <row r="40" spans="1:22">
-      <c r="A40" s="19"/>
+      <c r="A40" s="17"/>
       <c r="B40" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D40" t="s">
-        <v>333</v>
-      </c>
-      <c r="V40" s="18"/>
+        <v>332</v>
+      </c>
+      <c r="V40" s="16"/>
     </row>
     <row r="41" spans="1:22">
-      <c r="A41" s="19"/>
-      <c r="V41" s="18"/>
+      <c r="A41" s="17"/>
+      <c r="V41" s="16"/>
     </row>
     <row r="42" spans="1:22">
-      <c r="A42" s="19"/>
-      <c r="V42" s="18"/>
+      <c r="A42" s="17"/>
+      <c r="G42" t="s">
+        <v>346</v>
+      </c>
+      <c r="H42" t="s">
+        <v>345</v>
+      </c>
+      <c r="I42" t="s">
+        <v>344</v>
+      </c>
+      <c r="J42" t="s">
+        <v>343</v>
+      </c>
+      <c r="V42" s="16"/>
     </row>
     <row r="43" spans="1:22">
-      <c r="A43" s="19"/>
-      <c r="V43" s="18" t="s">
+      <c r="A43" s="17"/>
+      <c r="V43" s="16" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="44" spans="1:22">
-      <c r="A44" s="19"/>
+      <c r="A44" s="17"/>
       <c r="I44" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J44" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Q44" t="s">
         <v>236</v>
@@ -4946,10 +5213,10 @@
       <c r="S44" t="s">
         <v>234</v>
       </c>
-      <c r="V44" s="19"/>
+      <c r="V44" s="17"/>
     </row>
     <row r="45" spans="1:22">
-      <c r="A45" s="19"/>
+      <c r="A45" s="17"/>
       <c r="Q45" t="s">
         <v>174</v>
       </c>
@@ -4959,578 +5226,591 @@
       <c r="S45" t="s">
         <v>237</v>
       </c>
-      <c r="V45" s="19"/>
+      <c r="V45" s="17"/>
     </row>
     <row r="46" spans="1:22">
-      <c r="A46" s="19"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="29"/>
-      <c r="I46" s="30" t="s">
+      <c r="A46" s="17"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="40" t="s">
+        <v>256</v>
+      </c>
+      <c r="J46" s="40"/>
+      <c r="K46" s="41"/>
+      <c r="V46" s="17"/>
+    </row>
+    <row r="47" spans="1:22">
+      <c r="A47" s="17"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="29"/>
+      <c r="V47" s="17"/>
+    </row>
+    <row r="48" spans="1:22">
+      <c r="A48" s="17"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="J48" s="19"/>
+      <c r="K48" s="29" t="s">
         <v>257</v>
       </c>
-      <c r="J46" s="30"/>
-      <c r="K46" s="31"/>
-      <c r="V46" s="19"/>
-    </row>
-    <row r="47" spans="1:22">
-      <c r="A47" s="19"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="21"/>
-      <c r="K47" s="33"/>
-      <c r="V47" s="19"/>
-    </row>
-    <row r="48" spans="1:22">
-      <c r="A48" s="19"/>
-      <c r="F48" s="32"/>
-      <c r="G48" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="H48" s="21"/>
-      <c r="I48" s="21" t="s">
+      <c r="V48" s="17"/>
+    </row>
+    <row r="49" spans="1:22">
+      <c r="A49" s="17"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="J49" s="19"/>
+      <c r="K49" s="29" t="s">
         <v>259</v>
       </c>
-      <c r="J48" s="21"/>
-      <c r="K48" s="33" t="s">
+      <c r="V49" s="17"/>
+    </row>
+    <row r="50" spans="1:22">
+      <c r="A50" s="17"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="V48" s="19"/>
-    </row>
-    <row r="49" spans="1:22">
-      <c r="A49" s="19"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="21" t="s">
+      <c r="J50" s="20"/>
+      <c r="K50" s="31" t="s">
         <v>262</v>
       </c>
-      <c r="H49" s="21"/>
-      <c r="I49" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="J49" s="21"/>
-      <c r="K49" s="33" t="s">
-        <v>260</v>
-      </c>
-      <c r="V49" s="19"/>
-    </row>
-    <row r="50" spans="1:22">
-      <c r="A50" s="19"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="H50" s="22"/>
-      <c r="I50" s="22" t="s">
-        <v>259</v>
-      </c>
-      <c r="J50" s="22"/>
-      <c r="K50" s="35" t="s">
+      <c r="V50" s="17"/>
+    </row>
+    <row r="51" spans="1:22">
+      <c r="A51" s="17"/>
+      <c r="R51" s="33" t="s">
+        <v>329</v>
+      </c>
+      <c r="S51" s="33"/>
+      <c r="T51" s="33"/>
+      <c r="U51" s="33"/>
+    </row>
+    <row r="52" spans="1:22">
+      <c r="A52" s="17"/>
+      <c r="Q52" s="39" t="s">
+        <v>330</v>
+      </c>
+      <c r="R52" s="39"/>
+      <c r="S52" s="39"/>
+      <c r="T52" s="39"/>
+      <c r="U52" s="39"/>
+      <c r="V52" s="39"/>
+    </row>
+    <row r="53" spans="1:22">
+      <c r="A53" s="17"/>
+      <c r="Q53" s="39" t="s">
+        <v>331</v>
+      </c>
+      <c r="R53" s="39"/>
+      <c r="S53" s="39"/>
+      <c r="T53" s="39"/>
+      <c r="U53" s="39"/>
+      <c r="V53" s="17"/>
+    </row>
+    <row r="54" spans="1:22">
+      <c r="A54" s="17"/>
+      <c r="F54" s="21"/>
+      <c r="V54" s="17"/>
+    </row>
+    <row r="55" spans="1:22">
+      <c r="A55" s="17"/>
+      <c r="V55" s="17"/>
+    </row>
+    <row r="56" spans="1:22">
+      <c r="A56" s="17"/>
+      <c r="V56" s="17"/>
+    </row>
+    <row r="57" spans="1:22">
+      <c r="A57" s="17"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="21"/>
+      <c r="K57" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="V50" s="19"/>
-    </row>
-    <row r="51" spans="1:22">
-      <c r="A51" s="19"/>
-      <c r="R51" s="37" t="s">
-        <v>330</v>
-      </c>
-      <c r="S51" s="37"/>
-      <c r="T51" s="37"/>
-      <c r="U51" s="37"/>
-    </row>
-    <row r="52" spans="1:22">
-      <c r="A52" s="19"/>
-      <c r="Q52" s="17" t="s">
-        <v>331</v>
-      </c>
-      <c r="R52" s="17"/>
-      <c r="S52" s="17"/>
-      <c r="T52" s="17"/>
-      <c r="U52" s="17"/>
-      <c r="V52" s="17"/>
-    </row>
-    <row r="53" spans="1:22">
-      <c r="A53" s="19"/>
-      <c r="Q53" s="17" t="s">
-        <v>332</v>
-      </c>
-      <c r="R53" s="17"/>
-      <c r="S53" s="17"/>
-      <c r="T53" s="17"/>
-      <c r="U53" s="17"/>
-      <c r="V53" s="19"/>
-    </row>
-    <row r="54" spans="1:22">
-      <c r="A54" s="19"/>
-      <c r="F54" s="23"/>
-      <c r="V54" s="19"/>
-    </row>
-    <row r="55" spans="1:22">
-      <c r="A55" s="19"/>
-      <c r="V55" s="19"/>
-    </row>
-    <row r="56" spans="1:22">
-      <c r="A56" s="19"/>
-      <c r="V56" s="19"/>
-    </row>
-    <row r="57" spans="1:22">
-      <c r="A57" s="19"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="23"/>
-      <c r="I57" s="23"/>
-      <c r="J57" s="23"/>
-      <c r="K57" s="23" t="s">
+      <c r="L57" s="21"/>
+      <c r="M57" s="21"/>
+      <c r="V57" s="17"/>
+    </row>
+    <row r="58" spans="1:22">
+      <c r="A58" s="17"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="21"/>
+      <c r="J58" s="21"/>
+      <c r="K58" s="21"/>
+      <c r="L58" s="21"/>
+      <c r="M58" s="21"/>
+      <c r="V58" s="17"/>
+    </row>
+    <row r="59" spans="1:22">
+      <c r="A59" s="17"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="21"/>
+      <c r="J59" s="21"/>
+      <c r="K59" s="21"/>
+      <c r="L59" s="21"/>
+      <c r="M59" s="21"/>
+      <c r="P59" s="36"/>
+      <c r="Q59" s="18"/>
+      <c r="R59" s="18"/>
+      <c r="S59" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="T59" s="18"/>
+      <c r="U59" s="18"/>
+      <c r="V59" s="17"/>
+    </row>
+    <row r="60" spans="1:22">
+      <c r="A60" s="17"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="I60" s="21"/>
+      <c r="J60" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="L57" s="23"/>
-      <c r="M57" s="23"/>
-      <c r="V57" s="19"/>
-    </row>
-    <row r="58" spans="1:22">
-      <c r="A58" s="19"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="23"/>
-      <c r="H58" s="23"/>
-      <c r="I58" s="23"/>
-      <c r="J58" s="23"/>
-      <c r="K58" s="23"/>
-      <c r="L58" s="23"/>
-      <c r="M58" s="23"/>
-      <c r="V58" s="19"/>
-    </row>
-    <row r="59" spans="1:22">
-      <c r="A59" s="19"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="23"/>
-      <c r="H59" s="23"/>
-      <c r="I59" s="23"/>
-      <c r="J59" s="23"/>
-      <c r="K59" s="23"/>
-      <c r="L59" s="23"/>
-      <c r="M59" s="23"/>
-      <c r="Q59" s="20"/>
-      <c r="R59" s="20"/>
-      <c r="S59" s="20" t="s">
-        <v>335</v>
-      </c>
-      <c r="T59" s="20"/>
-      <c r="U59" s="20"/>
-      <c r="V59" s="19"/>
-    </row>
-    <row r="60" spans="1:22">
-      <c r="A60" s="19"/>
-      <c r="F60" s="23"/>
-      <c r="G60" s="23"/>
-      <c r="H60" s="23" t="s">
-        <v>235</v>
-      </c>
-      <c r="I60" s="23"/>
-      <c r="J60" s="23" t="s">
+      <c r="K60" s="21"/>
+      <c r="L60" s="22">
+        <v>3000</v>
+      </c>
+      <c r="M60" s="21"/>
+      <c r="P60" s="36"/>
+      <c r="Q60" s="18"/>
+      <c r="R60" s="18"/>
+      <c r="S60" s="18"/>
+      <c r="T60" s="18"/>
+      <c r="U60" s="18"/>
+      <c r="V60" s="17"/>
+    </row>
+    <row r="61" spans="1:22">
+      <c r="A61" s="17"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="I61" s="21"/>
+      <c r="J61" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="K60" s="23"/>
-      <c r="L60" s="24">
-        <v>3000</v>
-      </c>
-      <c r="M60" s="23"/>
-      <c r="Q60" s="20"/>
-      <c r="R60" s="20"/>
-      <c r="S60" s="20"/>
-      <c r="T60" s="20"/>
-      <c r="U60" s="20"/>
-      <c r="V60" s="19"/>
-    </row>
-    <row r="61" spans="1:22">
-      <c r="A61" s="19"/>
-      <c r="F61" s="23"/>
-      <c r="G61" s="23"/>
-      <c r="H61" s="23" t="s">
+      <c r="K61" s="21"/>
+      <c r="L61" s="22">
+        <v>900</v>
+      </c>
+      <c r="M61" s="21"/>
+      <c r="P61" s="36"/>
+      <c r="Q61" s="18"/>
+      <c r="R61" s="18"/>
+      <c r="S61" s="18"/>
+      <c r="T61" s="18"/>
+      <c r="U61" s="18"/>
+      <c r="V61" s="17"/>
+    </row>
+    <row r="62" spans="1:22">
+      <c r="A62" s="17"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="I61" s="23"/>
-      <c r="J61" s="23" t="s">
-        <v>266</v>
-      </c>
-      <c r="K61" s="23"/>
-      <c r="L61" s="24">
-        <v>900</v>
-      </c>
-      <c r="M61" s="23"/>
-      <c r="Q61" s="20"/>
-      <c r="R61" s="20"/>
-      <c r="S61" s="20"/>
-      <c r="T61" s="20"/>
-      <c r="U61" s="20"/>
-      <c r="V61" s="19"/>
-    </row>
-    <row r="62" spans="1:22">
-      <c r="A62" s="19"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="23" t="s">
-        <v>268</v>
-      </c>
-      <c r="I62" s="23"/>
-      <c r="J62" s="23" t="s">
-        <v>259</v>
-      </c>
-      <c r="K62" s="23"/>
-      <c r="L62" s="24">
+      <c r="I62" s="21"/>
+      <c r="J62" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="K62" s="21"/>
+      <c r="L62" s="22">
         <v>800</v>
       </c>
-      <c r="M62" s="23"/>
-      <c r="Q62" s="20"/>
-      <c r="R62" s="20"/>
-      <c r="S62" s="20"/>
-      <c r="T62" s="20"/>
-      <c r="U62" s="20"/>
-      <c r="V62" s="19"/>
+      <c r="M62" s="21"/>
+      <c r="P62" s="36"/>
+      <c r="Q62" s="18"/>
+      <c r="R62" s="18"/>
+      <c r="S62" s="18"/>
+      <c r="T62" s="18"/>
+      <c r="U62" s="18"/>
+      <c r="V62" s="17"/>
     </row>
     <row r="63" spans="1:22">
-      <c r="A63" s="19"/>
-      <c r="F63" s="23"/>
-      <c r="G63" s="23"/>
-      <c r="H63" s="23"/>
-      <c r="I63" s="23"/>
-      <c r="J63" s="23"/>
-      <c r="K63" s="23"/>
-      <c r="L63" s="25">
+      <c r="A63" s="17"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="21"/>
+      <c r="I63" s="21"/>
+      <c r="J63" s="21"/>
+      <c r="K63" s="21"/>
+      <c r="L63" s="23">
         <v>4700</v>
       </c>
-      <c r="M63" s="23"/>
-      <c r="Q63" s="20"/>
-      <c r="R63" s="20"/>
-      <c r="S63" s="20"/>
-      <c r="T63" s="20"/>
-      <c r="U63" s="20"/>
-      <c r="V63" s="19"/>
+      <c r="M63" s="21"/>
+      <c r="P63" s="36"/>
+      <c r="Q63" s="18"/>
+      <c r="R63" s="18"/>
+      <c r="S63" s="18"/>
+      <c r="T63" s="18"/>
+      <c r="U63" s="18"/>
+      <c r="V63" s="17"/>
     </row>
     <row r="64" spans="1:22">
-      <c r="A64" s="19"/>
-      <c r="F64" s="23"/>
-      <c r="G64" s="23"/>
-      <c r="H64" s="23"/>
-      <c r="I64" s="23"/>
-      <c r="J64" s="23"/>
-      <c r="K64" s="23" t="s">
+      <c r="A64" s="17"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="21"/>
+      <c r="J64" s="21"/>
+      <c r="K64" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="L64" s="24">
+      <c r="L64" s="22">
         <v>700</v>
       </c>
-      <c r="M64" s="23"/>
-      <c r="Q64" s="20"/>
-      <c r="R64" s="20"/>
-      <c r="S64" s="20"/>
-      <c r="T64" s="20"/>
-      <c r="U64" s="20"/>
-      <c r="V64" s="19"/>
+      <c r="M64" s="21"/>
+      <c r="P64" s="36"/>
+      <c r="Q64" s="18"/>
+      <c r="R64" s="18"/>
+      <c r="S64" s="18"/>
+      <c r="T64" s="18"/>
+      <c r="U64" s="18"/>
+      <c r="V64" s="17"/>
     </row>
     <row r="65" spans="1:22">
-      <c r="A65" s="19"/>
-      <c r="F65" s="23"/>
-      <c r="G65" s="23"/>
-      <c r="H65" s="23"/>
-      <c r="I65" s="23"/>
-      <c r="J65" s="23"/>
-      <c r="K65" s="23"/>
-      <c r="L65" s="23"/>
-      <c r="M65" s="23"/>
-      <c r="Q65" s="20"/>
-      <c r="R65" s="20"/>
-      <c r="S65" s="20"/>
-      <c r="T65" s="20"/>
-      <c r="U65" s="20"/>
-      <c r="V65" s="19"/>
+      <c r="A65" s="17"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="21"/>
+      <c r="J65" s="21"/>
+      <c r="K65" s="21"/>
+      <c r="L65" s="21"/>
+      <c r="M65" s="21"/>
+      <c r="P65" s="36"/>
+      <c r="Q65" s="18"/>
+      <c r="R65" s="18"/>
+      <c r="S65" s="18"/>
+      <c r="T65" s="18"/>
+      <c r="U65" s="18"/>
+      <c r="V65" s="17"/>
     </row>
     <row r="66" spans="1:22">
-      <c r="A66" s="19"/>
-      <c r="F66" s="23"/>
-      <c r="G66" s="23"/>
-      <c r="H66" s="23"/>
-      <c r="I66" s="23"/>
-      <c r="J66" s="23"/>
-      <c r="K66" s="23"/>
-      <c r="L66" s="26">
+      <c r="A66" s="17"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="21"/>
+      <c r="J66" s="21"/>
+      <c r="K66" s="21"/>
+      <c r="L66" s="24">
         <v>4000</v>
       </c>
-      <c r="M66" s="23"/>
-      <c r="Q66" s="20"/>
-      <c r="R66" s="20"/>
-      <c r="S66" s="20"/>
-      <c r="T66" s="20"/>
-      <c r="U66" s="20"/>
-      <c r="V66" s="19"/>
+      <c r="M66" s="21"/>
+      <c r="P66" s="36"/>
+      <c r="Q66" s="18"/>
+      <c r="R66" s="18"/>
+      <c r="S66" s="18"/>
+      <c r="T66" s="18"/>
+      <c r="U66" s="18"/>
+      <c r="V66" s="17"/>
     </row>
     <row r="67" spans="1:22">
-      <c r="A67" s="19"/>
-      <c r="F67" s="23"/>
-      <c r="G67" s="23"/>
-      <c r="H67" s="23"/>
-      <c r="I67" s="23"/>
-      <c r="J67" s="23"/>
-      <c r="K67" s="23" t="s">
+      <c r="A67" s="17"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="21"/>
+      <c r="I67" s="21"/>
+      <c r="J67" s="21"/>
+      <c r="K67" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="L67" s="21">
+        <v>25000</v>
+      </c>
+      <c r="M67" s="21"/>
+      <c r="P67" s="36"/>
+      <c r="Q67" s="18"/>
+      <c r="R67" s="18"/>
+      <c r="S67" s="18"/>
+      <c r="T67" s="18"/>
+      <c r="U67" s="18"/>
+      <c r="V67" s="17"/>
+    </row>
+    <row r="68" spans="1:22">
+      <c r="A68" s="17"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="21"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="21"/>
+      <c r="J68" s="21"/>
+      <c r="K68" s="21"/>
+      <c r="L68" s="21"/>
+      <c r="M68" s="21"/>
+      <c r="P68" s="36"/>
+      <c r="Q68" s="18"/>
+      <c r="R68" s="18"/>
+      <c r="S68" s="18"/>
+      <c r="T68" s="18"/>
+      <c r="U68" s="18"/>
+      <c r="V68" s="17"/>
+    </row>
+    <row r="69" spans="1:22">
+      <c r="A69" s="17"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="21"/>
+      <c r="J69" s="21"/>
+      <c r="K69" s="21"/>
+      <c r="L69" s="21">
+        <v>29000</v>
+      </c>
+      <c r="M69" s="21"/>
+      <c r="P69" s="36"/>
+      <c r="Q69" s="18"/>
+      <c r="R69" s="18"/>
+      <c r="S69" s="18"/>
+      <c r="T69" s="18"/>
+      <c r="U69" s="18"/>
+      <c r="V69" s="17"/>
+    </row>
+    <row r="70" spans="1:22">
+      <c r="A70" s="17"/>
+      <c r="E70" t="s">
+        <v>294</v>
+      </c>
+      <c r="F70" s="21"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="21"/>
+      <c r="I70" s="21"/>
+      <c r="J70" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="K70" s="21"/>
+      <c r="L70" s="21">
+        <v>10000</v>
+      </c>
+      <c r="M70" s="21"/>
+      <c r="P70" s="36"/>
+      <c r="Q70" s="18"/>
+      <c r="R70" s="18"/>
+      <c r="S70" s="18"/>
+      <c r="T70" s="18"/>
+      <c r="U70" s="18"/>
+      <c r="V70" s="17"/>
+    </row>
+    <row r="71" spans="1:22">
+      <c r="A71" s="17"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="21"/>
+      <c r="H71" s="21"/>
+      <c r="I71" s="21"/>
+      <c r="J71" s="21"/>
+      <c r="K71" s="21"/>
+      <c r="L71" s="21"/>
+      <c r="M71" s="21"/>
+      <c r="P71" s="36"/>
+      <c r="Q71" s="18"/>
+      <c r="R71" s="18"/>
+      <c r="S71" s="18"/>
+      <c r="T71" s="18"/>
+      <c r="U71" s="18"/>
+      <c r="V71" s="17"/>
+    </row>
+    <row r="72" spans="1:22">
+      <c r="A72" s="17"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="21"/>
+      <c r="H72" s="21"/>
+      <c r="I72" s="21"/>
+      <c r="J72" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="L67" s="23">
-        <v>25000</v>
-      </c>
-      <c r="M67" s="23"/>
-      <c r="Q67" s="20"/>
-      <c r="R67" s="20"/>
-      <c r="S67" s="20"/>
-      <c r="T67" s="20"/>
-      <c r="U67" s="20"/>
-      <c r="V67" s="19"/>
-    </row>
-    <row r="68" spans="1:22">
-      <c r="A68" s="19"/>
-      <c r="F68" s="23"/>
-      <c r="G68" s="23"/>
-      <c r="H68" s="23"/>
-      <c r="I68" s="23"/>
-      <c r="J68" s="23"/>
-      <c r="K68" s="23"/>
-      <c r="L68" s="23"/>
-      <c r="M68" s="23"/>
-      <c r="Q68" s="20"/>
-      <c r="R68" s="20"/>
-      <c r="S68" s="20"/>
-      <c r="T68" s="20"/>
-      <c r="U68" s="20"/>
-      <c r="V68" s="19"/>
-    </row>
-    <row r="69" spans="1:22">
-      <c r="A69" s="19"/>
-      <c r="F69" s="23"/>
-      <c r="G69" s="23"/>
-      <c r="H69" s="23"/>
-      <c r="I69" s="23"/>
-      <c r="J69" s="23"/>
-      <c r="K69" s="23"/>
-      <c r="L69" s="23">
-        <v>29000</v>
-      </c>
-      <c r="M69" s="23"/>
-      <c r="Q69" s="20"/>
-      <c r="R69" s="20"/>
-      <c r="S69" s="20"/>
-      <c r="T69" s="20"/>
-      <c r="U69" s="20"/>
-      <c r="V69" s="19"/>
-    </row>
-    <row r="70" spans="1:22">
-      <c r="A70" s="19"/>
-      <c r="E70" t="s">
-        <v>295</v>
-      </c>
-      <c r="F70" s="23"/>
-      <c r="G70" s="23"/>
-      <c r="H70" s="23"/>
-      <c r="I70" s="23"/>
-      <c r="J70" s="23" t="s">
-        <v>296</v>
-      </c>
-      <c r="K70" s="23"/>
-      <c r="L70" s="23">
-        <v>10000</v>
-      </c>
-      <c r="M70" s="23"/>
-      <c r="Q70" s="20"/>
-      <c r="R70" s="20"/>
-      <c r="S70" s="20"/>
-      <c r="T70" s="20"/>
-      <c r="U70" s="20"/>
-      <c r="V70" s="19"/>
-    </row>
-    <row r="71" spans="1:22">
-      <c r="A71" s="19"/>
-      <c r="F71" s="23"/>
-      <c r="G71" s="23"/>
-      <c r="H71" s="23"/>
-      <c r="I71" s="23"/>
-      <c r="J71" s="23"/>
-      <c r="K71" s="23"/>
-      <c r="L71" s="23"/>
-      <c r="M71" s="23"/>
-      <c r="Q71" s="20"/>
-      <c r="R71" s="20"/>
-      <c r="S71" s="20"/>
-      <c r="T71" s="20"/>
-      <c r="U71" s="20"/>
-      <c r="V71" s="19"/>
-    </row>
-    <row r="72" spans="1:22">
-      <c r="A72" s="19"/>
-      <c r="F72" s="23"/>
-      <c r="G72" s="23"/>
-      <c r="H72" s="23"/>
-      <c r="I72" s="23"/>
-      <c r="J72" s="23" t="s">
-        <v>272</v>
-      </c>
-      <c r="K72" s="23"/>
-      <c r="L72" s="27">
+      <c r="K72" s="21"/>
+      <c r="L72" s="25">
         <v>19000</v>
       </c>
-      <c r="M72" s="23"/>
-      <c r="V72" s="19"/>
+      <c r="M72" s="21"/>
+      <c r="V72" s="17"/>
     </row>
     <row r="73" spans="1:22">
-      <c r="A73" s="19"/>
-      <c r="F73" s="23"/>
-      <c r="G73" s="23"/>
-      <c r="H73" s="23"/>
-      <c r="I73" s="23"/>
-      <c r="J73" s="23"/>
-      <c r="K73" s="23"/>
-      <c r="L73" s="23"/>
-      <c r="M73" s="23"/>
-      <c r="V73" s="19"/>
+      <c r="A73" s="17"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="21"/>
+      <c r="H73" s="21"/>
+      <c r="I73" s="21"/>
+      <c r="J73" s="21"/>
+      <c r="K73" s="21"/>
+      <c r="L73" s="21"/>
+      <c r="M73" s="21"/>
+      <c r="V73" s="17"/>
     </row>
     <row r="74" spans="1:22">
-      <c r="A74" s="19"/>
-      <c r="V74" s="19"/>
+      <c r="A74" s="17"/>
+      <c r="V74" s="17"/>
     </row>
     <row r="75" spans="1:22">
-      <c r="B75" s="19"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="19"/>
-      <c r="E75" s="19"/>
-      <c r="F75" s="19"/>
-      <c r="G75" s="19"/>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="19"/>
-      <c r="K75" s="19"/>
-      <c r="L75" s="19"/>
-      <c r="M75" s="19"/>
-      <c r="N75" s="19"/>
-      <c r="O75" s="19"/>
-      <c r="P75" s="19"/>
-      <c r="Q75" s="19"/>
-      <c r="R75" s="19"/>
-      <c r="S75" s="19"/>
-      <c r="T75" s="19"/>
-      <c r="U75" s="19"/>
-      <c r="V75" s="19"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="17"/>
+      <c r="I75" s="17"/>
+      <c r="J75" s="17"/>
+      <c r="K75" s="17"/>
+      <c r="L75" s="17"/>
+      <c r="M75" s="17"/>
+      <c r="N75" s="17"/>
+      <c r="O75" s="17"/>
+      <c r="P75" s="17"/>
+      <c r="Q75" s="17"/>
+      <c r="R75" s="17"/>
+      <c r="S75" s="17"/>
+      <c r="T75" s="17"/>
+      <c r="U75" s="17"/>
+      <c r="V75" s="17"/>
     </row>
     <row r="76" spans="1:22">
-      <c r="B76" s="19"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="19"/>
-      <c r="E76" s="19"/>
-      <c r="F76" s="19"/>
-      <c r="G76" s="19"/>
-      <c r="H76" s="19"/>
-      <c r="I76" s="19"/>
-      <c r="J76" s="19"/>
-      <c r="K76" s="19"/>
-      <c r="L76" s="19"/>
-      <c r="M76" s="19"/>
-      <c r="N76" s="19"/>
-      <c r="O76" s="19"/>
-      <c r="P76" s="19"/>
-      <c r="Q76" s="19"/>
-      <c r="R76" s="19"/>
-      <c r="S76" s="19"/>
-      <c r="T76" s="19"/>
-      <c r="U76" s="19"/>
-      <c r="V76" s="19"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="17"/>
+      <c r="I76" s="17"/>
+      <c r="J76" s="17"/>
+      <c r="K76" s="17"/>
+      <c r="L76" s="17"/>
+      <c r="M76" s="17"/>
+      <c r="N76" s="17"/>
+      <c r="O76" s="17"/>
+      <c r="P76" s="17"/>
+      <c r="Q76" s="17"/>
+      <c r="R76" s="17"/>
+      <c r="S76" s="17"/>
+      <c r="T76" s="17"/>
+      <c r="U76" s="17"/>
+      <c r="V76" s="17"/>
     </row>
     <row r="77" spans="1:22">
-      <c r="B77" s="19"/>
-      <c r="J77" s="19"/>
-      <c r="K77" s="19"/>
-      <c r="L77" s="19"/>
-      <c r="M77" s="19"/>
-      <c r="N77" s="19"/>
-      <c r="S77" s="19"/>
-      <c r="T77" s="19"/>
-      <c r="U77" s="19"/>
-      <c r="V77" s="19"/>
+      <c r="B77" s="17"/>
+      <c r="J77" s="17"/>
+      <c r="K77" s="17"/>
+      <c r="L77" s="17"/>
+      <c r="M77" s="17"/>
+      <c r="N77" s="17"/>
+      <c r="S77" s="17"/>
+      <c r="T77" s="17"/>
+      <c r="U77" s="17"/>
+      <c r="V77" s="17"/>
     </row>
     <row r="78" spans="1:22">
-      <c r="B78" s="19"/>
-      <c r="J78" s="19"/>
-      <c r="K78" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="L78" s="17"/>
-      <c r="M78" s="17"/>
-      <c r="N78" s="19"/>
-      <c r="S78" s="19"/>
-      <c r="T78" s="17" t="s">
+      <c r="B78" s="17"/>
+      <c r="J78" s="17"/>
+      <c r="K78" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="U78" s="17"/>
-      <c r="V78" s="19"/>
+      <c r="L78" s="39"/>
+      <c r="M78" s="39"/>
+      <c r="N78" s="17"/>
+      <c r="S78" s="17"/>
+      <c r="T78" s="39" t="s">
+        <v>275</v>
+      </c>
+      <c r="U78" s="39"/>
+      <c r="V78" s="17"/>
     </row>
     <row r="79" spans="1:22">
-      <c r="B79" s="19"/>
-      <c r="J79" s="19"/>
-      <c r="K79" s="19"/>
-      <c r="L79" s="19"/>
-      <c r="M79" s="19"/>
-      <c r="N79" s="19"/>
-      <c r="S79" s="19"/>
-      <c r="T79" s="19"/>
-      <c r="U79" s="19"/>
-      <c r="V79" s="19"/>
+      <c r="B79" s="17"/>
+      <c r="J79" s="17"/>
+      <c r="K79" s="17"/>
+      <c r="L79" s="17"/>
+      <c r="M79" s="17"/>
+      <c r="N79" s="17"/>
+      <c r="S79" s="17"/>
+      <c r="T79" s="17"/>
+      <c r="U79" s="17"/>
+      <c r="V79" s="17"/>
     </row>
     <row r="80" spans="1:22">
-      <c r="B80" s="19"/>
+      <c r="B80" s="17"/>
       <c r="K80">
         <v>91000</v>
       </c>
       <c r="L80" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="T80">
         <v>2035</v>
       </c>
       <c r="U80" t="s">
-        <v>273</v>
-      </c>
-      <c r="V80" s="19"/>
+        <v>272</v>
+      </c>
+      <c r="V80" s="17"/>
     </row>
     <row r="81" spans="2:22">
-      <c r="B81" s="19"/>
+      <c r="B81" s="17"/>
       <c r="K81">
         <v>7930</v>
       </c>
       <c r="L81" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="T81">
         <v>136900</v>
       </c>
       <c r="U81" t="s">
-        <v>279</v>
-      </c>
-      <c r="V81" s="19"/>
+        <v>278</v>
+      </c>
+      <c r="V81" s="17"/>
     </row>
     <row r="82" spans="2:22">
-      <c r="B82" s="19"/>
+      <c r="B82" s="17"/>
       <c r="K82">
         <v>27760</v>
       </c>
       <c r="L82" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="T82">
         <v>2500</v>
       </c>
       <c r="U82" t="s">
-        <v>280</v>
-      </c>
-      <c r="V82" s="19"/>
+        <v>279</v>
+      </c>
+      <c r="V82" s="17"/>
     </row>
     <row r="83" spans="2:22">
-      <c r="B83" s="19"/>
+      <c r="B83" s="17"/>
       <c r="K83">
         <v>39650</v>
       </c>
@@ -5541,975 +5821,1103 @@
         <v>2060</v>
       </c>
       <c r="U83" t="s">
-        <v>274</v>
-      </c>
-      <c r="V83" s="19"/>
+        <v>273</v>
+      </c>
+      <c r="V83" s="17"/>
     </row>
     <row r="84" spans="2:22">
-      <c r="B84" s="19"/>
+      <c r="B84" s="17"/>
       <c r="K84">
         <v>4785</v>
       </c>
       <c r="L84" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="T84">
         <v>16880</v>
       </c>
       <c r="U84" t="s">
-        <v>281</v>
-      </c>
-      <c r="V84" s="19"/>
+        <v>280</v>
+      </c>
+      <c r="V84" s="17"/>
     </row>
     <row r="85" spans="2:22">
-      <c r="B85" s="19"/>
+      <c r="B85" s="17"/>
       <c r="K85">
         <v>17470</v>
       </c>
       <c r="L85" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="T85">
         <v>3885</v>
       </c>
       <c r="U85" t="s">
-        <v>275</v>
-      </c>
-      <c r="V85" s="19"/>
+        <v>274</v>
+      </c>
+      <c r="V85" s="17"/>
     </row>
     <row r="86" spans="2:22">
-      <c r="B86" s="19"/>
+      <c r="B86" s="17"/>
       <c r="K86">
         <v>600</v>
       </c>
       <c r="L86" t="s">
-        <v>291</v>
-      </c>
-      <c r="V86" s="19"/>
+        <v>290</v>
+      </c>
+      <c r="V86" s="17"/>
     </row>
     <row r="87" spans="2:22">
-      <c r="B87" s="19"/>
-      <c r="T87">
-        <v>400</v>
-      </c>
-      <c r="U87" t="s">
-        <v>17</v>
-      </c>
-      <c r="V87" s="19"/>
+      <c r="B87" s="17"/>
+      <c r="V87" s="17"/>
     </row>
     <row r="88" spans="2:22">
-      <c r="B88" s="19"/>
-      <c r="T88">
-        <v>200</v>
-      </c>
-      <c r="U88" t="s">
-        <v>282</v>
-      </c>
-      <c r="V88" s="19"/>
+      <c r="B88" s="17"/>
+      <c r="V88" s="17"/>
     </row>
     <row r="89" spans="2:22">
-      <c r="B89" s="19"/>
+      <c r="B89" s="17"/>
       <c r="K89">
         <v>189195</v>
       </c>
-      <c r="V89" s="19"/>
+      <c r="T89">
+        <v>400</v>
+      </c>
+      <c r="U89" t="s">
+        <v>17</v>
+      </c>
+      <c r="V89" s="17"/>
     </row>
     <row r="90" spans="2:22">
-      <c r="B90" s="19"/>
-      <c r="V90" s="19"/>
+      <c r="B90" s="17"/>
+      <c r="T90">
+        <v>200</v>
+      </c>
+      <c r="U90" t="s">
+        <v>281</v>
+      </c>
+      <c r="V90" s="17"/>
     </row>
     <row r="91" spans="2:22">
-      <c r="B91" s="19"/>
-      <c r="U91" t="s">
+      <c r="B91" s="17"/>
+      <c r="V91" s="17"/>
+    </row>
+    <row r="92" spans="2:22">
+      <c r="B92" s="17"/>
+      <c r="V92" s="17"/>
+    </row>
+    <row r="93" spans="2:22">
+      <c r="B93" s="17"/>
+      <c r="U93" t="s">
+        <v>282</v>
+      </c>
+      <c r="V93" s="17"/>
+    </row>
+    <row r="94" spans="2:22">
+      <c r="B94" s="17"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="3"/>
+      <c r="J94" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="T94">
+        <v>525</v>
+      </c>
+      <c r="U94" t="s">
         <v>283</v>
       </c>
-      <c r="V91" s="19"/>
-    </row>
-    <row r="92" spans="2:22">
-      <c r="B92" s="19"/>
-      <c r="T92">
-        <v>525</v>
-      </c>
-      <c r="U92" t="s">
-        <v>284</v>
-      </c>
-      <c r="V92" s="19"/>
-    </row>
-    <row r="93" spans="2:22">
-      <c r="B93" s="19"/>
-      <c r="T93">
-        <v>550</v>
-      </c>
-      <c r="U93" t="s">
-        <v>285</v>
-      </c>
-      <c r="V93" s="19"/>
-    </row>
-    <row r="94" spans="2:22">
-      <c r="B94" s="19"/>
-      <c r="T94">
-        <v>550</v>
-      </c>
-      <c r="U94" t="s">
-        <v>152</v>
-      </c>
-      <c r="V94" s="19"/>
+      <c r="V94" s="17"/>
     </row>
     <row r="95" spans="2:22">
-      <c r="B95" s="19"/>
+      <c r="B95" s="17"/>
+      <c r="S95" t="s">
+        <v>287</v>
+      </c>
       <c r="T95">
         <v>550</v>
       </c>
       <c r="U95" t="s">
-        <v>286</v>
-      </c>
-      <c r="V95" s="19"/>
+        <v>284</v>
+      </c>
+      <c r="V95" s="17"/>
     </row>
     <row r="96" spans="2:22">
-      <c r="B96" s="19"/>
-      <c r="V96" s="19"/>
+      <c r="B96" s="17"/>
+      <c r="S96" t="s">
+        <v>288</v>
+      </c>
+      <c r="T96">
+        <v>550</v>
+      </c>
+      <c r="U96" t="s">
+        <v>152</v>
+      </c>
+      <c r="V96" s="17"/>
     </row>
     <row r="97" spans="2:22">
-      <c r="B97" s="19"/>
-      <c r="V97" s="19"/>
+      <c r="B97" s="17"/>
+      <c r="S97" t="s">
+        <v>148</v>
+      </c>
+      <c r="T97">
+        <v>550</v>
+      </c>
+      <c r="U97" t="s">
+        <v>285</v>
+      </c>
+      <c r="V97" s="17"/>
     </row>
     <row r="98" spans="2:22" ht="15" thickBot="1">
-      <c r="B98" s="19"/>
+      <c r="B98" s="17"/>
       <c r="T98">
         <v>185350</v>
       </c>
-      <c r="V98" s="19"/>
+      <c r="V98" s="17"/>
     </row>
     <row r="99" spans="2:22" ht="15.6" thickTop="1" thickBot="1">
-      <c r="B99" s="19"/>
+      <c r="B99" s="17"/>
       <c r="J99" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K99">
         <v>3845</v>
       </c>
-      <c r="L99" s="42" t="s">
-        <v>293</v>
+      <c r="L99" s="35" t="s">
+        <v>292</v>
       </c>
       <c r="M99">
         <v>189195</v>
       </c>
-      <c r="N99" s="42" t="s">
-        <v>292</v>
+      <c r="N99" s="35" t="s">
+        <v>291</v>
       </c>
       <c r="O99">
         <v>185350</v>
       </c>
-      <c r="V99" s="19"/>
+      <c r="V99" s="17"/>
     </row>
     <row r="100" spans="2:22" ht="15" thickTop="1">
-      <c r="B100" s="19"/>
-      <c r="V100" s="19"/>
+      <c r="B100" s="17"/>
+      <c r="V100" s="17"/>
     </row>
     <row r="101" spans="2:22">
-      <c r="B101" s="19"/>
-      <c r="V101" s="19"/>
+      <c r="B101" s="17"/>
+      <c r="V101" s="17"/>
     </row>
     <row r="102" spans="2:22">
-      <c r="B102" s="19"/>
-      <c r="C102" s="19"/>
-      <c r="D102" s="19"/>
-      <c r="E102" s="19"/>
-      <c r="F102" s="19"/>
-      <c r="G102" s="19"/>
-      <c r="H102" s="19"/>
-      <c r="I102" s="19"/>
-      <c r="J102" s="19"/>
-      <c r="K102" s="19"/>
-      <c r="L102" s="19"/>
-      <c r="M102" s="19"/>
-      <c r="N102" s="19"/>
-      <c r="O102" s="19"/>
-      <c r="P102" s="19"/>
-      <c r="Q102" s="19"/>
-      <c r="R102" s="19"/>
-      <c r="S102" s="19"/>
-      <c r="T102" s="19"/>
-      <c r="U102" s="19"/>
-      <c r="V102" s="19"/>
+      <c r="B102" s="17"/>
+      <c r="C102" s="17"/>
+      <c r="D102" s="17"/>
+      <c r="E102" s="17"/>
+      <c r="F102" s="17"/>
+      <c r="G102" s="17"/>
+      <c r="H102" s="17"/>
+      <c r="I102" s="17"/>
+      <c r="J102" s="17"/>
+      <c r="K102" s="17"/>
+      <c r="L102" s="17"/>
+      <c r="M102" s="17"/>
+      <c r="N102" s="17"/>
+      <c r="O102" s="17"/>
+      <c r="P102" s="17"/>
+      <c r="Q102" s="17"/>
+      <c r="R102" s="17"/>
+      <c r="S102" s="17"/>
+      <c r="T102" s="17"/>
+      <c r="U102" s="17"/>
+      <c r="V102" s="17"/>
     </row>
     <row r="103" spans="2:22">
-      <c r="B103" s="19"/>
-      <c r="C103" s="19"/>
-      <c r="D103" s="19"/>
-      <c r="E103" s="19"/>
-      <c r="F103" s="19"/>
-      <c r="G103" s="19"/>
-      <c r="H103" s="19"/>
-      <c r="I103" s="19"/>
-      <c r="J103" s="19"/>
-      <c r="K103" s="19"/>
-      <c r="L103" s="19"/>
-      <c r="M103" s="19"/>
-      <c r="N103" s="19"/>
-      <c r="O103" s="19"/>
-      <c r="P103" s="19"/>
-      <c r="Q103" s="19"/>
-      <c r="R103" s="19"/>
-      <c r="S103" s="19"/>
-      <c r="T103" s="19"/>
-      <c r="U103" s="19"/>
-      <c r="V103" s="19"/>
+      <c r="B103" s="17"/>
+      <c r="C103" s="17"/>
+      <c r="D103" s="17"/>
+      <c r="E103" s="17"/>
+      <c r="F103" s="17"/>
+      <c r="G103" s="17"/>
+      <c r="H103" s="17"/>
+      <c r="I103" s="17"/>
+      <c r="J103" s="17"/>
+      <c r="K103" s="17"/>
+      <c r="L103" s="17"/>
+      <c r="M103" s="17"/>
+      <c r="N103" s="17"/>
+      <c r="O103" s="17"/>
+      <c r="P103" s="17"/>
+      <c r="Q103" s="17"/>
+      <c r="R103" s="17"/>
+      <c r="S103" s="17"/>
+      <c r="T103" s="17"/>
+      <c r="U103" s="17"/>
+      <c r="V103" s="17"/>
     </row>
     <row r="104" spans="2:22">
-      <c r="B104" s="19"/>
-      <c r="R104" s="19"/>
-      <c r="S104" s="19"/>
-      <c r="T104" s="19"/>
-      <c r="U104" s="19"/>
-      <c r="V104" s="19"/>
+      <c r="B104" s="17"/>
+      <c r="R104" s="17"/>
+      <c r="S104" s="17"/>
+      <c r="T104" s="17"/>
+      <c r="U104" s="17"/>
+      <c r="V104" s="17"/>
     </row>
     <row r="105" spans="2:22">
-      <c r="B105" s="19"/>
-      <c r="R105" s="19"/>
-      <c r="S105" s="17" t="s">
+      <c r="B105" s="17"/>
+      <c r="R105" s="17"/>
+      <c r="S105" s="38" t="s">
+        <v>296</v>
+      </c>
+      <c r="T105" s="38"/>
+      <c r="U105" s="17"/>
+      <c r="V105" s="17"/>
+    </row>
+    <row r="106" spans="2:22">
+      <c r="B106" s="17"/>
+      <c r="R106" s="17"/>
+      <c r="S106" s="17"/>
+      <c r="T106" s="17"/>
+      <c r="U106" s="17"/>
+      <c r="V106" s="17"/>
+    </row>
+    <row r="107" spans="2:22">
+      <c r="B107" s="17"/>
+      <c r="V107" s="17"/>
+    </row>
+    <row r="108" spans="2:22">
+      <c r="B108" s="17"/>
+      <c r="V108" s="17"/>
+    </row>
+    <row r="109" spans="2:22">
+      <c r="B109" s="17"/>
+      <c r="S109" s="39"/>
+      <c r="T109" s="39"/>
+      <c r="U109" s="39"/>
+      <c r="V109" s="17"/>
+    </row>
+    <row r="110" spans="2:22">
+      <c r="B110" s="17"/>
+      <c r="Q110" s="6"/>
+      <c r="S110" s="37"/>
+      <c r="U110" s="3"/>
+      <c r="V110" s="17"/>
+    </row>
+    <row r="111" spans="2:22">
+      <c r="B111" s="17"/>
+      <c r="E111" s="9"/>
+      <c r="Q111" s="6"/>
+      <c r="S111" s="37"/>
+      <c r="U111" s="3"/>
+      <c r="V111" s="17"/>
+    </row>
+    <row r="112" spans="2:22">
+      <c r="B112" s="17"/>
+      <c r="E112" s="9"/>
+      <c r="Q112" s="6"/>
+      <c r="S112" s="37"/>
+      <c r="U112" s="3"/>
+      <c r="V112" s="17"/>
+    </row>
+    <row r="113" spans="2:22">
+      <c r="B113" s="17"/>
+      <c r="E113" s="9"/>
+      <c r="Q113" s="6"/>
+      <c r="S113" s="37"/>
+      <c r="U113" s="3"/>
+      <c r="V113" s="17"/>
+    </row>
+    <row r="114" spans="2:22">
+      <c r="B114" s="17"/>
+      <c r="E114" s="9"/>
+      <c r="Q114" s="6"/>
+      <c r="S114" s="37"/>
+      <c r="U114" s="3"/>
+      <c r="V114" s="17"/>
+    </row>
+    <row r="115" spans="2:22">
+      <c r="B115" s="17"/>
+      <c r="E115" s="9"/>
+      <c r="Q115" s="6"/>
+      <c r="S115" s="37"/>
+      <c r="U115" s="3"/>
+      <c r="V115" s="17"/>
+    </row>
+    <row r="116" spans="2:22">
+      <c r="B116" s="17"/>
+      <c r="E116" s="9"/>
+      <c r="Q116" s="6"/>
+      <c r="S116" s="37"/>
+      <c r="U116" s="3"/>
+      <c r="V116" s="17"/>
+    </row>
+    <row r="117" spans="2:22">
+      <c r="B117" s="17"/>
+      <c r="E117" s="9"/>
+      <c r="Q117" s="6"/>
+      <c r="S117" s="37"/>
+      <c r="U117" s="3"/>
+      <c r="V117" s="17"/>
+    </row>
+    <row r="118" spans="2:22">
+      <c r="B118" s="17"/>
+      <c r="E118" s="9"/>
+      <c r="Q118" s="6"/>
+      <c r="S118" s="37"/>
+      <c r="U118" s="3"/>
+      <c r="V118" s="17"/>
+    </row>
+    <row r="119" spans="2:22">
+      <c r="B119" s="17"/>
+      <c r="E119" s="9"/>
+      <c r="Q119" s="6"/>
+      <c r="S119" s="37"/>
+      <c r="U119" s="3"/>
+      <c r="V119" s="17"/>
+    </row>
+    <row r="120" spans="2:22">
+      <c r="B120" s="17"/>
+      <c r="E120" s="9"/>
+      <c r="Q120" s="6"/>
+      <c r="S120" s="37"/>
+      <c r="U120" s="3"/>
+      <c r="V120" s="17"/>
+    </row>
+    <row r="121" spans="2:22">
+      <c r="B121" s="17"/>
+      <c r="E121" s="9"/>
+      <c r="Q121" s="6"/>
+      <c r="S121" s="37"/>
+      <c r="U121" s="3"/>
+      <c r="V121" s="17"/>
+    </row>
+    <row r="122" spans="2:22">
+      <c r="B122" s="17"/>
+      <c r="E122" s="9"/>
+      <c r="Q122" s="6"/>
+      <c r="S122" s="37"/>
+      <c r="U122" s="3"/>
+      <c r="V122" s="17"/>
+    </row>
+    <row r="123" spans="2:22">
+      <c r="B123" s="17"/>
+      <c r="E123" s="9"/>
+      <c r="Q123" s="6"/>
+      <c r="S123" s="37"/>
+      <c r="U123" s="3"/>
+      <c r="V123" s="17"/>
+    </row>
+    <row r="124" spans="2:22">
+      <c r="B124" s="17"/>
+      <c r="E124" s="9"/>
+      <c r="Q124" s="6"/>
+      <c r="S124" s="37"/>
+      <c r="U124" s="3"/>
+      <c r="V124" s="17"/>
+    </row>
+    <row r="125" spans="2:22">
+      <c r="B125" s="17"/>
+      <c r="E125" s="9"/>
+      <c r="Q125" s="6"/>
+      <c r="S125" s="37"/>
+      <c r="U125" s="3"/>
+      <c r="V125" s="17"/>
+    </row>
+    <row r="126" spans="2:22">
+      <c r="B126" s="17"/>
+      <c r="E126" s="9"/>
+      <c r="Q126" s="6"/>
+      <c r="S126" s="37"/>
+      <c r="U126" s="3"/>
+      <c r="V126" s="17"/>
+    </row>
+    <row r="127" spans="2:22">
+      <c r="B127" s="17"/>
+      <c r="E127" s="9"/>
+      <c r="Q127" s="6"/>
+      <c r="S127" s="37"/>
+      <c r="U127" s="3"/>
+      <c r="V127" s="17"/>
+    </row>
+    <row r="128" spans="2:22">
+      <c r="B128" s="17"/>
+      <c r="E128" s="9"/>
+      <c r="Q128" s="6"/>
+      <c r="S128" s="37"/>
+      <c r="U128" s="3"/>
+      <c r="V128" s="17"/>
+    </row>
+    <row r="129" spans="2:22">
+      <c r="B129" s="17"/>
+      <c r="E129" s="9"/>
+      <c r="V129" s="17"/>
+    </row>
+    <row r="130" spans="2:22">
+      <c r="B130" s="17"/>
+      <c r="V130" s="17"/>
+    </row>
+    <row r="131" spans="2:22">
+      <c r="B131" s="17"/>
+      <c r="V131" s="17"/>
+    </row>
+    <row r="132" spans="2:22">
+      <c r="B132" s="17"/>
+      <c r="V132" s="17"/>
+    </row>
+    <row r="133" spans="2:22">
+      <c r="B133" s="17"/>
+      <c r="V133" s="17"/>
+    </row>
+    <row r="134" spans="2:22">
+      <c r="B134" s="17"/>
+      <c r="V134" s="17"/>
+    </row>
+    <row r="135" spans="2:22">
+      <c r="B135" s="17"/>
+      <c r="V135" s="17"/>
+    </row>
+    <row r="136" spans="2:22">
+      <c r="B136" s="17"/>
+      <c r="V136" s="17"/>
+    </row>
+    <row r="137" spans="2:22">
+      <c r="B137" s="17"/>
+      <c r="V137" s="17"/>
+    </row>
+    <row r="138" spans="2:22">
+      <c r="B138" s="17"/>
+      <c r="V138" s="17"/>
+    </row>
+    <row r="139" spans="2:22">
+      <c r="B139" s="17"/>
+      <c r="V139" s="17"/>
+    </row>
+    <row r="140" spans="2:22">
+      <c r="B140" s="17"/>
+      <c r="V140" s="17"/>
+    </row>
+    <row r="141" spans="2:22">
+      <c r="B141" s="17"/>
+      <c r="V141" s="17"/>
+    </row>
+    <row r="142" spans="2:22">
+      <c r="B142" s="17"/>
+      <c r="V142" s="17"/>
+    </row>
+    <row r="143" spans="2:22">
+      <c r="B143" s="17"/>
+      <c r="V143" s="17"/>
+    </row>
+    <row r="144" spans="2:22">
+      <c r="B144" s="17"/>
+      <c r="V144" s="17"/>
+    </row>
+    <row r="145" spans="2:22">
+      <c r="B145" s="17"/>
+      <c r="V145" s="17"/>
+    </row>
+    <row r="146" spans="2:22">
+      <c r="B146" s="17"/>
+      <c r="V146" s="17"/>
+    </row>
+    <row r="147" spans="2:22">
+      <c r="B147" s="17"/>
+      <c r="V147" s="17"/>
+    </row>
+    <row r="148" spans="2:22">
+      <c r="B148" s="17"/>
+      <c r="V148" s="17"/>
+    </row>
+    <row r="149" spans="2:22">
+      <c r="B149" s="17"/>
+      <c r="V149" s="17"/>
+    </row>
+    <row r="150" spans="2:22">
+      <c r="B150" s="17"/>
+      <c r="V150" s="17"/>
+    </row>
+    <row r="151" spans="2:22">
+      <c r="B151" s="17"/>
+      <c r="V151" s="17"/>
+    </row>
+    <row r="152" spans="2:22">
+      <c r="B152" s="17"/>
+      <c r="V152" s="17"/>
+    </row>
+    <row r="153" spans="2:22">
+      <c r="B153" s="17"/>
+      <c r="V153" s="17"/>
+    </row>
+    <row r="154" spans="2:22">
+      <c r="B154" s="17"/>
+      <c r="E154" s="45" t="s">
         <v>297</v>
       </c>
-      <c r="T105" s="17"/>
-      <c r="U105" s="19"/>
-      <c r="V105" s="19"/>
-    </row>
-    <row r="106" spans="2:22">
-      <c r="B106" s="19"/>
-      <c r="R106" s="19"/>
-      <c r="S106" s="19"/>
-      <c r="T106" s="19"/>
-      <c r="U106" s="19"/>
-      <c r="V106" s="19"/>
-    </row>
-    <row r="107" spans="2:22">
-      <c r="B107" s="19"/>
-      <c r="V107" s="19"/>
-    </row>
-    <row r="108" spans="2:22">
-      <c r="B108" s="19"/>
-      <c r="V108" s="19"/>
-    </row>
-    <row r="109" spans="2:22">
-      <c r="B109" s="19"/>
-      <c r="S109" s="17"/>
-      <c r="T109" s="17"/>
-      <c r="U109" s="17"/>
-      <c r="V109" s="19"/>
-    </row>
-    <row r="110" spans="2:22">
-      <c r="B110" s="19"/>
-      <c r="V110" s="19"/>
-    </row>
-    <row r="111" spans="2:22">
-      <c r="B111" s="19"/>
-      <c r="V111" s="19"/>
-    </row>
-    <row r="112" spans="2:22">
-      <c r="B112" s="19"/>
-      <c r="V112" s="19"/>
-    </row>
-    <row r="113" spans="2:22">
-      <c r="B113" s="19"/>
-      <c r="V113" s="19"/>
-    </row>
-    <row r="114" spans="2:22">
-      <c r="B114" s="19"/>
-      <c r="V114" s="19"/>
-    </row>
-    <row r="115" spans="2:22">
-      <c r="B115" s="19"/>
-      <c r="V115" s="19"/>
-    </row>
-    <row r="116" spans="2:22">
-      <c r="B116" s="19"/>
-      <c r="V116" s="19"/>
-    </row>
-    <row r="117" spans="2:22">
-      <c r="B117" s="19"/>
-      <c r="V117" s="19"/>
-    </row>
-    <row r="118" spans="2:22">
-      <c r="B118" s="19"/>
-      <c r="V118" s="19"/>
-    </row>
-    <row r="119" spans="2:22">
-      <c r="B119" s="19"/>
-      <c r="V119" s="19"/>
-    </row>
-    <row r="120" spans="2:22">
-      <c r="B120" s="19"/>
-      <c r="V120" s="19"/>
-    </row>
-    <row r="121" spans="2:22">
-      <c r="B121" s="19"/>
-      <c r="V121" s="19"/>
-    </row>
-    <row r="122" spans="2:22">
-      <c r="B122" s="19"/>
-      <c r="V122" s="19"/>
-    </row>
-    <row r="123" spans="2:22">
-      <c r="B123" s="19"/>
-      <c r="V123" s="19"/>
-    </row>
-    <row r="124" spans="2:22">
-      <c r="B124" s="19"/>
-      <c r="V124" s="19"/>
-    </row>
-    <row r="125" spans="2:22">
-      <c r="B125" s="19"/>
-      <c r="V125" s="19"/>
-    </row>
-    <row r="126" spans="2:22">
-      <c r="B126" s="19"/>
-      <c r="V126" s="19"/>
-    </row>
-    <row r="127" spans="2:22">
-      <c r="B127" s="19"/>
-      <c r="V127" s="19"/>
-    </row>
-    <row r="128" spans="2:22">
-      <c r="B128" s="19"/>
-      <c r="V128" s="19"/>
-    </row>
-    <row r="129" spans="2:22">
-      <c r="B129" s="19"/>
-      <c r="V129" s="19"/>
-    </row>
-    <row r="130" spans="2:22">
-      <c r="B130" s="19"/>
-      <c r="V130" s="19"/>
-    </row>
-    <row r="131" spans="2:22">
-      <c r="B131" s="19"/>
-      <c r="V131" s="19"/>
-    </row>
-    <row r="132" spans="2:22">
-      <c r="B132" s="19"/>
-      <c r="V132" s="19"/>
-    </row>
-    <row r="133" spans="2:22">
-      <c r="B133" s="19"/>
-      <c r="V133" s="19"/>
-    </row>
-    <row r="134" spans="2:22">
-      <c r="B134" s="19"/>
-      <c r="V134" s="19"/>
-    </row>
-    <row r="135" spans="2:22">
-      <c r="B135" s="19"/>
-      <c r="V135" s="19"/>
-    </row>
-    <row r="136" spans="2:22">
-      <c r="B136" s="19"/>
-      <c r="V136" s="19"/>
-    </row>
-    <row r="137" spans="2:22">
-      <c r="B137" s="19"/>
-      <c r="V137" s="19"/>
-    </row>
-    <row r="138" spans="2:22">
-      <c r="B138" s="19"/>
-      <c r="V138" s="19"/>
-    </row>
-    <row r="139" spans="2:22">
-      <c r="B139" s="19"/>
-      <c r="V139" s="19"/>
-    </row>
-    <row r="140" spans="2:22">
-      <c r="B140" s="19"/>
-      <c r="V140" s="19"/>
-    </row>
-    <row r="141" spans="2:22">
-      <c r="B141" s="19"/>
-      <c r="V141" s="19"/>
-    </row>
-    <row r="142" spans="2:22">
-      <c r="B142" s="19"/>
-      <c r="V142" s="19"/>
-    </row>
-    <row r="143" spans="2:22">
-      <c r="B143" s="19"/>
-      <c r="V143" s="19"/>
-    </row>
-    <row r="144" spans="2:22">
-      <c r="B144" s="19"/>
-      <c r="V144" s="19"/>
-    </row>
-    <row r="145" spans="2:22">
-      <c r="B145" s="19"/>
-      <c r="V145" s="19"/>
-    </row>
-    <row r="146" spans="2:22">
-      <c r="B146" s="19"/>
-      <c r="V146" s="19"/>
-    </row>
-    <row r="147" spans="2:22">
-      <c r="B147" s="19"/>
-      <c r="V147" s="19"/>
-    </row>
-    <row r="148" spans="2:22">
-      <c r="B148" s="19"/>
-      <c r="V148" s="19"/>
-    </row>
-    <row r="149" spans="2:22">
-      <c r="B149" s="19"/>
-      <c r="V149" s="19"/>
-    </row>
-    <row r="150" spans="2:22">
-      <c r="B150" s="19"/>
-      <c r="V150" s="19"/>
-    </row>
-    <row r="151" spans="2:22">
-      <c r="B151" s="19"/>
-      <c r="V151" s="19"/>
-    </row>
-    <row r="152" spans="2:22">
-      <c r="B152" s="19"/>
-      <c r="V152" s="19"/>
-    </row>
-    <row r="153" spans="2:22">
-      <c r="B153" s="19"/>
-      <c r="V153" s="19"/>
-    </row>
-    <row r="154" spans="2:22">
-      <c r="B154" s="19"/>
-      <c r="E154" s="28"/>
-      <c r="F154" s="29"/>
-      <c r="G154" s="30" t="s">
+      <c r="F154" s="40"/>
+      <c r="G154" s="40"/>
+      <c r="H154" s="40"/>
+      <c r="I154" s="40"/>
+      <c r="J154" s="40"/>
+      <c r="K154" s="41"/>
+      <c r="Q154" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="V154" s="17"/>
+    </row>
+    <row r="155" spans="2:22">
+      <c r="B155" s="17"/>
+      <c r="E155" s="46"/>
+      <c r="F155" s="43"/>
+      <c r="G155" s="43"/>
+      <c r="H155" s="43"/>
+      <c r="I155" s="43"/>
+      <c r="J155" s="43"/>
+      <c r="K155" s="44"/>
+      <c r="Q155" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="V155" s="17"/>
+    </row>
+    <row r="156" spans="2:22">
+      <c r="B156" s="17"/>
+      <c r="E156" s="28"/>
+      <c r="F156" s="19"/>
+      <c r="G156" s="19"/>
+      <c r="H156" s="19"/>
+      <c r="I156" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="J156" s="19"/>
+      <c r="K156" s="29"/>
+      <c r="Q156" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="R156" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="S156" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="U156" t="s">
+        <v>297</v>
+      </c>
+      <c r="V156" s="17"/>
+    </row>
+    <row r="157" spans="2:22">
+      <c r="B157" s="17"/>
+      <c r="E157" s="28"/>
+      <c r="F157" s="19"/>
+      <c r="G157" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="H157" s="21"/>
+      <c r="I157" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="J157" s="19"/>
+      <c r="K157" s="29"/>
+      <c r="T157" t="s">
         <v>298</v>
-      </c>
-      <c r="H154" s="30"/>
-      <c r="I154" s="30"/>
-      <c r="J154" s="29"/>
-      <c r="K154" s="38"/>
-      <c r="Q154" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="V154" s="19"/>
-    </row>
-    <row r="155" spans="2:22">
-      <c r="B155" s="19"/>
-      <c r="E155" s="32"/>
-      <c r="F155" s="21"/>
-      <c r="G155" s="21"/>
-      <c r="H155" s="21"/>
-      <c r="I155" s="21"/>
-      <c r="J155" s="21"/>
-      <c r="K155" s="33"/>
-      <c r="Q155" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="V155" s="19"/>
-    </row>
-    <row r="156" spans="2:22">
-      <c r="B156" s="19"/>
-      <c r="E156" s="32"/>
-      <c r="F156" s="21"/>
-      <c r="G156" s="21"/>
-      <c r="H156" s="21"/>
-      <c r="I156" s="21" t="s">
-        <v>327</v>
-      </c>
-      <c r="J156" s="21"/>
-      <c r="K156" s="33"/>
-      <c r="Q156" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="R156" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="S156" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="U156" t="s">
-        <v>298</v>
-      </c>
-      <c r="V156" s="19"/>
-    </row>
-    <row r="157" spans="2:22">
-      <c r="B157" s="19"/>
-      <c r="E157" s="32"/>
-      <c r="F157" s="21"/>
-      <c r="G157" s="21" t="s">
-        <v>329</v>
-      </c>
-      <c r="H157" s="23"/>
-      <c r="I157" s="21" t="s">
-        <v>328</v>
-      </c>
-      <c r="J157" s="21"/>
-      <c r="K157" s="33"/>
-      <c r="T157" t="s">
-        <v>299</v>
       </c>
       <c r="U157">
         <v>1</v>
       </c>
-      <c r="V157" s="19"/>
+      <c r="V157" s="17"/>
     </row>
     <row r="158" spans="2:22">
-      <c r="B158" s="19"/>
-      <c r="E158" s="32"/>
-      <c r="F158" s="21"/>
-      <c r="G158" s="21" t="s">
-        <v>314</v>
-      </c>
-      <c r="H158" s="21"/>
-      <c r="I158" s="39" t="s">
-        <v>322</v>
-      </c>
-      <c r="J158" s="39"/>
-      <c r="K158" s="40"/>
+      <c r="B158" s="17"/>
+      <c r="E158" s="28"/>
+      <c r="F158" s="19"/>
+      <c r="G158" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="H158" s="19"/>
+      <c r="I158" s="43" t="s">
+        <v>321</v>
+      </c>
+      <c r="J158" s="43"/>
+      <c r="K158" s="44"/>
       <c r="R158">
         <v>200</v>
       </c>
       <c r="S158" t="s">
-        <v>300</v>
-      </c>
-      <c r="V158" s="19"/>
+        <v>299</v>
+      </c>
+      <c r="V158" s="17"/>
     </row>
     <row r="159" spans="2:22">
-      <c r="B159" s="19"/>
-      <c r="E159" s="32"/>
-      <c r="F159" s="21"/>
-      <c r="G159" s="21" t="s">
-        <v>323</v>
-      </c>
-      <c r="H159" s="21"/>
-      <c r="I159" s="21"/>
-      <c r="J159" s="21"/>
-      <c r="K159" s="33"/>
+      <c r="B159" s="17"/>
+      <c r="E159" s="28"/>
+      <c r="F159" s="19"/>
+      <c r="G159" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="H159" s="19"/>
+      <c r="I159" s="19"/>
+      <c r="J159" s="19"/>
+      <c r="K159" s="29"/>
       <c r="R159">
         <v>150</v>
       </c>
       <c r="S159" t="s">
         <v>17</v>
       </c>
-      <c r="V159" s="19"/>
+      <c r="V159" s="17"/>
     </row>
     <row r="160" spans="2:22">
-      <c r="B160" s="19"/>
-      <c r="E160" s="32"/>
-      <c r="F160" s="21"/>
-      <c r="G160" s="21"/>
-      <c r="H160" s="21"/>
-      <c r="I160" s="21"/>
-      <c r="J160" s="21"/>
-      <c r="K160" s="33"/>
+      <c r="B160" s="17"/>
+      <c r="E160" s="28"/>
+      <c r="F160" s="19"/>
+      <c r="G160" s="19"/>
+      <c r="H160" s="19"/>
+      <c r="I160" s="19"/>
+      <c r="J160" s="19"/>
+      <c r="K160" s="29"/>
       <c r="R160">
         <v>15</v>
       </c>
       <c r="S160" t="s">
-        <v>301</v>
-      </c>
-      <c r="V160" s="19"/>
+        <v>300</v>
+      </c>
+      <c r="V160" s="17"/>
     </row>
     <row r="161" spans="2:22">
-      <c r="B161" s="19"/>
-      <c r="E161" s="32"/>
-      <c r="F161" s="21"/>
-      <c r="G161" s="21"/>
-      <c r="H161" s="21"/>
-      <c r="I161" s="21"/>
-      <c r="J161" s="21"/>
-      <c r="K161" s="33"/>
+      <c r="B161" s="17"/>
+      <c r="E161" s="28"/>
+      <c r="F161" s="19"/>
+      <c r="G161" s="19"/>
+      <c r="H161" s="19"/>
+      <c r="I161" s="19"/>
+      <c r="J161" s="19"/>
+      <c r="K161" s="29"/>
       <c r="R161">
         <v>60</v>
       </c>
       <c r="S161" t="s">
-        <v>302</v>
-      </c>
-      <c r="V161" s="19"/>
+        <v>301</v>
+      </c>
+      <c r="V161" s="17"/>
     </row>
     <row r="162" spans="2:22">
-      <c r="B162" s="19"/>
-      <c r="E162" s="32"/>
-      <c r="F162" s="21"/>
-      <c r="G162" s="21" t="s">
-        <v>314</v>
-      </c>
-      <c r="H162" s="21"/>
-      <c r="I162" s="39" t="s">
+      <c r="B162" s="17"/>
+      <c r="E162" s="28"/>
+      <c r="F162" s="19"/>
+      <c r="G162" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="H162" s="19"/>
+      <c r="I162" s="43" t="s">
+        <v>323</v>
+      </c>
+      <c r="J162" s="43"/>
+      <c r="K162" s="44"/>
+      <c r="V162" s="17"/>
+    </row>
+    <row r="163" spans="2:22">
+      <c r="B163" s="17"/>
+      <c r="E163" s="28"/>
+      <c r="F163" s="19"/>
+      <c r="G163" s="34" t="s">
         <v>324</v>
       </c>
-      <c r="J162" s="39"/>
-      <c r="K162" s="40"/>
-      <c r="V162" s="19"/>
-    </row>
-    <row r="163" spans="2:22">
-      <c r="B163" s="19"/>
-      <c r="E163" s="32"/>
-      <c r="F163" s="21"/>
-      <c r="G163" s="41" t="s">
-        <v>325</v>
-      </c>
-      <c r="H163" s="21"/>
-      <c r="I163" s="21"/>
-      <c r="J163" s="21"/>
-      <c r="K163" s="33"/>
+      <c r="H163" s="19"/>
+      <c r="I163" s="19"/>
+      <c r="J163" s="19"/>
+      <c r="K163" s="29"/>
       <c r="R163">
         <v>375</v>
       </c>
-      <c r="V163" s="19"/>
+      <c r="V163" s="17"/>
     </row>
     <row r="164" spans="2:22">
-      <c r="B164" s="19"/>
-      <c r="E164" s="32"/>
-      <c r="F164" s="21"/>
-      <c r="G164" s="41" t="s">
-        <v>326</v>
-      </c>
-      <c r="H164" s="21"/>
-      <c r="I164" s="21"/>
-      <c r="J164" s="21"/>
-      <c r="K164" s="33"/>
+      <c r="B164" s="17"/>
+      <c r="E164" s="28"/>
+      <c r="F164" s="47"/>
+      <c r="G164" s="47" t="s">
+        <v>325</v>
+      </c>
+      <c r="H164" s="47"/>
+      <c r="I164" s="19"/>
+      <c r="J164" s="19"/>
+      <c r="K164" s="29"/>
       <c r="Q164" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="R164">
         <v>4625</v>
       </c>
-      <c r="V164" s="19"/>
+      <c r="V164" s="17"/>
     </row>
     <row r="165" spans="2:22">
-      <c r="B165" s="19"/>
-      <c r="E165" s="32"/>
-      <c r="F165" s="21"/>
-      <c r="G165" s="21"/>
-      <c r="H165" s="21"/>
-      <c r="I165" s="21"/>
-      <c r="J165" s="21"/>
-      <c r="K165" s="33"/>
-      <c r="V165" s="19"/>
+      <c r="B165" s="17"/>
+      <c r="E165" s="28"/>
+      <c r="F165" s="19"/>
+      <c r="G165" s="19"/>
+      <c r="H165" s="19"/>
+      <c r="I165" s="19"/>
+      <c r="J165" s="19"/>
+      <c r="K165" s="29"/>
+      <c r="V165" s="17"/>
     </row>
     <row r="166" spans="2:22">
-      <c r="B166" s="19"/>
-      <c r="E166" s="32"/>
-      <c r="F166" s="21"/>
-      <c r="G166" s="21"/>
-      <c r="H166" s="21"/>
-      <c r="I166" s="21"/>
-      <c r="J166" s="21"/>
-      <c r="K166" s="33"/>
+      <c r="B166" s="17"/>
+      <c r="E166" s="28"/>
+      <c r="F166" s="19"/>
+      <c r="G166" s="19"/>
+      <c r="H166" s="19"/>
+      <c r="I166" s="19"/>
+      <c r="J166" s="19"/>
+      <c r="K166" s="29"/>
       <c r="T166" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="U166">
         <v>2</v>
       </c>
-      <c r="V166" s="19"/>
+      <c r="V166" s="17"/>
     </row>
     <row r="167" spans="2:22">
-      <c r="B167" s="19"/>
-      <c r="E167" s="32"/>
-      <c r="F167" s="21"/>
-      <c r="G167" s="21"/>
-      <c r="H167" s="21"/>
-      <c r="I167" s="21"/>
-      <c r="J167" s="21"/>
-      <c r="K167" s="33"/>
+      <c r="B167" s="17"/>
+      <c r="E167" s="28"/>
+      <c r="F167" s="19"/>
+      <c r="G167" s="19"/>
+      <c r="H167" s="19"/>
+      <c r="I167" s="19"/>
+      <c r="J167" s="19"/>
+      <c r="K167" s="29"/>
       <c r="S167" t="s">
+        <v>309</v>
+      </c>
+      <c r="T167" t="s">
         <v>310</v>
       </c>
-      <c r="T167" t="s">
-        <v>311</v>
-      </c>
-      <c r="V167" s="19"/>
+      <c r="V167" s="17"/>
     </row>
     <row r="168" spans="2:22">
-      <c r="B168" s="19"/>
-      <c r="E168" s="32"/>
-      <c r="F168" s="21"/>
-      <c r="G168" s="21"/>
-      <c r="H168" s="21"/>
-      <c r="I168" s="21"/>
-      <c r="J168" s="21"/>
-      <c r="K168" s="33"/>
+      <c r="B168" s="17"/>
+      <c r="E168" s="28"/>
+      <c r="F168" s="19"/>
+      <c r="G168" s="19"/>
+      <c r="H168" s="19"/>
+      <c r="I168" s="19"/>
+      <c r="J168" s="19"/>
+      <c r="K168" s="29"/>
       <c r="S168" t="s">
         <v>17</v>
       </c>
       <c r="T168" t="s">
-        <v>312</v>
-      </c>
-      <c r="V168" s="19"/>
+        <v>311</v>
+      </c>
+      <c r="V168" s="17"/>
     </row>
     <row r="169" spans="2:22">
-      <c r="B169" s="19"/>
-      <c r="E169" s="32"/>
-      <c r="F169" s="21"/>
-      <c r="G169" s="21"/>
-      <c r="H169" s="21"/>
-      <c r="I169" s="21"/>
-      <c r="J169" s="21"/>
-      <c r="K169" s="33"/>
-      <c r="V169" s="19"/>
+      <c r="B169" s="17"/>
+      <c r="E169" s="28"/>
+      <c r="F169" s="19"/>
+      <c r="G169" s="19"/>
+      <c r="H169" s="19"/>
+      <c r="I169" s="19"/>
+      <c r="J169" s="19"/>
+      <c r="K169" s="29"/>
+      <c r="V169" s="17"/>
     </row>
     <row r="170" spans="2:22">
-      <c r="B170" s="19"/>
-      <c r="E170" s="34"/>
-      <c r="F170" s="22"/>
-      <c r="G170" s="22"/>
-      <c r="H170" s="22"/>
-      <c r="I170" s="22"/>
-      <c r="J170" s="22"/>
-      <c r="K170" s="35"/>
-      <c r="V170" s="19"/>
+      <c r="B170" s="17"/>
+      <c r="E170" s="30"/>
+      <c r="F170" s="20"/>
+      <c r="G170" s="20"/>
+      <c r="H170" s="20"/>
+      <c r="I170" s="20"/>
+      <c r="J170" s="20"/>
+      <c r="K170" s="31"/>
+      <c r="V170" s="17"/>
     </row>
     <row r="171" spans="2:22">
-      <c r="B171" s="19"/>
-      <c r="V171" s="19"/>
+      <c r="B171" s="17"/>
+      <c r="V171" s="17"/>
     </row>
     <row r="172" spans="2:22">
-      <c r="B172" s="19"/>
-      <c r="C172" s="19"/>
-      <c r="D172" s="19"/>
-      <c r="E172" s="19"/>
-      <c r="F172" s="19"/>
-      <c r="G172" s="19"/>
-      <c r="H172" s="19"/>
-      <c r="I172" s="19"/>
-      <c r="J172" s="19"/>
-      <c r="K172" s="19"/>
-      <c r="L172" s="19"/>
-      <c r="M172" s="19"/>
-      <c r="N172" s="19"/>
-      <c r="O172" s="19"/>
-      <c r="P172" s="19"/>
-      <c r="Q172" s="19"/>
-      <c r="R172" s="19"/>
-      <c r="S172" s="19"/>
-      <c r="T172" s="19"/>
-      <c r="U172" s="19"/>
-      <c r="V172" s="19"/>
+      <c r="B172" s="17"/>
+      <c r="C172" s="17"/>
+      <c r="D172" s="17"/>
+      <c r="E172" s="17"/>
+      <c r="F172" s="17"/>
+      <c r="G172" s="17"/>
+      <c r="H172" s="17"/>
+      <c r="I172" s="17"/>
+      <c r="J172" s="17"/>
+      <c r="K172" s="17"/>
+      <c r="L172" s="17"/>
+      <c r="M172" s="17"/>
+      <c r="N172" s="17"/>
+      <c r="O172" s="17"/>
+      <c r="P172" s="17"/>
+      <c r="Q172" s="17"/>
+      <c r="R172" s="17"/>
+      <c r="S172" s="17"/>
+      <c r="T172" s="17"/>
+      <c r="U172" s="17"/>
+      <c r="V172" s="17"/>
     </row>
     <row r="173" spans="2:22">
-      <c r="B173" s="19"/>
-      <c r="C173" s="19"/>
-      <c r="D173" s="19"/>
-      <c r="E173" s="19"/>
-      <c r="F173" s="19"/>
-      <c r="G173" s="19"/>
-      <c r="H173" s="19"/>
-      <c r="I173" s="19"/>
-      <c r="J173" s="19"/>
-      <c r="K173" s="19"/>
-      <c r="L173" s="19"/>
-      <c r="M173" s="19"/>
-      <c r="N173" s="19"/>
-      <c r="O173" s="19"/>
-      <c r="P173" s="19"/>
-      <c r="Q173" s="19"/>
-      <c r="R173" s="19"/>
-      <c r="S173" s="19"/>
-      <c r="T173" s="19"/>
-      <c r="U173" s="19"/>
-      <c r="V173" s="19"/>
+      <c r="B173" s="17"/>
+      <c r="C173" s="17"/>
+      <c r="D173" s="17"/>
+      <c r="E173" s="17"/>
+      <c r="F173" s="17"/>
+      <c r="G173" s="17"/>
+      <c r="H173" s="17"/>
+      <c r="I173" s="17"/>
+      <c r="J173" s="17"/>
+      <c r="K173" s="17"/>
+      <c r="L173" s="17"/>
+      <c r="M173" s="17"/>
+      <c r="N173" s="17"/>
+      <c r="O173" s="17"/>
+      <c r="P173" s="17"/>
+      <c r="Q173" s="17"/>
+      <c r="R173" s="17"/>
+      <c r="S173" s="17"/>
+      <c r="T173" s="17"/>
+      <c r="U173" s="17"/>
+      <c r="V173" s="17"/>
     </row>
     <row r="174" spans="2:22">
-      <c r="B174" s="19"/>
-      <c r="L174" s="36"/>
-      <c r="V174" s="19"/>
+      <c r="B174" s="17"/>
+      <c r="L174" s="32"/>
+      <c r="V174" s="17"/>
     </row>
     <row r="175" spans="2:22">
-      <c r="B175" s="19"/>
-      <c r="L175" s="36"/>
-      <c r="V175" s="19"/>
+      <c r="B175" s="17"/>
+      <c r="L175" s="32"/>
+      <c r="V175" s="17"/>
     </row>
     <row r="176" spans="2:22">
-      <c r="B176" s="19"/>
+      <c r="B176" s="17"/>
       <c r="F176" t="s">
         <v>48</v>
       </c>
-      <c r="L176" s="36"/>
-      <c r="Q176" s="17" t="s">
+      <c r="L176" s="32"/>
+      <c r="Q176" s="39" t="s">
+        <v>312</v>
+      </c>
+      <c r="R176" s="39"/>
+      <c r="S176" s="39"/>
+      <c r="V176" s="17"/>
+    </row>
+    <row r="177" spans="2:22">
+      <c r="B177" s="17"/>
+      <c r="L177" s="32"/>
+      <c r="V177" s="17"/>
+    </row>
+    <row r="178" spans="2:22">
+      <c r="B178" s="17"/>
+      <c r="I178" t="s">
         <v>313</v>
       </c>
-      <c r="R176" s="17"/>
-      <c r="S176" s="17"/>
-      <c r="V176" s="19"/>
-    </row>
-    <row r="177" spans="2:22">
-      <c r="B177" s="19"/>
-      <c r="L177" s="36"/>
-      <c r="V177" s="19"/>
-    </row>
-    <row r="178" spans="2:22">
-      <c r="B178" s="19"/>
-      <c r="I178" t="s">
+      <c r="L178" s="32"/>
+      <c r="S178" t="s">
+        <v>313</v>
+      </c>
+      <c r="V178" s="17"/>
+    </row>
+    <row r="179" spans="2:22">
+      <c r="B179" s="17"/>
+      <c r="I179" t="s">
         <v>314</v>
       </c>
-      <c r="L178" s="36"/>
-      <c r="S178" t="s">
+      <c r="L179" s="32"/>
+      <c r="S179" t="s">
         <v>314</v>
       </c>
-      <c r="V178" s="19"/>
-    </row>
-    <row r="179" spans="2:22">
-      <c r="B179" s="19"/>
-      <c r="I179" t="s">
+      <c r="V179" s="17"/>
+    </row>
+    <row r="180" spans="2:22">
+      <c r="B180" s="17"/>
+      <c r="I180" t="s">
+        <v>316</v>
+      </c>
+      <c r="L180" s="32"/>
+      <c r="O180" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q180" s="39" t="s">
+        <v>318</v>
+      </c>
+      <c r="R180" s="39"/>
+      <c r="S180" t="s">
         <v>315</v>
       </c>
-      <c r="L179" s="36"/>
-      <c r="S179" t="s">
+      <c r="V180" s="17"/>
+    </row>
+    <row r="181" spans="2:22">
+      <c r="B181" s="17"/>
+      <c r="F181" s="39" t="s">
+        <v>317</v>
+      </c>
+      <c r="G181" s="39"/>
+      <c r="H181" s="39"/>
+      <c r="I181" t="s">
         <v>315</v>
       </c>
-      <c r="V179" s="19"/>
-    </row>
-    <row r="180" spans="2:22">
-      <c r="B180" s="19"/>
-      <c r="I180" t="s">
-        <v>317</v>
-      </c>
-      <c r="L180" s="36"/>
-      <c r="O180" t="s">
+      <c r="L181" s="32"/>
+      <c r="O181" t="s">
         <v>320</v>
       </c>
-      <c r="Q180" s="17" t="s">
-        <v>319</v>
-      </c>
-      <c r="R180" s="17"/>
-      <c r="S180" t="s">
-        <v>316</v>
-      </c>
-      <c r="V180" s="19"/>
-    </row>
-    <row r="181" spans="2:22">
-      <c r="B181" s="19"/>
-      <c r="F181" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="G181" s="17"/>
-      <c r="H181" s="17"/>
-      <c r="I181" t="s">
-        <v>316</v>
-      </c>
-      <c r="L181" s="36"/>
-      <c r="O181" t="s">
-        <v>321</v>
-      </c>
-      <c r="V181" s="19"/>
+      <c r="V181" s="17"/>
     </row>
     <row r="182" spans="2:22">
-      <c r="B182" s="19"/>
-      <c r="L182" s="36"/>
-      <c r="V182" s="19"/>
+      <c r="B182" s="17"/>
+      <c r="L182" s="32"/>
+      <c r="V182" s="17"/>
     </row>
     <row r="183" spans="2:22">
-      <c r="B183" s="19"/>
-      <c r="L183" s="36"/>
-      <c r="V183" s="19"/>
+      <c r="B183" s="17"/>
+      <c r="L183" s="32"/>
+      <c r="V183" s="17"/>
     </row>
     <row r="184" spans="2:22">
-      <c r="B184" s="19"/>
-      <c r="L184" s="36"/>
-      <c r="V184" s="19"/>
+      <c r="B184" s="17"/>
+      <c r="L184" s="32"/>
+      <c r="V184" s="17"/>
     </row>
     <row r="185" spans="2:22">
-      <c r="B185" s="19"/>
-      <c r="L185" s="36"/>
-      <c r="V185" s="19"/>
+      <c r="B185" s="17"/>
+      <c r="L185" s="32"/>
+      <c r="V185" s="17"/>
     </row>
     <row r="186" spans="2:22">
-      <c r="B186" s="19"/>
-      <c r="L186" s="36"/>
-      <c r="V186" s="19"/>
+      <c r="B186" s="17"/>
+      <c r="L186" s="32"/>
+      <c r="V186" s="17"/>
     </row>
     <row r="187" spans="2:22">
-      <c r="B187" s="19"/>
-      <c r="L187" s="36"/>
-      <c r="V187" s="19"/>
+      <c r="B187" s="17"/>
+      <c r="L187" s="32"/>
+      <c r="V187" s="17"/>
     </row>
     <row r="188" spans="2:22">
-      <c r="B188" s="19"/>
-      <c r="L188" s="36"/>
-      <c r="V188" s="19"/>
+      <c r="B188" s="17"/>
+      <c r="L188" s="32"/>
+      <c r="V188" s="17"/>
     </row>
     <row r="189" spans="2:22">
-      <c r="B189" s="19"/>
-      <c r="L189" s="36"/>
-      <c r="V189" s="19"/>
+      <c r="B189" s="17"/>
+      <c r="L189" s="32"/>
+      <c r="V189" s="17"/>
     </row>
     <row r="190" spans="2:22">
-      <c r="B190" s="19"/>
-      <c r="L190" s="36"/>
-      <c r="V190" s="19"/>
+      <c r="B190" s="17"/>
+      <c r="L190" s="32"/>
+      <c r="V190" s="17"/>
     </row>
     <row r="191" spans="2:22">
-      <c r="B191" s="19"/>
-      <c r="C191" s="19"/>
-      <c r="D191" s="19"/>
-      <c r="E191" s="19"/>
-      <c r="F191" s="19"/>
-      <c r="G191" s="19"/>
-      <c r="H191" s="19"/>
-      <c r="I191" s="19"/>
-      <c r="J191" s="19"/>
-      <c r="K191" s="19"/>
-      <c r="L191" s="19"/>
-      <c r="M191" s="19"/>
-      <c r="N191" s="19"/>
-      <c r="O191" s="19"/>
-      <c r="P191" s="19"/>
-      <c r="Q191" s="19"/>
-      <c r="R191" s="19"/>
-      <c r="S191" s="19"/>
-      <c r="T191" s="19"/>
-      <c r="U191" s="19"/>
-      <c r="V191" s="19"/>
+      <c r="B191" s="17"/>
+      <c r="C191" s="17"/>
+      <c r="D191" s="17"/>
+      <c r="E191" s="17"/>
+      <c r="F191" s="17"/>
+      <c r="G191" s="17"/>
+      <c r="H191" s="17"/>
+      <c r="I191" s="17"/>
+      <c r="J191" s="17"/>
+      <c r="K191" s="17"/>
+      <c r="L191" s="17"/>
+      <c r="M191" s="17"/>
+      <c r="N191" s="17"/>
+      <c r="O191" s="17"/>
+      <c r="P191" s="17"/>
+      <c r="Q191" s="17"/>
+      <c r="R191" s="17"/>
+      <c r="S191" s="17"/>
+      <c r="T191" s="17"/>
+      <c r="U191" s="17"/>
+      <c r="V191" s="17"/>
     </row>
     <row r="192" spans="2:22">
-      <c r="B192" s="19"/>
-      <c r="C192" s="19"/>
-      <c r="D192" s="19"/>
-      <c r="E192" s="19"/>
-      <c r="F192" s="19"/>
-      <c r="G192" s="19"/>
-      <c r="H192" s="19"/>
-      <c r="I192" s="19"/>
-      <c r="J192" s="19"/>
-      <c r="K192" s="19"/>
-      <c r="L192" s="19"/>
-      <c r="M192" s="19"/>
-      <c r="N192" s="19"/>
-      <c r="O192" s="19"/>
-      <c r="P192" s="19"/>
-      <c r="Q192" s="19"/>
-      <c r="R192" s="19"/>
-      <c r="S192" s="19"/>
-      <c r="T192" s="19"/>
-      <c r="U192" s="19"/>
-      <c r="V192" s="19"/>
+      <c r="B192" s="17"/>
+      <c r="C192" s="17"/>
+      <c r="D192" s="17"/>
+      <c r="E192" s="17"/>
+      <c r="F192" s="17"/>
+      <c r="G192" s="17"/>
+      <c r="H192" s="17"/>
+      <c r="I192" s="17"/>
+      <c r="J192" s="17"/>
+      <c r="K192" s="17"/>
+      <c r="L192" s="17"/>
+      <c r="M192" s="17"/>
+      <c r="N192" s="17"/>
+      <c r="O192" s="17"/>
+      <c r="P192" s="17"/>
+      <c r="Q192" s="17"/>
+      <c r="R192" s="17"/>
+      <c r="S192" s="17"/>
+      <c r="T192" s="17"/>
+      <c r="U192" s="17"/>
+      <c r="V192" s="17"/>
     </row>
     <row r="193" spans="2:22">
-      <c r="B193" s="19"/>
-      <c r="C193" s="19"/>
-      <c r="D193" s="19"/>
-      <c r="E193" s="19"/>
-      <c r="F193" s="19"/>
-      <c r="G193" s="19"/>
-      <c r="H193" s="19"/>
-      <c r="I193" s="19"/>
-      <c r="J193" s="19"/>
-      <c r="K193" s="19"/>
-      <c r="L193" s="19"/>
-      <c r="M193" s="19"/>
-      <c r="N193" s="19"/>
-      <c r="O193" s="19"/>
-      <c r="P193" s="19"/>
-      <c r="Q193" s="19"/>
-      <c r="R193" s="19"/>
-      <c r="S193" s="19"/>
-      <c r="T193" s="19"/>
-      <c r="U193" s="19"/>
-      <c r="V193" s="19"/>
+      <c r="B193" s="17"/>
+      <c r="C193" s="17"/>
+      <c r="D193" s="17"/>
+      <c r="E193" s="17"/>
+      <c r="F193" s="17"/>
+      <c r="G193" s="17"/>
+      <c r="H193" s="17"/>
+      <c r="I193" s="17"/>
+      <c r="J193" s="17"/>
+      <c r="K193" s="17"/>
+      <c r="L193" s="17"/>
+      <c r="M193" s="17"/>
+      <c r="N193" s="17"/>
+      <c r="O193" s="17"/>
+      <c r="P193" s="17"/>
+      <c r="Q193" s="17"/>
+      <c r="R193" s="17"/>
+      <c r="S193" s="17"/>
+      <c r="T193" s="17"/>
+      <c r="U193" s="17"/>
+      <c r="V193" s="17"/>
+    </row>
+    <row r="203" spans="2:22">
+      <c r="P203" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q203">
+        <v>15</v>
+      </c>
+      <c r="R203" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="204" spans="2:22">
+      <c r="Q204">
+        <v>40</v>
+      </c>
+      <c r="R204" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="205" spans="2:22">
+      <c r="Q205" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="206" spans="2:22">
+      <c r="Q206" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="207" spans="2:22">
+      <c r="Q207" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="208" spans="2:22">
+      <c r="Q208" t="s">
+        <v>355</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="V2:W2"/>
+  <mergeCells count="20">
     <mergeCell ref="F181:H181"/>
-    <mergeCell ref="G154:I154"/>
     <mergeCell ref="I158:K158"/>
     <mergeCell ref="I162:K162"/>
     <mergeCell ref="Q52:V52"/>
@@ -6520,14 +6928,388 @@
     <mergeCell ref="S109:U109"/>
     <mergeCell ref="Q180:R180"/>
     <mergeCell ref="Q176:S176"/>
+    <mergeCell ref="E154:K155"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="P30:R30"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="V2:W2"/>
     <mergeCell ref="T4:V4"/>
     <mergeCell ref="T3:V3"/>
     <mergeCell ref="T7:U7"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="P30:R30"/>
-    <mergeCell ref="I46:K46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B5:V45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="Q43" sqref="Q43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="5" spans="7:20">
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="39"/>
+      <c r="T5" s="39"/>
+    </row>
+    <row r="6" spans="7:20">
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+    </row>
+    <row r="7" spans="7:20">
+      <c r="L7" s="16"/>
+      <c r="M7" s="48" t="s">
+        <v>356</v>
+      </c>
+      <c r="N7" s="48"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="48"/>
+      <c r="R7" s="48"/>
+      <c r="S7" s="48"/>
+    </row>
+    <row r="8" spans="7:20">
+      <c r="L8" s="39" t="s">
+        <v>380</v>
+      </c>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="39"/>
+    </row>
+    <row r="16" spans="7:20">
+      <c r="G16" t="s">
+        <v>360</v>
+      </c>
+      <c r="L16" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22">
+      <c r="E17" t="s">
+        <v>362</v>
+      </c>
+      <c r="F17" t="s">
+        <v>361</v>
+      </c>
+      <c r="G17" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" t="s">
+        <v>369</v>
+      </c>
+      <c r="K17" t="s">
+        <v>359</v>
+      </c>
+      <c r="L17" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22">
+      <c r="B19" t="s">
+        <v>366</v>
+      </c>
+      <c r="G19" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22">
+      <c r="C20" t="s">
+        <v>371</v>
+      </c>
+      <c r="G20" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22">
+      <c r="G21" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22">
+      <c r="G24" t="s">
+        <v>364</v>
+      </c>
+      <c r="N24" t="s">
+        <v>375</v>
+      </c>
+      <c r="P24" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>373</v>
+      </c>
+      <c r="R24" t="s">
+        <v>365</v>
+      </c>
+      <c r="S24" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22">
+      <c r="E25" t="s">
+        <v>362</v>
+      </c>
+      <c r="F25" t="s">
+        <v>365</v>
+      </c>
+      <c r="G25" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="27" spans="2:22">
+      <c r="G27" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="30" spans="2:22">
+      <c r="F30" s="39" t="s">
+        <v>372</v>
+      </c>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+    </row>
+    <row r="31" spans="2:22">
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="9"/>
+      <c r="V31" s="9"/>
+    </row>
+    <row r="32" spans="2:22">
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="9"/>
+    </row>
+    <row r="33" spans="3:22">
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="9"/>
+      <c r="V33" s="9"/>
+    </row>
+    <row r="34" spans="3:22">
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="9"/>
+      <c r="U34" s="9"/>
+      <c r="V34" s="9"/>
+    </row>
+    <row r="35" spans="3:22">
+      <c r="C35" s="49"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="50"/>
+      <c r="M35" s="50"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
+      <c r="V35" s="9"/>
+    </row>
+    <row r="36" spans="3:22">
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="50"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="50"/>
+      <c r="L36" s="50"/>
+      <c r="M36" s="50"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="9"/>
+      <c r="U36" s="9"/>
+      <c r="V36" s="9"/>
+    </row>
+    <row r="37" spans="3:22">
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="50"/>
+      <c r="L37" s="50"/>
+      <c r="M37" s="50"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="9"/>
+      <c r="T37" s="9"/>
+      <c r="U37" s="9"/>
+      <c r="V37" s="9"/>
+    </row>
+    <row r="38" spans="3:22">
+      <c r="C38" s="50"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="50"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="50"/>
+      <c r="K38" s="50"/>
+      <c r="L38" s="50"/>
+      <c r="M38" s="50"/>
+    </row>
+    <row r="39" spans="3:22">
+      <c r="C39" s="50"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="50"/>
+      <c r="I39" s="50"/>
+      <c r="J39" s="50"/>
+      <c r="K39" s="50"/>
+      <c r="L39" s="50"/>
+      <c r="M39" s="50"/>
+    </row>
+    <row r="40" spans="3:22">
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="50"/>
+      <c r="J40" s="50"/>
+      <c r="K40" s="50"/>
+      <c r="L40" s="50"/>
+      <c r="M40" s="50"/>
+    </row>
+    <row r="41" spans="3:22">
+      <c r="C41" s="50"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="50"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="50"/>
+      <c r="I41" s="50"/>
+      <c r="J41" s="50"/>
+      <c r="K41" s="50"/>
+      <c r="L41" s="50"/>
+      <c r="M41" s="50"/>
+    </row>
+    <row r="42" spans="3:22">
+      <c r="C42" s="50"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="50"/>
+      <c r="I42" s="50"/>
+      <c r="J42" s="50"/>
+      <c r="K42" s="50"/>
+      <c r="L42" s="50"/>
+      <c r="M42" s="50"/>
+    </row>
+    <row r="43" spans="3:22">
+      <c r="C43" s="50"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="50"/>
+      <c r="H43" s="50"/>
+      <c r="I43" s="50"/>
+      <c r="J43" s="50"/>
+      <c r="K43" s="50"/>
+      <c r="L43" s="50"/>
+      <c r="M43" s="50"/>
+    </row>
+    <row r="44" spans="3:22">
+      <c r="C44" s="50"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="50"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="50"/>
+      <c r="J44" s="50"/>
+      <c r="K44" s="50"/>
+      <c r="L44" s="50"/>
+      <c r="M44" s="50"/>
+    </row>
+    <row r="45" spans="3:22">
+      <c r="C45" s="50"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="50"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="50"/>
+      <c r="H45" s="50"/>
+      <c r="I45" s="50"/>
+      <c r="J45" s="50"/>
+      <c r="K45" s="50"/>
+      <c r="L45" s="50"/>
+      <c r="M45" s="50"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="L5:T5"/>
+    <mergeCell ref="M7:S7"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="L8:S8"/>
+    <mergeCell ref="C35:M45"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FreeLance\Mokhtar Elsamhy\Fish Business\FishBusiness\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7DC147-A7AE-4E16-8B15-E706CED0BC1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="9756" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="384">
   <si>
     <t>حلقه سمك</t>
   </si>
@@ -1061,9 +1067,6 @@
     <t>total weight</t>
   </si>
   <si>
-    <t xml:space="preserve">الظاهر النت وحش والصوت بيوصل متاخر </t>
-  </si>
-  <si>
     <t>2- اظهار اسم مدخل قيمة الهالك فى صفحة تفاصيل السرحه</t>
   </si>
   <si>
@@ -1148,26 +1151,38 @@
     <t>المبلغ بعد الزياده</t>
   </si>
   <si>
-    <t>1-هل المحصل ممكن يدفع مصروف المركب ولا احمد فتح الله والحلقه بس ؟</t>
-  </si>
-  <si>
-    <t>2- مين الحلقه ؟</t>
-  </si>
-  <si>
-    <t>3- مين يقدر يدفع مصروف المركب</t>
-  </si>
-  <si>
-    <t>4-ديون ريس المركب بيدفعها لمين احمدفتح الله ولا المحصل ؟</t>
-  </si>
-  <si>
     <t>3-تعديل الداتا تيبل فى بروفايل المركب</t>
+  </si>
+  <si>
+    <t>المفروض نقلل من الكريدت بتاع الشخص اللي دفع هالك في السرحة</t>
+  </si>
+  <si>
+    <t>لو حاولت تمسح سرحة مرتبطه بفاتورة هتدي ايرور</t>
+  </si>
+  <si>
+    <t>محتاجين لما ريس مركب يسدد جزء من المسحوبات القيمة تتضاف للحلقة</t>
+  </si>
+  <si>
+    <t>مش عاوزين ننسي نرجع الحاجات اللي مخلتفه عندي عن عندك علشان الدنيا متضربش عندك زي العمولة والمركب الشريك</t>
+  </si>
+  <si>
+    <t>صفحة يختار منها التاريخ ويظهر بيانات الخزنة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تصفية المراكب الشريكة بعد مده </t>
+  </si>
+  <si>
+    <t>ننقص ونزود الcredit علي حسب الفواتير</t>
+  </si>
+  <si>
+    <t>نتاكد من حتة مشكلة حلاوة العنتبلي</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1205,7 +1220,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1310,6 +1325,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1437,7 +1464,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1478,19 +1505,22 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment readingOrder="2"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1502,18 +1532,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="2"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment readingOrder="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1522,6 +1557,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1542,7 +1585,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="WhatsApp Image 2020-08-17 at 1.23.37 AM.jpeg"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="WhatsApp Image 2020-08-17 at 1.23.37 AM.jpeg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1611,7 +1660,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1643,9 +1692,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1677,6 +1744,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1852,22 +1937,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y117"/>
   <sheetViews>
     <sheetView topLeftCell="A106" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="M1" sqref="M1:M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E1">
         <v>2500</v>
       </c>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E2">
         <v>3000</v>
       </c>
@@ -1876,7 +1961,7 @@
       </c>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E3">
         <v>10000</v>
       </c>
@@ -1885,7 +1970,7 @@
       </c>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="F4">
         <v>7.5</v>
       </c>
@@ -1894,7 +1979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -1913,7 +1998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
@@ -1925,7 +2010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -1950,7 +2035,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -1972,7 +2057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -1988,7 +2073,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -2006,7 +2091,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -2016,7 +2101,7 @@
       <c r="I11" s="3"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -2034,7 +2119,7 @@
       </c>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -2056,7 +2141,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -2072,7 +2157,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -2097,7 +2182,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -2116,7 +2201,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -2138,7 +2223,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -2157,7 +2242,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:24">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -2173,7 +2258,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -2192,7 +2277,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -2202,7 +2287,7 @@
       </c>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="1:24">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -2215,7 +2300,7 @@
       </c>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="1:24">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -2228,7 +2313,7 @@
       </c>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="1:24">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -2241,7 +2326,7 @@
       </c>
       <c r="M24" s="5"/>
     </row>
-    <row r="25" spans="1:24">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="H25" t="s">
         <v>24</v>
       </c>
@@ -2249,12 +2334,12 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="26" spans="1:24">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="1:24">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
         <v>26</v>
       </c>
@@ -2265,7 +2350,7 @@
         <v>5650</v>
       </c>
     </row>
-    <row r="28" spans="1:24">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="I28" s="4">
         <v>0.06</v>
       </c>
@@ -2284,12 +2369,12 @@
       <c r="R28" s="6"/>
       <c r="S28" s="6"/>
     </row>
-    <row r="29" spans="1:24">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="I29">
         <v>5311</v>
       </c>
     </row>
-    <row r="30" spans="1:24">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E30">
         <v>100</v>
       </c>
@@ -2306,7 +2391,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:24">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="H31" t="s">
         <v>29</v>
       </c>
@@ -2314,7 +2399,7 @@
         <v>5011</v>
       </c>
     </row>
-    <row r="32" spans="1:24">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="I32">
         <v>2500</v>
       </c>
@@ -2334,7 +2419,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="5:25">
+    <row r="33" spans="5:25" x14ac:dyDescent="0.25">
       <c r="I33">
         <v>2500</v>
       </c>
@@ -2348,7 +2433,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="5:25">
+    <row r="34" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5" t="s">
@@ -2367,7 +2452,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="5:25">
+    <row r="35" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
@@ -2384,7 +2469,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="5:25">
+    <row r="36" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
@@ -2401,7 +2486,7 @@
       <c r="W36" s="5"/>
       <c r="X36" s="5"/>
     </row>
-    <row r="37" spans="5:25">
+    <row r="37" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
@@ -2412,7 +2497,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="38" spans="5:25">
+    <row r="38" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E38" s="5" t="s">
         <v>41</v>
       </c>
@@ -2427,7 +2512,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="39" spans="5:25">
+    <row r="39" spans="5:25" x14ac:dyDescent="0.25">
       <c r="F39" t="s">
         <v>34</v>
       </c>
@@ -2440,7 +2525,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="40" spans="5:25">
+    <row r="40" spans="5:25" x14ac:dyDescent="0.25">
       <c r="F40" t="s">
         <v>35</v>
       </c>
@@ -2450,7 +2535,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="5:25">
+    <row r="41" spans="5:25" x14ac:dyDescent="0.25">
       <c r="F41" t="s">
         <v>36</v>
       </c>
@@ -2460,7 +2545,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="5:25">
+    <row r="42" spans="5:25" x14ac:dyDescent="0.25">
       <c r="F42" t="s">
         <v>37</v>
       </c>
@@ -2470,7 +2555,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="5:25">
+    <row r="43" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
@@ -2484,7 +2569,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="5:25">
+    <row r="44" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
@@ -2492,7 +2577,7 @@
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
     </row>
-    <row r="45" spans="5:25">
+    <row r="45" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
@@ -2500,7 +2585,7 @@
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
     </row>
-    <row r="46" spans="5:25">
+    <row r="46" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
@@ -2517,7 +2602,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="5:25">
+    <row r="47" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
@@ -2534,7 +2619,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="5:25">
+    <row r="48" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
@@ -2551,7 +2636,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="8:25">
+    <row r="49" spans="8:25" x14ac:dyDescent="0.25">
       <c r="R49" t="s">
         <v>24</v>
       </c>
@@ -2562,22 +2647,22 @@
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="8:25">
+    <row r="50" spans="8:25" x14ac:dyDescent="0.25">
       <c r="Y50" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="8:25">
+    <row r="51" spans="8:25" x14ac:dyDescent="0.25">
       <c r="X51">
         <v>20000</v>
       </c>
     </row>
-    <row r="52" spans="8:25">
+    <row r="52" spans="8:25" x14ac:dyDescent="0.25">
       <c r="Y52">
         <v>2000</v>
       </c>
     </row>
-    <row r="58" spans="8:25">
+    <row r="58" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
@@ -2592,7 +2677,7 @@
       <c r="S58" s="5"/>
       <c r="T58" s="5"/>
     </row>
-    <row r="64" spans="8:25">
+    <row r="64" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
@@ -2609,7 +2694,7 @@
       <c r="W64" s="5"/>
       <c r="X64" s="5"/>
     </row>
-    <row r="65" spans="8:25">
+    <row r="65" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
@@ -2628,7 +2713,7 @@
       <c r="W65" s="5"/>
       <c r="X65" s="5"/>
     </row>
-    <row r="66" spans="8:25">
+    <row r="66" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
@@ -2645,7 +2730,7 @@
       <c r="W66" s="5"/>
       <c r="X66" s="5"/>
     </row>
-    <row r="67" spans="8:25">
+    <row r="67" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
@@ -2662,7 +2747,7 @@
       <c r="W67" s="5"/>
       <c r="X67" s="5"/>
     </row>
-    <row r="68" spans="8:25">
+    <row r="68" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
@@ -2681,7 +2766,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="8:25">
+    <row r="69" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
@@ -2698,7 +2783,7 @@
       <c r="W69" s="5"/>
       <c r="X69" s="5"/>
     </row>
-    <row r="70" spans="8:25">
+    <row r="70" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H70" s="5"/>
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
@@ -2720,7 +2805,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="71" spans="8:25">
+    <row r="71" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
@@ -2745,7 +2830,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="72" spans="8:25">
+    <row r="72" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
@@ -2765,7 +2850,7 @@
       <c r="W72" s="5"/>
       <c r="X72" s="5"/>
     </row>
-    <row r="73" spans="8:25">
+    <row r="73" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
@@ -2785,7 +2870,7 @@
       <c r="W73" s="5"/>
       <c r="X73" s="5"/>
     </row>
-    <row r="74" spans="8:25">
+    <row r="74" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
@@ -2802,7 +2887,7 @@
       <c r="W74" s="5"/>
       <c r="X74" s="5"/>
     </row>
-    <row r="75" spans="8:25">
+    <row r="75" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
@@ -2819,7 +2904,7 @@
       <c r="W75" s="5"/>
       <c r="X75" s="5"/>
     </row>
-    <row r="76" spans="8:25">
+    <row r="76" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
@@ -2837,7 +2922,7 @@
         <v>5650</v>
       </c>
     </row>
-    <row r="77" spans="8:25">
+    <row r="77" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
@@ -2858,7 +2943,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="78" spans="8:25">
+    <row r="78" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
@@ -2873,7 +2958,7 @@
         <v>5311</v>
       </c>
     </row>
-    <row r="79" spans="8:25">
+    <row r="79" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H79" s="5"/>
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
@@ -2894,7 +2979,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="8:25">
+    <row r="80" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
@@ -2912,7 +2997,7 @@
         <v>5011</v>
       </c>
     </row>
-    <row r="81" spans="6:24">
+    <row r="81" spans="6:24" x14ac:dyDescent="0.25">
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
@@ -2929,71 +3014,71 @@
       <c r="W81" s="5"/>
       <c r="X81" s="5"/>
     </row>
-    <row r="82" spans="6:24">
+    <row r="82" spans="6:24" x14ac:dyDescent="0.25">
       <c r="T82" s="5"/>
       <c r="U82" s="5"/>
       <c r="V82" s="5"/>
       <c r="W82" s="5"/>
       <c r="X82" s="5"/>
     </row>
-    <row r="83" spans="6:24">
+    <row r="83" spans="6:24" x14ac:dyDescent="0.25">
       <c r="T83" s="5"/>
       <c r="U83" s="5"/>
       <c r="V83" s="5"/>
       <c r="W83" s="5"/>
       <c r="X83" s="5"/>
     </row>
-    <row r="84" spans="6:24">
+    <row r="84" spans="6:24" x14ac:dyDescent="0.25">
       <c r="T84" s="5"/>
       <c r="U84" s="5"/>
       <c r="V84" s="5"/>
       <c r="W84" s="5"/>
       <c r="X84" s="5"/>
     </row>
-    <row r="85" spans="6:24">
+    <row r="85" spans="6:24" x14ac:dyDescent="0.25">
       <c r="T85" s="5"/>
       <c r="U85" s="5"/>
       <c r="V85" s="5"/>
       <c r="W85" s="5"/>
       <c r="X85" s="5"/>
     </row>
-    <row r="86" spans="6:24">
+    <row r="86" spans="6:24" x14ac:dyDescent="0.25">
       <c r="T86" s="5"/>
       <c r="U86" s="5"/>
       <c r="V86" s="5"/>
       <c r="W86" s="5"/>
       <c r="X86" s="5"/>
     </row>
-    <row r="87" spans="6:24">
+    <row r="87" spans="6:24" x14ac:dyDescent="0.25">
       <c r="T87" s="5"/>
       <c r="U87" s="5"/>
       <c r="V87" s="5"/>
       <c r="W87" s="5"/>
       <c r="X87" s="5"/>
     </row>
-    <row r="88" spans="6:24">
+    <row r="88" spans="6:24" x14ac:dyDescent="0.25">
       <c r="T88" s="5"/>
       <c r="U88" s="5"/>
       <c r="V88" s="5"/>
       <c r="W88" s="5"/>
       <c r="X88" s="5"/>
     </row>
-    <row r="90" spans="6:24">
+    <row r="90" spans="6:24" x14ac:dyDescent="0.25">
       <c r="F90" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="6:24">
+    <row r="95" spans="6:24" x14ac:dyDescent="0.25">
       <c r="V95" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="96" spans="6:24">
+    <row r="96" spans="6:24" x14ac:dyDescent="0.25">
       <c r="V96" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="97" spans="20:22">
+    <row r="97" spans="20:22" x14ac:dyDescent="0.25">
       <c r="U97" t="s">
         <v>64</v>
       </c>
@@ -3001,17 +3086,17 @@
         <v>53</v>
       </c>
     </row>
-    <row r="98" spans="20:22">
+    <row r="98" spans="20:22" x14ac:dyDescent="0.25">
       <c r="V98" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="99" spans="20:22">
+    <row r="99" spans="20:22" x14ac:dyDescent="0.25">
       <c r="V99" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="100" spans="20:22">
+    <row r="100" spans="20:22" x14ac:dyDescent="0.25">
       <c r="T100" t="s">
         <v>60</v>
       </c>
@@ -3019,7 +3104,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="116" spans="20:22">
+    <row r="116" spans="20:22" x14ac:dyDescent="0.25">
       <c r="T116" t="s">
         <v>67</v>
       </c>
@@ -3027,7 +3112,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="117" spans="20:22">
+    <row r="117" spans="20:22" x14ac:dyDescent="0.25">
       <c r="V117" t="s">
         <v>66</v>
       </c>
@@ -3039,24 +3124,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B4:V84"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I11" sqref="I11:K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" customWidth="1"/>
-    <col min="10" max="10" width="6.6640625" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" customWidth="1"/>
     <col min="11" max="11" width="7" customWidth="1"/>
-    <col min="12" max="12" width="13.44140625" customWidth="1"/>
-    <col min="13" max="13" width="15.5546875" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:18">
+    <row r="4" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D4" s="1" t="s">
         <v>68</v>
       </c>
@@ -3073,7 +3158,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="4:18">
+    <row r="5" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>87</v>
       </c>
@@ -3090,7 +3175,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="4:18">
+    <row r="6" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>70</v>
       </c>
@@ -3107,7 +3192,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="4:18">
+    <row r="7" spans="4:18" x14ac:dyDescent="0.25">
       <c r="G7" t="s">
         <v>72</v>
       </c>
@@ -3118,7 +3203,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="4:18">
+    <row r="8" spans="4:18" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
         <v>142</v>
       </c>
@@ -3129,14 +3214,14 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="4:18">
+    <row r="9" spans="4:18" x14ac:dyDescent="0.25">
       <c r="F9" s="9"/>
       <c r="G9" s="9" t="s">
         <v>73</v>
       </c>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="4:18">
+    <row r="10" spans="4:18" x14ac:dyDescent="0.25">
       <c r="G10" t="s">
         <v>95</v>
       </c>
@@ -3144,7 +3229,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="4:18">
+    <row r="11" spans="4:18" x14ac:dyDescent="0.25">
       <c r="F11" s="3">
         <v>0</v>
       </c>
@@ -3155,17 +3240,17 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="4:18">
+    <row r="12" spans="4:18" x14ac:dyDescent="0.25">
       <c r="J12" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="4:18">
+    <row r="13" spans="4:18" x14ac:dyDescent="0.25">
       <c r="J13" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="4:18">
+    <row r="14" spans="4:18" x14ac:dyDescent="0.25">
       <c r="M14" s="1" t="s">
         <v>83</v>
       </c>
@@ -3175,7 +3260,7 @@
       </c>
       <c r="R14" s="1"/>
     </row>
-    <row r="15" spans="4:18">
+    <row r="15" spans="4:18" x14ac:dyDescent="0.25">
       <c r="M15" t="s">
         <v>86</v>
       </c>
@@ -3183,7 +3268,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="4:18">
+    <row r="16" spans="4:18" x14ac:dyDescent="0.25">
       <c r="M16" t="s">
         <v>78</v>
       </c>
@@ -3191,7 +3276,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="4:20">
+    <row r="17" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D17" s="1" t="s">
         <v>93</v>
       </c>
@@ -3202,7 +3287,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="4:20">
+    <row r="18" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>95</v>
       </c>
@@ -3216,7 +3301,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="4:20">
+    <row r="19" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>94</v>
       </c>
@@ -3227,7 +3312,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="4:20">
+    <row r="20" spans="4:20" x14ac:dyDescent="0.25">
       <c r="K20">
         <v>600</v>
       </c>
@@ -3238,7 +3323,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="4:20">
+    <row r="21" spans="4:20" x14ac:dyDescent="0.25">
       <c r="L21">
         <v>400</v>
       </c>
@@ -3246,7 +3331,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="4:20">
+    <row r="22" spans="4:20" x14ac:dyDescent="0.25">
       <c r="G22" s="3"/>
       <c r="H22" s="3" t="s">
         <v>130</v>
@@ -3261,7 +3346,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="4:20">
+    <row r="23" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D23" s="1" t="s">
         <v>99</v>
       </c>
@@ -3277,7 +3362,7 @@
       </c>
       <c r="N23" s="3"/>
     </row>
-    <row r="24" spans="4:20">
+    <row r="24" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>101</v>
       </c>
@@ -3285,7 +3370,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="4:20">
+    <row r="25" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>100</v>
       </c>
@@ -3293,17 +3378,17 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="4:20">
+    <row r="26" spans="4:20" x14ac:dyDescent="0.25">
       <c r="G26" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="4:20">
+    <row r="27" spans="4:20" x14ac:dyDescent="0.25">
       <c r="G27" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="28" spans="4:20">
+    <row r="28" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
@@ -3322,7 +3407,7 @@
       <c r="S28" s="7"/>
       <c r="T28" s="7"/>
     </row>
-    <row r="37" spans="6:18">
+    <row r="37" spans="6:18" x14ac:dyDescent="0.25">
       <c r="G37" s="1" t="s">
         <v>102</v>
       </c>
@@ -3336,7 +3421,7 @@
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
     </row>
-    <row r="38" spans="6:18">
+    <row r="38" spans="6:18" x14ac:dyDescent="0.25">
       <c r="G38" t="s">
         <v>106</v>
       </c>
@@ -3347,7 +3432,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="6:18">
+    <row r="39" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F39" t="s">
         <v>110</v>
       </c>
@@ -3361,7 +3446,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="6:18">
+    <row r="40" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F40">
         <v>20000</v>
       </c>
@@ -3375,7 +3460,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="6:18">
+    <row r="41" spans="6:18" x14ac:dyDescent="0.25">
       <c r="K41">
         <v>20000</v>
       </c>
@@ -3386,7 +3471,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="6:18">
+    <row r="42" spans="6:18" x14ac:dyDescent="0.25">
       <c r="J42" t="s">
         <v>113</v>
       </c>
@@ -3400,7 +3485,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="6:18">
+    <row r="43" spans="6:18" x14ac:dyDescent="0.25">
       <c r="K43">
         <v>5000</v>
       </c>
@@ -3411,7 +3496,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="6:18">
+    <row r="44" spans="6:18" x14ac:dyDescent="0.25">
       <c r="K44" t="s">
         <v>111</v>
       </c>
@@ -3419,7 +3504,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="49" spans="2:20">
+    <row r="49" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -3438,12 +3523,12 @@
       <c r="S49" s="2"/>
       <c r="T49" s="2"/>
     </row>
-    <row r="54" spans="2:20">
+    <row r="54" spans="2:20" x14ac:dyDescent="0.25">
       <c r="E54" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="55" spans="2:20">
+    <row r="55" spans="2:20" x14ac:dyDescent="0.25">
       <c r="E55" t="s">
         <v>84</v>
       </c>
@@ -3451,7 +3536,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="56" spans="2:20">
+    <row r="56" spans="2:20" x14ac:dyDescent="0.25">
       <c r="E56" s="3" t="s">
         <v>100</v>
       </c>
@@ -3462,7 +3547,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="57" spans="2:20">
+    <row r="57" spans="2:20" x14ac:dyDescent="0.25">
       <c r="E57" s="3" t="s">
         <v>115</v>
       </c>
@@ -3473,12 +3558,12 @@
         <v>118</v>
       </c>
     </row>
-    <row r="58" spans="2:20">
+    <row r="58" spans="2:20" x14ac:dyDescent="0.25">
       <c r="M58" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="60" spans="2:20">
+    <row r="60" spans="2:20" x14ac:dyDescent="0.25">
       <c r="L60" t="s">
         <v>122</v>
       </c>
@@ -3486,7 +3571,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="2:20">
+    <row r="62" spans="2:20" x14ac:dyDescent="0.25">
       <c r="K62" s="3"/>
       <c r="L62" s="3" t="s">
         <v>123</v>
@@ -3497,7 +3582,7 @@
       </c>
       <c r="P62" s="3"/>
     </row>
-    <row r="63" spans="2:20">
+    <row r="63" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>145</v>
       </c>
@@ -3516,7 +3601,7 @@
       </c>
       <c r="P63" s="3"/>
     </row>
-    <row r="64" spans="2:20">
+    <row r="64" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>147</v>
       </c>
@@ -3528,7 +3613,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="66" spans="2:22">
+    <row r="66" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>150</v>
       </c>
@@ -3539,7 +3624,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="67" spans="2:22">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>151</v>
       </c>
@@ -3553,12 +3638,12 @@
         <v>155</v>
       </c>
     </row>
-    <row r="68" spans="2:22">
+    <row r="68" spans="2:22" x14ac:dyDescent="0.25">
       <c r="G68" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="69" spans="2:22">
+    <row r="69" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>20</v>
       </c>
@@ -3572,7 +3657,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="70" spans="2:22">
+    <row r="70" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>152</v>
       </c>
@@ -3585,38 +3670,38 @@
       <c r="G70" t="s">
         <v>135</v>
       </c>
-      <c r="S70" s="39"/>
-      <c r="T70" s="39" t="s">
+      <c r="S70" s="45"/>
+      <c r="T70" s="45" t="s">
         <v>336</v>
       </c>
-      <c r="U70" s="39"/>
-      <c r="V70" s="39"/>
-    </row>
-    <row r="71" spans="2:22">
-      <c r="S71" s="39"/>
-      <c r="T71" s="39"/>
-      <c r="U71" s="39"/>
-      <c r="V71" s="39"/>
-    </row>
-    <row r="72" spans="2:22">
-      <c r="S72" s="39"/>
-      <c r="T72" s="39"/>
-      <c r="U72" s="39"/>
-      <c r="V72" s="39"/>
-    </row>
-    <row r="73" spans="2:22">
-      <c r="N73" s="38" t="s">
+      <c r="U70" s="45"/>
+      <c r="V70" s="45"/>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="S71" s="45"/>
+      <c r="T71" s="45"/>
+      <c r="U71" s="45"/>
+      <c r="V71" s="45"/>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="S72" s="45"/>
+      <c r="T72" s="45"/>
+      <c r="U72" s="45"/>
+      <c r="V72" s="45"/>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="N73" s="44" t="s">
         <v>157</v>
       </c>
-      <c r="O73" s="38"/>
-      <c r="P73" s="38"/>
-      <c r="Q73" s="38"/>
-      <c r="S73" s="39"/>
-      <c r="T73" s="39"/>
-      <c r="U73" s="39"/>
-      <c r="V73" s="39"/>
-    </row>
-    <row r="74" spans="2:22">
+      <c r="O73" s="44"/>
+      <c r="P73" s="44"/>
+      <c r="Q73" s="44"/>
+      <c r="S73" s="45"/>
+      <c r="T73" s="45"/>
+      <c r="U73" s="45"/>
+      <c r="V73" s="45"/>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.25">
       <c r="E74" s="2" t="s">
         <v>140</v>
       </c>
@@ -3632,12 +3717,12 @@
       <c r="P74" t="s">
         <v>51</v>
       </c>
-      <c r="S74" s="39"/>
-      <c r="T74" s="39"/>
-      <c r="U74" s="39"/>
-      <c r="V74" s="39"/>
-    </row>
-    <row r="75" spans="2:22">
+      <c r="S74" s="45"/>
+      <c r="T74" s="45"/>
+      <c r="U74" s="45"/>
+      <c r="V74" s="45"/>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.25">
       <c r="E75" s="3" t="s">
         <v>105</v>
       </c>
@@ -3652,12 +3737,12 @@
       <c r="P75" t="s">
         <v>136</v>
       </c>
-      <c r="S75" s="39"/>
-      <c r="T75" s="39"/>
-      <c r="U75" s="39"/>
-      <c r="V75" s="39"/>
-    </row>
-    <row r="76" spans="2:22">
+      <c r="S75" s="45"/>
+      <c r="T75" s="45"/>
+      <c r="U75" s="45"/>
+      <c r="V75" s="45"/>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.25">
       <c r="E76" s="3" t="s">
         <v>90</v>
       </c>
@@ -3669,12 +3754,12 @@
       <c r="P76" t="s">
         <v>160</v>
       </c>
-      <c r="S76" s="39"/>
-      <c r="T76" s="39"/>
-      <c r="U76" s="39"/>
-      <c r="V76" s="39"/>
-    </row>
-    <row r="77" spans="2:22">
+      <c r="S76" s="45"/>
+      <c r="T76" s="45"/>
+      <c r="U76" s="45"/>
+      <c r="V76" s="45"/>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.25">
       <c r="E77" s="3" t="s">
         <v>137</v>
       </c>
@@ -3687,7 +3772,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="78" spans="2:22">
+    <row r="78" spans="2:22" x14ac:dyDescent="0.25">
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
       <c r="I78" s="3" t="s">
@@ -3706,7 +3791,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="79" spans="2:22">
+    <row r="79" spans="2:22" x14ac:dyDescent="0.25">
       <c r="E79" s="3" t="s">
         <v>112</v>
       </c>
@@ -3724,7 +3809,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="80" spans="2:22">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.25">
       <c r="E80" s="3" t="s">
         <v>141</v>
       </c>
@@ -3733,7 +3818,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="81" spans="13:17">
+    <row r="81" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M81" t="s">
         <v>167</v>
       </c>
@@ -3741,7 +3826,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="82" spans="13:17">
+    <row r="82" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M82" t="s">
         <v>169</v>
       </c>
@@ -3752,7 +3837,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="84" spans="13:17">
+    <row r="84" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M84" t="s">
         <v>171</v>
       </c>
@@ -3772,20 +3857,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:V68"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="H2" s="14"/>
       <c r="I2" s="14" t="s">
         <v>48</v>
@@ -3798,7 +3883,7 @@
       </c>
       <c r="O2" s="3"/>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B3" s="13">
         <v>13000</v>
       </c>
@@ -3817,7 +3902,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O4" s="3"/>
       <c r="R4" s="5"/>
       <c r="S4" s="5">
@@ -3827,7 +3912,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O5" s="3"/>
       <c r="R5" s="5">
         <v>2600</v>
@@ -3839,7 +3924,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D6">
         <v>1475</v>
       </c>
@@ -3854,7 +3939,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I7" t="s">
         <v>182</v>
       </c>
@@ -3875,7 +3960,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E8">
         <v>1475</v>
       </c>
@@ -3900,7 +3985,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="L9">
         <v>2950</v>
       </c>
@@ -3912,7 +3997,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>245.8</v>
       </c>
@@ -3933,7 +4018,7 @@
         <v>3950</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>250</v>
       </c>
@@ -3944,7 +4029,7 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>3000</v>
       </c>
@@ -3967,7 +4052,7 @@
       <c r="O12" s="3"/>
       <c r="Q12" s="10"/>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D13">
         <v>3000</v>
       </c>
@@ -3985,7 +4070,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C14">
         <v>950</v>
       </c>
@@ -4006,7 +4091,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O15" s="3"/>
       <c r="R15">
         <v>950</v>
@@ -4018,7 +4103,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="H16" s="12">
         <v>500</v>
       </c>
@@ -4037,7 +4122,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="17" spans="4:21">
+    <row r="17" spans="4:21" x14ac:dyDescent="0.25">
       <c r="L17">
         <v>4045</v>
       </c>
@@ -4046,7 +4131,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="4:21">
+    <row r="18" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>189</v>
       </c>
@@ -4067,7 +4152,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="19" spans="4:21">
+    <row r="19" spans="4:21" x14ac:dyDescent="0.25">
       <c r="O19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
@@ -4075,7 +4160,7 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
     </row>
-    <row r="20" spans="4:21">
+    <row r="20" spans="4:21" x14ac:dyDescent="0.25">
       <c r="H20" s="12"/>
       <c r="J20" s="3">
         <v>3790</v>
@@ -4085,7 +4170,7 @@
       </c>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="4:21">
+    <row r="21" spans="4:21" x14ac:dyDescent="0.25">
       <c r="O21" s="3"/>
       <c r="R21">
         <v>2600</v>
@@ -4097,7 +4182,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="4:21">
+    <row r="22" spans="4:21" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
         <v>192</v>
       </c>
@@ -4115,7 +4200,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="23" spans="4:21">
+    <row r="23" spans="4:21" x14ac:dyDescent="0.25">
       <c r="F23">
         <v>129.5</v>
       </c>
@@ -4136,7 +4221,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="24" spans="4:21">
+    <row r="24" spans="4:21" x14ac:dyDescent="0.25">
       <c r="F24">
         <v>130</v>
       </c>
@@ -4157,7 +4242,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="25" spans="4:21">
+    <row r="25" spans="4:21" x14ac:dyDescent="0.25">
       <c r="G25" t="s">
         <v>193</v>
       </c>
@@ -4175,7 +4260,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="26" spans="4:21">
+    <row r="26" spans="4:21" x14ac:dyDescent="0.25">
       <c r="G26">
         <v>1300</v>
       </c>
@@ -4196,13 +4281,13 @@
         <v>179</v>
       </c>
     </row>
-    <row r="27" spans="4:21">
+    <row r="27" spans="4:21" x14ac:dyDescent="0.25">
       <c r="O27" s="3"/>
       <c r="R27">
         <v>6430</v>
       </c>
     </row>
-    <row r="28" spans="4:21">
+    <row r="28" spans="4:21" x14ac:dyDescent="0.25">
       <c r="J28" t="s">
         <v>198</v>
       </c>
@@ -4214,7 +4299,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="29" spans="4:21">
+    <row r="29" spans="4:21" x14ac:dyDescent="0.25">
       <c r="K29">
         <v>4150</v>
       </c>
@@ -4223,7 +4308,7 @@
         <v>6045</v>
       </c>
     </row>
-    <row r="30" spans="4:21">
+    <row r="30" spans="4:21" x14ac:dyDescent="0.25">
       <c r="J30" t="s">
         <v>51</v>
       </c>
@@ -4232,7 +4317,7 @@
       </c>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="4:21">
+    <row r="31" spans="4:21" x14ac:dyDescent="0.25">
       <c r="J31" t="s">
         <v>200</v>
       </c>
@@ -4241,13 +4326,13 @@
       </c>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="4:21">
+    <row r="32" spans="4:21" x14ac:dyDescent="0.25">
       <c r="J32" t="s">
         <v>201</v>
       </c>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:22">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="I33" t="s">
         <v>202</v>
       </c>
@@ -4259,10 +4344,10 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="34" spans="1:22">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:22">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -4279,10 +4364,10 @@
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:22">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:22">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
       <c r="J37" s="14"/>
@@ -4293,10 +4378,10 @@
       </c>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:22">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:22">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H39" s="12"/>
       <c r="I39">
         <v>6</v>
@@ -4308,13 +4393,13 @@
       </c>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:22">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:22">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:22">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O42" s="3"/>
       <c r="R42" s="5"/>
       <c r="S42" s="3"/>
@@ -4322,7 +4407,7 @@
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
     </row>
-    <row r="43" spans="1:22">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H43" s="12"/>
       <c r="I43">
         <v>6</v>
@@ -4334,7 +4419,7 @@
       </c>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:22">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O44" s="3"/>
       <c r="R44" s="5"/>
       <c r="S44" s="3"/>
@@ -4342,10 +4427,10 @@
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
     </row>
-    <row r="45" spans="1:22">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:22">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O46" s="3"/>
       <c r="R46" s="5"/>
       <c r="S46" s="3"/>
@@ -4353,7 +4438,7 @@
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
     </row>
-    <row r="47" spans="1:22">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H47" s="12"/>
       <c r="I47">
         <v>6</v>
@@ -4365,16 +4450,16 @@
       </c>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:22">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="6:22">
+    <row r="49" spans="6:22" x14ac:dyDescent="0.25">
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="6:22">
+    <row r="50" spans="6:22" x14ac:dyDescent="0.25">
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="6:22">
+    <row r="51" spans="6:22" x14ac:dyDescent="0.25">
       <c r="H51" s="12"/>
       <c r="J51" s="3"/>
       <c r="L51" s="11">
@@ -4382,7 +4467,7 @@
       </c>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="6:22">
+    <row r="52" spans="6:22" x14ac:dyDescent="0.25">
       <c r="K52" t="s">
         <v>214</v>
       </c>
@@ -4391,25 +4476,25 @@
       </c>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="6:22">
+    <row r="53" spans="6:22" x14ac:dyDescent="0.25">
       <c r="L53">
         <v>8090</v>
       </c>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="6:22">
+    <row r="54" spans="6:22" x14ac:dyDescent="0.25">
       <c r="K54" t="s">
         <v>198</v>
       </c>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="6:22">
+    <row r="55" spans="6:22" x14ac:dyDescent="0.25">
       <c r="L55">
         <v>4045</v>
       </c>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="6:22">
+    <row r="56" spans="6:22" x14ac:dyDescent="0.25">
       <c r="J56" t="s">
         <v>215</v>
       </c>
@@ -4424,7 +4509,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="57" spans="6:22">
+    <row r="57" spans="6:22" x14ac:dyDescent="0.25">
       <c r="K57" t="s">
         <v>205</v>
       </c>
@@ -4445,10 +4530,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="6:22">
+    <row r="58" spans="6:22" x14ac:dyDescent="0.25">
       <c r="O58" s="3"/>
     </row>
-    <row r="59" spans="6:22">
+    <row r="59" spans="6:22" x14ac:dyDescent="0.25">
       <c r="L59" t="s">
         <v>206</v>
       </c>
@@ -4466,7 +4551,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="60" spans="6:22">
+    <row r="60" spans="6:22" x14ac:dyDescent="0.25">
       <c r="F60" s="5" t="s">
         <v>202</v>
       </c>
@@ -4487,7 +4572,7 @@
       </c>
       <c r="O60" s="3"/>
     </row>
-    <row r="61" spans="6:22">
+    <row r="61" spans="6:22" x14ac:dyDescent="0.25">
       <c r="G61">
         <v>700</v>
       </c>
@@ -4505,7 +4590,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="62" spans="6:22">
+    <row r="62" spans="6:22" x14ac:dyDescent="0.25">
       <c r="L62" t="s">
         <v>209</v>
       </c>
@@ -4514,7 +4599,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="63" spans="6:22">
+    <row r="63" spans="6:22" x14ac:dyDescent="0.25">
       <c r="K63" t="s">
         <v>210</v>
       </c>
@@ -4526,10 +4611,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="64" spans="6:22">
+    <row r="64" spans="6:22" x14ac:dyDescent="0.25">
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="12:21">
+    <row r="65" spans="12:21" x14ac:dyDescent="0.25">
       <c r="L65" t="s">
         <v>211</v>
       </c>
@@ -4538,16 +4623,16 @@
         <v>170</v>
       </c>
     </row>
-    <row r="66" spans="12:21">
+    <row r="66" spans="12:21" x14ac:dyDescent="0.25">
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="12:21">
+    <row r="67" spans="12:21" x14ac:dyDescent="0.25">
       <c r="L67">
         <v>8400</v>
       </c>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="12:21">
+    <row r="68" spans="12:21" x14ac:dyDescent="0.25">
       <c r="O68" s="3"/>
     </row>
   </sheetData>
@@ -4557,16 +4642,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:X208"/>
   <sheetViews>
-    <sheetView topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="L206" sqref="L206"/>
+    <sheetView topLeftCell="E78" workbookViewId="0">
+      <selection activeCell="T80" sqref="T80:T85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:24">
+    <row r="1" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
@@ -4591,7 +4676,7 @@
       <c r="W1" s="17"/>
       <c r="X1" s="17"/>
     </row>
-    <row r="2" spans="2:24">
+    <row r="2" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
@@ -4609,16 +4694,16 @@
       <c r="P2" s="17"/>
       <c r="Q2" s="17"/>
       <c r="R2" s="17"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="39"/>
-      <c r="U2" s="39"/>
-      <c r="V2" s="39" t="s">
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45" t="s">
         <v>230</v>
       </c>
-      <c r="W2" s="39"/>
+      <c r="W2" s="45"/>
       <c r="X2" s="17"/>
     </row>
-    <row r="3" spans="2:24">
+    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
@@ -4637,48 +4722,48 @@
       <c r="Q3" s="17"/>
       <c r="R3" s="17"/>
       <c r="S3" s="17"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
+      <c r="T3" s="52"/>
+      <c r="U3" s="52"/>
+      <c r="V3" s="52"/>
       <c r="W3" s="17"/>
       <c r="X3" s="17"/>
     </row>
-    <row r="4" spans="2:24">
+    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B4" s="17"/>
       <c r="S4" t="s">
         <v>249</v>
       </c>
-      <c r="T4" s="39" t="s">
+      <c r="T4" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
+      <c r="U4" s="45"/>
+      <c r="V4" s="45"/>
       <c r="X4" s="17"/>
     </row>
-    <row r="5" spans="2:24">
+    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B5" s="17"/>
       <c r="X5" s="17"/>
     </row>
-    <row r="6" spans="2:24">
+    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B6" s="17"/>
       <c r="X6" s="17"/>
     </row>
-    <row r="7" spans="2:24">
+    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B7" s="17"/>
       <c r="R7" t="s">
         <v>335</v>
       </c>
-      <c r="T7" s="39" t="s">
+      <c r="T7" s="45" t="s">
         <v>232</v>
       </c>
-      <c r="U7" s="39"/>
+      <c r="U7" s="45"/>
       <c r="X7" s="17"/>
     </row>
-    <row r="8" spans="2:24">
+    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B8" s="17"/>
       <c r="X8" s="17"/>
     </row>
-    <row r="9" spans="2:24">
+    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B9" s="17"/>
       <c r="L9" t="s">
         <v>240</v>
@@ -4689,14 +4774,14 @@
       <c r="R9">
         <v>9380</v>
       </c>
-      <c r="S9" s="39" t="s">
+      <c r="S9" s="45" t="s">
         <v>233</v>
       </c>
-      <c r="T9" s="39"/>
-      <c r="U9" s="39"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="45"/>
       <c r="X9" s="17"/>
     </row>
-    <row r="10" spans="2:24">
+    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B10" s="17"/>
       <c r="L10" t="s">
         <v>241</v>
@@ -4706,7 +4791,7 @@
       </c>
       <c r="X10" s="17"/>
     </row>
-    <row r="11" spans="2:24">
+    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B11" s="17"/>
       <c r="L11" t="s">
         <v>242</v>
@@ -4731,7 +4816,7 @@
       </c>
       <c r="X11" s="17"/>
     </row>
-    <row r="12" spans="2:24">
+    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B12" s="17"/>
       <c r="K12" t="s">
         <v>243</v>
@@ -4750,18 +4835,18 @@
       </c>
       <c r="X12" s="17"/>
     </row>
-    <row r="13" spans="2:24">
+    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B13" s="17"/>
       <c r="X13" s="17"/>
     </row>
-    <row r="14" spans="2:24">
+    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B14" s="17"/>
       <c r="V14" s="3">
         <v>17890</v>
       </c>
       <c r="X14" s="17"/>
     </row>
-    <row r="15" spans="2:24">
+    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B15" s="17"/>
       <c r="V15">
         <v>9380</v>
@@ -4771,7 +4856,7 @@
       </c>
       <c r="X15" s="17"/>
     </row>
-    <row r="16" spans="2:24">
+    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B16" s="17"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -4782,7 +4867,7 @@
       <c r="W16" s="5"/>
       <c r="X16" s="17"/>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B17" s="17"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -4793,7 +4878,7 @@
       </c>
       <c r="X17" s="17"/>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B18" s="17"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -4813,7 +4898,7 @@
       </c>
       <c r="X18" s="17"/>
     </row>
-    <row r="19" spans="1:24">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B19" s="17"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -4824,7 +4909,7 @@
       </c>
       <c r="X19" s="17"/>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B20" s="17"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -4840,7 +4925,7 @@
       </c>
       <c r="X20" s="17"/>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B21" s="17"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -4850,7 +4935,7 @@
       <c r="L21" s="3"/>
       <c r="X21" s="17"/>
     </row>
-    <row r="22" spans="1:24">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B22" s="17"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -4860,7 +4945,7 @@
       <c r="L22" s="3"/>
       <c r="X22" s="17"/>
     </row>
-    <row r="23" spans="1:24">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B23" s="17"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -4870,7 +4955,7 @@
       <c r="L23" s="3"/>
       <c r="X23" s="17"/>
     </row>
-    <row r="24" spans="1:24">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B24" s="17"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -4880,18 +4965,18 @@
       <c r="L24" s="3"/>
       <c r="X24" s="17"/>
     </row>
-    <row r="25" spans="1:24">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B25" s="17"/>
       <c r="R25" s="10">
         <v>44013</v>
       </c>
       <c r="X25" s="17"/>
     </row>
-    <row r="26" spans="1:24">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B26" s="17"/>
       <c r="X26" s="17"/>
     </row>
-    <row r="27" spans="1:24">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="17"/>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
@@ -4917,7 +5002,7 @@
       <c r="W27" s="17"/>
       <c r="X27" s="17"/>
     </row>
-    <row r="28" spans="1:24">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="17"/>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
@@ -4943,7 +5028,7 @@
       <c r="W28" s="17"/>
       <c r="X28" s="17"/>
     </row>
-    <row r="29" spans="1:24">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="17"/>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
@@ -4969,7 +5054,7 @@
       <c r="W29" s="17"/>
       <c r="X29" s="17"/>
     </row>
-    <row r="30" spans="1:24">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
@@ -4985,17 +5070,17 @@
       <c r="M30" s="17"/>
       <c r="N30" s="17"/>
       <c r="O30" s="17"/>
-      <c r="P30" s="39" t="s">
+      <c r="P30" s="45" t="s">
         <v>255</v>
       </c>
-      <c r="Q30" s="39"/>
-      <c r="R30" s="39"/>
+      <c r="Q30" s="45"/>
+      <c r="R30" s="45"/>
       <c r="S30" s="17"/>
       <c r="T30" s="17"/>
       <c r="U30" s="17"/>
       <c r="V30" s="17"/>
     </row>
-    <row r="31" spans="1:24">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="17"/>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
@@ -5019,18 +5104,18 @@
       <c r="U31" s="17"/>
       <c r="V31" s="17"/>
     </row>
-    <row r="32" spans="1:24">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="17"/>
       <c r="I32" t="s">
         <v>253</v>
       </c>
       <c r="V32" s="17"/>
     </row>
-    <row r="33" spans="1:22">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="17"/>
       <c r="V33" s="17"/>
     </row>
-    <row r="34" spans="1:22">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="17"/>
       <c r="B34" t="s">
         <v>174</v>
@@ -5063,7 +5148,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="35" spans="1:22">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="17"/>
       <c r="B35" t="s">
         <v>174</v>
@@ -5094,7 +5179,7 @@
       </c>
       <c r="V35" s="16"/>
     </row>
-    <row r="36" spans="1:22">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="17"/>
       <c r="B36" t="s">
         <v>174</v>
@@ -5116,11 +5201,11 @@
       </c>
       <c r="V36" s="16"/>
     </row>
-    <row r="37" spans="1:22">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="17"/>
       <c r="V37" s="16"/>
     </row>
-    <row r="38" spans="1:22">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="17"/>
       <c r="C38" t="s">
         <v>254</v>
@@ -5141,7 +5226,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="39" spans="1:22">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="17"/>
       <c r="K39">
         <v>250</v>
@@ -5160,7 +5245,7 @@
       </c>
       <c r="V39" s="16"/>
     </row>
-    <row r="40" spans="1:22">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="17"/>
       <c r="B40" t="s">
         <v>333</v>
@@ -5170,11 +5255,11 @@
       </c>
       <c r="V40" s="16"/>
     </row>
-    <row r="41" spans="1:22">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="17"/>
       <c r="V41" s="16"/>
     </row>
-    <row r="42" spans="1:22">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="17"/>
       <c r="G42" t="s">
         <v>346</v>
@@ -5190,13 +5275,13 @@
       </c>
       <c r="V42" s="16"/>
     </row>
-    <row r="43" spans="1:22">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="17"/>
       <c r="V43" s="16" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="44" spans="1:22">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="17"/>
       <c r="I44" t="s">
         <v>269</v>
@@ -5215,7 +5300,7 @@
       </c>
       <c r="V44" s="17"/>
     </row>
-    <row r="45" spans="1:22">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="17"/>
       <c r="Q45" t="s">
         <v>174</v>
@@ -5228,19 +5313,19 @@
       </c>
       <c r="V45" s="17"/>
     </row>
-    <row r="46" spans="1:22">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="17"/>
       <c r="F46" s="26"/>
       <c r="G46" s="27"/>
       <c r="H46" s="27"/>
-      <c r="I46" s="40" t="s">
+      <c r="I46" s="49" t="s">
         <v>256</v>
       </c>
-      <c r="J46" s="40"/>
-      <c r="K46" s="41"/>
+      <c r="J46" s="49"/>
+      <c r="K46" s="50"/>
       <c r="V46" s="17"/>
     </row>
-    <row r="47" spans="1:22">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="17"/>
       <c r="F47" s="28"/>
       <c r="G47" s="19"/>
@@ -5250,7 +5335,7 @@
       <c r="K47" s="29"/>
       <c r="V47" s="17"/>
     </row>
-    <row r="48" spans="1:22">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="17"/>
       <c r="F48" s="28"/>
       <c r="G48" s="19" t="s">
@@ -5266,7 +5351,7 @@
       </c>
       <c r="V48" s="17"/>
     </row>
-    <row r="49" spans="1:22">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="17"/>
       <c r="F49" s="28"/>
       <c r="G49" s="19" t="s">
@@ -5282,7 +5367,7 @@
       </c>
       <c r="V49" s="17"/>
     </row>
-    <row r="50" spans="1:22">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="17"/>
       <c r="F50" s="30"/>
       <c r="G50" s="20" t="s">
@@ -5298,7 +5383,7 @@
       </c>
       <c r="V50" s="17"/>
     </row>
-    <row r="51" spans="1:22">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="17"/>
       <c r="R51" s="33" t="s">
         <v>329</v>
@@ -5307,42 +5392,42 @@
       <c r="T51" s="33"/>
       <c r="U51" s="33"/>
     </row>
-    <row r="52" spans="1:22">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="17"/>
-      <c r="Q52" s="39" t="s">
+      <c r="Q52" s="45" t="s">
         <v>330</v>
       </c>
-      <c r="R52" s="39"/>
-      <c r="S52" s="39"/>
-      <c r="T52" s="39"/>
-      <c r="U52" s="39"/>
-      <c r="V52" s="39"/>
-    </row>
-    <row r="53" spans="1:22">
+      <c r="R52" s="45"/>
+      <c r="S52" s="45"/>
+      <c r="T52" s="45"/>
+      <c r="U52" s="45"/>
+      <c r="V52" s="45"/>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="17"/>
-      <c r="Q53" s="39" t="s">
+      <c r="Q53" s="45" t="s">
         <v>331</v>
       </c>
-      <c r="R53" s="39"/>
-      <c r="S53" s="39"/>
-      <c r="T53" s="39"/>
-      <c r="U53" s="39"/>
+      <c r="R53" s="45"/>
+      <c r="S53" s="45"/>
+      <c r="T53" s="45"/>
+      <c r="U53" s="45"/>
       <c r="V53" s="17"/>
     </row>
-    <row r="54" spans="1:22">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="17"/>
       <c r="F54" s="21"/>
       <c r="V54" s="17"/>
     </row>
-    <row r="55" spans="1:22">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="17"/>
       <c r="V55" s="17"/>
     </row>
-    <row r="56" spans="1:22">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" s="17"/>
       <c r="V56" s="17"/>
     </row>
-    <row r="57" spans="1:22">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" s="17"/>
       <c r="F57" s="21"/>
       <c r="G57" s="21"/>
@@ -5356,7 +5441,7 @@
       <c r="M57" s="21"/>
       <c r="V57" s="17"/>
     </row>
-    <row r="58" spans="1:22">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" s="17"/>
       <c r="F58" s="21"/>
       <c r="G58" s="21"/>
@@ -5368,7 +5453,7 @@
       <c r="M58" s="21"/>
       <c r="V58" s="17"/>
     </row>
-    <row r="59" spans="1:22">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" s="17"/>
       <c r="F59" s="21"/>
       <c r="G59" s="21"/>
@@ -5388,7 +5473,7 @@
       <c r="U59" s="18"/>
       <c r="V59" s="17"/>
     </row>
-    <row r="60" spans="1:22">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" s="17"/>
       <c r="F60" s="21"/>
       <c r="G60" s="21"/>
@@ -5412,7 +5497,7 @@
       <c r="U60" s="18"/>
       <c r="V60" s="17"/>
     </row>
-    <row r="61" spans="1:22">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61" s="17"/>
       <c r="F61" s="21"/>
       <c r="G61" s="21"/>
@@ -5436,7 +5521,7 @@
       <c r="U61" s="18"/>
       <c r="V61" s="17"/>
     </row>
-    <row r="62" spans="1:22">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62" s="17"/>
       <c r="F62" s="21"/>
       <c r="G62" s="21"/>
@@ -5460,7 +5545,7 @@
       <c r="U62" s="18"/>
       <c r="V62" s="17"/>
     </row>
-    <row r="63" spans="1:22">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" s="17"/>
       <c r="F63" s="21"/>
       <c r="G63" s="21"/>
@@ -5480,7 +5565,7 @@
       <c r="U63" s="18"/>
       <c r="V63" s="17"/>
     </row>
-    <row r="64" spans="1:22">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64" s="17"/>
       <c r="F64" s="21"/>
       <c r="G64" s="21"/>
@@ -5502,7 +5587,7 @@
       <c r="U64" s="18"/>
       <c r="V64" s="17"/>
     </row>
-    <row r="65" spans="1:22">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" s="17"/>
       <c r="F65" s="21"/>
       <c r="G65" s="21"/>
@@ -5520,7 +5605,7 @@
       <c r="U65" s="18"/>
       <c r="V65" s="17"/>
     </row>
-    <row r="66" spans="1:22">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" s="17"/>
       <c r="F66" s="21"/>
       <c r="G66" s="21"/>
@@ -5540,7 +5625,7 @@
       <c r="U66" s="18"/>
       <c r="V66" s="17"/>
     </row>
-    <row r="67" spans="1:22">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" s="17"/>
       <c r="F67" s="21"/>
       <c r="G67" s="21"/>
@@ -5562,7 +5647,7 @@
       <c r="U67" s="18"/>
       <c r="V67" s="17"/>
     </row>
-    <row r="68" spans="1:22">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" s="17"/>
       <c r="F68" s="21"/>
       <c r="G68" s="21"/>
@@ -5580,7 +5665,7 @@
       <c r="U68" s="18"/>
       <c r="V68" s="17"/>
     </row>
-    <row r="69" spans="1:22">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69" s="17"/>
       <c r="F69" s="21"/>
       <c r="G69" s="21"/>
@@ -5600,7 +5685,7 @@
       <c r="U69" s="18"/>
       <c r="V69" s="17"/>
     </row>
-    <row r="70" spans="1:22">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70" s="17"/>
       <c r="E70" t="s">
         <v>294</v>
@@ -5625,7 +5710,7 @@
       <c r="U70" s="18"/>
       <c r="V70" s="17"/>
     </row>
-    <row r="71" spans="1:22">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71" s="17"/>
       <c r="F71" s="21"/>
       <c r="G71" s="21"/>
@@ -5643,7 +5728,7 @@
       <c r="U71" s="18"/>
       <c r="V71" s="17"/>
     </row>
-    <row r="72" spans="1:22">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" s="17"/>
       <c r="F72" s="21"/>
       <c r="G72" s="21"/>
@@ -5659,7 +5744,7 @@
       <c r="M72" s="21"/>
       <c r="V72" s="17"/>
     </row>
-    <row r="73" spans="1:22">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73" s="17"/>
       <c r="F73" s="21"/>
       <c r="G73" s="21"/>
@@ -5671,11 +5756,11 @@
       <c r="M73" s="21"/>
       <c r="V73" s="17"/>
     </row>
-    <row r="74" spans="1:22">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" s="17"/>
       <c r="V74" s="17"/>
     </row>
-    <row r="75" spans="1:22">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B75" s="17"/>
       <c r="C75" s="17"/>
       <c r="D75" s="17"/>
@@ -5698,7 +5783,7 @@
       <c r="U75" s="17"/>
       <c r="V75" s="17"/>
     </row>
-    <row r="76" spans="1:22">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B76" s="17"/>
       <c r="C76" s="17"/>
       <c r="D76" s="17"/>
@@ -5721,7 +5806,7 @@
       <c r="U76" s="17"/>
       <c r="V76" s="17"/>
     </row>
-    <row r="77" spans="1:22">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B77" s="17"/>
       <c r="J77" s="17"/>
       <c r="K77" s="17"/>
@@ -5733,23 +5818,23 @@
       <c r="U77" s="17"/>
       <c r="V77" s="17"/>
     </row>
-    <row r="78" spans="1:22">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B78" s="17"/>
       <c r="J78" s="17"/>
-      <c r="K78" s="39" t="s">
+      <c r="K78" s="45" t="s">
         <v>276</v>
       </c>
-      <c r="L78" s="39"/>
-      <c r="M78" s="39"/>
+      <c r="L78" s="45"/>
+      <c r="M78" s="45"/>
       <c r="N78" s="17"/>
       <c r="S78" s="17"/>
-      <c r="T78" s="39" t="s">
+      <c r="T78" s="45" t="s">
         <v>275</v>
       </c>
-      <c r="U78" s="39"/>
+      <c r="U78" s="45"/>
       <c r="V78" s="17"/>
     </row>
-    <row r="79" spans="1:22">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B79" s="17"/>
       <c r="J79" s="17"/>
       <c r="K79" s="17"/>
@@ -5761,7 +5846,7 @@
       <c r="U79" s="17"/>
       <c r="V79" s="17"/>
     </row>
-    <row r="80" spans="1:22">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B80" s="17"/>
       <c r="K80">
         <v>91000</v>
@@ -5777,7 +5862,7 @@
       </c>
       <c r="V80" s="17"/>
     </row>
-    <row r="81" spans="2:22">
+    <row r="81" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B81" s="17"/>
       <c r="K81">
         <v>7930</v>
@@ -5793,7 +5878,7 @@
       </c>
       <c r="V81" s="17"/>
     </row>
-    <row r="82" spans="2:22">
+    <row r="82" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B82" s="17"/>
       <c r="K82">
         <v>27760</v>
@@ -5809,7 +5894,7 @@
       </c>
       <c r="V82" s="17"/>
     </row>
-    <row r="83" spans="2:22">
+    <row r="83" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B83" s="17"/>
       <c r="K83">
         <v>39650</v>
@@ -5825,7 +5910,7 @@
       </c>
       <c r="V83" s="17"/>
     </row>
-    <row r="84" spans="2:22">
+    <row r="84" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B84" s="17"/>
       <c r="K84">
         <v>4785</v>
@@ -5841,7 +5926,7 @@
       </c>
       <c r="V84" s="17"/>
     </row>
-    <row r="85" spans="2:22">
+    <row r="85" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B85" s="17"/>
       <c r="K85">
         <v>17470</v>
@@ -5857,7 +5942,7 @@
       </c>
       <c r="V85" s="17"/>
     </row>
-    <row r="86" spans="2:22">
+    <row r="86" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B86" s="17"/>
       <c r="K86">
         <v>600</v>
@@ -5867,15 +5952,15 @@
       </c>
       <c r="V86" s="17"/>
     </row>
-    <row r="87" spans="2:22">
+    <row r="87" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B87" s="17"/>
       <c r="V87" s="17"/>
     </row>
-    <row r="88" spans="2:22">
+    <row r="88" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B88" s="17"/>
       <c r="V88" s="17"/>
     </row>
-    <row r="89" spans="2:22">
+    <row r="89" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B89" s="17"/>
       <c r="K89">
         <v>189195</v>
@@ -5888,7 +5973,7 @@
       </c>
       <c r="V89" s="17"/>
     </row>
-    <row r="90" spans="2:22">
+    <row r="90" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B90" s="17"/>
       <c r="T90">
         <v>200</v>
@@ -5898,29 +5983,27 @@
       </c>
       <c r="V90" s="17"/>
     </row>
-    <row r="91" spans="2:22">
+    <row r="91" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B91" s="17"/>
       <c r="V91" s="17"/>
     </row>
-    <row r="92" spans="2:22">
+    <row r="92" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B92" s="17"/>
       <c r="V92" s="17"/>
     </row>
-    <row r="93" spans="2:22">
+    <row r="93" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B93" s="17"/>
       <c r="U93" t="s">
         <v>282</v>
       </c>
       <c r="V93" s="17"/>
     </row>
-    <row r="94" spans="2:22">
+    <row r="94" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B94" s="17"/>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
-      <c r="J94" s="3" t="s">
-        <v>347</v>
-      </c>
+      <c r="J94" s="3"/>
       <c r="T94">
         <v>525</v>
       </c>
@@ -5929,7 +6012,7 @@
       </c>
       <c r="V94" s="17"/>
     </row>
-    <row r="95" spans="2:22">
+    <row r="95" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B95" s="17"/>
       <c r="S95" t="s">
         <v>287</v>
@@ -5942,7 +6025,7 @@
       </c>
       <c r="V95" s="17"/>
     </row>
-    <row r="96" spans="2:22">
+    <row r="96" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B96" s="17"/>
       <c r="S96" t="s">
         <v>288</v>
@@ -5955,7 +6038,7 @@
       </c>
       <c r="V96" s="17"/>
     </row>
-    <row r="97" spans="2:22">
+    <row r="97" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B97" s="17"/>
       <c r="S97" t="s">
         <v>148</v>
@@ -5968,14 +6051,14 @@
       </c>
       <c r="V97" s="17"/>
     </row>
-    <row r="98" spans="2:22" ht="15" thickBot="1">
+    <row r="98" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B98" s="17"/>
       <c r="T98">
         <v>185350</v>
       </c>
       <c r="V98" s="17"/>
     </row>
-    <row r="99" spans="2:22" ht="15.6" thickTop="1" thickBot="1">
+    <row r="99" spans="2:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B99" s="17"/>
       <c r="J99" t="s">
         <v>293</v>
@@ -5997,15 +6080,15 @@
       </c>
       <c r="V99" s="17"/>
     </row>
-    <row r="100" spans="2:22" ht="15" thickTop="1">
+    <row r="100" spans="2:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B100" s="17"/>
       <c r="V100" s="17"/>
     </row>
-    <row r="101" spans="2:22">
+    <row r="101" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B101" s="17"/>
       <c r="V101" s="17"/>
     </row>
-    <row r="102" spans="2:22">
+    <row r="102" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B102" s="17"/>
       <c r="C102" s="17"/>
       <c r="D102" s="17"/>
@@ -6028,7 +6111,7 @@
       <c r="U102" s="17"/>
       <c r="V102" s="17"/>
     </row>
-    <row r="103" spans="2:22">
+    <row r="103" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B103" s="17"/>
       <c r="C103" s="17"/>
       <c r="D103" s="17"/>
@@ -6051,7 +6134,7 @@
       <c r="U103" s="17"/>
       <c r="V103" s="17"/>
     </row>
-    <row r="104" spans="2:22">
+    <row r="104" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B104" s="17"/>
       <c r="R104" s="17"/>
       <c r="S104" s="17"/>
@@ -6059,17 +6142,17 @@
       <c r="U104" s="17"/>
       <c r="V104" s="17"/>
     </row>
-    <row r="105" spans="2:22">
+    <row r="105" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B105" s="17"/>
       <c r="R105" s="17"/>
-      <c r="S105" s="38" t="s">
+      <c r="S105" s="44" t="s">
         <v>296</v>
       </c>
-      <c r="T105" s="38"/>
+      <c r="T105" s="44"/>
       <c r="U105" s="17"/>
       <c r="V105" s="17"/>
     </row>
-    <row r="106" spans="2:22">
+    <row r="106" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B106" s="17"/>
       <c r="R106" s="17"/>
       <c r="S106" s="17"/>
@@ -6077,29 +6160,29 @@
       <c r="U106" s="17"/>
       <c r="V106" s="17"/>
     </row>
-    <row r="107" spans="2:22">
+    <row r="107" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B107" s="17"/>
       <c r="V107" s="17"/>
     </row>
-    <row r="108" spans="2:22">
+    <row r="108" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B108" s="17"/>
       <c r="V108" s="17"/>
     </row>
-    <row r="109" spans="2:22">
+    <row r="109" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B109" s="17"/>
-      <c r="S109" s="39"/>
-      <c r="T109" s="39"/>
-      <c r="U109" s="39"/>
+      <c r="S109" s="45"/>
+      <c r="T109" s="45"/>
+      <c r="U109" s="45"/>
       <c r="V109" s="17"/>
     </row>
-    <row r="110" spans="2:22">
+    <row r="110" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B110" s="17"/>
       <c r="Q110" s="6"/>
       <c r="S110" s="37"/>
       <c r="U110" s="3"/>
       <c r="V110" s="17"/>
     </row>
-    <row r="111" spans="2:22">
+    <row r="111" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B111" s="17"/>
       <c r="E111" s="9"/>
       <c r="Q111" s="6"/>
@@ -6107,7 +6190,7 @@
       <c r="U111" s="3"/>
       <c r="V111" s="17"/>
     </row>
-    <row r="112" spans="2:22">
+    <row r="112" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B112" s="17"/>
       <c r="E112" s="9"/>
       <c r="Q112" s="6"/>
@@ -6115,7 +6198,7 @@
       <c r="U112" s="3"/>
       <c r="V112" s="17"/>
     </row>
-    <row r="113" spans="2:22">
+    <row r="113" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B113" s="17"/>
       <c r="E113" s="9"/>
       <c r="Q113" s="6"/>
@@ -6123,7 +6206,7 @@
       <c r="U113" s="3"/>
       <c r="V113" s="17"/>
     </row>
-    <row r="114" spans="2:22">
+    <row r="114" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B114" s="17"/>
       <c r="E114" s="9"/>
       <c r="Q114" s="6"/>
@@ -6131,7 +6214,7 @@
       <c r="U114" s="3"/>
       <c r="V114" s="17"/>
     </row>
-    <row r="115" spans="2:22">
+    <row r="115" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B115" s="17"/>
       <c r="E115" s="9"/>
       <c r="Q115" s="6"/>
@@ -6139,7 +6222,7 @@
       <c r="U115" s="3"/>
       <c r="V115" s="17"/>
     </row>
-    <row r="116" spans="2:22">
+    <row r="116" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B116" s="17"/>
       <c r="E116" s="9"/>
       <c r="Q116" s="6"/>
@@ -6147,7 +6230,7 @@
       <c r="U116" s="3"/>
       <c r="V116" s="17"/>
     </row>
-    <row r="117" spans="2:22">
+    <row r="117" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B117" s="17"/>
       <c r="E117" s="9"/>
       <c r="Q117" s="6"/>
@@ -6155,7 +6238,7 @@
       <c r="U117" s="3"/>
       <c r="V117" s="17"/>
     </row>
-    <row r="118" spans="2:22">
+    <row r="118" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B118" s="17"/>
       <c r="E118" s="9"/>
       <c r="Q118" s="6"/>
@@ -6163,7 +6246,7 @@
       <c r="U118" s="3"/>
       <c r="V118" s="17"/>
     </row>
-    <row r="119" spans="2:22">
+    <row r="119" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B119" s="17"/>
       <c r="E119" s="9"/>
       <c r="Q119" s="6"/>
@@ -6171,7 +6254,7 @@
       <c r="U119" s="3"/>
       <c r="V119" s="17"/>
     </row>
-    <row r="120" spans="2:22">
+    <row r="120" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B120" s="17"/>
       <c r="E120" s="9"/>
       <c r="Q120" s="6"/>
@@ -6179,7 +6262,7 @@
       <c r="U120" s="3"/>
       <c r="V120" s="17"/>
     </row>
-    <row r="121" spans="2:22">
+    <row r="121" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B121" s="17"/>
       <c r="E121" s="9"/>
       <c r="Q121" s="6"/>
@@ -6187,7 +6270,7 @@
       <c r="U121" s="3"/>
       <c r="V121" s="17"/>
     </row>
-    <row r="122" spans="2:22">
+    <row r="122" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B122" s="17"/>
       <c r="E122" s="9"/>
       <c r="Q122" s="6"/>
@@ -6195,7 +6278,7 @@
       <c r="U122" s="3"/>
       <c r="V122" s="17"/>
     </row>
-    <row r="123" spans="2:22">
+    <row r="123" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B123" s="17"/>
       <c r="E123" s="9"/>
       <c r="Q123" s="6"/>
@@ -6203,7 +6286,7 @@
       <c r="U123" s="3"/>
       <c r="V123" s="17"/>
     </row>
-    <row r="124" spans="2:22">
+    <row r="124" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B124" s="17"/>
       <c r="E124" s="9"/>
       <c r="Q124" s="6"/>
@@ -6211,7 +6294,7 @@
       <c r="U124" s="3"/>
       <c r="V124" s="17"/>
     </row>
-    <row r="125" spans="2:22">
+    <row r="125" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B125" s="17"/>
       <c r="E125" s="9"/>
       <c r="Q125" s="6"/>
@@ -6219,7 +6302,7 @@
       <c r="U125" s="3"/>
       <c r="V125" s="17"/>
     </row>
-    <row r="126" spans="2:22">
+    <row r="126" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B126" s="17"/>
       <c r="E126" s="9"/>
       <c r="Q126" s="6"/>
@@ -6227,7 +6310,7 @@
       <c r="U126" s="3"/>
       <c r="V126" s="17"/>
     </row>
-    <row r="127" spans="2:22">
+    <row r="127" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B127" s="17"/>
       <c r="E127" s="9"/>
       <c r="Q127" s="6"/>
@@ -6235,7 +6318,7 @@
       <c r="U127" s="3"/>
       <c r="V127" s="17"/>
     </row>
-    <row r="128" spans="2:22">
+    <row r="128" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B128" s="17"/>
       <c r="E128" s="9"/>
       <c r="Q128" s="6"/>
@@ -6243,138 +6326,138 @@
       <c r="U128" s="3"/>
       <c r="V128" s="17"/>
     </row>
-    <row r="129" spans="2:22">
+    <row r="129" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B129" s="17"/>
       <c r="E129" s="9"/>
       <c r="V129" s="17"/>
     </row>
-    <row r="130" spans="2:22">
+    <row r="130" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B130" s="17"/>
       <c r="V130" s="17"/>
     </row>
-    <row r="131" spans="2:22">
+    <row r="131" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B131" s="17"/>
       <c r="V131" s="17"/>
     </row>
-    <row r="132" spans="2:22">
+    <row r="132" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B132" s="17"/>
       <c r="V132" s="17"/>
     </row>
-    <row r="133" spans="2:22">
+    <row r="133" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B133" s="17"/>
       <c r="V133" s="17"/>
     </row>
-    <row r="134" spans="2:22">
+    <row r="134" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B134" s="17"/>
       <c r="V134" s="17"/>
     </row>
-    <row r="135" spans="2:22">
+    <row r="135" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B135" s="17"/>
       <c r="V135" s="17"/>
     </row>
-    <row r="136" spans="2:22">
+    <row r="136" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B136" s="17"/>
       <c r="V136" s="17"/>
     </row>
-    <row r="137" spans="2:22">
+    <row r="137" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B137" s="17"/>
       <c r="V137" s="17"/>
     </row>
-    <row r="138" spans="2:22">
+    <row r="138" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B138" s="17"/>
       <c r="V138" s="17"/>
     </row>
-    <row r="139" spans="2:22">
+    <row r="139" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B139" s="17"/>
       <c r="V139" s="17"/>
     </row>
-    <row r="140" spans="2:22">
+    <row r="140" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B140" s="17"/>
       <c r="V140" s="17"/>
     </row>
-    <row r="141" spans="2:22">
+    <row r="141" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B141" s="17"/>
       <c r="V141" s="17"/>
     </row>
-    <row r="142" spans="2:22">
+    <row r="142" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B142" s="17"/>
       <c r="V142" s="17"/>
     </row>
-    <row r="143" spans="2:22">
+    <row r="143" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B143" s="17"/>
       <c r="V143" s="17"/>
     </row>
-    <row r="144" spans="2:22">
+    <row r="144" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B144" s="17"/>
       <c r="V144" s="17"/>
     </row>
-    <row r="145" spans="2:22">
+    <row r="145" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B145" s="17"/>
       <c r="V145" s="17"/>
     </row>
-    <row r="146" spans="2:22">
+    <row r="146" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B146" s="17"/>
       <c r="V146" s="17"/>
     </row>
-    <row r="147" spans="2:22">
+    <row r="147" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B147" s="17"/>
       <c r="V147" s="17"/>
     </row>
-    <row r="148" spans="2:22">
+    <row r="148" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B148" s="17"/>
       <c r="V148" s="17"/>
     </row>
-    <row r="149" spans="2:22">
+    <row r="149" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B149" s="17"/>
       <c r="V149" s="17"/>
     </row>
-    <row r="150" spans="2:22">
+    <row r="150" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B150" s="17"/>
       <c r="V150" s="17"/>
     </row>
-    <row r="151" spans="2:22">
+    <row r="151" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B151" s="17"/>
       <c r="V151" s="17"/>
     </row>
-    <row r="152" spans="2:22">
+    <row r="152" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B152" s="17"/>
       <c r="V152" s="17"/>
     </row>
-    <row r="153" spans="2:22">
+    <row r="153" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B153" s="17"/>
       <c r="V153" s="17"/>
     </row>
-    <row r="154" spans="2:22">
+    <row r="154" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B154" s="17"/>
-      <c r="E154" s="45" t="s">
+      <c r="E154" s="48" t="s">
         <v>297</v>
       </c>
-      <c r="F154" s="40"/>
-      <c r="G154" s="40"/>
-      <c r="H154" s="40"/>
-      <c r="I154" s="40"/>
-      <c r="J154" s="40"/>
-      <c r="K154" s="41"/>
+      <c r="F154" s="49"/>
+      <c r="G154" s="49"/>
+      <c r="H154" s="49"/>
+      <c r="I154" s="49"/>
+      <c r="J154" s="49"/>
+      <c r="K154" s="50"/>
       <c r="Q154" s="5" t="s">
         <v>304</v>
       </c>
       <c r="V154" s="17"/>
     </row>
-    <row r="155" spans="2:22">
+    <row r="155" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B155" s="17"/>
-      <c r="E155" s="46"/>
-      <c r="F155" s="43"/>
-      <c r="G155" s="43"/>
-      <c r="H155" s="43"/>
-      <c r="I155" s="43"/>
-      <c r="J155" s="43"/>
-      <c r="K155" s="44"/>
+      <c r="E155" s="51"/>
+      <c r="F155" s="46"/>
+      <c r="G155" s="46"/>
+      <c r="H155" s="46"/>
+      <c r="I155" s="46"/>
+      <c r="J155" s="46"/>
+      <c r="K155" s="47"/>
       <c r="Q155" s="5" t="s">
         <v>305</v>
       </c>
       <c r="V155" s="17"/>
     </row>
-    <row r="156" spans="2:22">
+    <row r="156" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B156" s="17"/>
       <c r="E156" s="28"/>
       <c r="F156" s="19"/>
@@ -6399,7 +6482,7 @@
       </c>
       <c r="V156" s="17"/>
     </row>
-    <row r="157" spans="2:22">
+    <row r="157" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B157" s="17"/>
       <c r="E157" s="28"/>
       <c r="F157" s="19"/>
@@ -6420,7 +6503,7 @@
       </c>
       <c r="V157" s="17"/>
     </row>
-    <row r="158" spans="2:22">
+    <row r="158" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B158" s="17"/>
       <c r="E158" s="28"/>
       <c r="F158" s="19"/>
@@ -6428,11 +6511,11 @@
         <v>313</v>
       </c>
       <c r="H158" s="19"/>
-      <c r="I158" s="43" t="s">
+      <c r="I158" s="46" t="s">
         <v>321</v>
       </c>
-      <c r="J158" s="43"/>
-      <c r="K158" s="44"/>
+      <c r="J158" s="46"/>
+      <c r="K158" s="47"/>
       <c r="R158">
         <v>200</v>
       </c>
@@ -6441,7 +6524,7 @@
       </c>
       <c r="V158" s="17"/>
     </row>
-    <row r="159" spans="2:22">
+    <row r="159" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B159" s="17"/>
       <c r="E159" s="28"/>
       <c r="F159" s="19"/>
@@ -6460,7 +6543,7 @@
       </c>
       <c r="V159" s="17"/>
     </row>
-    <row r="160" spans="2:22">
+    <row r="160" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B160" s="17"/>
       <c r="E160" s="28"/>
       <c r="F160" s="19"/>
@@ -6477,7 +6560,7 @@
       </c>
       <c r="V160" s="17"/>
     </row>
-    <row r="161" spans="2:22">
+    <row r="161" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B161" s="17"/>
       <c r="E161" s="28"/>
       <c r="F161" s="19"/>
@@ -6494,7 +6577,7 @@
       </c>
       <c r="V161" s="17"/>
     </row>
-    <row r="162" spans="2:22">
+    <row r="162" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B162" s="17"/>
       <c r="E162" s="28"/>
       <c r="F162" s="19"/>
@@ -6502,14 +6585,14 @@
         <v>313</v>
       </c>
       <c r="H162" s="19"/>
-      <c r="I162" s="43" t="s">
+      <c r="I162" s="46" t="s">
         <v>323</v>
       </c>
-      <c r="J162" s="43"/>
-      <c r="K162" s="44"/>
+      <c r="J162" s="46"/>
+      <c r="K162" s="47"/>
       <c r="V162" s="17"/>
     </row>
-    <row r="163" spans="2:22">
+    <row r="163" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B163" s="17"/>
       <c r="E163" s="28"/>
       <c r="F163" s="19"/>
@@ -6525,14 +6608,14 @@
       </c>
       <c r="V163" s="17"/>
     </row>
-    <row r="164" spans="2:22">
+    <row r="164" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B164" s="17"/>
       <c r="E164" s="28"/>
-      <c r="F164" s="47"/>
-      <c r="G164" s="47" t="s">
+      <c r="F164" s="38"/>
+      <c r="G164" s="38" t="s">
         <v>325</v>
       </c>
-      <c r="H164" s="47"/>
+      <c r="H164" s="38"/>
       <c r="I164" s="19"/>
       <c r="J164" s="19"/>
       <c r="K164" s="29"/>
@@ -6544,7 +6627,7 @@
       </c>
       <c r="V164" s="17"/>
     </row>
-    <row r="165" spans="2:22">
+    <row r="165" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B165" s="17"/>
       <c r="E165" s="28"/>
       <c r="F165" s="19"/>
@@ -6555,7 +6638,7 @@
       <c r="K165" s="29"/>
       <c r="V165" s="17"/>
     </row>
-    <row r="166" spans="2:22">
+    <row r="166" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B166" s="17"/>
       <c r="E166" s="28"/>
       <c r="F166" s="19"/>
@@ -6572,7 +6655,7 @@
       </c>
       <c r="V166" s="17"/>
     </row>
-    <row r="167" spans="2:22">
+    <row r="167" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B167" s="17"/>
       <c r="E167" s="28"/>
       <c r="F167" s="19"/>
@@ -6589,7 +6672,7 @@
       </c>
       <c r="V167" s="17"/>
     </row>
-    <row r="168" spans="2:22">
+    <row r="168" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B168" s="17"/>
       <c r="E168" s="28"/>
       <c r="F168" s="19"/>
@@ -6606,7 +6689,7 @@
       </c>
       <c r="V168" s="17"/>
     </row>
-    <row r="169" spans="2:22">
+    <row r="169" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B169" s="17"/>
       <c r="E169" s="28"/>
       <c r="F169" s="19"/>
@@ -6617,7 +6700,7 @@
       <c r="K169" s="29"/>
       <c r="V169" s="17"/>
     </row>
-    <row r="170" spans="2:22">
+    <row r="170" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B170" s="17"/>
       <c r="E170" s="30"/>
       <c r="F170" s="20"/>
@@ -6628,11 +6711,11 @@
       <c r="K170" s="31"/>
       <c r="V170" s="17"/>
     </row>
-    <row r="171" spans="2:22">
+    <row r="171" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B171" s="17"/>
       <c r="V171" s="17"/>
     </row>
-    <row r="172" spans="2:22">
+    <row r="172" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B172" s="17"/>
       <c r="C172" s="17"/>
       <c r="D172" s="17"/>
@@ -6655,7 +6738,7 @@
       <c r="U172" s="17"/>
       <c r="V172" s="17"/>
     </row>
-    <row r="173" spans="2:22">
+    <row r="173" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B173" s="17"/>
       <c r="C173" s="17"/>
       <c r="D173" s="17"/>
@@ -6678,35 +6761,35 @@
       <c r="U173" s="17"/>
       <c r="V173" s="17"/>
     </row>
-    <row r="174" spans="2:22">
+    <row r="174" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B174" s="17"/>
       <c r="L174" s="32"/>
       <c r="V174" s="17"/>
     </row>
-    <row r="175" spans="2:22">
+    <row r="175" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B175" s="17"/>
       <c r="L175" s="32"/>
       <c r="V175" s="17"/>
     </row>
-    <row r="176" spans="2:22">
+    <row r="176" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B176" s="17"/>
       <c r="F176" t="s">
         <v>48</v>
       </c>
       <c r="L176" s="32"/>
-      <c r="Q176" s="39" t="s">
+      <c r="Q176" s="45" t="s">
         <v>312</v>
       </c>
-      <c r="R176" s="39"/>
-      <c r="S176" s="39"/>
+      <c r="R176" s="45"/>
+      <c r="S176" s="45"/>
       <c r="V176" s="17"/>
     </row>
-    <row r="177" spans="2:22">
+    <row r="177" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B177" s="17"/>
       <c r="L177" s="32"/>
       <c r="V177" s="17"/>
     </row>
-    <row r="178" spans="2:22">
+    <row r="178" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B178" s="17"/>
       <c r="I178" t="s">
         <v>313</v>
@@ -6717,7 +6800,7 @@
       </c>
       <c r="V178" s="17"/>
     </row>
-    <row r="179" spans="2:22">
+    <row r="179" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B179" s="17"/>
       <c r="I179" t="s">
         <v>314</v>
@@ -6728,7 +6811,7 @@
       </c>
       <c r="V179" s="17"/>
     </row>
-    <row r="180" spans="2:22">
+    <row r="180" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B180" s="17"/>
       <c r="I180" t="s">
         <v>316</v>
@@ -6737,22 +6820,22 @@
       <c r="O180" t="s">
         <v>319</v>
       </c>
-      <c r="Q180" s="39" t="s">
+      <c r="Q180" s="45" t="s">
         <v>318</v>
       </c>
-      <c r="R180" s="39"/>
+      <c r="R180" s="45"/>
       <c r="S180" t="s">
         <v>315</v>
       </c>
       <c r="V180" s="17"/>
     </row>
-    <row r="181" spans="2:22">
+    <row r="181" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B181" s="17"/>
-      <c r="F181" s="39" t="s">
+      <c r="F181" s="45" t="s">
         <v>317</v>
       </c>
-      <c r="G181" s="39"/>
-      <c r="H181" s="39"/>
+      <c r="G181" s="45"/>
+      <c r="H181" s="45"/>
       <c r="I181" t="s">
         <v>315</v>
       </c>
@@ -6762,52 +6845,52 @@
       </c>
       <c r="V181" s="17"/>
     </row>
-    <row r="182" spans="2:22">
+    <row r="182" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B182" s="17"/>
       <c r="L182" s="32"/>
       <c r="V182" s="17"/>
     </row>
-    <row r="183" spans="2:22">
+    <row r="183" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B183" s="17"/>
       <c r="L183" s="32"/>
       <c r="V183" s="17"/>
     </row>
-    <row r="184" spans="2:22">
+    <row r="184" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B184" s="17"/>
       <c r="L184" s="32"/>
       <c r="V184" s="17"/>
     </row>
-    <row r="185" spans="2:22">
+    <row r="185" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B185" s="17"/>
       <c r="L185" s="32"/>
       <c r="V185" s="17"/>
     </row>
-    <row r="186" spans="2:22">
+    <row r="186" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B186" s="17"/>
       <c r="L186" s="32"/>
       <c r="V186" s="17"/>
     </row>
-    <row r="187" spans="2:22">
+    <row r="187" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B187" s="17"/>
       <c r="L187" s="32"/>
       <c r="V187" s="17"/>
     </row>
-    <row r="188" spans="2:22">
+    <row r="188" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B188" s="17"/>
       <c r="L188" s="32"/>
       <c r="V188" s="17"/>
     </row>
-    <row r="189" spans="2:22">
+    <row r="189" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B189" s="17"/>
       <c r="L189" s="32"/>
       <c r="V189" s="17"/>
     </row>
-    <row r="190" spans="2:22">
+    <row r="190" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B190" s="17"/>
       <c r="L190" s="32"/>
       <c r="V190" s="17"/>
     </row>
-    <row r="191" spans="2:22">
+    <row r="191" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B191" s="17"/>
       <c r="C191" s="17"/>
       <c r="D191" s="17"/>
@@ -6830,7 +6913,7 @@
       <c r="U191" s="17"/>
       <c r="V191" s="17"/>
     </row>
-    <row r="192" spans="2:22">
+    <row r="192" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B192" s="17"/>
       <c r="C192" s="17"/>
       <c r="D192" s="17"/>
@@ -6853,7 +6936,7 @@
       <c r="U192" s="17"/>
       <c r="V192" s="17"/>
     </row>
-    <row r="193" spans="2:22">
+    <row r="193" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B193" s="17"/>
       <c r="C193" s="17"/>
       <c r="D193" s="17"/>
@@ -6876,47 +6959,55 @@
       <c r="U193" s="17"/>
       <c r="V193" s="17"/>
     </row>
-    <row r="203" spans="2:22">
+    <row r="203" spans="2:22" x14ac:dyDescent="0.25">
       <c r="P203" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="Q203">
         <v>15</v>
       </c>
       <c r="R203" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="204" spans="2:22">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="204" spans="2:22" x14ac:dyDescent="0.25">
       <c r="Q204">
         <v>40</v>
       </c>
       <c r="R204" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="205" spans="2:22">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="205" spans="2:22" x14ac:dyDescent="0.25">
       <c r="Q205" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="206" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="Q206" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="206" spans="2:22">
-      <c r="Q206" t="s">
+    <row r="207" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="Q207" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="207" spans="2:22">
-      <c r="Q207" t="s">
+    <row r="208" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="Q208" t="s">
         <v>354</v>
-      </c>
-    </row>
-    <row r="208" spans="2:22">
-      <c r="Q208" t="s">
-        <v>355</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="P30:R30"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="T7:U7"/>
     <mergeCell ref="F181:H181"/>
     <mergeCell ref="I158:K158"/>
     <mergeCell ref="I162:K162"/>
@@ -6929,14 +7020,6 @@
     <mergeCell ref="Q180:R180"/>
     <mergeCell ref="Q176:S176"/>
     <mergeCell ref="E154:K155"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="P30:R30"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="T7:U7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6945,31 +7028,35 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B5:V45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="Q43" sqref="Q43"/>
+    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36:J36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="12" width="8.42578125" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" hidden="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="5" spans="7:20">
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="39"/>
-      <c r="S5" s="39"/>
-      <c r="T5" s="39"/>
-    </row>
-    <row r="6" spans="7:20">
+    <row r="5" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="45"/>
+    </row>
+    <row r="6" spans="7:20" x14ac:dyDescent="0.25">
       <c r="L6" s="16"/>
       <c r="M6" s="16"/>
       <c r="N6" s="16" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O6" s="16"/>
       <c r="P6" s="16"/>
@@ -6977,338 +7064,395 @@
       <c r="R6" s="16"/>
       <c r="S6" s="16"/>
     </row>
-    <row r="7" spans="7:20">
+    <row r="7" spans="7:20" x14ac:dyDescent="0.25">
       <c r="L7" s="16"/>
-      <c r="M7" s="48" t="s">
+      <c r="M7" s="53" t="s">
+        <v>355</v>
+      </c>
+      <c r="N7" s="53"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="53"/>
+      <c r="R7" s="53"/>
+      <c r="S7" s="53"/>
+    </row>
+    <row r="8" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="L8" s="45" t="s">
+        <v>375</v>
+      </c>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="45"/>
+    </row>
+    <row r="16" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>359</v>
+      </c>
+      <c r="L16" t="s">
         <v>356</v>
       </c>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="48"/>
-      <c r="S7" s="48"/>
-    </row>
-    <row r="8" spans="7:20">
-      <c r="L8" s="39" t="s">
-        <v>380</v>
-      </c>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="39"/>
-      <c r="S8" s="39"/>
-    </row>
-    <row r="16" spans="7:20">
-      <c r="G16" t="s">
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>361</v>
+      </c>
+      <c r="F17" t="s">
         <v>360</v>
-      </c>
-      <c r="L16" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="17" spans="2:22">
-      <c r="E17" t="s">
-        <v>362</v>
-      </c>
-      <c r="F17" t="s">
-        <v>361</v>
       </c>
       <c r="G17" t="s">
         <v>26</v>
       </c>
       <c r="J17" t="s">
+        <v>368</v>
+      </c>
+      <c r="K17" t="s">
+        <v>358</v>
+      </c>
+      <c r="L17" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>365</v>
+      </c>
+      <c r="G19" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>370</v>
+      </c>
+      <c r="G20" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
         <v>369</v>
       </c>
-      <c r="K17" t="s">
-        <v>359</v>
-      </c>
-      <c r="L17" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="19" spans="2:22">
-      <c r="B19" t="s">
-        <v>366</v>
-      </c>
-      <c r="G19" t="s">
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="20" spans="2:22">
-      <c r="C20" t="s">
+      <c r="N24" t="s">
+        <v>374</v>
+      </c>
+      <c r="P24" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>372</v>
+      </c>
+      <c r="R24" t="s">
+        <v>364</v>
+      </c>
+      <c r="S24" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>361</v>
+      </c>
+      <c r="F25" t="s">
+        <v>364</v>
+      </c>
+      <c r="G25" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="F30" s="45" t="s">
         <v>371</v>
       </c>
-      <c r="G20" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="21" spans="2:22">
-      <c r="G21" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="24" spans="2:22">
-      <c r="G24" t="s">
-        <v>364</v>
-      </c>
-      <c r="N24" t="s">
-        <v>375</v>
-      </c>
-      <c r="P24" t="s">
-        <v>374</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>373</v>
-      </c>
-      <c r="R24" t="s">
-        <v>365</v>
-      </c>
-      <c r="S24" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="25" spans="2:22">
-      <c r="E25" t="s">
-        <v>362</v>
-      </c>
-      <c r="F25" t="s">
-        <v>365</v>
-      </c>
-      <c r="G25" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="27" spans="2:22">
-      <c r="G27" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="30" spans="2:22">
-      <c r="F30" s="39" t="s">
-        <v>372</v>
-      </c>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-    </row>
-    <row r="31" spans="2:22">
-      <c r="P31" s="9"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="9"/>
-      <c r="S31" s="9"/>
-      <c r="T31" s="9"/>
-      <c r="U31" s="9"/>
-      <c r="V31" s="9"/>
-    </row>
-    <row r="32" spans="2:22">
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9" t="s">
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
+      <c r="P30" s="42"/>
+      <c r="Q30" s="42"/>
+      <c r="R30" s="42"/>
+      <c r="S30" s="42"/>
+      <c r="T30" s="42"/>
+      <c r="U30" s="42"/>
+      <c r="V30" s="42"/>
+    </row>
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="P31" s="42"/>
+      <c r="Q31" s="42"/>
+      <c r="R31" s="42"/>
+      <c r="S31" s="42"/>
+      <c r="T31" s="42"/>
+      <c r="U31" s="42"/>
+      <c r="V31" s="42"/>
+    </row>
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="P32" s="42"/>
+      <c r="Q32" s="42"/>
+      <c r="R32" s="42"/>
+      <c r="S32" s="42"/>
+      <c r="T32" s="42"/>
+      <c r="U32" s="42"/>
+      <c r="V32" s="42"/>
+    </row>
+    <row r="33" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="P33" s="42"/>
+      <c r="Q33" s="42"/>
+      <c r="R33" s="42"/>
+      <c r="S33" s="42"/>
+      <c r="T33" s="42"/>
+      <c r="U33" s="42"/>
+      <c r="V33" s="42"/>
+    </row>
+    <row r="34" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="P34" s="42"/>
+      <c r="Q34" s="42"/>
+      <c r="R34" s="42"/>
+      <c r="S34" s="42"/>
+      <c r="T34" s="42"/>
+      <c r="U34" s="42"/>
+      <c r="V34" s="42"/>
+    </row>
+    <row r="35" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C35" s="39"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="54" t="s">
+        <v>381</v>
+      </c>
+      <c r="K35" s="40"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="41"/>
+      <c r="O35" s="41"/>
+      <c r="P35" s="42"/>
+      <c r="Q35" s="42"/>
+      <c r="R35" s="42"/>
+      <c r="S35" s="42"/>
+      <c r="T35" s="42"/>
+      <c r="U35" s="42"/>
+      <c r="V35" s="42"/>
+    </row>
+    <row r="36" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="K36" s="40"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="40"/>
+      <c r="P36" s="42"/>
+      <c r="Q36" s="42"/>
+      <c r="R36" s="42"/>
+      <c r="S36" s="42"/>
+      <c r="T36" s="42"/>
+      <c r="U36" s="42"/>
+      <c r="V36" s="42"/>
+    </row>
+    <row r="37" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="43" t="s">
+        <v>383</v>
+      </c>
+      <c r="K37" s="40"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="40"/>
+      <c r="P37" s="41"/>
+      <c r="Q37" s="41"/>
+      <c r="R37" s="41"/>
+      <c r="S37" s="41"/>
+      <c r="T37" s="41"/>
+      <c r="U37" s="41"/>
+      <c r="V37" s="41"/>
+    </row>
+    <row r="38" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C38" s="40"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="40"/>
+      <c r="L38" s="40"/>
+      <c r="M38" s="40"/>
+    </row>
+    <row r="39" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="40"/>
+      <c r="L39" s="40"/>
+      <c r="M39" s="40"/>
+    </row>
+    <row r="40" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="40"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="40"/>
+      <c r="O40" s="44" t="s">
         <v>376</v>
       </c>
-      <c r="R32" s="9"/>
-      <c r="S32" s="9"/>
-      <c r="T32" s="9"/>
-      <c r="U32" s="9"/>
-      <c r="V32" s="9"/>
-    </row>
-    <row r="33" spans="3:22">
-      <c r="P33" s="9"/>
-      <c r="Q33" s="9" t="s">
+      <c r="P40" s="44"/>
+      <c r="Q40" s="44"/>
+      <c r="R40" s="44"/>
+      <c r="S40" s="44"/>
+      <c r="T40" s="44"/>
+      <c r="U40" s="44"/>
+      <c r="V40" s="44"/>
+    </row>
+    <row r="41" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="40"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="40"/>
+      <c r="O41" s="44" t="s">
         <v>377</v>
       </c>
-      <c r="R33" s="9"/>
-      <c r="S33" s="9"/>
-      <c r="T33" s="9"/>
-      <c r="U33" s="9"/>
-      <c r="V33" s="9"/>
-    </row>
-    <row r="34" spans="3:22">
-      <c r="P34" s="9"/>
-      <c r="Q34" s="9" t="s">
+      <c r="P41" s="44"/>
+      <c r="Q41" s="44"/>
+      <c r="R41" s="44"/>
+      <c r="S41" s="44"/>
+      <c r="T41" s="44"/>
+      <c r="U41" s="44"/>
+      <c r="V41" s="3"/>
+    </row>
+    <row r="42" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="40"/>
+      <c r="I42" s="40"/>
+      <c r="J42" s="40"/>
+      <c r="K42" s="40"/>
+      <c r="L42" s="40"/>
+      <c r="M42" s="40"/>
+      <c r="O42" s="44" t="s">
         <v>378</v>
       </c>
-      <c r="R34" s="9"/>
-      <c r="S34" s="9"/>
-      <c r="T34" s="9"/>
-      <c r="U34" s="9"/>
-      <c r="V34" s="9"/>
-    </row>
-    <row r="35" spans="3:22">
-      <c r="C35" s="49"/>
-      <c r="D35" s="50"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="50"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="50"/>
-      <c r="I35" s="50"/>
-      <c r="J35" s="50"/>
-      <c r="K35" s="50"/>
-      <c r="L35" s="50"/>
-      <c r="M35" s="50"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="9" t="s">
+      <c r="P42" s="44"/>
+      <c r="Q42" s="44"/>
+      <c r="R42" s="44"/>
+      <c r="S42" s="44"/>
+      <c r="T42" s="44"/>
+      <c r="U42" s="44"/>
+      <c r="V42" s="3"/>
+    </row>
+    <row r="43" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C43" s="40"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="40"/>
+      <c r="H43" s="40"/>
+      <c r="I43" s="40"/>
+      <c r="J43" s="40"/>
+      <c r="K43" s="40"/>
+      <c r="L43" s="40"/>
+      <c r="M43" s="40"/>
+      <c r="N43" s="44" t="s">
         <v>379</v>
       </c>
-      <c r="R35" s="9"/>
-      <c r="S35" s="9"/>
-      <c r="T35" s="9"/>
-      <c r="U35" s="9"/>
-      <c r="V35" s="9"/>
-    </row>
-    <row r="36" spans="3:22">
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="50"/>
-      <c r="H36" s="50"/>
-      <c r="I36" s="50"/>
-      <c r="J36" s="50"/>
-      <c r="K36" s="50"/>
-      <c r="L36" s="50"/>
-      <c r="M36" s="50"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="9"/>
-      <c r="R36" s="9"/>
-      <c r="S36" s="9"/>
-      <c r="T36" s="9"/>
-      <c r="U36" s="9"/>
-      <c r="V36" s="9"/>
-    </row>
-    <row r="37" spans="3:22">
-      <c r="C37" s="50"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="50"/>
-      <c r="G37" s="50"/>
-      <c r="H37" s="50"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="50"/>
-      <c r="K37" s="50"/>
-      <c r="L37" s="50"/>
-      <c r="M37" s="50"/>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="9"/>
-      <c r="R37" s="9"/>
-      <c r="S37" s="9"/>
-      <c r="T37" s="9"/>
-      <c r="U37" s="9"/>
-      <c r="V37" s="9"/>
-    </row>
-    <row r="38" spans="3:22">
-      <c r="C38" s="50"/>
-      <c r="D38" s="50"/>
-      <c r="E38" s="50"/>
-      <c r="F38" s="50"/>
-      <c r="G38" s="50"/>
-      <c r="H38" s="50"/>
-      <c r="I38" s="50"/>
-      <c r="J38" s="50"/>
-      <c r="K38" s="50"/>
-      <c r="L38" s="50"/>
-      <c r="M38" s="50"/>
-    </row>
-    <row r="39" spans="3:22">
-      <c r="C39" s="50"/>
-      <c r="D39" s="50"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="50"/>
-      <c r="G39" s="50"/>
-      <c r="H39" s="50"/>
-      <c r="I39" s="50"/>
-      <c r="J39" s="50"/>
-      <c r="K39" s="50"/>
-      <c r="L39" s="50"/>
-      <c r="M39" s="50"/>
-    </row>
-    <row r="40" spans="3:22">
-      <c r="C40" s="50"/>
-      <c r="D40" s="50"/>
-      <c r="E40" s="50"/>
-      <c r="F40" s="50"/>
-      <c r="G40" s="50"/>
-      <c r="H40" s="50"/>
-      <c r="I40" s="50"/>
-      <c r="J40" s="50"/>
-      <c r="K40" s="50"/>
-      <c r="L40" s="50"/>
-      <c r="M40" s="50"/>
-    </row>
-    <row r="41" spans="3:22">
-      <c r="C41" s="50"/>
-      <c r="D41" s="50"/>
-      <c r="E41" s="50"/>
-      <c r="F41" s="50"/>
-      <c r="G41" s="50"/>
-      <c r="H41" s="50"/>
-      <c r="I41" s="50"/>
-      <c r="J41" s="50"/>
-      <c r="K41" s="50"/>
-      <c r="L41" s="50"/>
-      <c r="M41" s="50"/>
-    </row>
-    <row r="42" spans="3:22">
-      <c r="C42" s="50"/>
-      <c r="D42" s="50"/>
-      <c r="E42" s="50"/>
-      <c r="F42" s="50"/>
-      <c r="G42" s="50"/>
-      <c r="H42" s="50"/>
-      <c r="I42" s="50"/>
-      <c r="J42" s="50"/>
-      <c r="K42" s="50"/>
-      <c r="L42" s="50"/>
-      <c r="M42" s="50"/>
-    </row>
-    <row r="43" spans="3:22">
-      <c r="C43" s="50"/>
-      <c r="D43" s="50"/>
-      <c r="E43" s="50"/>
-      <c r="F43" s="50"/>
-      <c r="G43" s="50"/>
-      <c r="H43" s="50"/>
-      <c r="I43" s="50"/>
-      <c r="J43" s="50"/>
-      <c r="K43" s="50"/>
-      <c r="L43" s="50"/>
-      <c r="M43" s="50"/>
-    </row>
-    <row r="44" spans="3:22">
-      <c r="C44" s="50"/>
-      <c r="D44" s="50"/>
-      <c r="E44" s="50"/>
-      <c r="F44" s="50"/>
-      <c r="G44" s="50"/>
-      <c r="H44" s="50"/>
-      <c r="I44" s="50"/>
-      <c r="J44" s="50"/>
-      <c r="K44" s="50"/>
-      <c r="L44" s="50"/>
-      <c r="M44" s="50"/>
-    </row>
-    <row r="45" spans="3:22">
-      <c r="C45" s="50"/>
-      <c r="D45" s="50"/>
-      <c r="E45" s="50"/>
-      <c r="F45" s="50"/>
-      <c r="G45" s="50"/>
-      <c r="H45" s="50"/>
-      <c r="I45" s="50"/>
-      <c r="J45" s="50"/>
-      <c r="K45" s="50"/>
-      <c r="L45" s="50"/>
-      <c r="M45" s="50"/>
+      <c r="O43" s="44"/>
+      <c r="P43" s="44"/>
+      <c r="Q43" s="44"/>
+      <c r="R43" s="44"/>
+      <c r="S43" s="44"/>
+      <c r="T43" s="44"/>
+      <c r="U43" s="44"/>
+      <c r="V43" s="44"/>
+    </row>
+    <row r="44" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="40"/>
+      <c r="J44" s="40"/>
+      <c r="K44" s="40"/>
+      <c r="L44" s="40"/>
+      <c r="M44" s="40"/>
+    </row>
+    <row r="45" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="40"/>
+      <c r="J45" s="40"/>
+      <c r="K45" s="40"/>
+      <c r="L45" s="40"/>
+      <c r="M45" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="L8:S8"/>
+    <mergeCell ref="O40:V40"/>
+    <mergeCell ref="O41:U41"/>
+    <mergeCell ref="O42:U42"/>
+    <mergeCell ref="N43:V43"/>
     <mergeCell ref="L5:T5"/>
     <mergeCell ref="M7:S7"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="L8:S8"/>
-    <mergeCell ref="C35:M45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FreeLance\Mokhtar Elsamhy\Fish Business\FishBusiness\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7DC147-A7AE-4E16-8B15-E706CED0BC1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDA70E8-7323-4E96-9F13-9F1DC2BF4880}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="385">
   <si>
     <t>حلقه سمك</t>
   </si>
@@ -1176,6 +1176,9 @@
   </si>
   <si>
     <t>نتاكد من حتة مشكلة حلاوة العنتبلي</t>
+  </si>
+  <si>
+    <t>مصروووووووووووووووووف</t>
   </si>
 </sst>
 </file>
@@ -1464,7 +1467,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1518,6 +1521,9 @@
       <alignment readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1547,9 +1553,7 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment readingOrder="2"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -3670,36 +3674,36 @@
       <c r="G70" t="s">
         <v>135</v>
       </c>
-      <c r="S70" s="45"/>
-      <c r="T70" s="45" t="s">
+      <c r="S70" s="46"/>
+      <c r="T70" s="46" t="s">
         <v>336</v>
       </c>
-      <c r="U70" s="45"/>
-      <c r="V70" s="45"/>
+      <c r="U70" s="46"/>
+      <c r="V70" s="46"/>
     </row>
     <row r="71" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="S71" s="45"/>
-      <c r="T71" s="45"/>
-      <c r="U71" s="45"/>
-      <c r="V71" s="45"/>
+      <c r="S71" s="46"/>
+      <c r="T71" s="46"/>
+      <c r="U71" s="46"/>
+      <c r="V71" s="46"/>
     </row>
     <row r="72" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="S72" s="45"/>
-      <c r="T72" s="45"/>
-      <c r="U72" s="45"/>
-      <c r="V72" s="45"/>
+      <c r="S72" s="46"/>
+      <c r="T72" s="46"/>
+      <c r="U72" s="46"/>
+      <c r="V72" s="46"/>
     </row>
     <row r="73" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="N73" s="44" t="s">
+      <c r="N73" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="O73" s="44"/>
-      <c r="P73" s="44"/>
-      <c r="Q73" s="44"/>
-      <c r="S73" s="45"/>
-      <c r="T73" s="45"/>
-      <c r="U73" s="45"/>
-      <c r="V73" s="45"/>
+      <c r="O73" s="45"/>
+      <c r="P73" s="45"/>
+      <c r="Q73" s="45"/>
+      <c r="S73" s="46"/>
+      <c r="T73" s="46"/>
+      <c r="U73" s="46"/>
+      <c r="V73" s="46"/>
     </row>
     <row r="74" spans="2:22" x14ac:dyDescent="0.25">
       <c r="E74" s="2" t="s">
@@ -3717,10 +3721,10 @@
       <c r="P74" t="s">
         <v>51</v>
       </c>
-      <c r="S74" s="45"/>
-      <c r="T74" s="45"/>
-      <c r="U74" s="45"/>
-      <c r="V74" s="45"/>
+      <c r="S74" s="46"/>
+      <c r="T74" s="46"/>
+      <c r="U74" s="46"/>
+      <c r="V74" s="46"/>
     </row>
     <row r="75" spans="2:22" x14ac:dyDescent="0.25">
       <c r="E75" s="3" t="s">
@@ -3737,10 +3741,10 @@
       <c r="P75" t="s">
         <v>136</v>
       </c>
-      <c r="S75" s="45"/>
-      <c r="T75" s="45"/>
-      <c r="U75" s="45"/>
-      <c r="V75" s="45"/>
+      <c r="S75" s="46"/>
+      <c r="T75" s="46"/>
+      <c r="U75" s="46"/>
+      <c r="V75" s="46"/>
     </row>
     <row r="76" spans="2:22" x14ac:dyDescent="0.25">
       <c r="E76" s="3" t="s">
@@ -3754,10 +3758,10 @@
       <c r="P76" t="s">
         <v>160</v>
       </c>
-      <c r="S76" s="45"/>
-      <c r="T76" s="45"/>
-      <c r="U76" s="45"/>
-      <c r="V76" s="45"/>
+      <c r="S76" s="46"/>
+      <c r="T76" s="46"/>
+      <c r="U76" s="46"/>
+      <c r="V76" s="46"/>
     </row>
     <row r="77" spans="2:22" x14ac:dyDescent="0.25">
       <c r="E77" s="3" t="s">
@@ -4646,7 +4650,7 @@
   <dimension ref="A1:X208"/>
   <sheetViews>
     <sheetView topLeftCell="E78" workbookViewId="0">
-      <selection activeCell="T80" sqref="T80:T85"/>
+      <selection activeCell="Q131" sqref="Q131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4694,13 +4698,13 @@
       <c r="P2" s="17"/>
       <c r="Q2" s="17"/>
       <c r="R2" s="17"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45" t="s">
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46" t="s">
         <v>230</v>
       </c>
-      <c r="W2" s="45"/>
+      <c r="W2" s="46"/>
       <c r="X2" s="17"/>
     </row>
     <row r="3" spans="2:24" x14ac:dyDescent="0.25">
@@ -4722,9 +4726,9 @@
       <c r="Q3" s="17"/>
       <c r="R3" s="17"/>
       <c r="S3" s="17"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="52"/>
-      <c r="V3" s="52"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53"/>
       <c r="W3" s="17"/>
       <c r="X3" s="17"/>
     </row>
@@ -4733,11 +4737,11 @@
       <c r="S4" t="s">
         <v>249</v>
       </c>
-      <c r="T4" s="45" t="s">
+      <c r="T4" s="46" t="s">
         <v>231</v>
       </c>
-      <c r="U4" s="45"/>
-      <c r="V4" s="45"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
       <c r="X4" s="17"/>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.25">
@@ -4753,10 +4757,10 @@
       <c r="R7" t="s">
         <v>335</v>
       </c>
-      <c r="T7" s="45" t="s">
+      <c r="T7" s="46" t="s">
         <v>232</v>
       </c>
-      <c r="U7" s="45"/>
+      <c r="U7" s="46"/>
       <c r="X7" s="17"/>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.25">
@@ -4774,11 +4778,11 @@
       <c r="R9">
         <v>9380</v>
       </c>
-      <c r="S9" s="45" t="s">
+      <c r="S9" s="46" t="s">
         <v>233</v>
       </c>
-      <c r="T9" s="45"/>
-      <c r="U9" s="45"/>
+      <c r="T9" s="46"/>
+      <c r="U9" s="46"/>
       <c r="X9" s="17"/>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.25">
@@ -5070,11 +5074,11 @@
       <c r="M30" s="17"/>
       <c r="N30" s="17"/>
       <c r="O30" s="17"/>
-      <c r="P30" s="45" t="s">
+      <c r="P30" s="46" t="s">
         <v>255</v>
       </c>
-      <c r="Q30" s="45"/>
-      <c r="R30" s="45"/>
+      <c r="Q30" s="46"/>
+      <c r="R30" s="46"/>
       <c r="S30" s="17"/>
       <c r="T30" s="17"/>
       <c r="U30" s="17"/>
@@ -5318,11 +5322,11 @@
       <c r="F46" s="26"/>
       <c r="G46" s="27"/>
       <c r="H46" s="27"/>
-      <c r="I46" s="49" t="s">
+      <c r="I46" s="50" t="s">
         <v>256</v>
       </c>
-      <c r="J46" s="49"/>
-      <c r="K46" s="50"/>
+      <c r="J46" s="50"/>
+      <c r="K46" s="51"/>
       <c r="V46" s="17"/>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.25">
@@ -5394,24 +5398,24 @@
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="17"/>
-      <c r="Q52" s="45" t="s">
+      <c r="Q52" s="46" t="s">
         <v>330</v>
       </c>
-      <c r="R52" s="45"/>
-      <c r="S52" s="45"/>
-      <c r="T52" s="45"/>
-      <c r="U52" s="45"/>
-      <c r="V52" s="45"/>
+      <c r="R52" s="46"/>
+      <c r="S52" s="46"/>
+      <c r="T52" s="46"/>
+      <c r="U52" s="46"/>
+      <c r="V52" s="46"/>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="17"/>
-      <c r="Q53" s="45" t="s">
+      <c r="Q53" s="46" t="s">
         <v>331</v>
       </c>
-      <c r="R53" s="45"/>
-      <c r="S53" s="45"/>
-      <c r="T53" s="45"/>
-      <c r="U53" s="45"/>
+      <c r="R53" s="46"/>
+      <c r="S53" s="46"/>
+      <c r="T53" s="46"/>
+      <c r="U53" s="46"/>
       <c r="V53" s="17"/>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.25">
@@ -5821,17 +5825,17 @@
     <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B78" s="17"/>
       <c r="J78" s="17"/>
-      <c r="K78" s="45" t="s">
+      <c r="K78" s="46" t="s">
         <v>276</v>
       </c>
-      <c r="L78" s="45"/>
-      <c r="M78" s="45"/>
+      <c r="L78" s="46"/>
+      <c r="M78" s="46"/>
       <c r="N78" s="17"/>
       <c r="S78" s="17"/>
-      <c r="T78" s="45" t="s">
+      <c r="T78" s="46" t="s">
         <v>275</v>
       </c>
-      <c r="U78" s="45"/>
+      <c r="U78" s="46"/>
       <c r="V78" s="17"/>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.25">
@@ -6145,10 +6149,10 @@
     <row r="105" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B105" s="17"/>
       <c r="R105" s="17"/>
-      <c r="S105" s="44" t="s">
+      <c r="S105" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="T105" s="44"/>
+      <c r="T105" s="45"/>
       <c r="U105" s="17"/>
       <c r="V105" s="17"/>
     </row>
@@ -6170,9 +6174,9 @@
     </row>
     <row r="109" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B109" s="17"/>
-      <c r="S109" s="45"/>
-      <c r="T109" s="45"/>
-      <c r="U109" s="45"/>
+      <c r="S109" s="46"/>
+      <c r="T109" s="46"/>
+      <c r="U109" s="46"/>
       <c r="V109" s="17"/>
     </row>
     <row r="110" spans="2:22" x14ac:dyDescent="0.25">
@@ -6429,15 +6433,15 @@
     </row>
     <row r="154" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B154" s="17"/>
-      <c r="E154" s="48" t="s">
+      <c r="E154" s="49" t="s">
         <v>297</v>
       </c>
-      <c r="F154" s="49"/>
-      <c r="G154" s="49"/>
-      <c r="H154" s="49"/>
-      <c r="I154" s="49"/>
-      <c r="J154" s="49"/>
-      <c r="K154" s="50"/>
+      <c r="F154" s="50"/>
+      <c r="G154" s="50"/>
+      <c r="H154" s="50"/>
+      <c r="I154" s="50"/>
+      <c r="J154" s="50"/>
+      <c r="K154" s="51"/>
       <c r="Q154" s="5" t="s">
         <v>304</v>
       </c>
@@ -6445,13 +6449,13 @@
     </row>
     <row r="155" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B155" s="17"/>
-      <c r="E155" s="51"/>
-      <c r="F155" s="46"/>
-      <c r="G155" s="46"/>
-      <c r="H155" s="46"/>
-      <c r="I155" s="46"/>
-      <c r="J155" s="46"/>
-      <c r="K155" s="47"/>
+      <c r="E155" s="52"/>
+      <c r="F155" s="47"/>
+      <c r="G155" s="47"/>
+      <c r="H155" s="47"/>
+      <c r="I155" s="47"/>
+      <c r="J155" s="47"/>
+      <c r="K155" s="48"/>
       <c r="Q155" s="5" t="s">
         <v>305</v>
       </c>
@@ -6511,11 +6515,11 @@
         <v>313</v>
       </c>
       <c r="H158" s="19"/>
-      <c r="I158" s="46" t="s">
+      <c r="I158" s="47" t="s">
         <v>321</v>
       </c>
-      <c r="J158" s="46"/>
-      <c r="K158" s="47"/>
+      <c r="J158" s="47"/>
+      <c r="K158" s="48"/>
       <c r="R158">
         <v>200</v>
       </c>
@@ -6585,11 +6589,11 @@
         <v>313</v>
       </c>
       <c r="H162" s="19"/>
-      <c r="I162" s="46" t="s">
+      <c r="I162" s="47" t="s">
         <v>323</v>
       </c>
-      <c r="J162" s="46"/>
-      <c r="K162" s="47"/>
+      <c r="J162" s="47"/>
+      <c r="K162" s="48"/>
       <c r="V162" s="17"/>
     </row>
     <row r="163" spans="2:22" x14ac:dyDescent="0.25">
@@ -6777,11 +6781,11 @@
         <v>48</v>
       </c>
       <c r="L176" s="32"/>
-      <c r="Q176" s="45" t="s">
+      <c r="Q176" s="46" t="s">
         <v>312</v>
       </c>
-      <c r="R176" s="45"/>
-      <c r="S176" s="45"/>
+      <c r="R176" s="46"/>
+      <c r="S176" s="46"/>
       <c r="V176" s="17"/>
     </row>
     <row r="177" spans="2:22" x14ac:dyDescent="0.25">
@@ -6820,10 +6824,10 @@
       <c r="O180" t="s">
         <v>319</v>
       </c>
-      <c r="Q180" s="45" t="s">
+      <c r="Q180" s="46" t="s">
         <v>318</v>
       </c>
-      <c r="R180" s="45"/>
+      <c r="R180" s="46"/>
       <c r="S180" t="s">
         <v>315</v>
       </c>
@@ -6831,11 +6835,11 @@
     </row>
     <row r="181" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B181" s="17"/>
-      <c r="F181" s="45" t="s">
+      <c r="F181" s="46" t="s">
         <v>317</v>
       </c>
-      <c r="G181" s="45"/>
-      <c r="H181" s="45"/>
+      <c r="G181" s="46"/>
+      <c r="H181" s="46"/>
       <c r="I181" t="s">
         <v>315</v>
       </c>
@@ -7031,8 +7035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B5:V45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36:J36"/>
+    <sheetView tabSelected="1" topLeftCell="C24" workbookViewId="0">
+      <selection activeCell="U36" sqref="U36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7042,15 +7046,15 @@
   </cols>
   <sheetData>
     <row r="5" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="45"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="46"/>
     </row>
     <row r="6" spans="7:20" x14ac:dyDescent="0.25">
       <c r="L6" s="16"/>
@@ -7066,27 +7070,27 @@
     </row>
     <row r="7" spans="7:20" x14ac:dyDescent="0.25">
       <c r="L7" s="16"/>
-      <c r="M7" s="53" t="s">
+      <c r="M7" s="54" t="s">
         <v>355</v>
       </c>
-      <c r="N7" s="53"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="53"/>
-      <c r="R7" s="53"/>
-      <c r="S7" s="53"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="54"/>
+      <c r="S7" s="54"/>
     </row>
     <row r="8" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="L8" s="45" t="s">
+      <c r="L8" s="46" t="s">
         <v>375</v>
       </c>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="45"/>
-      <c r="S8" s="45"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="46"/>
+      <c r="R8" s="46"/>
+      <c r="S8" s="46"/>
     </row>
     <row r="16" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G16" t="s">
@@ -7174,12 +7178,12 @@
       </c>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="F30" s="45" t="s">
+      <c r="F30" s="46" t="s">
         <v>371</v>
       </c>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
       <c r="P30" s="42"/>
       <c r="Q30" s="42"/>
       <c r="R30" s="42"/>
@@ -7199,20 +7203,22 @@
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.25">
       <c r="P32" s="42"/>
-      <c r="Q32" s="42"/>
-      <c r="R32" s="42"/>
-      <c r="S32" s="42"/>
-      <c r="T32" s="42"/>
-      <c r="U32" s="42"/>
+      <c r="Q32" s="55"/>
+      <c r="R32" s="55"/>
+      <c r="S32" s="55" t="s">
+        <v>384</v>
+      </c>
+      <c r="T32" s="55"/>
+      <c r="U32" s="55"/>
       <c r="V32" s="42"/>
     </row>
     <row r="33" spans="3:22" x14ac:dyDescent="0.25">
       <c r="P33" s="42"/>
-      <c r="Q33" s="42"/>
-      <c r="R33" s="42"/>
-      <c r="S33" s="42"/>
-      <c r="T33" s="42"/>
-      <c r="U33" s="42"/>
+      <c r="Q33" s="55"/>
+      <c r="R33" s="55"/>
+      <c r="S33" s="55"/>
+      <c r="T33" s="55"/>
+      <c r="U33" s="55"/>
       <c r="V33" s="42"/>
     </row>
     <row r="34" spans="3:22" x14ac:dyDescent="0.25">
@@ -7235,10 +7241,10 @@
       <c r="D35" s="40"/>
       <c r="E35" s="40"/>
       <c r="F35" s="40"/>
-      <c r="G35" s="54"/>
-      <c r="H35" s="54"/>
-      <c r="I35" s="54"/>
-      <c r="J35" s="54" t="s">
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="44" t="s">
         <v>381</v>
       </c>
       <c r="K35" s="40"/>
@@ -7259,10 +7265,10 @@
       <c r="D36" s="40"/>
       <c r="E36" s="40"/>
       <c r="F36" s="40"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="43" t="s">
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="44" t="s">
         <v>382</v>
       </c>
       <c r="K36" s="40"/>
@@ -7282,9 +7288,9 @@
       <c r="E37" s="40"/>
       <c r="F37" s="40"/>
       <c r="G37" s="43"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="43" t="s">
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="44" t="s">
         <v>383</v>
       </c>
       <c r="K37" s="40"/>
@@ -7336,16 +7342,16 @@
       <c r="K40" s="40"/>
       <c r="L40" s="40"/>
       <c r="M40" s="40"/>
-      <c r="O40" s="44" t="s">
+      <c r="O40" s="45" t="s">
         <v>376</v>
       </c>
-      <c r="P40" s="44"/>
-      <c r="Q40" s="44"/>
-      <c r="R40" s="44"/>
-      <c r="S40" s="44"/>
-      <c r="T40" s="44"/>
-      <c r="U40" s="44"/>
-      <c r="V40" s="44"/>
+      <c r="P40" s="45"/>
+      <c r="Q40" s="45"/>
+      <c r="R40" s="45"/>
+      <c r="S40" s="45"/>
+      <c r="T40" s="45"/>
+      <c r="U40" s="45"/>
+      <c r="V40" s="45"/>
     </row>
     <row r="41" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C41" s="40"/>
@@ -7359,15 +7365,15 @@
       <c r="K41" s="40"/>
       <c r="L41" s="40"/>
       <c r="M41" s="40"/>
-      <c r="O41" s="44" t="s">
+      <c r="O41" s="45" t="s">
         <v>377</v>
       </c>
-      <c r="P41" s="44"/>
-      <c r="Q41" s="44"/>
-      <c r="R41" s="44"/>
-      <c r="S41" s="44"/>
-      <c r="T41" s="44"/>
-      <c r="U41" s="44"/>
+      <c r="P41" s="45"/>
+      <c r="Q41" s="45"/>
+      <c r="R41" s="45"/>
+      <c r="S41" s="45"/>
+      <c r="T41" s="45"/>
+      <c r="U41" s="45"/>
       <c r="V41" s="3"/>
     </row>
     <row r="42" spans="3:22" x14ac:dyDescent="0.25">
@@ -7382,15 +7388,15 @@
       <c r="K42" s="40"/>
       <c r="L42" s="40"/>
       <c r="M42" s="40"/>
-      <c r="O42" s="44" t="s">
+      <c r="O42" s="45" t="s">
         <v>378</v>
       </c>
-      <c r="P42" s="44"/>
-      <c r="Q42" s="44"/>
-      <c r="R42" s="44"/>
-      <c r="S42" s="44"/>
-      <c r="T42" s="44"/>
-      <c r="U42" s="44"/>
+      <c r="P42" s="45"/>
+      <c r="Q42" s="45"/>
+      <c r="R42" s="45"/>
+      <c r="S42" s="45"/>
+      <c r="T42" s="45"/>
+      <c r="U42" s="45"/>
       <c r="V42" s="3"/>
     </row>
     <row r="43" spans="3:22" x14ac:dyDescent="0.25">
@@ -7405,17 +7411,17 @@
       <c r="K43" s="40"/>
       <c r="L43" s="40"/>
       <c r="M43" s="40"/>
-      <c r="N43" s="44" t="s">
+      <c r="N43" s="45" t="s">
         <v>379</v>
       </c>
-      <c r="O43" s="44"/>
-      <c r="P43" s="44"/>
-      <c r="Q43" s="44"/>
-      <c r="R43" s="44"/>
-      <c r="S43" s="44"/>
-      <c r="T43" s="44"/>
-      <c r="U43" s="44"/>
-      <c r="V43" s="44"/>
+      <c r="O43" s="45"/>
+      <c r="P43" s="45"/>
+      <c r="Q43" s="45"/>
+      <c r="R43" s="45"/>
+      <c r="S43" s="45"/>
+      <c r="T43" s="45"/>
+      <c r="U43" s="45"/>
+      <c r="V43" s="45"/>
     </row>
     <row r="44" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C44" s="40"/>
@@ -7445,14 +7451,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="N43:V43"/>
+    <mergeCell ref="L5:T5"/>
+    <mergeCell ref="M7:S7"/>
     <mergeCell ref="F30:I30"/>
     <mergeCell ref="L8:S8"/>
     <mergeCell ref="O40:V40"/>
     <mergeCell ref="O41:U41"/>
     <mergeCell ref="O42:U42"/>
-    <mergeCell ref="N43:V43"/>
-    <mergeCell ref="L5:T5"/>
-    <mergeCell ref="M7:S7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="9756" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="9756" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="391">
   <si>
     <t>حلقه سمك</t>
   </si>
@@ -1161,6 +1161,36 @@
   </si>
   <si>
     <t>3-تعديل الداتا تيبل فى بروفايل المركب</t>
+  </si>
+  <si>
+    <t>رصيد</t>
+  </si>
+  <si>
+    <t>مدفوعات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دخل </t>
+  </si>
+  <si>
+    <t>رصيد للمحصل</t>
+  </si>
+  <si>
+    <t>بيحاسب العربيات اللى بتسافر</t>
+  </si>
+  <si>
+    <t>بيدفعا للمكتب اثناء عمل فاتوره</t>
+  </si>
+  <si>
+    <t>اى حد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">المكتب / </t>
+  </si>
+  <si>
+    <t xml:space="preserve">لنفسه </t>
+  </si>
+  <si>
+    <t xml:space="preserve">للمركب </t>
   </si>
 </sst>
 </file>
@@ -1478,6 +1508,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1505,7 +1536,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3585,36 +3615,36 @@
       <c r="G70" t="s">
         <v>135</v>
       </c>
-      <c r="S70" s="39"/>
-      <c r="T70" s="39" t="s">
+      <c r="S70" s="40"/>
+      <c r="T70" s="40" t="s">
         <v>336</v>
       </c>
-      <c r="U70" s="39"/>
-      <c r="V70" s="39"/>
+      <c r="U70" s="40"/>
+      <c r="V70" s="40"/>
     </row>
     <row r="71" spans="2:22">
-      <c r="S71" s="39"/>
-      <c r="T71" s="39"/>
-      <c r="U71" s="39"/>
-      <c r="V71" s="39"/>
+      <c r="S71" s="40"/>
+      <c r="T71" s="40"/>
+      <c r="U71" s="40"/>
+      <c r="V71" s="40"/>
     </row>
     <row r="72" spans="2:22">
-      <c r="S72" s="39"/>
-      <c r="T72" s="39"/>
-      <c r="U72" s="39"/>
-      <c r="V72" s="39"/>
+      <c r="S72" s="40"/>
+      <c r="T72" s="40"/>
+      <c r="U72" s="40"/>
+      <c r="V72" s="40"/>
     </row>
     <row r="73" spans="2:22">
-      <c r="N73" s="38" t="s">
+      <c r="N73" s="39" t="s">
         <v>157</v>
       </c>
-      <c r="O73" s="38"/>
-      <c r="P73" s="38"/>
-      <c r="Q73" s="38"/>
-      <c r="S73" s="39"/>
-      <c r="T73" s="39"/>
-      <c r="U73" s="39"/>
-      <c r="V73" s="39"/>
+      <c r="O73" s="39"/>
+      <c r="P73" s="39"/>
+      <c r="Q73" s="39"/>
+      <c r="S73" s="40"/>
+      <c r="T73" s="40"/>
+      <c r="U73" s="40"/>
+      <c r="V73" s="40"/>
     </row>
     <row r="74" spans="2:22">
       <c r="E74" s="2" t="s">
@@ -3632,10 +3662,10 @@
       <c r="P74" t="s">
         <v>51</v>
       </c>
-      <c r="S74" s="39"/>
-      <c r="T74" s="39"/>
-      <c r="U74" s="39"/>
-      <c r="V74" s="39"/>
+      <c r="S74" s="40"/>
+      <c r="T74" s="40"/>
+      <c r="U74" s="40"/>
+      <c r="V74" s="40"/>
     </row>
     <row r="75" spans="2:22">
       <c r="E75" s="3" t="s">
@@ -3652,10 +3682,10 @@
       <c r="P75" t="s">
         <v>136</v>
       </c>
-      <c r="S75" s="39"/>
-      <c r="T75" s="39"/>
-      <c r="U75" s="39"/>
-      <c r="V75" s="39"/>
+      <c r="S75" s="40"/>
+      <c r="T75" s="40"/>
+      <c r="U75" s="40"/>
+      <c r="V75" s="40"/>
     </row>
     <row r="76" spans="2:22">
       <c r="E76" s="3" t="s">
@@ -3669,10 +3699,10 @@
       <c r="P76" t="s">
         <v>160</v>
       </c>
-      <c r="S76" s="39"/>
-      <c r="T76" s="39"/>
-      <c r="U76" s="39"/>
-      <c r="V76" s="39"/>
+      <c r="S76" s="40"/>
+      <c r="T76" s="40"/>
+      <c r="U76" s="40"/>
+      <c r="V76" s="40"/>
     </row>
     <row r="77" spans="2:22">
       <c r="E77" s="3" t="s">
@@ -4560,8 +4590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X208"/>
   <sheetViews>
-    <sheetView topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="L206" sqref="L206"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="M203" sqref="M203:T203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4609,13 +4639,13 @@
       <c r="P2" s="17"/>
       <c r="Q2" s="17"/>
       <c r="R2" s="17"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="39"/>
-      <c r="U2" s="39"/>
-      <c r="V2" s="39" t="s">
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40" t="s">
         <v>230</v>
       </c>
-      <c r="W2" s="39"/>
+      <c r="W2" s="40"/>
       <c r="X2" s="17"/>
     </row>
     <row r="3" spans="2:24">
@@ -4637,9 +4667,9 @@
       <c r="Q3" s="17"/>
       <c r="R3" s="17"/>
       <c r="S3" s="17"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
+      <c r="T3" s="43"/>
+      <c r="U3" s="43"/>
+      <c r="V3" s="43"/>
       <c r="W3" s="17"/>
       <c r="X3" s="17"/>
     </row>
@@ -4648,11 +4678,11 @@
       <c r="S4" t="s">
         <v>249</v>
       </c>
-      <c r="T4" s="39" t="s">
+      <c r="T4" s="40" t="s">
         <v>231</v>
       </c>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="40"/>
       <c r="X4" s="17"/>
     </row>
     <row r="5" spans="2:24">
@@ -4668,10 +4698,10 @@
       <c r="R7" t="s">
         <v>335</v>
       </c>
-      <c r="T7" s="39" t="s">
+      <c r="T7" s="40" t="s">
         <v>232</v>
       </c>
-      <c r="U7" s="39"/>
+      <c r="U7" s="40"/>
       <c r="X7" s="17"/>
     </row>
     <row r="8" spans="2:24">
@@ -4689,11 +4719,11 @@
       <c r="R9">
         <v>9380</v>
       </c>
-      <c r="S9" s="39" t="s">
+      <c r="S9" s="40" t="s">
         <v>233</v>
       </c>
-      <c r="T9" s="39"/>
-      <c r="U9" s="39"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="40"/>
       <c r="X9" s="17"/>
     </row>
     <row r="10" spans="2:24">
@@ -4985,11 +5015,11 @@
       <c r="M30" s="17"/>
       <c r="N30" s="17"/>
       <c r="O30" s="17"/>
-      <c r="P30" s="39" t="s">
+      <c r="P30" s="40" t="s">
         <v>255</v>
       </c>
-      <c r="Q30" s="39"/>
-      <c r="R30" s="39"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="40"/>
       <c r="S30" s="17"/>
       <c r="T30" s="17"/>
       <c r="U30" s="17"/>
@@ -5233,11 +5263,11 @@
       <c r="F46" s="26"/>
       <c r="G46" s="27"/>
       <c r="H46" s="27"/>
-      <c r="I46" s="40" t="s">
+      <c r="I46" s="41" t="s">
         <v>256</v>
       </c>
-      <c r="J46" s="40"/>
-      <c r="K46" s="41"/>
+      <c r="J46" s="41"/>
+      <c r="K46" s="42"/>
       <c r="V46" s="17"/>
     </row>
     <row r="47" spans="1:22">
@@ -5309,24 +5339,24 @@
     </row>
     <row r="52" spans="1:22">
       <c r="A52" s="17"/>
-      <c r="Q52" s="39" t="s">
+      <c r="Q52" s="40" t="s">
         <v>330</v>
       </c>
-      <c r="R52" s="39"/>
-      <c r="S52" s="39"/>
-      <c r="T52" s="39"/>
-      <c r="U52" s="39"/>
-      <c r="V52" s="39"/>
+      <c r="R52" s="40"/>
+      <c r="S52" s="40"/>
+      <c r="T52" s="40"/>
+      <c r="U52" s="40"/>
+      <c r="V52" s="40"/>
     </row>
     <row r="53" spans="1:22">
       <c r="A53" s="17"/>
-      <c r="Q53" s="39" t="s">
+      <c r="Q53" s="40" t="s">
         <v>331</v>
       </c>
-      <c r="R53" s="39"/>
-      <c r="S53" s="39"/>
-      <c r="T53" s="39"/>
-      <c r="U53" s="39"/>
+      <c r="R53" s="40"/>
+      <c r="S53" s="40"/>
+      <c r="T53" s="40"/>
+      <c r="U53" s="40"/>
       <c r="V53" s="17"/>
     </row>
     <row r="54" spans="1:22">
@@ -5736,17 +5766,17 @@
     <row r="78" spans="1:22">
       <c r="B78" s="17"/>
       <c r="J78" s="17"/>
-      <c r="K78" s="39" t="s">
+      <c r="K78" s="40" t="s">
         <v>276</v>
       </c>
-      <c r="L78" s="39"/>
-      <c r="M78" s="39"/>
+      <c r="L78" s="40"/>
+      <c r="M78" s="40"/>
       <c r="N78" s="17"/>
       <c r="S78" s="17"/>
-      <c r="T78" s="39" t="s">
+      <c r="T78" s="40" t="s">
         <v>275</v>
       </c>
-      <c r="U78" s="39"/>
+      <c r="U78" s="40"/>
       <c r="V78" s="17"/>
     </row>
     <row r="79" spans="1:22">
@@ -6062,10 +6092,10 @@
     <row r="105" spans="2:22">
       <c r="B105" s="17"/>
       <c r="R105" s="17"/>
-      <c r="S105" s="38" t="s">
+      <c r="S105" s="39" t="s">
         <v>296</v>
       </c>
-      <c r="T105" s="38"/>
+      <c r="T105" s="39"/>
       <c r="U105" s="17"/>
       <c r="V105" s="17"/>
     </row>
@@ -6087,9 +6117,9 @@
     </row>
     <row r="109" spans="2:22">
       <c r="B109" s="17"/>
-      <c r="S109" s="39"/>
-      <c r="T109" s="39"/>
-      <c r="U109" s="39"/>
+      <c r="S109" s="40"/>
+      <c r="T109" s="40"/>
+      <c r="U109" s="40"/>
       <c r="V109" s="17"/>
     </row>
     <row r="110" spans="2:22">
@@ -6346,15 +6376,15 @@
     </row>
     <row r="154" spans="2:22">
       <c r="B154" s="17"/>
-      <c r="E154" s="45" t="s">
+      <c r="E154" s="46" t="s">
         <v>297</v>
       </c>
-      <c r="F154" s="40"/>
-      <c r="G154" s="40"/>
-      <c r="H154" s="40"/>
-      <c r="I154" s="40"/>
-      <c r="J154" s="40"/>
-      <c r="K154" s="41"/>
+      <c r="F154" s="41"/>
+      <c r="G154" s="41"/>
+      <c r="H154" s="41"/>
+      <c r="I154" s="41"/>
+      <c r="J154" s="41"/>
+      <c r="K154" s="42"/>
       <c r="Q154" s="5" t="s">
         <v>304</v>
       </c>
@@ -6362,13 +6392,13 @@
     </row>
     <row r="155" spans="2:22">
       <c r="B155" s="17"/>
-      <c r="E155" s="46"/>
-      <c r="F155" s="43"/>
-      <c r="G155" s="43"/>
-      <c r="H155" s="43"/>
-      <c r="I155" s="43"/>
-      <c r="J155" s="43"/>
-      <c r="K155" s="44"/>
+      <c r="E155" s="47"/>
+      <c r="F155" s="44"/>
+      <c r="G155" s="44"/>
+      <c r="H155" s="44"/>
+      <c r="I155" s="44"/>
+      <c r="J155" s="44"/>
+      <c r="K155" s="45"/>
       <c r="Q155" s="5" t="s">
         <v>305</v>
       </c>
@@ -6428,11 +6458,11 @@
         <v>313</v>
       </c>
       <c r="H158" s="19"/>
-      <c r="I158" s="43" t="s">
+      <c r="I158" s="44" t="s">
         <v>321</v>
       </c>
-      <c r="J158" s="43"/>
-      <c r="K158" s="44"/>
+      <c r="J158" s="44"/>
+      <c r="K158" s="45"/>
       <c r="R158">
         <v>200</v>
       </c>
@@ -6502,11 +6532,11 @@
         <v>313</v>
       </c>
       <c r="H162" s="19"/>
-      <c r="I162" s="43" t="s">
+      <c r="I162" s="44" t="s">
         <v>323</v>
       </c>
-      <c r="J162" s="43"/>
-      <c r="K162" s="44"/>
+      <c r="J162" s="44"/>
+      <c r="K162" s="45"/>
       <c r="V162" s="17"/>
     </row>
     <row r="163" spans="2:22">
@@ -6528,11 +6558,11 @@
     <row r="164" spans="2:22">
       <c r="B164" s="17"/>
       <c r="E164" s="28"/>
-      <c r="F164" s="47"/>
-      <c r="G164" s="47" t="s">
+      <c r="F164" s="38"/>
+      <c r="G164" s="38" t="s">
         <v>325</v>
       </c>
-      <c r="H164" s="47"/>
+      <c r="H164" s="38"/>
       <c r="I164" s="19"/>
       <c r="J164" s="19"/>
       <c r="K164" s="29"/>
@@ -6694,11 +6724,11 @@
         <v>48</v>
       </c>
       <c r="L176" s="32"/>
-      <c r="Q176" s="39" t="s">
+      <c r="Q176" s="40" t="s">
         <v>312</v>
       </c>
-      <c r="R176" s="39"/>
-      <c r="S176" s="39"/>
+      <c r="R176" s="40"/>
+      <c r="S176" s="40"/>
       <c r="V176" s="17"/>
     </row>
     <row r="177" spans="2:22">
@@ -6737,10 +6767,10 @@
       <c r="O180" t="s">
         <v>319</v>
       </c>
-      <c r="Q180" s="39" t="s">
+      <c r="Q180" s="40" t="s">
         <v>318</v>
       </c>
-      <c r="R180" s="39"/>
+      <c r="R180" s="40"/>
       <c r="S180" t="s">
         <v>315</v>
       </c>
@@ -6748,11 +6778,11 @@
     </row>
     <row r="181" spans="2:22">
       <c r="B181" s="17"/>
-      <c r="F181" s="39" t="s">
+      <c r="F181" s="40" t="s">
         <v>317</v>
       </c>
-      <c r="G181" s="39"/>
-      <c r="H181" s="39"/>
+      <c r="G181" s="40"/>
+      <c r="H181" s="40"/>
       <c r="I181" t="s">
         <v>315</v>
       </c>
@@ -6946,24 +6976,24 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B5:V45"/>
+  <dimension ref="B5:AD45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="Q43" sqref="Q43"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="5" spans="7:20">
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="39"/>
-      <c r="S5" s="39"/>
-      <c r="T5" s="39"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="40"/>
+      <c r="T5" s="40"/>
     </row>
     <row r="6" spans="7:20">
       <c r="L6" s="16"/>
@@ -6990,16 +7020,16 @@
       <c r="S7" s="48"/>
     </row>
     <row r="8" spans="7:20">
-      <c r="L8" s="39" t="s">
+      <c r="L8" s="40" t="s">
         <v>380</v>
       </c>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="39"/>
-      <c r="S8" s="39"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="40"/>
     </row>
     <row r="16" spans="7:20">
       <c r="G16" t="s">
@@ -7009,7 +7039,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="17" spans="2:22">
+    <row r="17" spans="2:30">
       <c r="E17" t="s">
         <v>362</v>
       </c>
@@ -7029,28 +7059,45 @@
         <v>358</v>
       </c>
     </row>
-    <row r="19" spans="2:22">
+    <row r="18" spans="2:30">
+      <c r="V18" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="19" spans="2:30">
       <c r="B19" t="s">
         <v>366</v>
       </c>
       <c r="G19" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="20" spans="2:22">
+      <c r="U19" t="s">
+        <v>383</v>
+      </c>
+      <c r="W19" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="20" spans="2:30">
       <c r="C20" t="s">
         <v>371</v>
       </c>
       <c r="G20" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="21" spans="2:22">
+      <c r="W20" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="21" spans="2:30">
       <c r="G21" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="24" spans="2:22">
+      <c r="W21" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="24" spans="2:30">
       <c r="G24" t="s">
         <v>364</v>
       </c>
@@ -7070,7 +7117,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="25" spans="2:22">
+    <row r="25" spans="2:30">
       <c r="E25" t="s">
         <v>362</v>
       </c>
@@ -7081,20 +7128,20 @@
         <v>358</v>
       </c>
     </row>
-    <row r="27" spans="2:22">
+    <row r="27" spans="2:30">
       <c r="G27" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="30" spans="2:22">
-      <c r="F30" s="39" t="s">
+    <row r="30" spans="2:30">
+      <c r="F30" s="40" t="s">
         <v>372</v>
       </c>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-    </row>
-    <row r="31" spans="2:22">
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+    </row>
+    <row r="31" spans="2:30">
       <c r="P31" s="9"/>
       <c r="Q31" s="9"/>
       <c r="R31" s="9"/>
@@ -7103,7 +7150,7 @@
       <c r="U31" s="9"/>
       <c r="V31" s="9"/>
     </row>
-    <row r="32" spans="2:22">
+    <row r="32" spans="2:30">
       <c r="P32" s="9"/>
       <c r="Q32" s="9" t="s">
         <v>376</v>
@@ -7113,8 +7160,18 @@
       <c r="T32" s="9"/>
       <c r="U32" s="9"/>
       <c r="V32" s="9"/>
-    </row>
-    <row r="33" spans="3:22">
+      <c r="W32" s="40" t="s">
+        <v>387</v>
+      </c>
+      <c r="X32" s="40"/>
+      <c r="Y32" s="40"/>
+      <c r="Z32" s="40"/>
+      <c r="AA32" s="40"/>
+      <c r="AB32" s="40"/>
+      <c r="AC32" s="40"/>
+      <c r="AD32" s="40"/>
+    </row>
+    <row r="33" spans="3:28">
       <c r="P33" s="9"/>
       <c r="Q33" s="9" t="s">
         <v>377</v>
@@ -7124,8 +7181,16 @@
       <c r="T33" s="9"/>
       <c r="U33" s="9"/>
       <c r="V33" s="9"/>
-    </row>
-    <row r="34" spans="3:22">
+      <c r="W33" s="40" t="s">
+        <v>388</v>
+      </c>
+      <c r="X33" s="40"/>
+      <c r="Y33" s="40"/>
+      <c r="Z33" s="40"/>
+      <c r="AA33" s="40"/>
+      <c r="AB33" s="40"/>
+    </row>
+    <row r="34" spans="3:28">
       <c r="P34" s="9"/>
       <c r="Q34" s="9" t="s">
         <v>378</v>
@@ -7136,7 +7201,7 @@
       <c r="U34" s="9"/>
       <c r="V34" s="9"/>
     </row>
-    <row r="35" spans="3:22">
+    <row r="35" spans="3:28">
       <c r="C35" s="49"/>
       <c r="D35" s="50"/>
       <c r="E35" s="50"/>
@@ -7157,8 +7222,16 @@
       <c r="T35" s="9"/>
       <c r="U35" s="9"/>
       <c r="V35" s="9"/>
-    </row>
-    <row r="36" spans="3:22">
+      <c r="W35" s="40" t="s">
+        <v>386</v>
+      </c>
+      <c r="X35" s="40"/>
+      <c r="Y35" s="40"/>
+      <c r="Z35" s="40"/>
+      <c r="AA35" s="40"/>
+      <c r="AB35" s="40"/>
+    </row>
+    <row r="36" spans="3:28">
       <c r="C36" s="50"/>
       <c r="D36" s="50"/>
       <c r="E36" s="50"/>
@@ -7178,7 +7251,7 @@
       <c r="U36" s="9"/>
       <c r="V36" s="9"/>
     </row>
-    <row r="37" spans="3:22">
+    <row r="37" spans="3:28">
       <c r="C37" s="50"/>
       <c r="D37" s="50"/>
       <c r="E37" s="50"/>
@@ -7198,7 +7271,7 @@
       <c r="U37" s="9"/>
       <c r="V37" s="9"/>
     </row>
-    <row r="38" spans="3:22">
+    <row r="38" spans="3:28">
       <c r="C38" s="50"/>
       <c r="D38" s="50"/>
       <c r="E38" s="50"/>
@@ -7211,7 +7284,7 @@
       <c r="L38" s="50"/>
       <c r="M38" s="50"/>
     </row>
-    <row r="39" spans="3:22">
+    <row r="39" spans="3:28">
       <c r="C39" s="50"/>
       <c r="D39" s="50"/>
       <c r="E39" s="50"/>
@@ -7224,7 +7297,7 @@
       <c r="L39" s="50"/>
       <c r="M39" s="50"/>
     </row>
-    <row r="40" spans="3:22">
+    <row r="40" spans="3:28">
       <c r="C40" s="50"/>
       <c r="D40" s="50"/>
       <c r="E40" s="50"/>
@@ -7236,8 +7309,14 @@
       <c r="K40" s="50"/>
       <c r="L40" s="50"/>
       <c r="M40" s="50"/>
-    </row>
-    <row r="41" spans="3:22">
+      <c r="S40" t="s">
+        <v>390</v>
+      </c>
+      <c r="U40" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="41" spans="3:28">
       <c r="C41" s="50"/>
       <c r="D41" s="50"/>
       <c r="E41" s="50"/>
@@ -7249,8 +7328,11 @@
       <c r="K41" s="50"/>
       <c r="L41" s="50"/>
       <c r="M41" s="50"/>
-    </row>
-    <row r="42" spans="3:22">
+      <c r="X41">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="42" spans="3:28">
       <c r="C42" s="50"/>
       <c r="D42" s="50"/>
       <c r="E42" s="50"/>
@@ -7262,8 +7344,11 @@
       <c r="K42" s="50"/>
       <c r="L42" s="50"/>
       <c r="M42" s="50"/>
-    </row>
-    <row r="43" spans="3:22">
+      <c r="X42">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="43" spans="3:28">
       <c r="C43" s="50"/>
       <c r="D43" s="50"/>
       <c r="E43" s="50"/>
@@ -7276,7 +7361,7 @@
       <c r="L43" s="50"/>
       <c r="M43" s="50"/>
     </row>
-    <row r="44" spans="3:22">
+    <row r="44" spans="3:28">
       <c r="C44" s="50"/>
       <c r="D44" s="50"/>
       <c r="E44" s="50"/>
@@ -7289,7 +7374,7 @@
       <c r="L44" s="50"/>
       <c r="M44" s="50"/>
     </row>
-    <row r="45" spans="3:22">
+    <row r="45" spans="3:28">
       <c r="C45" s="50"/>
       <c r="D45" s="50"/>
       <c r="E45" s="50"/>
@@ -7303,12 +7388,15 @@
       <c r="M45" s="50"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="L5:T5"/>
-    <mergeCell ref="M7:S7"/>
+  <mergeCells count="8">
     <mergeCell ref="F30:I30"/>
     <mergeCell ref="L8:S8"/>
     <mergeCell ref="C35:M45"/>
+    <mergeCell ref="W32:AD32"/>
+    <mergeCell ref="W35:AB35"/>
+    <mergeCell ref="W33:AB33"/>
+    <mergeCell ref="L5:T5"/>
+    <mergeCell ref="M7:S7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FreeLance\Mokhtar Elsamhy\Fish Business\FishBusiness\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDA70E8-7323-4E96-9F13-9F1DC2BF4880}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,13 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="434">
   <si>
     <t>حلقه سمك</t>
   </si>
@@ -1179,13 +1174,160 @@
   </si>
   <si>
     <t>مصروووووووووووووووووف</t>
+  </si>
+  <si>
+    <t>Asdf_123</t>
+  </si>
+  <si>
+    <t>المكتب الصغير /يومية علاء</t>
+  </si>
+  <si>
+    <t>1-الايرادات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">رصيد مترحل </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فلوس المحصل </t>
+  </si>
+  <si>
+    <t>فلوس من التجار الخارجيين</t>
+  </si>
+  <si>
+    <t>فلوس من التجار المحليين</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فلوس من الحاج مجدى </t>
+  </si>
+  <si>
+    <t>2- المصروفات</t>
+  </si>
+  <si>
+    <t>مصروف يومى</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مركب </t>
+  </si>
+  <si>
+    <t>عميل</t>
+  </si>
+  <si>
+    <t>ريس المركب نقدى</t>
+  </si>
+  <si>
+    <t>مركب شريك /مصروف</t>
+  </si>
+  <si>
+    <t>اجرة السواقين</t>
+  </si>
+  <si>
+    <t>نثريات :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فاتورة كهرباء </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فاتوره ميه </t>
+  </si>
+  <si>
+    <t>نت</t>
+  </si>
+  <si>
+    <t>شهرية فتح الله</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تمويل لفتح الله </t>
+  </si>
+  <si>
+    <t>200 جنيه ممول الزيت</t>
+  </si>
+  <si>
+    <t>1000 تصليح رفاسات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">العميل </t>
+  </si>
+  <si>
+    <t xml:space="preserve">رصيد سابق </t>
+  </si>
+  <si>
+    <t xml:space="preserve">مدفوعات </t>
+  </si>
+  <si>
+    <t>قبض السرح</t>
+  </si>
+  <si>
+    <t>مركب هيتحاسبو معاه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تاجر جاى يبيع انتاج بتاعه عندهم وهم هياخدوا عمولتهم ويحاسبوه </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ملحوظه : لو علاء مش موجود فى يوم رصيده هيترحل الى الخزنه </t>
+  </si>
+  <si>
+    <t xml:space="preserve">زى فاتورة مركب </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ممكن يبيع انتاجه للحلقه ..يعنى الطوايل اللى معاه هتدخل المخزن تتوزن وتنضاف على الموجود فى المخزن ويحاسبو التاجر </t>
+  </si>
+  <si>
+    <t xml:space="preserve">الاخطاء اللى ظهرت معاه </t>
+  </si>
+  <si>
+    <t>هنعدل انشاء فاتورة المركب بحيث تقبل كسور فى الكميه</t>
+  </si>
+  <si>
+    <t>فى غلط فى تفاصيل فاتورة مركب شريك</t>
+  </si>
+  <si>
+    <t>التعديلات</t>
+  </si>
+  <si>
+    <t>تعديل انشاء فاتورة المركب</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اول حاجه التوزيع يكون مع الفاتوره </t>
+  </si>
+  <si>
+    <t>تانى حاجه نضيف حزئية البيعه</t>
+  </si>
+  <si>
+    <t>تالت حاجه انها تقبل نفس الصنف باكتر من سعر</t>
+  </si>
+  <si>
+    <t>مع ادارة التجار يكون فى زرار يعرض تفاصيل اخر فاتورة مشتريات للتاجر فى مودال</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فى الصفحة الرئيسيه يكون فيها </t>
+  </si>
+  <si>
+    <t>اجمالى الديون اللى علينا</t>
+  </si>
+  <si>
+    <t>اجمالى الديون اللى لينا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الرسم البيانى </t>
+  </si>
+  <si>
+    <t>مختار</t>
+  </si>
+  <si>
+    <t>بورى</t>
+  </si>
+  <si>
+    <t>طاوله</t>
+  </si>
+  <si>
+    <t>شركوس/بورى</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1222,8 +1364,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="21">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1340,6 +1495,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1467,7 +1628,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1523,10 +1684,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment readingOrder="2"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1538,22 +1709,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -1577,22 +1759,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>198124</xdr:colOff>
+      <xdr:colOff>274324</xdr:colOff>
       <xdr:row>109</xdr:row>
-      <xdr:rowOff>17168</xdr:rowOff>
+      <xdr:rowOff>161948</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>472443</xdr:colOff>
-      <xdr:row>140</xdr:row>
-      <xdr:rowOff>138345</xdr:rowOff>
+      <xdr:colOff>548643</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>100245</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1" descr="WhatsApp Image 2020-08-17 at 1.23.37 AM.jpeg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1608,8 +1790,51 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="3840855" y="19996437"/>
+          <a:off x="3917055" y="20141217"/>
           <a:ext cx="5790457" cy="5760719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>412032</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76673</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Capturea.PNG"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="746760" y="114300"/>
+          <a:ext cx="6370872" cy="5448773"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1664,7 +1889,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1696,27 +1921,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1748,24 +1955,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1941,22 +2130,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y117"/>
   <sheetViews>
     <sheetView topLeftCell="A106" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="M1" sqref="M1:M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22">
       <c r="E1">
         <v>2500</v>
       </c>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22">
       <c r="E2">
         <v>3000</v>
       </c>
@@ -1965,7 +2154,7 @@
       </c>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22">
       <c r="E3">
         <v>10000</v>
       </c>
@@ -1974,7 +2163,7 @@
       </c>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22">
       <c r="F4">
         <v>7.5</v>
       </c>
@@ -1983,7 +2172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -2002,7 +2191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
@@ -2014,7 +2203,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -2039,7 +2228,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -2061,7 +2250,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -2077,7 +2266,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -2095,7 +2284,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -2105,7 +2294,7 @@
       <c r="I11" s="3"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -2123,7 +2312,7 @@
       </c>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -2145,7 +2334,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -2161,7 +2350,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -2186,7 +2375,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -2205,7 +2394,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -2227,7 +2416,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -2246,7 +2435,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -2262,7 +2451,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -2281,7 +2470,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -2291,7 +2480,7 @@
       </c>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -2304,7 +2493,7 @@
       </c>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -2317,7 +2506,7 @@
       </c>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -2330,7 +2519,7 @@
       </c>
       <c r="M24" s="5"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24">
       <c r="H25" t="s">
         <v>24</v>
       </c>
@@ -2338,12 +2527,12 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24">
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24">
       <c r="E27" t="s">
         <v>26</v>
       </c>
@@ -2354,7 +2543,7 @@
         <v>5650</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24">
       <c r="I28" s="4">
         <v>0.06</v>
       </c>
@@ -2373,12 +2562,12 @@
       <c r="R28" s="6"/>
       <c r="S28" s="6"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24">
       <c r="I29">
         <v>5311</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24">
       <c r="E30">
         <v>100</v>
       </c>
@@ -2395,7 +2584,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24">
       <c r="H31" t="s">
         <v>29</v>
       </c>
@@ -2403,7 +2592,7 @@
         <v>5011</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24">
       <c r="I32">
         <v>2500</v>
       </c>
@@ -2423,7 +2612,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:25">
       <c r="I33">
         <v>2500</v>
       </c>
@@ -2437,7 +2626,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:25">
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5" t="s">
@@ -2456,7 +2645,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:25">
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
@@ -2473,7 +2662,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:25">
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
@@ -2490,7 +2679,7 @@
       <c r="W36" s="5"/>
       <c r="X36" s="5"/>
     </row>
-    <row r="37" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:25">
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
@@ -2501,7 +2690,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="38" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:25">
       <c r="E38" s="5" t="s">
         <v>41</v>
       </c>
@@ -2516,7 +2705,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="39" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:25">
       <c r="F39" t="s">
         <v>34</v>
       </c>
@@ -2529,7 +2718,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="40" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:25">
       <c r="F40" t="s">
         <v>35</v>
       </c>
@@ -2539,7 +2728,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:25">
       <c r="F41" t="s">
         <v>36</v>
       </c>
@@ -2549,7 +2738,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:25">
       <c r="F42" t="s">
         <v>37</v>
       </c>
@@ -2559,7 +2748,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:25">
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
@@ -2573,7 +2762,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:25">
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
@@ -2581,7 +2770,7 @@
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
     </row>
-    <row r="45" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:25">
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
@@ -2589,7 +2778,7 @@
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
     </row>
-    <row r="46" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:25">
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
@@ -2606,7 +2795,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:25">
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
@@ -2623,7 +2812,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:25">
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
@@ -2640,7 +2829,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="8:25">
       <c r="R49" t="s">
         <v>24</v>
       </c>
@@ -2651,22 +2840,22 @@
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="8:25">
       <c r="Y50" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="8:25">
       <c r="X51">
         <v>20000</v>
       </c>
     </row>
-    <row r="52" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="8:25">
       <c r="Y52">
         <v>2000</v>
       </c>
     </row>
-    <row r="58" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="8:25">
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
@@ -2681,7 +2870,7 @@
       <c r="S58" s="5"/>
       <c r="T58" s="5"/>
     </row>
-    <row r="64" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="8:25">
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
@@ -2698,7 +2887,7 @@
       <c r="W64" s="5"/>
       <c r="X64" s="5"/>
     </row>
-    <row r="65" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="8:25">
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
@@ -2717,7 +2906,7 @@
       <c r="W65" s="5"/>
       <c r="X65" s="5"/>
     </row>
-    <row r="66" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="8:25">
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
@@ -2734,7 +2923,7 @@
       <c r="W66" s="5"/>
       <c r="X66" s="5"/>
     </row>
-    <row r="67" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="8:25">
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
@@ -2751,7 +2940,7 @@
       <c r="W67" s="5"/>
       <c r="X67" s="5"/>
     </row>
-    <row r="68" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="8:25">
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
@@ -2770,7 +2959,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="8:25">
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
@@ -2787,7 +2976,7 @@
       <c r="W69" s="5"/>
       <c r="X69" s="5"/>
     </row>
-    <row r="70" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="8:25">
       <c r="H70" s="5"/>
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
@@ -2809,7 +2998,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="71" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="8:25">
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
@@ -2834,7 +3023,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="72" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="8:25">
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
@@ -2854,7 +3043,7 @@
       <c r="W72" s="5"/>
       <c r="X72" s="5"/>
     </row>
-    <row r="73" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="8:25">
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
@@ -2874,7 +3063,7 @@
       <c r="W73" s="5"/>
       <c r="X73" s="5"/>
     </row>
-    <row r="74" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="8:25">
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
@@ -2891,7 +3080,7 @@
       <c r="W74" s="5"/>
       <c r="X74" s="5"/>
     </row>
-    <row r="75" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="8:25">
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
@@ -2908,7 +3097,7 @@
       <c r="W75" s="5"/>
       <c r="X75" s="5"/>
     </row>
-    <row r="76" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="8:25">
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
@@ -2926,7 +3115,7 @@
         <v>5650</v>
       </c>
     </row>
-    <row r="77" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="8:25">
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
@@ -2947,7 +3136,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="78" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="78" spans="8:25">
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
@@ -2962,7 +3151,7 @@
         <v>5311</v>
       </c>
     </row>
-    <row r="79" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="8:25">
       <c r="H79" s="5"/>
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
@@ -2983,7 +3172,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="80" spans="8:25">
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
@@ -3001,7 +3190,7 @@
         <v>5011</v>
       </c>
     </row>
-    <row r="81" spans="6:24" x14ac:dyDescent="0.25">
+    <row r="81" spans="6:24">
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
@@ -3018,71 +3207,71 @@
       <c r="W81" s="5"/>
       <c r="X81" s="5"/>
     </row>
-    <row r="82" spans="6:24" x14ac:dyDescent="0.25">
+    <row r="82" spans="6:24">
       <c r="T82" s="5"/>
       <c r="U82" s="5"/>
       <c r="V82" s="5"/>
       <c r="W82" s="5"/>
       <c r="X82" s="5"/>
     </row>
-    <row r="83" spans="6:24" x14ac:dyDescent="0.25">
+    <row r="83" spans="6:24">
       <c r="T83" s="5"/>
       <c r="U83" s="5"/>
       <c r="V83" s="5"/>
       <c r="W83" s="5"/>
       <c r="X83" s="5"/>
     </row>
-    <row r="84" spans="6:24" x14ac:dyDescent="0.25">
+    <row r="84" spans="6:24">
       <c r="T84" s="5"/>
       <c r="U84" s="5"/>
       <c r="V84" s="5"/>
       <c r="W84" s="5"/>
       <c r="X84" s="5"/>
     </row>
-    <row r="85" spans="6:24" x14ac:dyDescent="0.25">
+    <row r="85" spans="6:24">
       <c r="T85" s="5"/>
       <c r="U85" s="5"/>
       <c r="V85" s="5"/>
       <c r="W85" s="5"/>
       <c r="X85" s="5"/>
     </row>
-    <row r="86" spans="6:24" x14ac:dyDescent="0.25">
+    <row r="86" spans="6:24">
       <c r="T86" s="5"/>
       <c r="U86" s="5"/>
       <c r="V86" s="5"/>
       <c r="W86" s="5"/>
       <c r="X86" s="5"/>
     </row>
-    <row r="87" spans="6:24" x14ac:dyDescent="0.25">
+    <row r="87" spans="6:24">
       <c r="T87" s="5"/>
       <c r="U87" s="5"/>
       <c r="V87" s="5"/>
       <c r="W87" s="5"/>
       <c r="X87" s="5"/>
     </row>
-    <row r="88" spans="6:24" x14ac:dyDescent="0.25">
+    <row r="88" spans="6:24">
       <c r="T88" s="5"/>
       <c r="U88" s="5"/>
       <c r="V88" s="5"/>
       <c r="W88" s="5"/>
       <c r="X88" s="5"/>
     </row>
-    <row r="90" spans="6:24" x14ac:dyDescent="0.25">
+    <row r="90" spans="6:24">
       <c r="F90" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="6:24" x14ac:dyDescent="0.25">
+    <row r="95" spans="6:24">
       <c r="V95" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="96" spans="6:24" x14ac:dyDescent="0.25">
+    <row r="96" spans="6:24">
       <c r="V96" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="97" spans="20:22" x14ac:dyDescent="0.25">
+    <row r="97" spans="20:22">
       <c r="U97" t="s">
         <v>64</v>
       </c>
@@ -3090,17 +3279,17 @@
         <v>53</v>
       </c>
     </row>
-    <row r="98" spans="20:22" x14ac:dyDescent="0.25">
+    <row r="98" spans="20:22">
       <c r="V98" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="99" spans="20:22" x14ac:dyDescent="0.25">
+    <row r="99" spans="20:22">
       <c r="V99" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="100" spans="20:22" x14ac:dyDescent="0.25">
+    <row r="100" spans="20:22">
       <c r="T100" t="s">
         <v>60</v>
       </c>
@@ -3108,7 +3297,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="116" spans="20:22" x14ac:dyDescent="0.25">
+    <row r="116" spans="20:22">
       <c r="T116" t="s">
         <v>67</v>
       </c>
@@ -3116,7 +3305,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="117" spans="20:22" x14ac:dyDescent="0.25">
+    <row r="117" spans="20:22">
       <c r="V117" t="s">
         <v>66</v>
       </c>
@@ -3128,24 +3317,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:V84"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I11" sqref="I11:K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" customWidth="1"/>
     <col min="11" max="11" width="7" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" customWidth="1"/>
+    <col min="12" max="12" width="13.44140625" customWidth="1"/>
+    <col min="13" max="13" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:18">
       <c r="D4" s="1" t="s">
         <v>68</v>
       </c>
@@ -3162,7 +3351,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:18">
       <c r="D5" t="s">
         <v>87</v>
       </c>
@@ -3179,7 +3368,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:18">
       <c r="D6" t="s">
         <v>70</v>
       </c>
@@ -3196,7 +3385,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:18">
       <c r="G7" t="s">
         <v>72</v>
       </c>
@@ -3207,7 +3396,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:18">
       <c r="F8" t="s">
         <v>142</v>
       </c>
@@ -3218,14 +3407,14 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:18">
       <c r="F9" s="9"/>
       <c r="G9" s="9" t="s">
         <v>73</v>
       </c>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:18">
       <c r="G10" t="s">
         <v>95</v>
       </c>
@@ -3233,7 +3422,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:18">
       <c r="F11" s="3">
         <v>0</v>
       </c>
@@ -3244,17 +3433,17 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:18">
       <c r="J12" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:18">
       <c r="J13" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:18">
       <c r="M14" s="1" t="s">
         <v>83</v>
       </c>
@@ -3264,7 +3453,7 @@
       </c>
       <c r="R14" s="1"/>
     </row>
-    <row r="15" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:18">
       <c r="M15" t="s">
         <v>86</v>
       </c>
@@ -3272,7 +3461,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:18">
       <c r="M16" t="s">
         <v>78</v>
       </c>
@@ -3280,7 +3469,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:20">
       <c r="D17" s="1" t="s">
         <v>93</v>
       </c>
@@ -3291,7 +3480,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:20">
       <c r="D18" t="s">
         <v>95</v>
       </c>
@@ -3305,7 +3494,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:20">
       <c r="D19" t="s">
         <v>94</v>
       </c>
@@ -3316,7 +3505,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:20">
       <c r="K20">
         <v>600</v>
       </c>
@@ -3327,7 +3516,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:20">
       <c r="L21">
         <v>400</v>
       </c>
@@ -3335,7 +3524,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:20">
       <c r="G22" s="3"/>
       <c r="H22" s="3" t="s">
         <v>130</v>
@@ -3350,7 +3539,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:20">
       <c r="D23" s="1" t="s">
         <v>99</v>
       </c>
@@ -3366,7 +3555,7 @@
       </c>
       <c r="N23" s="3"/>
     </row>
-    <row r="24" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:20">
       <c r="D24" t="s">
         <v>101</v>
       </c>
@@ -3374,7 +3563,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:20">
       <c r="D25" t="s">
         <v>100</v>
       </c>
@@ -3382,17 +3571,17 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:20">
       <c r="G26" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:20">
       <c r="G27" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="28" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:20">
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
@@ -3411,7 +3600,7 @@
       <c r="S28" s="7"/>
       <c r="T28" s="7"/>
     </row>
-    <row r="37" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="6:18">
       <c r="G37" s="1" t="s">
         <v>102</v>
       </c>
@@ -3425,7 +3614,7 @@
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
     </row>
-    <row r="38" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="6:18">
       <c r="G38" t="s">
         <v>106</v>
       </c>
@@ -3436,7 +3625,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="6:18">
       <c r="F39" t="s">
         <v>110</v>
       </c>
@@ -3450,7 +3639,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="6:18">
       <c r="F40">
         <v>20000</v>
       </c>
@@ -3464,7 +3653,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="6:18">
       <c r="K41">
         <v>20000</v>
       </c>
@@ -3475,7 +3664,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="6:18">
       <c r="J42" t="s">
         <v>113</v>
       </c>
@@ -3489,7 +3678,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="6:18">
       <c r="K43">
         <v>5000</v>
       </c>
@@ -3500,7 +3689,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="6:18">
       <c r="K44" t="s">
         <v>111</v>
       </c>
@@ -3508,7 +3697,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="49" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:20">
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -3527,12 +3716,12 @@
       <c r="S49" s="2"/>
       <c r="T49" s="2"/>
     </row>
-    <row r="54" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:20">
       <c r="E54" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="55" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:20">
       <c r="E55" t="s">
         <v>84</v>
       </c>
@@ -3540,7 +3729,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="56" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:20">
       <c r="E56" s="3" t="s">
         <v>100</v>
       </c>
@@ -3551,7 +3740,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="57" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:20">
       <c r="E57" s="3" t="s">
         <v>115</v>
       </c>
@@ -3562,12 +3751,12 @@
         <v>118</v>
       </c>
     </row>
-    <row r="58" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:20">
       <c r="M58" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="60" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:20">
       <c r="L60" t="s">
         <v>122</v>
       </c>
@@ -3575,7 +3764,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:20">
       <c r="K62" s="3"/>
       <c r="L62" s="3" t="s">
         <v>123</v>
@@ -3586,7 +3775,7 @@
       </c>
       <c r="P62" s="3"/>
     </row>
-    <row r="63" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:20">
       <c r="B63" t="s">
         <v>145</v>
       </c>
@@ -3605,7 +3794,7 @@
       </c>
       <c r="P63" s="3"/>
     </row>
-    <row r="64" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:20">
       <c r="B64" t="s">
         <v>147</v>
       </c>
@@ -3617,7 +3806,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:22">
       <c r="B66" t="s">
         <v>150</v>
       </c>
@@ -3628,7 +3817,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:22">
       <c r="B67" t="s">
         <v>151</v>
       </c>
@@ -3642,12 +3831,12 @@
         <v>155</v>
       </c>
     </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:22">
       <c r="G68" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:22">
       <c r="B69">
         <v>20</v>
       </c>
@@ -3661,7 +3850,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:22">
       <c r="B70" t="s">
         <v>152</v>
       </c>
@@ -3674,38 +3863,38 @@
       <c r="G70" t="s">
         <v>135</v>
       </c>
-      <c r="S70" s="46"/>
-      <c r="T70" s="46" t="s">
+      <c r="S70" s="47"/>
+      <c r="T70" s="47" t="s">
         <v>336</v>
       </c>
-      <c r="U70" s="46"/>
-      <c r="V70" s="46"/>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="S71" s="46"/>
-      <c r="T71" s="46"/>
-      <c r="U71" s="46"/>
-      <c r="V71" s="46"/>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="S72" s="46"/>
-      <c r="T72" s="46"/>
-      <c r="U72" s="46"/>
-      <c r="V72" s="46"/>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="N73" s="45" t="s">
+      <c r="U70" s="47"/>
+      <c r="V70" s="47"/>
+    </row>
+    <row r="71" spans="2:22">
+      <c r="S71" s="47"/>
+      <c r="T71" s="47"/>
+      <c r="U71" s="47"/>
+      <c r="V71" s="47"/>
+    </row>
+    <row r="72" spans="2:22">
+      <c r="S72" s="47"/>
+      <c r="T72" s="47"/>
+      <c r="U72" s="47"/>
+      <c r="V72" s="47"/>
+    </row>
+    <row r="73" spans="2:22">
+      <c r="N73" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="O73" s="45"/>
-      <c r="P73" s="45"/>
-      <c r="Q73" s="45"/>
-      <c r="S73" s="46"/>
-      <c r="T73" s="46"/>
-      <c r="U73" s="46"/>
-      <c r="V73" s="46"/>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="O73" s="46"/>
+      <c r="P73" s="46"/>
+      <c r="Q73" s="46"/>
+      <c r="S73" s="47"/>
+      <c r="T73" s="47"/>
+      <c r="U73" s="47"/>
+      <c r="V73" s="47"/>
+    </row>
+    <row r="74" spans="2:22">
       <c r="E74" s="2" t="s">
         <v>140</v>
       </c>
@@ -3721,12 +3910,12 @@
       <c r="P74" t="s">
         <v>51</v>
       </c>
-      <c r="S74" s="46"/>
-      <c r="T74" s="46"/>
-      <c r="U74" s="46"/>
-      <c r="V74" s="46"/>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="S74" s="47"/>
+      <c r="T74" s="47"/>
+      <c r="U74" s="47"/>
+      <c r="V74" s="47"/>
+    </row>
+    <row r="75" spans="2:22">
       <c r="E75" s="3" t="s">
         <v>105</v>
       </c>
@@ -3741,12 +3930,12 @@
       <c r="P75" t="s">
         <v>136</v>
       </c>
-      <c r="S75" s="46"/>
-      <c r="T75" s="46"/>
-      <c r="U75" s="46"/>
-      <c r="V75" s="46"/>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="S75" s="47"/>
+      <c r="T75" s="47"/>
+      <c r="U75" s="47"/>
+      <c r="V75" s="47"/>
+    </row>
+    <row r="76" spans="2:22">
       <c r="E76" s="3" t="s">
         <v>90</v>
       </c>
@@ -3758,12 +3947,12 @@
       <c r="P76" t="s">
         <v>160</v>
       </c>
-      <c r="S76" s="46"/>
-      <c r="T76" s="46"/>
-      <c r="U76" s="46"/>
-      <c r="V76" s="46"/>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="S76" s="47"/>
+      <c r="T76" s="47"/>
+      <c r="U76" s="47"/>
+      <c r="V76" s="47"/>
+    </row>
+    <row r="77" spans="2:22">
       <c r="E77" s="3" t="s">
         <v>137</v>
       </c>
@@ -3776,7 +3965,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="78" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:22">
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
       <c r="I78" s="3" t="s">
@@ -3795,7 +3984,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:22">
       <c r="E79" s="3" t="s">
         <v>112</v>
       </c>
@@ -3813,7 +4002,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:22">
       <c r="E80" s="3" t="s">
         <v>141</v>
       </c>
@@ -3822,7 +4011,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="81" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="13:17">
       <c r="M81" t="s">
         <v>167</v>
       </c>
@@ -3830,7 +4019,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="82" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="13:17">
       <c r="M82" t="s">
         <v>169</v>
       </c>
@@ -3841,7 +4030,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="84" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="13:17">
       <c r="M84" t="s">
         <v>171</v>
       </c>
@@ -3861,20 +4050,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:V68"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21">
       <c r="H2" s="14"/>
       <c r="I2" s="14" t="s">
         <v>48</v>
@@ -3887,7 +4076,7 @@
       </c>
       <c r="O2" s="3"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21">
       <c r="B3" s="13">
         <v>13000</v>
       </c>
@@ -3906,7 +4095,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21">
       <c r="O4" s="3"/>
       <c r="R4" s="5"/>
       <c r="S4" s="5">
@@ -3916,7 +4105,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21">
       <c r="O5" s="3"/>
       <c r="R5" s="5">
         <v>2600</v>
@@ -3928,7 +4117,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21">
       <c r="D6">
         <v>1475</v>
       </c>
@@ -3943,7 +4132,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21">
       <c r="I7" t="s">
         <v>182</v>
       </c>
@@ -3964,7 +4153,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21">
       <c r="E8">
         <v>1475</v>
       </c>
@@ -3989,7 +4178,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21">
       <c r="L9">
         <v>2950</v>
       </c>
@@ -4001,7 +4190,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21">
       <c r="A10">
         <v>245.8</v>
       </c>
@@ -4022,7 +4211,7 @@
         <v>3950</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21">
       <c r="A11">
         <v>250</v>
       </c>
@@ -4033,7 +4222,7 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21">
       <c r="C12">
         <v>3000</v>
       </c>
@@ -4056,7 +4245,7 @@
       <c r="O12" s="3"/>
       <c r="Q12" s="10"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21">
       <c r="D13">
         <v>3000</v>
       </c>
@@ -4074,7 +4263,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21">
       <c r="C14">
         <v>950</v>
       </c>
@@ -4095,7 +4284,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21">
       <c r="O15" s="3"/>
       <c r="R15">
         <v>950</v>
@@ -4107,7 +4296,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21">
       <c r="H16" s="12">
         <v>500</v>
       </c>
@@ -4126,7 +4315,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="17" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:21">
       <c r="L17">
         <v>4045</v>
       </c>
@@ -4135,7 +4324,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:21">
       <c r="D18" t="s">
         <v>189</v>
       </c>
@@ -4156,7 +4345,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="19" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:21">
       <c r="O19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
@@ -4164,7 +4353,7 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
     </row>
-    <row r="20" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:21">
       <c r="H20" s="12"/>
       <c r="J20" s="3">
         <v>3790</v>
@@ -4174,7 +4363,7 @@
       </c>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:21">
       <c r="O21" s="3"/>
       <c r="R21">
         <v>2600</v>
@@ -4186,7 +4375,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:21">
       <c r="F22" t="s">
         <v>192</v>
       </c>
@@ -4204,7 +4393,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="23" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:21">
       <c r="F23">
         <v>129.5</v>
       </c>
@@ -4225,7 +4414,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="24" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:21">
       <c r="F24">
         <v>130</v>
       </c>
@@ -4246,7 +4435,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="25" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:21">
       <c r="G25" t="s">
         <v>193</v>
       </c>
@@ -4264,7 +4453,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="26" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:21">
       <c r="G26">
         <v>1300</v>
       </c>
@@ -4285,13 +4474,13 @@
         <v>179</v>
       </c>
     </row>
-    <row r="27" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:21">
       <c r="O27" s="3"/>
       <c r="R27">
         <v>6430</v>
       </c>
     </row>
-    <row r="28" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:21">
       <c r="J28" t="s">
         <v>198</v>
       </c>
@@ -4303,7 +4492,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="29" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:21">
       <c r="K29">
         <v>4150</v>
       </c>
@@ -4312,7 +4501,7 @@
         <v>6045</v>
       </c>
     </row>
-    <row r="30" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:21">
       <c r="J30" t="s">
         <v>51</v>
       </c>
@@ -4321,7 +4510,7 @@
       </c>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:21">
       <c r="J31" t="s">
         <v>200</v>
       </c>
@@ -4330,13 +4519,13 @@
       </c>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:21">
       <c r="J32" t="s">
         <v>201</v>
       </c>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22">
       <c r="I33" t="s">
         <v>202</v>
       </c>
@@ -4348,10 +4537,10 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22">
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -4368,10 +4557,10 @@
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22">
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22">
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
       <c r="J37" s="14"/>
@@ -4382,10 +4571,10 @@
       </c>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22">
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22">
       <c r="H39" s="12"/>
       <c r="I39">
         <v>6</v>
@@ -4397,13 +4586,13 @@
       </c>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22">
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22">
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22">
       <c r="O42" s="3"/>
       <c r="R42" s="5"/>
       <c r="S42" s="3"/>
@@ -4411,7 +4600,7 @@
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22">
       <c r="H43" s="12"/>
       <c r="I43">
         <v>6</v>
@@ -4423,7 +4612,7 @@
       </c>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22">
       <c r="O44" s="3"/>
       <c r="R44" s="5"/>
       <c r="S44" s="3"/>
@@ -4431,10 +4620,10 @@
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22">
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22">
       <c r="O46" s="3"/>
       <c r="R46" s="5"/>
       <c r="S46" s="3"/>
@@ -4442,7 +4631,7 @@
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22">
       <c r="H47" s="12"/>
       <c r="I47">
         <v>6</v>
@@ -4454,16 +4643,16 @@
       </c>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22">
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="6:22">
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="6:22">
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="6:22">
       <c r="H51" s="12"/>
       <c r="J51" s="3"/>
       <c r="L51" s="11">
@@ -4471,7 +4660,7 @@
       </c>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="6:22">
       <c r="K52" t="s">
         <v>214</v>
       </c>
@@ -4480,25 +4669,25 @@
       </c>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="6:22">
       <c r="L53">
         <v>8090</v>
       </c>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="6:22">
       <c r="K54" t="s">
         <v>198</v>
       </c>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="6:22">
       <c r="L55">
         <v>4045</v>
       </c>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="6:22">
       <c r="J56" t="s">
         <v>215</v>
       </c>
@@ -4513,7 +4702,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="57" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="6:22">
       <c r="K57" t="s">
         <v>205</v>
       </c>
@@ -4534,10 +4723,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="6:22">
       <c r="O58" s="3"/>
     </row>
-    <row r="59" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="6:22">
       <c r="L59" t="s">
         <v>206</v>
       </c>
@@ -4555,7 +4744,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="60" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="6:22">
       <c r="F60" s="5" t="s">
         <v>202</v>
       </c>
@@ -4576,7 +4765,7 @@
       </c>
       <c r="O60" s="3"/>
     </row>
-    <row r="61" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="6:22">
       <c r="G61">
         <v>700</v>
       </c>
@@ -4594,7 +4783,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="62" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="6:22">
       <c r="L62" t="s">
         <v>209</v>
       </c>
@@ -4603,7 +4792,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="63" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="6:22">
       <c r="K63" t="s">
         <v>210</v>
       </c>
@@ -4615,10 +4804,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="64" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="6:22">
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="12:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="12:21">
       <c r="L65" t="s">
         <v>211</v>
       </c>
@@ -4627,16 +4816,16 @@
         <v>170</v>
       </c>
     </row>
-    <row r="66" spans="12:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="12:21">
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="12:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="12:21">
       <c r="L67">
         <v>8400</v>
       </c>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="12:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="12:21">
       <c r="O68" s="3"/>
     </row>
   </sheetData>
@@ -4646,16 +4835,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X208"/>
   <sheetViews>
-    <sheetView topLeftCell="E78" workbookViewId="0">
-      <selection activeCell="Q131" sqref="Q131"/>
+    <sheetView topLeftCell="E111" workbookViewId="0">
+      <selection activeCell="R133" sqref="R133"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:24">
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
@@ -4680,7 +4869,7 @@
       <c r="W1" s="17"/>
       <c r="X1" s="17"/>
     </row>
-    <row r="2" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:24">
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
@@ -4698,16 +4887,16 @@
       <c r="P2" s="17"/>
       <c r="Q2" s="17"/>
       <c r="R2" s="17"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46" t="s">
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47" t="s">
         <v>230</v>
       </c>
-      <c r="W2" s="46"/>
+      <c r="W2" s="47"/>
       <c r="X2" s="17"/>
     </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:24">
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
@@ -4726,48 +4915,48 @@
       <c r="Q3" s="17"/>
       <c r="R3" s="17"/>
       <c r="S3" s="17"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="53"/>
-      <c r="V3" s="53"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="50"/>
       <c r="W3" s="17"/>
       <c r="X3" s="17"/>
     </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:24">
       <c r="B4" s="17"/>
       <c r="S4" t="s">
         <v>249</v>
       </c>
-      <c r="T4" s="46" t="s">
+      <c r="T4" s="47" t="s">
         <v>231</v>
       </c>
-      <c r="U4" s="46"/>
-      <c r="V4" s="46"/>
+      <c r="U4" s="47"/>
+      <c r="V4" s="47"/>
       <c r="X4" s="17"/>
     </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:24">
       <c r="B5" s="17"/>
       <c r="X5" s="17"/>
     </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:24">
       <c r="B6" s="17"/>
       <c r="X6" s="17"/>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:24">
       <c r="B7" s="17"/>
       <c r="R7" t="s">
         <v>335</v>
       </c>
-      <c r="T7" s="46" t="s">
+      <c r="T7" s="47" t="s">
         <v>232</v>
       </c>
-      <c r="U7" s="46"/>
+      <c r="U7" s="47"/>
       <c r="X7" s="17"/>
     </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:24">
       <c r="B8" s="17"/>
       <c r="X8" s="17"/>
     </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:24">
       <c r="B9" s="17"/>
       <c r="L9" t="s">
         <v>240</v>
@@ -4778,14 +4967,14 @@
       <c r="R9">
         <v>9380</v>
       </c>
-      <c r="S9" s="46" t="s">
+      <c r="S9" s="47" t="s">
         <v>233</v>
       </c>
-      <c r="T9" s="46"/>
-      <c r="U9" s="46"/>
+      <c r="T9" s="47"/>
+      <c r="U9" s="47"/>
       <c r="X9" s="17"/>
     </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:24">
       <c r="B10" s="17"/>
       <c r="L10" t="s">
         <v>241</v>
@@ -4795,7 +4984,7 @@
       </c>
       <c r="X10" s="17"/>
     </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:24">
       <c r="B11" s="17"/>
       <c r="L11" t="s">
         <v>242</v>
@@ -4820,7 +5009,7 @@
       </c>
       <c r="X11" s="17"/>
     </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:24">
       <c r="B12" s="17"/>
       <c r="K12" t="s">
         <v>243</v>
@@ -4839,18 +5028,18 @@
       </c>
       <c r="X12" s="17"/>
     </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:24">
       <c r="B13" s="17"/>
       <c r="X13" s="17"/>
     </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:24">
       <c r="B14" s="17"/>
       <c r="V14" s="3">
         <v>17890</v>
       </c>
       <c r="X14" s="17"/>
     </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:24">
       <c r="B15" s="17"/>
       <c r="V15">
         <v>9380</v>
@@ -4860,7 +5049,7 @@
       </c>
       <c r="X15" s="17"/>
     </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:24">
       <c r="B16" s="17"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -4871,7 +5060,7 @@
       <c r="W16" s="5"/>
       <c r="X16" s="17"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24">
       <c r="B17" s="17"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -4882,7 +5071,7 @@
       </c>
       <c r="X17" s="17"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24">
       <c r="B18" s="17"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -4902,7 +5091,7 @@
       </c>
       <c r="X18" s="17"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24">
       <c r="B19" s="17"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -4913,7 +5102,7 @@
       </c>
       <c r="X19" s="17"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24">
       <c r="B20" s="17"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -4929,7 +5118,7 @@
       </c>
       <c r="X20" s="17"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24">
       <c r="B21" s="17"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -4939,7 +5128,7 @@
       <c r="L21" s="3"/>
       <c r="X21" s="17"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24">
       <c r="B22" s="17"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -4949,7 +5138,7 @@
       <c r="L22" s="3"/>
       <c r="X22" s="17"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24">
       <c r="B23" s="17"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -4959,7 +5148,7 @@
       <c r="L23" s="3"/>
       <c r="X23" s="17"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24">
       <c r="B24" s="17"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -4969,18 +5158,18 @@
       <c r="L24" s="3"/>
       <c r="X24" s="17"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24">
       <c r="B25" s="17"/>
       <c r="R25" s="10">
         <v>44013</v>
       </c>
       <c r="X25" s="17"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24">
       <c r="B26" s="17"/>
       <c r="X26" s="17"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24">
       <c r="A27" s="17"/>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
@@ -5006,7 +5195,7 @@
       <c r="W27" s="17"/>
       <c r="X27" s="17"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24">
       <c r="A28" s="17"/>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
@@ -5032,7 +5221,7 @@
       <c r="W28" s="17"/>
       <c r="X28" s="17"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24">
       <c r="A29" s="17"/>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
@@ -5058,7 +5247,7 @@
       <c r="W29" s="17"/>
       <c r="X29" s="17"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24">
       <c r="A30" s="17"/>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
@@ -5074,17 +5263,17 @@
       <c r="M30" s="17"/>
       <c r="N30" s="17"/>
       <c r="O30" s="17"/>
-      <c r="P30" s="46" t="s">
+      <c r="P30" s="47" t="s">
         <v>255</v>
       </c>
-      <c r="Q30" s="46"/>
-      <c r="R30" s="46"/>
+      <c r="Q30" s="47"/>
+      <c r="R30" s="47"/>
       <c r="S30" s="17"/>
       <c r="T30" s="17"/>
       <c r="U30" s="17"/>
       <c r="V30" s="17"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24">
       <c r="A31" s="17"/>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
@@ -5108,18 +5297,18 @@
       <c r="U31" s="17"/>
       <c r="V31" s="17"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24">
       <c r="A32" s="17"/>
       <c r="I32" t="s">
         <v>253</v>
       </c>
       <c r="V32" s="17"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22">
       <c r="A33" s="17"/>
       <c r="V33" s="17"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22">
       <c r="A34" s="17"/>
       <c r="B34" t="s">
         <v>174</v>
@@ -5152,7 +5341,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22">
       <c r="A35" s="17"/>
       <c r="B35" t="s">
         <v>174</v>
@@ -5183,7 +5372,7 @@
       </c>
       <c r="V35" s="16"/>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22">
       <c r="A36" s="17"/>
       <c r="B36" t="s">
         <v>174</v>
@@ -5205,11 +5394,11 @@
       </c>
       <c r="V36" s="16"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22">
       <c r="A37" s="17"/>
       <c r="V37" s="16"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22">
       <c r="A38" s="17"/>
       <c r="C38" t="s">
         <v>254</v>
@@ -5230,7 +5419,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22">
       <c r="A39" s="17"/>
       <c r="K39">
         <v>250</v>
@@ -5249,7 +5438,7 @@
       </c>
       <c r="V39" s="16"/>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22">
       <c r="A40" s="17"/>
       <c r="B40" t="s">
         <v>333</v>
@@ -5259,11 +5448,11 @@
       </c>
       <c r="V40" s="16"/>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22">
       <c r="A41" s="17"/>
       <c r="V41" s="16"/>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22">
       <c r="A42" s="17"/>
       <c r="G42" t="s">
         <v>346</v>
@@ -5279,13 +5468,13 @@
       </c>
       <c r="V42" s="16"/>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22">
       <c r="A43" s="17"/>
       <c r="V43" s="16" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22">
       <c r="A44" s="17"/>
       <c r="I44" t="s">
         <v>269</v>
@@ -5304,7 +5493,7 @@
       </c>
       <c r="V44" s="17"/>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22">
       <c r="A45" s="17"/>
       <c r="Q45" t="s">
         <v>174</v>
@@ -5317,19 +5506,19 @@
       </c>
       <c r="V45" s="17"/>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22">
       <c r="A46" s="17"/>
       <c r="F46" s="26"/>
       <c r="G46" s="27"/>
       <c r="H46" s="27"/>
-      <c r="I46" s="50" t="s">
+      <c r="I46" s="48" t="s">
         <v>256</v>
       </c>
-      <c r="J46" s="50"/>
-      <c r="K46" s="51"/>
+      <c r="J46" s="48"/>
+      <c r="K46" s="49"/>
       <c r="V46" s="17"/>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22">
       <c r="A47" s="17"/>
       <c r="F47" s="28"/>
       <c r="G47" s="19"/>
@@ -5339,7 +5528,7 @@
       <c r="K47" s="29"/>
       <c r="V47" s="17"/>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22">
       <c r="A48" s="17"/>
       <c r="F48" s="28"/>
       <c r="G48" s="19" t="s">
@@ -5355,7 +5544,7 @@
       </c>
       <c r="V48" s="17"/>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22">
       <c r="A49" s="17"/>
       <c r="F49" s="28"/>
       <c r="G49" s="19" t="s">
@@ -5371,7 +5560,7 @@
       </c>
       <c r="V49" s="17"/>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22">
       <c r="A50" s="17"/>
       <c r="F50" s="30"/>
       <c r="G50" s="20" t="s">
@@ -5387,7 +5576,7 @@
       </c>
       <c r="V50" s="17"/>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22">
       <c r="A51" s="17"/>
       <c r="R51" s="33" t="s">
         <v>329</v>
@@ -5396,42 +5585,42 @@
       <c r="T51" s="33"/>
       <c r="U51" s="33"/>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22">
       <c r="A52" s="17"/>
-      <c r="Q52" s="46" t="s">
+      <c r="Q52" s="47" t="s">
         <v>330</v>
       </c>
-      <c r="R52" s="46"/>
-      <c r="S52" s="46"/>
-      <c r="T52" s="46"/>
-      <c r="U52" s="46"/>
-      <c r="V52" s="46"/>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="R52" s="47"/>
+      <c r="S52" s="47"/>
+      <c r="T52" s="47"/>
+      <c r="U52" s="47"/>
+      <c r="V52" s="47"/>
+    </row>
+    <row r="53" spans="1:22">
       <c r="A53" s="17"/>
-      <c r="Q53" s="46" t="s">
+      <c r="Q53" s="47" t="s">
         <v>331</v>
       </c>
-      <c r="R53" s="46"/>
-      <c r="S53" s="46"/>
-      <c r="T53" s="46"/>
-      <c r="U53" s="46"/>
+      <c r="R53" s="47"/>
+      <c r="S53" s="47"/>
+      <c r="T53" s="47"/>
+      <c r="U53" s="47"/>
       <c r="V53" s="17"/>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22">
       <c r="A54" s="17"/>
       <c r="F54" s="21"/>
       <c r="V54" s="17"/>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22">
       <c r="A55" s="17"/>
       <c r="V55" s="17"/>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22">
       <c r="A56" s="17"/>
       <c r="V56" s="17"/>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22">
       <c r="A57" s="17"/>
       <c r="F57" s="21"/>
       <c r="G57" s="21"/>
@@ -5445,7 +5634,7 @@
       <c r="M57" s="21"/>
       <c r="V57" s="17"/>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22">
       <c r="A58" s="17"/>
       <c r="F58" s="21"/>
       <c r="G58" s="21"/>
@@ -5457,7 +5646,7 @@
       <c r="M58" s="21"/>
       <c r="V58" s="17"/>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22">
       <c r="A59" s="17"/>
       <c r="F59" s="21"/>
       <c r="G59" s="21"/>
@@ -5477,7 +5666,7 @@
       <c r="U59" s="18"/>
       <c r="V59" s="17"/>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22">
       <c r="A60" s="17"/>
       <c r="F60" s="21"/>
       <c r="G60" s="21"/>
@@ -5501,7 +5690,7 @@
       <c r="U60" s="18"/>
       <c r="V60" s="17"/>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22">
       <c r="A61" s="17"/>
       <c r="F61" s="21"/>
       <c r="G61" s="21"/>
@@ -5525,7 +5714,7 @@
       <c r="U61" s="18"/>
       <c r="V61" s="17"/>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22">
       <c r="A62" s="17"/>
       <c r="F62" s="21"/>
       <c r="G62" s="21"/>
@@ -5549,7 +5738,7 @@
       <c r="U62" s="18"/>
       <c r="V62" s="17"/>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22">
       <c r="A63" s="17"/>
       <c r="F63" s="21"/>
       <c r="G63" s="21"/>
@@ -5569,7 +5758,7 @@
       <c r="U63" s="18"/>
       <c r="V63" s="17"/>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22">
       <c r="A64" s="17"/>
       <c r="F64" s="21"/>
       <c r="G64" s="21"/>
@@ -5591,7 +5780,7 @@
       <c r="U64" s="18"/>
       <c r="V64" s="17"/>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22">
       <c r="A65" s="17"/>
       <c r="F65" s="21"/>
       <c r="G65" s="21"/>
@@ -5609,7 +5798,7 @@
       <c r="U65" s="18"/>
       <c r="V65" s="17"/>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22">
       <c r="A66" s="17"/>
       <c r="F66" s="21"/>
       <c r="G66" s="21"/>
@@ -5629,7 +5818,7 @@
       <c r="U66" s="18"/>
       <c r="V66" s="17"/>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22">
       <c r="A67" s="17"/>
       <c r="F67" s="21"/>
       <c r="G67" s="21"/>
@@ -5651,7 +5840,7 @@
       <c r="U67" s="18"/>
       <c r="V67" s="17"/>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22">
       <c r="A68" s="17"/>
       <c r="F68" s="21"/>
       <c r="G68" s="21"/>
@@ -5669,7 +5858,7 @@
       <c r="U68" s="18"/>
       <c r="V68" s="17"/>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22">
       <c r="A69" s="17"/>
       <c r="F69" s="21"/>
       <c r="G69" s="21"/>
@@ -5689,7 +5878,7 @@
       <c r="U69" s="18"/>
       <c r="V69" s="17"/>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22">
       <c r="A70" s="17"/>
       <c r="E70" t="s">
         <v>294</v>
@@ -5714,7 +5903,7 @@
       <c r="U70" s="18"/>
       <c r="V70" s="17"/>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22">
       <c r="A71" s="17"/>
       <c r="F71" s="21"/>
       <c r="G71" s="21"/>
@@ -5732,7 +5921,7 @@
       <c r="U71" s="18"/>
       <c r="V71" s="17"/>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22">
       <c r="A72" s="17"/>
       <c r="F72" s="21"/>
       <c r="G72" s="21"/>
@@ -5748,7 +5937,7 @@
       <c r="M72" s="21"/>
       <c r="V72" s="17"/>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22">
       <c r="A73" s="17"/>
       <c r="F73" s="21"/>
       <c r="G73" s="21"/>
@@ -5760,11 +5949,11 @@
       <c r="M73" s="21"/>
       <c r="V73" s="17"/>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22">
       <c r="A74" s="17"/>
       <c r="V74" s="17"/>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22">
       <c r="B75" s="17"/>
       <c r="C75" s="17"/>
       <c r="D75" s="17"/>
@@ -5787,7 +5976,7 @@
       <c r="U75" s="17"/>
       <c r="V75" s="17"/>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22">
       <c r="B76" s="17"/>
       <c r="C76" s="17"/>
       <c r="D76" s="17"/>
@@ -5810,7 +5999,7 @@
       <c r="U76" s="17"/>
       <c r="V76" s="17"/>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22">
       <c r="B77" s="17"/>
       <c r="J77" s="17"/>
       <c r="K77" s="17"/>
@@ -5822,23 +6011,23 @@
       <c r="U77" s="17"/>
       <c r="V77" s="17"/>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22">
       <c r="B78" s="17"/>
       <c r="J78" s="17"/>
-      <c r="K78" s="46" t="s">
+      <c r="K78" s="47" t="s">
         <v>276</v>
       </c>
-      <c r="L78" s="46"/>
-      <c r="M78" s="46"/>
+      <c r="L78" s="47"/>
+      <c r="M78" s="47"/>
       <c r="N78" s="17"/>
       <c r="S78" s="17"/>
-      <c r="T78" s="46" t="s">
+      <c r="T78" s="47" t="s">
         <v>275</v>
       </c>
-      <c r="U78" s="46"/>
+      <c r="U78" s="47"/>
       <c r="V78" s="17"/>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22">
       <c r="B79" s="17"/>
       <c r="J79" s="17"/>
       <c r="K79" s="17"/>
@@ -5850,7 +6039,7 @@
       <c r="U79" s="17"/>
       <c r="V79" s="17"/>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:22">
       <c r="B80" s="17"/>
       <c r="K80">
         <v>91000</v>
@@ -5866,7 +6055,7 @@
       </c>
       <c r="V80" s="17"/>
     </row>
-    <row r="81" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:22">
       <c r="B81" s="17"/>
       <c r="K81">
         <v>7930</v>
@@ -5882,7 +6071,7 @@
       </c>
       <c r="V81" s="17"/>
     </row>
-    <row r="82" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:22">
       <c r="B82" s="17"/>
       <c r="K82">
         <v>27760</v>
@@ -5898,7 +6087,7 @@
       </c>
       <c r="V82" s="17"/>
     </row>
-    <row r="83" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:22">
       <c r="B83" s="17"/>
       <c r="K83">
         <v>39650</v>
@@ -5914,7 +6103,7 @@
       </c>
       <c r="V83" s="17"/>
     </row>
-    <row r="84" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:22">
       <c r="B84" s="17"/>
       <c r="K84">
         <v>4785</v>
@@ -5930,7 +6119,7 @@
       </c>
       <c r="V84" s="17"/>
     </row>
-    <row r="85" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:22">
       <c r="B85" s="17"/>
       <c r="K85">
         <v>17470</v>
@@ -5946,7 +6135,7 @@
       </c>
       <c r="V85" s="17"/>
     </row>
-    <row r="86" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:22">
       <c r="B86" s="17"/>
       <c r="K86">
         <v>600</v>
@@ -5956,15 +6145,15 @@
       </c>
       <c r="V86" s="17"/>
     </row>
-    <row r="87" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:22">
       <c r="B87" s="17"/>
       <c r="V87" s="17"/>
     </row>
-    <row r="88" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:22">
       <c r="B88" s="17"/>
       <c r="V88" s="17"/>
     </row>
-    <row r="89" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:22">
       <c r="B89" s="17"/>
       <c r="K89">
         <v>189195</v>
@@ -5977,7 +6166,7 @@
       </c>
       <c r="V89" s="17"/>
     </row>
-    <row r="90" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:22">
       <c r="B90" s="17"/>
       <c r="T90">
         <v>200</v>
@@ -5987,22 +6176,22 @@
       </c>
       <c r="V90" s="17"/>
     </row>
-    <row r="91" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:22">
       <c r="B91" s="17"/>
       <c r="V91" s="17"/>
     </row>
-    <row r="92" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:22">
       <c r="B92" s="17"/>
       <c r="V92" s="17"/>
     </row>
-    <row r="93" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:22">
       <c r="B93" s="17"/>
       <c r="U93" t="s">
         <v>282</v>
       </c>
       <c r="V93" s="17"/>
     </row>
-    <row r="94" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:22">
       <c r="B94" s="17"/>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
@@ -6016,7 +6205,7 @@
       </c>
       <c r="V94" s="17"/>
     </row>
-    <row r="95" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:22">
       <c r="B95" s="17"/>
       <c r="S95" t="s">
         <v>287</v>
@@ -6029,7 +6218,7 @@
       </c>
       <c r="V95" s="17"/>
     </row>
-    <row r="96" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:22">
       <c r="B96" s="17"/>
       <c r="S96" t="s">
         <v>288</v>
@@ -6042,7 +6231,7 @@
       </c>
       <c r="V96" s="17"/>
     </row>
-    <row r="97" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:22">
       <c r="B97" s="17"/>
       <c r="S97" t="s">
         <v>148</v>
@@ -6055,14 +6244,14 @@
       </c>
       <c r="V97" s="17"/>
     </row>
-    <row r="98" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:22" ht="15" thickBot="1">
       <c r="B98" s="17"/>
       <c r="T98">
         <v>185350</v>
       </c>
       <c r="V98" s="17"/>
     </row>
-    <row r="99" spans="2:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:22" ht="15.6" thickTop="1" thickBot="1">
       <c r="B99" s="17"/>
       <c r="J99" t="s">
         <v>293</v>
@@ -6084,15 +6273,15 @@
       </c>
       <c r="V99" s="17"/>
     </row>
-    <row r="100" spans="2:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:22" ht="15" thickTop="1">
       <c r="B100" s="17"/>
       <c r="V100" s="17"/>
     </row>
-    <row r="101" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:22">
       <c r="B101" s="17"/>
       <c r="V101" s="17"/>
     </row>
-    <row r="102" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:22">
       <c r="B102" s="17"/>
       <c r="C102" s="17"/>
       <c r="D102" s="17"/>
@@ -6115,7 +6304,7 @@
       <c r="U102" s="17"/>
       <c r="V102" s="17"/>
     </row>
-    <row r="103" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:22">
       <c r="B103" s="17"/>
       <c r="C103" s="17"/>
       <c r="D103" s="17"/>
@@ -6138,7 +6327,7 @@
       <c r="U103" s="17"/>
       <c r="V103" s="17"/>
     </row>
-    <row r="104" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:22">
       <c r="B104" s="17"/>
       <c r="R104" s="17"/>
       <c r="S104" s="17"/>
@@ -6146,17 +6335,17 @@
       <c r="U104" s="17"/>
       <c r="V104" s="17"/>
     </row>
-    <row r="105" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:22">
       <c r="B105" s="17"/>
       <c r="R105" s="17"/>
-      <c r="S105" s="45" t="s">
+      <c r="S105" s="46" t="s">
         <v>296</v>
       </c>
-      <c r="T105" s="45"/>
+      <c r="T105" s="46"/>
       <c r="U105" s="17"/>
       <c r="V105" s="17"/>
     </row>
-    <row r="106" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:22">
       <c r="B106" s="17"/>
       <c r="R106" s="17"/>
       <c r="S106" s="17"/>
@@ -6164,29 +6353,29 @@
       <c r="U106" s="17"/>
       <c r="V106" s="17"/>
     </row>
-    <row r="107" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:22">
       <c r="B107" s="17"/>
       <c r="V107" s="17"/>
     </row>
-    <row r="108" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:22">
       <c r="B108" s="17"/>
       <c r="V108" s="17"/>
     </row>
-    <row r="109" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:22">
       <c r="B109" s="17"/>
-      <c r="S109" s="46"/>
-      <c r="T109" s="46"/>
-      <c r="U109" s="46"/>
+      <c r="S109" s="47"/>
+      <c r="T109" s="47"/>
+      <c r="U109" s="47"/>
       <c r="V109" s="17"/>
     </row>
-    <row r="110" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:22">
       <c r="B110" s="17"/>
       <c r="Q110" s="6"/>
       <c r="S110" s="37"/>
       <c r="U110" s="3"/>
       <c r="V110" s="17"/>
     </row>
-    <row r="111" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:22">
       <c r="B111" s="17"/>
       <c r="E111" s="9"/>
       <c r="Q111" s="6"/>
@@ -6194,7 +6383,7 @@
       <c r="U111" s="3"/>
       <c r="V111" s="17"/>
     </row>
-    <row r="112" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:22">
       <c r="B112" s="17"/>
       <c r="E112" s="9"/>
       <c r="Q112" s="6"/>
@@ -6202,7 +6391,7 @@
       <c r="U112" s="3"/>
       <c r="V112" s="17"/>
     </row>
-    <row r="113" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:22">
       <c r="B113" s="17"/>
       <c r="E113" s="9"/>
       <c r="Q113" s="6"/>
@@ -6210,7 +6399,7 @@
       <c r="U113" s="3"/>
       <c r="V113" s="17"/>
     </row>
-    <row r="114" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:22">
       <c r="B114" s="17"/>
       <c r="E114" s="9"/>
       <c r="Q114" s="6"/>
@@ -6218,7 +6407,7 @@
       <c r="U114" s="3"/>
       <c r="V114" s="17"/>
     </row>
-    <row r="115" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:22">
       <c r="B115" s="17"/>
       <c r="E115" s="9"/>
       <c r="Q115" s="6"/>
@@ -6226,7 +6415,7 @@
       <c r="U115" s="3"/>
       <c r="V115" s="17"/>
     </row>
-    <row r="116" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:22">
       <c r="B116" s="17"/>
       <c r="E116" s="9"/>
       <c r="Q116" s="6"/>
@@ -6234,7 +6423,7 @@
       <c r="U116" s="3"/>
       <c r="V116" s="17"/>
     </row>
-    <row r="117" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:22">
       <c r="B117" s="17"/>
       <c r="E117" s="9"/>
       <c r="Q117" s="6"/>
@@ -6242,7 +6431,7 @@
       <c r="U117" s="3"/>
       <c r="V117" s="17"/>
     </row>
-    <row r="118" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:22">
       <c r="B118" s="17"/>
       <c r="E118" s="9"/>
       <c r="Q118" s="6"/>
@@ -6250,7 +6439,7 @@
       <c r="U118" s="3"/>
       <c r="V118" s="17"/>
     </row>
-    <row r="119" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:22">
       <c r="B119" s="17"/>
       <c r="E119" s="9"/>
       <c r="Q119" s="6"/>
@@ -6258,7 +6447,7 @@
       <c r="U119" s="3"/>
       <c r="V119" s="17"/>
     </row>
-    <row r="120" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:22">
       <c r="B120" s="17"/>
       <c r="E120" s="9"/>
       <c r="Q120" s="6"/>
@@ -6266,7 +6455,7 @@
       <c r="U120" s="3"/>
       <c r="V120" s="17"/>
     </row>
-    <row r="121" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:22">
       <c r="B121" s="17"/>
       <c r="E121" s="9"/>
       <c r="Q121" s="6"/>
@@ -6274,7 +6463,7 @@
       <c r="U121" s="3"/>
       <c r="V121" s="17"/>
     </row>
-    <row r="122" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:22">
       <c r="B122" s="17"/>
       <c r="E122" s="9"/>
       <c r="Q122" s="6"/>
@@ -6282,7 +6471,7 @@
       <c r="U122" s="3"/>
       <c r="V122" s="17"/>
     </row>
-    <row r="123" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:22">
       <c r="B123" s="17"/>
       <c r="E123" s="9"/>
       <c r="Q123" s="6"/>
@@ -6290,7 +6479,7 @@
       <c r="U123" s="3"/>
       <c r="V123" s="17"/>
     </row>
-    <row r="124" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:22">
       <c r="B124" s="17"/>
       <c r="E124" s="9"/>
       <c r="Q124" s="6"/>
@@ -6298,7 +6487,7 @@
       <c r="U124" s="3"/>
       <c r="V124" s="17"/>
     </row>
-    <row r="125" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:22">
       <c r="B125" s="17"/>
       <c r="E125" s="9"/>
       <c r="Q125" s="6"/>
@@ -6306,7 +6495,7 @@
       <c r="U125" s="3"/>
       <c r="V125" s="17"/>
     </row>
-    <row r="126" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:22">
       <c r="B126" s="17"/>
       <c r="E126" s="9"/>
       <c r="Q126" s="6"/>
@@ -6314,7 +6503,7 @@
       <c r="U126" s="3"/>
       <c r="V126" s="17"/>
     </row>
-    <row r="127" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:22">
       <c r="B127" s="17"/>
       <c r="E127" s="9"/>
       <c r="Q127" s="6"/>
@@ -6322,7 +6511,7 @@
       <c r="U127" s="3"/>
       <c r="V127" s="17"/>
     </row>
-    <row r="128" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:22">
       <c r="B128" s="17"/>
       <c r="E128" s="9"/>
       <c r="Q128" s="6"/>
@@ -6330,138 +6519,141 @@
       <c r="U128" s="3"/>
       <c r="V128" s="17"/>
     </row>
-    <row r="129" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:22">
       <c r="B129" s="17"/>
       <c r="E129" s="9"/>
       <c r="V129" s="17"/>
     </row>
-    <row r="130" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:22">
       <c r="B130" s="17"/>
       <c r="V130" s="17"/>
     </row>
-    <row r="131" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:22">
       <c r="B131" s="17"/>
       <c r="V131" s="17"/>
     </row>
-    <row r="132" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:22">
       <c r="B132" s="17"/>
       <c r="V132" s="17"/>
     </row>
-    <row r="133" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:22">
       <c r="B133" s="17"/>
       <c r="V133" s="17"/>
     </row>
-    <row r="134" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:22">
       <c r="B134" s="17"/>
       <c r="V134" s="17"/>
     </row>
-    <row r="135" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:22">
       <c r="B135" s="17"/>
       <c r="V135" s="17"/>
     </row>
-    <row r="136" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:22">
       <c r="B136" s="17"/>
+      <c r="R136" t="s">
+        <v>385</v>
+      </c>
       <c r="V136" s="17"/>
     </row>
-    <row r="137" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:22">
       <c r="B137" s="17"/>
       <c r="V137" s="17"/>
     </row>
-    <row r="138" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:22">
       <c r="B138" s="17"/>
       <c r="V138" s="17"/>
     </row>
-    <row r="139" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:22">
       <c r="B139" s="17"/>
       <c r="V139" s="17"/>
     </row>
-    <row r="140" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:22">
       <c r="B140" s="17"/>
       <c r="V140" s="17"/>
     </row>
-    <row r="141" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:22">
       <c r="B141" s="17"/>
       <c r="V141" s="17"/>
     </row>
-    <row r="142" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:22">
       <c r="B142" s="17"/>
       <c r="V142" s="17"/>
     </row>
-    <row r="143" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:22">
       <c r="B143" s="17"/>
       <c r="V143" s="17"/>
     </row>
-    <row r="144" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:22">
       <c r="B144" s="17"/>
       <c r="V144" s="17"/>
     </row>
-    <row r="145" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:22">
       <c r="B145" s="17"/>
       <c r="V145" s="17"/>
     </row>
-    <row r="146" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:22">
       <c r="B146" s="17"/>
       <c r="V146" s="17"/>
     </row>
-    <row r="147" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:22">
       <c r="B147" s="17"/>
       <c r="V147" s="17"/>
     </row>
-    <row r="148" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:22">
       <c r="B148" s="17"/>
       <c r="V148" s="17"/>
     </row>
-    <row r="149" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:22">
       <c r="B149" s="17"/>
       <c r="V149" s="17"/>
     </row>
-    <row r="150" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:22">
       <c r="B150" s="17"/>
       <c r="V150" s="17"/>
     </row>
-    <row r="151" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:22">
       <c r="B151" s="17"/>
       <c r="V151" s="17"/>
     </row>
-    <row r="152" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:22">
       <c r="B152" s="17"/>
       <c r="V152" s="17"/>
     </row>
-    <row r="153" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:22">
       <c r="B153" s="17"/>
       <c r="V153" s="17"/>
     </row>
-    <row r="154" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:22">
       <c r="B154" s="17"/>
-      <c r="E154" s="49" t="s">
+      <c r="E154" s="53" t="s">
         <v>297</v>
       </c>
-      <c r="F154" s="50"/>
-      <c r="G154" s="50"/>
-      <c r="H154" s="50"/>
-      <c r="I154" s="50"/>
-      <c r="J154" s="50"/>
-      <c r="K154" s="51"/>
+      <c r="F154" s="48"/>
+      <c r="G154" s="48"/>
+      <c r="H154" s="48"/>
+      <c r="I154" s="48"/>
+      <c r="J154" s="48"/>
+      <c r="K154" s="49"/>
       <c r="Q154" s="5" t="s">
         <v>304</v>
       </c>
       <c r="V154" s="17"/>
     </row>
-    <row r="155" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:22">
       <c r="B155" s="17"/>
-      <c r="E155" s="52"/>
-      <c r="F155" s="47"/>
-      <c r="G155" s="47"/>
-      <c r="H155" s="47"/>
-      <c r="I155" s="47"/>
-      <c r="J155" s="47"/>
-      <c r="K155" s="48"/>
+      <c r="E155" s="54"/>
+      <c r="F155" s="51"/>
+      <c r="G155" s="51"/>
+      <c r="H155" s="51"/>
+      <c r="I155" s="51"/>
+      <c r="J155" s="51"/>
+      <c r="K155" s="52"/>
       <c r="Q155" s="5" t="s">
         <v>305</v>
       </c>
       <c r="V155" s="17"/>
     </row>
-    <row r="156" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:22">
       <c r="B156" s="17"/>
       <c r="E156" s="28"/>
       <c r="F156" s="19"/>
@@ -6486,7 +6678,7 @@
       </c>
       <c r="V156" s="17"/>
     </row>
-    <row r="157" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:22">
       <c r="B157" s="17"/>
       <c r="E157" s="28"/>
       <c r="F157" s="19"/>
@@ -6507,7 +6699,7 @@
       </c>
       <c r="V157" s="17"/>
     </row>
-    <row r="158" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:22">
       <c r="B158" s="17"/>
       <c r="E158" s="28"/>
       <c r="F158" s="19"/>
@@ -6515,11 +6707,11 @@
         <v>313</v>
       </c>
       <c r="H158" s="19"/>
-      <c r="I158" s="47" t="s">
+      <c r="I158" s="51" t="s">
         <v>321</v>
       </c>
-      <c r="J158" s="47"/>
-      <c r="K158" s="48"/>
+      <c r="J158" s="51"/>
+      <c r="K158" s="52"/>
       <c r="R158">
         <v>200</v>
       </c>
@@ -6528,7 +6720,7 @@
       </c>
       <c r="V158" s="17"/>
     </row>
-    <row r="159" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:22">
       <c r="B159" s="17"/>
       <c r="E159" s="28"/>
       <c r="F159" s="19"/>
@@ -6547,7 +6739,7 @@
       </c>
       <c r="V159" s="17"/>
     </row>
-    <row r="160" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:22">
       <c r="B160" s="17"/>
       <c r="E160" s="28"/>
       <c r="F160" s="19"/>
@@ -6564,7 +6756,7 @@
       </c>
       <c r="V160" s="17"/>
     </row>
-    <row r="161" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:22">
       <c r="B161" s="17"/>
       <c r="E161" s="28"/>
       <c r="F161" s="19"/>
@@ -6581,7 +6773,7 @@
       </c>
       <c r="V161" s="17"/>
     </row>
-    <row r="162" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:22">
       <c r="B162" s="17"/>
       <c r="E162" s="28"/>
       <c r="F162" s="19"/>
@@ -6589,14 +6781,14 @@
         <v>313</v>
       </c>
       <c r="H162" s="19"/>
-      <c r="I162" s="47" t="s">
+      <c r="I162" s="51" t="s">
         <v>323</v>
       </c>
-      <c r="J162" s="47"/>
-      <c r="K162" s="48"/>
+      <c r="J162" s="51"/>
+      <c r="K162" s="52"/>
       <c r="V162" s="17"/>
     </row>
-    <row r="163" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:22">
       <c r="B163" s="17"/>
       <c r="E163" s="28"/>
       <c r="F163" s="19"/>
@@ -6612,7 +6804,7 @@
       </c>
       <c r="V163" s="17"/>
     </row>
-    <row r="164" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:22">
       <c r="B164" s="17"/>
       <c r="E164" s="28"/>
       <c r="F164" s="38"/>
@@ -6631,7 +6823,7 @@
       </c>
       <c r="V164" s="17"/>
     </row>
-    <row r="165" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:22">
       <c r="B165" s="17"/>
       <c r="E165" s="28"/>
       <c r="F165" s="19"/>
@@ -6642,7 +6834,7 @@
       <c r="K165" s="29"/>
       <c r="V165" s="17"/>
     </row>
-    <row r="166" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:22">
       <c r="B166" s="17"/>
       <c r="E166" s="28"/>
       <c r="F166" s="19"/>
@@ -6659,7 +6851,7 @@
       </c>
       <c r="V166" s="17"/>
     </row>
-    <row r="167" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:22">
       <c r="B167" s="17"/>
       <c r="E167" s="28"/>
       <c r="F167" s="19"/>
@@ -6676,7 +6868,7 @@
       </c>
       <c r="V167" s="17"/>
     </row>
-    <row r="168" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:22">
       <c r="B168" s="17"/>
       <c r="E168" s="28"/>
       <c r="F168" s="19"/>
@@ -6693,7 +6885,7 @@
       </c>
       <c r="V168" s="17"/>
     </row>
-    <row r="169" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:22">
       <c r="B169" s="17"/>
       <c r="E169" s="28"/>
       <c r="F169" s="19"/>
@@ -6704,7 +6896,7 @@
       <c r="K169" s="29"/>
       <c r="V169" s="17"/>
     </row>
-    <row r="170" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:22">
       <c r="B170" s="17"/>
       <c r="E170" s="30"/>
       <c r="F170" s="20"/>
@@ -6715,11 +6907,11 @@
       <c r="K170" s="31"/>
       <c r="V170" s="17"/>
     </row>
-    <row r="171" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:22">
       <c r="B171" s="17"/>
       <c r="V171" s="17"/>
     </row>
-    <row r="172" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:22">
       <c r="B172" s="17"/>
       <c r="C172" s="17"/>
       <c r="D172" s="17"/>
@@ -6742,7 +6934,7 @@
       <c r="U172" s="17"/>
       <c r="V172" s="17"/>
     </row>
-    <row r="173" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:22">
       <c r="B173" s="17"/>
       <c r="C173" s="17"/>
       <c r="D173" s="17"/>
@@ -6765,35 +6957,35 @@
       <c r="U173" s="17"/>
       <c r="V173" s="17"/>
     </row>
-    <row r="174" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:22">
       <c r="B174" s="17"/>
       <c r="L174" s="32"/>
       <c r="V174" s="17"/>
     </row>
-    <row r="175" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:22">
       <c r="B175" s="17"/>
       <c r="L175" s="32"/>
       <c r="V175" s="17"/>
     </row>
-    <row r="176" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:22">
       <c r="B176" s="17"/>
       <c r="F176" t="s">
         <v>48</v>
       </c>
       <c r="L176" s="32"/>
-      <c r="Q176" s="46" t="s">
+      <c r="Q176" s="47" t="s">
         <v>312</v>
       </c>
-      <c r="R176" s="46"/>
-      <c r="S176" s="46"/>
+      <c r="R176" s="47"/>
+      <c r="S176" s="47"/>
       <c r="V176" s="17"/>
     </row>
-    <row r="177" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:22">
       <c r="B177" s="17"/>
       <c r="L177" s="32"/>
       <c r="V177" s="17"/>
     </row>
-    <row r="178" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:22">
       <c r="B178" s="17"/>
       <c r="I178" t="s">
         <v>313</v>
@@ -6804,7 +6996,7 @@
       </c>
       <c r="V178" s="17"/>
     </row>
-    <row r="179" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:22">
       <c r="B179" s="17"/>
       <c r="I179" t="s">
         <v>314</v>
@@ -6815,7 +7007,7 @@
       </c>
       <c r="V179" s="17"/>
     </row>
-    <row r="180" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:22">
       <c r="B180" s="17"/>
       <c r="I180" t="s">
         <v>316</v>
@@ -6824,22 +7016,22 @@
       <c r="O180" t="s">
         <v>319</v>
       </c>
-      <c r="Q180" s="46" t="s">
+      <c r="Q180" s="47" t="s">
         <v>318</v>
       </c>
-      <c r="R180" s="46"/>
+      <c r="R180" s="47"/>
       <c r="S180" t="s">
         <v>315</v>
       </c>
       <c r="V180" s="17"/>
     </row>
-    <row r="181" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:22">
       <c r="B181" s="17"/>
-      <c r="F181" s="46" t="s">
+      <c r="F181" s="47" t="s">
         <v>317</v>
       </c>
-      <c r="G181" s="46"/>
-      <c r="H181" s="46"/>
+      <c r="G181" s="47"/>
+      <c r="H181" s="47"/>
       <c r="I181" t="s">
         <v>315</v>
       </c>
@@ -6849,52 +7041,52 @@
       </c>
       <c r="V181" s="17"/>
     </row>
-    <row r="182" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:22">
       <c r="B182" s="17"/>
       <c r="L182" s="32"/>
       <c r="V182" s="17"/>
     </row>
-    <row r="183" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:22">
       <c r="B183" s="17"/>
       <c r="L183" s="32"/>
       <c r="V183" s="17"/>
     </row>
-    <row r="184" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:22">
       <c r="B184" s="17"/>
       <c r="L184" s="32"/>
       <c r="V184" s="17"/>
     </row>
-    <row r="185" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:22">
       <c r="B185" s="17"/>
       <c r="L185" s="32"/>
       <c r="V185" s="17"/>
     </row>
-    <row r="186" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:22">
       <c r="B186" s="17"/>
       <c r="L186" s="32"/>
       <c r="V186" s="17"/>
     </row>
-    <row r="187" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:22">
       <c r="B187" s="17"/>
       <c r="L187" s="32"/>
       <c r="V187" s="17"/>
     </row>
-    <row r="188" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:22">
       <c r="B188" s="17"/>
       <c r="L188" s="32"/>
       <c r="V188" s="17"/>
     </row>
-    <row r="189" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:22">
       <c r="B189" s="17"/>
       <c r="L189" s="32"/>
       <c r="V189" s="17"/>
     </row>
-    <row r="190" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:22">
       <c r="B190" s="17"/>
       <c r="L190" s="32"/>
       <c r="V190" s="17"/>
     </row>
-    <row r="191" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:22">
       <c r="B191" s="17"/>
       <c r="C191" s="17"/>
       <c r="D191" s="17"/>
@@ -6917,7 +7109,7 @@
       <c r="U191" s="17"/>
       <c r="V191" s="17"/>
     </row>
-    <row r="192" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:22">
       <c r="B192" s="17"/>
       <c r="C192" s="17"/>
       <c r="D192" s="17"/>
@@ -6940,7 +7132,7 @@
       <c r="U192" s="17"/>
       <c r="V192" s="17"/>
     </row>
-    <row r="193" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:22">
       <c r="B193" s="17"/>
       <c r="C193" s="17"/>
       <c r="D193" s="17"/>
@@ -6963,7 +7155,7 @@
       <c r="U193" s="17"/>
       <c r="V193" s="17"/>
     </row>
-    <row r="203" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:22">
       <c r="P203" s="10" t="s">
         <v>350</v>
       </c>
@@ -6974,7 +7166,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="204" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:22">
       <c r="Q204">
         <v>40</v>
       </c>
@@ -6982,36 +7174,28 @@
         <v>349</v>
       </c>
     </row>
-    <row r="205" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:22">
       <c r="Q205" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="206" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:22">
       <c r="Q206" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="207" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:22">
       <c r="Q207" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="208" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:22">
       <c r="Q208" t="s">
         <v>354</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="P30:R30"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="T7:U7"/>
     <mergeCell ref="F181:H181"/>
     <mergeCell ref="I158:K158"/>
     <mergeCell ref="I162:K162"/>
@@ -7024,6 +7208,14 @@
     <mergeCell ref="Q180:R180"/>
     <mergeCell ref="Q176:S176"/>
     <mergeCell ref="E154:K155"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="P30:R30"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="T7:U7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7032,31 +7224,31 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B5:V45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C24" workbookViewId="0">
+    <sheetView topLeftCell="C34" workbookViewId="0">
       <selection activeCell="U36" sqref="U36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="12" max="12" width="8.42578125" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="8.44140625" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="46"/>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="46"/>
-      <c r="T5" s="46"/>
-    </row>
-    <row r="6" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="7:20">
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="47"/>
+      <c r="T5" s="47"/>
+    </row>
+    <row r="6" spans="7:20">
       <c r="L6" s="16"/>
       <c r="M6" s="16"/>
       <c r="N6" s="16" t="s">
@@ -7068,31 +7260,31 @@
       <c r="R6" s="16"/>
       <c r="S6" s="16"/>
     </row>
-    <row r="7" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="7:20">
       <c r="L7" s="16"/>
-      <c r="M7" s="54" t="s">
+      <c r="M7" s="55" t="s">
         <v>355</v>
       </c>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="54"/>
-      <c r="R7" s="54"/>
-      <c r="S7" s="54"/>
-    </row>
-    <row r="8" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="L8" s="46" t="s">
+      <c r="N7" s="55"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="55"/>
+      <c r="Q7" s="55"/>
+      <c r="R7" s="55"/>
+      <c r="S7" s="55"/>
+    </row>
+    <row r="8" spans="7:20">
+      <c r="L8" s="47" t="s">
         <v>375</v>
       </c>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="46"/>
-      <c r="R8" s="46"/>
-      <c r="S8" s="46"/>
-    </row>
-    <row r="16" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="47"/>
+      <c r="S8" s="47"/>
+    </row>
+    <row r="16" spans="7:20">
       <c r="G16" t="s">
         <v>359</v>
       </c>
@@ -7100,7 +7292,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:22">
       <c r="E17" t="s">
         <v>361</v>
       </c>
@@ -7120,7 +7312,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:22">
       <c r="B19" t="s">
         <v>365</v>
       </c>
@@ -7128,7 +7320,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:22">
       <c r="C20" t="s">
         <v>370</v>
       </c>
@@ -7136,12 +7328,12 @@
         <v>366</v>
       </c>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:22">
       <c r="G21" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:22">
       <c r="G24" t="s">
         <v>363</v>
       </c>
@@ -7161,7 +7353,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:22">
       <c r="E25" t="s">
         <v>361</v>
       </c>
@@ -7172,18 +7364,18 @@
         <v>357</v>
       </c>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:22">
       <c r="G27" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="F30" s="46" t="s">
+    <row r="30" spans="2:22">
+      <c r="F30" s="47" t="s">
         <v>371</v>
       </c>
-      <c r="G30" s="46"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="46"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
       <c r="P30" s="42"/>
       <c r="Q30" s="42"/>
       <c r="R30" s="42"/>
@@ -7192,7 +7384,7 @@
       <c r="U30" s="42"/>
       <c r="V30" s="42"/>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:22">
       <c r="P31" s="42"/>
       <c r="Q31" s="42"/>
       <c r="R31" s="42"/>
@@ -7201,27 +7393,27 @@
       <c r="U31" s="42"/>
       <c r="V31" s="42"/>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:22">
       <c r="P32" s="42"/>
-      <c r="Q32" s="55"/>
-      <c r="R32" s="55"/>
-      <c r="S32" s="55" t="s">
+      <c r="Q32" s="45"/>
+      <c r="R32" s="45"/>
+      <c r="S32" s="45" t="s">
         <v>384</v>
       </c>
-      <c r="T32" s="55"/>
-      <c r="U32" s="55"/>
+      <c r="T32" s="45"/>
+      <c r="U32" s="45"/>
       <c r="V32" s="42"/>
     </row>
-    <row r="33" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:22">
       <c r="P33" s="42"/>
-      <c r="Q33" s="55"/>
-      <c r="R33" s="55"/>
-      <c r="S33" s="55"/>
-      <c r="T33" s="55"/>
-      <c r="U33" s="55"/>
+      <c r="Q33" s="45"/>
+      <c r="R33" s="45"/>
+      <c r="S33" s="45"/>
+      <c r="T33" s="45"/>
+      <c r="U33" s="45"/>
       <c r="V33" s="42"/>
     </row>
-    <row r="34" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:22">
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
@@ -7236,7 +7428,7 @@
       <c r="U34" s="42"/>
       <c r="V34" s="42"/>
     </row>
-    <row r="35" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:22">
       <c r="C35" s="39"/>
       <c r="D35" s="40"/>
       <c r="E35" s="40"/>
@@ -7260,7 +7452,7 @@
       <c r="U35" s="42"/>
       <c r="V35" s="42"/>
     </row>
-    <row r="36" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:22">
       <c r="C36" s="40"/>
       <c r="D36" s="40"/>
       <c r="E36" s="40"/>
@@ -7282,7 +7474,7 @@
       <c r="U36" s="42"/>
       <c r="V36" s="42"/>
     </row>
-    <row r="37" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:22">
       <c r="C37" s="40"/>
       <c r="D37" s="40"/>
       <c r="E37" s="40"/>
@@ -7304,7 +7496,7 @@
       <c r="U37" s="41"/>
       <c r="V37" s="41"/>
     </row>
-    <row r="38" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:22">
       <c r="C38" s="40"/>
       <c r="D38" s="40"/>
       <c r="E38" s="40"/>
@@ -7317,7 +7509,7 @@
       <c r="L38" s="40"/>
       <c r="M38" s="40"/>
     </row>
-    <row r="39" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:22">
       <c r="C39" s="40"/>
       <c r="D39" s="40"/>
       <c r="E39" s="40"/>
@@ -7330,7 +7522,7 @@
       <c r="L39" s="40"/>
       <c r="M39" s="40"/>
     </row>
-    <row r="40" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:22">
       <c r="C40" s="40"/>
       <c r="D40" s="40"/>
       <c r="E40" s="40"/>
@@ -7342,18 +7534,18 @@
       <c r="K40" s="40"/>
       <c r="L40" s="40"/>
       <c r="M40" s="40"/>
-      <c r="O40" s="45" t="s">
+      <c r="O40" s="46" t="s">
         <v>376</v>
       </c>
-      <c r="P40" s="45"/>
-      <c r="Q40" s="45"/>
-      <c r="R40" s="45"/>
-      <c r="S40" s="45"/>
-      <c r="T40" s="45"/>
-      <c r="U40" s="45"/>
-      <c r="V40" s="45"/>
-    </row>
-    <row r="41" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="P40" s="46"/>
+      <c r="Q40" s="46"/>
+      <c r="R40" s="46"/>
+      <c r="S40" s="46"/>
+      <c r="T40" s="46"/>
+      <c r="U40" s="46"/>
+      <c r="V40" s="46"/>
+    </row>
+    <row r="41" spans="3:22">
       <c r="C41" s="40"/>
       <c r="D41" s="40"/>
       <c r="E41" s="40"/>
@@ -7365,18 +7557,18 @@
       <c r="K41" s="40"/>
       <c r="L41" s="40"/>
       <c r="M41" s="40"/>
-      <c r="O41" s="45" t="s">
+      <c r="O41" s="46" t="s">
         <v>377</v>
       </c>
-      <c r="P41" s="45"/>
-      <c r="Q41" s="45"/>
-      <c r="R41" s="45"/>
-      <c r="S41" s="45"/>
-      <c r="T41" s="45"/>
-      <c r="U41" s="45"/>
+      <c r="P41" s="46"/>
+      <c r="Q41" s="46"/>
+      <c r="R41" s="46"/>
+      <c r="S41" s="46"/>
+      <c r="T41" s="46"/>
+      <c r="U41" s="46"/>
       <c r="V41" s="3"/>
     </row>
-    <row r="42" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:22">
       <c r="C42" s="40"/>
       <c r="D42" s="40"/>
       <c r="E42" s="40"/>
@@ -7388,18 +7580,18 @@
       <c r="K42" s="40"/>
       <c r="L42" s="40"/>
       <c r="M42" s="40"/>
-      <c r="O42" s="45" t="s">
+      <c r="O42" s="46" t="s">
         <v>378</v>
       </c>
-      <c r="P42" s="45"/>
-      <c r="Q42" s="45"/>
-      <c r="R42" s="45"/>
-      <c r="S42" s="45"/>
-      <c r="T42" s="45"/>
-      <c r="U42" s="45"/>
+      <c r="P42" s="46"/>
+      <c r="Q42" s="46"/>
+      <c r="R42" s="46"/>
+      <c r="S42" s="46"/>
+      <c r="T42" s="46"/>
+      <c r="U42" s="46"/>
       <c r="V42" s="3"/>
     </row>
-    <row r="43" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:22">
       <c r="C43" s="40"/>
       <c r="D43" s="40"/>
       <c r="E43" s="40"/>
@@ -7411,19 +7603,19 @@
       <c r="K43" s="40"/>
       <c r="L43" s="40"/>
       <c r="M43" s="40"/>
-      <c r="N43" s="45" t="s">
+      <c r="N43" s="46" t="s">
         <v>379</v>
       </c>
-      <c r="O43" s="45"/>
-      <c r="P43" s="45"/>
-      <c r="Q43" s="45"/>
-      <c r="R43" s="45"/>
-      <c r="S43" s="45"/>
-      <c r="T43" s="45"/>
-      <c r="U43" s="45"/>
-      <c r="V43" s="45"/>
-    </row>
-    <row r="44" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="O43" s="46"/>
+      <c r="P43" s="46"/>
+      <c r="Q43" s="46"/>
+      <c r="R43" s="46"/>
+      <c r="S43" s="46"/>
+      <c r="T43" s="46"/>
+      <c r="U43" s="46"/>
+      <c r="V43" s="46"/>
+    </row>
+    <row r="44" spans="3:22">
       <c r="C44" s="40"/>
       <c r="D44" s="40"/>
       <c r="E44" s="40"/>
@@ -7436,7 +7628,7 @@
       <c r="L44" s="40"/>
       <c r="M44" s="40"/>
     </row>
-    <row r="45" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:22">
       <c r="C45" s="40"/>
       <c r="D45" s="40"/>
       <c r="E45" s="40"/>
@@ -7462,4 +7654,422 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:W86"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="M70" sqref="M70"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="2" spans="16:22">
+      <c r="T2" s="47" t="s">
+        <v>386</v>
+      </c>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47"/>
+    </row>
+    <row r="3" spans="16:22">
+      <c r="T3" s="47"/>
+      <c r="U3" s="47"/>
+      <c r="V3" s="47"/>
+    </row>
+    <row r="6" spans="16:22">
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="44" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="7" spans="16:22">
+      <c r="T7" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="8" spans="16:22">
+      <c r="T8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="9" spans="16:22">
+      <c r="T9" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="10" spans="16:22">
+      <c r="T10" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="11" spans="16:22">
+      <c r="T11" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="13" spans="16:22">
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="44" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="15" spans="16:22">
+      <c r="S15" s="58" t="s">
+        <v>394</v>
+      </c>
+      <c r="T15" s="58"/>
+    </row>
+    <row r="16" spans="16:22">
+      <c r="P16" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="S16" s="11"/>
+      <c r="T16" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="17" spans="15:20">
+      <c r="T17" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="18" spans="15:20">
+      <c r="O18" s="40"/>
+      <c r="P18" s="40" t="s">
+        <v>406</v>
+      </c>
+      <c r="T18" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="19" spans="15:20">
+      <c r="O19" s="40"/>
+      <c r="P19" s="40" t="s">
+        <v>407</v>
+      </c>
+      <c r="T19" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="20" spans="15:20">
+      <c r="T20" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="21" spans="15:20">
+      <c r="T21" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="22" spans="15:20">
+      <c r="S22" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="23" spans="15:20">
+      <c r="S23" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="24" spans="15:20">
+      <c r="S24" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="25" spans="15:20">
+      <c r="T25" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="26" spans="15:20">
+      <c r="T26" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="28" spans="15:20">
+      <c r="S28">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="15:20">
+      <c r="P31" s="56" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q31" s="56"/>
+      <c r="R31" s="56"/>
+      <c r="S31" s="56"/>
+    </row>
+    <row r="32" spans="15:20">
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="S32" s="11"/>
+    </row>
+    <row r="33" spans="8:21">
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="S33" s="11"/>
+    </row>
+    <row r="38" spans="8:21">
+      <c r="S38" s="57"/>
+      <c r="T38" s="57" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="40" spans="8:21">
+      <c r="S40" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="41" spans="8:21">
+      <c r="H41" s="47"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="47"/>
+      <c r="M41" t="s">
+        <v>415</v>
+      </c>
+      <c r="O41" s="64"/>
+      <c r="P41" s="64"/>
+      <c r="Q41" s="64"/>
+      <c r="R41" s="64"/>
+      <c r="S41" s="64" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="42" spans="8:21">
+      <c r="I42" s="63" t="s">
+        <v>416</v>
+      </c>
+      <c r="J42" s="63"/>
+      <c r="K42" s="63"/>
+      <c r="L42" s="63"/>
+      <c r="M42" s="63"/>
+      <c r="N42" s="63"/>
+      <c r="O42" s="63"/>
+      <c r="P42" s="63"/>
+      <c r="Q42" s="63"/>
+      <c r="R42" s="63"/>
+      <c r="S42" s="64"/>
+    </row>
+    <row r="45" spans="8:21">
+      <c r="M45" s="47" t="s">
+        <v>414</v>
+      </c>
+      <c r="N45" s="47"/>
+      <c r="O45" s="47"/>
+      <c r="P45" s="47"/>
+      <c r="Q45" s="47"/>
+      <c r="R45" s="47"/>
+      <c r="S45" s="47"/>
+      <c r="T45" s="47"/>
+      <c r="U45" s="47"/>
+    </row>
+    <row r="49" spans="1:23">
+      <c r="B49" s="59" t="s">
+        <v>417</v>
+      </c>
+      <c r="C49" s="59"/>
+      <c r="D49" s="59"/>
+      <c r="E49" s="59"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="59"/>
+    </row>
+    <row r="51" spans="1:23">
+      <c r="F51" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23">
+      <c r="F52" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23">
+      <c r="A56" s="60"/>
+      <c r="B56" s="60"/>
+      <c r="C56" s="60"/>
+      <c r="D56" s="60"/>
+      <c r="E56" s="60"/>
+      <c r="F56" s="60"/>
+      <c r="G56" s="60"/>
+      <c r="H56" s="60"/>
+      <c r="I56" s="60"/>
+      <c r="J56" s="60"/>
+      <c r="K56" s="60"/>
+      <c r="L56" s="60"/>
+      <c r="M56" s="60"/>
+      <c r="N56" s="60"/>
+      <c r="O56" s="60"/>
+      <c r="P56" s="60"/>
+      <c r="Q56" s="60"/>
+      <c r="R56" s="60"/>
+      <c r="S56" s="60"/>
+      <c r="T56" s="60"/>
+      <c r="U56" s="60"/>
+      <c r="V56" s="60"/>
+      <c r="W56" s="60"/>
+    </row>
+    <row r="59" spans="1:23">
+      <c r="R59" s="62" t="s">
+        <v>420</v>
+      </c>
+      <c r="S59" s="62"/>
+      <c r="T59" s="62"/>
+      <c r="U59" s="62"/>
+      <c r="V59" s="62"/>
+    </row>
+    <row r="62" spans="1:23">
+      <c r="K62" t="s">
+        <v>424</v>
+      </c>
+      <c r="N62" t="s">
+        <v>423</v>
+      </c>
+      <c r="R62" t="s">
+        <v>422</v>
+      </c>
+      <c r="U62" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23">
+      <c r="U63" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="66" spans="6:20">
+      <c r="H66">
+        <v>200</v>
+      </c>
+      <c r="I66">
+        <v>5</v>
+      </c>
+      <c r="J66" t="s">
+        <v>432</v>
+      </c>
+      <c r="K66" t="s">
+        <v>431</v>
+      </c>
+      <c r="M66" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="69" spans="6:20">
+      <c r="I69" s="47">
+        <v>200</v>
+      </c>
+      <c r="K69" s="47" t="s">
+        <v>433</v>
+      </c>
+      <c r="L69" s="47"/>
+    </row>
+    <row r="70" spans="6:20">
+      <c r="I70" s="47"/>
+      <c r="K70" s="47"/>
+      <c r="L70" s="47"/>
+      <c r="T70" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="71" spans="6:20">
+      <c r="S71" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="72" spans="6:20">
+      <c r="S72" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="73" spans="6:20">
+      <c r="S73" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="74" spans="6:20">
+      <c r="F74" s="61"/>
+    </row>
+    <row r="75" spans="6:20">
+      <c r="F75" s="61"/>
+    </row>
+    <row r="76" spans="6:20">
+      <c r="F76" s="61"/>
+    </row>
+    <row r="77" spans="6:20">
+      <c r="F77" s="61"/>
+    </row>
+    <row r="78" spans="6:20">
+      <c r="F78" s="61"/>
+      <c r="I78" s="61"/>
+    </row>
+    <row r="79" spans="6:20">
+      <c r="F79" s="61"/>
+      <c r="I79" s="61"/>
+    </row>
+    <row r="80" spans="6:20">
+      <c r="F80" s="61"/>
+      <c r="I80" s="61"/>
+    </row>
+    <row r="81" spans="6:13">
+      <c r="F81" s="61"/>
+      <c r="I81" s="61"/>
+    </row>
+    <row r="82" spans="6:13">
+      <c r="F82" s="61"/>
+      <c r="G82" s="61"/>
+      <c r="I82" s="61"/>
+    </row>
+    <row r="83" spans="6:13">
+      <c r="F83" s="61"/>
+      <c r="G83" s="61"/>
+      <c r="I83" s="61"/>
+    </row>
+    <row r="84" spans="6:13">
+      <c r="F84" s="61"/>
+      <c r="G84" s="61"/>
+      <c r="H84" s="61"/>
+      <c r="I84" s="61"/>
+    </row>
+    <row r="85" spans="6:13">
+      <c r="F85" s="61"/>
+      <c r="G85" s="61"/>
+      <c r="H85" s="61"/>
+      <c r="I85" s="61"/>
+    </row>
+    <row r="86" spans="6:13">
+      <c r="F86" s="61"/>
+      <c r="G86" s="61"/>
+      <c r="H86" s="61"/>
+      <c r="I86" s="61"/>
+      <c r="J86" s="61"/>
+      <c r="K86" s="61"/>
+      <c r="L86" s="61"/>
+      <c r="M86" s="61"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="R59:V59"/>
+    <mergeCell ref="K69:L70"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="T2:V3"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="P31:S31"/>
+    <mergeCell ref="M45:U45"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="I42:R42"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FreeLance\Mokhtar Elsamhy\Fish Business\FishBusiness\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EBB5485-E961-4E9A-93B9-94D85798C00E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1326,8 +1332,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1685,19 +1691,16 @@
       <alignment readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1709,33 +1712,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -1774,7 +1780,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="WhatsApp Image 2020-08-17 at 1.23.37 AM.jpeg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1820,7 +1826,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="Capturea.PNG"/>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Capturea.PNG">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1889,7 +1901,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1921,9 +1933,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1955,6 +1985,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2130,22 +2178,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y117"/>
   <sheetViews>
     <sheetView topLeftCell="A106" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="M1" sqref="M1:M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E1">
         <v>2500</v>
       </c>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E2">
         <v>3000</v>
       </c>
@@ -2154,7 +2202,7 @@
       </c>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E3">
         <v>10000</v>
       </c>
@@ -2163,7 +2211,7 @@
       </c>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="F4">
         <v>7.5</v>
       </c>
@@ -2172,7 +2220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -2191,7 +2239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
@@ -2203,7 +2251,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -2228,7 +2276,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -2250,7 +2298,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -2266,7 +2314,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -2284,7 +2332,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -2294,7 +2342,7 @@
       <c r="I11" s="3"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -2312,7 +2360,7 @@
       </c>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -2334,7 +2382,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -2350,7 +2398,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -2375,7 +2423,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -2394,7 +2442,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -2416,7 +2464,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -2435,7 +2483,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:24">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -2451,7 +2499,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -2470,7 +2518,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -2480,7 +2528,7 @@
       </c>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="1:24">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -2493,7 +2541,7 @@
       </c>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="1:24">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -2506,7 +2554,7 @@
       </c>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="1:24">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -2519,7 +2567,7 @@
       </c>
       <c r="M24" s="5"/>
     </row>
-    <row r="25" spans="1:24">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="H25" t="s">
         <v>24</v>
       </c>
@@ -2527,12 +2575,12 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="26" spans="1:24">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="1:24">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
         <v>26</v>
       </c>
@@ -2543,7 +2591,7 @@
         <v>5650</v>
       </c>
     </row>
-    <row r="28" spans="1:24">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="I28" s="4">
         <v>0.06</v>
       </c>
@@ -2562,12 +2610,12 @@
       <c r="R28" s="6"/>
       <c r="S28" s="6"/>
     </row>
-    <row r="29" spans="1:24">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="I29">
         <v>5311</v>
       </c>
     </row>
-    <row r="30" spans="1:24">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E30">
         <v>100</v>
       </c>
@@ -2584,7 +2632,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:24">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="H31" t="s">
         <v>29</v>
       </c>
@@ -2592,7 +2640,7 @@
         <v>5011</v>
       </c>
     </row>
-    <row r="32" spans="1:24">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="I32">
         <v>2500</v>
       </c>
@@ -2612,7 +2660,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="5:25">
+    <row r="33" spans="5:25" x14ac:dyDescent="0.25">
       <c r="I33">
         <v>2500</v>
       </c>
@@ -2626,7 +2674,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="5:25">
+    <row r="34" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5" t="s">
@@ -2645,7 +2693,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="5:25">
+    <row r="35" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
@@ -2662,7 +2710,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="5:25">
+    <row r="36" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
@@ -2679,7 +2727,7 @@
       <c r="W36" s="5"/>
       <c r="X36" s="5"/>
     </row>
-    <row r="37" spans="5:25">
+    <row r="37" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
@@ -2690,7 +2738,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="38" spans="5:25">
+    <row r="38" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E38" s="5" t="s">
         <v>41</v>
       </c>
@@ -2705,7 +2753,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="39" spans="5:25">
+    <row r="39" spans="5:25" x14ac:dyDescent="0.25">
       <c r="F39" t="s">
         <v>34</v>
       </c>
@@ -2718,7 +2766,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="40" spans="5:25">
+    <row r="40" spans="5:25" x14ac:dyDescent="0.25">
       <c r="F40" t="s">
         <v>35</v>
       </c>
@@ -2728,7 +2776,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="5:25">
+    <row r="41" spans="5:25" x14ac:dyDescent="0.25">
       <c r="F41" t="s">
         <v>36</v>
       </c>
@@ -2738,7 +2786,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="5:25">
+    <row r="42" spans="5:25" x14ac:dyDescent="0.25">
       <c r="F42" t="s">
         <v>37</v>
       </c>
@@ -2748,7 +2796,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="5:25">
+    <row r="43" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
@@ -2762,7 +2810,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="5:25">
+    <row r="44" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
@@ -2770,7 +2818,7 @@
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
     </row>
-    <row r="45" spans="5:25">
+    <row r="45" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
@@ -2778,7 +2826,7 @@
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
     </row>
-    <row r="46" spans="5:25">
+    <row r="46" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
@@ -2795,7 +2843,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="5:25">
+    <row r="47" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
@@ -2812,7 +2860,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="5:25">
+    <row r="48" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
@@ -2829,7 +2877,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="8:25">
+    <row r="49" spans="8:25" x14ac:dyDescent="0.25">
       <c r="R49" t="s">
         <v>24</v>
       </c>
@@ -2840,22 +2888,22 @@
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="8:25">
+    <row r="50" spans="8:25" x14ac:dyDescent="0.25">
       <c r="Y50" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="8:25">
+    <row r="51" spans="8:25" x14ac:dyDescent="0.25">
       <c r="X51">
         <v>20000</v>
       </c>
     </row>
-    <row r="52" spans="8:25">
+    <row r="52" spans="8:25" x14ac:dyDescent="0.25">
       <c r="Y52">
         <v>2000</v>
       </c>
     </row>
-    <row r="58" spans="8:25">
+    <row r="58" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
@@ -2870,7 +2918,7 @@
       <c r="S58" s="5"/>
       <c r="T58" s="5"/>
     </row>
-    <row r="64" spans="8:25">
+    <row r="64" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
@@ -2887,7 +2935,7 @@
       <c r="W64" s="5"/>
       <c r="X64" s="5"/>
     </row>
-    <row r="65" spans="8:25">
+    <row r="65" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
@@ -2906,7 +2954,7 @@
       <c r="W65" s="5"/>
       <c r="X65" s="5"/>
     </row>
-    <row r="66" spans="8:25">
+    <row r="66" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
@@ -2923,7 +2971,7 @@
       <c r="W66" s="5"/>
       <c r="X66" s="5"/>
     </row>
-    <row r="67" spans="8:25">
+    <row r="67" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
@@ -2940,7 +2988,7 @@
       <c r="W67" s="5"/>
       <c r="X67" s="5"/>
     </row>
-    <row r="68" spans="8:25">
+    <row r="68" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
@@ -2959,7 +3007,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="8:25">
+    <row r="69" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
@@ -2976,7 +3024,7 @@
       <c r="W69" s="5"/>
       <c r="X69" s="5"/>
     </row>
-    <row r="70" spans="8:25">
+    <row r="70" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H70" s="5"/>
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
@@ -2998,7 +3046,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="71" spans="8:25">
+    <row r="71" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
@@ -3023,7 +3071,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="72" spans="8:25">
+    <row r="72" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
@@ -3043,7 +3091,7 @@
       <c r="W72" s="5"/>
       <c r="X72" s="5"/>
     </row>
-    <row r="73" spans="8:25">
+    <row r="73" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
@@ -3063,7 +3111,7 @@
       <c r="W73" s="5"/>
       <c r="X73" s="5"/>
     </row>
-    <row r="74" spans="8:25">
+    <row r="74" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
@@ -3080,7 +3128,7 @@
       <c r="W74" s="5"/>
       <c r="X74" s="5"/>
     </row>
-    <row r="75" spans="8:25">
+    <row r="75" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
@@ -3097,7 +3145,7 @@
       <c r="W75" s="5"/>
       <c r="X75" s="5"/>
     </row>
-    <row r="76" spans="8:25">
+    <row r="76" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
@@ -3115,7 +3163,7 @@
         <v>5650</v>
       </c>
     </row>
-    <row r="77" spans="8:25">
+    <row r="77" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
@@ -3136,7 +3184,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="78" spans="8:25">
+    <row r="78" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
@@ -3151,7 +3199,7 @@
         <v>5311</v>
       </c>
     </row>
-    <row r="79" spans="8:25">
+    <row r="79" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H79" s="5"/>
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
@@ -3172,7 +3220,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="8:25">
+    <row r="80" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
@@ -3190,7 +3238,7 @@
         <v>5011</v>
       </c>
     </row>
-    <row r="81" spans="6:24">
+    <row r="81" spans="6:24" x14ac:dyDescent="0.25">
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
@@ -3207,71 +3255,71 @@
       <c r="W81" s="5"/>
       <c r="X81" s="5"/>
     </row>
-    <row r="82" spans="6:24">
+    <row r="82" spans="6:24" x14ac:dyDescent="0.25">
       <c r="T82" s="5"/>
       <c r="U82" s="5"/>
       <c r="V82" s="5"/>
       <c r="W82" s="5"/>
       <c r="X82" s="5"/>
     </row>
-    <row r="83" spans="6:24">
+    <row r="83" spans="6:24" x14ac:dyDescent="0.25">
       <c r="T83" s="5"/>
       <c r="U83" s="5"/>
       <c r="V83" s="5"/>
       <c r="W83" s="5"/>
       <c r="X83" s="5"/>
     </row>
-    <row r="84" spans="6:24">
+    <row r="84" spans="6:24" x14ac:dyDescent="0.25">
       <c r="T84" s="5"/>
       <c r="U84" s="5"/>
       <c r="V84" s="5"/>
       <c r="W84" s="5"/>
       <c r="X84" s="5"/>
     </row>
-    <row r="85" spans="6:24">
+    <row r="85" spans="6:24" x14ac:dyDescent="0.25">
       <c r="T85" s="5"/>
       <c r="U85" s="5"/>
       <c r="V85" s="5"/>
       <c r="W85" s="5"/>
       <c r="X85" s="5"/>
     </row>
-    <row r="86" spans="6:24">
+    <row r="86" spans="6:24" x14ac:dyDescent="0.25">
       <c r="T86" s="5"/>
       <c r="U86" s="5"/>
       <c r="V86" s="5"/>
       <c r="W86" s="5"/>
       <c r="X86" s="5"/>
     </row>
-    <row r="87" spans="6:24">
+    <row r="87" spans="6:24" x14ac:dyDescent="0.25">
       <c r="T87" s="5"/>
       <c r="U87" s="5"/>
       <c r="V87" s="5"/>
       <c r="W87" s="5"/>
       <c r="X87" s="5"/>
     </row>
-    <row r="88" spans="6:24">
+    <row r="88" spans="6:24" x14ac:dyDescent="0.25">
       <c r="T88" s="5"/>
       <c r="U88" s="5"/>
       <c r="V88" s="5"/>
       <c r="W88" s="5"/>
       <c r="X88" s="5"/>
     </row>
-    <row r="90" spans="6:24">
+    <row r="90" spans="6:24" x14ac:dyDescent="0.25">
       <c r="F90" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="6:24">
+    <row r="95" spans="6:24" x14ac:dyDescent="0.25">
       <c r="V95" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="96" spans="6:24">
+    <row r="96" spans="6:24" x14ac:dyDescent="0.25">
       <c r="V96" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="97" spans="20:22">
+    <row r="97" spans="20:22" x14ac:dyDescent="0.25">
       <c r="U97" t="s">
         <v>64</v>
       </c>
@@ -3279,17 +3327,17 @@
         <v>53</v>
       </c>
     </row>
-    <row r="98" spans="20:22">
+    <row r="98" spans="20:22" x14ac:dyDescent="0.25">
       <c r="V98" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="99" spans="20:22">
+    <row r="99" spans="20:22" x14ac:dyDescent="0.25">
       <c r="V99" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="100" spans="20:22">
+    <row r="100" spans="20:22" x14ac:dyDescent="0.25">
       <c r="T100" t="s">
         <v>60</v>
       </c>
@@ -3297,7 +3345,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="116" spans="20:22">
+    <row r="116" spans="20:22" x14ac:dyDescent="0.25">
       <c r="T116" t="s">
         <v>67</v>
       </c>
@@ -3305,7 +3353,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="117" spans="20:22">
+    <row r="117" spans="20:22" x14ac:dyDescent="0.25">
       <c r="V117" t="s">
         <v>66</v>
       </c>
@@ -3317,24 +3365,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B4:V84"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I11" sqref="I11:K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" customWidth="1"/>
-    <col min="10" max="10" width="6.6640625" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" customWidth="1"/>
     <col min="11" max="11" width="7" customWidth="1"/>
-    <col min="12" max="12" width="13.44140625" customWidth="1"/>
-    <col min="13" max="13" width="15.5546875" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:18">
+    <row r="4" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D4" s="1" t="s">
         <v>68</v>
       </c>
@@ -3351,7 +3399,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="4:18">
+    <row r="5" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>87</v>
       </c>
@@ -3368,7 +3416,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="4:18">
+    <row r="6" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>70</v>
       </c>
@@ -3385,7 +3433,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="4:18">
+    <row r="7" spans="4:18" x14ac:dyDescent="0.25">
       <c r="G7" t="s">
         <v>72</v>
       </c>
@@ -3396,7 +3444,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="4:18">
+    <row r="8" spans="4:18" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
         <v>142</v>
       </c>
@@ -3407,14 +3455,14 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="4:18">
+    <row r="9" spans="4:18" x14ac:dyDescent="0.25">
       <c r="F9" s="9"/>
       <c r="G9" s="9" t="s">
         <v>73</v>
       </c>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="4:18">
+    <row r="10" spans="4:18" x14ac:dyDescent="0.25">
       <c r="G10" t="s">
         <v>95</v>
       </c>
@@ -3422,7 +3470,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="4:18">
+    <row r="11" spans="4:18" x14ac:dyDescent="0.25">
       <c r="F11" s="3">
         <v>0</v>
       </c>
@@ -3433,17 +3481,17 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="4:18">
+    <row r="12" spans="4:18" x14ac:dyDescent="0.25">
       <c r="J12" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="4:18">
+    <row r="13" spans="4:18" x14ac:dyDescent="0.25">
       <c r="J13" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="4:18">
+    <row r="14" spans="4:18" x14ac:dyDescent="0.25">
       <c r="M14" s="1" t="s">
         <v>83</v>
       </c>
@@ -3453,7 +3501,7 @@
       </c>
       <c r="R14" s="1"/>
     </row>
-    <row r="15" spans="4:18">
+    <row r="15" spans="4:18" x14ac:dyDescent="0.25">
       <c r="M15" t="s">
         <v>86</v>
       </c>
@@ -3461,7 +3509,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="4:18">
+    <row r="16" spans="4:18" x14ac:dyDescent="0.25">
       <c r="M16" t="s">
         <v>78</v>
       </c>
@@ -3469,7 +3517,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="4:20">
+    <row r="17" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D17" s="1" t="s">
         <v>93</v>
       </c>
@@ -3480,7 +3528,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="4:20">
+    <row r="18" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>95</v>
       </c>
@@ -3494,7 +3542,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="4:20">
+    <row r="19" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>94</v>
       </c>
@@ -3505,7 +3553,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="4:20">
+    <row r="20" spans="4:20" x14ac:dyDescent="0.25">
       <c r="K20">
         <v>600</v>
       </c>
@@ -3516,7 +3564,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="4:20">
+    <row r="21" spans="4:20" x14ac:dyDescent="0.25">
       <c r="L21">
         <v>400</v>
       </c>
@@ -3524,7 +3572,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="4:20">
+    <row r="22" spans="4:20" x14ac:dyDescent="0.25">
       <c r="G22" s="3"/>
       <c r="H22" s="3" t="s">
         <v>130</v>
@@ -3539,7 +3587,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="4:20">
+    <row r="23" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D23" s="1" t="s">
         <v>99</v>
       </c>
@@ -3555,7 +3603,7 @@
       </c>
       <c r="N23" s="3"/>
     </row>
-    <row r="24" spans="4:20">
+    <row r="24" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>101</v>
       </c>
@@ -3563,7 +3611,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="4:20">
+    <row r="25" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>100</v>
       </c>
@@ -3571,17 +3619,17 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="4:20">
+    <row r="26" spans="4:20" x14ac:dyDescent="0.25">
       <c r="G26" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="4:20">
+    <row r="27" spans="4:20" x14ac:dyDescent="0.25">
       <c r="G27" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="28" spans="4:20">
+    <row r="28" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
@@ -3600,7 +3648,7 @@
       <c r="S28" s="7"/>
       <c r="T28" s="7"/>
     </row>
-    <row r="37" spans="6:18">
+    <row r="37" spans="6:18" x14ac:dyDescent="0.25">
       <c r="G37" s="1" t="s">
         <v>102</v>
       </c>
@@ -3614,7 +3662,7 @@
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
     </row>
-    <row r="38" spans="6:18">
+    <row r="38" spans="6:18" x14ac:dyDescent="0.25">
       <c r="G38" t="s">
         <v>106</v>
       </c>
@@ -3625,7 +3673,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="6:18">
+    <row r="39" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F39" t="s">
         <v>110</v>
       </c>
@@ -3639,7 +3687,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="6:18">
+    <row r="40" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F40">
         <v>20000</v>
       </c>
@@ -3653,7 +3701,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="6:18">
+    <row r="41" spans="6:18" x14ac:dyDescent="0.25">
       <c r="K41">
         <v>20000</v>
       </c>
@@ -3664,7 +3712,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="6:18">
+    <row r="42" spans="6:18" x14ac:dyDescent="0.25">
       <c r="J42" t="s">
         <v>113</v>
       </c>
@@ -3678,7 +3726,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="6:18">
+    <row r="43" spans="6:18" x14ac:dyDescent="0.25">
       <c r="K43">
         <v>5000</v>
       </c>
@@ -3689,7 +3737,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="6:18">
+    <row r="44" spans="6:18" x14ac:dyDescent="0.25">
       <c r="K44" t="s">
         <v>111</v>
       </c>
@@ -3697,7 +3745,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="49" spans="2:20">
+    <row r="49" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -3716,12 +3764,12 @@
       <c r="S49" s="2"/>
       <c r="T49" s="2"/>
     </row>
-    <row r="54" spans="2:20">
+    <row r="54" spans="2:20" x14ac:dyDescent="0.25">
       <c r="E54" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="55" spans="2:20">
+    <row r="55" spans="2:20" x14ac:dyDescent="0.25">
       <c r="E55" t="s">
         <v>84</v>
       </c>
@@ -3729,7 +3777,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="56" spans="2:20">
+    <row r="56" spans="2:20" x14ac:dyDescent="0.25">
       <c r="E56" s="3" t="s">
         <v>100</v>
       </c>
@@ -3740,7 +3788,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="57" spans="2:20">
+    <row r="57" spans="2:20" x14ac:dyDescent="0.25">
       <c r="E57" s="3" t="s">
         <v>115</v>
       </c>
@@ -3751,12 +3799,12 @@
         <v>118</v>
       </c>
     </row>
-    <row r="58" spans="2:20">
+    <row r="58" spans="2:20" x14ac:dyDescent="0.25">
       <c r="M58" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="60" spans="2:20">
+    <row r="60" spans="2:20" x14ac:dyDescent="0.25">
       <c r="L60" t="s">
         <v>122</v>
       </c>
@@ -3764,7 +3812,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="2:20">
+    <row r="62" spans="2:20" x14ac:dyDescent="0.25">
       <c r="K62" s="3"/>
       <c r="L62" s="3" t="s">
         <v>123</v>
@@ -3775,7 +3823,7 @@
       </c>
       <c r="P62" s="3"/>
     </row>
-    <row r="63" spans="2:20">
+    <row r="63" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>145</v>
       </c>
@@ -3794,7 +3842,7 @@
       </c>
       <c r="P63" s="3"/>
     </row>
-    <row r="64" spans="2:20">
+    <row r="64" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>147</v>
       </c>
@@ -3806,7 +3854,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="66" spans="2:22">
+    <row r="66" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>150</v>
       </c>
@@ -3817,7 +3865,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="67" spans="2:22">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>151</v>
       </c>
@@ -3831,12 +3879,12 @@
         <v>155</v>
       </c>
     </row>
-    <row r="68" spans="2:22">
+    <row r="68" spans="2:22" x14ac:dyDescent="0.25">
       <c r="G68" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="69" spans="2:22">
+    <row r="69" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>20</v>
       </c>
@@ -3850,7 +3898,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="70" spans="2:22">
+    <row r="70" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>152</v>
       </c>
@@ -3863,38 +3911,38 @@
       <c r="G70" t="s">
         <v>135</v>
       </c>
-      <c r="S70" s="47"/>
-      <c r="T70" s="47" t="s">
+      <c r="S70" s="51"/>
+      <c r="T70" s="51" t="s">
         <v>336</v>
       </c>
-      <c r="U70" s="47"/>
-      <c r="V70" s="47"/>
-    </row>
-    <row r="71" spans="2:22">
-      <c r="S71" s="47"/>
-      <c r="T71" s="47"/>
-      <c r="U71" s="47"/>
-      <c r="V71" s="47"/>
-    </row>
-    <row r="72" spans="2:22">
-      <c r="S72" s="47"/>
-      <c r="T72" s="47"/>
-      <c r="U72" s="47"/>
-      <c r="V72" s="47"/>
-    </row>
-    <row r="73" spans="2:22">
-      <c r="N73" s="46" t="s">
+      <c r="U70" s="51"/>
+      <c r="V70" s="51"/>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="S71" s="51"/>
+      <c r="T71" s="51"/>
+      <c r="U71" s="51"/>
+      <c r="V71" s="51"/>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="S72" s="51"/>
+      <c r="T72" s="51"/>
+      <c r="U72" s="51"/>
+      <c r="V72" s="51"/>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="N73" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="O73" s="46"/>
-      <c r="P73" s="46"/>
-      <c r="Q73" s="46"/>
-      <c r="S73" s="47"/>
-      <c r="T73" s="47"/>
-      <c r="U73" s="47"/>
-      <c r="V73" s="47"/>
-    </row>
-    <row r="74" spans="2:22">
+      <c r="O73" s="50"/>
+      <c r="P73" s="50"/>
+      <c r="Q73" s="50"/>
+      <c r="S73" s="51"/>
+      <c r="T73" s="51"/>
+      <c r="U73" s="51"/>
+      <c r="V73" s="51"/>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.25">
       <c r="E74" s="2" t="s">
         <v>140</v>
       </c>
@@ -3910,12 +3958,12 @@
       <c r="P74" t="s">
         <v>51</v>
       </c>
-      <c r="S74" s="47"/>
-      <c r="T74" s="47"/>
-      <c r="U74" s="47"/>
-      <c r="V74" s="47"/>
-    </row>
-    <row r="75" spans="2:22">
+      <c r="S74" s="51"/>
+      <c r="T74" s="51"/>
+      <c r="U74" s="51"/>
+      <c r="V74" s="51"/>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.25">
       <c r="E75" s="3" t="s">
         <v>105</v>
       </c>
@@ -3930,12 +3978,12 @@
       <c r="P75" t="s">
         <v>136</v>
       </c>
-      <c r="S75" s="47"/>
-      <c r="T75" s="47"/>
-      <c r="U75" s="47"/>
-      <c r="V75" s="47"/>
-    </row>
-    <row r="76" spans="2:22">
+      <c r="S75" s="51"/>
+      <c r="T75" s="51"/>
+      <c r="U75" s="51"/>
+      <c r="V75" s="51"/>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.25">
       <c r="E76" s="3" t="s">
         <v>90</v>
       </c>
@@ -3947,12 +3995,12 @@
       <c r="P76" t="s">
         <v>160</v>
       </c>
-      <c r="S76" s="47"/>
-      <c r="T76" s="47"/>
-      <c r="U76" s="47"/>
-      <c r="V76" s="47"/>
-    </row>
-    <row r="77" spans="2:22">
+      <c r="S76" s="51"/>
+      <c r="T76" s="51"/>
+      <c r="U76" s="51"/>
+      <c r="V76" s="51"/>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.25">
       <c r="E77" s="3" t="s">
         <v>137</v>
       </c>
@@ -3965,7 +4013,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="78" spans="2:22">
+    <row r="78" spans="2:22" x14ac:dyDescent="0.25">
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
       <c r="I78" s="3" t="s">
@@ -3984,7 +4032,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="79" spans="2:22">
+    <row r="79" spans="2:22" x14ac:dyDescent="0.25">
       <c r="E79" s="3" t="s">
         <v>112</v>
       </c>
@@ -4002,7 +4050,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="80" spans="2:22">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.25">
       <c r="E80" s="3" t="s">
         <v>141</v>
       </c>
@@ -4011,7 +4059,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="81" spans="13:17">
+    <row r="81" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M81" t="s">
         <v>167</v>
       </c>
@@ -4019,7 +4067,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="82" spans="13:17">
+    <row r="82" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M82" t="s">
         <v>169</v>
       </c>
@@ -4030,7 +4078,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="84" spans="13:17">
+    <row r="84" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M84" t="s">
         <v>171</v>
       </c>
@@ -4050,20 +4098,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:V68"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="H2" s="14"/>
       <c r="I2" s="14" t="s">
         <v>48</v>
@@ -4076,7 +4124,7 @@
       </c>
       <c r="O2" s="3"/>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B3" s="13">
         <v>13000</v>
       </c>
@@ -4095,7 +4143,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O4" s="3"/>
       <c r="R4" s="5"/>
       <c r="S4" s="5">
@@ -4105,7 +4153,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O5" s="3"/>
       <c r="R5" s="5">
         <v>2600</v>
@@ -4117,7 +4165,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D6">
         <v>1475</v>
       </c>
@@ -4132,7 +4180,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I7" t="s">
         <v>182</v>
       </c>
@@ -4153,7 +4201,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E8">
         <v>1475</v>
       </c>
@@ -4178,7 +4226,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="L9">
         <v>2950</v>
       </c>
@@ -4190,7 +4238,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>245.8</v>
       </c>
@@ -4211,7 +4259,7 @@
         <v>3950</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>250</v>
       </c>
@@ -4222,7 +4270,7 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>3000</v>
       </c>
@@ -4245,7 +4293,7 @@
       <c r="O12" s="3"/>
       <c r="Q12" s="10"/>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D13">
         <v>3000</v>
       </c>
@@ -4263,7 +4311,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C14">
         <v>950</v>
       </c>
@@ -4284,7 +4332,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O15" s="3"/>
       <c r="R15">
         <v>950</v>
@@ -4296,7 +4344,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="H16" s="12">
         <v>500</v>
       </c>
@@ -4315,7 +4363,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="17" spans="4:21">
+    <row r="17" spans="4:21" x14ac:dyDescent="0.25">
       <c r="L17">
         <v>4045</v>
       </c>
@@ -4324,7 +4372,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="4:21">
+    <row r="18" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>189</v>
       </c>
@@ -4345,7 +4393,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="19" spans="4:21">
+    <row r="19" spans="4:21" x14ac:dyDescent="0.25">
       <c r="O19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
@@ -4353,7 +4401,7 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
     </row>
-    <row r="20" spans="4:21">
+    <row r="20" spans="4:21" x14ac:dyDescent="0.25">
       <c r="H20" s="12"/>
       <c r="J20" s="3">
         <v>3790</v>
@@ -4363,7 +4411,7 @@
       </c>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="4:21">
+    <row r="21" spans="4:21" x14ac:dyDescent="0.25">
       <c r="O21" s="3"/>
       <c r="R21">
         <v>2600</v>
@@ -4375,7 +4423,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="4:21">
+    <row r="22" spans="4:21" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
         <v>192</v>
       </c>
@@ -4393,7 +4441,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="23" spans="4:21">
+    <row r="23" spans="4:21" x14ac:dyDescent="0.25">
       <c r="F23">
         <v>129.5</v>
       </c>
@@ -4414,7 +4462,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="24" spans="4:21">
+    <row r="24" spans="4:21" x14ac:dyDescent="0.25">
       <c r="F24">
         <v>130</v>
       </c>
@@ -4435,7 +4483,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="25" spans="4:21">
+    <row r="25" spans="4:21" x14ac:dyDescent="0.25">
       <c r="G25" t="s">
         <v>193</v>
       </c>
@@ -4453,7 +4501,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="26" spans="4:21">
+    <row r="26" spans="4:21" x14ac:dyDescent="0.25">
       <c r="G26">
         <v>1300</v>
       </c>
@@ -4474,13 +4522,13 @@
         <v>179</v>
       </c>
     </row>
-    <row r="27" spans="4:21">
+    <row r="27" spans="4:21" x14ac:dyDescent="0.25">
       <c r="O27" s="3"/>
       <c r="R27">
         <v>6430</v>
       </c>
     </row>
-    <row r="28" spans="4:21">
+    <row r="28" spans="4:21" x14ac:dyDescent="0.25">
       <c r="J28" t="s">
         <v>198</v>
       </c>
@@ -4492,7 +4540,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="29" spans="4:21">
+    <row r="29" spans="4:21" x14ac:dyDescent="0.25">
       <c r="K29">
         <v>4150</v>
       </c>
@@ -4501,7 +4549,7 @@
         <v>6045</v>
       </c>
     </row>
-    <row r="30" spans="4:21">
+    <row r="30" spans="4:21" x14ac:dyDescent="0.25">
       <c r="J30" t="s">
         <v>51</v>
       </c>
@@ -4510,7 +4558,7 @@
       </c>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="4:21">
+    <row r="31" spans="4:21" x14ac:dyDescent="0.25">
       <c r="J31" t="s">
         <v>200</v>
       </c>
@@ -4519,13 +4567,13 @@
       </c>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="4:21">
+    <row r="32" spans="4:21" x14ac:dyDescent="0.25">
       <c r="J32" t="s">
         <v>201</v>
       </c>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:22">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="I33" t="s">
         <v>202</v>
       </c>
@@ -4537,10 +4585,10 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="34" spans="1:22">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:22">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -4557,10 +4605,10 @@
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:22">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:22">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
       <c r="J37" s="14"/>
@@ -4571,10 +4619,10 @@
       </c>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:22">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:22">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H39" s="12"/>
       <c r="I39">
         <v>6</v>
@@ -4586,13 +4634,13 @@
       </c>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:22">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:22">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:22">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O42" s="3"/>
       <c r="R42" s="5"/>
       <c r="S42" s="3"/>
@@ -4600,7 +4648,7 @@
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
     </row>
-    <row r="43" spans="1:22">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H43" s="12"/>
       <c r="I43">
         <v>6</v>
@@ -4612,7 +4660,7 @@
       </c>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:22">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O44" s="3"/>
       <c r="R44" s="5"/>
       <c r="S44" s="3"/>
@@ -4620,10 +4668,10 @@
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
     </row>
-    <row r="45" spans="1:22">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:22">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O46" s="3"/>
       <c r="R46" s="5"/>
       <c r="S46" s="3"/>
@@ -4631,7 +4679,7 @@
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
     </row>
-    <row r="47" spans="1:22">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H47" s="12"/>
       <c r="I47">
         <v>6</v>
@@ -4643,16 +4691,16 @@
       </c>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:22">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="6:22">
+    <row r="49" spans="6:22" x14ac:dyDescent="0.25">
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="6:22">
+    <row r="50" spans="6:22" x14ac:dyDescent="0.25">
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="6:22">
+    <row r="51" spans="6:22" x14ac:dyDescent="0.25">
       <c r="H51" s="12"/>
       <c r="J51" s="3"/>
       <c r="L51" s="11">
@@ -4660,7 +4708,7 @@
       </c>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="6:22">
+    <row r="52" spans="6:22" x14ac:dyDescent="0.25">
       <c r="K52" t="s">
         <v>214</v>
       </c>
@@ -4669,25 +4717,25 @@
       </c>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="6:22">
+    <row r="53" spans="6:22" x14ac:dyDescent="0.25">
       <c r="L53">
         <v>8090</v>
       </c>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="6:22">
+    <row r="54" spans="6:22" x14ac:dyDescent="0.25">
       <c r="K54" t="s">
         <v>198</v>
       </c>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="6:22">
+    <row r="55" spans="6:22" x14ac:dyDescent="0.25">
       <c r="L55">
         <v>4045</v>
       </c>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="6:22">
+    <row r="56" spans="6:22" x14ac:dyDescent="0.25">
       <c r="J56" t="s">
         <v>215</v>
       </c>
@@ -4702,7 +4750,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="57" spans="6:22">
+    <row r="57" spans="6:22" x14ac:dyDescent="0.25">
       <c r="K57" t="s">
         <v>205</v>
       </c>
@@ -4723,10 +4771,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="6:22">
+    <row r="58" spans="6:22" x14ac:dyDescent="0.25">
       <c r="O58" s="3"/>
     </row>
-    <row r="59" spans="6:22">
+    <row r="59" spans="6:22" x14ac:dyDescent="0.25">
       <c r="L59" t="s">
         <v>206</v>
       </c>
@@ -4744,7 +4792,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="60" spans="6:22">
+    <row r="60" spans="6:22" x14ac:dyDescent="0.25">
       <c r="F60" s="5" t="s">
         <v>202</v>
       </c>
@@ -4765,7 +4813,7 @@
       </c>
       <c r="O60" s="3"/>
     </row>
-    <row r="61" spans="6:22">
+    <row r="61" spans="6:22" x14ac:dyDescent="0.25">
       <c r="G61">
         <v>700</v>
       </c>
@@ -4783,7 +4831,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="62" spans="6:22">
+    <row r="62" spans="6:22" x14ac:dyDescent="0.25">
       <c r="L62" t="s">
         <v>209</v>
       </c>
@@ -4792,7 +4840,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="63" spans="6:22">
+    <row r="63" spans="6:22" x14ac:dyDescent="0.25">
       <c r="K63" t="s">
         <v>210</v>
       </c>
@@ -4804,10 +4852,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="64" spans="6:22">
+    <row r="64" spans="6:22" x14ac:dyDescent="0.25">
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="12:21">
+    <row r="65" spans="12:21" x14ac:dyDescent="0.25">
       <c r="L65" t="s">
         <v>211</v>
       </c>
@@ -4816,16 +4864,16 @@
         <v>170</v>
       </c>
     </row>
-    <row r="66" spans="12:21">
+    <row r="66" spans="12:21" x14ac:dyDescent="0.25">
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="12:21">
+    <row r="67" spans="12:21" x14ac:dyDescent="0.25">
       <c r="L67">
         <v>8400</v>
       </c>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="12:21">
+    <row r="68" spans="12:21" x14ac:dyDescent="0.25">
       <c r="O68" s="3"/>
     </row>
   </sheetData>
@@ -4835,16 +4883,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:X208"/>
   <sheetViews>
     <sheetView topLeftCell="E111" workbookViewId="0">
       <selection activeCell="R133" sqref="R133"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:24">
+    <row r="1" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
@@ -4869,7 +4917,7 @@
       <c r="W1" s="17"/>
       <c r="X1" s="17"/>
     </row>
-    <row r="2" spans="2:24">
+    <row r="2" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
@@ -4887,16 +4935,16 @@
       <c r="P2" s="17"/>
       <c r="Q2" s="17"/>
       <c r="R2" s="17"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47" t="s">
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="51" t="s">
         <v>230</v>
       </c>
-      <c r="W2" s="47"/>
+      <c r="W2" s="51"/>
       <c r="X2" s="17"/>
     </row>
-    <row r="3" spans="2:24">
+    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
@@ -4915,48 +4963,48 @@
       <c r="Q3" s="17"/>
       <c r="R3" s="17"/>
       <c r="S3" s="17"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="50"/>
-      <c r="V3" s="50"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="58"/>
+      <c r="V3" s="58"/>
       <c r="W3" s="17"/>
       <c r="X3" s="17"/>
     </row>
-    <row r="4" spans="2:24">
+    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B4" s="17"/>
       <c r="S4" t="s">
         <v>249</v>
       </c>
-      <c r="T4" s="47" t="s">
+      <c r="T4" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="U4" s="47"/>
-      <c r="V4" s="47"/>
+      <c r="U4" s="51"/>
+      <c r="V4" s="51"/>
       <c r="X4" s="17"/>
     </row>
-    <row r="5" spans="2:24">
+    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B5" s="17"/>
       <c r="X5" s="17"/>
     </row>
-    <row r="6" spans="2:24">
+    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B6" s="17"/>
       <c r="X6" s="17"/>
     </row>
-    <row r="7" spans="2:24">
+    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B7" s="17"/>
       <c r="R7" t="s">
         <v>335</v>
       </c>
-      <c r="T7" s="47" t="s">
+      <c r="T7" s="51" t="s">
         <v>232</v>
       </c>
-      <c r="U7" s="47"/>
+      <c r="U7" s="51"/>
       <c r="X7" s="17"/>
     </row>
-    <row r="8" spans="2:24">
+    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B8" s="17"/>
       <c r="X8" s="17"/>
     </row>
-    <row r="9" spans="2:24">
+    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B9" s="17"/>
       <c r="L9" t="s">
         <v>240</v>
@@ -4967,14 +5015,14 @@
       <c r="R9">
         <v>9380</v>
       </c>
-      <c r="S9" s="47" t="s">
+      <c r="S9" s="51" t="s">
         <v>233</v>
       </c>
-      <c r="T9" s="47"/>
-      <c r="U9" s="47"/>
+      <c r="T9" s="51"/>
+      <c r="U9" s="51"/>
       <c r="X9" s="17"/>
     </row>
-    <row r="10" spans="2:24">
+    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B10" s="17"/>
       <c r="L10" t="s">
         <v>241</v>
@@ -4984,7 +5032,7 @@
       </c>
       <c r="X10" s="17"/>
     </row>
-    <row r="11" spans="2:24">
+    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B11" s="17"/>
       <c r="L11" t="s">
         <v>242</v>
@@ -5009,7 +5057,7 @@
       </c>
       <c r="X11" s="17"/>
     </row>
-    <row r="12" spans="2:24">
+    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B12" s="17"/>
       <c r="K12" t="s">
         <v>243</v>
@@ -5028,18 +5076,18 @@
       </c>
       <c r="X12" s="17"/>
     </row>
-    <row r="13" spans="2:24">
+    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B13" s="17"/>
       <c r="X13" s="17"/>
     </row>
-    <row r="14" spans="2:24">
+    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B14" s="17"/>
       <c r="V14" s="3">
         <v>17890</v>
       </c>
       <c r="X14" s="17"/>
     </row>
-    <row r="15" spans="2:24">
+    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B15" s="17"/>
       <c r="V15">
         <v>9380</v>
@@ -5049,7 +5097,7 @@
       </c>
       <c r="X15" s="17"/>
     </row>
-    <row r="16" spans="2:24">
+    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B16" s="17"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -5060,7 +5108,7 @@
       <c r="W16" s="5"/>
       <c r="X16" s="17"/>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B17" s="17"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -5071,7 +5119,7 @@
       </c>
       <c r="X17" s="17"/>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B18" s="17"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -5091,7 +5139,7 @@
       </c>
       <c r="X18" s="17"/>
     </row>
-    <row r="19" spans="1:24">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B19" s="17"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -5102,7 +5150,7 @@
       </c>
       <c r="X19" s="17"/>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B20" s="17"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -5118,7 +5166,7 @@
       </c>
       <c r="X20" s="17"/>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B21" s="17"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -5128,7 +5176,7 @@
       <c r="L21" s="3"/>
       <c r="X21" s="17"/>
     </row>
-    <row r="22" spans="1:24">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B22" s="17"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -5138,7 +5186,7 @@
       <c r="L22" s="3"/>
       <c r="X22" s="17"/>
     </row>
-    <row r="23" spans="1:24">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B23" s="17"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -5148,7 +5196,7 @@
       <c r="L23" s="3"/>
       <c r="X23" s="17"/>
     </row>
-    <row r="24" spans="1:24">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B24" s="17"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -5158,18 +5206,18 @@
       <c r="L24" s="3"/>
       <c r="X24" s="17"/>
     </row>
-    <row r="25" spans="1:24">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B25" s="17"/>
       <c r="R25" s="10">
         <v>44013</v>
       </c>
       <c r="X25" s="17"/>
     </row>
-    <row r="26" spans="1:24">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B26" s="17"/>
       <c r="X26" s="17"/>
     </row>
-    <row r="27" spans="1:24">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="17"/>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
@@ -5195,7 +5243,7 @@
       <c r="W27" s="17"/>
       <c r="X27" s="17"/>
     </row>
-    <row r="28" spans="1:24">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="17"/>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
@@ -5221,7 +5269,7 @@
       <c r="W28" s="17"/>
       <c r="X28" s="17"/>
     </row>
-    <row r="29" spans="1:24">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="17"/>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
@@ -5247,7 +5295,7 @@
       <c r="W29" s="17"/>
       <c r="X29" s="17"/>
     </row>
-    <row r="30" spans="1:24">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
@@ -5263,17 +5311,17 @@
       <c r="M30" s="17"/>
       <c r="N30" s="17"/>
       <c r="O30" s="17"/>
-      <c r="P30" s="47" t="s">
+      <c r="P30" s="51" t="s">
         <v>255</v>
       </c>
-      <c r="Q30" s="47"/>
-      <c r="R30" s="47"/>
+      <c r="Q30" s="51"/>
+      <c r="R30" s="51"/>
       <c r="S30" s="17"/>
       <c r="T30" s="17"/>
       <c r="U30" s="17"/>
       <c r="V30" s="17"/>
     </row>
-    <row r="31" spans="1:24">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="17"/>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
@@ -5297,18 +5345,18 @@
       <c r="U31" s="17"/>
       <c r="V31" s="17"/>
     </row>
-    <row r="32" spans="1:24">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="17"/>
       <c r="I32" t="s">
         <v>253</v>
       </c>
       <c r="V32" s="17"/>
     </row>
-    <row r="33" spans="1:22">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="17"/>
       <c r="V33" s="17"/>
     </row>
-    <row r="34" spans="1:22">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="17"/>
       <c r="B34" t="s">
         <v>174</v>
@@ -5341,7 +5389,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="35" spans="1:22">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="17"/>
       <c r="B35" t="s">
         <v>174</v>
@@ -5372,7 +5420,7 @@
       </c>
       <c r="V35" s="16"/>
     </row>
-    <row r="36" spans="1:22">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="17"/>
       <c r="B36" t="s">
         <v>174</v>
@@ -5394,11 +5442,11 @@
       </c>
       <c r="V36" s="16"/>
     </row>
-    <row r="37" spans="1:22">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="17"/>
       <c r="V37" s="16"/>
     </row>
-    <row r="38" spans="1:22">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="17"/>
       <c r="C38" t="s">
         <v>254</v>
@@ -5419,7 +5467,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="39" spans="1:22">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="17"/>
       <c r="K39">
         <v>250</v>
@@ -5438,7 +5486,7 @@
       </c>
       <c r="V39" s="16"/>
     </row>
-    <row r="40" spans="1:22">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="17"/>
       <c r="B40" t="s">
         <v>333</v>
@@ -5448,11 +5496,11 @@
       </c>
       <c r="V40" s="16"/>
     </row>
-    <row r="41" spans="1:22">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="17"/>
       <c r="V41" s="16"/>
     </row>
-    <row r="42" spans="1:22">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="17"/>
       <c r="G42" t="s">
         <v>346</v>
@@ -5468,13 +5516,13 @@
       </c>
       <c r="V42" s="16"/>
     </row>
-    <row r="43" spans="1:22">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="17"/>
       <c r="V43" s="16" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="44" spans="1:22">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="17"/>
       <c r="I44" t="s">
         <v>269</v>
@@ -5493,7 +5541,7 @@
       </c>
       <c r="V44" s="17"/>
     </row>
-    <row r="45" spans="1:22">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="17"/>
       <c r="Q45" t="s">
         <v>174</v>
@@ -5506,19 +5554,19 @@
       </c>
       <c r="V45" s="17"/>
     </row>
-    <row r="46" spans="1:22">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="17"/>
       <c r="F46" s="26"/>
       <c r="G46" s="27"/>
       <c r="H46" s="27"/>
-      <c r="I46" s="48" t="s">
+      <c r="I46" s="55" t="s">
         <v>256</v>
       </c>
-      <c r="J46" s="48"/>
-      <c r="K46" s="49"/>
+      <c r="J46" s="55"/>
+      <c r="K46" s="56"/>
       <c r="V46" s="17"/>
     </row>
-    <row r="47" spans="1:22">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="17"/>
       <c r="F47" s="28"/>
       <c r="G47" s="19"/>
@@ -5528,7 +5576,7 @@
       <c r="K47" s="29"/>
       <c r="V47" s="17"/>
     </row>
-    <row r="48" spans="1:22">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="17"/>
       <c r="F48" s="28"/>
       <c r="G48" s="19" t="s">
@@ -5544,7 +5592,7 @@
       </c>
       <c r="V48" s="17"/>
     </row>
-    <row r="49" spans="1:22">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="17"/>
       <c r="F49" s="28"/>
       <c r="G49" s="19" t="s">
@@ -5560,7 +5608,7 @@
       </c>
       <c r="V49" s="17"/>
     </row>
-    <row r="50" spans="1:22">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="17"/>
       <c r="F50" s="30"/>
       <c r="G50" s="20" t="s">
@@ -5576,7 +5624,7 @@
       </c>
       <c r="V50" s="17"/>
     </row>
-    <row r="51" spans="1:22">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="17"/>
       <c r="R51" s="33" t="s">
         <v>329</v>
@@ -5585,42 +5633,42 @@
       <c r="T51" s="33"/>
       <c r="U51" s="33"/>
     </row>
-    <row r="52" spans="1:22">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="17"/>
-      <c r="Q52" s="47" t="s">
+      <c r="Q52" s="51" t="s">
         <v>330</v>
       </c>
-      <c r="R52" s="47"/>
-      <c r="S52" s="47"/>
-      <c r="T52" s="47"/>
-      <c r="U52" s="47"/>
-      <c r="V52" s="47"/>
-    </row>
-    <row r="53" spans="1:22">
+      <c r="R52" s="51"/>
+      <c r="S52" s="51"/>
+      <c r="T52" s="51"/>
+      <c r="U52" s="51"/>
+      <c r="V52" s="51"/>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="17"/>
-      <c r="Q53" s="47" t="s">
+      <c r="Q53" s="51" t="s">
         <v>331</v>
       </c>
-      <c r="R53" s="47"/>
-      <c r="S53" s="47"/>
-      <c r="T53" s="47"/>
-      <c r="U53" s="47"/>
+      <c r="R53" s="51"/>
+      <c r="S53" s="51"/>
+      <c r="T53" s="51"/>
+      <c r="U53" s="51"/>
       <c r="V53" s="17"/>
     </row>
-    <row r="54" spans="1:22">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="17"/>
       <c r="F54" s="21"/>
       <c r="V54" s="17"/>
     </row>
-    <row r="55" spans="1:22">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="17"/>
       <c r="V55" s="17"/>
     </row>
-    <row r="56" spans="1:22">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" s="17"/>
       <c r="V56" s="17"/>
     </row>
-    <row r="57" spans="1:22">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" s="17"/>
       <c r="F57" s="21"/>
       <c r="G57" s="21"/>
@@ -5634,7 +5682,7 @@
       <c r="M57" s="21"/>
       <c r="V57" s="17"/>
     </row>
-    <row r="58" spans="1:22">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" s="17"/>
       <c r="F58" s="21"/>
       <c r="G58" s="21"/>
@@ -5646,7 +5694,7 @@
       <c r="M58" s="21"/>
       <c r="V58" s="17"/>
     </row>
-    <row r="59" spans="1:22">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" s="17"/>
       <c r="F59" s="21"/>
       <c r="G59" s="21"/>
@@ -5666,7 +5714,7 @@
       <c r="U59" s="18"/>
       <c r="V59" s="17"/>
     </row>
-    <row r="60" spans="1:22">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" s="17"/>
       <c r="F60" s="21"/>
       <c r="G60" s="21"/>
@@ -5690,7 +5738,7 @@
       <c r="U60" s="18"/>
       <c r="V60" s="17"/>
     </row>
-    <row r="61" spans="1:22">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61" s="17"/>
       <c r="F61" s="21"/>
       <c r="G61" s="21"/>
@@ -5714,7 +5762,7 @@
       <c r="U61" s="18"/>
       <c r="V61" s="17"/>
     </row>
-    <row r="62" spans="1:22">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62" s="17"/>
       <c r="F62" s="21"/>
       <c r="G62" s="21"/>
@@ -5738,7 +5786,7 @@
       <c r="U62" s="18"/>
       <c r="V62" s="17"/>
     </row>
-    <row r="63" spans="1:22">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" s="17"/>
       <c r="F63" s="21"/>
       <c r="G63" s="21"/>
@@ -5758,7 +5806,7 @@
       <c r="U63" s="18"/>
       <c r="V63" s="17"/>
     </row>
-    <row r="64" spans="1:22">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64" s="17"/>
       <c r="F64" s="21"/>
       <c r="G64" s="21"/>
@@ -5780,7 +5828,7 @@
       <c r="U64" s="18"/>
       <c r="V64" s="17"/>
     </row>
-    <row r="65" spans="1:22">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" s="17"/>
       <c r="F65" s="21"/>
       <c r="G65" s="21"/>
@@ -5798,7 +5846,7 @@
       <c r="U65" s="18"/>
       <c r="V65" s="17"/>
     </row>
-    <row r="66" spans="1:22">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" s="17"/>
       <c r="F66" s="21"/>
       <c r="G66" s="21"/>
@@ -5818,7 +5866,7 @@
       <c r="U66" s="18"/>
       <c r="V66" s="17"/>
     </row>
-    <row r="67" spans="1:22">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" s="17"/>
       <c r="F67" s="21"/>
       <c r="G67" s="21"/>
@@ -5840,7 +5888,7 @@
       <c r="U67" s="18"/>
       <c r="V67" s="17"/>
     </row>
-    <row r="68" spans="1:22">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" s="17"/>
       <c r="F68" s="21"/>
       <c r="G68" s="21"/>
@@ -5858,7 +5906,7 @@
       <c r="U68" s="18"/>
       <c r="V68" s="17"/>
     </row>
-    <row r="69" spans="1:22">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69" s="17"/>
       <c r="F69" s="21"/>
       <c r="G69" s="21"/>
@@ -5878,7 +5926,7 @@
       <c r="U69" s="18"/>
       <c r="V69" s="17"/>
     </row>
-    <row r="70" spans="1:22">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70" s="17"/>
       <c r="E70" t="s">
         <v>294</v>
@@ -5903,7 +5951,7 @@
       <c r="U70" s="18"/>
       <c r="V70" s="17"/>
     </row>
-    <row r="71" spans="1:22">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71" s="17"/>
       <c r="F71" s="21"/>
       <c r="G71" s="21"/>
@@ -5921,7 +5969,7 @@
       <c r="U71" s="18"/>
       <c r="V71" s="17"/>
     </row>
-    <row r="72" spans="1:22">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" s="17"/>
       <c r="F72" s="21"/>
       <c r="G72" s="21"/>
@@ -5937,7 +5985,7 @@
       <c r="M72" s="21"/>
       <c r="V72" s="17"/>
     </row>
-    <row r="73" spans="1:22">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73" s="17"/>
       <c r="F73" s="21"/>
       <c r="G73" s="21"/>
@@ -5949,11 +5997,11 @@
       <c r="M73" s="21"/>
       <c r="V73" s="17"/>
     </row>
-    <row r="74" spans="1:22">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" s="17"/>
       <c r="V74" s="17"/>
     </row>
-    <row r="75" spans="1:22">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B75" s="17"/>
       <c r="C75" s="17"/>
       <c r="D75" s="17"/>
@@ -5976,7 +6024,7 @@
       <c r="U75" s="17"/>
       <c r="V75" s="17"/>
     </row>
-    <row r="76" spans="1:22">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B76" s="17"/>
       <c r="C76" s="17"/>
       <c r="D76" s="17"/>
@@ -5999,7 +6047,7 @@
       <c r="U76" s="17"/>
       <c r="V76" s="17"/>
     </row>
-    <row r="77" spans="1:22">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B77" s="17"/>
       <c r="J77" s="17"/>
       <c r="K77" s="17"/>
@@ -6011,23 +6059,23 @@
       <c r="U77" s="17"/>
       <c r="V77" s="17"/>
     </row>
-    <row r="78" spans="1:22">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B78" s="17"/>
       <c r="J78" s="17"/>
-      <c r="K78" s="47" t="s">
+      <c r="K78" s="51" t="s">
         <v>276</v>
       </c>
-      <c r="L78" s="47"/>
-      <c r="M78" s="47"/>
+      <c r="L78" s="51"/>
+      <c r="M78" s="51"/>
       <c r="N78" s="17"/>
       <c r="S78" s="17"/>
-      <c r="T78" s="47" t="s">
+      <c r="T78" s="51" t="s">
         <v>275</v>
       </c>
-      <c r="U78" s="47"/>
+      <c r="U78" s="51"/>
       <c r="V78" s="17"/>
     </row>
-    <row r="79" spans="1:22">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B79" s="17"/>
       <c r="J79" s="17"/>
       <c r="K79" s="17"/>
@@ -6039,7 +6087,7 @@
       <c r="U79" s="17"/>
       <c r="V79" s="17"/>
     </row>
-    <row r="80" spans="1:22">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B80" s="17"/>
       <c r="K80">
         <v>91000</v>
@@ -6055,7 +6103,7 @@
       </c>
       <c r="V80" s="17"/>
     </row>
-    <row r="81" spans="2:22">
+    <row r="81" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B81" s="17"/>
       <c r="K81">
         <v>7930</v>
@@ -6071,7 +6119,7 @@
       </c>
       <c r="V81" s="17"/>
     </row>
-    <row r="82" spans="2:22">
+    <row r="82" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B82" s="17"/>
       <c r="K82">
         <v>27760</v>
@@ -6087,7 +6135,7 @@
       </c>
       <c r="V82" s="17"/>
     </row>
-    <row r="83" spans="2:22">
+    <row r="83" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B83" s="17"/>
       <c r="K83">
         <v>39650</v>
@@ -6103,7 +6151,7 @@
       </c>
       <c r="V83" s="17"/>
     </row>
-    <row r="84" spans="2:22">
+    <row r="84" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B84" s="17"/>
       <c r="K84">
         <v>4785</v>
@@ -6119,7 +6167,7 @@
       </c>
       <c r="V84" s="17"/>
     </row>
-    <row r="85" spans="2:22">
+    <row r="85" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B85" s="17"/>
       <c r="K85">
         <v>17470</v>
@@ -6135,7 +6183,7 @@
       </c>
       <c r="V85" s="17"/>
     </row>
-    <row r="86" spans="2:22">
+    <row r="86" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B86" s="17"/>
       <c r="K86">
         <v>600</v>
@@ -6145,15 +6193,15 @@
       </c>
       <c r="V86" s="17"/>
     </row>
-    <row r="87" spans="2:22">
+    <row r="87" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B87" s="17"/>
       <c r="V87" s="17"/>
     </row>
-    <row r="88" spans="2:22">
+    <row r="88" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B88" s="17"/>
       <c r="V88" s="17"/>
     </row>
-    <row r="89" spans="2:22">
+    <row r="89" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B89" s="17"/>
       <c r="K89">
         <v>189195</v>
@@ -6166,7 +6214,7 @@
       </c>
       <c r="V89" s="17"/>
     </row>
-    <row r="90" spans="2:22">
+    <row r="90" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B90" s="17"/>
       <c r="T90">
         <v>200</v>
@@ -6176,22 +6224,22 @@
       </c>
       <c r="V90" s="17"/>
     </row>
-    <row r="91" spans="2:22">
+    <row r="91" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B91" s="17"/>
       <c r="V91" s="17"/>
     </row>
-    <row r="92" spans="2:22">
+    <row r="92" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B92" s="17"/>
       <c r="V92" s="17"/>
     </row>
-    <row r="93" spans="2:22">
+    <row r="93" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B93" s="17"/>
       <c r="U93" t="s">
         <v>282</v>
       </c>
       <c r="V93" s="17"/>
     </row>
-    <row r="94" spans="2:22">
+    <row r="94" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B94" s="17"/>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
@@ -6205,7 +6253,7 @@
       </c>
       <c r="V94" s="17"/>
     </row>
-    <row r="95" spans="2:22">
+    <row r="95" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B95" s="17"/>
       <c r="S95" t="s">
         <v>287</v>
@@ -6218,7 +6266,7 @@
       </c>
       <c r="V95" s="17"/>
     </row>
-    <row r="96" spans="2:22">
+    <row r="96" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B96" s="17"/>
       <c r="S96" t="s">
         <v>288</v>
@@ -6231,7 +6279,7 @@
       </c>
       <c r="V96" s="17"/>
     </row>
-    <row r="97" spans="2:22">
+    <row r="97" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B97" s="17"/>
       <c r="S97" t="s">
         <v>148</v>
@@ -6244,14 +6292,14 @@
       </c>
       <c r="V97" s="17"/>
     </row>
-    <row r="98" spans="2:22" ht="15" thickBot="1">
+    <row r="98" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B98" s="17"/>
       <c r="T98">
         <v>185350</v>
       </c>
       <c r="V98" s="17"/>
     </row>
-    <row r="99" spans="2:22" ht="15.6" thickTop="1" thickBot="1">
+    <row r="99" spans="2:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B99" s="17"/>
       <c r="J99" t="s">
         <v>293</v>
@@ -6273,15 +6321,15 @@
       </c>
       <c r="V99" s="17"/>
     </row>
-    <row r="100" spans="2:22" ht="15" thickTop="1">
+    <row r="100" spans="2:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B100" s="17"/>
       <c r="V100" s="17"/>
     </row>
-    <row r="101" spans="2:22">
+    <row r="101" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B101" s="17"/>
       <c r="V101" s="17"/>
     </row>
-    <row r="102" spans="2:22">
+    <row r="102" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B102" s="17"/>
       <c r="C102" s="17"/>
       <c r="D102" s="17"/>
@@ -6304,7 +6352,7 @@
       <c r="U102" s="17"/>
       <c r="V102" s="17"/>
     </row>
-    <row r="103" spans="2:22">
+    <row r="103" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B103" s="17"/>
       <c r="C103" s="17"/>
       <c r="D103" s="17"/>
@@ -6327,7 +6375,7 @@
       <c r="U103" s="17"/>
       <c r="V103" s="17"/>
     </row>
-    <row r="104" spans="2:22">
+    <row r="104" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B104" s="17"/>
       <c r="R104" s="17"/>
       <c r="S104" s="17"/>
@@ -6335,17 +6383,17 @@
       <c r="U104" s="17"/>
       <c r="V104" s="17"/>
     </row>
-    <row r="105" spans="2:22">
+    <row r="105" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B105" s="17"/>
       <c r="R105" s="17"/>
-      <c r="S105" s="46" t="s">
+      <c r="S105" s="50" t="s">
         <v>296</v>
       </c>
-      <c r="T105" s="46"/>
+      <c r="T105" s="50"/>
       <c r="U105" s="17"/>
       <c r="V105" s="17"/>
     </row>
-    <row r="106" spans="2:22">
+    <row r="106" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B106" s="17"/>
       <c r="R106" s="17"/>
       <c r="S106" s="17"/>
@@ -6353,29 +6401,29 @@
       <c r="U106" s="17"/>
       <c r="V106" s="17"/>
     </row>
-    <row r="107" spans="2:22">
+    <row r="107" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B107" s="17"/>
       <c r="V107" s="17"/>
     </row>
-    <row r="108" spans="2:22">
+    <row r="108" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B108" s="17"/>
       <c r="V108" s="17"/>
     </row>
-    <row r="109" spans="2:22">
+    <row r="109" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B109" s="17"/>
-      <c r="S109" s="47"/>
-      <c r="T109" s="47"/>
-      <c r="U109" s="47"/>
+      <c r="S109" s="51"/>
+      <c r="T109" s="51"/>
+      <c r="U109" s="51"/>
       <c r="V109" s="17"/>
     </row>
-    <row r="110" spans="2:22">
+    <row r="110" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B110" s="17"/>
       <c r="Q110" s="6"/>
       <c r="S110" s="37"/>
       <c r="U110" s="3"/>
       <c r="V110" s="17"/>
     </row>
-    <row r="111" spans="2:22">
+    <row r="111" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B111" s="17"/>
       <c r="E111" s="9"/>
       <c r="Q111" s="6"/>
@@ -6383,7 +6431,7 @@
       <c r="U111" s="3"/>
       <c r="V111" s="17"/>
     </row>
-    <row r="112" spans="2:22">
+    <row r="112" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B112" s="17"/>
       <c r="E112" s="9"/>
       <c r="Q112" s="6"/>
@@ -6391,7 +6439,7 @@
       <c r="U112" s="3"/>
       <c r="V112" s="17"/>
     </row>
-    <row r="113" spans="2:22">
+    <row r="113" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B113" s="17"/>
       <c r="E113" s="9"/>
       <c r="Q113" s="6"/>
@@ -6399,7 +6447,7 @@
       <c r="U113" s="3"/>
       <c r="V113" s="17"/>
     </row>
-    <row r="114" spans="2:22">
+    <row r="114" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B114" s="17"/>
       <c r="E114" s="9"/>
       <c r="Q114" s="6"/>
@@ -6407,7 +6455,7 @@
       <c r="U114" s="3"/>
       <c r="V114" s="17"/>
     </row>
-    <row r="115" spans="2:22">
+    <row r="115" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B115" s="17"/>
       <c r="E115" s="9"/>
       <c r="Q115" s="6"/>
@@ -6415,7 +6463,7 @@
       <c r="U115" s="3"/>
       <c r="V115" s="17"/>
     </row>
-    <row r="116" spans="2:22">
+    <row r="116" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B116" s="17"/>
       <c r="E116" s="9"/>
       <c r="Q116" s="6"/>
@@ -6423,7 +6471,7 @@
       <c r="U116" s="3"/>
       <c r="V116" s="17"/>
     </row>
-    <row r="117" spans="2:22">
+    <row r="117" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B117" s="17"/>
       <c r="E117" s="9"/>
       <c r="Q117" s="6"/>
@@ -6431,7 +6479,7 @@
       <c r="U117" s="3"/>
       <c r="V117" s="17"/>
     </row>
-    <row r="118" spans="2:22">
+    <row r="118" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B118" s="17"/>
       <c r="E118" s="9"/>
       <c r="Q118" s="6"/>
@@ -6439,7 +6487,7 @@
       <c r="U118" s="3"/>
       <c r="V118" s="17"/>
     </row>
-    <row r="119" spans="2:22">
+    <row r="119" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B119" s="17"/>
       <c r="E119" s="9"/>
       <c r="Q119" s="6"/>
@@ -6447,7 +6495,7 @@
       <c r="U119" s="3"/>
       <c r="V119" s="17"/>
     </row>
-    <row r="120" spans="2:22">
+    <row r="120" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B120" s="17"/>
       <c r="E120" s="9"/>
       <c r="Q120" s="6"/>
@@ -6455,7 +6503,7 @@
       <c r="U120" s="3"/>
       <c r="V120" s="17"/>
     </row>
-    <row r="121" spans="2:22">
+    <row r="121" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B121" s="17"/>
       <c r="E121" s="9"/>
       <c r="Q121" s="6"/>
@@ -6463,7 +6511,7 @@
       <c r="U121" s="3"/>
       <c r="V121" s="17"/>
     </row>
-    <row r="122" spans="2:22">
+    <row r="122" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B122" s="17"/>
       <c r="E122" s="9"/>
       <c r="Q122" s="6"/>
@@ -6471,7 +6519,7 @@
       <c r="U122" s="3"/>
       <c r="V122" s="17"/>
     </row>
-    <row r="123" spans="2:22">
+    <row r="123" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B123" s="17"/>
       <c r="E123" s="9"/>
       <c r="Q123" s="6"/>
@@ -6479,7 +6527,7 @@
       <c r="U123" s="3"/>
       <c r="V123" s="17"/>
     </row>
-    <row r="124" spans="2:22">
+    <row r="124" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B124" s="17"/>
       <c r="E124" s="9"/>
       <c r="Q124" s="6"/>
@@ -6487,7 +6535,7 @@
       <c r="U124" s="3"/>
       <c r="V124" s="17"/>
     </row>
-    <row r="125" spans="2:22">
+    <row r="125" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B125" s="17"/>
       <c r="E125" s="9"/>
       <c r="Q125" s="6"/>
@@ -6495,7 +6543,7 @@
       <c r="U125" s="3"/>
       <c r="V125" s="17"/>
     </row>
-    <row r="126" spans="2:22">
+    <row r="126" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B126" s="17"/>
       <c r="E126" s="9"/>
       <c r="Q126" s="6"/>
@@ -6503,7 +6551,7 @@
       <c r="U126" s="3"/>
       <c r="V126" s="17"/>
     </row>
-    <row r="127" spans="2:22">
+    <row r="127" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B127" s="17"/>
       <c r="E127" s="9"/>
       <c r="Q127" s="6"/>
@@ -6511,7 +6559,7 @@
       <c r="U127" s="3"/>
       <c r="V127" s="17"/>
     </row>
-    <row r="128" spans="2:22">
+    <row r="128" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B128" s="17"/>
       <c r="E128" s="9"/>
       <c r="Q128" s="6"/>
@@ -6519,141 +6567,141 @@
       <c r="U128" s="3"/>
       <c r="V128" s="17"/>
     </row>
-    <row r="129" spans="2:22">
+    <row r="129" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B129" s="17"/>
       <c r="E129" s="9"/>
       <c r="V129" s="17"/>
     </row>
-    <row r="130" spans="2:22">
+    <row r="130" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B130" s="17"/>
       <c r="V130" s="17"/>
     </row>
-    <row r="131" spans="2:22">
+    <row r="131" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B131" s="17"/>
       <c r="V131" s="17"/>
     </row>
-    <row r="132" spans="2:22">
+    <row r="132" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B132" s="17"/>
       <c r="V132" s="17"/>
     </row>
-    <row r="133" spans="2:22">
+    <row r="133" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B133" s="17"/>
       <c r="V133" s="17"/>
     </row>
-    <row r="134" spans="2:22">
+    <row r="134" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B134" s="17"/>
       <c r="V134" s="17"/>
     </row>
-    <row r="135" spans="2:22">
+    <row r="135" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B135" s="17"/>
       <c r="V135" s="17"/>
     </row>
-    <row r="136" spans="2:22">
+    <row r="136" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B136" s="17"/>
       <c r="R136" t="s">
         <v>385</v>
       </c>
       <c r="V136" s="17"/>
     </row>
-    <row r="137" spans="2:22">
+    <row r="137" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B137" s="17"/>
       <c r="V137" s="17"/>
     </row>
-    <row r="138" spans="2:22">
+    <row r="138" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B138" s="17"/>
       <c r="V138" s="17"/>
     </row>
-    <row r="139" spans="2:22">
+    <row r="139" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B139" s="17"/>
       <c r="V139" s="17"/>
     </row>
-    <row r="140" spans="2:22">
+    <row r="140" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B140" s="17"/>
       <c r="V140" s="17"/>
     </row>
-    <row r="141" spans="2:22">
+    <row r="141" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B141" s="17"/>
       <c r="V141" s="17"/>
     </row>
-    <row r="142" spans="2:22">
+    <row r="142" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B142" s="17"/>
       <c r="V142" s="17"/>
     </row>
-    <row r="143" spans="2:22">
+    <row r="143" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B143" s="17"/>
       <c r="V143" s="17"/>
     </row>
-    <row r="144" spans="2:22">
+    <row r="144" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B144" s="17"/>
       <c r="V144" s="17"/>
     </row>
-    <row r="145" spans="2:22">
+    <row r="145" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B145" s="17"/>
       <c r="V145" s="17"/>
     </row>
-    <row r="146" spans="2:22">
+    <row r="146" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B146" s="17"/>
       <c r="V146" s="17"/>
     </row>
-    <row r="147" spans="2:22">
+    <row r="147" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B147" s="17"/>
       <c r="V147" s="17"/>
     </row>
-    <row r="148" spans="2:22">
+    <row r="148" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B148" s="17"/>
       <c r="V148" s="17"/>
     </row>
-    <row r="149" spans="2:22">
+    <row r="149" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B149" s="17"/>
       <c r="V149" s="17"/>
     </row>
-    <row r="150" spans="2:22">
+    <row r="150" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B150" s="17"/>
       <c r="V150" s="17"/>
     </row>
-    <row r="151" spans="2:22">
+    <row r="151" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B151" s="17"/>
       <c r="V151" s="17"/>
     </row>
-    <row r="152" spans="2:22">
+    <row r="152" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B152" s="17"/>
       <c r="V152" s="17"/>
     </row>
-    <row r="153" spans="2:22">
+    <row r="153" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B153" s="17"/>
       <c r="V153" s="17"/>
     </row>
-    <row r="154" spans="2:22">
+    <row r="154" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B154" s="17"/>
-      <c r="E154" s="53" t="s">
+      <c r="E154" s="54" t="s">
         <v>297</v>
       </c>
-      <c r="F154" s="48"/>
-      <c r="G154" s="48"/>
-      <c r="H154" s="48"/>
-      <c r="I154" s="48"/>
-      <c r="J154" s="48"/>
-      <c r="K154" s="49"/>
+      <c r="F154" s="55"/>
+      <c r="G154" s="55"/>
+      <c r="H154" s="55"/>
+      <c r="I154" s="55"/>
+      <c r="J154" s="55"/>
+      <c r="K154" s="56"/>
       <c r="Q154" s="5" t="s">
         <v>304</v>
       </c>
       <c r="V154" s="17"/>
     </row>
-    <row r="155" spans="2:22">
+    <row r="155" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B155" s="17"/>
-      <c r="E155" s="54"/>
-      <c r="F155" s="51"/>
-      <c r="G155" s="51"/>
-      <c r="H155" s="51"/>
-      <c r="I155" s="51"/>
-      <c r="J155" s="51"/>
-      <c r="K155" s="52"/>
+      <c r="E155" s="57"/>
+      <c r="F155" s="52"/>
+      <c r="G155" s="52"/>
+      <c r="H155" s="52"/>
+      <c r="I155" s="52"/>
+      <c r="J155" s="52"/>
+      <c r="K155" s="53"/>
       <c r="Q155" s="5" t="s">
         <v>305</v>
       </c>
       <c r="V155" s="17"/>
     </row>
-    <row r="156" spans="2:22">
+    <row r="156" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B156" s="17"/>
       <c r="E156" s="28"/>
       <c r="F156" s="19"/>
@@ -6678,7 +6726,7 @@
       </c>
       <c r="V156" s="17"/>
     </row>
-    <row r="157" spans="2:22">
+    <row r="157" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B157" s="17"/>
       <c r="E157" s="28"/>
       <c r="F157" s="19"/>
@@ -6699,7 +6747,7 @@
       </c>
       <c r="V157" s="17"/>
     </row>
-    <row r="158" spans="2:22">
+    <row r="158" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B158" s="17"/>
       <c r="E158" s="28"/>
       <c r="F158" s="19"/>
@@ -6707,11 +6755,11 @@
         <v>313</v>
       </c>
       <c r="H158" s="19"/>
-      <c r="I158" s="51" t="s">
+      <c r="I158" s="52" t="s">
         <v>321</v>
       </c>
-      <c r="J158" s="51"/>
-      <c r="K158" s="52"/>
+      <c r="J158" s="52"/>
+      <c r="K158" s="53"/>
       <c r="R158">
         <v>200</v>
       </c>
@@ -6720,7 +6768,7 @@
       </c>
       <c r="V158" s="17"/>
     </row>
-    <row r="159" spans="2:22">
+    <row r="159" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B159" s="17"/>
       <c r="E159" s="28"/>
       <c r="F159" s="19"/>
@@ -6739,7 +6787,7 @@
       </c>
       <c r="V159" s="17"/>
     </row>
-    <row r="160" spans="2:22">
+    <row r="160" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B160" s="17"/>
       <c r="E160" s="28"/>
       <c r="F160" s="19"/>
@@ -6756,7 +6804,7 @@
       </c>
       <c r="V160" s="17"/>
     </row>
-    <row r="161" spans="2:22">
+    <row r="161" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B161" s="17"/>
       <c r="E161" s="28"/>
       <c r="F161" s="19"/>
@@ -6773,7 +6821,7 @@
       </c>
       <c r="V161" s="17"/>
     </row>
-    <row r="162" spans="2:22">
+    <row r="162" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B162" s="17"/>
       <c r="E162" s="28"/>
       <c r="F162" s="19"/>
@@ -6781,14 +6829,14 @@
         <v>313</v>
       </c>
       <c r="H162" s="19"/>
-      <c r="I162" s="51" t="s">
+      <c r="I162" s="52" t="s">
         <v>323</v>
       </c>
-      <c r="J162" s="51"/>
-      <c r="K162" s="52"/>
+      <c r="J162" s="52"/>
+      <c r="K162" s="53"/>
       <c r="V162" s="17"/>
     </row>
-    <row r="163" spans="2:22">
+    <row r="163" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B163" s="17"/>
       <c r="E163" s="28"/>
       <c r="F163" s="19"/>
@@ -6804,7 +6852,7 @@
       </c>
       <c r="V163" s="17"/>
     </row>
-    <row r="164" spans="2:22">
+    <row r="164" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B164" s="17"/>
       <c r="E164" s="28"/>
       <c r="F164" s="38"/>
@@ -6823,7 +6871,7 @@
       </c>
       <c r="V164" s="17"/>
     </row>
-    <row r="165" spans="2:22">
+    <row r="165" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B165" s="17"/>
       <c r="E165" s="28"/>
       <c r="F165" s="19"/>
@@ -6834,7 +6882,7 @@
       <c r="K165" s="29"/>
       <c r="V165" s="17"/>
     </row>
-    <row r="166" spans="2:22">
+    <row r="166" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B166" s="17"/>
       <c r="E166" s="28"/>
       <c r="F166" s="19"/>
@@ -6851,7 +6899,7 @@
       </c>
       <c r="V166" s="17"/>
     </row>
-    <row r="167" spans="2:22">
+    <row r="167" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B167" s="17"/>
       <c r="E167" s="28"/>
       <c r="F167" s="19"/>
@@ -6868,7 +6916,7 @@
       </c>
       <c r="V167" s="17"/>
     </row>
-    <row r="168" spans="2:22">
+    <row r="168" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B168" s="17"/>
       <c r="E168" s="28"/>
       <c r="F168" s="19"/>
@@ -6885,7 +6933,7 @@
       </c>
       <c r="V168" s="17"/>
     </row>
-    <row r="169" spans="2:22">
+    <row r="169" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B169" s="17"/>
       <c r="E169" s="28"/>
       <c r="F169" s="19"/>
@@ -6896,7 +6944,7 @@
       <c r="K169" s="29"/>
       <c r="V169" s="17"/>
     </row>
-    <row r="170" spans="2:22">
+    <row r="170" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B170" s="17"/>
       <c r="E170" s="30"/>
       <c r="F170" s="20"/>
@@ -6907,11 +6955,11 @@
       <c r="K170" s="31"/>
       <c r="V170" s="17"/>
     </row>
-    <row r="171" spans="2:22">
+    <row r="171" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B171" s="17"/>
       <c r="V171" s="17"/>
     </row>
-    <row r="172" spans="2:22">
+    <row r="172" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B172" s="17"/>
       <c r="C172" s="17"/>
       <c r="D172" s="17"/>
@@ -6934,7 +6982,7 @@
       <c r="U172" s="17"/>
       <c r="V172" s="17"/>
     </row>
-    <row r="173" spans="2:22">
+    <row r="173" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B173" s="17"/>
       <c r="C173" s="17"/>
       <c r="D173" s="17"/>
@@ -6957,35 +7005,35 @@
       <c r="U173" s="17"/>
       <c r="V173" s="17"/>
     </row>
-    <row r="174" spans="2:22">
+    <row r="174" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B174" s="17"/>
       <c r="L174" s="32"/>
       <c r="V174" s="17"/>
     </row>
-    <row r="175" spans="2:22">
+    <row r="175" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B175" s="17"/>
       <c r="L175" s="32"/>
       <c r="V175" s="17"/>
     </row>
-    <row r="176" spans="2:22">
+    <row r="176" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B176" s="17"/>
       <c r="F176" t="s">
         <v>48</v>
       </c>
       <c r="L176" s="32"/>
-      <c r="Q176" s="47" t="s">
+      <c r="Q176" s="51" t="s">
         <v>312</v>
       </c>
-      <c r="R176" s="47"/>
-      <c r="S176" s="47"/>
+      <c r="R176" s="51"/>
+      <c r="S176" s="51"/>
       <c r="V176" s="17"/>
     </row>
-    <row r="177" spans="2:22">
+    <row r="177" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B177" s="17"/>
       <c r="L177" s="32"/>
       <c r="V177" s="17"/>
     </row>
-    <row r="178" spans="2:22">
+    <row r="178" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B178" s="17"/>
       <c r="I178" t="s">
         <v>313</v>
@@ -6996,7 +7044,7 @@
       </c>
       <c r="V178" s="17"/>
     </row>
-    <row r="179" spans="2:22">
+    <row r="179" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B179" s="17"/>
       <c r="I179" t="s">
         <v>314</v>
@@ -7007,7 +7055,7 @@
       </c>
       <c r="V179" s="17"/>
     </row>
-    <row r="180" spans="2:22">
+    <row r="180" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B180" s="17"/>
       <c r="I180" t="s">
         <v>316</v>
@@ -7016,22 +7064,22 @@
       <c r="O180" t="s">
         <v>319</v>
       </c>
-      <c r="Q180" s="47" t="s">
+      <c r="Q180" s="51" t="s">
         <v>318</v>
       </c>
-      <c r="R180" s="47"/>
+      <c r="R180" s="51"/>
       <c r="S180" t="s">
         <v>315</v>
       </c>
       <c r="V180" s="17"/>
     </row>
-    <row r="181" spans="2:22">
+    <row r="181" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B181" s="17"/>
-      <c r="F181" s="47" t="s">
+      <c r="F181" s="51" t="s">
         <v>317</v>
       </c>
-      <c r="G181" s="47"/>
-      <c r="H181" s="47"/>
+      <c r="G181" s="51"/>
+      <c r="H181" s="51"/>
       <c r="I181" t="s">
         <v>315</v>
       </c>
@@ -7041,52 +7089,52 @@
       </c>
       <c r="V181" s="17"/>
     </row>
-    <row r="182" spans="2:22">
+    <row r="182" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B182" s="17"/>
       <c r="L182" s="32"/>
       <c r="V182" s="17"/>
     </row>
-    <row r="183" spans="2:22">
+    <row r="183" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B183" s="17"/>
       <c r="L183" s="32"/>
       <c r="V183" s="17"/>
     </row>
-    <row r="184" spans="2:22">
+    <row r="184" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B184" s="17"/>
       <c r="L184" s="32"/>
       <c r="V184" s="17"/>
     </row>
-    <row r="185" spans="2:22">
+    <row r="185" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B185" s="17"/>
       <c r="L185" s="32"/>
       <c r="V185" s="17"/>
     </row>
-    <row r="186" spans="2:22">
+    <row r="186" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B186" s="17"/>
       <c r="L186" s="32"/>
       <c r="V186" s="17"/>
     </row>
-    <row r="187" spans="2:22">
+    <row r="187" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B187" s="17"/>
       <c r="L187" s="32"/>
       <c r="V187" s="17"/>
     </row>
-    <row r="188" spans="2:22">
+    <row r="188" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B188" s="17"/>
       <c r="L188" s="32"/>
       <c r="V188" s="17"/>
     </row>
-    <row r="189" spans="2:22">
+    <row r="189" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B189" s="17"/>
       <c r="L189" s="32"/>
       <c r="V189" s="17"/>
     </row>
-    <row r="190" spans="2:22">
+    <row r="190" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B190" s="17"/>
       <c r="L190" s="32"/>
       <c r="V190" s="17"/>
     </row>
-    <row r="191" spans="2:22">
+    <row r="191" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B191" s="17"/>
       <c r="C191" s="17"/>
       <c r="D191" s="17"/>
@@ -7109,7 +7157,7 @@
       <c r="U191" s="17"/>
       <c r="V191" s="17"/>
     </row>
-    <row r="192" spans="2:22">
+    <row r="192" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B192" s="17"/>
       <c r="C192" s="17"/>
       <c r="D192" s="17"/>
@@ -7132,7 +7180,7 @@
       <c r="U192" s="17"/>
       <c r="V192" s="17"/>
     </row>
-    <row r="193" spans="2:22">
+    <row r="193" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B193" s="17"/>
       <c r="C193" s="17"/>
       <c r="D193" s="17"/>
@@ -7155,7 +7203,7 @@
       <c r="U193" s="17"/>
       <c r="V193" s="17"/>
     </row>
-    <row r="203" spans="2:22">
+    <row r="203" spans="2:22" x14ac:dyDescent="0.25">
       <c r="P203" s="10" t="s">
         <v>350</v>
       </c>
@@ -7166,7 +7214,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="204" spans="2:22">
+    <row r="204" spans="2:22" x14ac:dyDescent="0.25">
       <c r="Q204">
         <v>40</v>
       </c>
@@ -7174,28 +7222,36 @@
         <v>349</v>
       </c>
     </row>
-    <row r="205" spans="2:22">
+    <row r="205" spans="2:22" x14ac:dyDescent="0.25">
       <c r="Q205" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="206" spans="2:22">
+    <row r="206" spans="2:22" x14ac:dyDescent="0.25">
       <c r="Q206" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="207" spans="2:22">
+    <row r="207" spans="2:22" x14ac:dyDescent="0.25">
       <c r="Q207" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="208" spans="2:22">
+    <row r="208" spans="2:22" x14ac:dyDescent="0.25">
       <c r="Q208" t="s">
         <v>354</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="P30:R30"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="T7:U7"/>
     <mergeCell ref="F181:H181"/>
     <mergeCell ref="I158:K158"/>
     <mergeCell ref="I162:K162"/>
@@ -7208,14 +7264,6 @@
     <mergeCell ref="Q180:R180"/>
     <mergeCell ref="Q176:S176"/>
     <mergeCell ref="E154:K155"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="P30:R30"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="T7:U7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7224,31 +7272,31 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B5:V45"/>
   <sheetViews>
     <sheetView topLeftCell="C34" workbookViewId="0">
       <selection activeCell="U36" sqref="U36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="12" max="12" width="8.44140625" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="8.42578125" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="7:20">
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="47"/>
-      <c r="S5" s="47"/>
-      <c r="T5" s="47"/>
-    </row>
-    <row r="6" spans="7:20">
+    <row r="5" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="51"/>
+      <c r="S5" s="51"/>
+      <c r="T5" s="51"/>
+    </row>
+    <row r="6" spans="7:20" x14ac:dyDescent="0.25">
       <c r="L6" s="16"/>
       <c r="M6" s="16"/>
       <c r="N6" s="16" t="s">
@@ -7260,31 +7308,31 @@
       <c r="R6" s="16"/>
       <c r="S6" s="16"/>
     </row>
-    <row r="7" spans="7:20">
+    <row r="7" spans="7:20" x14ac:dyDescent="0.25">
       <c r="L7" s="16"/>
-      <c r="M7" s="55" t="s">
+      <c r="M7" s="59" t="s">
         <v>355</v>
       </c>
-      <c r="N7" s="55"/>
-      <c r="O7" s="55"/>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="55"/>
-      <c r="R7" s="55"/>
-      <c r="S7" s="55"/>
-    </row>
-    <row r="8" spans="7:20">
-      <c r="L8" s="47" t="s">
+      <c r="N7" s="59"/>
+      <c r="O7" s="59"/>
+      <c r="P7" s="59"/>
+      <c r="Q7" s="59"/>
+      <c r="R7" s="59"/>
+      <c r="S7" s="59"/>
+    </row>
+    <row r="8" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="L8" s="51" t="s">
         <v>375</v>
       </c>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="47"/>
-      <c r="S8" s="47"/>
-    </row>
-    <row r="16" spans="7:20">
+      <c r="M8" s="51"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="51"/>
+      <c r="R8" s="51"/>
+      <c r="S8" s="51"/>
+    </row>
+    <row r="16" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G16" t="s">
         <v>359</v>
       </c>
@@ -7292,7 +7340,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="17" spans="2:22">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
         <v>361</v>
       </c>
@@ -7312,7 +7360,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="19" spans="2:22">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>365</v>
       </c>
@@ -7320,7 +7368,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="20" spans="2:22">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>370</v>
       </c>
@@ -7328,12 +7376,12 @@
         <v>366</v>
       </c>
     </row>
-    <row r="21" spans="2:22">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
       <c r="G21" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="24" spans="2:22">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
       <c r="G24" t="s">
         <v>363</v>
       </c>
@@ -7353,7 +7401,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="25" spans="2:22">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
         <v>361</v>
       </c>
@@ -7364,18 +7412,18 @@
         <v>357</v>
       </c>
     </row>
-    <row r="27" spans="2:22">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="G27" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="30" spans="2:22">
-      <c r="F30" s="47" t="s">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="F30" s="51" t="s">
         <v>371</v>
       </c>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="51"/>
       <c r="P30" s="42"/>
       <c r="Q30" s="42"/>
       <c r="R30" s="42"/>
@@ -7384,7 +7432,7 @@
       <c r="U30" s="42"/>
       <c r="V30" s="42"/>
     </row>
-    <row r="31" spans="2:22">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
       <c r="P31" s="42"/>
       <c r="Q31" s="42"/>
       <c r="R31" s="42"/>
@@ -7393,7 +7441,7 @@
       <c r="U31" s="42"/>
       <c r="V31" s="42"/>
     </row>
-    <row r="32" spans="2:22">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
       <c r="P32" s="42"/>
       <c r="Q32" s="45"/>
       <c r="R32" s="45"/>
@@ -7404,7 +7452,7 @@
       <c r="U32" s="45"/>
       <c r="V32" s="42"/>
     </row>
-    <row r="33" spans="3:22">
+    <row r="33" spans="3:22" x14ac:dyDescent="0.25">
       <c r="P33" s="42"/>
       <c r="Q33" s="45"/>
       <c r="R33" s="45"/>
@@ -7413,7 +7461,7 @@
       <c r="U33" s="45"/>
       <c r="V33" s="42"/>
     </row>
-    <row r="34" spans="3:22">
+    <row r="34" spans="3:22" x14ac:dyDescent="0.25">
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
@@ -7428,7 +7476,7 @@
       <c r="U34" s="42"/>
       <c r="V34" s="42"/>
     </row>
-    <row r="35" spans="3:22">
+    <row r="35" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C35" s="39"/>
       <c r="D35" s="40"/>
       <c r="E35" s="40"/>
@@ -7452,7 +7500,7 @@
       <c r="U35" s="42"/>
       <c r="V35" s="42"/>
     </row>
-    <row r="36" spans="3:22">
+    <row r="36" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C36" s="40"/>
       <c r="D36" s="40"/>
       <c r="E36" s="40"/>
@@ -7474,7 +7522,7 @@
       <c r="U36" s="42"/>
       <c r="V36" s="42"/>
     </row>
-    <row r="37" spans="3:22">
+    <row r="37" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C37" s="40"/>
       <c r="D37" s="40"/>
       <c r="E37" s="40"/>
@@ -7496,7 +7544,7 @@
       <c r="U37" s="41"/>
       <c r="V37" s="41"/>
     </row>
-    <row r="38" spans="3:22">
+    <row r="38" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C38" s="40"/>
       <c r="D38" s="40"/>
       <c r="E38" s="40"/>
@@ -7509,7 +7557,7 @@
       <c r="L38" s="40"/>
       <c r="M38" s="40"/>
     </row>
-    <row r="39" spans="3:22">
+    <row r="39" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C39" s="40"/>
       <c r="D39" s="40"/>
       <c r="E39" s="40"/>
@@ -7522,7 +7570,7 @@
       <c r="L39" s="40"/>
       <c r="M39" s="40"/>
     </row>
-    <row r="40" spans="3:22">
+    <row r="40" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C40" s="40"/>
       <c r="D40" s="40"/>
       <c r="E40" s="40"/>
@@ -7534,18 +7582,18 @@
       <c r="K40" s="40"/>
       <c r="L40" s="40"/>
       <c r="M40" s="40"/>
-      <c r="O40" s="46" t="s">
+      <c r="O40" s="50" t="s">
         <v>376</v>
       </c>
-      <c r="P40" s="46"/>
-      <c r="Q40" s="46"/>
-      <c r="R40" s="46"/>
-      <c r="S40" s="46"/>
-      <c r="T40" s="46"/>
-      <c r="U40" s="46"/>
-      <c r="V40" s="46"/>
-    </row>
-    <row r="41" spans="3:22">
+      <c r="P40" s="50"/>
+      <c r="Q40" s="50"/>
+      <c r="R40" s="50"/>
+      <c r="S40" s="50"/>
+      <c r="T40" s="50"/>
+      <c r="U40" s="50"/>
+      <c r="V40" s="50"/>
+    </row>
+    <row r="41" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C41" s="40"/>
       <c r="D41" s="40"/>
       <c r="E41" s="40"/>
@@ -7557,18 +7605,18 @@
       <c r="K41" s="40"/>
       <c r="L41" s="40"/>
       <c r="M41" s="40"/>
-      <c r="O41" s="46" t="s">
+      <c r="O41" s="50" t="s">
         <v>377</v>
       </c>
-      <c r="P41" s="46"/>
-      <c r="Q41" s="46"/>
-      <c r="R41" s="46"/>
-      <c r="S41" s="46"/>
-      <c r="T41" s="46"/>
-      <c r="U41" s="46"/>
+      <c r="P41" s="50"/>
+      <c r="Q41" s="50"/>
+      <c r="R41" s="50"/>
+      <c r="S41" s="50"/>
+      <c r="T41" s="50"/>
+      <c r="U41" s="50"/>
       <c r="V41" s="3"/>
     </row>
-    <row r="42" spans="3:22">
+    <row r="42" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C42" s="40"/>
       <c r="D42" s="40"/>
       <c r="E42" s="40"/>
@@ -7580,18 +7628,18 @@
       <c r="K42" s="40"/>
       <c r="L42" s="40"/>
       <c r="M42" s="40"/>
-      <c r="O42" s="46" t="s">
+      <c r="O42" s="50" t="s">
         <v>378</v>
       </c>
-      <c r="P42" s="46"/>
-      <c r="Q42" s="46"/>
-      <c r="R42" s="46"/>
-      <c r="S42" s="46"/>
-      <c r="T42" s="46"/>
-      <c r="U42" s="46"/>
+      <c r="P42" s="50"/>
+      <c r="Q42" s="50"/>
+      <c r="R42" s="50"/>
+      <c r="S42" s="50"/>
+      <c r="T42" s="50"/>
+      <c r="U42" s="50"/>
       <c r="V42" s="3"/>
     </row>
-    <row r="43" spans="3:22">
+    <row r="43" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C43" s="40"/>
       <c r="D43" s="40"/>
       <c r="E43" s="40"/>
@@ -7603,19 +7651,19 @@
       <c r="K43" s="40"/>
       <c r="L43" s="40"/>
       <c r="M43" s="40"/>
-      <c r="N43" s="46" t="s">
+      <c r="N43" s="50" t="s">
         <v>379</v>
       </c>
-      <c r="O43" s="46"/>
-      <c r="P43" s="46"/>
-      <c r="Q43" s="46"/>
-      <c r="R43" s="46"/>
-      <c r="S43" s="46"/>
-      <c r="T43" s="46"/>
-      <c r="U43" s="46"/>
-      <c r="V43" s="46"/>
-    </row>
-    <row r="44" spans="3:22">
+      <c r="O43" s="50"/>
+      <c r="P43" s="50"/>
+      <c r="Q43" s="50"/>
+      <c r="R43" s="50"/>
+      <c r="S43" s="50"/>
+      <c r="T43" s="50"/>
+      <c r="U43" s="50"/>
+      <c r="V43" s="50"/>
+    </row>
+    <row r="44" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C44" s="40"/>
       <c r="D44" s="40"/>
       <c r="E44" s="40"/>
@@ -7628,7 +7676,7 @@
       <c r="L44" s="40"/>
       <c r="M44" s="40"/>
     </row>
-    <row r="45" spans="3:22">
+    <row r="45" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C45" s="40"/>
       <c r="D45" s="40"/>
       <c r="E45" s="40"/>
@@ -7657,73 +7705,73 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:W86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="M70" sqref="M70"/>
+      <selection activeCell="A61" sqref="A61:F68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="16:22">
-      <c r="T2" s="47" t="s">
+    <row r="2" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="T2" s="51" t="s">
         <v>386</v>
       </c>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-    </row>
-    <row r="3" spans="16:22">
-      <c r="T3" s="47"/>
-      <c r="U3" s="47"/>
-      <c r="V3" s="47"/>
-    </row>
-    <row r="6" spans="16:22">
+      <c r="U2" s="51"/>
+      <c r="V2" s="51"/>
+    </row>
+    <row r="3" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="51"/>
+    </row>
+    <row r="6" spans="16:22" x14ac:dyDescent="0.25">
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="44" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="7" spans="16:22">
+    <row r="7" spans="16:22" x14ac:dyDescent="0.25">
       <c r="T7" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="8" spans="16:22">
+    <row r="8" spans="16:22" x14ac:dyDescent="0.25">
       <c r="T8" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="9" spans="16:22">
+    <row r="9" spans="16:22" x14ac:dyDescent="0.25">
       <c r="T9" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="10" spans="16:22">
+    <row r="10" spans="16:22" x14ac:dyDescent="0.25">
       <c r="T10" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="11" spans="16:22">
+    <row r="11" spans="16:22" x14ac:dyDescent="0.25">
       <c r="T11" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="13" spans="16:22">
+    <row r="13" spans="16:22" x14ac:dyDescent="0.25">
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
       <c r="U13" s="44" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="15" spans="16:22">
-      <c r="S15" s="58" t="s">
+    <row r="15" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="S15" s="62" t="s">
         <v>394</v>
       </c>
-      <c r="T15" s="58"/>
-    </row>
-    <row r="16" spans="16:22">
+      <c r="T15" s="62"/>
+    </row>
+    <row r="16" spans="16:22" x14ac:dyDescent="0.25">
       <c r="P16" s="11" t="s">
         <v>396</v>
       </c>
@@ -7732,12 +7780,12 @@
         <v>395</v>
       </c>
     </row>
-    <row r="17" spans="15:20">
+    <row r="17" spans="15:20" x14ac:dyDescent="0.25">
       <c r="T17" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="18" spans="15:20">
+    <row r="18" spans="15:20" x14ac:dyDescent="0.25">
       <c r="O18" s="40"/>
       <c r="P18" s="40" t="s">
         <v>406</v>
@@ -7746,7 +7794,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="19" spans="15:20">
+    <row r="19" spans="15:20" x14ac:dyDescent="0.25">
       <c r="O19" s="40"/>
       <c r="P19" s="40" t="s">
         <v>407</v>
@@ -7755,55 +7803,55 @@
         <v>398</v>
       </c>
     </row>
-    <row r="20" spans="15:20">
+    <row r="20" spans="15:20" x14ac:dyDescent="0.25">
       <c r="T20" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="21" spans="15:20">
+    <row r="21" spans="15:20" x14ac:dyDescent="0.25">
       <c r="T21" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="22" spans="15:20">
+    <row r="22" spans="15:20" x14ac:dyDescent="0.25">
       <c r="S22" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="23" spans="15:20">
+    <row r="23" spans="15:20" x14ac:dyDescent="0.25">
       <c r="S23" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="24" spans="15:20">
+    <row r="24" spans="15:20" x14ac:dyDescent="0.25">
       <c r="S24" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="25" spans="15:20">
+    <row r="25" spans="15:20" x14ac:dyDescent="0.25">
       <c r="T25" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="26" spans="15:20">
+    <row r="26" spans="15:20" x14ac:dyDescent="0.25">
       <c r="T26" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="28" spans="15:20">
+    <row r="28" spans="15:20" x14ac:dyDescent="0.25">
       <c r="S28">
         <v>200</v>
       </c>
     </row>
-    <row r="31" spans="15:20">
-      <c r="P31" s="56" t="s">
+    <row r="31" spans="15:20" x14ac:dyDescent="0.25">
+      <c r="P31" s="63" t="s">
         <v>408</v>
       </c>
-      <c r="Q31" s="56"/>
-      <c r="R31" s="56"/>
-      <c r="S31" s="56"/>
-    </row>
-    <row r="32" spans="15:20">
+      <c r="Q31" s="63"/>
+      <c r="R31" s="63"/>
+      <c r="S31" s="63"/>
+    </row>
+    <row r="32" spans="15:20" x14ac:dyDescent="0.25">
       <c r="P32" s="11"/>
       <c r="Q32" s="11"/>
       <c r="R32" s="11" t="s">
@@ -7811,7 +7859,7 @@
       </c>
       <c r="S32" s="11"/>
     </row>
-    <row r="33" spans="8:21">
+    <row r="33" spans="8:21" x14ac:dyDescent="0.25">
       <c r="P33" s="11"/>
       <c r="Q33" s="11"/>
       <c r="R33" s="11" t="s">
@@ -7819,115 +7867,129 @@
       </c>
       <c r="S33" s="11"/>
     </row>
-    <row r="38" spans="8:21">
-      <c r="S38" s="57"/>
-      <c r="T38" s="57" t="s">
+    <row r="38" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="S38" s="46"/>
+      <c r="T38" s="46" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="40" spans="8:21">
+    <row r="40" spans="8:21" x14ac:dyDescent="0.25">
       <c r="S40" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="41" spans="8:21">
-      <c r="H41" s="47"/>
-      <c r="I41" s="47"/>
-      <c r="J41" s="47"/>
+    <row r="41" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="H41" s="51"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="51"/>
       <c r="M41" t="s">
         <v>415</v>
       </c>
-      <c r="O41" s="64"/>
-      <c r="P41" s="64"/>
-      <c r="Q41" s="64"/>
-      <c r="R41" s="64"/>
-      <c r="S41" s="64" t="s">
+      <c r="O41" s="49"/>
+      <c r="P41" s="49"/>
+      <c r="Q41" s="49"/>
+      <c r="R41" s="49"/>
+      <c r="S41" s="49" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="42" spans="8:21">
-      <c r="I42" s="63" t="s">
+    <row r="42" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="I42" s="64" t="s">
         <v>416</v>
       </c>
-      <c r="J42" s="63"/>
-      <c r="K42" s="63"/>
-      <c r="L42" s="63"/>
-      <c r="M42" s="63"/>
-      <c r="N42" s="63"/>
-      <c r="O42" s="63"/>
-      <c r="P42" s="63"/>
-      <c r="Q42" s="63"/>
-      <c r="R42" s="63"/>
-      <c r="S42" s="64"/>
-    </row>
-    <row r="45" spans="8:21">
-      <c r="M45" s="47" t="s">
+      <c r="J42" s="64"/>
+      <c r="K42" s="64"/>
+      <c r="L42" s="64"/>
+      <c r="M42" s="64"/>
+      <c r="N42" s="64"/>
+      <c r="O42" s="64"/>
+      <c r="P42" s="64"/>
+      <c r="Q42" s="64"/>
+      <c r="R42" s="64"/>
+      <c r="S42" s="49"/>
+    </row>
+    <row r="45" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="M45" s="51" t="s">
         <v>414</v>
       </c>
-      <c r="N45" s="47"/>
-      <c r="O45" s="47"/>
-      <c r="P45" s="47"/>
-      <c r="Q45" s="47"/>
-      <c r="R45" s="47"/>
-      <c r="S45" s="47"/>
-      <c r="T45" s="47"/>
-      <c r="U45" s="47"/>
-    </row>
-    <row r="49" spans="1:23">
-      <c r="B49" s="59" t="s">
+      <c r="N45" s="51"/>
+      <c r="O45" s="51"/>
+      <c r="P45" s="51"/>
+      <c r="Q45" s="51"/>
+      <c r="R45" s="51"/>
+      <c r="S45" s="51"/>
+      <c r="T45" s="51"/>
+      <c r="U45" s="51"/>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B49" s="60" t="s">
         <v>417</v>
       </c>
-      <c r="C49" s="59"/>
-      <c r="D49" s="59"/>
-      <c r="E49" s="59"/>
-      <c r="F49" s="59"/>
-      <c r="G49" s="59"/>
-    </row>
-    <row r="51" spans="1:23">
+      <c r="C49" s="60"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="60"/>
+      <c r="G49" s="60"/>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F51" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="52" spans="1:23">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F52" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="56" spans="1:23">
-      <c r="A56" s="60"/>
-      <c r="B56" s="60"/>
-      <c r="C56" s="60"/>
-      <c r="D56" s="60"/>
-      <c r="E56" s="60"/>
-      <c r="F56" s="60"/>
-      <c r="G56" s="60"/>
-      <c r="H56" s="60"/>
-      <c r="I56" s="60"/>
-      <c r="J56" s="60"/>
-      <c r="K56" s="60"/>
-      <c r="L56" s="60"/>
-      <c r="M56" s="60"/>
-      <c r="N56" s="60"/>
-      <c r="O56" s="60"/>
-      <c r="P56" s="60"/>
-      <c r="Q56" s="60"/>
-      <c r="R56" s="60"/>
-      <c r="S56" s="60"/>
-      <c r="T56" s="60"/>
-      <c r="U56" s="60"/>
-      <c r="V56" s="60"/>
-      <c r="W56" s="60"/>
-    </row>
-    <row r="59" spans="1:23">
-      <c r="R59" s="62" t="s">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A56" s="47"/>
+      <c r="B56" s="47"/>
+      <c r="C56" s="47"/>
+      <c r="D56" s="47"/>
+      <c r="E56" s="47"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="47"/>
+      <c r="H56" s="47"/>
+      <c r="I56" s="47"/>
+      <c r="J56" s="47"/>
+      <c r="K56" s="47"/>
+      <c r="L56" s="47"/>
+      <c r="M56" s="47"/>
+      <c r="N56" s="47"/>
+      <c r="O56" s="47"/>
+      <c r="P56" s="47"/>
+      <c r="Q56" s="47"/>
+      <c r="R56" s="47"/>
+      <c r="S56" s="47"/>
+      <c r="T56" s="47"/>
+      <c r="U56" s="47"/>
+      <c r="V56" s="47"/>
+      <c r="W56" s="47"/>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R59" s="61" t="s">
         <v>420</v>
       </c>
-      <c r="S59" s="62"/>
-      <c r="T59" s="62"/>
-      <c r="U59" s="62"/>
-      <c r="V59" s="62"/>
-    </row>
-    <row r="62" spans="1:23">
+      <c r="S59" s="61"/>
+      <c r="T59" s="61"/>
+      <c r="U59" s="61"/>
+      <c r="V59" s="61"/>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A61" s="51"/>
+      <c r="B61" s="51"/>
+      <c r="C61" s="51"/>
+      <c r="D61" s="51"/>
+      <c r="E61" s="51"/>
+      <c r="F61" s="51"/>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A62" s="51"/>
+      <c r="B62" s="51"/>
+      <c r="C62" s="51"/>
+      <c r="D62" s="51"/>
+      <c r="E62" s="51"/>
+      <c r="F62" s="51"/>
       <c r="K62" t="s">
         <v>424</v>
       </c>
@@ -7941,12 +8003,24 @@
         <v>421</v>
       </c>
     </row>
-    <row r="63" spans="1:23">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="U63" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="66" spans="6:20">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B64" s="51"/>
+      <c r="C64" s="51"/>
+      <c r="D64" s="51"/>
+      <c r="E64" s="51"/>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B65" s="51"/>
+      <c r="C65" s="51"/>
+      <c r="D65" s="51"/>
+      <c r="E65" s="51"/>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.25">
       <c r="H66">
         <v>200</v>
       </c>
@@ -7963,100 +8037,112 @@
         <v>430</v>
       </c>
     </row>
-    <row r="69" spans="6:20">
-      <c r="I69" s="47">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B67" s="51"/>
+      <c r="C67" s="51"/>
+      <c r="D67" s="51"/>
+      <c r="E67" s="51"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B68" s="51"/>
+      <c r="C68" s="51"/>
+      <c r="D68" s="51"/>
+      <c r="E68" s="51"/>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="I69" s="51">
         <v>200</v>
       </c>
-      <c r="K69" s="47" t="s">
+      <c r="K69" s="51" t="s">
         <v>433</v>
       </c>
-      <c r="L69" s="47"/>
-    </row>
-    <row r="70" spans="6:20">
-      <c r="I70" s="47"/>
-      <c r="K70" s="47"/>
-      <c r="L70" s="47"/>
+      <c r="L69" s="51"/>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="I70" s="51"/>
+      <c r="K70" s="51"/>
+      <c r="L70" s="51"/>
       <c r="T70" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="71" spans="6:20">
+    <row r="71" spans="2:20" x14ac:dyDescent="0.25">
       <c r="S71" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="72" spans="6:20">
+    <row r="72" spans="2:20" x14ac:dyDescent="0.25">
       <c r="S72" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="73" spans="6:20">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.25">
       <c r="S73" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="74" spans="6:20">
-      <c r="F74" s="61"/>
-    </row>
-    <row r="75" spans="6:20">
-      <c r="F75" s="61"/>
-    </row>
-    <row r="76" spans="6:20">
-      <c r="F76" s="61"/>
-    </row>
-    <row r="77" spans="6:20">
-      <c r="F77" s="61"/>
-    </row>
-    <row r="78" spans="6:20">
-      <c r="F78" s="61"/>
-      <c r="I78" s="61"/>
-    </row>
-    <row r="79" spans="6:20">
-      <c r="F79" s="61"/>
-      <c r="I79" s="61"/>
-    </row>
-    <row r="80" spans="6:20">
-      <c r="F80" s="61"/>
-      <c r="I80" s="61"/>
-    </row>
-    <row r="81" spans="6:13">
-      <c r="F81" s="61"/>
-      <c r="I81" s="61"/>
-    </row>
-    <row r="82" spans="6:13">
-      <c r="F82" s="61"/>
-      <c r="G82" s="61"/>
-      <c r="I82" s="61"/>
-    </row>
-    <row r="83" spans="6:13">
-      <c r="F83" s="61"/>
-      <c r="G83" s="61"/>
-      <c r="I83" s="61"/>
-    </row>
-    <row r="84" spans="6:13">
-      <c r="F84" s="61"/>
-      <c r="G84" s="61"/>
-      <c r="H84" s="61"/>
-      <c r="I84" s="61"/>
-    </row>
-    <row r="85" spans="6:13">
-      <c r="F85" s="61"/>
-      <c r="G85" s="61"/>
-      <c r="H85" s="61"/>
-      <c r="I85" s="61"/>
-    </row>
-    <row r="86" spans="6:13">
-      <c r="F86" s="61"/>
-      <c r="G86" s="61"/>
-      <c r="H86" s="61"/>
-      <c r="I86" s="61"/>
-      <c r="J86" s="61"/>
-      <c r="K86" s="61"/>
-      <c r="L86" s="61"/>
-      <c r="M86" s="61"/>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="F74" s="48"/>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="F75" s="48"/>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="F76" s="48"/>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="F77" s="48"/>
+    </row>
+    <row r="78" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="F78" s="48"/>
+      <c r="I78" s="48"/>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="F79" s="48"/>
+      <c r="I79" s="48"/>
+    </row>
+    <row r="80" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="F80" s="48"/>
+      <c r="I80" s="48"/>
+    </row>
+    <row r="81" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F81" s="48"/>
+      <c r="I81" s="48"/>
+    </row>
+    <row r="82" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F82" s="48"/>
+      <c r="G82" s="48"/>
+      <c r="I82" s="48"/>
+    </row>
+    <row r="83" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F83" s="48"/>
+      <c r="G83" s="48"/>
+      <c r="I83" s="48"/>
+    </row>
+    <row r="84" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F84" s="48"/>
+      <c r="G84" s="48"/>
+      <c r="H84" s="48"/>
+      <c r="I84" s="48"/>
+    </row>
+    <row r="85" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F85" s="48"/>
+      <c r="G85" s="48"/>
+      <c r="H85" s="48"/>
+      <c r="I85" s="48"/>
+    </row>
+    <row r="86" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F86" s="48"/>
+      <c r="G86" s="48"/>
+      <c r="H86" s="48"/>
+      <c r="I86" s="48"/>
+      <c r="J86" s="48"/>
+      <c r="K86" s="48"/>
+      <c r="L86" s="48"/>
+      <c r="M86" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="13">
     <mergeCell ref="B49:G49"/>
     <mergeCell ref="R59:V59"/>
     <mergeCell ref="K69:L70"/>
@@ -8067,6 +8153,9 @@
     <mergeCell ref="M45:U45"/>
     <mergeCell ref="H41:J41"/>
     <mergeCell ref="I42:R42"/>
+    <mergeCell ref="A61:F62"/>
+    <mergeCell ref="B64:E65"/>
+    <mergeCell ref="B67:E68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FreeLance\Mokhtar Elsamhy\Fish Business\FishBusiness\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EBB5485-E961-4E9A-93B9-94D85798C00E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3D3B96-5A2C-4716-9305-CB8E752D4386}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="451">
   <si>
     <t>حلقه سمك</t>
   </si>
@@ -1317,16 +1318,67 @@
     <t xml:space="preserve">الرسم البيانى </t>
   </si>
   <si>
-    <t>مختار</t>
-  </si>
-  <si>
-    <t>بورى</t>
-  </si>
-  <si>
-    <t>طاوله</t>
-  </si>
-  <si>
-    <t>شركوس/بورى</t>
+    <t>Credit</t>
+  </si>
+  <si>
+    <t>Not DB</t>
+  </si>
+  <si>
+    <t>مع تاجر</t>
+  </si>
+  <si>
+    <t>اعادة منتجات المخزن للميناء</t>
+  </si>
+  <si>
+    <t>Operator</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>PaidForOperator</t>
+  </si>
+  <si>
+    <t>OperatorId</t>
+  </si>
+  <si>
+    <t>PersonId</t>
+  </si>
+  <si>
+    <t>BranchOffice</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>CurrentCredit</t>
+  </si>
+  <si>
+    <t>Collecting</t>
+  </si>
+  <si>
+    <t>ExternalMerchantTotal</t>
+  </si>
+  <si>
+    <t>LocalMerchantsTotal</t>
+  </si>
+  <si>
+    <t>OfficeMoney</t>
+  </si>
+  <si>
+    <t>ExpensesTotal</t>
+  </si>
+  <si>
+    <t>SarhasTotal</t>
+  </si>
+  <si>
+    <t>FathallahSalary</t>
+  </si>
+  <si>
+    <t>DriversSalary</t>
+  </si>
+  <si>
+    <t>JobDesc</t>
   </si>
 </sst>
 </file>
@@ -1634,7 +1686,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1697,10 +1749,22 @@
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1712,16 +1776,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1742,6 +1797,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -3911,36 +3970,36 @@
       <c r="G70" t="s">
         <v>135</v>
       </c>
-      <c r="S70" s="51"/>
-      <c r="T70" s="51" t="s">
+      <c r="S70" s="52"/>
+      <c r="T70" s="52" t="s">
         <v>336</v>
       </c>
-      <c r="U70" s="51"/>
-      <c r="V70" s="51"/>
+      <c r="U70" s="52"/>
+      <c r="V70" s="52"/>
     </row>
     <row r="71" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="S71" s="51"/>
-      <c r="T71" s="51"/>
-      <c r="U71" s="51"/>
-      <c r="V71" s="51"/>
+      <c r="S71" s="52"/>
+      <c r="T71" s="52"/>
+      <c r="U71" s="52"/>
+      <c r="V71" s="52"/>
     </row>
     <row r="72" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="S72" s="51"/>
-      <c r="T72" s="51"/>
-      <c r="U72" s="51"/>
-      <c r="V72" s="51"/>
+      <c r="S72" s="52"/>
+      <c r="T72" s="52"/>
+      <c r="U72" s="52"/>
+      <c r="V72" s="52"/>
     </row>
     <row r="73" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="N73" s="50" t="s">
+      <c r="N73" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="O73" s="50"/>
-      <c r="P73" s="50"/>
-      <c r="Q73" s="50"/>
-      <c r="S73" s="51"/>
-      <c r="T73" s="51"/>
-      <c r="U73" s="51"/>
-      <c r="V73" s="51"/>
+      <c r="O73" s="51"/>
+      <c r="P73" s="51"/>
+      <c r="Q73" s="51"/>
+      <c r="S73" s="52"/>
+      <c r="T73" s="52"/>
+      <c r="U73" s="52"/>
+      <c r="V73" s="52"/>
     </row>
     <row r="74" spans="2:22" x14ac:dyDescent="0.25">
       <c r="E74" s="2" t="s">
@@ -3958,10 +4017,10 @@
       <c r="P74" t="s">
         <v>51</v>
       </c>
-      <c r="S74" s="51"/>
-      <c r="T74" s="51"/>
-      <c r="U74" s="51"/>
-      <c r="V74" s="51"/>
+      <c r="S74" s="52"/>
+      <c r="T74" s="52"/>
+      <c r="U74" s="52"/>
+      <c r="V74" s="52"/>
     </row>
     <row r="75" spans="2:22" x14ac:dyDescent="0.25">
       <c r="E75" s="3" t="s">
@@ -3978,10 +4037,10 @@
       <c r="P75" t="s">
         <v>136</v>
       </c>
-      <c r="S75" s="51"/>
-      <c r="T75" s="51"/>
-      <c r="U75" s="51"/>
-      <c r="V75" s="51"/>
+      <c r="S75" s="52"/>
+      <c r="T75" s="52"/>
+      <c r="U75" s="52"/>
+      <c r="V75" s="52"/>
     </row>
     <row r="76" spans="2:22" x14ac:dyDescent="0.25">
       <c r="E76" s="3" t="s">
@@ -3995,10 +4054,10 @@
       <c r="P76" t="s">
         <v>160</v>
       </c>
-      <c r="S76" s="51"/>
-      <c r="T76" s="51"/>
-      <c r="U76" s="51"/>
-      <c r="V76" s="51"/>
+      <c r="S76" s="52"/>
+      <c r="T76" s="52"/>
+      <c r="U76" s="52"/>
+      <c r="V76" s="52"/>
     </row>
     <row r="77" spans="2:22" x14ac:dyDescent="0.25">
       <c r="E77" s="3" t="s">
@@ -4935,13 +4994,13 @@
       <c r="P2" s="17"/>
       <c r="Q2" s="17"/>
       <c r="R2" s="17"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51" t="s">
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52" t="s">
         <v>230</v>
       </c>
-      <c r="W2" s="51"/>
+      <c r="W2" s="52"/>
       <c r="X2" s="17"/>
     </row>
     <row r="3" spans="2:24" x14ac:dyDescent="0.25">
@@ -4963,9 +5022,9 @@
       <c r="Q3" s="17"/>
       <c r="R3" s="17"/>
       <c r="S3" s="17"/>
-      <c r="T3" s="58"/>
-      <c r="U3" s="58"/>
-      <c r="V3" s="58"/>
+      <c r="T3" s="55"/>
+      <c r="U3" s="55"/>
+      <c r="V3" s="55"/>
       <c r="W3" s="17"/>
       <c r="X3" s="17"/>
     </row>
@@ -4974,11 +5033,11 @@
       <c r="S4" t="s">
         <v>249</v>
       </c>
-      <c r="T4" s="51" t="s">
+      <c r="T4" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="U4" s="51"/>
-      <c r="V4" s="51"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
       <c r="X4" s="17"/>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.25">
@@ -4994,10 +5053,10 @@
       <c r="R7" t="s">
         <v>335</v>
       </c>
-      <c r="T7" s="51" t="s">
+      <c r="T7" s="52" t="s">
         <v>232</v>
       </c>
-      <c r="U7" s="51"/>
+      <c r="U7" s="52"/>
       <c r="X7" s="17"/>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.25">
@@ -5015,11 +5074,11 @@
       <c r="R9">
         <v>9380</v>
       </c>
-      <c r="S9" s="51" t="s">
+      <c r="S9" s="52" t="s">
         <v>233</v>
       </c>
-      <c r="T9" s="51"/>
-      <c r="U9" s="51"/>
+      <c r="T9" s="52"/>
+      <c r="U9" s="52"/>
       <c r="X9" s="17"/>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.25">
@@ -5311,11 +5370,11 @@
       <c r="M30" s="17"/>
       <c r="N30" s="17"/>
       <c r="O30" s="17"/>
-      <c r="P30" s="51" t="s">
+      <c r="P30" s="52" t="s">
         <v>255</v>
       </c>
-      <c r="Q30" s="51"/>
-      <c r="R30" s="51"/>
+      <c r="Q30" s="52"/>
+      <c r="R30" s="52"/>
       <c r="S30" s="17"/>
       <c r="T30" s="17"/>
       <c r="U30" s="17"/>
@@ -5559,11 +5618,11 @@
       <c r="F46" s="26"/>
       <c r="G46" s="27"/>
       <c r="H46" s="27"/>
-      <c r="I46" s="55" t="s">
+      <c r="I46" s="53" t="s">
         <v>256</v>
       </c>
-      <c r="J46" s="55"/>
-      <c r="K46" s="56"/>
+      <c r="J46" s="53"/>
+      <c r="K46" s="54"/>
       <c r="V46" s="17"/>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.25">
@@ -5635,24 +5694,24 @@
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="17"/>
-      <c r="Q52" s="51" t="s">
+      <c r="Q52" s="52" t="s">
         <v>330</v>
       </c>
-      <c r="R52" s="51"/>
-      <c r="S52" s="51"/>
-      <c r="T52" s="51"/>
-      <c r="U52" s="51"/>
-      <c r="V52" s="51"/>
+      <c r="R52" s="52"/>
+      <c r="S52" s="52"/>
+      <c r="T52" s="52"/>
+      <c r="U52" s="52"/>
+      <c r="V52" s="52"/>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="17"/>
-      <c r="Q53" s="51" t="s">
+      <c r="Q53" s="52" t="s">
         <v>331</v>
       </c>
-      <c r="R53" s="51"/>
-      <c r="S53" s="51"/>
-      <c r="T53" s="51"/>
-      <c r="U53" s="51"/>
+      <c r="R53" s="52"/>
+      <c r="S53" s="52"/>
+      <c r="T53" s="52"/>
+      <c r="U53" s="52"/>
       <c r="V53" s="17"/>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.25">
@@ -6062,17 +6121,17 @@
     <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B78" s="17"/>
       <c r="J78" s="17"/>
-      <c r="K78" s="51" t="s">
+      <c r="K78" s="52" t="s">
         <v>276</v>
       </c>
-      <c r="L78" s="51"/>
-      <c r="M78" s="51"/>
+      <c r="L78" s="52"/>
+      <c r="M78" s="52"/>
       <c r="N78" s="17"/>
       <c r="S78" s="17"/>
-      <c r="T78" s="51" t="s">
+      <c r="T78" s="52" t="s">
         <v>275</v>
       </c>
-      <c r="U78" s="51"/>
+      <c r="U78" s="52"/>
       <c r="V78" s="17"/>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.25">
@@ -6386,10 +6445,10 @@
     <row r="105" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B105" s="17"/>
       <c r="R105" s="17"/>
-      <c r="S105" s="50" t="s">
+      <c r="S105" s="51" t="s">
         <v>296</v>
       </c>
-      <c r="T105" s="50"/>
+      <c r="T105" s="51"/>
       <c r="U105" s="17"/>
       <c r="V105" s="17"/>
     </row>
@@ -6411,9 +6470,9 @@
     </row>
     <row r="109" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B109" s="17"/>
-      <c r="S109" s="51"/>
-      <c r="T109" s="51"/>
-      <c r="U109" s="51"/>
+      <c r="S109" s="52"/>
+      <c r="T109" s="52"/>
+      <c r="U109" s="52"/>
       <c r="V109" s="17"/>
     </row>
     <row r="110" spans="2:22" x14ac:dyDescent="0.25">
@@ -6673,15 +6732,15 @@
     </row>
     <row r="154" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B154" s="17"/>
-      <c r="E154" s="54" t="s">
+      <c r="E154" s="58" t="s">
         <v>297</v>
       </c>
-      <c r="F154" s="55"/>
-      <c r="G154" s="55"/>
-      <c r="H154" s="55"/>
-      <c r="I154" s="55"/>
-      <c r="J154" s="55"/>
-      <c r="K154" s="56"/>
+      <c r="F154" s="53"/>
+      <c r="G154" s="53"/>
+      <c r="H154" s="53"/>
+      <c r="I154" s="53"/>
+      <c r="J154" s="53"/>
+      <c r="K154" s="54"/>
       <c r="Q154" s="5" t="s">
         <v>304</v>
       </c>
@@ -6689,13 +6748,13 @@
     </row>
     <row r="155" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B155" s="17"/>
-      <c r="E155" s="57"/>
-      <c r="F155" s="52"/>
-      <c r="G155" s="52"/>
-      <c r="H155" s="52"/>
-      <c r="I155" s="52"/>
-      <c r="J155" s="52"/>
-      <c r="K155" s="53"/>
+      <c r="E155" s="59"/>
+      <c r="F155" s="56"/>
+      <c r="G155" s="56"/>
+      <c r="H155" s="56"/>
+      <c r="I155" s="56"/>
+      <c r="J155" s="56"/>
+      <c r="K155" s="57"/>
       <c r="Q155" s="5" t="s">
         <v>305</v>
       </c>
@@ -6755,11 +6814,11 @@
         <v>313</v>
       </c>
       <c r="H158" s="19"/>
-      <c r="I158" s="52" t="s">
+      <c r="I158" s="56" t="s">
         <v>321</v>
       </c>
-      <c r="J158" s="52"/>
-      <c r="K158" s="53"/>
+      <c r="J158" s="56"/>
+      <c r="K158" s="57"/>
       <c r="R158">
         <v>200</v>
       </c>
@@ -6829,11 +6888,11 @@
         <v>313</v>
       </c>
       <c r="H162" s="19"/>
-      <c r="I162" s="52" t="s">
+      <c r="I162" s="56" t="s">
         <v>323</v>
       </c>
-      <c r="J162" s="52"/>
-      <c r="K162" s="53"/>
+      <c r="J162" s="56"/>
+      <c r="K162" s="57"/>
       <c r="V162" s="17"/>
     </row>
     <row r="163" spans="2:22" x14ac:dyDescent="0.25">
@@ -7021,11 +7080,11 @@
         <v>48</v>
       </c>
       <c r="L176" s="32"/>
-      <c r="Q176" s="51" t="s">
+      <c r="Q176" s="52" t="s">
         <v>312</v>
       </c>
-      <c r="R176" s="51"/>
-      <c r="S176" s="51"/>
+      <c r="R176" s="52"/>
+      <c r="S176" s="52"/>
       <c r="V176" s="17"/>
     </row>
     <row r="177" spans="2:22" x14ac:dyDescent="0.25">
@@ -7064,10 +7123,10 @@
       <c r="O180" t="s">
         <v>319</v>
       </c>
-      <c r="Q180" s="51" t="s">
+      <c r="Q180" s="52" t="s">
         <v>318</v>
       </c>
-      <c r="R180" s="51"/>
+      <c r="R180" s="52"/>
       <c r="S180" t="s">
         <v>315</v>
       </c>
@@ -7075,11 +7134,11 @@
     </row>
     <row r="181" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B181" s="17"/>
-      <c r="F181" s="51" t="s">
+      <c r="F181" s="52" t="s">
         <v>317</v>
       </c>
-      <c r="G181" s="51"/>
-      <c r="H181" s="51"/>
+      <c r="G181" s="52"/>
+      <c r="H181" s="52"/>
       <c r="I181" t="s">
         <v>315</v>
       </c>
@@ -7244,14 +7303,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="P30:R30"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="T7:U7"/>
     <mergeCell ref="F181:H181"/>
     <mergeCell ref="I158:K158"/>
     <mergeCell ref="I162:K162"/>
@@ -7264,6 +7315,14 @@
     <mergeCell ref="Q180:R180"/>
     <mergeCell ref="Q176:S176"/>
     <mergeCell ref="E154:K155"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="P30:R30"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="T7:U7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7286,15 +7345,15 @@
   </cols>
   <sheetData>
     <row r="5" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="51"/>
-      <c r="R5" s="51"/>
-      <c r="S5" s="51"/>
-      <c r="T5" s="51"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="52"/>
+      <c r="R5" s="52"/>
+      <c r="S5" s="52"/>
+      <c r="T5" s="52"/>
     </row>
     <row r="6" spans="7:20" x14ac:dyDescent="0.25">
       <c r="L6" s="16"/>
@@ -7310,27 +7369,27 @@
     </row>
     <row r="7" spans="7:20" x14ac:dyDescent="0.25">
       <c r="L7" s="16"/>
-      <c r="M7" s="59" t="s">
+      <c r="M7" s="60" t="s">
         <v>355</v>
       </c>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="59"/>
-      <c r="S7" s="59"/>
+      <c r="N7" s="60"/>
+      <c r="O7" s="60"/>
+      <c r="P7" s="60"/>
+      <c r="Q7" s="60"/>
+      <c r="R7" s="60"/>
+      <c r="S7" s="60"/>
     </row>
     <row r="8" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="L8" s="51" t="s">
+      <c r="L8" s="52" t="s">
         <v>375</v>
       </c>
-      <c r="M8" s="51"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="51"/>
-      <c r="P8" s="51"/>
-      <c r="Q8" s="51"/>
-      <c r="R8" s="51"/>
-      <c r="S8" s="51"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="52"/>
+      <c r="S8" s="52"/>
     </row>
     <row r="16" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G16" t="s">
@@ -7418,12 +7477,12 @@
       </c>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="F30" s="51" t="s">
+      <c r="F30" s="52" t="s">
         <v>371</v>
       </c>
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="51"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
       <c r="P30" s="42"/>
       <c r="Q30" s="42"/>
       <c r="R30" s="42"/>
@@ -7582,16 +7641,16 @@
       <c r="K40" s="40"/>
       <c r="L40" s="40"/>
       <c r="M40" s="40"/>
-      <c r="O40" s="50" t="s">
+      <c r="O40" s="51" t="s">
         <v>376</v>
       </c>
-      <c r="P40" s="50"/>
-      <c r="Q40" s="50"/>
-      <c r="R40" s="50"/>
-      <c r="S40" s="50"/>
-      <c r="T40" s="50"/>
-      <c r="U40" s="50"/>
-      <c r="V40" s="50"/>
+      <c r="P40" s="51"/>
+      <c r="Q40" s="51"/>
+      <c r="R40" s="51"/>
+      <c r="S40" s="51"/>
+      <c r="T40" s="51"/>
+      <c r="U40" s="51"/>
+      <c r="V40" s="51"/>
     </row>
     <row r="41" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C41" s="40"/>
@@ -7605,15 +7664,15 @@
       <c r="K41" s="40"/>
       <c r="L41" s="40"/>
       <c r="M41" s="40"/>
-      <c r="O41" s="50" t="s">
+      <c r="O41" s="51" t="s">
         <v>377</v>
       </c>
-      <c r="P41" s="50"/>
-      <c r="Q41" s="50"/>
-      <c r="R41" s="50"/>
-      <c r="S41" s="50"/>
-      <c r="T41" s="50"/>
-      <c r="U41" s="50"/>
+      <c r="P41" s="51"/>
+      <c r="Q41" s="51"/>
+      <c r="R41" s="51"/>
+      <c r="S41" s="51"/>
+      <c r="T41" s="51"/>
+      <c r="U41" s="51"/>
       <c r="V41" s="3"/>
     </row>
     <row r="42" spans="3:22" x14ac:dyDescent="0.25">
@@ -7628,15 +7687,15 @@
       <c r="K42" s="40"/>
       <c r="L42" s="40"/>
       <c r="M42" s="40"/>
-      <c r="O42" s="50" t="s">
+      <c r="O42" s="51" t="s">
         <v>378</v>
       </c>
-      <c r="P42" s="50"/>
-      <c r="Q42" s="50"/>
-      <c r="R42" s="50"/>
-      <c r="S42" s="50"/>
-      <c r="T42" s="50"/>
-      <c r="U42" s="50"/>
+      <c r="P42" s="51"/>
+      <c r="Q42" s="51"/>
+      <c r="R42" s="51"/>
+      <c r="S42" s="51"/>
+      <c r="T42" s="51"/>
+      <c r="U42" s="51"/>
       <c r="V42" s="3"/>
     </row>
     <row r="43" spans="3:22" x14ac:dyDescent="0.25">
@@ -7651,17 +7710,17 @@
       <c r="K43" s="40"/>
       <c r="L43" s="40"/>
       <c r="M43" s="40"/>
-      <c r="N43" s="50" t="s">
+      <c r="N43" s="51" t="s">
         <v>379</v>
       </c>
-      <c r="O43" s="50"/>
-      <c r="P43" s="50"/>
-      <c r="Q43" s="50"/>
-      <c r="R43" s="50"/>
-      <c r="S43" s="50"/>
-      <c r="T43" s="50"/>
-      <c r="U43" s="50"/>
-      <c r="V43" s="50"/>
+      <c r="O43" s="51"/>
+      <c r="P43" s="51"/>
+      <c r="Q43" s="51"/>
+      <c r="R43" s="51"/>
+      <c r="S43" s="51"/>
+      <c r="T43" s="51"/>
+      <c r="U43" s="51"/>
+      <c r="V43" s="51"/>
     </row>
     <row r="44" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C44" s="40"/>
@@ -7708,70 +7767,84 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:W86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61:F68"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="T2" s="51" t="s">
+    <row r="2" spans="13:22" x14ac:dyDescent="0.25">
+      <c r="T2" s="52" t="s">
         <v>386</v>
       </c>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51"/>
-    </row>
-    <row r="3" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="T3" s="51"/>
-      <c r="U3" s="51"/>
-      <c r="V3" s="51"/>
-    </row>
-    <row r="6" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+    </row>
+    <row r="3" spans="13:22" x14ac:dyDescent="0.25">
+      <c r="T3" s="52"/>
+      <c r="U3" s="52"/>
+      <c r="V3" s="52"/>
+    </row>
+    <row r="4" spans="13:22" x14ac:dyDescent="0.25">
+      <c r="O4" s="6"/>
+      <c r="P4" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="6" spans="13:22" x14ac:dyDescent="0.25">
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="44" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="7" spans="16:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="13:22" x14ac:dyDescent="0.25">
+      <c r="M7" t="s">
+        <v>90</v>
+      </c>
+      <c r="N7" t="s">
+        <v>430</v>
+      </c>
       <c r="T7" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="8" spans="16:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="13:22" x14ac:dyDescent="0.25">
       <c r="T8" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="9" spans="16:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="13:22" x14ac:dyDescent="0.25">
       <c r="T9" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="10" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="T10" t="s">
+    <row r="10" spans="13:22" x14ac:dyDescent="0.25">
+      <c r="S10" s="6"/>
+      <c r="T10" s="6" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="11" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="T11" t="s">
+    <row r="11" spans="13:22" x14ac:dyDescent="0.25">
+      <c r="S11" s="6"/>
+      <c r="T11" s="6" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="13" spans="16:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="13:22" x14ac:dyDescent="0.25">
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
       <c r="U13" s="44" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="15" spans="16:22" x14ac:dyDescent="0.25">
-      <c r="S15" s="62" t="s">
+    <row r="15" spans="13:22" x14ac:dyDescent="0.25">
+      <c r="S15" s="63" t="s">
         <v>394</v>
       </c>
-      <c r="T15" s="62"/>
-    </row>
-    <row r="16" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="T15" s="63"/>
+    </row>
+    <row r="16" spans="13:22" x14ac:dyDescent="0.25">
       <c r="P16" s="11" t="s">
         <v>396</v>
       </c>
@@ -7786,8 +7859,8 @@
       </c>
     </row>
     <row r="18" spans="15:20" x14ac:dyDescent="0.25">
-      <c r="O18" s="40"/>
-      <c r="P18" s="40" t="s">
+      <c r="O18" s="66"/>
+      <c r="P18" s="66" t="s">
         <v>406</v>
       </c>
       <c r="T18" t="s">
@@ -7795,8 +7868,8 @@
       </c>
     </row>
     <row r="19" spans="15:20" x14ac:dyDescent="0.25">
-      <c r="O19" s="40"/>
-      <c r="P19" s="40" t="s">
+      <c r="O19" s="66"/>
+      <c r="P19" s="66" t="s">
         <v>407</v>
       </c>
       <c r="T19" t="s">
@@ -7804,37 +7877,44 @@
       </c>
     </row>
     <row r="20" spans="15:20" x14ac:dyDescent="0.25">
-      <c r="T20" t="s">
+      <c r="S20" s="6"/>
+      <c r="T20" s="6" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="21" spans="15:20" x14ac:dyDescent="0.25">
-      <c r="T21" t="s">
+      <c r="S21" s="6"/>
+      <c r="T21" s="6" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="22" spans="15:20" x14ac:dyDescent="0.25">
-      <c r="S22" t="s">
+      <c r="S22" s="6" t="s">
         <v>401</v>
       </c>
+      <c r="T22" s="6"/>
     </row>
     <row r="23" spans="15:20" x14ac:dyDescent="0.25">
-      <c r="S23" t="s">
+      <c r="S23" s="6" t="s">
         <v>402</v>
       </c>
+      <c r="T23" s="6"/>
     </row>
     <row r="24" spans="15:20" x14ac:dyDescent="0.25">
-      <c r="S24" t="s">
+      <c r="S24" s="6" t="s">
         <v>403</v>
       </c>
+      <c r="T24" s="6"/>
     </row>
     <row r="25" spans="15:20" x14ac:dyDescent="0.25">
-      <c r="T25" t="s">
+      <c r="S25" s="6"/>
+      <c r="T25" s="6" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="26" spans="15:20" x14ac:dyDescent="0.25">
-      <c r="T26" t="s">
+      <c r="S26" s="6"/>
+      <c r="T26" s="6" t="s">
         <v>405</v>
       </c>
     </row>
@@ -7844,12 +7924,12 @@
       </c>
     </row>
     <row r="31" spans="15:20" x14ac:dyDescent="0.25">
-      <c r="P31" s="63" t="s">
+      <c r="P31" s="64" t="s">
         <v>408</v>
       </c>
-      <c r="Q31" s="63"/>
-      <c r="R31" s="63"/>
-      <c r="S31" s="63"/>
+      <c r="Q31" s="64"/>
+      <c r="R31" s="64"/>
+      <c r="S31" s="64"/>
     </row>
     <row r="32" spans="15:20" x14ac:dyDescent="0.25">
       <c r="P32" s="11"/>
@@ -7879,9 +7959,9 @@
       </c>
     </row>
     <row r="41" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H41" s="51"/>
-      <c r="I41" s="51"/>
-      <c r="J41" s="51"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="52"/>
+      <c r="J41" s="52"/>
       <c r="M41" t="s">
         <v>415</v>
       </c>
@@ -7894,50 +7974,57 @@
       </c>
     </row>
     <row r="42" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="I42" s="64" t="s">
+      <c r="I42" s="65" t="s">
         <v>416</v>
       </c>
-      <c r="J42" s="64"/>
-      <c r="K42" s="64"/>
-      <c r="L42" s="64"/>
-      <c r="M42" s="64"/>
-      <c r="N42" s="64"/>
-      <c r="O42" s="64"/>
-      <c r="P42" s="64"/>
-      <c r="Q42" s="64"/>
-      <c r="R42" s="64"/>
+      <c r="J42" s="65"/>
+      <c r="K42" s="65"/>
+      <c r="L42" s="65"/>
+      <c r="M42" s="65"/>
+      <c r="N42" s="65"/>
+      <c r="O42" s="65"/>
+      <c r="P42" s="65"/>
+      <c r="Q42" s="65"/>
+      <c r="R42" s="65"/>
       <c r="S42" s="49"/>
     </row>
     <row r="45" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="M45" s="51" t="s">
+      <c r="M45" s="52" t="s">
         <v>414</v>
       </c>
-      <c r="N45" s="51"/>
-      <c r="O45" s="51"/>
-      <c r="P45" s="51"/>
-      <c r="Q45" s="51"/>
-      <c r="R45" s="51"/>
-      <c r="S45" s="51"/>
-      <c r="T45" s="51"/>
-      <c r="U45" s="51"/>
+      <c r="N45" s="52"/>
+      <c r="O45" s="52"/>
+      <c r="P45" s="52"/>
+      <c r="Q45" s="52"/>
+      <c r="R45" s="52"/>
+      <c r="S45" s="52"/>
+      <c r="T45" s="52"/>
+      <c r="U45" s="52"/>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B49" s="60" t="s">
+      <c r="B49" s="61" t="s">
         <v>417</v>
       </c>
-      <c r="C49" s="60"/>
-      <c r="D49" s="60"/>
-      <c r="E49" s="60"/>
-      <c r="F49" s="60"/>
-      <c r="G49" s="60"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="61"/>
+      <c r="G49" s="61"/>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="F51" t="s">
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="F52" t="s">
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3" t="s">
         <v>419</v>
       </c>
     </row>
@@ -7967,101 +8054,119 @@
       <c r="W56" s="47"/>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="R59" s="61" t="s">
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16" t="s">
+        <v>424</v>
+      </c>
+      <c r="R59" s="62" t="s">
         <v>420</v>
       </c>
-      <c r="S59" s="61"/>
-      <c r="T59" s="61"/>
-      <c r="U59" s="61"/>
-      <c r="V59" s="61"/>
+      <c r="S59" s="62"/>
+      <c r="T59" s="62"/>
+      <c r="U59" s="62"/>
+      <c r="V59" s="62"/>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A61" s="51"/>
-      <c r="B61" s="51"/>
-      <c r="C61" s="51"/>
-      <c r="D61" s="51"/>
-      <c r="E61" s="51"/>
-      <c r="F61" s="51"/>
+      <c r="A61" s="33"/>
+      <c r="B61" s="67"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16" t="s">
+        <v>429</v>
+      </c>
+      <c r="F61" s="33"/>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A62" s="51"/>
-      <c r="B62" s="51"/>
-      <c r="C62" s="51"/>
-      <c r="D62" s="51"/>
-      <c r="E62" s="51"/>
-      <c r="F62" s="51"/>
-      <c r="K62" t="s">
+      <c r="A62" s="33"/>
+      <c r="B62" s="67"/>
+      <c r="C62" s="16" t="s">
+        <v>432</v>
+      </c>
+      <c r="D62" s="50"/>
+      <c r="E62" s="50" t="s">
+        <v>411</v>
+      </c>
+      <c r="F62" s="33"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="N62" t="s">
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="R62" t="s">
+      <c r="O62" s="3"/>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3"/>
+      <c r="R62" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="U62" t="s">
+      <c r="S62" s="3"/>
+      <c r="T62" s="3"/>
+      <c r="U62" s="3" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="U63" t="s">
+      <c r="B63" s="16"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16" t="s">
+        <v>433</v>
+      </c>
+      <c r="O63" s="3"/>
+      <c r="P63" s="3"/>
+      <c r="Q63" s="3"/>
+      <c r="R63" s="3"/>
+      <c r="S63" s="3"/>
+      <c r="T63" s="3"/>
+      <c r="U63" s="3" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B64" s="51"/>
-      <c r="C64" s="51"/>
-      <c r="D64" s="51"/>
-      <c r="E64" s="51"/>
+      <c r="B64" s="33"/>
     </row>
     <row r="65" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B65" s="51"/>
-      <c r="C65" s="51"/>
-      <c r="D65" s="51"/>
-      <c r="E65" s="51"/>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="H66">
-        <v>200</v>
-      </c>
-      <c r="I66">
-        <v>5</v>
-      </c>
-      <c r="J66" t="s">
-        <v>432</v>
-      </c>
-      <c r="K66" t="s">
-        <v>431</v>
-      </c>
-      <c r="M66" t="s">
-        <v>430</v>
-      </c>
+      <c r="B65" s="33"/>
+      <c r="C65" s="33"/>
+      <c r="D65" s="33"/>
+      <c r="E65" s="33"/>
     </row>
     <row r="67" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B67" s="51"/>
-      <c r="C67" s="51"/>
-      <c r="D67" s="51"/>
-      <c r="E67" s="51"/>
+      <c r="B67" s="52"/>
+      <c r="C67" s="52"/>
+      <c r="D67" s="52"/>
+      <c r="E67" s="52"/>
     </row>
     <row r="68" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B68" s="51"/>
-      <c r="C68" s="51"/>
-      <c r="D68" s="51"/>
-      <c r="E68" s="51"/>
+      <c r="B68" s="52"/>
+      <c r="C68" s="52"/>
+      <c r="D68" s="52"/>
+      <c r="E68" s="52"/>
     </row>
     <row r="69" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="I69" s="51">
-        <v>200</v>
-      </c>
-      <c r="K69" s="51" t="s">
-        <v>433</v>
-      </c>
-      <c r="L69" s="51"/>
+      <c r="I69" s="52"/>
+      <c r="K69" s="52"/>
+      <c r="L69" s="52"/>
     </row>
     <row r="70" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="I70" s="51"/>
-      <c r="K70" s="51"/>
-      <c r="L70" s="51"/>
+      <c r="I70" s="52"/>
+      <c r="K70" s="52"/>
+      <c r="L70" s="52"/>
       <c r="T70" t="s">
         <v>426</v>
       </c>
@@ -8142,7 +8247,7 @@
       <c r="M86" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="11">
     <mergeCell ref="B49:G49"/>
     <mergeCell ref="R59:V59"/>
     <mergeCell ref="K69:L70"/>
@@ -8153,12 +8258,132 @@
     <mergeCell ref="M45:U45"/>
     <mergeCell ref="H41:J41"/>
     <mergeCell ref="I42:R42"/>
-    <mergeCell ref="A61:F62"/>
-    <mergeCell ref="B64:E65"/>
     <mergeCell ref="B67:E68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C443730-29F1-42F4-ABE3-8B9B64D8A370}">
+  <dimension ref="F5:I23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="5" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F5" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="I5" s="16"/>
+    </row>
+    <row r="6" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H6" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="7" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>435</v>
+      </c>
+      <c r="H8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>430</v>
+      </c>
+      <c r="H9" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="10" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="12" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F12" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="G12" s="16"/>
+    </row>
+    <row r="13" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="14" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="16" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="21" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="22" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="23" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>449</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FreeLance\Mokhtar Elsamhy\Fish Business\FishBusiness\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3D3B96-5A2C-4716-9305-CB8E752D4386}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="461">
   <si>
     <t>حلقه سمك</t>
   </si>
@@ -1379,13 +1373,43 @@
   </si>
   <si>
     <t>JobDesc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">home / office شوفها </t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <t>جدول اسمه sellerRec و SellerRecItems وجدول اسمه PaidForSeller</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>نفتكر نبقى نعمل نسبة العموله decimal</t>
+  </si>
+  <si>
+    <t>هنضيف مكان لقبض السرح مع الصفحه بتاعت التوزيع وكمان هنضيفها فى البروفايل</t>
+  </si>
+  <si>
+    <t>اللى بيدخل الخزنه كفلوس نقديه حقيقه هى فلوس المحصل بعد التحصيل اليومى</t>
+  </si>
+  <si>
+    <t>الرسم البيانى</t>
+  </si>
+  <si>
+    <t>PaidForSeller</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1436,7 +1460,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1559,6 +1583,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1686,7 +1716,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1747,24 +1777,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1776,10 +1803,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1788,19 +1830,6 @@
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -1839,7 +1868,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="WhatsApp Image 2020-08-17 at 1.23.37 AM.jpeg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1872,23 +1901,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>412032</xdr:colOff>
+      <xdr:colOff>198672</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>76673</xdr:rowOff>
+      <xdr:rowOff>30953</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2" descr="Capturea.PNG">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1904,7 +1933,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="746760" y="114300"/>
+          <a:off x="533400" y="68580"/>
           <a:ext cx="6370872" cy="5448773"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1960,7 +1989,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1992,27 +2021,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2044,24 +2055,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2237,22 +2230,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y117"/>
   <sheetViews>
     <sheetView topLeftCell="A106" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="M1" sqref="M1:M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22">
       <c r="E1">
         <v>2500</v>
       </c>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22">
       <c r="E2">
         <v>3000</v>
       </c>
@@ -2261,7 +2254,7 @@
       </c>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22">
       <c r="E3">
         <v>10000</v>
       </c>
@@ -2270,7 +2263,7 @@
       </c>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22">
       <c r="F4">
         <v>7.5</v>
       </c>
@@ -2279,7 +2272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -2298,7 +2291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
@@ -2310,7 +2303,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -2335,7 +2328,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -2357,7 +2350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -2373,7 +2366,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -2391,7 +2384,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -2401,7 +2394,7 @@
       <c r="I11" s="3"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -2419,7 +2412,7 @@
       </c>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -2441,7 +2434,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -2457,7 +2450,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -2482,7 +2475,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -2501,7 +2494,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -2523,7 +2516,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -2542,7 +2535,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -2558,7 +2551,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -2577,7 +2570,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -2587,7 +2580,7 @@
       </c>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -2600,7 +2593,7 @@
       </c>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -2613,7 +2606,7 @@
       </c>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -2626,7 +2619,7 @@
       </c>
       <c r="M24" s="5"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24">
       <c r="H25" t="s">
         <v>24</v>
       </c>
@@ -2634,12 +2627,12 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24">
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24">
       <c r="E27" t="s">
         <v>26</v>
       </c>
@@ -2650,7 +2643,7 @@
         <v>5650</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24">
       <c r="I28" s="4">
         <v>0.06</v>
       </c>
@@ -2669,12 +2662,12 @@
       <c r="R28" s="6"/>
       <c r="S28" s="6"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24">
       <c r="I29">
         <v>5311</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24">
       <c r="E30">
         <v>100</v>
       </c>
@@ -2691,7 +2684,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24">
       <c r="H31" t="s">
         <v>29</v>
       </c>
@@ -2699,7 +2692,7 @@
         <v>5011</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24">
       <c r="I32">
         <v>2500</v>
       </c>
@@ -2719,7 +2712,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:25">
       <c r="I33">
         <v>2500</v>
       </c>
@@ -2733,7 +2726,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:25">
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5" t="s">
@@ -2752,7 +2745,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:25">
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
@@ -2769,7 +2762,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:25">
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
@@ -2786,7 +2779,7 @@
       <c r="W36" s="5"/>
       <c r="X36" s="5"/>
     </row>
-    <row r="37" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:25">
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
@@ -2797,7 +2790,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="38" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:25">
       <c r="E38" s="5" t="s">
         <v>41</v>
       </c>
@@ -2812,7 +2805,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="39" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:25">
       <c r="F39" t="s">
         <v>34</v>
       </c>
@@ -2825,7 +2818,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="40" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:25">
       <c r="F40" t="s">
         <v>35</v>
       </c>
@@ -2835,7 +2828,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:25">
       <c r="F41" t="s">
         <v>36</v>
       </c>
@@ -2845,7 +2838,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:25">
       <c r="F42" t="s">
         <v>37</v>
       </c>
@@ -2855,7 +2848,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:25">
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
@@ -2869,7 +2862,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:25">
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
@@ -2877,7 +2870,7 @@
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
     </row>
-    <row r="45" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:25">
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
@@ -2885,7 +2878,7 @@
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
     </row>
-    <row r="46" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:25">
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
@@ -2902,7 +2895,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:25">
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
@@ -2919,7 +2912,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:25">
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
@@ -2936,7 +2929,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="8:25">
       <c r="R49" t="s">
         <v>24</v>
       </c>
@@ -2947,22 +2940,22 @@
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="8:25">
       <c r="Y50" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="8:25">
       <c r="X51">
         <v>20000</v>
       </c>
     </row>
-    <row r="52" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="8:25">
       <c r="Y52">
         <v>2000</v>
       </c>
     </row>
-    <row r="58" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="8:25">
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
@@ -2977,7 +2970,7 @@
       <c r="S58" s="5"/>
       <c r="T58" s="5"/>
     </row>
-    <row r="64" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="8:25">
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
@@ -2994,7 +2987,7 @@
       <c r="W64" s="5"/>
       <c r="X64" s="5"/>
     </row>
-    <row r="65" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="8:25">
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
@@ -3013,7 +3006,7 @@
       <c r="W65" s="5"/>
       <c r="X65" s="5"/>
     </row>
-    <row r="66" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="8:25">
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
@@ -3030,7 +3023,7 @@
       <c r="W66" s="5"/>
       <c r="X66" s="5"/>
     </row>
-    <row r="67" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="8:25">
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
@@ -3047,7 +3040,7 @@
       <c r="W67" s="5"/>
       <c r="X67" s="5"/>
     </row>
-    <row r="68" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="8:25">
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
@@ -3066,7 +3059,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="8:25">
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
@@ -3083,7 +3076,7 @@
       <c r="W69" s="5"/>
       <c r="X69" s="5"/>
     </row>
-    <row r="70" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="8:25">
       <c r="H70" s="5"/>
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
@@ -3105,7 +3098,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="71" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="8:25">
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
@@ -3130,7 +3123,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="72" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="8:25">
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
@@ -3150,7 +3143,7 @@
       <c r="W72" s="5"/>
       <c r="X72" s="5"/>
     </row>
-    <row r="73" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="8:25">
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
@@ -3170,7 +3163,7 @@
       <c r="W73" s="5"/>
       <c r="X73" s="5"/>
     </row>
-    <row r="74" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="8:25">
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
@@ -3187,7 +3180,7 @@
       <c r="W74" s="5"/>
       <c r="X74" s="5"/>
     </row>
-    <row r="75" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="8:25">
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
@@ -3204,7 +3197,7 @@
       <c r="W75" s="5"/>
       <c r="X75" s="5"/>
     </row>
-    <row r="76" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="8:25">
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
@@ -3222,7 +3215,7 @@
         <v>5650</v>
       </c>
     </row>
-    <row r="77" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="8:25">
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
@@ -3243,7 +3236,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="78" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="78" spans="8:25">
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
@@ -3258,7 +3251,7 @@
         <v>5311</v>
       </c>
     </row>
-    <row r="79" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="8:25">
       <c r="H79" s="5"/>
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
@@ -3279,7 +3272,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="80" spans="8:25">
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
@@ -3297,7 +3290,7 @@
         <v>5011</v>
       </c>
     </row>
-    <row r="81" spans="6:24" x14ac:dyDescent="0.25">
+    <row r="81" spans="6:24">
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
@@ -3314,71 +3307,71 @@
       <c r="W81" s="5"/>
       <c r="X81" s="5"/>
     </row>
-    <row r="82" spans="6:24" x14ac:dyDescent="0.25">
+    <row r="82" spans="6:24">
       <c r="T82" s="5"/>
       <c r="U82" s="5"/>
       <c r="V82" s="5"/>
       <c r="W82" s="5"/>
       <c r="X82" s="5"/>
     </row>
-    <row r="83" spans="6:24" x14ac:dyDescent="0.25">
+    <row r="83" spans="6:24">
       <c r="T83" s="5"/>
       <c r="U83" s="5"/>
       <c r="V83" s="5"/>
       <c r="W83" s="5"/>
       <c r="X83" s="5"/>
     </row>
-    <row r="84" spans="6:24" x14ac:dyDescent="0.25">
+    <row r="84" spans="6:24">
       <c r="T84" s="5"/>
       <c r="U84" s="5"/>
       <c r="V84" s="5"/>
       <c r="W84" s="5"/>
       <c r="X84" s="5"/>
     </row>
-    <row r="85" spans="6:24" x14ac:dyDescent="0.25">
+    <row r="85" spans="6:24">
       <c r="T85" s="5"/>
       <c r="U85" s="5"/>
       <c r="V85" s="5"/>
       <c r="W85" s="5"/>
       <c r="X85" s="5"/>
     </row>
-    <row r="86" spans="6:24" x14ac:dyDescent="0.25">
+    <row r="86" spans="6:24">
       <c r="T86" s="5"/>
       <c r="U86" s="5"/>
       <c r="V86" s="5"/>
       <c r="W86" s="5"/>
       <c r="X86" s="5"/>
     </row>
-    <row r="87" spans="6:24" x14ac:dyDescent="0.25">
+    <row r="87" spans="6:24">
       <c r="T87" s="5"/>
       <c r="U87" s="5"/>
       <c r="V87" s="5"/>
       <c r="W87" s="5"/>
       <c r="X87" s="5"/>
     </row>
-    <row r="88" spans="6:24" x14ac:dyDescent="0.25">
+    <row r="88" spans="6:24">
       <c r="T88" s="5"/>
       <c r="U88" s="5"/>
       <c r="V88" s="5"/>
       <c r="W88" s="5"/>
       <c r="X88" s="5"/>
     </row>
-    <row r="90" spans="6:24" x14ac:dyDescent="0.25">
+    <row r="90" spans="6:24">
       <c r="F90" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="6:24" x14ac:dyDescent="0.25">
+    <row r="95" spans="6:24">
       <c r="V95" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="96" spans="6:24" x14ac:dyDescent="0.25">
+    <row r="96" spans="6:24">
       <c r="V96" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="97" spans="20:22" x14ac:dyDescent="0.25">
+    <row r="97" spans="20:22">
       <c r="U97" t="s">
         <v>64</v>
       </c>
@@ -3386,17 +3379,17 @@
         <v>53</v>
       </c>
     </row>
-    <row r="98" spans="20:22" x14ac:dyDescent="0.25">
+    <row r="98" spans="20:22">
       <c r="V98" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="99" spans="20:22" x14ac:dyDescent="0.25">
+    <row r="99" spans="20:22">
       <c r="V99" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="100" spans="20:22" x14ac:dyDescent="0.25">
+    <row r="100" spans="20:22">
       <c r="T100" t="s">
         <v>60</v>
       </c>
@@ -3404,7 +3397,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="116" spans="20:22" x14ac:dyDescent="0.25">
+    <row r="116" spans="20:22">
       <c r="T116" t="s">
         <v>67</v>
       </c>
@@ -3412,7 +3405,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="117" spans="20:22" x14ac:dyDescent="0.25">
+    <row r="117" spans="20:22">
       <c r="V117" t="s">
         <v>66</v>
       </c>
@@ -3424,24 +3417,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:V84"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I11" sqref="I11:K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" customWidth="1"/>
     <col min="11" max="11" width="7" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" customWidth="1"/>
+    <col min="12" max="12" width="13.44140625" customWidth="1"/>
+    <col min="13" max="13" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:18">
       <c r="D4" s="1" t="s">
         <v>68</v>
       </c>
@@ -3458,7 +3451,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:18">
       <c r="D5" t="s">
         <v>87</v>
       </c>
@@ -3475,7 +3468,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:18">
       <c r="D6" t="s">
         <v>70</v>
       </c>
@@ -3492,7 +3485,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:18">
       <c r="G7" t="s">
         <v>72</v>
       </c>
@@ -3503,7 +3496,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:18">
       <c r="F8" t="s">
         <v>142</v>
       </c>
@@ -3514,14 +3507,14 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:18">
       <c r="F9" s="9"/>
       <c r="G9" s="9" t="s">
         <v>73</v>
       </c>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:18">
       <c r="G10" t="s">
         <v>95</v>
       </c>
@@ -3529,7 +3522,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:18">
       <c r="F11" s="3">
         <v>0</v>
       </c>
@@ -3540,17 +3533,17 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:18">
       <c r="J12" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:18">
       <c r="J13" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:18">
       <c r="M14" s="1" t="s">
         <v>83</v>
       </c>
@@ -3560,7 +3553,7 @@
       </c>
       <c r="R14" s="1"/>
     </row>
-    <row r="15" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:18">
       <c r="M15" t="s">
         <v>86</v>
       </c>
@@ -3568,7 +3561,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:18">
       <c r="M16" t="s">
         <v>78</v>
       </c>
@@ -3576,7 +3569,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:20">
       <c r="D17" s="1" t="s">
         <v>93</v>
       </c>
@@ -3587,7 +3580,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:20">
       <c r="D18" t="s">
         <v>95</v>
       </c>
@@ -3601,7 +3594,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:20">
       <c r="D19" t="s">
         <v>94</v>
       </c>
@@ -3612,7 +3605,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:20">
       <c r="K20">
         <v>600</v>
       </c>
@@ -3623,7 +3616,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:20">
       <c r="L21">
         <v>400</v>
       </c>
@@ -3631,7 +3624,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:20">
       <c r="G22" s="3"/>
       <c r="H22" s="3" t="s">
         <v>130</v>
@@ -3646,7 +3639,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:20">
       <c r="D23" s="1" t="s">
         <v>99</v>
       </c>
@@ -3662,7 +3655,7 @@
       </c>
       <c r="N23" s="3"/>
     </row>
-    <row r="24" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:20">
       <c r="D24" t="s">
         <v>101</v>
       </c>
@@ -3670,7 +3663,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:20">
       <c r="D25" t="s">
         <v>100</v>
       </c>
@@ -3678,17 +3671,17 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:20">
       <c r="G26" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:20">
       <c r="G27" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="28" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:20">
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
@@ -3707,7 +3700,7 @@
       <c r="S28" s="7"/>
       <c r="T28" s="7"/>
     </row>
-    <row r="37" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="6:18">
       <c r="G37" s="1" t="s">
         <v>102</v>
       </c>
@@ -3721,7 +3714,7 @@
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
     </row>
-    <row r="38" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="6:18">
       <c r="G38" t="s">
         <v>106</v>
       </c>
@@ -3732,7 +3725,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="6:18">
       <c r="F39" t="s">
         <v>110</v>
       </c>
@@ -3746,7 +3739,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="6:18">
       <c r="F40">
         <v>20000</v>
       </c>
@@ -3760,7 +3753,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="6:18">
       <c r="K41">
         <v>20000</v>
       </c>
@@ -3771,7 +3764,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="6:18">
       <c r="J42" t="s">
         <v>113</v>
       </c>
@@ -3785,7 +3778,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="6:18">
       <c r="K43">
         <v>5000</v>
       </c>
@@ -3796,7 +3789,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="6:18">
       <c r="K44" t="s">
         <v>111</v>
       </c>
@@ -3804,7 +3797,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="49" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:20">
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -3823,12 +3816,12 @@
       <c r="S49" s="2"/>
       <c r="T49" s="2"/>
     </row>
-    <row r="54" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:20">
       <c r="E54" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="55" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:20">
       <c r="E55" t="s">
         <v>84</v>
       </c>
@@ -3836,7 +3829,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="56" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:20">
       <c r="E56" s="3" t="s">
         <v>100</v>
       </c>
@@ -3847,7 +3840,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="57" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:20">
       <c r="E57" s="3" t="s">
         <v>115</v>
       </c>
@@ -3858,12 +3851,12 @@
         <v>118</v>
       </c>
     </row>
-    <row r="58" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:20">
       <c r="M58" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="60" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:20">
       <c r="L60" t="s">
         <v>122</v>
       </c>
@@ -3871,7 +3864,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:20">
       <c r="K62" s="3"/>
       <c r="L62" s="3" t="s">
         <v>123</v>
@@ -3882,7 +3875,7 @@
       </c>
       <c r="P62" s="3"/>
     </row>
-    <row r="63" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:20">
       <c r="B63" t="s">
         <v>145</v>
       </c>
@@ -3901,7 +3894,7 @@
       </c>
       <c r="P63" s="3"/>
     </row>
-    <row r="64" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:20">
       <c r="B64" t="s">
         <v>147</v>
       </c>
@@ -3913,7 +3906,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:22">
       <c r="B66" t="s">
         <v>150</v>
       </c>
@@ -3924,7 +3917,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:22">
       <c r="B67" t="s">
         <v>151</v>
       </c>
@@ -3938,12 +3931,12 @@
         <v>155</v>
       </c>
     </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:22">
       <c r="G68" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:22">
       <c r="B69">
         <v>20</v>
       </c>
@@ -3957,7 +3950,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:22">
       <c r="B70" t="s">
         <v>152</v>
       </c>
@@ -3970,38 +3963,38 @@
       <c r="G70" t="s">
         <v>135</v>
       </c>
-      <c r="S70" s="52"/>
-      <c r="T70" s="52" t="s">
+      <c r="S70" s="56"/>
+      <c r="T70" s="56" t="s">
         <v>336</v>
       </c>
-      <c r="U70" s="52"/>
-      <c r="V70" s="52"/>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="S71" s="52"/>
-      <c r="T71" s="52"/>
-      <c r="U71" s="52"/>
-      <c r="V71" s="52"/>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="S72" s="52"/>
-      <c r="T72" s="52"/>
-      <c r="U72" s="52"/>
-      <c r="V72" s="52"/>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="N73" s="51" t="s">
+      <c r="U70" s="56"/>
+      <c r="V70" s="56"/>
+    </row>
+    <row r="71" spans="2:22">
+      <c r="S71" s="56"/>
+      <c r="T71" s="56"/>
+      <c r="U71" s="56"/>
+      <c r="V71" s="56"/>
+    </row>
+    <row r="72" spans="2:22">
+      <c r="S72" s="56"/>
+      <c r="T72" s="56"/>
+      <c r="U72" s="56"/>
+      <c r="V72" s="56"/>
+    </row>
+    <row r="73" spans="2:22">
+      <c r="N73" s="55" t="s">
         <v>157</v>
       </c>
-      <c r="O73" s="51"/>
-      <c r="P73" s="51"/>
-      <c r="Q73" s="51"/>
-      <c r="S73" s="52"/>
-      <c r="T73" s="52"/>
-      <c r="U73" s="52"/>
-      <c r="V73" s="52"/>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="O73" s="55"/>
+      <c r="P73" s="55"/>
+      <c r="Q73" s="55"/>
+      <c r="S73" s="56"/>
+      <c r="T73" s="56"/>
+      <c r="U73" s="56"/>
+      <c r="V73" s="56"/>
+    </row>
+    <row r="74" spans="2:22">
       <c r="E74" s="2" t="s">
         <v>140</v>
       </c>
@@ -4017,12 +4010,12 @@
       <c r="P74" t="s">
         <v>51</v>
       </c>
-      <c r="S74" s="52"/>
-      <c r="T74" s="52"/>
-      <c r="U74" s="52"/>
-      <c r="V74" s="52"/>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="S74" s="56"/>
+      <c r="T74" s="56"/>
+      <c r="U74" s="56"/>
+      <c r="V74" s="56"/>
+    </row>
+    <row r="75" spans="2:22">
       <c r="E75" s="3" t="s">
         <v>105</v>
       </c>
@@ -4037,12 +4030,12 @@
       <c r="P75" t="s">
         <v>136</v>
       </c>
-      <c r="S75" s="52"/>
-      <c r="T75" s="52"/>
-      <c r="U75" s="52"/>
-      <c r="V75" s="52"/>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="S75" s="56"/>
+      <c r="T75" s="56"/>
+      <c r="U75" s="56"/>
+      <c r="V75" s="56"/>
+    </row>
+    <row r="76" spans="2:22">
       <c r="E76" s="3" t="s">
         <v>90</v>
       </c>
@@ -4054,12 +4047,12 @@
       <c r="P76" t="s">
         <v>160</v>
       </c>
-      <c r="S76" s="52"/>
-      <c r="T76" s="52"/>
-      <c r="U76" s="52"/>
-      <c r="V76" s="52"/>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="S76" s="56"/>
+      <c r="T76" s="56"/>
+      <c r="U76" s="56"/>
+      <c r="V76" s="56"/>
+    </row>
+    <row r="77" spans="2:22">
       <c r="E77" s="3" t="s">
         <v>137</v>
       </c>
@@ -4072,7 +4065,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="78" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:22">
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
       <c r="I78" s="3" t="s">
@@ -4091,7 +4084,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:22">
       <c r="E79" s="3" t="s">
         <v>112</v>
       </c>
@@ -4109,7 +4102,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:22">
       <c r="E80" s="3" t="s">
         <v>141</v>
       </c>
@@ -4118,7 +4111,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="81" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="13:17">
       <c r="M81" t="s">
         <v>167</v>
       </c>
@@ -4126,7 +4119,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="82" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="13:17">
       <c r="M82" t="s">
         <v>169</v>
       </c>
@@ -4137,7 +4130,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="84" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="13:17">
       <c r="M84" t="s">
         <v>171</v>
       </c>
@@ -4157,20 +4150,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:V68"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21">
       <c r="H2" s="14"/>
       <c r="I2" s="14" t="s">
         <v>48</v>
@@ -4183,7 +4176,7 @@
       </c>
       <c r="O2" s="3"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21">
       <c r="B3" s="13">
         <v>13000</v>
       </c>
@@ -4202,7 +4195,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21">
       <c r="O4" s="3"/>
       <c r="R4" s="5"/>
       <c r="S4" s="5">
@@ -4212,7 +4205,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21">
       <c r="O5" s="3"/>
       <c r="R5" s="5">
         <v>2600</v>
@@ -4224,7 +4217,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21">
       <c r="D6">
         <v>1475</v>
       </c>
@@ -4239,7 +4232,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21">
       <c r="I7" t="s">
         <v>182</v>
       </c>
@@ -4260,7 +4253,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21">
       <c r="E8">
         <v>1475</v>
       </c>
@@ -4285,7 +4278,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21">
       <c r="L9">
         <v>2950</v>
       </c>
@@ -4297,7 +4290,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21">
       <c r="A10">
         <v>245.8</v>
       </c>
@@ -4318,7 +4311,7 @@
         <v>3950</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21">
       <c r="A11">
         <v>250</v>
       </c>
@@ -4329,7 +4322,7 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21">
       <c r="C12">
         <v>3000</v>
       </c>
@@ -4352,7 +4345,7 @@
       <c r="O12" s="3"/>
       <c r="Q12" s="10"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21">
       <c r="D13">
         <v>3000</v>
       </c>
@@ -4370,7 +4363,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21">
       <c r="C14">
         <v>950</v>
       </c>
@@ -4391,7 +4384,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21">
       <c r="O15" s="3"/>
       <c r="R15">
         <v>950</v>
@@ -4403,7 +4396,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21">
       <c r="H16" s="12">
         <v>500</v>
       </c>
@@ -4422,7 +4415,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="17" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:21">
       <c r="L17">
         <v>4045</v>
       </c>
@@ -4431,7 +4424,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:21">
       <c r="D18" t="s">
         <v>189</v>
       </c>
@@ -4452,7 +4445,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="19" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:21">
       <c r="O19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
@@ -4460,7 +4453,7 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
     </row>
-    <row r="20" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:21">
       <c r="H20" s="12"/>
       <c r="J20" s="3">
         <v>3790</v>
@@ -4470,7 +4463,7 @@
       </c>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:21">
       <c r="O21" s="3"/>
       <c r="R21">
         <v>2600</v>
@@ -4482,7 +4475,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:21">
       <c r="F22" t="s">
         <v>192</v>
       </c>
@@ -4500,7 +4493,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="23" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:21">
       <c r="F23">
         <v>129.5</v>
       </c>
@@ -4521,7 +4514,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="24" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:21">
       <c r="F24">
         <v>130</v>
       </c>
@@ -4542,7 +4535,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="25" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:21">
       <c r="G25" t="s">
         <v>193</v>
       </c>
@@ -4560,7 +4553,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="26" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:21">
       <c r="G26">
         <v>1300</v>
       </c>
@@ -4581,13 +4574,13 @@
         <v>179</v>
       </c>
     </row>
-    <row r="27" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:21">
       <c r="O27" s="3"/>
       <c r="R27">
         <v>6430</v>
       </c>
     </row>
-    <row r="28" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:21">
       <c r="J28" t="s">
         <v>198</v>
       </c>
@@ -4599,7 +4592,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="29" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:21">
       <c r="K29">
         <v>4150</v>
       </c>
@@ -4608,7 +4601,7 @@
         <v>6045</v>
       </c>
     </row>
-    <row r="30" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:21">
       <c r="J30" t="s">
         <v>51</v>
       </c>
@@ -4617,7 +4610,7 @@
       </c>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:21">
       <c r="J31" t="s">
         <v>200</v>
       </c>
@@ -4626,13 +4619,13 @@
       </c>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:21">
       <c r="J32" t="s">
         <v>201</v>
       </c>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22">
       <c r="I33" t="s">
         <v>202</v>
       </c>
@@ -4644,10 +4637,10 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22">
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -4664,10 +4657,10 @@
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22">
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22">
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
       <c r="J37" s="14"/>
@@ -4678,10 +4671,10 @@
       </c>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22">
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22">
       <c r="H39" s="12"/>
       <c r="I39">
         <v>6</v>
@@ -4693,13 +4686,13 @@
       </c>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22">
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22">
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22">
       <c r="O42" s="3"/>
       <c r="R42" s="5"/>
       <c r="S42" s="3"/>
@@ -4707,7 +4700,7 @@
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22">
       <c r="H43" s="12"/>
       <c r="I43">
         <v>6</v>
@@ -4719,7 +4712,7 @@
       </c>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22">
       <c r="O44" s="3"/>
       <c r="R44" s="5"/>
       <c r="S44" s="3"/>
@@ -4727,10 +4720,10 @@
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22">
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22">
       <c r="O46" s="3"/>
       <c r="R46" s="5"/>
       <c r="S46" s="3"/>
@@ -4738,7 +4731,7 @@
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22">
       <c r="H47" s="12"/>
       <c r="I47">
         <v>6</v>
@@ -4750,16 +4743,16 @@
       </c>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22">
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="6:22">
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="6:22">
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="6:22">
       <c r="H51" s="12"/>
       <c r="J51" s="3"/>
       <c r="L51" s="11">
@@ -4767,7 +4760,7 @@
       </c>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="6:22">
       <c r="K52" t="s">
         <v>214</v>
       </c>
@@ -4776,25 +4769,25 @@
       </c>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="6:22">
       <c r="L53">
         <v>8090</v>
       </c>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="6:22">
       <c r="K54" t="s">
         <v>198</v>
       </c>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="6:22">
       <c r="L55">
         <v>4045</v>
       </c>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="6:22">
       <c r="J56" t="s">
         <v>215</v>
       </c>
@@ -4809,7 +4802,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="57" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="6:22">
       <c r="K57" t="s">
         <v>205</v>
       </c>
@@ -4830,10 +4823,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="6:22">
       <c r="O58" s="3"/>
     </row>
-    <row r="59" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="6:22">
       <c r="L59" t="s">
         <v>206</v>
       </c>
@@ -4851,7 +4844,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="60" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="6:22">
       <c r="F60" s="5" t="s">
         <v>202</v>
       </c>
@@ -4872,7 +4865,7 @@
       </c>
       <c r="O60" s="3"/>
     </row>
-    <row r="61" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="6:22">
       <c r="G61">
         <v>700</v>
       </c>
@@ -4890,7 +4883,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="62" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="6:22">
       <c r="L62" t="s">
         <v>209</v>
       </c>
@@ -4899,7 +4892,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="63" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="6:22">
       <c r="K63" t="s">
         <v>210</v>
       </c>
@@ -4911,10 +4904,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="64" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="6:22">
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="12:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="12:21">
       <c r="L65" t="s">
         <v>211</v>
       </c>
@@ -4923,16 +4916,16 @@
         <v>170</v>
       </c>
     </row>
-    <row r="66" spans="12:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="12:21">
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="12:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="12:21">
       <c r="L67">
         <v>8400</v>
       </c>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="12:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="12:21">
       <c r="O68" s="3"/>
     </row>
   </sheetData>
@@ -4942,16 +4935,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X208"/>
   <sheetViews>
     <sheetView topLeftCell="E111" workbookViewId="0">
       <selection activeCell="R133" sqref="R133"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:24">
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
@@ -4976,7 +4969,7 @@
       <c r="W1" s="17"/>
       <c r="X1" s="17"/>
     </row>
-    <row r="2" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:24">
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
@@ -4994,16 +4987,16 @@
       <c r="P2" s="17"/>
       <c r="Q2" s="17"/>
       <c r="R2" s="17"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="52" t="s">
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56" t="s">
         <v>230</v>
       </c>
-      <c r="W2" s="52"/>
+      <c r="W2" s="56"/>
       <c r="X2" s="17"/>
     </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:24">
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
@@ -5022,48 +5015,48 @@
       <c r="Q3" s="17"/>
       <c r="R3" s="17"/>
       <c r="S3" s="17"/>
-      <c r="T3" s="55"/>
-      <c r="U3" s="55"/>
-      <c r="V3" s="55"/>
+      <c r="T3" s="63"/>
+      <c r="U3" s="63"/>
+      <c r="V3" s="63"/>
       <c r="W3" s="17"/>
       <c r="X3" s="17"/>
     </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:24">
       <c r="B4" s="17"/>
       <c r="S4" t="s">
         <v>249</v>
       </c>
-      <c r="T4" s="52" t="s">
+      <c r="T4" s="56" t="s">
         <v>231</v>
       </c>
-      <c r="U4" s="52"/>
-      <c r="V4" s="52"/>
+      <c r="U4" s="56"/>
+      <c r="V4" s="56"/>
       <c r="X4" s="17"/>
     </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:24">
       <c r="B5" s="17"/>
       <c r="X5" s="17"/>
     </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:24">
       <c r="B6" s="17"/>
       <c r="X6" s="17"/>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:24">
       <c r="B7" s="17"/>
       <c r="R7" t="s">
         <v>335</v>
       </c>
-      <c r="T7" s="52" t="s">
+      <c r="T7" s="56" t="s">
         <v>232</v>
       </c>
-      <c r="U7" s="52"/>
+      <c r="U7" s="56"/>
       <c r="X7" s="17"/>
     </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:24">
       <c r="B8" s="17"/>
       <c r="X8" s="17"/>
     </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:24">
       <c r="B9" s="17"/>
       <c r="L9" t="s">
         <v>240</v>
@@ -5074,14 +5067,14 @@
       <c r="R9">
         <v>9380</v>
       </c>
-      <c r="S9" s="52" t="s">
+      <c r="S9" s="56" t="s">
         <v>233</v>
       </c>
-      <c r="T9" s="52"/>
-      <c r="U9" s="52"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="56"/>
       <c r="X9" s="17"/>
     </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:24">
       <c r="B10" s="17"/>
       <c r="L10" t="s">
         <v>241</v>
@@ -5091,7 +5084,7 @@
       </c>
       <c r="X10" s="17"/>
     </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:24">
       <c r="B11" s="17"/>
       <c r="L11" t="s">
         <v>242</v>
@@ -5116,7 +5109,7 @@
       </c>
       <c r="X11" s="17"/>
     </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:24">
       <c r="B12" s="17"/>
       <c r="K12" t="s">
         <v>243</v>
@@ -5135,18 +5128,18 @@
       </c>
       <c r="X12" s="17"/>
     </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:24">
       <c r="B13" s="17"/>
       <c r="X13" s="17"/>
     </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:24">
       <c r="B14" s="17"/>
       <c r="V14" s="3">
         <v>17890</v>
       </c>
       <c r="X14" s="17"/>
     </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:24">
       <c r="B15" s="17"/>
       <c r="V15">
         <v>9380</v>
@@ -5156,7 +5149,7 @@
       </c>
       <c r="X15" s="17"/>
     </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:24">
       <c r="B16" s="17"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -5167,7 +5160,7 @@
       <c r="W16" s="5"/>
       <c r="X16" s="17"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24">
       <c r="B17" s="17"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -5178,7 +5171,7 @@
       </c>
       <c r="X17" s="17"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24">
       <c r="B18" s="17"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -5198,7 +5191,7 @@
       </c>
       <c r="X18" s="17"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24">
       <c r="B19" s="17"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -5209,7 +5202,7 @@
       </c>
       <c r="X19" s="17"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24">
       <c r="B20" s="17"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -5225,7 +5218,7 @@
       </c>
       <c r="X20" s="17"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24">
       <c r="B21" s="17"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -5235,7 +5228,7 @@
       <c r="L21" s="3"/>
       <c r="X21" s="17"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24">
       <c r="B22" s="17"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -5245,7 +5238,7 @@
       <c r="L22" s="3"/>
       <c r="X22" s="17"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24">
       <c r="B23" s="17"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -5255,7 +5248,7 @@
       <c r="L23" s="3"/>
       <c r="X23" s="17"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24">
       <c r="B24" s="17"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -5265,18 +5258,18 @@
       <c r="L24" s="3"/>
       <c r="X24" s="17"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24">
       <c r="B25" s="17"/>
       <c r="R25" s="10">
         <v>44013</v>
       </c>
       <c r="X25" s="17"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24">
       <c r="B26" s="17"/>
       <c r="X26" s="17"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24">
       <c r="A27" s="17"/>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
@@ -5302,7 +5295,7 @@
       <c r="W27" s="17"/>
       <c r="X27" s="17"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24">
       <c r="A28" s="17"/>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
@@ -5328,7 +5321,7 @@
       <c r="W28" s="17"/>
       <c r="X28" s="17"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24">
       <c r="A29" s="17"/>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
@@ -5354,7 +5347,7 @@
       <c r="W29" s="17"/>
       <c r="X29" s="17"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24">
       <c r="A30" s="17"/>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
@@ -5370,17 +5363,17 @@
       <c r="M30" s="17"/>
       <c r="N30" s="17"/>
       <c r="O30" s="17"/>
-      <c r="P30" s="52" t="s">
+      <c r="P30" s="56" t="s">
         <v>255</v>
       </c>
-      <c r="Q30" s="52"/>
-      <c r="R30" s="52"/>
+      <c r="Q30" s="56"/>
+      <c r="R30" s="56"/>
       <c r="S30" s="17"/>
       <c r="T30" s="17"/>
       <c r="U30" s="17"/>
       <c r="V30" s="17"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24">
       <c r="A31" s="17"/>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
@@ -5404,18 +5397,18 @@
       <c r="U31" s="17"/>
       <c r="V31" s="17"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24">
       <c r="A32" s="17"/>
       <c r="I32" t="s">
         <v>253</v>
       </c>
       <c r="V32" s="17"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22">
       <c r="A33" s="17"/>
       <c r="V33" s="17"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22">
       <c r="A34" s="17"/>
       <c r="B34" t="s">
         <v>174</v>
@@ -5448,7 +5441,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22">
       <c r="A35" s="17"/>
       <c r="B35" t="s">
         <v>174</v>
@@ -5479,7 +5472,7 @@
       </c>
       <c r="V35" s="16"/>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22">
       <c r="A36" s="17"/>
       <c r="B36" t="s">
         <v>174</v>
@@ -5501,11 +5494,11 @@
       </c>
       <c r="V36" s="16"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22">
       <c r="A37" s="17"/>
       <c r="V37" s="16"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22">
       <c r="A38" s="17"/>
       <c r="C38" t="s">
         <v>254</v>
@@ -5526,7 +5519,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22">
       <c r="A39" s="17"/>
       <c r="K39">
         <v>250</v>
@@ -5545,7 +5538,7 @@
       </c>
       <c r="V39" s="16"/>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22">
       <c r="A40" s="17"/>
       <c r="B40" t="s">
         <v>333</v>
@@ -5555,11 +5548,11 @@
       </c>
       <c r="V40" s="16"/>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22">
       <c r="A41" s="17"/>
       <c r="V41" s="16"/>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22">
       <c r="A42" s="17"/>
       <c r="G42" t="s">
         <v>346</v>
@@ -5575,13 +5568,13 @@
       </c>
       <c r="V42" s="16"/>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22">
       <c r="A43" s="17"/>
       <c r="V43" s="16" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22">
       <c r="A44" s="17"/>
       <c r="I44" t="s">
         <v>269</v>
@@ -5600,7 +5593,7 @@
       </c>
       <c r="V44" s="17"/>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22">
       <c r="A45" s="17"/>
       <c r="Q45" t="s">
         <v>174</v>
@@ -5613,19 +5606,19 @@
       </c>
       <c r="V45" s="17"/>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22">
       <c r="A46" s="17"/>
       <c r="F46" s="26"/>
       <c r="G46" s="27"/>
       <c r="H46" s="27"/>
-      <c r="I46" s="53" t="s">
+      <c r="I46" s="60" t="s">
         <v>256</v>
       </c>
-      <c r="J46" s="53"/>
-      <c r="K46" s="54"/>
+      <c r="J46" s="60"/>
+      <c r="K46" s="61"/>
       <c r="V46" s="17"/>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22">
       <c r="A47" s="17"/>
       <c r="F47" s="28"/>
       <c r="G47" s="19"/>
@@ -5635,7 +5628,7 @@
       <c r="K47" s="29"/>
       <c r="V47" s="17"/>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22">
       <c r="A48" s="17"/>
       <c r="F48" s="28"/>
       <c r="G48" s="19" t="s">
@@ -5651,7 +5644,7 @@
       </c>
       <c r="V48" s="17"/>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22">
       <c r="A49" s="17"/>
       <c r="F49" s="28"/>
       <c r="G49" s="19" t="s">
@@ -5667,7 +5660,7 @@
       </c>
       <c r="V49" s="17"/>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22">
       <c r="A50" s="17"/>
       <c r="F50" s="30"/>
       <c r="G50" s="20" t="s">
@@ -5683,7 +5676,7 @@
       </c>
       <c r="V50" s="17"/>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22">
       <c r="A51" s="17"/>
       <c r="R51" s="33" t="s">
         <v>329</v>
@@ -5692,42 +5685,42 @@
       <c r="T51" s="33"/>
       <c r="U51" s="33"/>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22">
       <c r="A52" s="17"/>
-      <c r="Q52" s="52" t="s">
+      <c r="Q52" s="56" t="s">
         <v>330</v>
       </c>
-      <c r="R52" s="52"/>
-      <c r="S52" s="52"/>
-      <c r="T52" s="52"/>
-      <c r="U52" s="52"/>
-      <c r="V52" s="52"/>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="R52" s="56"/>
+      <c r="S52" s="56"/>
+      <c r="T52" s="56"/>
+      <c r="U52" s="56"/>
+      <c r="V52" s="56"/>
+    </row>
+    <row r="53" spans="1:22">
       <c r="A53" s="17"/>
-      <c r="Q53" s="52" t="s">
+      <c r="Q53" s="56" t="s">
         <v>331</v>
       </c>
-      <c r="R53" s="52"/>
-      <c r="S53" s="52"/>
-      <c r="T53" s="52"/>
-      <c r="U53" s="52"/>
+      <c r="R53" s="56"/>
+      <c r="S53" s="56"/>
+      <c r="T53" s="56"/>
+      <c r="U53" s="56"/>
       <c r="V53" s="17"/>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22">
       <c r="A54" s="17"/>
       <c r="F54" s="21"/>
       <c r="V54" s="17"/>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22">
       <c r="A55" s="17"/>
       <c r="V55" s="17"/>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22">
       <c r="A56" s="17"/>
       <c r="V56" s="17"/>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22">
       <c r="A57" s="17"/>
       <c r="F57" s="21"/>
       <c r="G57" s="21"/>
@@ -5741,7 +5734,7 @@
       <c r="M57" s="21"/>
       <c r="V57" s="17"/>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22">
       <c r="A58" s="17"/>
       <c r="F58" s="21"/>
       <c r="G58" s="21"/>
@@ -5753,7 +5746,7 @@
       <c r="M58" s="21"/>
       <c r="V58" s="17"/>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22">
       <c r="A59" s="17"/>
       <c r="F59" s="21"/>
       <c r="G59" s="21"/>
@@ -5773,7 +5766,7 @@
       <c r="U59" s="18"/>
       <c r="V59" s="17"/>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22">
       <c r="A60" s="17"/>
       <c r="F60" s="21"/>
       <c r="G60" s="21"/>
@@ -5797,7 +5790,7 @@
       <c r="U60" s="18"/>
       <c r="V60" s="17"/>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22">
       <c r="A61" s="17"/>
       <c r="F61" s="21"/>
       <c r="G61" s="21"/>
@@ -5821,7 +5814,7 @@
       <c r="U61" s="18"/>
       <c r="V61" s="17"/>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22">
       <c r="A62" s="17"/>
       <c r="F62" s="21"/>
       <c r="G62" s="21"/>
@@ -5845,7 +5838,7 @@
       <c r="U62" s="18"/>
       <c r="V62" s="17"/>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22">
       <c r="A63" s="17"/>
       <c r="F63" s="21"/>
       <c r="G63" s="21"/>
@@ -5865,7 +5858,7 @@
       <c r="U63" s="18"/>
       <c r="V63" s="17"/>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22">
       <c r="A64" s="17"/>
       <c r="F64" s="21"/>
       <c r="G64" s="21"/>
@@ -5887,7 +5880,7 @@
       <c r="U64" s="18"/>
       <c r="V64" s="17"/>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22">
       <c r="A65" s="17"/>
       <c r="F65" s="21"/>
       <c r="G65" s="21"/>
@@ -5905,7 +5898,7 @@
       <c r="U65" s="18"/>
       <c r="V65" s="17"/>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22">
       <c r="A66" s="17"/>
       <c r="F66" s="21"/>
       <c r="G66" s="21"/>
@@ -5925,7 +5918,7 @@
       <c r="U66" s="18"/>
       <c r="V66" s="17"/>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22">
       <c r="A67" s="17"/>
       <c r="F67" s="21"/>
       <c r="G67" s="21"/>
@@ -5947,7 +5940,7 @@
       <c r="U67" s="18"/>
       <c r="V67" s="17"/>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22">
       <c r="A68" s="17"/>
       <c r="F68" s="21"/>
       <c r="G68" s="21"/>
@@ -5965,7 +5958,7 @@
       <c r="U68" s="18"/>
       <c r="V68" s="17"/>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22">
       <c r="A69" s="17"/>
       <c r="F69" s="21"/>
       <c r="G69" s="21"/>
@@ -5985,7 +5978,7 @@
       <c r="U69" s="18"/>
       <c r="V69" s="17"/>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22">
       <c r="A70" s="17"/>
       <c r="E70" t="s">
         <v>294</v>
@@ -6010,7 +6003,7 @@
       <c r="U70" s="18"/>
       <c r="V70" s="17"/>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22">
       <c r="A71" s="17"/>
       <c r="F71" s="21"/>
       <c r="G71" s="21"/>
@@ -6028,7 +6021,7 @@
       <c r="U71" s="18"/>
       <c r="V71" s="17"/>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22">
       <c r="A72" s="17"/>
       <c r="F72" s="21"/>
       <c r="G72" s="21"/>
@@ -6044,7 +6037,7 @@
       <c r="M72" s="21"/>
       <c r="V72" s="17"/>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22">
       <c r="A73" s="17"/>
       <c r="F73" s="21"/>
       <c r="G73" s="21"/>
@@ -6056,11 +6049,11 @@
       <c r="M73" s="21"/>
       <c r="V73" s="17"/>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22">
       <c r="A74" s="17"/>
       <c r="V74" s="17"/>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22">
       <c r="B75" s="17"/>
       <c r="C75" s="17"/>
       <c r="D75" s="17"/>
@@ -6083,7 +6076,7 @@
       <c r="U75" s="17"/>
       <c r="V75" s="17"/>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22">
       <c r="B76" s="17"/>
       <c r="C76" s="17"/>
       <c r="D76" s="17"/>
@@ -6106,7 +6099,7 @@
       <c r="U76" s="17"/>
       <c r="V76" s="17"/>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22">
       <c r="B77" s="17"/>
       <c r="J77" s="17"/>
       <c r="K77" s="17"/>
@@ -6118,23 +6111,23 @@
       <c r="U77" s="17"/>
       <c r="V77" s="17"/>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22">
       <c r="B78" s="17"/>
       <c r="J78" s="17"/>
-      <c r="K78" s="52" t="s">
+      <c r="K78" s="56" t="s">
         <v>276</v>
       </c>
-      <c r="L78" s="52"/>
-      <c r="M78" s="52"/>
+      <c r="L78" s="56"/>
+      <c r="M78" s="56"/>
       <c r="N78" s="17"/>
       <c r="S78" s="17"/>
-      <c r="T78" s="52" t="s">
+      <c r="T78" s="56" t="s">
         <v>275</v>
       </c>
-      <c r="U78" s="52"/>
+      <c r="U78" s="56"/>
       <c r="V78" s="17"/>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22">
       <c r="B79" s="17"/>
       <c r="J79" s="17"/>
       <c r="K79" s="17"/>
@@ -6146,7 +6139,7 @@
       <c r="U79" s="17"/>
       <c r="V79" s="17"/>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:22">
       <c r="B80" s="17"/>
       <c r="K80">
         <v>91000</v>
@@ -6162,7 +6155,7 @@
       </c>
       <c r="V80" s="17"/>
     </row>
-    <row r="81" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:22">
       <c r="B81" s="17"/>
       <c r="K81">
         <v>7930</v>
@@ -6178,7 +6171,7 @@
       </c>
       <c r="V81" s="17"/>
     </row>
-    <row r="82" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:22">
       <c r="B82" s="17"/>
       <c r="K82">
         <v>27760</v>
@@ -6194,7 +6187,7 @@
       </c>
       <c r="V82" s="17"/>
     </row>
-    <row r="83" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:22">
       <c r="B83" s="17"/>
       <c r="K83">
         <v>39650</v>
@@ -6210,7 +6203,7 @@
       </c>
       <c r="V83" s="17"/>
     </row>
-    <row r="84" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:22">
       <c r="B84" s="17"/>
       <c r="K84">
         <v>4785</v>
@@ -6226,7 +6219,7 @@
       </c>
       <c r="V84" s="17"/>
     </row>
-    <row r="85" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:22">
       <c r="B85" s="17"/>
       <c r="K85">
         <v>17470</v>
@@ -6242,7 +6235,7 @@
       </c>
       <c r="V85" s="17"/>
     </row>
-    <row r="86" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:22">
       <c r="B86" s="17"/>
       <c r="K86">
         <v>600</v>
@@ -6252,15 +6245,15 @@
       </c>
       <c r="V86" s="17"/>
     </row>
-    <row r="87" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:22">
       <c r="B87" s="17"/>
       <c r="V87" s="17"/>
     </row>
-    <row r="88" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:22">
       <c r="B88" s="17"/>
       <c r="V88" s="17"/>
     </row>
-    <row r="89" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:22">
       <c r="B89" s="17"/>
       <c r="K89">
         <v>189195</v>
@@ -6273,7 +6266,7 @@
       </c>
       <c r="V89" s="17"/>
     </row>
-    <row r="90" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:22">
       <c r="B90" s="17"/>
       <c r="T90">
         <v>200</v>
@@ -6283,22 +6276,22 @@
       </c>
       <c r="V90" s="17"/>
     </row>
-    <row r="91" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:22">
       <c r="B91" s="17"/>
       <c r="V91" s="17"/>
     </row>
-    <row r="92" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:22">
       <c r="B92" s="17"/>
       <c r="V92" s="17"/>
     </row>
-    <row r="93" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:22">
       <c r="B93" s="17"/>
       <c r="U93" t="s">
         <v>282</v>
       </c>
       <c r="V93" s="17"/>
     </row>
-    <row r="94" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:22">
       <c r="B94" s="17"/>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
@@ -6312,7 +6305,7 @@
       </c>
       <c r="V94" s="17"/>
     </row>
-    <row r="95" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:22">
       <c r="B95" s="17"/>
       <c r="S95" t="s">
         <v>287</v>
@@ -6325,7 +6318,7 @@
       </c>
       <c r="V95" s="17"/>
     </row>
-    <row r="96" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:22">
       <c r="B96" s="17"/>
       <c r="S96" t="s">
         <v>288</v>
@@ -6338,7 +6331,7 @@
       </c>
       <c r="V96" s="17"/>
     </row>
-    <row r="97" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:22">
       <c r="B97" s="17"/>
       <c r="S97" t="s">
         <v>148</v>
@@ -6351,14 +6344,14 @@
       </c>
       <c r="V97" s="17"/>
     </row>
-    <row r="98" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:22" ht="15" thickBot="1">
       <c r="B98" s="17"/>
       <c r="T98">
         <v>185350</v>
       </c>
       <c r="V98" s="17"/>
     </row>
-    <row r="99" spans="2:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:22" ht="15.6" thickTop="1" thickBot="1">
       <c r="B99" s="17"/>
       <c r="J99" t="s">
         <v>293</v>
@@ -6380,15 +6373,15 @@
       </c>
       <c r="V99" s="17"/>
     </row>
-    <row r="100" spans="2:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:22" ht="15" thickTop="1">
       <c r="B100" s="17"/>
       <c r="V100" s="17"/>
     </row>
-    <row r="101" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:22">
       <c r="B101" s="17"/>
       <c r="V101" s="17"/>
     </row>
-    <row r="102" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:22">
       <c r="B102" s="17"/>
       <c r="C102" s="17"/>
       <c r="D102" s="17"/>
@@ -6411,7 +6404,7 @@
       <c r="U102" s="17"/>
       <c r="V102" s="17"/>
     </row>
-    <row r="103" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:22">
       <c r="B103" s="17"/>
       <c r="C103" s="17"/>
       <c r="D103" s="17"/>
@@ -6434,7 +6427,7 @@
       <c r="U103" s="17"/>
       <c r="V103" s="17"/>
     </row>
-    <row r="104" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:22">
       <c r="B104" s="17"/>
       <c r="R104" s="17"/>
       <c r="S104" s="17"/>
@@ -6442,17 +6435,17 @@
       <c r="U104" s="17"/>
       <c r="V104" s="17"/>
     </row>
-    <row r="105" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:22">
       <c r="B105" s="17"/>
       <c r="R105" s="17"/>
-      <c r="S105" s="51" t="s">
+      <c r="S105" s="55" t="s">
         <v>296</v>
       </c>
-      <c r="T105" s="51"/>
+      <c r="T105" s="55"/>
       <c r="U105" s="17"/>
       <c r="V105" s="17"/>
     </row>
-    <row r="106" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:22">
       <c r="B106" s="17"/>
       <c r="R106" s="17"/>
       <c r="S106" s="17"/>
@@ -6460,29 +6453,29 @@
       <c r="U106" s="17"/>
       <c r="V106" s="17"/>
     </row>
-    <row r="107" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:22">
       <c r="B107" s="17"/>
       <c r="V107" s="17"/>
     </row>
-    <row r="108" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:22">
       <c r="B108" s="17"/>
       <c r="V108" s="17"/>
     </row>
-    <row r="109" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:22">
       <c r="B109" s="17"/>
-      <c r="S109" s="52"/>
-      <c r="T109" s="52"/>
-      <c r="U109" s="52"/>
+      <c r="S109" s="56"/>
+      <c r="T109" s="56"/>
+      <c r="U109" s="56"/>
       <c r="V109" s="17"/>
     </row>
-    <row r="110" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:22">
       <c r="B110" s="17"/>
       <c r="Q110" s="6"/>
       <c r="S110" s="37"/>
       <c r="U110" s="3"/>
       <c r="V110" s="17"/>
     </row>
-    <row r="111" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:22">
       <c r="B111" s="17"/>
       <c r="E111" s="9"/>
       <c r="Q111" s="6"/>
@@ -6490,7 +6483,7 @@
       <c r="U111" s="3"/>
       <c r="V111" s="17"/>
     </row>
-    <row r="112" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:22">
       <c r="B112" s="17"/>
       <c r="E112" s="9"/>
       <c r="Q112" s="6"/>
@@ -6498,7 +6491,7 @@
       <c r="U112" s="3"/>
       <c r="V112" s="17"/>
     </row>
-    <row r="113" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:22">
       <c r="B113" s="17"/>
       <c r="E113" s="9"/>
       <c r="Q113" s="6"/>
@@ -6506,7 +6499,7 @@
       <c r="U113" s="3"/>
       <c r="V113" s="17"/>
     </row>
-    <row r="114" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:22">
       <c r="B114" s="17"/>
       <c r="E114" s="9"/>
       <c r="Q114" s="6"/>
@@ -6514,7 +6507,7 @@
       <c r="U114" s="3"/>
       <c r="V114" s="17"/>
     </row>
-    <row r="115" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:22">
       <c r="B115" s="17"/>
       <c r="E115" s="9"/>
       <c r="Q115" s="6"/>
@@ -6522,7 +6515,7 @@
       <c r="U115" s="3"/>
       <c r="V115" s="17"/>
     </row>
-    <row r="116" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:22">
       <c r="B116" s="17"/>
       <c r="E116" s="9"/>
       <c r="Q116" s="6"/>
@@ -6530,7 +6523,7 @@
       <c r="U116" s="3"/>
       <c r="V116" s="17"/>
     </row>
-    <row r="117" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:22">
       <c r="B117" s="17"/>
       <c r="E117" s="9"/>
       <c r="Q117" s="6"/>
@@ -6538,7 +6531,7 @@
       <c r="U117" s="3"/>
       <c r="V117" s="17"/>
     </row>
-    <row r="118" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:22">
       <c r="B118" s="17"/>
       <c r="E118" s="9"/>
       <c r="Q118" s="6"/>
@@ -6546,7 +6539,7 @@
       <c r="U118" s="3"/>
       <c r="V118" s="17"/>
     </row>
-    <row r="119" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:22">
       <c r="B119" s="17"/>
       <c r="E119" s="9"/>
       <c r="Q119" s="6"/>
@@ -6554,7 +6547,7 @@
       <c r="U119" s="3"/>
       <c r="V119" s="17"/>
     </row>
-    <row r="120" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:22">
       <c r="B120" s="17"/>
       <c r="E120" s="9"/>
       <c r="Q120" s="6"/>
@@ -6562,7 +6555,7 @@
       <c r="U120" s="3"/>
       <c r="V120" s="17"/>
     </row>
-    <row r="121" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:22">
       <c r="B121" s="17"/>
       <c r="E121" s="9"/>
       <c r="Q121" s="6"/>
@@ -6570,7 +6563,7 @@
       <c r="U121" s="3"/>
       <c r="V121" s="17"/>
     </row>
-    <row r="122" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:22">
       <c r="B122" s="17"/>
       <c r="E122" s="9"/>
       <c r="Q122" s="6"/>
@@ -6578,7 +6571,7 @@
       <c r="U122" s="3"/>
       <c r="V122" s="17"/>
     </row>
-    <row r="123" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:22">
       <c r="B123" s="17"/>
       <c r="E123" s="9"/>
       <c r="Q123" s="6"/>
@@ -6586,7 +6579,7 @@
       <c r="U123" s="3"/>
       <c r="V123" s="17"/>
     </row>
-    <row r="124" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:22">
       <c r="B124" s="17"/>
       <c r="E124" s="9"/>
       <c r="Q124" s="6"/>
@@ -6594,7 +6587,7 @@
       <c r="U124" s="3"/>
       <c r="V124" s="17"/>
     </row>
-    <row r="125" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:22">
       <c r="B125" s="17"/>
       <c r="E125" s="9"/>
       <c r="Q125" s="6"/>
@@ -6602,7 +6595,7 @@
       <c r="U125" s="3"/>
       <c r="V125" s="17"/>
     </row>
-    <row r="126" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:22">
       <c r="B126" s="17"/>
       <c r="E126" s="9"/>
       <c r="Q126" s="6"/>
@@ -6610,7 +6603,7 @@
       <c r="U126" s="3"/>
       <c r="V126" s="17"/>
     </row>
-    <row r="127" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:22">
       <c r="B127" s="17"/>
       <c r="E127" s="9"/>
       <c r="Q127" s="6"/>
@@ -6618,7 +6611,7 @@
       <c r="U127" s="3"/>
       <c r="V127" s="17"/>
     </row>
-    <row r="128" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:22">
       <c r="B128" s="17"/>
       <c r="E128" s="9"/>
       <c r="Q128" s="6"/>
@@ -6626,141 +6619,141 @@
       <c r="U128" s="3"/>
       <c r="V128" s="17"/>
     </row>
-    <row r="129" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:22">
       <c r="B129" s="17"/>
       <c r="E129" s="9"/>
       <c r="V129" s="17"/>
     </row>
-    <row r="130" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:22">
       <c r="B130" s="17"/>
       <c r="V130" s="17"/>
     </row>
-    <row r="131" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:22">
       <c r="B131" s="17"/>
       <c r="V131" s="17"/>
     </row>
-    <row r="132" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:22">
       <c r="B132" s="17"/>
       <c r="V132" s="17"/>
     </row>
-    <row r="133" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:22">
       <c r="B133" s="17"/>
       <c r="V133" s="17"/>
     </row>
-    <row r="134" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:22">
       <c r="B134" s="17"/>
       <c r="V134" s="17"/>
     </row>
-    <row r="135" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:22">
       <c r="B135" s="17"/>
       <c r="V135" s="17"/>
     </row>
-    <row r="136" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:22">
       <c r="B136" s="17"/>
       <c r="R136" t="s">
         <v>385</v>
       </c>
       <c r="V136" s="17"/>
     </row>
-    <row r="137" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:22">
       <c r="B137" s="17"/>
       <c r="V137" s="17"/>
     </row>
-    <row r="138" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:22">
       <c r="B138" s="17"/>
       <c r="V138" s="17"/>
     </row>
-    <row r="139" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:22">
       <c r="B139" s="17"/>
       <c r="V139" s="17"/>
     </row>
-    <row r="140" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:22">
       <c r="B140" s="17"/>
       <c r="V140" s="17"/>
     </row>
-    <row r="141" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:22">
       <c r="B141" s="17"/>
       <c r="V141" s="17"/>
     </row>
-    <row r="142" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:22">
       <c r="B142" s="17"/>
       <c r="V142" s="17"/>
     </row>
-    <row r="143" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:22">
       <c r="B143" s="17"/>
       <c r="V143" s="17"/>
     </row>
-    <row r="144" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:22">
       <c r="B144" s="17"/>
       <c r="V144" s="17"/>
     </row>
-    <row r="145" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:22">
       <c r="B145" s="17"/>
       <c r="V145" s="17"/>
     </row>
-    <row r="146" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:22">
       <c r="B146" s="17"/>
       <c r="V146" s="17"/>
     </row>
-    <row r="147" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:22">
       <c r="B147" s="17"/>
       <c r="V147" s="17"/>
     </row>
-    <row r="148" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:22">
       <c r="B148" s="17"/>
       <c r="V148" s="17"/>
     </row>
-    <row r="149" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:22">
       <c r="B149" s="17"/>
       <c r="V149" s="17"/>
     </row>
-    <row r="150" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:22">
       <c r="B150" s="17"/>
       <c r="V150" s="17"/>
     </row>
-    <row r="151" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:22">
       <c r="B151" s="17"/>
       <c r="V151" s="17"/>
     </row>
-    <row r="152" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:22">
       <c r="B152" s="17"/>
       <c r="V152" s="17"/>
     </row>
-    <row r="153" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:22">
       <c r="B153" s="17"/>
       <c r="V153" s="17"/>
     </row>
-    <row r="154" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:22">
       <c r="B154" s="17"/>
-      <c r="E154" s="58" t="s">
+      <c r="E154" s="59" t="s">
         <v>297</v>
       </c>
-      <c r="F154" s="53"/>
-      <c r="G154" s="53"/>
-      <c r="H154" s="53"/>
-      <c r="I154" s="53"/>
-      <c r="J154" s="53"/>
-      <c r="K154" s="54"/>
+      <c r="F154" s="60"/>
+      <c r="G154" s="60"/>
+      <c r="H154" s="60"/>
+      <c r="I154" s="60"/>
+      <c r="J154" s="60"/>
+      <c r="K154" s="61"/>
       <c r="Q154" s="5" t="s">
         <v>304</v>
       </c>
       <c r="V154" s="17"/>
     </row>
-    <row r="155" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:22">
       <c r="B155" s="17"/>
-      <c r="E155" s="59"/>
-      <c r="F155" s="56"/>
-      <c r="G155" s="56"/>
-      <c r="H155" s="56"/>
-      <c r="I155" s="56"/>
-      <c r="J155" s="56"/>
-      <c r="K155" s="57"/>
+      <c r="E155" s="62"/>
+      <c r="F155" s="57"/>
+      <c r="G155" s="57"/>
+      <c r="H155" s="57"/>
+      <c r="I155" s="57"/>
+      <c r="J155" s="57"/>
+      <c r="K155" s="58"/>
       <c r="Q155" s="5" t="s">
         <v>305</v>
       </c>
       <c r="V155" s="17"/>
     </row>
-    <row r="156" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:22">
       <c r="B156" s="17"/>
       <c r="E156" s="28"/>
       <c r="F156" s="19"/>
@@ -6785,7 +6778,7 @@
       </c>
       <c r="V156" s="17"/>
     </row>
-    <row r="157" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:22">
       <c r="B157" s="17"/>
       <c r="E157" s="28"/>
       <c r="F157" s="19"/>
@@ -6806,7 +6799,7 @@
       </c>
       <c r="V157" s="17"/>
     </row>
-    <row r="158" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:22">
       <c r="B158" s="17"/>
       <c r="E158" s="28"/>
       <c r="F158" s="19"/>
@@ -6814,11 +6807,11 @@
         <v>313</v>
       </c>
       <c r="H158" s="19"/>
-      <c r="I158" s="56" t="s">
+      <c r="I158" s="57" t="s">
         <v>321</v>
       </c>
-      <c r="J158" s="56"/>
-      <c r="K158" s="57"/>
+      <c r="J158" s="57"/>
+      <c r="K158" s="58"/>
       <c r="R158">
         <v>200</v>
       </c>
@@ -6827,7 +6820,7 @@
       </c>
       <c r="V158" s="17"/>
     </row>
-    <row r="159" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:22">
       <c r="B159" s="17"/>
       <c r="E159" s="28"/>
       <c r="F159" s="19"/>
@@ -6846,7 +6839,7 @@
       </c>
       <c r="V159" s="17"/>
     </row>
-    <row r="160" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:22">
       <c r="B160" s="17"/>
       <c r="E160" s="28"/>
       <c r="F160" s="19"/>
@@ -6863,7 +6856,7 @@
       </c>
       <c r="V160" s="17"/>
     </row>
-    <row r="161" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:22">
       <c r="B161" s="17"/>
       <c r="E161" s="28"/>
       <c r="F161" s="19"/>
@@ -6880,7 +6873,7 @@
       </c>
       <c r="V161" s="17"/>
     </row>
-    <row r="162" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:22">
       <c r="B162" s="17"/>
       <c r="E162" s="28"/>
       <c r="F162" s="19"/>
@@ -6888,14 +6881,14 @@
         <v>313</v>
       </c>
       <c r="H162" s="19"/>
-      <c r="I162" s="56" t="s">
+      <c r="I162" s="57" t="s">
         <v>323</v>
       </c>
-      <c r="J162" s="56"/>
-      <c r="K162" s="57"/>
+      <c r="J162" s="57"/>
+      <c r="K162" s="58"/>
       <c r="V162" s="17"/>
     </row>
-    <row r="163" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:22">
       <c r="B163" s="17"/>
       <c r="E163" s="28"/>
       <c r="F163" s="19"/>
@@ -6911,7 +6904,7 @@
       </c>
       <c r="V163" s="17"/>
     </row>
-    <row r="164" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:22">
       <c r="B164" s="17"/>
       <c r="E164" s="28"/>
       <c r="F164" s="38"/>
@@ -6930,7 +6923,7 @@
       </c>
       <c r="V164" s="17"/>
     </row>
-    <row r="165" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:22">
       <c r="B165" s="17"/>
       <c r="E165" s="28"/>
       <c r="F165" s="19"/>
@@ -6941,7 +6934,7 @@
       <c r="K165" s="29"/>
       <c r="V165" s="17"/>
     </row>
-    <row r="166" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:22">
       <c r="B166" s="17"/>
       <c r="E166" s="28"/>
       <c r="F166" s="19"/>
@@ -6958,7 +6951,7 @@
       </c>
       <c r="V166" s="17"/>
     </row>
-    <row r="167" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:22">
       <c r="B167" s="17"/>
       <c r="E167" s="28"/>
       <c r="F167" s="19"/>
@@ -6975,7 +6968,7 @@
       </c>
       <c r="V167" s="17"/>
     </row>
-    <row r="168" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:22">
       <c r="B168" s="17"/>
       <c r="E168" s="28"/>
       <c r="F168" s="19"/>
@@ -6992,7 +6985,7 @@
       </c>
       <c r="V168" s="17"/>
     </row>
-    <row r="169" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:22">
       <c r="B169" s="17"/>
       <c r="E169" s="28"/>
       <c r="F169" s="19"/>
@@ -7003,7 +6996,7 @@
       <c r="K169" s="29"/>
       <c r="V169" s="17"/>
     </row>
-    <row r="170" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:22">
       <c r="B170" s="17"/>
       <c r="E170" s="30"/>
       <c r="F170" s="20"/>
@@ -7014,11 +7007,11 @@
       <c r="K170" s="31"/>
       <c r="V170" s="17"/>
     </row>
-    <row r="171" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:22">
       <c r="B171" s="17"/>
       <c r="V171" s="17"/>
     </row>
-    <row r="172" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:22">
       <c r="B172" s="17"/>
       <c r="C172" s="17"/>
       <c r="D172" s="17"/>
@@ -7041,7 +7034,7 @@
       <c r="U172" s="17"/>
       <c r="V172" s="17"/>
     </row>
-    <row r="173" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:22">
       <c r="B173" s="17"/>
       <c r="C173" s="17"/>
       <c r="D173" s="17"/>
@@ -7064,35 +7057,35 @@
       <c r="U173" s="17"/>
       <c r="V173" s="17"/>
     </row>
-    <row r="174" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:22">
       <c r="B174" s="17"/>
       <c r="L174" s="32"/>
       <c r="V174" s="17"/>
     </row>
-    <row r="175" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:22">
       <c r="B175" s="17"/>
       <c r="L175" s="32"/>
       <c r="V175" s="17"/>
     </row>
-    <row r="176" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:22">
       <c r="B176" s="17"/>
       <c r="F176" t="s">
         <v>48</v>
       </c>
       <c r="L176" s="32"/>
-      <c r="Q176" s="52" t="s">
+      <c r="Q176" s="56" t="s">
         <v>312</v>
       </c>
-      <c r="R176" s="52"/>
-      <c r="S176" s="52"/>
+      <c r="R176" s="56"/>
+      <c r="S176" s="56"/>
       <c r="V176" s="17"/>
     </row>
-    <row r="177" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:22">
       <c r="B177" s="17"/>
       <c r="L177" s="32"/>
       <c r="V177" s="17"/>
     </row>
-    <row r="178" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:22">
       <c r="B178" s="17"/>
       <c r="I178" t="s">
         <v>313</v>
@@ -7103,7 +7096,7 @@
       </c>
       <c r="V178" s="17"/>
     </row>
-    <row r="179" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:22">
       <c r="B179" s="17"/>
       <c r="I179" t="s">
         <v>314</v>
@@ -7114,7 +7107,7 @@
       </c>
       <c r="V179" s="17"/>
     </row>
-    <row r="180" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:22">
       <c r="B180" s="17"/>
       <c r="I180" t="s">
         <v>316</v>
@@ -7123,22 +7116,22 @@
       <c r="O180" t="s">
         <v>319</v>
       </c>
-      <c r="Q180" s="52" t="s">
+      <c r="Q180" s="56" t="s">
         <v>318</v>
       </c>
-      <c r="R180" s="52"/>
+      <c r="R180" s="56"/>
       <c r="S180" t="s">
         <v>315</v>
       </c>
       <c r="V180" s="17"/>
     </row>
-    <row r="181" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:22">
       <c r="B181" s="17"/>
-      <c r="F181" s="52" t="s">
+      <c r="F181" s="56" t="s">
         <v>317</v>
       </c>
-      <c r="G181" s="52"/>
-      <c r="H181" s="52"/>
+      <c r="G181" s="56"/>
+      <c r="H181" s="56"/>
       <c r="I181" t="s">
         <v>315</v>
       </c>
@@ -7148,52 +7141,52 @@
       </c>
       <c r="V181" s="17"/>
     </row>
-    <row r="182" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:22">
       <c r="B182" s="17"/>
       <c r="L182" s="32"/>
       <c r="V182" s="17"/>
     </row>
-    <row r="183" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:22">
       <c r="B183" s="17"/>
       <c r="L183" s="32"/>
       <c r="V183" s="17"/>
     </row>
-    <row r="184" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:22">
       <c r="B184" s="17"/>
       <c r="L184" s="32"/>
       <c r="V184" s="17"/>
     </row>
-    <row r="185" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:22">
       <c r="B185" s="17"/>
       <c r="L185" s="32"/>
       <c r="V185" s="17"/>
     </row>
-    <row r="186" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:22">
       <c r="B186" s="17"/>
       <c r="L186" s="32"/>
       <c r="V186" s="17"/>
     </row>
-    <row r="187" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:22">
       <c r="B187" s="17"/>
       <c r="L187" s="32"/>
       <c r="V187" s="17"/>
     </row>
-    <row r="188" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:22">
       <c r="B188" s="17"/>
       <c r="L188" s="32"/>
       <c r="V188" s="17"/>
     </row>
-    <row r="189" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:22">
       <c r="B189" s="17"/>
       <c r="L189" s="32"/>
       <c r="V189" s="17"/>
     </row>
-    <row r="190" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:22">
       <c r="B190" s="17"/>
       <c r="L190" s="32"/>
       <c r="V190" s="17"/>
     </row>
-    <row r="191" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:22">
       <c r="B191" s="17"/>
       <c r="C191" s="17"/>
       <c r="D191" s="17"/>
@@ -7216,7 +7209,7 @@
       <c r="U191" s="17"/>
       <c r="V191" s="17"/>
     </row>
-    <row r="192" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:22">
       <c r="B192" s="17"/>
       <c r="C192" s="17"/>
       <c r="D192" s="17"/>
@@ -7239,7 +7232,7 @@
       <c r="U192" s="17"/>
       <c r="V192" s="17"/>
     </row>
-    <row r="193" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:22">
       <c r="B193" s="17"/>
       <c r="C193" s="17"/>
       <c r="D193" s="17"/>
@@ -7262,7 +7255,7 @@
       <c r="U193" s="17"/>
       <c r="V193" s="17"/>
     </row>
-    <row r="203" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:22">
       <c r="P203" s="10" t="s">
         <v>350</v>
       </c>
@@ -7273,7 +7266,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="204" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:22">
       <c r="Q204">
         <v>40</v>
       </c>
@@ -7281,28 +7274,36 @@
         <v>349</v>
       </c>
     </row>
-    <row r="205" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:22">
       <c r="Q205" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="206" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:22">
       <c r="Q206" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="207" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:22">
       <c r="Q207" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="208" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:22">
       <c r="Q208" t="s">
         <v>354</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="P30:R30"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="T7:U7"/>
     <mergeCell ref="F181:H181"/>
     <mergeCell ref="I158:K158"/>
     <mergeCell ref="I162:K162"/>
@@ -7315,14 +7316,6 @@
     <mergeCell ref="Q180:R180"/>
     <mergeCell ref="Q176:S176"/>
     <mergeCell ref="E154:K155"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="P30:R30"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="T7:U7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7331,31 +7324,31 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B5:V45"/>
   <sheetViews>
     <sheetView topLeftCell="C34" workbookViewId="0">
       <selection activeCell="U36" sqref="U36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="12" max="12" width="8.42578125" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="8.44140625" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="52"/>
-      <c r="R5" s="52"/>
-      <c r="S5" s="52"/>
-      <c r="T5" s="52"/>
-    </row>
-    <row r="6" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="7:20">
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="56"/>
+      <c r="S5" s="56"/>
+      <c r="T5" s="56"/>
+    </row>
+    <row r="6" spans="7:20">
       <c r="L6" s="16"/>
       <c r="M6" s="16"/>
       <c r="N6" s="16" t="s">
@@ -7367,31 +7360,31 @@
       <c r="R6" s="16"/>
       <c r="S6" s="16"/>
     </row>
-    <row r="7" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="7:20">
       <c r="L7" s="16"/>
-      <c r="M7" s="60" t="s">
+      <c r="M7" s="64" t="s">
         <v>355</v>
       </c>
-      <c r="N7" s="60"/>
-      <c r="O7" s="60"/>
-      <c r="P7" s="60"/>
-      <c r="Q7" s="60"/>
-      <c r="R7" s="60"/>
-      <c r="S7" s="60"/>
-    </row>
-    <row r="8" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="L8" s="52" t="s">
+      <c r="N7" s="64"/>
+      <c r="O7" s="64"/>
+      <c r="P7" s="64"/>
+      <c r="Q7" s="64"/>
+      <c r="R7" s="64"/>
+      <c r="S7" s="64"/>
+    </row>
+    <row r="8" spans="7:20">
+      <c r="L8" s="56" t="s">
         <v>375</v>
       </c>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="52"/>
-      <c r="R8" s="52"/>
-      <c r="S8" s="52"/>
-    </row>
-    <row r="16" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+    </row>
+    <row r="16" spans="7:20">
       <c r="G16" t="s">
         <v>359</v>
       </c>
@@ -7399,7 +7392,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:22">
       <c r="E17" t="s">
         <v>361</v>
       </c>
@@ -7419,7 +7412,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:22">
       <c r="B19" t="s">
         <v>365</v>
       </c>
@@ -7427,7 +7420,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:22">
       <c r="C20" t="s">
         <v>370</v>
       </c>
@@ -7435,12 +7428,12 @@
         <v>366</v>
       </c>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:22">
       <c r="G21" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:22">
       <c r="G24" t="s">
         <v>363</v>
       </c>
@@ -7460,7 +7453,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:22">
       <c r="E25" t="s">
         <v>361</v>
       </c>
@@ -7471,18 +7464,18 @@
         <v>357</v>
       </c>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:22">
       <c r="G27" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="F30" s="52" t="s">
+    <row r="30" spans="2:22">
+      <c r="F30" s="56" t="s">
         <v>371</v>
       </c>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="52"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
       <c r="P30" s="42"/>
       <c r="Q30" s="42"/>
       <c r="R30" s="42"/>
@@ -7491,7 +7484,7 @@
       <c r="U30" s="42"/>
       <c r="V30" s="42"/>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:22">
       <c r="P31" s="42"/>
       <c r="Q31" s="42"/>
       <c r="R31" s="42"/>
@@ -7500,7 +7493,7 @@
       <c r="U31" s="42"/>
       <c r="V31" s="42"/>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:22">
       <c r="P32" s="42"/>
       <c r="Q32" s="45"/>
       <c r="R32" s="45"/>
@@ -7511,7 +7504,7 @@
       <c r="U32" s="45"/>
       <c r="V32" s="42"/>
     </row>
-    <row r="33" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:22">
       <c r="P33" s="42"/>
       <c r="Q33" s="45"/>
       <c r="R33" s="45"/>
@@ -7520,7 +7513,7 @@
       <c r="U33" s="45"/>
       <c r="V33" s="42"/>
     </row>
-    <row r="34" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:22">
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
@@ -7535,7 +7528,7 @@
       <c r="U34" s="42"/>
       <c r="V34" s="42"/>
     </row>
-    <row r="35" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:22">
       <c r="C35" s="39"/>
       <c r="D35" s="40"/>
       <c r="E35" s="40"/>
@@ -7559,7 +7552,7 @@
       <c r="U35" s="42"/>
       <c r="V35" s="42"/>
     </row>
-    <row r="36" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:22">
       <c r="C36" s="40"/>
       <c r="D36" s="40"/>
       <c r="E36" s="40"/>
@@ -7581,7 +7574,7 @@
       <c r="U36" s="42"/>
       <c r="V36" s="42"/>
     </row>
-    <row r="37" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:22">
       <c r="C37" s="40"/>
       <c r="D37" s="40"/>
       <c r="E37" s="40"/>
@@ -7603,7 +7596,7 @@
       <c r="U37" s="41"/>
       <c r="V37" s="41"/>
     </row>
-    <row r="38" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:22">
       <c r="C38" s="40"/>
       <c r="D38" s="40"/>
       <c r="E38" s="40"/>
@@ -7616,7 +7609,7 @@
       <c r="L38" s="40"/>
       <c r="M38" s="40"/>
     </row>
-    <row r="39" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:22">
       <c r="C39" s="40"/>
       <c r="D39" s="40"/>
       <c r="E39" s="40"/>
@@ -7629,7 +7622,7 @@
       <c r="L39" s="40"/>
       <c r="M39" s="40"/>
     </row>
-    <row r="40" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:22">
       <c r="C40" s="40"/>
       <c r="D40" s="40"/>
       <c r="E40" s="40"/>
@@ -7641,18 +7634,18 @@
       <c r="K40" s="40"/>
       <c r="L40" s="40"/>
       <c r="M40" s="40"/>
-      <c r="O40" s="51" t="s">
+      <c r="O40" s="55" t="s">
         <v>376</v>
       </c>
-      <c r="P40" s="51"/>
-      <c r="Q40" s="51"/>
-      <c r="R40" s="51"/>
-      <c r="S40" s="51"/>
-      <c r="T40" s="51"/>
-      <c r="U40" s="51"/>
-      <c r="V40" s="51"/>
-    </row>
-    <row r="41" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="P40" s="55"/>
+      <c r="Q40" s="55"/>
+      <c r="R40" s="55"/>
+      <c r="S40" s="55"/>
+      <c r="T40" s="55"/>
+      <c r="U40" s="55"/>
+      <c r="V40" s="55"/>
+    </row>
+    <row r="41" spans="3:22">
       <c r="C41" s="40"/>
       <c r="D41" s="40"/>
       <c r="E41" s="40"/>
@@ -7664,18 +7657,18 @@
       <c r="K41" s="40"/>
       <c r="L41" s="40"/>
       <c r="M41" s="40"/>
-      <c r="O41" s="51" t="s">
+      <c r="O41" s="55" t="s">
         <v>377</v>
       </c>
-      <c r="P41" s="51"/>
-      <c r="Q41" s="51"/>
-      <c r="R41" s="51"/>
-      <c r="S41" s="51"/>
-      <c r="T41" s="51"/>
-      <c r="U41" s="51"/>
+      <c r="P41" s="55"/>
+      <c r="Q41" s="55"/>
+      <c r="R41" s="55"/>
+      <c r="S41" s="55"/>
+      <c r="T41" s="55"/>
+      <c r="U41" s="55"/>
       <c r="V41" s="3"/>
     </row>
-    <row r="42" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:22">
       <c r="C42" s="40"/>
       <c r="D42" s="40"/>
       <c r="E42" s="40"/>
@@ -7687,18 +7680,18 @@
       <c r="K42" s="40"/>
       <c r="L42" s="40"/>
       <c r="M42" s="40"/>
-      <c r="O42" s="51" t="s">
+      <c r="O42" s="55" t="s">
         <v>378</v>
       </c>
-      <c r="P42" s="51"/>
-      <c r="Q42" s="51"/>
-      <c r="R42" s="51"/>
-      <c r="S42" s="51"/>
-      <c r="T42" s="51"/>
-      <c r="U42" s="51"/>
+      <c r="P42" s="55"/>
+      <c r="Q42" s="55"/>
+      <c r="R42" s="55"/>
+      <c r="S42" s="55"/>
+      <c r="T42" s="55"/>
+      <c r="U42" s="55"/>
       <c r="V42" s="3"/>
     </row>
-    <row r="43" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:22">
       <c r="C43" s="40"/>
       <c r="D43" s="40"/>
       <c r="E43" s="40"/>
@@ -7710,19 +7703,19 @@
       <c r="K43" s="40"/>
       <c r="L43" s="40"/>
       <c r="M43" s="40"/>
-      <c r="N43" s="51" t="s">
+      <c r="N43" s="55" t="s">
         <v>379</v>
       </c>
-      <c r="O43" s="51"/>
-      <c r="P43" s="51"/>
-      <c r="Q43" s="51"/>
-      <c r="R43" s="51"/>
-      <c r="S43" s="51"/>
-      <c r="T43" s="51"/>
-      <c r="U43" s="51"/>
-      <c r="V43" s="51"/>
-    </row>
-    <row r="44" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="O43" s="55"/>
+      <c r="P43" s="55"/>
+      <c r="Q43" s="55"/>
+      <c r="R43" s="55"/>
+      <c r="S43" s="55"/>
+      <c r="T43" s="55"/>
+      <c r="U43" s="55"/>
+      <c r="V43" s="55"/>
+    </row>
+    <row r="44" spans="3:22">
       <c r="C44" s="40"/>
       <c r="D44" s="40"/>
       <c r="E44" s="40"/>
@@ -7735,7 +7728,7 @@
       <c r="L44" s="40"/>
       <c r="M44" s="40"/>
     </row>
-    <row r="45" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:22">
       <c r="C45" s="40"/>
       <c r="D45" s="40"/>
       <c r="E45" s="40"/>
@@ -7764,41 +7757,41 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A2:W86"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:W98"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="I82" sqref="I82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="2" spans="13:22" x14ac:dyDescent="0.25">
-      <c r="T2" s="52" t="s">
+    <row r="2" spans="13:22">
+      <c r="T2" s="56" t="s">
         <v>386</v>
       </c>
-      <c r="U2" s="52"/>
-      <c r="V2" s="52"/>
-    </row>
-    <row r="3" spans="13:22" x14ac:dyDescent="0.25">
-      <c r="T3" s="52"/>
-      <c r="U3" s="52"/>
-      <c r="V3" s="52"/>
-    </row>
-    <row r="4" spans="13:22" x14ac:dyDescent="0.25">
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+    </row>
+    <row r="3" spans="13:22">
+      <c r="T3" s="56"/>
+      <c r="U3" s="56"/>
+      <c r="V3" s="56"/>
+    </row>
+    <row r="4" spans="13:22">
       <c r="O4" s="6"/>
       <c r="P4" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="6" spans="13:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="13:22">
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="44" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="7" spans="13:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="13:22">
       <c r="M7" t="s">
         <v>90</v>
       </c>
@@ -7809,42 +7802,42 @@
         <v>388</v>
       </c>
     </row>
-    <row r="8" spans="13:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="13:22">
       <c r="T8" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="9" spans="13:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="13:22">
       <c r="T9" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="10" spans="13:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="13:22">
       <c r="S10" s="6"/>
       <c r="T10" s="6" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="11" spans="13:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="13:22">
       <c r="S11" s="6"/>
       <c r="T11" s="6" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="13" spans="13:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="13:22">
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
       <c r="U13" s="44" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="15" spans="13:22" x14ac:dyDescent="0.25">
-      <c r="S15" s="63" t="s">
+    <row r="15" spans="13:22">
+      <c r="S15" s="65" t="s">
         <v>394</v>
       </c>
-      <c r="T15" s="63"/>
-    </row>
-    <row r="16" spans="13:22" x14ac:dyDescent="0.25">
+      <c r="T15" s="65"/>
+    </row>
+    <row r="16" spans="13:22">
       <c r="P16" s="11" t="s">
         <v>396</v>
       </c>
@@ -7853,165 +7846,165 @@
         <v>395</v>
       </c>
     </row>
-    <row r="17" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="15:20">
       <c r="T17" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="18" spans="15:20" x14ac:dyDescent="0.25">
-      <c r="O18" s="66"/>
-      <c r="P18" s="66" t="s">
+    <row r="18" spans="15:20">
+      <c r="O18" s="50"/>
+      <c r="P18" s="50" t="s">
         <v>406</v>
       </c>
       <c r="T18" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="19" spans="15:20" x14ac:dyDescent="0.25">
-      <c r="O19" s="66"/>
-      <c r="P19" s="66" t="s">
+    <row r="19" spans="15:20">
+      <c r="O19" s="50"/>
+      <c r="P19" s="50" t="s">
         <v>407</v>
       </c>
       <c r="T19" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="20" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="15:20">
       <c r="S20" s="6"/>
       <c r="T20" s="6" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="21" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="15:20">
       <c r="S21" s="6"/>
       <c r="T21" s="6" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="22" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="15:20">
       <c r="S22" s="6" t="s">
         <v>401</v>
       </c>
       <c r="T22" s="6"/>
     </row>
-    <row r="23" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="15:20">
       <c r="S23" s="6" t="s">
         <v>402</v>
       </c>
       <c r="T23" s="6"/>
     </row>
-    <row r="24" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="15:20">
       <c r="S24" s="6" t="s">
         <v>403</v>
       </c>
       <c r="T24" s="6"/>
     </row>
-    <row r="25" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="15:20">
       <c r="S25" s="6"/>
       <c r="T25" s="6" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="26" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="15:20">
       <c r="S26" s="6"/>
       <c r="T26" s="6" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="28" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="15:20">
       <c r="S28">
         <v>200</v>
       </c>
     </row>
-    <row r="31" spans="15:20" x14ac:dyDescent="0.25">
-      <c r="P31" s="64" t="s">
+    <row r="31" spans="15:20">
+      <c r="P31" s="55" t="s">
         <v>408</v>
       </c>
-      <c r="Q31" s="64"/>
-      <c r="R31" s="64"/>
-      <c r="S31" s="64"/>
-    </row>
-    <row r="32" spans="15:20" x14ac:dyDescent="0.25">
-      <c r="P32" s="11"/>
-      <c r="Q32" s="11"/>
-      <c r="R32" s="11" t="s">
+      <c r="Q31" s="55"/>
+      <c r="R31" s="55"/>
+      <c r="S31" s="55"/>
+    </row>
+    <row r="32" spans="15:20">
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="S32" s="11"/>
-    </row>
-    <row r="33" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11"/>
-      <c r="R33" s="11" t="s">
+      <c r="S32" s="3"/>
+    </row>
+    <row r="33" spans="8:21">
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="S33" s="11"/>
-    </row>
-    <row r="38" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="S33" s="3"/>
+    </row>
+    <row r="38" spans="8:21">
       <c r="S38" s="46"/>
       <c r="T38" s="46" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="40" spans="8:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="8:21">
       <c r="S40" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="41" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H41" s="52"/>
-      <c r="I41" s="52"/>
-      <c r="J41" s="52"/>
+    <row r="41" spans="8:21">
+      <c r="H41" s="56"/>
+      <c r="I41" s="56"/>
+      <c r="J41" s="56"/>
       <c r="M41" t="s">
         <v>415</v>
       </c>
-      <c r="O41" s="49"/>
-      <c r="P41" s="49"/>
-      <c r="Q41" s="49"/>
-      <c r="R41" s="49"/>
-      <c r="S41" s="49" t="s">
+      <c r="O41" s="48"/>
+      <c r="P41" s="48"/>
+      <c r="Q41" s="48"/>
+      <c r="R41" s="48"/>
+      <c r="S41" s="48" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="42" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="I42" s="65" t="s">
+    <row r="42" spans="8:21">
+      <c r="I42" s="66" t="s">
         <v>416</v>
       </c>
-      <c r="J42" s="65"/>
-      <c r="K42" s="65"/>
-      <c r="L42" s="65"/>
-      <c r="M42" s="65"/>
-      <c r="N42" s="65"/>
-      <c r="O42" s="65"/>
-      <c r="P42" s="65"/>
-      <c r="Q42" s="65"/>
-      <c r="R42" s="65"/>
-      <c r="S42" s="49"/>
-    </row>
-    <row r="45" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="M45" s="52" t="s">
+      <c r="J42" s="66"/>
+      <c r="K42" s="66"/>
+      <c r="L42" s="66"/>
+      <c r="M42" s="66"/>
+      <c r="N42" s="66"/>
+      <c r="O42" s="66"/>
+      <c r="P42" s="66"/>
+      <c r="Q42" s="66"/>
+      <c r="R42" s="66"/>
+      <c r="S42" s="48"/>
+    </row>
+    <row r="45" spans="8:21">
+      <c r="M45" s="56" t="s">
         <v>414</v>
       </c>
-      <c r="N45" s="52"/>
-      <c r="O45" s="52"/>
-      <c r="P45" s="52"/>
-      <c r="Q45" s="52"/>
-      <c r="R45" s="52"/>
-      <c r="S45" s="52"/>
-      <c r="T45" s="52"/>
-      <c r="U45" s="52"/>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B49" s="61" t="s">
+      <c r="N45" s="56"/>
+      <c r="O45" s="56"/>
+      <c r="P45" s="56"/>
+      <c r="Q45" s="56"/>
+      <c r="R45" s="56"/>
+      <c r="S45" s="56"/>
+      <c r="T45" s="56"/>
+      <c r="U45" s="56"/>
+    </row>
+    <row r="49" spans="1:23">
+      <c r="B49" s="67" t="s">
         <v>417</v>
       </c>
-      <c r="C49" s="61"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="61"/>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C49" s="67"/>
+      <c r="D49" s="67"/>
+      <c r="E49" s="67"/>
+      <c r="F49" s="67"/>
+      <c r="G49" s="67"/>
+    </row>
+    <row r="51" spans="1:23">
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -8020,7 +8013,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23">
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -8028,7 +8021,16 @@
         <v>419</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23">
+      <c r="B54" s="56" t="s">
+        <v>451</v>
+      </c>
+      <c r="C54" s="56"/>
+      <c r="D54" s="56"/>
+      <c r="E54" s="56"/>
+      <c r="F54" s="56"/>
+    </row>
+    <row r="56" spans="1:23">
       <c r="A56" s="47"/>
       <c r="B56" s="47"/>
       <c r="C56" s="47"/>
@@ -8053,32 +8055,37 @@
       <c r="V56" s="47"/>
       <c r="W56" s="47"/>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B59" s="16"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="16" t="s">
+    <row r="59" spans="1:23">
+      <c r="A59" s="55" t="s">
         <v>424</v>
       </c>
-      <c r="R59" s="62" t="s">
+      <c r="B59" s="55"/>
+      <c r="C59" s="55"/>
+      <c r="D59" s="55"/>
+      <c r="E59" s="55"/>
+      <c r="F59" s="55"/>
+      <c r="R59" s="68" t="s">
         <v>420</v>
       </c>
-      <c r="S59" s="62"/>
-      <c r="T59" s="62"/>
-      <c r="U59" s="62"/>
-      <c r="V59" s="62"/>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B60" s="16"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="16" t="s">
+      <c r="S59" s="68"/>
+      <c r="T59" s="68"/>
+      <c r="U59" s="68"/>
+      <c r="V59" s="68"/>
+    </row>
+    <row r="60" spans="1:23">
+      <c r="A60" s="55" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B60" s="55"/>
+      <c r="C60" s="55"/>
+      <c r="D60" s="55"/>
+      <c r="E60" s="55"/>
+      <c r="F60" s="55"/>
+      <c r="G60" s="55"/>
+    </row>
+    <row r="61" spans="1:23">
       <c r="A61" s="33"/>
-      <c r="B61" s="67"/>
+      <c r="B61" s="51"/>
       <c r="C61" s="16"/>
       <c r="D61" s="16"/>
       <c r="E61" s="16" t="s">
@@ -8086,17 +8093,19 @@
       </c>
       <c r="F61" s="33"/>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23">
       <c r="A62" s="33"/>
-      <c r="B62" s="67"/>
+      <c r="B62" s="51"/>
       <c r="C62" s="16" t="s">
         <v>432</v>
       </c>
-      <c r="D62" s="50"/>
-      <c r="E62" s="50" t="s">
+      <c r="D62" s="49"/>
+      <c r="E62" s="49" t="s">
         <v>411</v>
       </c>
-      <c r="F62" s="33"/>
+      <c r="F62" s="52" t="s">
+        <v>452</v>
+      </c>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
@@ -8120,12 +8129,16 @@
         <v>421</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B63" s="16"/>
-      <c r="C63" s="16"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="16" t="s">
+    <row r="63" spans="1:23">
+      <c r="A63" s="55" t="s">
         <v>433</v>
+      </c>
+      <c r="B63" s="55"/>
+      <c r="C63" s="55"/>
+      <c r="D63" s="55"/>
+      <c r="E63" s="55"/>
+      <c r="F63" s="53" t="s">
+        <v>328</v>
       </c>
       <c r="O63" s="3"/>
       <c r="P63" s="3"/>
@@ -8137,128 +8150,368 @@
         <v>425</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23">
       <c r="B64" s="33"/>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="F64" s="53" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="B65" s="33"/>
       <c r="C65" s="33"/>
       <c r="D65" s="33"/>
       <c r="E65" s="33"/>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B67" s="52"/>
-      <c r="C67" s="52"/>
-      <c r="D67" s="52"/>
-      <c r="E67" s="52"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B68" s="52"/>
-      <c r="C68" s="52"/>
-      <c r="D68" s="52"/>
-      <c r="E68" s="52"/>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="I69" s="52"/>
-      <c r="K69" s="52"/>
-      <c r="L69" s="52"/>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="I70" s="52"/>
-      <c r="K70" s="52"/>
-      <c r="L70" s="52"/>
-      <c r="T70" t="s">
+      <c r="F65" s="53" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="F66" s="53" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="B67" s="56"/>
+      <c r="C67" s="56"/>
+      <c r="D67" s="56"/>
+      <c r="E67" s="56"/>
+      <c r="F67" s="53" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="B68" s="56"/>
+      <c r="C68" s="56"/>
+      <c r="D68" s="56"/>
+      <c r="E68" s="56"/>
+      <c r="F68" s="53" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="F69" s="53" t="s">
+        <v>328</v>
+      </c>
+      <c r="I69" s="56"/>
+      <c r="K69" s="56"/>
+      <c r="L69" s="56"/>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="A70" s="45"/>
+      <c r="B70" s="55" t="s">
+        <v>454</v>
+      </c>
+      <c r="C70" s="55"/>
+      <c r="D70" s="55"/>
+      <c r="E70" s="53" t="s">
+        <v>455</v>
+      </c>
+      <c r="F70" s="53" t="s">
+        <v>453</v>
+      </c>
+      <c r="I70" s="56"/>
+      <c r="K70" s="56"/>
+      <c r="L70" s="56"/>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="A71" s="33"/>
+      <c r="B71" s="33"/>
+      <c r="C71" s="33"/>
+      <c r="D71" s="33"/>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72" s="33"/>
+      <c r="B72" s="33"/>
+      <c r="C72" s="33"/>
+      <c r="D72" s="33"/>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="A73" s="33"/>
+      <c r="B73" s="33"/>
+      <c r="C73" s="33"/>
+      <c r="D73" s="33"/>
+      <c r="E73" s="54"/>
+      <c r="F73" s="54"/>
+      <c r="G73" s="54"/>
+      <c r="H73" s="54"/>
+      <c r="I73" s="54"/>
+      <c r="J73" s="54"/>
+      <c r="K73" s="54"/>
+      <c r="L73" s="54"/>
+      <c r="M73" s="54"/>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74" s="33"/>
+      <c r="B74" s="33"/>
+      <c r="C74" s="33"/>
+      <c r="D74" s="33"/>
+      <c r="E74" s="54"/>
+      <c r="F74" s="54"/>
+      <c r="G74" s="54"/>
+      <c r="H74" s="54"/>
+      <c r="I74" s="54"/>
+      <c r="J74" s="54"/>
+      <c r="K74" s="54"/>
+      <c r="L74" s="54"/>
+      <c r="M74" s="54"/>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="A75" s="33"/>
+      <c r="B75" s="33"/>
+      <c r="C75" s="33"/>
+      <c r="D75" s="33"/>
+      <c r="E75" s="54"/>
+      <c r="F75" s="54"/>
+      <c r="G75" s="54"/>
+      <c r="H75" s="54"/>
+      <c r="I75" s="54"/>
+      <c r="J75" s="54"/>
+      <c r="K75" s="54"/>
+      <c r="L75" s="54"/>
+      <c r="M75" s="54"/>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76" s="33"/>
+      <c r="B76" s="33"/>
+      <c r="C76" s="56"/>
+      <c r="D76" s="56"/>
+      <c r="E76" s="56"/>
+      <c r="F76" s="56"/>
+      <c r="G76" s="56"/>
+      <c r="H76" s="56"/>
+      <c r="I76" s="56"/>
+      <c r="J76" s="56"/>
+      <c r="K76" s="54"/>
+      <c r="L76" s="54"/>
+      <c r="M76" s="54"/>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="E77" s="54"/>
+      <c r="F77" s="54"/>
+      <c r="G77" s="54"/>
+      <c r="H77" s="54"/>
+      <c r="I77" s="54"/>
+      <c r="J77" s="54"/>
+      <c r="K77" s="54"/>
+      <c r="L77" s="54"/>
+      <c r="M77" s="54"/>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="E78" s="54"/>
+      <c r="F78" s="54"/>
+      <c r="G78" s="54"/>
+      <c r="H78" s="54"/>
+      <c r="I78" s="54"/>
+      <c r="J78" s="54"/>
+      <c r="K78" s="54"/>
+      <c r="L78" s="54"/>
+      <c r="M78" s="54"/>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="E79" s="54"/>
+      <c r="F79" s="54"/>
+      <c r="G79" s="54"/>
+      <c r="H79" s="54"/>
+      <c r="I79" s="54"/>
+      <c r="J79" s="54"/>
+      <c r="K79" s="54"/>
+      <c r="L79" s="54"/>
+      <c r="M79" s="54"/>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="E80" s="54"/>
+      <c r="F80" s="54"/>
+      <c r="G80" s="54"/>
+      <c r="H80" s="54"/>
+      <c r="I80" s="54"/>
+      <c r="J80" s="54"/>
+      <c r="K80" s="54"/>
+      <c r="L80" s="54"/>
+      <c r="M80" s="54"/>
+    </row>
+    <row r="81" spans="1:21">
+      <c r="E81" s="54"/>
+      <c r="F81" s="54"/>
+      <c r="G81" s="54"/>
+      <c r="H81" s="54"/>
+      <c r="I81" s="54"/>
+      <c r="J81" s="54"/>
+      <c r="K81" s="54"/>
+      <c r="L81" s="54"/>
+      <c r="M81" s="54"/>
+    </row>
+    <row r="82" spans="1:21">
+      <c r="E82" s="54"/>
+      <c r="F82" s="54"/>
+      <c r="G82" s="54"/>
+      <c r="H82" s="54"/>
+      <c r="I82" s="54"/>
+      <c r="J82" s="54"/>
+      <c r="K82" s="54"/>
+      <c r="L82" s="54"/>
+      <c r="M82" s="54"/>
+    </row>
+    <row r="83" spans="1:21">
+      <c r="E83" s="54"/>
+      <c r="F83" s="54"/>
+      <c r="G83" s="54"/>
+      <c r="H83" s="54"/>
+      <c r="I83" s="54"/>
+      <c r="J83" s="54"/>
+      <c r="K83" s="54"/>
+      <c r="L83" s="54"/>
+      <c r="M83" s="54"/>
+      <c r="N83" s="56"/>
+      <c r="O83" s="56"/>
+      <c r="P83" s="56"/>
+      <c r="Q83" s="56"/>
+      <c r="R83" s="56"/>
+      <c r="S83" s="56"/>
+      <c r="T83" s="56"/>
+      <c r="U83" s="56"/>
+    </row>
+    <row r="84" spans="1:21">
+      <c r="E84" s="54"/>
+      <c r="F84" s="54"/>
+      <c r="G84" s="54"/>
+      <c r="H84" s="54"/>
+      <c r="I84" s="54"/>
+      <c r="J84" s="54"/>
+      <c r="K84" s="54"/>
+      <c r="L84" s="54"/>
+      <c r="M84" s="54"/>
+    </row>
+    <row r="85" spans="1:21">
+      <c r="E85" s="54"/>
+      <c r="F85" s="54"/>
+      <c r="G85" s="54"/>
+      <c r="H85" s="54"/>
+      <c r="I85" s="54"/>
+      <c r="J85" s="54"/>
+      <c r="K85" s="54"/>
+      <c r="L85" s="54"/>
+      <c r="M85" s="54"/>
+    </row>
+    <row r="86" spans="1:21">
+      <c r="E86" s="54"/>
+      <c r="F86" s="54"/>
+      <c r="G86" s="54"/>
+      <c r="H86" s="54"/>
+      <c r="I86" s="54"/>
+      <c r="J86" s="54"/>
+      <c r="K86" s="54"/>
+      <c r="L86" s="54"/>
+      <c r="M86" s="54"/>
+    </row>
+    <row r="87" spans="1:21">
+      <c r="B87" s="56" t="s">
+        <v>458</v>
+      </c>
+      <c r="C87" s="56"/>
+      <c r="D87" s="56"/>
+      <c r="E87" s="56"/>
+      <c r="F87" s="56"/>
+      <c r="G87" s="56"/>
+      <c r="H87" s="56"/>
+      <c r="I87" s="56"/>
+      <c r="J87" s="54">
+        <v>1</v>
+      </c>
+      <c r="K87" s="54"/>
+      <c r="L87" s="54"/>
+      <c r="M87" s="54"/>
+    </row>
+    <row r="88" spans="1:21">
+      <c r="A88" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="B88" s="55" t="s">
+        <v>457</v>
+      </c>
+      <c r="C88" s="55"/>
+      <c r="D88" s="55"/>
+      <c r="E88" s="55"/>
+      <c r="F88" s="55"/>
+      <c r="G88" s="55"/>
+      <c r="H88" s="55"/>
+      <c r="I88" s="55"/>
+      <c r="J88" s="3">
+        <v>2</v>
+      </c>
+      <c r="K88" s="3"/>
+    </row>
+    <row r="89" spans="1:21">
+      <c r="F89" s="56" t="s">
+        <v>459</v>
+      </c>
+      <c r="G89" s="56"/>
+      <c r="H89" s="56"/>
+      <c r="J89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21">
+      <c r="F93" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="S71" t="s">
+      <c r="J93">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21">
+      <c r="E94" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="S72" t="s">
+    <row r="95" spans="1:21">
+      <c r="E95" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="S73" t="s">
+    <row r="96" spans="1:21">
+      <c r="E96" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="F74" s="48"/>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="F75" s="48"/>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="F76" s="48"/>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="F77" s="48"/>
-    </row>
-    <row r="78" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="F78" s="48"/>
-      <c r="I78" s="48"/>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="F79" s="48"/>
-      <c r="I79" s="48"/>
-    </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="F80" s="48"/>
-      <c r="I80" s="48"/>
-    </row>
-    <row r="81" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F81" s="48"/>
-      <c r="I81" s="48"/>
-    </row>
-    <row r="82" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F82" s="48"/>
-      <c r="G82" s="48"/>
-      <c r="I82" s="48"/>
-    </row>
-    <row r="83" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F83" s="48"/>
-      <c r="G83" s="48"/>
-      <c r="I83" s="48"/>
-    </row>
-    <row r="84" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F84" s="48"/>
-      <c r="G84" s="48"/>
-      <c r="H84" s="48"/>
-      <c r="I84" s="48"/>
-    </row>
-    <row r="85" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F85" s="48"/>
-      <c r="G85" s="48"/>
-      <c r="H85" s="48"/>
-      <c r="I85" s="48"/>
-    </row>
-    <row r="86" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F86" s="48"/>
-      <c r="G86" s="48"/>
-      <c r="H86" s="48"/>
-      <c r="I86" s="48"/>
-      <c r="J86" s="48"/>
-      <c r="K86" s="48"/>
-      <c r="L86" s="48"/>
-      <c r="M86" s="48"/>
+    <row r="97" spans="3:7">
+      <c r="C97" s="56" t="s">
+        <v>456</v>
+      </c>
+      <c r="D97" s="56"/>
+      <c r="E97" s="56"/>
+      <c r="F97" s="56"/>
+    </row>
+    <row r="98" spans="3:7">
+      <c r="D98" s="56"/>
+      <c r="E98" s="56"/>
+      <c r="F98" s="56"/>
+      <c r="G98" s="56"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="23">
+    <mergeCell ref="F89:H89"/>
+    <mergeCell ref="D98:G98"/>
+    <mergeCell ref="C76:J76"/>
+    <mergeCell ref="N83:U83"/>
+    <mergeCell ref="B87:I87"/>
+    <mergeCell ref="B88:I88"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="C97:F97"/>
     <mergeCell ref="B49:G49"/>
     <mergeCell ref="R59:V59"/>
     <mergeCell ref="K69:L70"/>
     <mergeCell ref="I69:I70"/>
+    <mergeCell ref="B67:E68"/>
+    <mergeCell ref="A63:E63"/>
+    <mergeCell ref="A60:G60"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="B54:F54"/>
     <mergeCell ref="T2:V3"/>
     <mergeCell ref="S15:T15"/>
     <mergeCell ref="P31:S31"/>
     <mergeCell ref="M45:U45"/>
     <mergeCell ref="H41:J41"/>
     <mergeCell ref="I42:R42"/>
-    <mergeCell ref="B67:E68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8267,16 +8520,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C443730-29F1-42F4-ABE3-8B9B64D8A370}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="F5:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="5" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="6:9">
       <c r="F5" s="16" t="s">
         <v>434</v>
       </c>
@@ -8285,7 +8538,7 @@
       </c>
       <c r="I5" s="16"/>
     </row>
-    <row r="6" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="6:9">
       <c r="F6" t="s">
         <v>84</v>
       </c>
@@ -8293,7 +8546,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="7" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="6:9">
       <c r="F7" t="s">
         <v>100</v>
       </c>
@@ -8301,7 +8554,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="6:9">
       <c r="F8" t="s">
         <v>435</v>
       </c>
@@ -8309,7 +8562,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="6:9">
       <c r="F9" t="s">
         <v>430</v>
       </c>
@@ -8317,68 +8570,68 @@
         <v>438</v>
       </c>
     </row>
-    <row r="10" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="6:9">
       <c r="F10" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="12" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="6:9">
       <c r="F12" s="16" t="s">
         <v>439</v>
       </c>
       <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="6:9">
       <c r="F13" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="14" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="6:9">
       <c r="F14" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="6:9">
       <c r="F15" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="16" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="6:9">
       <c r="F16" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:6">
       <c r="F17" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:6">
       <c r="F18" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="6:6">
       <c r="F19" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="6:6">
       <c r="F20" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="6:6">
       <c r="F21" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="6:6">
       <c r="F22" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="6:6">
       <c r="F23" t="s">
         <v>449</v>
       </c>

--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FreeLance\Mokhtar Elsamhy\Fish Business\FishBusiness\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE9DE56-1D3E-4499-A2F7-6E03272D1B07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="463">
   <si>
     <t>حلقه سمك</t>
   </si>
@@ -1403,13 +1409,19 @@
   </si>
   <si>
     <t>PaidForSeller</t>
+  </si>
+  <si>
+    <t>استرجاع المكتب الفرعي</t>
+  </si>
+  <si>
+    <t>مشكلة الهالك</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1794,6 +1806,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1803,31 +1824,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1868,7 +1880,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="WhatsApp Image 2020-08-17 at 1.23.37 AM.jpeg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1917,7 +1929,7 @@
         <xdr:cNvPr id="3" name="Picture 2" descr="Capturea.PNG">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1989,7 +2001,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2021,9 +2033,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2055,6 +2085,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2230,22 +2278,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y117"/>
   <sheetViews>
     <sheetView topLeftCell="A106" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="M1" sqref="M1:M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E1">
         <v>2500</v>
       </c>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E2">
         <v>3000</v>
       </c>
@@ -2254,7 +2302,7 @@
       </c>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E3">
         <v>10000</v>
       </c>
@@ -2263,7 +2311,7 @@
       </c>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="F4">
         <v>7.5</v>
       </c>
@@ -2272,7 +2320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -2291,7 +2339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
@@ -2303,7 +2351,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -2328,7 +2376,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -2350,7 +2398,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -2366,7 +2414,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -2384,7 +2432,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -2394,7 +2442,7 @@
       <c r="I11" s="3"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -2412,7 +2460,7 @@
       </c>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -2434,7 +2482,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -2450,7 +2498,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -2475,7 +2523,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -2494,7 +2542,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -2516,7 +2564,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -2535,7 +2583,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:24">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -2551,7 +2599,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -2570,7 +2618,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -2580,7 +2628,7 @@
       </c>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="1:24">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -2593,7 +2641,7 @@
       </c>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="1:24">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -2606,7 +2654,7 @@
       </c>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="1:24">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -2619,7 +2667,7 @@
       </c>
       <c r="M24" s="5"/>
     </row>
-    <row r="25" spans="1:24">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="H25" t="s">
         <v>24</v>
       </c>
@@ -2627,12 +2675,12 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="26" spans="1:24">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="1:24">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
         <v>26</v>
       </c>
@@ -2643,7 +2691,7 @@
         <v>5650</v>
       </c>
     </row>
-    <row r="28" spans="1:24">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="I28" s="4">
         <v>0.06</v>
       </c>
@@ -2662,12 +2710,12 @@
       <c r="R28" s="6"/>
       <c r="S28" s="6"/>
     </row>
-    <row r="29" spans="1:24">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="I29">
         <v>5311</v>
       </c>
     </row>
-    <row r="30" spans="1:24">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E30">
         <v>100</v>
       </c>
@@ -2684,7 +2732,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:24">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="H31" t="s">
         <v>29</v>
       </c>
@@ -2692,7 +2740,7 @@
         <v>5011</v>
       </c>
     </row>
-    <row r="32" spans="1:24">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="I32">
         <v>2500</v>
       </c>
@@ -2712,7 +2760,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="5:25">
+    <row r="33" spans="5:25" x14ac:dyDescent="0.25">
       <c r="I33">
         <v>2500</v>
       </c>
@@ -2726,7 +2774,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="5:25">
+    <row r="34" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5" t="s">
@@ -2745,7 +2793,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="5:25">
+    <row r="35" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
@@ -2762,7 +2810,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="5:25">
+    <row r="36" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
@@ -2779,7 +2827,7 @@
       <c r="W36" s="5"/>
       <c r="X36" s="5"/>
     </row>
-    <row r="37" spans="5:25">
+    <row r="37" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
@@ -2790,7 +2838,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="38" spans="5:25">
+    <row r="38" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E38" s="5" t="s">
         <v>41</v>
       </c>
@@ -2805,7 +2853,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="39" spans="5:25">
+    <row r="39" spans="5:25" x14ac:dyDescent="0.25">
       <c r="F39" t="s">
         <v>34</v>
       </c>
@@ -2818,7 +2866,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="40" spans="5:25">
+    <row r="40" spans="5:25" x14ac:dyDescent="0.25">
       <c r="F40" t="s">
         <v>35</v>
       </c>
@@ -2828,7 +2876,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="5:25">
+    <row r="41" spans="5:25" x14ac:dyDescent="0.25">
       <c r="F41" t="s">
         <v>36</v>
       </c>
@@ -2838,7 +2886,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="5:25">
+    <row r="42" spans="5:25" x14ac:dyDescent="0.25">
       <c r="F42" t="s">
         <v>37</v>
       </c>
@@ -2848,7 +2896,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="5:25">
+    <row r="43" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
@@ -2862,7 +2910,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="5:25">
+    <row r="44" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
@@ -2870,7 +2918,7 @@
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
     </row>
-    <row r="45" spans="5:25">
+    <row r="45" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
@@ -2878,7 +2926,7 @@
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
     </row>
-    <row r="46" spans="5:25">
+    <row r="46" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
@@ -2895,7 +2943,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="5:25">
+    <row r="47" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
@@ -2912,7 +2960,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="5:25">
+    <row r="48" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
@@ -2929,7 +2977,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="8:25">
+    <row r="49" spans="8:25" x14ac:dyDescent="0.25">
       <c r="R49" t="s">
         <v>24</v>
       </c>
@@ -2940,22 +2988,22 @@
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="8:25">
+    <row r="50" spans="8:25" x14ac:dyDescent="0.25">
       <c r="Y50" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="8:25">
+    <row r="51" spans="8:25" x14ac:dyDescent="0.25">
       <c r="X51">
         <v>20000</v>
       </c>
     </row>
-    <row r="52" spans="8:25">
+    <row r="52" spans="8:25" x14ac:dyDescent="0.25">
       <c r="Y52">
         <v>2000</v>
       </c>
     </row>
-    <row r="58" spans="8:25">
+    <row r="58" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
@@ -2970,7 +3018,7 @@
       <c r="S58" s="5"/>
       <c r="T58" s="5"/>
     </row>
-    <row r="64" spans="8:25">
+    <row r="64" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
@@ -2987,7 +3035,7 @@
       <c r="W64" s="5"/>
       <c r="X64" s="5"/>
     </row>
-    <row r="65" spans="8:25">
+    <row r="65" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
@@ -3006,7 +3054,7 @@
       <c r="W65" s="5"/>
       <c r="X65" s="5"/>
     </row>
-    <row r="66" spans="8:25">
+    <row r="66" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
@@ -3023,7 +3071,7 @@
       <c r="W66" s="5"/>
       <c r="X66" s="5"/>
     </row>
-    <row r="67" spans="8:25">
+    <row r="67" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
@@ -3040,7 +3088,7 @@
       <c r="W67" s="5"/>
       <c r="X67" s="5"/>
     </row>
-    <row r="68" spans="8:25">
+    <row r="68" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
@@ -3059,7 +3107,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="8:25">
+    <row r="69" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
@@ -3076,7 +3124,7 @@
       <c r="W69" s="5"/>
       <c r="X69" s="5"/>
     </row>
-    <row r="70" spans="8:25">
+    <row r="70" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H70" s="5"/>
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
@@ -3098,7 +3146,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="71" spans="8:25">
+    <row r="71" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
@@ -3123,7 +3171,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="72" spans="8:25">
+    <row r="72" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
@@ -3143,7 +3191,7 @@
       <c r="W72" s="5"/>
       <c r="X72" s="5"/>
     </row>
-    <row r="73" spans="8:25">
+    <row r="73" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
@@ -3163,7 +3211,7 @@
       <c r="W73" s="5"/>
       <c r="X73" s="5"/>
     </row>
-    <row r="74" spans="8:25">
+    <row r="74" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
@@ -3180,7 +3228,7 @@
       <c r="W74" s="5"/>
       <c r="X74" s="5"/>
     </row>
-    <row r="75" spans="8:25">
+    <row r="75" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
@@ -3197,7 +3245,7 @@
       <c r="W75" s="5"/>
       <c r="X75" s="5"/>
     </row>
-    <row r="76" spans="8:25">
+    <row r="76" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
@@ -3215,7 +3263,7 @@
         <v>5650</v>
       </c>
     </row>
-    <row r="77" spans="8:25">
+    <row r="77" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
@@ -3236,7 +3284,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="78" spans="8:25">
+    <row r="78" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
@@ -3251,7 +3299,7 @@
         <v>5311</v>
       </c>
     </row>
-    <row r="79" spans="8:25">
+    <row r="79" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H79" s="5"/>
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
@@ -3272,7 +3320,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="8:25">
+    <row r="80" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
@@ -3290,7 +3338,7 @@
         <v>5011</v>
       </c>
     </row>
-    <row r="81" spans="6:24">
+    <row r="81" spans="6:24" x14ac:dyDescent="0.25">
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
@@ -3307,71 +3355,71 @@
       <c r="W81" s="5"/>
       <c r="X81" s="5"/>
     </row>
-    <row r="82" spans="6:24">
+    <row r="82" spans="6:24" x14ac:dyDescent="0.25">
       <c r="T82" s="5"/>
       <c r="U82" s="5"/>
       <c r="V82" s="5"/>
       <c r="W82" s="5"/>
       <c r="X82" s="5"/>
     </row>
-    <row r="83" spans="6:24">
+    <row r="83" spans="6:24" x14ac:dyDescent="0.25">
       <c r="T83" s="5"/>
       <c r="U83" s="5"/>
       <c r="V83" s="5"/>
       <c r="W83" s="5"/>
       <c r="X83" s="5"/>
     </row>
-    <row r="84" spans="6:24">
+    <row r="84" spans="6:24" x14ac:dyDescent="0.25">
       <c r="T84" s="5"/>
       <c r="U84" s="5"/>
       <c r="V84" s="5"/>
       <c r="W84" s="5"/>
       <c r="X84" s="5"/>
     </row>
-    <row r="85" spans="6:24">
+    <row r="85" spans="6:24" x14ac:dyDescent="0.25">
       <c r="T85" s="5"/>
       <c r="U85" s="5"/>
       <c r="V85" s="5"/>
       <c r="W85" s="5"/>
       <c r="X85" s="5"/>
     </row>
-    <row r="86" spans="6:24">
+    <row r="86" spans="6:24" x14ac:dyDescent="0.25">
       <c r="T86" s="5"/>
       <c r="U86" s="5"/>
       <c r="V86" s="5"/>
       <c r="W86" s="5"/>
       <c r="X86" s="5"/>
     </row>
-    <row r="87" spans="6:24">
+    <row r="87" spans="6:24" x14ac:dyDescent="0.25">
       <c r="T87" s="5"/>
       <c r="U87" s="5"/>
       <c r="V87" s="5"/>
       <c r="W87" s="5"/>
       <c r="X87" s="5"/>
     </row>
-    <row r="88" spans="6:24">
+    <row r="88" spans="6:24" x14ac:dyDescent="0.25">
       <c r="T88" s="5"/>
       <c r="U88" s="5"/>
       <c r="V88" s="5"/>
       <c r="W88" s="5"/>
       <c r="X88" s="5"/>
     </row>
-    <row r="90" spans="6:24">
+    <row r="90" spans="6:24" x14ac:dyDescent="0.25">
       <c r="F90" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="6:24">
+    <row r="95" spans="6:24" x14ac:dyDescent="0.25">
       <c r="V95" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="96" spans="6:24">
+    <row r="96" spans="6:24" x14ac:dyDescent="0.25">
       <c r="V96" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="97" spans="20:22">
+    <row r="97" spans="20:22" x14ac:dyDescent="0.25">
       <c r="U97" t="s">
         <v>64</v>
       </c>
@@ -3379,17 +3427,17 @@
         <v>53</v>
       </c>
     </row>
-    <row r="98" spans="20:22">
+    <row r="98" spans="20:22" x14ac:dyDescent="0.25">
       <c r="V98" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="99" spans="20:22">
+    <row r="99" spans="20:22" x14ac:dyDescent="0.25">
       <c r="V99" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="100" spans="20:22">
+    <row r="100" spans="20:22" x14ac:dyDescent="0.25">
       <c r="T100" t="s">
         <v>60</v>
       </c>
@@ -3397,7 +3445,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="116" spans="20:22">
+    <row r="116" spans="20:22" x14ac:dyDescent="0.25">
       <c r="T116" t="s">
         <v>67</v>
       </c>
@@ -3405,7 +3453,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="117" spans="20:22">
+    <row r="117" spans="20:22" x14ac:dyDescent="0.25">
       <c r="V117" t="s">
         <v>66</v>
       </c>
@@ -3417,24 +3465,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B4:V84"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I11" sqref="I11:K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" customWidth="1"/>
-    <col min="10" max="10" width="6.6640625" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" customWidth="1"/>
     <col min="11" max="11" width="7" customWidth="1"/>
-    <col min="12" max="12" width="13.44140625" customWidth="1"/>
-    <col min="13" max="13" width="15.5546875" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:18">
+    <row r="4" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D4" s="1" t="s">
         <v>68</v>
       </c>
@@ -3451,7 +3499,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="4:18">
+    <row r="5" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>87</v>
       </c>
@@ -3468,7 +3516,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="4:18">
+    <row r="6" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>70</v>
       </c>
@@ -3485,7 +3533,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="4:18">
+    <row r="7" spans="4:18" x14ac:dyDescent="0.25">
       <c r="G7" t="s">
         <v>72</v>
       </c>
@@ -3496,7 +3544,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="4:18">
+    <row r="8" spans="4:18" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
         <v>142</v>
       </c>
@@ -3507,14 +3555,14 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="4:18">
+    <row r="9" spans="4:18" x14ac:dyDescent="0.25">
       <c r="F9" s="9"/>
       <c r="G9" s="9" t="s">
         <v>73</v>
       </c>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="4:18">
+    <row r="10" spans="4:18" x14ac:dyDescent="0.25">
       <c r="G10" t="s">
         <v>95</v>
       </c>
@@ -3522,7 +3570,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="4:18">
+    <row r="11" spans="4:18" x14ac:dyDescent="0.25">
       <c r="F11" s="3">
         <v>0</v>
       </c>
@@ -3533,17 +3581,17 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="4:18">
+    <row r="12" spans="4:18" x14ac:dyDescent="0.25">
       <c r="J12" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="4:18">
+    <row r="13" spans="4:18" x14ac:dyDescent="0.25">
       <c r="J13" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="4:18">
+    <row r="14" spans="4:18" x14ac:dyDescent="0.25">
       <c r="M14" s="1" t="s">
         <v>83</v>
       </c>
@@ -3553,7 +3601,7 @@
       </c>
       <c r="R14" s="1"/>
     </row>
-    <row r="15" spans="4:18">
+    <row r="15" spans="4:18" x14ac:dyDescent="0.25">
       <c r="M15" t="s">
         <v>86</v>
       </c>
@@ -3561,7 +3609,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="4:18">
+    <row r="16" spans="4:18" x14ac:dyDescent="0.25">
       <c r="M16" t="s">
         <v>78</v>
       </c>
@@ -3569,7 +3617,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="4:20">
+    <row r="17" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D17" s="1" t="s">
         <v>93</v>
       </c>
@@ -3580,7 +3628,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="4:20">
+    <row r="18" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>95</v>
       </c>
@@ -3594,7 +3642,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="4:20">
+    <row r="19" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>94</v>
       </c>
@@ -3605,7 +3653,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="4:20">
+    <row r="20" spans="4:20" x14ac:dyDescent="0.25">
       <c r="K20">
         <v>600</v>
       </c>
@@ -3616,7 +3664,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="4:20">
+    <row r="21" spans="4:20" x14ac:dyDescent="0.25">
       <c r="L21">
         <v>400</v>
       </c>
@@ -3624,7 +3672,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="4:20">
+    <row r="22" spans="4:20" x14ac:dyDescent="0.25">
       <c r="G22" s="3"/>
       <c r="H22" s="3" t="s">
         <v>130</v>
@@ -3639,7 +3687,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="4:20">
+    <row r="23" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D23" s="1" t="s">
         <v>99</v>
       </c>
@@ -3655,7 +3703,7 @@
       </c>
       <c r="N23" s="3"/>
     </row>
-    <row r="24" spans="4:20">
+    <row r="24" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>101</v>
       </c>
@@ -3663,7 +3711,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="4:20">
+    <row r="25" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>100</v>
       </c>
@@ -3671,17 +3719,17 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="4:20">
+    <row r="26" spans="4:20" x14ac:dyDescent="0.25">
       <c r="G26" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="4:20">
+    <row r="27" spans="4:20" x14ac:dyDescent="0.25">
       <c r="G27" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="28" spans="4:20">
+    <row r="28" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
@@ -3700,7 +3748,7 @@
       <c r="S28" s="7"/>
       <c r="T28" s="7"/>
     </row>
-    <row r="37" spans="6:18">
+    <row r="37" spans="6:18" x14ac:dyDescent="0.25">
       <c r="G37" s="1" t="s">
         <v>102</v>
       </c>
@@ -3714,7 +3762,7 @@
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
     </row>
-    <row r="38" spans="6:18">
+    <row r="38" spans="6:18" x14ac:dyDescent="0.25">
       <c r="G38" t="s">
         <v>106</v>
       </c>
@@ -3725,7 +3773,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="6:18">
+    <row r="39" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F39" t="s">
         <v>110</v>
       </c>
@@ -3739,7 +3787,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="6:18">
+    <row r="40" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F40">
         <v>20000</v>
       </c>
@@ -3753,7 +3801,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="6:18">
+    <row r="41" spans="6:18" x14ac:dyDescent="0.25">
       <c r="K41">
         <v>20000</v>
       </c>
@@ -3764,7 +3812,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="6:18">
+    <row r="42" spans="6:18" x14ac:dyDescent="0.25">
       <c r="J42" t="s">
         <v>113</v>
       </c>
@@ -3778,7 +3826,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="6:18">
+    <row r="43" spans="6:18" x14ac:dyDescent="0.25">
       <c r="K43">
         <v>5000</v>
       </c>
@@ -3789,7 +3837,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="6:18">
+    <row r="44" spans="6:18" x14ac:dyDescent="0.25">
       <c r="K44" t="s">
         <v>111</v>
       </c>
@@ -3797,7 +3845,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="49" spans="2:20">
+    <row r="49" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -3816,12 +3864,12 @@
       <c r="S49" s="2"/>
       <c r="T49" s="2"/>
     </row>
-    <row r="54" spans="2:20">
+    <row r="54" spans="2:20" x14ac:dyDescent="0.25">
       <c r="E54" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="55" spans="2:20">
+    <row r="55" spans="2:20" x14ac:dyDescent="0.25">
       <c r="E55" t="s">
         <v>84</v>
       </c>
@@ -3829,7 +3877,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="56" spans="2:20">
+    <row r="56" spans="2:20" x14ac:dyDescent="0.25">
       <c r="E56" s="3" t="s">
         <v>100</v>
       </c>
@@ -3840,7 +3888,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="57" spans="2:20">
+    <row r="57" spans="2:20" x14ac:dyDescent="0.25">
       <c r="E57" s="3" t="s">
         <v>115</v>
       </c>
@@ -3851,12 +3899,12 @@
         <v>118</v>
       </c>
     </row>
-    <row r="58" spans="2:20">
+    <row r="58" spans="2:20" x14ac:dyDescent="0.25">
       <c r="M58" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="60" spans="2:20">
+    <row r="60" spans="2:20" x14ac:dyDescent="0.25">
       <c r="L60" t="s">
         <v>122</v>
       </c>
@@ -3864,7 +3912,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="2:20">
+    <row r="62" spans="2:20" x14ac:dyDescent="0.25">
       <c r="K62" s="3"/>
       <c r="L62" s="3" t="s">
         <v>123</v>
@@ -3875,7 +3923,7 @@
       </c>
       <c r="P62" s="3"/>
     </row>
-    <row r="63" spans="2:20">
+    <row r="63" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>145</v>
       </c>
@@ -3894,7 +3942,7 @@
       </c>
       <c r="P63" s="3"/>
     </row>
-    <row r="64" spans="2:20">
+    <row r="64" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>147</v>
       </c>
@@ -3906,7 +3954,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="66" spans="2:22">
+    <row r="66" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>150</v>
       </c>
@@ -3917,7 +3965,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="67" spans="2:22">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>151</v>
       </c>
@@ -3931,12 +3979,12 @@
         <v>155</v>
       </c>
     </row>
-    <row r="68" spans="2:22">
+    <row r="68" spans="2:22" x14ac:dyDescent="0.25">
       <c r="G68" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="69" spans="2:22">
+    <row r="69" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>20</v>
       </c>
@@ -3950,7 +3998,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="70" spans="2:22">
+    <row r="70" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>152</v>
       </c>
@@ -3970,19 +4018,19 @@
       <c r="U70" s="56"/>
       <c r="V70" s="56"/>
     </row>
-    <row r="71" spans="2:22">
+    <row r="71" spans="2:22" x14ac:dyDescent="0.25">
       <c r="S71" s="56"/>
       <c r="T71" s="56"/>
       <c r="U71" s="56"/>
       <c r="V71" s="56"/>
     </row>
-    <row r="72" spans="2:22">
+    <row r="72" spans="2:22" x14ac:dyDescent="0.25">
       <c r="S72" s="56"/>
       <c r="T72" s="56"/>
       <c r="U72" s="56"/>
       <c r="V72" s="56"/>
     </row>
-    <row r="73" spans="2:22">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.25">
       <c r="N73" s="55" t="s">
         <v>157</v>
       </c>
@@ -3994,7 +4042,7 @@
       <c r="U73" s="56"/>
       <c r="V73" s="56"/>
     </row>
-    <row r="74" spans="2:22">
+    <row r="74" spans="2:22" x14ac:dyDescent="0.25">
       <c r="E74" s="2" t="s">
         <v>140</v>
       </c>
@@ -4015,7 +4063,7 @@
       <c r="U74" s="56"/>
       <c r="V74" s="56"/>
     </row>
-    <row r="75" spans="2:22">
+    <row r="75" spans="2:22" x14ac:dyDescent="0.25">
       <c r="E75" s="3" t="s">
         <v>105</v>
       </c>
@@ -4035,7 +4083,7 @@
       <c r="U75" s="56"/>
       <c r="V75" s="56"/>
     </row>
-    <row r="76" spans="2:22">
+    <row r="76" spans="2:22" x14ac:dyDescent="0.25">
       <c r="E76" s="3" t="s">
         <v>90</v>
       </c>
@@ -4052,7 +4100,7 @@
       <c r="U76" s="56"/>
       <c r="V76" s="56"/>
     </row>
-    <row r="77" spans="2:22">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.25">
       <c r="E77" s="3" t="s">
         <v>137</v>
       </c>
@@ -4065,7 +4113,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="78" spans="2:22">
+    <row r="78" spans="2:22" x14ac:dyDescent="0.25">
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
       <c r="I78" s="3" t="s">
@@ -4084,7 +4132,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="79" spans="2:22">
+    <row r="79" spans="2:22" x14ac:dyDescent="0.25">
       <c r="E79" s="3" t="s">
         <v>112</v>
       </c>
@@ -4102,7 +4150,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="80" spans="2:22">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.25">
       <c r="E80" s="3" t="s">
         <v>141</v>
       </c>
@@ -4111,7 +4159,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="81" spans="13:17">
+    <row r="81" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M81" t="s">
         <v>167</v>
       </c>
@@ -4119,7 +4167,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="82" spans="13:17">
+    <row r="82" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M82" t="s">
         <v>169</v>
       </c>
@@ -4130,7 +4178,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="84" spans="13:17">
+    <row r="84" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M84" t="s">
         <v>171</v>
       </c>
@@ -4150,20 +4198,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:V68"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="H2" s="14"/>
       <c r="I2" s="14" t="s">
         <v>48</v>
@@ -4176,7 +4224,7 @@
       </c>
       <c r="O2" s="3"/>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B3" s="13">
         <v>13000</v>
       </c>
@@ -4195,7 +4243,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O4" s="3"/>
       <c r="R4" s="5"/>
       <c r="S4" s="5">
@@ -4205,7 +4253,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O5" s="3"/>
       <c r="R5" s="5">
         <v>2600</v>
@@ -4217,7 +4265,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D6">
         <v>1475</v>
       </c>
@@ -4232,7 +4280,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I7" t="s">
         <v>182</v>
       </c>
@@ -4253,7 +4301,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E8">
         <v>1475</v>
       </c>
@@ -4278,7 +4326,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="L9">
         <v>2950</v>
       </c>
@@ -4290,7 +4338,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>245.8</v>
       </c>
@@ -4311,7 +4359,7 @@
         <v>3950</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>250</v>
       </c>
@@ -4322,7 +4370,7 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>3000</v>
       </c>
@@ -4345,7 +4393,7 @@
       <c r="O12" s="3"/>
       <c r="Q12" s="10"/>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D13">
         <v>3000</v>
       </c>
@@ -4363,7 +4411,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C14">
         <v>950</v>
       </c>
@@ -4384,7 +4432,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O15" s="3"/>
       <c r="R15">
         <v>950</v>
@@ -4396,7 +4444,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="H16" s="12">
         <v>500</v>
       </c>
@@ -4415,7 +4463,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="17" spans="4:21">
+    <row r="17" spans="4:21" x14ac:dyDescent="0.25">
       <c r="L17">
         <v>4045</v>
       </c>
@@ -4424,7 +4472,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="4:21">
+    <row r="18" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>189</v>
       </c>
@@ -4445,7 +4493,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="19" spans="4:21">
+    <row r="19" spans="4:21" x14ac:dyDescent="0.25">
       <c r="O19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
@@ -4453,7 +4501,7 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
     </row>
-    <row r="20" spans="4:21">
+    <row r="20" spans="4:21" x14ac:dyDescent="0.25">
       <c r="H20" s="12"/>
       <c r="J20" s="3">
         <v>3790</v>
@@ -4463,7 +4511,7 @@
       </c>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="4:21">
+    <row r="21" spans="4:21" x14ac:dyDescent="0.25">
       <c r="O21" s="3"/>
       <c r="R21">
         <v>2600</v>
@@ -4475,7 +4523,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="4:21">
+    <row r="22" spans="4:21" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
         <v>192</v>
       </c>
@@ -4493,7 +4541,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="23" spans="4:21">
+    <row r="23" spans="4:21" x14ac:dyDescent="0.25">
       <c r="F23">
         <v>129.5</v>
       </c>
@@ -4514,7 +4562,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="24" spans="4:21">
+    <row r="24" spans="4:21" x14ac:dyDescent="0.25">
       <c r="F24">
         <v>130</v>
       </c>
@@ -4535,7 +4583,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="25" spans="4:21">
+    <row r="25" spans="4:21" x14ac:dyDescent="0.25">
       <c r="G25" t="s">
         <v>193</v>
       </c>
@@ -4553,7 +4601,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="26" spans="4:21">
+    <row r="26" spans="4:21" x14ac:dyDescent="0.25">
       <c r="G26">
         <v>1300</v>
       </c>
@@ -4574,13 +4622,13 @@
         <v>179</v>
       </c>
     </row>
-    <row r="27" spans="4:21">
+    <row r="27" spans="4:21" x14ac:dyDescent="0.25">
       <c r="O27" s="3"/>
       <c r="R27">
         <v>6430</v>
       </c>
     </row>
-    <row r="28" spans="4:21">
+    <row r="28" spans="4:21" x14ac:dyDescent="0.25">
       <c r="J28" t="s">
         <v>198</v>
       </c>
@@ -4592,7 +4640,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="29" spans="4:21">
+    <row r="29" spans="4:21" x14ac:dyDescent="0.25">
       <c r="K29">
         <v>4150</v>
       </c>
@@ -4601,7 +4649,7 @@
         <v>6045</v>
       </c>
     </row>
-    <row r="30" spans="4:21">
+    <row r="30" spans="4:21" x14ac:dyDescent="0.25">
       <c r="J30" t="s">
         <v>51</v>
       </c>
@@ -4610,7 +4658,7 @@
       </c>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="4:21">
+    <row r="31" spans="4:21" x14ac:dyDescent="0.25">
       <c r="J31" t="s">
         <v>200</v>
       </c>
@@ -4619,13 +4667,13 @@
       </c>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="4:21">
+    <row r="32" spans="4:21" x14ac:dyDescent="0.25">
       <c r="J32" t="s">
         <v>201</v>
       </c>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:22">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="I33" t="s">
         <v>202</v>
       </c>
@@ -4637,10 +4685,10 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="34" spans="1:22">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:22">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -4657,10 +4705,10 @@
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:22">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:22">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
       <c r="J37" s="14"/>
@@ -4671,10 +4719,10 @@
       </c>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:22">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:22">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H39" s="12"/>
       <c r="I39">
         <v>6</v>
@@ -4686,13 +4734,13 @@
       </c>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:22">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:22">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:22">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O42" s="3"/>
       <c r="R42" s="5"/>
       <c r="S42" s="3"/>
@@ -4700,7 +4748,7 @@
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
     </row>
-    <row r="43" spans="1:22">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H43" s="12"/>
       <c r="I43">
         <v>6</v>
@@ -4712,7 +4760,7 @@
       </c>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:22">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O44" s="3"/>
       <c r="R44" s="5"/>
       <c r="S44" s="3"/>
@@ -4720,10 +4768,10 @@
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
     </row>
-    <row r="45" spans="1:22">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:22">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O46" s="3"/>
       <c r="R46" s="5"/>
       <c r="S46" s="3"/>
@@ -4731,7 +4779,7 @@
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
     </row>
-    <row r="47" spans="1:22">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H47" s="12"/>
       <c r="I47">
         <v>6</v>
@@ -4743,16 +4791,16 @@
       </c>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:22">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="6:22">
+    <row r="49" spans="6:22" x14ac:dyDescent="0.25">
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="6:22">
+    <row r="50" spans="6:22" x14ac:dyDescent="0.25">
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="6:22">
+    <row r="51" spans="6:22" x14ac:dyDescent="0.25">
       <c r="H51" s="12"/>
       <c r="J51" s="3"/>
       <c r="L51" s="11">
@@ -4760,7 +4808,7 @@
       </c>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="6:22">
+    <row r="52" spans="6:22" x14ac:dyDescent="0.25">
       <c r="K52" t="s">
         <v>214</v>
       </c>
@@ -4769,25 +4817,25 @@
       </c>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="6:22">
+    <row r="53" spans="6:22" x14ac:dyDescent="0.25">
       <c r="L53">
         <v>8090</v>
       </c>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="6:22">
+    <row r="54" spans="6:22" x14ac:dyDescent="0.25">
       <c r="K54" t="s">
         <v>198</v>
       </c>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="6:22">
+    <row r="55" spans="6:22" x14ac:dyDescent="0.25">
       <c r="L55">
         <v>4045</v>
       </c>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="6:22">
+    <row r="56" spans="6:22" x14ac:dyDescent="0.25">
       <c r="J56" t="s">
         <v>215</v>
       </c>
@@ -4802,7 +4850,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="57" spans="6:22">
+    <row r="57" spans="6:22" x14ac:dyDescent="0.25">
       <c r="K57" t="s">
         <v>205</v>
       </c>
@@ -4823,10 +4871,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="6:22">
+    <row r="58" spans="6:22" x14ac:dyDescent="0.25">
       <c r="O58" s="3"/>
     </row>
-    <row r="59" spans="6:22">
+    <row r="59" spans="6:22" x14ac:dyDescent="0.25">
       <c r="L59" t="s">
         <v>206</v>
       </c>
@@ -4844,7 +4892,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="60" spans="6:22">
+    <row r="60" spans="6:22" x14ac:dyDescent="0.25">
       <c r="F60" s="5" t="s">
         <v>202</v>
       </c>
@@ -4865,7 +4913,7 @@
       </c>
       <c r="O60" s="3"/>
     </row>
-    <row r="61" spans="6:22">
+    <row r="61" spans="6:22" x14ac:dyDescent="0.25">
       <c r="G61">
         <v>700</v>
       </c>
@@ -4883,7 +4931,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="62" spans="6:22">
+    <row r="62" spans="6:22" x14ac:dyDescent="0.25">
       <c r="L62" t="s">
         <v>209</v>
       </c>
@@ -4892,7 +4940,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="63" spans="6:22">
+    <row r="63" spans="6:22" x14ac:dyDescent="0.25">
       <c r="K63" t="s">
         <v>210</v>
       </c>
@@ -4904,10 +4952,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="64" spans="6:22">
+    <row r="64" spans="6:22" x14ac:dyDescent="0.25">
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="12:21">
+    <row r="65" spans="12:21" x14ac:dyDescent="0.25">
       <c r="L65" t="s">
         <v>211</v>
       </c>
@@ -4916,16 +4964,16 @@
         <v>170</v>
       </c>
     </row>
-    <row r="66" spans="12:21">
+    <row r="66" spans="12:21" x14ac:dyDescent="0.25">
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="12:21">
+    <row r="67" spans="12:21" x14ac:dyDescent="0.25">
       <c r="L67">
         <v>8400</v>
       </c>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="12:21">
+    <row r="68" spans="12:21" x14ac:dyDescent="0.25">
       <c r="O68" s="3"/>
     </row>
   </sheetData>
@@ -4935,16 +4983,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:X208"/>
   <sheetViews>
     <sheetView topLeftCell="E111" workbookViewId="0">
       <selection activeCell="R133" sqref="R133"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:24">
+    <row r="1" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
@@ -4969,7 +5017,7 @@
       <c r="W1" s="17"/>
       <c r="X1" s="17"/>
     </row>
-    <row r="2" spans="2:24">
+    <row r="2" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
@@ -4996,7 +5044,7 @@
       <c r="W2" s="56"/>
       <c r="X2" s="17"/>
     </row>
-    <row r="3" spans="2:24">
+    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
@@ -5015,13 +5063,13 @@
       <c r="Q3" s="17"/>
       <c r="R3" s="17"/>
       <c r="S3" s="17"/>
-      <c r="T3" s="63"/>
-      <c r="U3" s="63"/>
-      <c r="V3" s="63"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="59"/>
       <c r="W3" s="17"/>
       <c r="X3" s="17"/>
     </row>
-    <row r="4" spans="2:24">
+    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B4" s="17"/>
       <c r="S4" t="s">
         <v>249</v>
@@ -5033,15 +5081,15 @@
       <c r="V4" s="56"/>
       <c r="X4" s="17"/>
     </row>
-    <row r="5" spans="2:24">
+    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B5" s="17"/>
       <c r="X5" s="17"/>
     </row>
-    <row r="6" spans="2:24">
+    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B6" s="17"/>
       <c r="X6" s="17"/>
     </row>
-    <row r="7" spans="2:24">
+    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B7" s="17"/>
       <c r="R7" t="s">
         <v>335</v>
@@ -5052,11 +5100,11 @@
       <c r="U7" s="56"/>
       <c r="X7" s="17"/>
     </row>
-    <row r="8" spans="2:24">
+    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B8" s="17"/>
       <c r="X8" s="17"/>
     </row>
-    <row r="9" spans="2:24">
+    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B9" s="17"/>
       <c r="L9" t="s">
         <v>240</v>
@@ -5074,7 +5122,7 @@
       <c r="U9" s="56"/>
       <c r="X9" s="17"/>
     </row>
-    <row r="10" spans="2:24">
+    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B10" s="17"/>
       <c r="L10" t="s">
         <v>241</v>
@@ -5084,7 +5132,7 @@
       </c>
       <c r="X10" s="17"/>
     </row>
-    <row r="11" spans="2:24">
+    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B11" s="17"/>
       <c r="L11" t="s">
         <v>242</v>
@@ -5109,7 +5157,7 @@
       </c>
       <c r="X11" s="17"/>
     </row>
-    <row r="12" spans="2:24">
+    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B12" s="17"/>
       <c r="K12" t="s">
         <v>243</v>
@@ -5128,18 +5176,18 @@
       </c>
       <c r="X12" s="17"/>
     </row>
-    <row r="13" spans="2:24">
+    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B13" s="17"/>
       <c r="X13" s="17"/>
     </row>
-    <row r="14" spans="2:24">
+    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B14" s="17"/>
       <c r="V14" s="3">
         <v>17890</v>
       </c>
       <c r="X14" s="17"/>
     </row>
-    <row r="15" spans="2:24">
+    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B15" s="17"/>
       <c r="V15">
         <v>9380</v>
@@ -5149,7 +5197,7 @@
       </c>
       <c r="X15" s="17"/>
     </row>
-    <row r="16" spans="2:24">
+    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B16" s="17"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -5160,7 +5208,7 @@
       <c r="W16" s="5"/>
       <c r="X16" s="17"/>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B17" s="17"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -5171,7 +5219,7 @@
       </c>
       <c r="X17" s="17"/>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B18" s="17"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -5191,7 +5239,7 @@
       </c>
       <c r="X18" s="17"/>
     </row>
-    <row r="19" spans="1:24">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B19" s="17"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -5202,7 +5250,7 @@
       </c>
       <c r="X19" s="17"/>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B20" s="17"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -5218,7 +5266,7 @@
       </c>
       <c r="X20" s="17"/>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B21" s="17"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -5228,7 +5276,7 @@
       <c r="L21" s="3"/>
       <c r="X21" s="17"/>
     </row>
-    <row r="22" spans="1:24">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B22" s="17"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -5238,7 +5286,7 @@
       <c r="L22" s="3"/>
       <c r="X22" s="17"/>
     </row>
-    <row r="23" spans="1:24">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B23" s="17"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -5248,7 +5296,7 @@
       <c r="L23" s="3"/>
       <c r="X23" s="17"/>
     </row>
-    <row r="24" spans="1:24">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B24" s="17"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -5258,18 +5306,18 @@
       <c r="L24" s="3"/>
       <c r="X24" s="17"/>
     </row>
-    <row r="25" spans="1:24">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B25" s="17"/>
       <c r="R25" s="10">
         <v>44013</v>
       </c>
       <c r="X25" s="17"/>
     </row>
-    <row r="26" spans="1:24">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B26" s="17"/>
       <c r="X26" s="17"/>
     </row>
-    <row r="27" spans="1:24">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="17"/>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
@@ -5295,7 +5343,7 @@
       <c r="W27" s="17"/>
       <c r="X27" s="17"/>
     </row>
-    <row r="28" spans="1:24">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="17"/>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
@@ -5321,7 +5369,7 @@
       <c r="W28" s="17"/>
       <c r="X28" s="17"/>
     </row>
-    <row r="29" spans="1:24">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="17"/>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
@@ -5347,7 +5395,7 @@
       <c r="W29" s="17"/>
       <c r="X29" s="17"/>
     </row>
-    <row r="30" spans="1:24">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
@@ -5373,7 +5421,7 @@
       <c r="U30" s="17"/>
       <c r="V30" s="17"/>
     </row>
-    <row r="31" spans="1:24">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="17"/>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
@@ -5397,18 +5445,18 @@
       <c r="U31" s="17"/>
       <c r="V31" s="17"/>
     </row>
-    <row r="32" spans="1:24">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="17"/>
       <c r="I32" t="s">
         <v>253</v>
       </c>
       <c r="V32" s="17"/>
     </row>
-    <row r="33" spans="1:22">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="17"/>
       <c r="V33" s="17"/>
     </row>
-    <row r="34" spans="1:22">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="17"/>
       <c r="B34" t="s">
         <v>174</v>
@@ -5441,7 +5489,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="35" spans="1:22">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="17"/>
       <c r="B35" t="s">
         <v>174</v>
@@ -5472,7 +5520,7 @@
       </c>
       <c r="V35" s="16"/>
     </row>
-    <row r="36" spans="1:22">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="17"/>
       <c r="B36" t="s">
         <v>174</v>
@@ -5494,11 +5542,11 @@
       </c>
       <c r="V36" s="16"/>
     </row>
-    <row r="37" spans="1:22">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="17"/>
       <c r="V37" s="16"/>
     </row>
-    <row r="38" spans="1:22">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="17"/>
       <c r="C38" t="s">
         <v>254</v>
@@ -5519,7 +5567,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="39" spans="1:22">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="17"/>
       <c r="K39">
         <v>250</v>
@@ -5538,7 +5586,7 @@
       </c>
       <c r="V39" s="16"/>
     </row>
-    <row r="40" spans="1:22">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="17"/>
       <c r="B40" t="s">
         <v>333</v>
@@ -5548,11 +5596,11 @@
       </c>
       <c r="V40" s="16"/>
     </row>
-    <row r="41" spans="1:22">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="17"/>
       <c r="V41" s="16"/>
     </row>
-    <row r="42" spans="1:22">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="17"/>
       <c r="G42" t="s">
         <v>346</v>
@@ -5568,13 +5616,13 @@
       </c>
       <c r="V42" s="16"/>
     </row>
-    <row r="43" spans="1:22">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="17"/>
       <c r="V43" s="16" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="44" spans="1:22">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="17"/>
       <c r="I44" t="s">
         <v>269</v>
@@ -5593,7 +5641,7 @@
       </c>
       <c r="V44" s="17"/>
     </row>
-    <row r="45" spans="1:22">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="17"/>
       <c r="Q45" t="s">
         <v>174</v>
@@ -5606,19 +5654,19 @@
       </c>
       <c r="V45" s="17"/>
     </row>
-    <row r="46" spans="1:22">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="17"/>
       <c r="F46" s="26"/>
       <c r="G46" s="27"/>
       <c r="H46" s="27"/>
-      <c r="I46" s="60" t="s">
+      <c r="I46" s="57" t="s">
         <v>256</v>
       </c>
-      <c r="J46" s="60"/>
-      <c r="K46" s="61"/>
+      <c r="J46" s="57"/>
+      <c r="K46" s="58"/>
       <c r="V46" s="17"/>
     </row>
-    <row r="47" spans="1:22">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="17"/>
       <c r="F47" s="28"/>
       <c r="G47" s="19"/>
@@ -5628,7 +5676,7 @@
       <c r="K47" s="29"/>
       <c r="V47" s="17"/>
     </row>
-    <row r="48" spans="1:22">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="17"/>
       <c r="F48" s="28"/>
       <c r="G48" s="19" t="s">
@@ -5644,7 +5692,7 @@
       </c>
       <c r="V48" s="17"/>
     </row>
-    <row r="49" spans="1:22">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="17"/>
       <c r="F49" s="28"/>
       <c r="G49" s="19" t="s">
@@ -5660,7 +5708,7 @@
       </c>
       <c r="V49" s="17"/>
     </row>
-    <row r="50" spans="1:22">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="17"/>
       <c r="F50" s="30"/>
       <c r="G50" s="20" t="s">
@@ -5676,7 +5724,7 @@
       </c>
       <c r="V50" s="17"/>
     </row>
-    <row r="51" spans="1:22">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="17"/>
       <c r="R51" s="33" t="s">
         <v>329</v>
@@ -5685,7 +5733,7 @@
       <c r="T51" s="33"/>
       <c r="U51" s="33"/>
     </row>
-    <row r="52" spans="1:22">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="17"/>
       <c r="Q52" s="56" t="s">
         <v>330</v>
@@ -5696,7 +5744,7 @@
       <c r="U52" s="56"/>
       <c r="V52" s="56"/>
     </row>
-    <row r="53" spans="1:22">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="17"/>
       <c r="Q53" s="56" t="s">
         <v>331</v>
@@ -5707,20 +5755,20 @@
       <c r="U53" s="56"/>
       <c r="V53" s="17"/>
     </row>
-    <row r="54" spans="1:22">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="17"/>
       <c r="F54" s="21"/>
       <c r="V54" s="17"/>
     </row>
-    <row r="55" spans="1:22">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="17"/>
       <c r="V55" s="17"/>
     </row>
-    <row r="56" spans="1:22">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" s="17"/>
       <c r="V56" s="17"/>
     </row>
-    <row r="57" spans="1:22">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" s="17"/>
       <c r="F57" s="21"/>
       <c r="G57" s="21"/>
@@ -5734,7 +5782,7 @@
       <c r="M57" s="21"/>
       <c r="V57" s="17"/>
     </row>
-    <row r="58" spans="1:22">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" s="17"/>
       <c r="F58" s="21"/>
       <c r="G58" s="21"/>
@@ -5746,7 +5794,7 @@
       <c r="M58" s="21"/>
       <c r="V58" s="17"/>
     </row>
-    <row r="59" spans="1:22">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" s="17"/>
       <c r="F59" s="21"/>
       <c r="G59" s="21"/>
@@ -5766,7 +5814,7 @@
       <c r="U59" s="18"/>
       <c r="V59" s="17"/>
     </row>
-    <row r="60" spans="1:22">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" s="17"/>
       <c r="F60" s="21"/>
       <c r="G60" s="21"/>
@@ -5790,7 +5838,7 @@
       <c r="U60" s="18"/>
       <c r="V60" s="17"/>
     </row>
-    <row r="61" spans="1:22">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61" s="17"/>
       <c r="F61" s="21"/>
       <c r="G61" s="21"/>
@@ -5814,7 +5862,7 @@
       <c r="U61" s="18"/>
       <c r="V61" s="17"/>
     </row>
-    <row r="62" spans="1:22">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62" s="17"/>
       <c r="F62" s="21"/>
       <c r="G62" s="21"/>
@@ -5838,7 +5886,7 @@
       <c r="U62" s="18"/>
       <c r="V62" s="17"/>
     </row>
-    <row r="63" spans="1:22">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" s="17"/>
       <c r="F63" s="21"/>
       <c r="G63" s="21"/>
@@ -5858,7 +5906,7 @@
       <c r="U63" s="18"/>
       <c r="V63" s="17"/>
     </row>
-    <row r="64" spans="1:22">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64" s="17"/>
       <c r="F64" s="21"/>
       <c r="G64" s="21"/>
@@ -5880,7 +5928,7 @@
       <c r="U64" s="18"/>
       <c r="V64" s="17"/>
     </row>
-    <row r="65" spans="1:22">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" s="17"/>
       <c r="F65" s="21"/>
       <c r="G65" s="21"/>
@@ -5898,7 +5946,7 @@
       <c r="U65" s="18"/>
       <c r="V65" s="17"/>
     </row>
-    <row r="66" spans="1:22">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" s="17"/>
       <c r="F66" s="21"/>
       <c r="G66" s="21"/>
@@ -5918,7 +5966,7 @@
       <c r="U66" s="18"/>
       <c r="V66" s="17"/>
     </row>
-    <row r="67" spans="1:22">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" s="17"/>
       <c r="F67" s="21"/>
       <c r="G67" s="21"/>
@@ -5940,7 +5988,7 @@
       <c r="U67" s="18"/>
       <c r="V67" s="17"/>
     </row>
-    <row r="68" spans="1:22">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" s="17"/>
       <c r="F68" s="21"/>
       <c r="G68" s="21"/>
@@ -5958,7 +6006,7 @@
       <c r="U68" s="18"/>
       <c r="V68" s="17"/>
     </row>
-    <row r="69" spans="1:22">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69" s="17"/>
       <c r="F69" s="21"/>
       <c r="G69" s="21"/>
@@ -5978,7 +6026,7 @@
       <c r="U69" s="18"/>
       <c r="V69" s="17"/>
     </row>
-    <row r="70" spans="1:22">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70" s="17"/>
       <c r="E70" t="s">
         <v>294</v>
@@ -6003,7 +6051,7 @@
       <c r="U70" s="18"/>
       <c r="V70" s="17"/>
     </row>
-    <row r="71" spans="1:22">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71" s="17"/>
       <c r="F71" s="21"/>
       <c r="G71" s="21"/>
@@ -6021,7 +6069,7 @@
       <c r="U71" s="18"/>
       <c r="V71" s="17"/>
     </row>
-    <row r="72" spans="1:22">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" s="17"/>
       <c r="F72" s="21"/>
       <c r="G72" s="21"/>
@@ -6037,7 +6085,7 @@
       <c r="M72" s="21"/>
       <c r="V72" s="17"/>
     </row>
-    <row r="73" spans="1:22">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73" s="17"/>
       <c r="F73" s="21"/>
       <c r="G73" s="21"/>
@@ -6049,11 +6097,11 @@
       <c r="M73" s="21"/>
       <c r="V73" s="17"/>
     </row>
-    <row r="74" spans="1:22">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" s="17"/>
       <c r="V74" s="17"/>
     </row>
-    <row r="75" spans="1:22">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B75" s="17"/>
       <c r="C75" s="17"/>
       <c r="D75" s="17"/>
@@ -6076,7 +6124,7 @@
       <c r="U75" s="17"/>
       <c r="V75" s="17"/>
     </row>
-    <row r="76" spans="1:22">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B76" s="17"/>
       <c r="C76" s="17"/>
       <c r="D76" s="17"/>
@@ -6099,7 +6147,7 @@
       <c r="U76" s="17"/>
       <c r="V76" s="17"/>
     </row>
-    <row r="77" spans="1:22">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B77" s="17"/>
       <c r="J77" s="17"/>
       <c r="K77" s="17"/>
@@ -6111,7 +6159,7 @@
       <c r="U77" s="17"/>
       <c r="V77" s="17"/>
     </row>
-    <row r="78" spans="1:22">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B78" s="17"/>
       <c r="J78" s="17"/>
       <c r="K78" s="56" t="s">
@@ -6127,7 +6175,7 @@
       <c r="U78" s="56"/>
       <c r="V78" s="17"/>
     </row>
-    <row r="79" spans="1:22">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B79" s="17"/>
       <c r="J79" s="17"/>
       <c r="K79" s="17"/>
@@ -6139,7 +6187,7 @@
       <c r="U79" s="17"/>
       <c r="V79" s="17"/>
     </row>
-    <row r="80" spans="1:22">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B80" s="17"/>
       <c r="K80">
         <v>91000</v>
@@ -6155,7 +6203,7 @@
       </c>
       <c r="V80" s="17"/>
     </row>
-    <row r="81" spans="2:22">
+    <row r="81" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B81" s="17"/>
       <c r="K81">
         <v>7930</v>
@@ -6171,7 +6219,7 @@
       </c>
       <c r="V81" s="17"/>
     </row>
-    <row r="82" spans="2:22">
+    <row r="82" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B82" s="17"/>
       <c r="K82">
         <v>27760</v>
@@ -6187,7 +6235,7 @@
       </c>
       <c r="V82" s="17"/>
     </row>
-    <row r="83" spans="2:22">
+    <row r="83" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B83" s="17"/>
       <c r="K83">
         <v>39650</v>
@@ -6203,7 +6251,7 @@
       </c>
       <c r="V83" s="17"/>
     </row>
-    <row r="84" spans="2:22">
+    <row r="84" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B84" s="17"/>
       <c r="K84">
         <v>4785</v>
@@ -6219,7 +6267,7 @@
       </c>
       <c r="V84" s="17"/>
     </row>
-    <row r="85" spans="2:22">
+    <row r="85" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B85" s="17"/>
       <c r="K85">
         <v>17470</v>
@@ -6235,7 +6283,7 @@
       </c>
       <c r="V85" s="17"/>
     </row>
-    <row r="86" spans="2:22">
+    <row r="86" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B86" s="17"/>
       <c r="K86">
         <v>600</v>
@@ -6245,15 +6293,15 @@
       </c>
       <c r="V86" s="17"/>
     </row>
-    <row r="87" spans="2:22">
+    <row r="87" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B87" s="17"/>
       <c r="V87" s="17"/>
     </row>
-    <row r="88" spans="2:22">
+    <row r="88" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B88" s="17"/>
       <c r="V88" s="17"/>
     </row>
-    <row r="89" spans="2:22">
+    <row r="89" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B89" s="17"/>
       <c r="K89">
         <v>189195</v>
@@ -6266,7 +6314,7 @@
       </c>
       <c r="V89" s="17"/>
     </row>
-    <row r="90" spans="2:22">
+    <row r="90" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B90" s="17"/>
       <c r="T90">
         <v>200</v>
@@ -6276,22 +6324,22 @@
       </c>
       <c r="V90" s="17"/>
     </row>
-    <row r="91" spans="2:22">
+    <row r="91" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B91" s="17"/>
       <c r="V91" s="17"/>
     </row>
-    <row r="92" spans="2:22">
+    <row r="92" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B92" s="17"/>
       <c r="V92" s="17"/>
     </row>
-    <row r="93" spans="2:22">
+    <row r="93" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B93" s="17"/>
       <c r="U93" t="s">
         <v>282</v>
       </c>
       <c r="V93" s="17"/>
     </row>
-    <row r="94" spans="2:22">
+    <row r="94" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B94" s="17"/>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
@@ -6305,7 +6353,7 @@
       </c>
       <c r="V94" s="17"/>
     </row>
-    <row r="95" spans="2:22">
+    <row r="95" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B95" s="17"/>
       <c r="S95" t="s">
         <v>287</v>
@@ -6318,7 +6366,7 @@
       </c>
       <c r="V95" s="17"/>
     </row>
-    <row r="96" spans="2:22">
+    <row r="96" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B96" s="17"/>
       <c r="S96" t="s">
         <v>288</v>
@@ -6331,7 +6379,7 @@
       </c>
       <c r="V96" s="17"/>
     </row>
-    <row r="97" spans="2:22">
+    <row r="97" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B97" s="17"/>
       <c r="S97" t="s">
         <v>148</v>
@@ -6344,14 +6392,14 @@
       </c>
       <c r="V97" s="17"/>
     </row>
-    <row r="98" spans="2:22" ht="15" thickBot="1">
+    <row r="98" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B98" s="17"/>
       <c r="T98">
         <v>185350</v>
       </c>
       <c r="V98" s="17"/>
     </row>
-    <row r="99" spans="2:22" ht="15.6" thickTop="1" thickBot="1">
+    <row r="99" spans="2:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B99" s="17"/>
       <c r="J99" t="s">
         <v>293</v>
@@ -6373,15 +6421,15 @@
       </c>
       <c r="V99" s="17"/>
     </row>
-    <row r="100" spans="2:22" ht="15" thickTop="1">
+    <row r="100" spans="2:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B100" s="17"/>
       <c r="V100" s="17"/>
     </row>
-    <row r="101" spans="2:22">
+    <row r="101" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B101" s="17"/>
       <c r="V101" s="17"/>
     </row>
-    <row r="102" spans="2:22">
+    <row r="102" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B102" s="17"/>
       <c r="C102" s="17"/>
       <c r="D102" s="17"/>
@@ -6404,7 +6452,7 @@
       <c r="U102" s="17"/>
       <c r="V102" s="17"/>
     </row>
-    <row r="103" spans="2:22">
+    <row r="103" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B103" s="17"/>
       <c r="C103" s="17"/>
       <c r="D103" s="17"/>
@@ -6427,7 +6475,7 @@
       <c r="U103" s="17"/>
       <c r="V103" s="17"/>
     </row>
-    <row r="104" spans="2:22">
+    <row r="104" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B104" s="17"/>
       <c r="R104" s="17"/>
       <c r="S104" s="17"/>
@@ -6435,7 +6483,7 @@
       <c r="U104" s="17"/>
       <c r="V104" s="17"/>
     </row>
-    <row r="105" spans="2:22">
+    <row r="105" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B105" s="17"/>
       <c r="R105" s="17"/>
       <c r="S105" s="55" t="s">
@@ -6445,7 +6493,7 @@
       <c r="U105" s="17"/>
       <c r="V105" s="17"/>
     </row>
-    <row r="106" spans="2:22">
+    <row r="106" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B106" s="17"/>
       <c r="R106" s="17"/>
       <c r="S106" s="17"/>
@@ -6453,29 +6501,29 @@
       <c r="U106" s="17"/>
       <c r="V106" s="17"/>
     </row>
-    <row r="107" spans="2:22">
+    <row r="107" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B107" s="17"/>
       <c r="V107" s="17"/>
     </row>
-    <row r="108" spans="2:22">
+    <row r="108" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B108" s="17"/>
       <c r="V108" s="17"/>
     </row>
-    <row r="109" spans="2:22">
+    <row r="109" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B109" s="17"/>
       <c r="S109" s="56"/>
       <c r="T109" s="56"/>
       <c r="U109" s="56"/>
       <c r="V109" s="17"/>
     </row>
-    <row r="110" spans="2:22">
+    <row r="110" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B110" s="17"/>
       <c r="Q110" s="6"/>
       <c r="S110" s="37"/>
       <c r="U110" s="3"/>
       <c r="V110" s="17"/>
     </row>
-    <row r="111" spans="2:22">
+    <row r="111" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B111" s="17"/>
       <c r="E111" s="9"/>
       <c r="Q111" s="6"/>
@@ -6483,7 +6531,7 @@
       <c r="U111" s="3"/>
       <c r="V111" s="17"/>
     </row>
-    <row r="112" spans="2:22">
+    <row r="112" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B112" s="17"/>
       <c r="E112" s="9"/>
       <c r="Q112" s="6"/>
@@ -6491,7 +6539,7 @@
       <c r="U112" s="3"/>
       <c r="V112" s="17"/>
     </row>
-    <row r="113" spans="2:22">
+    <row r="113" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B113" s="17"/>
       <c r="E113" s="9"/>
       <c r="Q113" s="6"/>
@@ -6499,7 +6547,7 @@
       <c r="U113" s="3"/>
       <c r="V113" s="17"/>
     </row>
-    <row r="114" spans="2:22">
+    <row r="114" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B114" s="17"/>
       <c r="E114" s="9"/>
       <c r="Q114" s="6"/>
@@ -6507,7 +6555,7 @@
       <c r="U114" s="3"/>
       <c r="V114" s="17"/>
     </row>
-    <row r="115" spans="2:22">
+    <row r="115" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B115" s="17"/>
       <c r="E115" s="9"/>
       <c r="Q115" s="6"/>
@@ -6515,7 +6563,7 @@
       <c r="U115" s="3"/>
       <c r="V115" s="17"/>
     </row>
-    <row r="116" spans="2:22">
+    <row r="116" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B116" s="17"/>
       <c r="E116" s="9"/>
       <c r="Q116" s="6"/>
@@ -6523,7 +6571,7 @@
       <c r="U116" s="3"/>
       <c r="V116" s="17"/>
     </row>
-    <row r="117" spans="2:22">
+    <row r="117" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B117" s="17"/>
       <c r="E117" s="9"/>
       <c r="Q117" s="6"/>
@@ -6531,7 +6579,7 @@
       <c r="U117" s="3"/>
       <c r="V117" s="17"/>
     </row>
-    <row r="118" spans="2:22">
+    <row r="118" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B118" s="17"/>
       <c r="E118" s="9"/>
       <c r="Q118" s="6"/>
@@ -6539,7 +6587,7 @@
       <c r="U118" s="3"/>
       <c r="V118" s="17"/>
     </row>
-    <row r="119" spans="2:22">
+    <row r="119" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B119" s="17"/>
       <c r="E119" s="9"/>
       <c r="Q119" s="6"/>
@@ -6547,7 +6595,7 @@
       <c r="U119" s="3"/>
       <c r="V119" s="17"/>
     </row>
-    <row r="120" spans="2:22">
+    <row r="120" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B120" s="17"/>
       <c r="E120" s="9"/>
       <c r="Q120" s="6"/>
@@ -6555,7 +6603,7 @@
       <c r="U120" s="3"/>
       <c r="V120" s="17"/>
     </row>
-    <row r="121" spans="2:22">
+    <row r="121" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B121" s="17"/>
       <c r="E121" s="9"/>
       <c r="Q121" s="6"/>
@@ -6563,7 +6611,7 @@
       <c r="U121" s="3"/>
       <c r="V121" s="17"/>
     </row>
-    <row r="122" spans="2:22">
+    <row r="122" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B122" s="17"/>
       <c r="E122" s="9"/>
       <c r="Q122" s="6"/>
@@ -6571,7 +6619,7 @@
       <c r="U122" s="3"/>
       <c r="V122" s="17"/>
     </row>
-    <row r="123" spans="2:22">
+    <row r="123" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B123" s="17"/>
       <c r="E123" s="9"/>
       <c r="Q123" s="6"/>
@@ -6579,7 +6627,7 @@
       <c r="U123" s="3"/>
       <c r="V123" s="17"/>
     </row>
-    <row r="124" spans="2:22">
+    <row r="124" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B124" s="17"/>
       <c r="E124" s="9"/>
       <c r="Q124" s="6"/>
@@ -6587,7 +6635,7 @@
       <c r="U124" s="3"/>
       <c r="V124" s="17"/>
     </row>
-    <row r="125" spans="2:22">
+    <row r="125" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B125" s="17"/>
       <c r="E125" s="9"/>
       <c r="Q125" s="6"/>
@@ -6595,7 +6643,7 @@
       <c r="U125" s="3"/>
       <c r="V125" s="17"/>
     </row>
-    <row r="126" spans="2:22">
+    <row r="126" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B126" s="17"/>
       <c r="E126" s="9"/>
       <c r="Q126" s="6"/>
@@ -6603,7 +6651,7 @@
       <c r="U126" s="3"/>
       <c r="V126" s="17"/>
     </row>
-    <row r="127" spans="2:22">
+    <row r="127" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B127" s="17"/>
       <c r="E127" s="9"/>
       <c r="Q127" s="6"/>
@@ -6611,7 +6659,7 @@
       <c r="U127" s="3"/>
       <c r="V127" s="17"/>
     </row>
-    <row r="128" spans="2:22">
+    <row r="128" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B128" s="17"/>
       <c r="E128" s="9"/>
       <c r="Q128" s="6"/>
@@ -6619,141 +6667,141 @@
       <c r="U128" s="3"/>
       <c r="V128" s="17"/>
     </row>
-    <row r="129" spans="2:22">
+    <row r="129" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B129" s="17"/>
       <c r="E129" s="9"/>
       <c r="V129" s="17"/>
     </row>
-    <row r="130" spans="2:22">
+    <row r="130" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B130" s="17"/>
       <c r="V130" s="17"/>
     </row>
-    <row r="131" spans="2:22">
+    <row r="131" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B131" s="17"/>
       <c r="V131" s="17"/>
     </row>
-    <row r="132" spans="2:22">
+    <row r="132" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B132" s="17"/>
       <c r="V132" s="17"/>
     </row>
-    <row r="133" spans="2:22">
+    <row r="133" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B133" s="17"/>
       <c r="V133" s="17"/>
     </row>
-    <row r="134" spans="2:22">
+    <row r="134" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B134" s="17"/>
       <c r="V134" s="17"/>
     </row>
-    <row r="135" spans="2:22">
+    <row r="135" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B135" s="17"/>
       <c r="V135" s="17"/>
     </row>
-    <row r="136" spans="2:22">
+    <row r="136" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B136" s="17"/>
       <c r="R136" t="s">
         <v>385</v>
       </c>
       <c r="V136" s="17"/>
     </row>
-    <row r="137" spans="2:22">
+    <row r="137" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B137" s="17"/>
       <c r="V137" s="17"/>
     </row>
-    <row r="138" spans="2:22">
+    <row r="138" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B138" s="17"/>
       <c r="V138" s="17"/>
     </row>
-    <row r="139" spans="2:22">
+    <row r="139" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B139" s="17"/>
       <c r="V139" s="17"/>
     </row>
-    <row r="140" spans="2:22">
+    <row r="140" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B140" s="17"/>
       <c r="V140" s="17"/>
     </row>
-    <row r="141" spans="2:22">
+    <row r="141" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B141" s="17"/>
       <c r="V141" s="17"/>
     </row>
-    <row r="142" spans="2:22">
+    <row r="142" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B142" s="17"/>
       <c r="V142" s="17"/>
     </row>
-    <row r="143" spans="2:22">
+    <row r="143" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B143" s="17"/>
       <c r="V143" s="17"/>
     </row>
-    <row r="144" spans="2:22">
+    <row r="144" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B144" s="17"/>
       <c r="V144" s="17"/>
     </row>
-    <row r="145" spans="2:22">
+    <row r="145" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B145" s="17"/>
       <c r="V145" s="17"/>
     </row>
-    <row r="146" spans="2:22">
+    <row r="146" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B146" s="17"/>
       <c r="V146" s="17"/>
     </row>
-    <row r="147" spans="2:22">
+    <row r="147" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B147" s="17"/>
       <c r="V147" s="17"/>
     </row>
-    <row r="148" spans="2:22">
+    <row r="148" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B148" s="17"/>
       <c r="V148" s="17"/>
     </row>
-    <row r="149" spans="2:22">
+    <row r="149" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B149" s="17"/>
       <c r="V149" s="17"/>
     </row>
-    <row r="150" spans="2:22">
+    <row r="150" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B150" s="17"/>
       <c r="V150" s="17"/>
     </row>
-    <row r="151" spans="2:22">
+    <row r="151" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B151" s="17"/>
       <c r="V151" s="17"/>
     </row>
-    <row r="152" spans="2:22">
+    <row r="152" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B152" s="17"/>
       <c r="V152" s="17"/>
     </row>
-    <row r="153" spans="2:22">
+    <row r="153" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B153" s="17"/>
       <c r="V153" s="17"/>
     </row>
-    <row r="154" spans="2:22">
+    <row r="154" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B154" s="17"/>
-      <c r="E154" s="59" t="s">
+      <c r="E154" s="62" t="s">
         <v>297</v>
       </c>
-      <c r="F154" s="60"/>
-      <c r="G154" s="60"/>
-      <c r="H154" s="60"/>
-      <c r="I154" s="60"/>
-      <c r="J154" s="60"/>
-      <c r="K154" s="61"/>
+      <c r="F154" s="57"/>
+      <c r="G154" s="57"/>
+      <c r="H154" s="57"/>
+      <c r="I154" s="57"/>
+      <c r="J154" s="57"/>
+      <c r="K154" s="58"/>
       <c r="Q154" s="5" t="s">
         <v>304</v>
       </c>
       <c r="V154" s="17"/>
     </row>
-    <row r="155" spans="2:22">
+    <row r="155" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B155" s="17"/>
-      <c r="E155" s="62"/>
-      <c r="F155" s="57"/>
-      <c r="G155" s="57"/>
-      <c r="H155" s="57"/>
-      <c r="I155" s="57"/>
-      <c r="J155" s="57"/>
-      <c r="K155" s="58"/>
+      <c r="E155" s="63"/>
+      <c r="F155" s="60"/>
+      <c r="G155" s="60"/>
+      <c r="H155" s="60"/>
+      <c r="I155" s="60"/>
+      <c r="J155" s="60"/>
+      <c r="K155" s="61"/>
       <c r="Q155" s="5" t="s">
         <v>305</v>
       </c>
       <c r="V155" s="17"/>
     </row>
-    <row r="156" spans="2:22">
+    <row r="156" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B156" s="17"/>
       <c r="E156" s="28"/>
       <c r="F156" s="19"/>
@@ -6778,7 +6826,7 @@
       </c>
       <c r="V156" s="17"/>
     </row>
-    <row r="157" spans="2:22">
+    <row r="157" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B157" s="17"/>
       <c r="E157" s="28"/>
       <c r="F157" s="19"/>
@@ -6799,7 +6847,7 @@
       </c>
       <c r="V157" s="17"/>
     </row>
-    <row r="158" spans="2:22">
+    <row r="158" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B158" s="17"/>
       <c r="E158" s="28"/>
       <c r="F158" s="19"/>
@@ -6807,11 +6855,11 @@
         <v>313</v>
       </c>
       <c r="H158" s="19"/>
-      <c r="I158" s="57" t="s">
+      <c r="I158" s="60" t="s">
         <v>321</v>
       </c>
-      <c r="J158" s="57"/>
-      <c r="K158" s="58"/>
+      <c r="J158" s="60"/>
+      <c r="K158" s="61"/>
       <c r="R158">
         <v>200</v>
       </c>
@@ -6820,7 +6868,7 @@
       </c>
       <c r="V158" s="17"/>
     </row>
-    <row r="159" spans="2:22">
+    <row r="159" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B159" s="17"/>
       <c r="E159" s="28"/>
       <c r="F159" s="19"/>
@@ -6839,7 +6887,7 @@
       </c>
       <c r="V159" s="17"/>
     </row>
-    <row r="160" spans="2:22">
+    <row r="160" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B160" s="17"/>
       <c r="E160" s="28"/>
       <c r="F160" s="19"/>
@@ -6856,7 +6904,7 @@
       </c>
       <c r="V160" s="17"/>
     </row>
-    <row r="161" spans="2:22">
+    <row r="161" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B161" s="17"/>
       <c r="E161" s="28"/>
       <c r="F161" s="19"/>
@@ -6873,7 +6921,7 @@
       </c>
       <c r="V161" s="17"/>
     </row>
-    <row r="162" spans="2:22">
+    <row r="162" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B162" s="17"/>
       <c r="E162" s="28"/>
       <c r="F162" s="19"/>
@@ -6881,14 +6929,14 @@
         <v>313</v>
       </c>
       <c r="H162" s="19"/>
-      <c r="I162" s="57" t="s">
+      <c r="I162" s="60" t="s">
         <v>323</v>
       </c>
-      <c r="J162" s="57"/>
-      <c r="K162" s="58"/>
+      <c r="J162" s="60"/>
+      <c r="K162" s="61"/>
       <c r="V162" s="17"/>
     </row>
-    <row r="163" spans="2:22">
+    <row r="163" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B163" s="17"/>
       <c r="E163" s="28"/>
       <c r="F163" s="19"/>
@@ -6904,7 +6952,7 @@
       </c>
       <c r="V163" s="17"/>
     </row>
-    <row r="164" spans="2:22">
+    <row r="164" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B164" s="17"/>
       <c r="E164" s="28"/>
       <c r="F164" s="38"/>
@@ -6923,7 +6971,7 @@
       </c>
       <c r="V164" s="17"/>
     </row>
-    <row r="165" spans="2:22">
+    <row r="165" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B165" s="17"/>
       <c r="E165" s="28"/>
       <c r="F165" s="19"/>
@@ -6934,7 +6982,7 @@
       <c r="K165" s="29"/>
       <c r="V165" s="17"/>
     </row>
-    <row r="166" spans="2:22">
+    <row r="166" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B166" s="17"/>
       <c r="E166" s="28"/>
       <c r="F166" s="19"/>
@@ -6951,7 +6999,7 @@
       </c>
       <c r="V166" s="17"/>
     </row>
-    <row r="167" spans="2:22">
+    <row r="167" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B167" s="17"/>
       <c r="E167" s="28"/>
       <c r="F167" s="19"/>
@@ -6968,7 +7016,7 @@
       </c>
       <c r="V167" s="17"/>
     </row>
-    <row r="168" spans="2:22">
+    <row r="168" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B168" s="17"/>
       <c r="E168" s="28"/>
       <c r="F168" s="19"/>
@@ -6985,7 +7033,7 @@
       </c>
       <c r="V168" s="17"/>
     </row>
-    <row r="169" spans="2:22">
+    <row r="169" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B169" s="17"/>
       <c r="E169" s="28"/>
       <c r="F169" s="19"/>
@@ -6996,7 +7044,7 @@
       <c r="K169" s="29"/>
       <c r="V169" s="17"/>
     </row>
-    <row r="170" spans="2:22">
+    <row r="170" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B170" s="17"/>
       <c r="E170" s="30"/>
       <c r="F170" s="20"/>
@@ -7007,11 +7055,11 @@
       <c r="K170" s="31"/>
       <c r="V170" s="17"/>
     </row>
-    <row r="171" spans="2:22">
+    <row r="171" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B171" s="17"/>
       <c r="V171" s="17"/>
     </row>
-    <row r="172" spans="2:22">
+    <row r="172" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B172" s="17"/>
       <c r="C172" s="17"/>
       <c r="D172" s="17"/>
@@ -7034,7 +7082,7 @@
       <c r="U172" s="17"/>
       <c r="V172" s="17"/>
     </row>
-    <row r="173" spans="2:22">
+    <row r="173" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B173" s="17"/>
       <c r="C173" s="17"/>
       <c r="D173" s="17"/>
@@ -7057,17 +7105,17 @@
       <c r="U173" s="17"/>
       <c r="V173" s="17"/>
     </row>
-    <row r="174" spans="2:22">
+    <row r="174" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B174" s="17"/>
       <c r="L174" s="32"/>
       <c r="V174" s="17"/>
     </row>
-    <row r="175" spans="2:22">
+    <row r="175" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B175" s="17"/>
       <c r="L175" s="32"/>
       <c r="V175" s="17"/>
     </row>
-    <row r="176" spans="2:22">
+    <row r="176" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B176" s="17"/>
       <c r="F176" t="s">
         <v>48</v>
@@ -7080,12 +7128,12 @@
       <c r="S176" s="56"/>
       <c r="V176" s="17"/>
     </row>
-    <row r="177" spans="2:22">
+    <row r="177" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B177" s="17"/>
       <c r="L177" s="32"/>
       <c r="V177" s="17"/>
     </row>
-    <row r="178" spans="2:22">
+    <row r="178" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B178" s="17"/>
       <c r="I178" t="s">
         <v>313</v>
@@ -7096,7 +7144,7 @@
       </c>
       <c r="V178" s="17"/>
     </row>
-    <row r="179" spans="2:22">
+    <row r="179" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B179" s="17"/>
       <c r="I179" t="s">
         <v>314</v>
@@ -7107,7 +7155,7 @@
       </c>
       <c r="V179" s="17"/>
     </row>
-    <row r="180" spans="2:22">
+    <row r="180" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B180" s="17"/>
       <c r="I180" t="s">
         <v>316</v>
@@ -7125,7 +7173,7 @@
       </c>
       <c r="V180" s="17"/>
     </row>
-    <row r="181" spans="2:22">
+    <row r="181" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B181" s="17"/>
       <c r="F181" s="56" t="s">
         <v>317</v>
@@ -7141,52 +7189,52 @@
       </c>
       <c r="V181" s="17"/>
     </row>
-    <row r="182" spans="2:22">
+    <row r="182" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B182" s="17"/>
       <c r="L182" s="32"/>
       <c r="V182" s="17"/>
     </row>
-    <row r="183" spans="2:22">
+    <row r="183" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B183" s="17"/>
       <c r="L183" s="32"/>
       <c r="V183" s="17"/>
     </row>
-    <row r="184" spans="2:22">
+    <row r="184" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B184" s="17"/>
       <c r="L184" s="32"/>
       <c r="V184" s="17"/>
     </row>
-    <row r="185" spans="2:22">
+    <row r="185" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B185" s="17"/>
       <c r="L185" s="32"/>
       <c r="V185" s="17"/>
     </row>
-    <row r="186" spans="2:22">
+    <row r="186" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B186" s="17"/>
       <c r="L186" s="32"/>
       <c r="V186" s="17"/>
     </row>
-    <row r="187" spans="2:22">
+    <row r="187" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B187" s="17"/>
       <c r="L187" s="32"/>
       <c r="V187" s="17"/>
     </row>
-    <row r="188" spans="2:22">
+    <row r="188" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B188" s="17"/>
       <c r="L188" s="32"/>
       <c r="V188" s="17"/>
     </row>
-    <row r="189" spans="2:22">
+    <row r="189" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B189" s="17"/>
       <c r="L189" s="32"/>
       <c r="V189" s="17"/>
     </row>
-    <row r="190" spans="2:22">
+    <row r="190" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B190" s="17"/>
       <c r="L190" s="32"/>
       <c r="V190" s="17"/>
     </row>
-    <row r="191" spans="2:22">
+    <row r="191" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B191" s="17"/>
       <c r="C191" s="17"/>
       <c r="D191" s="17"/>
@@ -7209,7 +7257,7 @@
       <c r="U191" s="17"/>
       <c r="V191" s="17"/>
     </row>
-    <row r="192" spans="2:22">
+    <row r="192" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B192" s="17"/>
       <c r="C192" s="17"/>
       <c r="D192" s="17"/>
@@ -7232,7 +7280,7 @@
       <c r="U192" s="17"/>
       <c r="V192" s="17"/>
     </row>
-    <row r="193" spans="2:22">
+    <row r="193" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B193" s="17"/>
       <c r="C193" s="17"/>
       <c r="D193" s="17"/>
@@ -7255,7 +7303,7 @@
       <c r="U193" s="17"/>
       <c r="V193" s="17"/>
     </row>
-    <row r="203" spans="2:22">
+    <row r="203" spans="2:22" x14ac:dyDescent="0.25">
       <c r="P203" s="10" t="s">
         <v>350</v>
       </c>
@@ -7266,7 +7314,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="204" spans="2:22">
+    <row r="204" spans="2:22" x14ac:dyDescent="0.25">
       <c r="Q204">
         <v>40</v>
       </c>
@@ -7274,36 +7322,28 @@
         <v>349</v>
       </c>
     </row>
-    <row r="205" spans="2:22">
+    <row r="205" spans="2:22" x14ac:dyDescent="0.25">
       <c r="Q205" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="206" spans="2:22">
+    <row r="206" spans="2:22" x14ac:dyDescent="0.25">
       <c r="Q206" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="207" spans="2:22">
+    <row r="207" spans="2:22" x14ac:dyDescent="0.25">
       <c r="Q207" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="208" spans="2:22">
+    <row r="208" spans="2:22" x14ac:dyDescent="0.25">
       <c r="Q208" t="s">
         <v>354</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="P30:R30"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="T7:U7"/>
     <mergeCell ref="F181:H181"/>
     <mergeCell ref="I158:K158"/>
     <mergeCell ref="I162:K162"/>
@@ -7316,6 +7356,14 @@
     <mergeCell ref="Q180:R180"/>
     <mergeCell ref="Q176:S176"/>
     <mergeCell ref="E154:K155"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="P30:R30"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="T7:U7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7324,20 +7372,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B5:V45"/>
   <sheetViews>
     <sheetView topLeftCell="C34" workbookViewId="0">
       <selection activeCell="U36" sqref="U36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="12" max="12" width="8.44140625" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="8.42578125" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="7:20">
+    <row r="5" spans="7:20" x14ac:dyDescent="0.25">
       <c r="L5" s="56"/>
       <c r="M5" s="56"/>
       <c r="N5" s="56"/>
@@ -7348,7 +7396,7 @@
       <c r="S5" s="56"/>
       <c r="T5" s="56"/>
     </row>
-    <row r="6" spans="7:20">
+    <row r="6" spans="7:20" x14ac:dyDescent="0.25">
       <c r="L6" s="16"/>
       <c r="M6" s="16"/>
       <c r="N6" s="16" t="s">
@@ -7360,7 +7408,7 @@
       <c r="R6" s="16"/>
       <c r="S6" s="16"/>
     </row>
-    <row r="7" spans="7:20">
+    <row r="7" spans="7:20" x14ac:dyDescent="0.25">
       <c r="L7" s="16"/>
       <c r="M7" s="64" t="s">
         <v>355</v>
@@ -7372,7 +7420,7 @@
       <c r="R7" s="64"/>
       <c r="S7" s="64"/>
     </row>
-    <row r="8" spans="7:20">
+    <row r="8" spans="7:20" x14ac:dyDescent="0.25">
       <c r="L8" s="56" t="s">
         <v>375</v>
       </c>
@@ -7384,7 +7432,7 @@
       <c r="R8" s="56"/>
       <c r="S8" s="56"/>
     </row>
-    <row r="16" spans="7:20">
+    <row r="16" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G16" t="s">
         <v>359</v>
       </c>
@@ -7392,7 +7440,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="17" spans="2:22">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
         <v>361</v>
       </c>
@@ -7412,7 +7460,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="19" spans="2:22">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>365</v>
       </c>
@@ -7420,7 +7468,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="20" spans="2:22">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>370</v>
       </c>
@@ -7428,12 +7476,12 @@
         <v>366</v>
       </c>
     </row>
-    <row r="21" spans="2:22">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
       <c r="G21" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="24" spans="2:22">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
       <c r="G24" t="s">
         <v>363</v>
       </c>
@@ -7453,7 +7501,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="25" spans="2:22">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
         <v>361</v>
       </c>
@@ -7464,12 +7512,12 @@
         <v>357</v>
       </c>
     </row>
-    <row r="27" spans="2:22">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="G27" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="30" spans="2:22">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
       <c r="F30" s="56" t="s">
         <v>371</v>
       </c>
@@ -7484,7 +7532,7 @@
       <c r="U30" s="42"/>
       <c r="V30" s="42"/>
     </row>
-    <row r="31" spans="2:22">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
       <c r="P31" s="42"/>
       <c r="Q31" s="42"/>
       <c r="R31" s="42"/>
@@ -7493,7 +7541,7 @@
       <c r="U31" s="42"/>
       <c r="V31" s="42"/>
     </row>
-    <row r="32" spans="2:22">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
       <c r="P32" s="42"/>
       <c r="Q32" s="45"/>
       <c r="R32" s="45"/>
@@ -7504,7 +7552,7 @@
       <c r="U32" s="45"/>
       <c r="V32" s="42"/>
     </row>
-    <row r="33" spans="3:22">
+    <row r="33" spans="3:22" x14ac:dyDescent="0.25">
       <c r="P33" s="42"/>
       <c r="Q33" s="45"/>
       <c r="R33" s="45"/>
@@ -7513,7 +7561,7 @@
       <c r="U33" s="45"/>
       <c r="V33" s="42"/>
     </row>
-    <row r="34" spans="3:22">
+    <row r="34" spans="3:22" x14ac:dyDescent="0.25">
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
@@ -7528,7 +7576,7 @@
       <c r="U34" s="42"/>
       <c r="V34" s="42"/>
     </row>
-    <row r="35" spans="3:22">
+    <row r="35" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C35" s="39"/>
       <c r="D35" s="40"/>
       <c r="E35" s="40"/>
@@ -7552,7 +7600,7 @@
       <c r="U35" s="42"/>
       <c r="V35" s="42"/>
     </row>
-    <row r="36" spans="3:22">
+    <row r="36" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C36" s="40"/>
       <c r="D36" s="40"/>
       <c r="E36" s="40"/>
@@ -7574,7 +7622,7 @@
       <c r="U36" s="42"/>
       <c r="V36" s="42"/>
     </row>
-    <row r="37" spans="3:22">
+    <row r="37" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C37" s="40"/>
       <c r="D37" s="40"/>
       <c r="E37" s="40"/>
@@ -7596,7 +7644,7 @@
       <c r="U37" s="41"/>
       <c r="V37" s="41"/>
     </row>
-    <row r="38" spans="3:22">
+    <row r="38" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C38" s="40"/>
       <c r="D38" s="40"/>
       <c r="E38" s="40"/>
@@ -7609,7 +7657,7 @@
       <c r="L38" s="40"/>
       <c r="M38" s="40"/>
     </row>
-    <row r="39" spans="3:22">
+    <row r="39" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C39" s="40"/>
       <c r="D39" s="40"/>
       <c r="E39" s="40"/>
@@ -7622,7 +7670,7 @@
       <c r="L39" s="40"/>
       <c r="M39" s="40"/>
     </row>
-    <row r="40" spans="3:22">
+    <row r="40" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C40" s="40"/>
       <c r="D40" s="40"/>
       <c r="E40" s="40"/>
@@ -7645,7 +7693,7 @@
       <c r="U40" s="55"/>
       <c r="V40" s="55"/>
     </row>
-    <row r="41" spans="3:22">
+    <row r="41" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C41" s="40"/>
       <c r="D41" s="40"/>
       <c r="E41" s="40"/>
@@ -7668,7 +7716,7 @@
       <c r="U41" s="55"/>
       <c r="V41" s="3"/>
     </row>
-    <row r="42" spans="3:22">
+    <row r="42" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C42" s="40"/>
       <c r="D42" s="40"/>
       <c r="E42" s="40"/>
@@ -7691,7 +7739,7 @@
       <c r="U42" s="55"/>
       <c r="V42" s="3"/>
     </row>
-    <row r="43" spans="3:22">
+    <row r="43" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C43" s="40"/>
       <c r="D43" s="40"/>
       <c r="E43" s="40"/>
@@ -7715,7 +7763,7 @@
       <c r="U43" s="55"/>
       <c r="V43" s="55"/>
     </row>
-    <row r="44" spans="3:22">
+    <row r="44" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C44" s="40"/>
       <c r="D44" s="40"/>
       <c r="E44" s="40"/>
@@ -7728,7 +7776,7 @@
       <c r="L44" s="40"/>
       <c r="M44" s="40"/>
     </row>
-    <row r="45" spans="3:22">
+    <row r="45" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C45" s="40"/>
       <c r="D45" s="40"/>
       <c r="E45" s="40"/>
@@ -7757,41 +7805,41 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:W98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="I82" sqref="I82"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="G92" sqref="G92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="13:22">
+    <row r="2" spans="13:22" x14ac:dyDescent="0.25">
       <c r="T2" s="56" t="s">
         <v>386</v>
       </c>
       <c r="U2" s="56"/>
       <c r="V2" s="56"/>
     </row>
-    <row r="3" spans="13:22">
+    <row r="3" spans="13:22" x14ac:dyDescent="0.25">
       <c r="T3" s="56"/>
       <c r="U3" s="56"/>
       <c r="V3" s="56"/>
     </row>
-    <row r="4" spans="13:22">
+    <row r="4" spans="13:22" x14ac:dyDescent="0.25">
       <c r="O4" s="6"/>
       <c r="P4" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="6" spans="13:22">
+    <row r="6" spans="13:22" x14ac:dyDescent="0.25">
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="44" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="7" spans="13:22">
+    <row r="7" spans="13:22" x14ac:dyDescent="0.25">
       <c r="M7" t="s">
         <v>90</v>
       </c>
@@ -7802,42 +7850,42 @@
         <v>388</v>
       </c>
     </row>
-    <row r="8" spans="13:22">
+    <row r="8" spans="13:22" x14ac:dyDescent="0.25">
       <c r="T8" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="9" spans="13:22">
+    <row r="9" spans="13:22" x14ac:dyDescent="0.25">
       <c r="T9" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="10" spans="13:22">
+    <row r="10" spans="13:22" x14ac:dyDescent="0.25">
       <c r="S10" s="6"/>
       <c r="T10" s="6" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="11" spans="13:22">
+    <row r="11" spans="13:22" x14ac:dyDescent="0.25">
       <c r="S11" s="6"/>
       <c r="T11" s="6" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="13" spans="13:22">
+    <row r="13" spans="13:22" x14ac:dyDescent="0.25">
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
       <c r="U13" s="44" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="15" spans="13:22">
-      <c r="S15" s="65" t="s">
+    <row r="15" spans="13:22" x14ac:dyDescent="0.25">
+      <c r="S15" s="67" t="s">
         <v>394</v>
       </c>
-      <c r="T15" s="65"/>
-    </row>
-    <row r="16" spans="13:22">
+      <c r="T15" s="67"/>
+    </row>
+    <row r="16" spans="13:22" x14ac:dyDescent="0.25">
       <c r="P16" s="11" t="s">
         <v>396</v>
       </c>
@@ -7846,12 +7894,12 @@
         <v>395</v>
       </c>
     </row>
-    <row r="17" spans="15:20">
+    <row r="17" spans="15:20" x14ac:dyDescent="0.25">
       <c r="T17" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="18" spans="15:20">
+    <row r="18" spans="15:20" x14ac:dyDescent="0.25">
       <c r="O18" s="50"/>
       <c r="P18" s="50" t="s">
         <v>406</v>
@@ -7860,7 +7908,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="19" spans="15:20">
+    <row r="19" spans="15:20" x14ac:dyDescent="0.25">
       <c r="O19" s="50"/>
       <c r="P19" s="50" t="s">
         <v>407</v>
@@ -7869,54 +7917,54 @@
         <v>398</v>
       </c>
     </row>
-    <row r="20" spans="15:20">
+    <row r="20" spans="15:20" x14ac:dyDescent="0.25">
       <c r="S20" s="6"/>
       <c r="T20" s="6" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="21" spans="15:20">
+    <row r="21" spans="15:20" x14ac:dyDescent="0.25">
       <c r="S21" s="6"/>
       <c r="T21" s="6" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="22" spans="15:20">
+    <row r="22" spans="15:20" x14ac:dyDescent="0.25">
       <c r="S22" s="6" t="s">
         <v>401</v>
       </c>
       <c r="T22" s="6"/>
     </row>
-    <row r="23" spans="15:20">
+    <row r="23" spans="15:20" x14ac:dyDescent="0.25">
       <c r="S23" s="6" t="s">
         <v>402</v>
       </c>
       <c r="T23" s="6"/>
     </row>
-    <row r="24" spans="15:20">
+    <row r="24" spans="15:20" x14ac:dyDescent="0.25">
       <c r="S24" s="6" t="s">
         <v>403</v>
       </c>
       <c r="T24" s="6"/>
     </row>
-    <row r="25" spans="15:20">
+    <row r="25" spans="15:20" x14ac:dyDescent="0.25">
       <c r="S25" s="6"/>
       <c r="T25" s="6" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="26" spans="15:20">
+    <row r="26" spans="15:20" x14ac:dyDescent="0.25">
       <c r="S26" s="6"/>
       <c r="T26" s="6" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="28" spans="15:20">
+    <row r="28" spans="15:20" x14ac:dyDescent="0.25">
       <c r="S28">
         <v>200</v>
       </c>
     </row>
-    <row r="31" spans="15:20">
+    <row r="31" spans="15:20" x14ac:dyDescent="0.25">
       <c r="P31" s="55" t="s">
         <v>408</v>
       </c>
@@ -7924,7 +7972,7 @@
       <c r="R31" s="55"/>
       <c r="S31" s="55"/>
     </row>
-    <row r="32" spans="15:20">
+    <row r="32" spans="15:20" x14ac:dyDescent="0.25">
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="3" t="s">
@@ -7932,7 +7980,7 @@
       </c>
       <c r="S32" s="3"/>
     </row>
-    <row r="33" spans="8:21">
+    <row r="33" spans="8:21" x14ac:dyDescent="0.25">
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="3" t="s">
@@ -7940,18 +7988,18 @@
       </c>
       <c r="S33" s="3"/>
     </row>
-    <row r="38" spans="8:21">
+    <row r="38" spans="8:21" x14ac:dyDescent="0.25">
       <c r="S38" s="46"/>
       <c r="T38" s="46" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="40" spans="8:21">
+    <row r="40" spans="8:21" x14ac:dyDescent="0.25">
       <c r="S40" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="41" spans="8:21">
+    <row r="41" spans="8:21" x14ac:dyDescent="0.25">
       <c r="H41" s="56"/>
       <c r="I41" s="56"/>
       <c r="J41" s="56"/>
@@ -7966,22 +8014,22 @@
         <v>413</v>
       </c>
     </row>
-    <row r="42" spans="8:21">
-      <c r="I42" s="66" t="s">
+    <row r="42" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="I42" s="68" t="s">
         <v>416</v>
       </c>
-      <c r="J42" s="66"/>
-      <c r="K42" s="66"/>
-      <c r="L42" s="66"/>
-      <c r="M42" s="66"/>
-      <c r="N42" s="66"/>
-      <c r="O42" s="66"/>
-      <c r="P42" s="66"/>
-      <c r="Q42" s="66"/>
-      <c r="R42" s="66"/>
+      <c r="J42" s="68"/>
+      <c r="K42" s="68"/>
+      <c r="L42" s="68"/>
+      <c r="M42" s="68"/>
+      <c r="N42" s="68"/>
+      <c r="O42" s="68"/>
+      <c r="P42" s="68"/>
+      <c r="Q42" s="68"/>
+      <c r="R42" s="68"/>
       <c r="S42" s="48"/>
     </row>
-    <row r="45" spans="8:21">
+    <row r="45" spans="8:21" x14ac:dyDescent="0.25">
       <c r="M45" s="56" t="s">
         <v>414</v>
       </c>
@@ -7994,17 +8042,17 @@
       <c r="T45" s="56"/>
       <c r="U45" s="56"/>
     </row>
-    <row r="49" spans="1:23">
-      <c r="B49" s="67" t="s">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B49" s="65" t="s">
         <v>417</v>
       </c>
-      <c r="C49" s="67"/>
-      <c r="D49" s="67"/>
-      <c r="E49" s="67"/>
-      <c r="F49" s="67"/>
-      <c r="G49" s="67"/>
-    </row>
-    <row r="51" spans="1:23">
+      <c r="C49" s="65"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="65"/>
+      <c r="F49" s="65"/>
+      <c r="G49" s="65"/>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -8013,7 +8061,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="52" spans="1:23">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -8021,7 +8069,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="54" spans="1:23">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B54" s="56" t="s">
         <v>451</v>
       </c>
@@ -8030,7 +8078,7 @@
       <c r="E54" s="56"/>
       <c r="F54" s="56"/>
     </row>
-    <row r="56" spans="1:23">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" s="47"/>
       <c r="B56" s="47"/>
       <c r="C56" s="47"/>
@@ -8055,7 +8103,7 @@
       <c r="V56" s="47"/>
       <c r="W56" s="47"/>
     </row>
-    <row r="59" spans="1:23">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" s="55" t="s">
         <v>424</v>
       </c>
@@ -8064,15 +8112,15 @@
       <c r="D59" s="55"/>
       <c r="E59" s="55"/>
       <c r="F59" s="55"/>
-      <c r="R59" s="68" t="s">
+      <c r="R59" s="66" t="s">
         <v>420</v>
       </c>
-      <c r="S59" s="68"/>
-      <c r="T59" s="68"/>
-      <c r="U59" s="68"/>
-      <c r="V59" s="68"/>
-    </row>
-    <row r="60" spans="1:23">
+      <c r="S59" s="66"/>
+      <c r="T59" s="66"/>
+      <c r="U59" s="66"/>
+      <c r="V59" s="66"/>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" s="55" t="s">
         <v>423</v>
       </c>
@@ -8083,7 +8131,7 @@
       <c r="F60" s="55"/>
       <c r="G60" s="55"/>
     </row>
-    <row r="61" spans="1:23">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" s="33"/>
       <c r="B61" s="51"/>
       <c r="C61" s="16"/>
@@ -8093,7 +8141,7 @@
       </c>
       <c r="F61" s="33"/>
     </row>
-    <row r="62" spans="1:23">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" s="33"/>
       <c r="B62" s="51"/>
       <c r="C62" s="16" t="s">
@@ -8129,7 +8177,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="63" spans="1:23">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" s="55" t="s">
         <v>433</v>
       </c>
@@ -8150,13 +8198,13 @@
         <v>425</v>
       </c>
     </row>
-    <row r="64" spans="1:23">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B64" s="33"/>
       <c r="F64" s="53" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B65" s="33"/>
       <c r="C65" s="33"/>
       <c r="D65" s="33"/>
@@ -8165,12 +8213,12 @@
         <v>328</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F66" s="53" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B67" s="56"/>
       <c r="C67" s="56"/>
       <c r="D67" s="56"/>
@@ -8179,7 +8227,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B68" s="56"/>
       <c r="C68" s="56"/>
       <c r="D68" s="56"/>
@@ -8188,7 +8236,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F69" s="53" t="s">
         <v>328</v>
       </c>
@@ -8196,7 +8244,7 @@
       <c r="K69" s="56"/>
       <c r="L69" s="56"/>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="45"/>
       <c r="B70" s="55" t="s">
         <v>454</v>
@@ -8213,19 +8261,19 @@
       <c r="K70" s="56"/>
       <c r="L70" s="56"/>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="33"/>
       <c r="B71" s="33"/>
       <c r="C71" s="33"/>
       <c r="D71" s="33"/>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="33"/>
       <c r="B72" s="33"/>
       <c r="C72" s="33"/>
       <c r="D72" s="33"/>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="33"/>
       <c r="B73" s="33"/>
       <c r="C73" s="33"/>
@@ -8240,7 +8288,7 @@
       <c r="L73" s="54"/>
       <c r="M73" s="54"/>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="33"/>
       <c r="B74" s="33"/>
       <c r="C74" s="33"/>
@@ -8255,7 +8303,7 @@
       <c r="L74" s="54"/>
       <c r="M74" s="54"/>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="33"/>
       <c r="B75" s="33"/>
       <c r="C75" s="33"/>
@@ -8270,7 +8318,7 @@
       <c r="L75" s="54"/>
       <c r="M75" s="54"/>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="33"/>
       <c r="B76" s="33"/>
       <c r="C76" s="56"/>
@@ -8285,7 +8333,7 @@
       <c r="L76" s="54"/>
       <c r="M76" s="54"/>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E77" s="54"/>
       <c r="F77" s="54"/>
       <c r="G77" s="54"/>
@@ -8296,7 +8344,7 @@
       <c r="L77" s="54"/>
       <c r="M77" s="54"/>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E78" s="54"/>
       <c r="F78" s="54"/>
       <c r="G78" s="54"/>
@@ -8307,7 +8355,7 @@
       <c r="L78" s="54"/>
       <c r="M78" s="54"/>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E79" s="54"/>
       <c r="F79" s="54"/>
       <c r="G79" s="54"/>
@@ -8318,7 +8366,7 @@
       <c r="L79" s="54"/>
       <c r="M79" s="54"/>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E80" s="54"/>
       <c r="F80" s="54"/>
       <c r="G80" s="54"/>
@@ -8329,7 +8377,7 @@
       <c r="L80" s="54"/>
       <c r="M80" s="54"/>
     </row>
-    <row r="81" spans="1:21">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E81" s="54"/>
       <c r="F81" s="54"/>
       <c r="G81" s="54"/>
@@ -8340,7 +8388,7 @@
       <c r="L81" s="54"/>
       <c r="M81" s="54"/>
     </row>
-    <row r="82" spans="1:21">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E82" s="54"/>
       <c r="F82" s="54"/>
       <c r="G82" s="54"/>
@@ -8351,7 +8399,7 @@
       <c r="L82" s="54"/>
       <c r="M82" s="54"/>
     </row>
-    <row r="83" spans="1:21">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E83" s="54"/>
       <c r="F83" s="54"/>
       <c r="G83" s="54"/>
@@ -8370,7 +8418,7 @@
       <c r="T83" s="56"/>
       <c r="U83" s="56"/>
     </row>
-    <row r="84" spans="1:21">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E84" s="54"/>
       <c r="F84" s="54"/>
       <c r="G84" s="54"/>
@@ -8381,7 +8429,7 @@
       <c r="L84" s="54"/>
       <c r="M84" s="54"/>
     </row>
-    <row r="85" spans="1:21">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E85" s="54"/>
       <c r="F85" s="54"/>
       <c r="G85" s="54"/>
@@ -8392,7 +8440,7 @@
       <c r="L85" s="54"/>
       <c r="M85" s="54"/>
     </row>
-    <row r="86" spans="1:21">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E86" s="54"/>
       <c r="F86" s="54"/>
       <c r="G86" s="54"/>
@@ -8403,7 +8451,7 @@
       <c r="L86" s="54"/>
       <c r="M86" s="54"/>
     </row>
-    <row r="87" spans="1:21">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B87" s="56" t="s">
         <v>458</v>
       </c>
@@ -8421,7 +8469,7 @@
       <c r="L87" s="54"/>
       <c r="M87" s="54"/>
     </row>
-    <row r="88" spans="1:21">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>460</v>
       </c>
@@ -8440,7 +8488,7 @@
       </c>
       <c r="K88" s="3"/>
     </row>
-    <row r="89" spans="1:21">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F89" s="56" t="s">
         <v>459</v>
       </c>
@@ -8450,7 +8498,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:21">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="G90" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="G91" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F93" t="s">
         <v>426</v>
       </c>
@@ -8458,22 +8516,22 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:21">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E94" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="95" spans="1:21">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E95" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="96" spans="1:21">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E96" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="97" spans="3:7">
+    <row r="97" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C97" s="56" t="s">
         <v>456</v>
       </c>
@@ -8481,7 +8539,7 @@
       <c r="E97" s="56"/>
       <c r="F97" s="56"/>
     </row>
-    <row r="98" spans="3:7">
+    <row r="98" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D98" s="56"/>
       <c r="E98" s="56"/>
       <c r="F98" s="56"/>
@@ -8489,12 +8547,12 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="F89:H89"/>
-    <mergeCell ref="D98:G98"/>
-    <mergeCell ref="C76:J76"/>
-    <mergeCell ref="N83:U83"/>
-    <mergeCell ref="B87:I87"/>
-    <mergeCell ref="B88:I88"/>
+    <mergeCell ref="T2:V3"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="P31:S31"/>
+    <mergeCell ref="M45:U45"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="I42:R42"/>
     <mergeCell ref="B70:D70"/>
     <mergeCell ref="C97:F97"/>
     <mergeCell ref="B49:G49"/>
@@ -8506,12 +8564,12 @@
     <mergeCell ref="A60:G60"/>
     <mergeCell ref="A59:F59"/>
     <mergeCell ref="B54:F54"/>
-    <mergeCell ref="T2:V3"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="P31:S31"/>
-    <mergeCell ref="M45:U45"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="I42:R42"/>
+    <mergeCell ref="F89:H89"/>
+    <mergeCell ref="D98:G98"/>
+    <mergeCell ref="C76:J76"/>
+    <mergeCell ref="N83:U83"/>
+    <mergeCell ref="B87:I87"/>
+    <mergeCell ref="B88:I88"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8520,16 +8578,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="F5:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="5" spans="6:9">
+    <row r="5" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F5" s="16" t="s">
         <v>434</v>
       </c>
@@ -8538,7 +8596,7 @@
       </c>
       <c r="I5" s="16"/>
     </row>
-    <row r="6" spans="6:9">
+    <row r="6" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
         <v>84</v>
       </c>
@@ -8546,7 +8604,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="7" spans="6:9">
+    <row r="7" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
         <v>100</v>
       </c>
@@ -8554,7 +8612,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="6:9">
+    <row r="8" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
         <v>435</v>
       </c>
@@ -8562,7 +8620,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="6:9">
+    <row r="9" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
         <v>430</v>
       </c>
@@ -8570,68 +8628,68 @@
         <v>438</v>
       </c>
     </row>
-    <row r="10" spans="6:9">
+    <row r="10" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="12" spans="6:9">
+    <row r="12" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F12" s="16" t="s">
         <v>439</v>
       </c>
       <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="6:9">
+    <row r="13" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="14" spans="6:9">
+    <row r="14" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="6:9">
+    <row r="15" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="16" spans="6:9">
+    <row r="16" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="17" spans="6:6">
+    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="18" spans="6:6">
+    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="19" spans="6:6">
+    <row r="19" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="20" spans="6:6">
+    <row r="20" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="21" spans="6:6">
+    <row r="21" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F21" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="22" spans="6:6">
+    <row r="22" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="23" spans="6:6">
+    <row r="23" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F23" t="s">
         <v>449</v>
       </c>

--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FreeLance\Mokhtar Elsamhy\Fish Business\FishBusiness\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE9DE56-1D3E-4499-A2F7-6E03272D1B07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5553C5D-51B6-4932-AADE-3991941189DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1806,15 +1806,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1824,22 +1815,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5063,9 +5063,9 @@
       <c r="Q3" s="17"/>
       <c r="R3" s="17"/>
       <c r="S3" s="17"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
+      <c r="T3" s="63"/>
+      <c r="U3" s="63"/>
+      <c r="V3" s="63"/>
       <c r="W3" s="17"/>
       <c r="X3" s="17"/>
     </row>
@@ -5659,11 +5659,11 @@
       <c r="F46" s="26"/>
       <c r="G46" s="27"/>
       <c r="H46" s="27"/>
-      <c r="I46" s="57" t="s">
+      <c r="I46" s="60" t="s">
         <v>256</v>
       </c>
-      <c r="J46" s="57"/>
-      <c r="K46" s="58"/>
+      <c r="J46" s="60"/>
+      <c r="K46" s="61"/>
       <c r="V46" s="17"/>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.25">
@@ -6773,15 +6773,15 @@
     </row>
     <row r="154" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B154" s="17"/>
-      <c r="E154" s="62" t="s">
+      <c r="E154" s="59" t="s">
         <v>297</v>
       </c>
-      <c r="F154" s="57"/>
-      <c r="G154" s="57"/>
-      <c r="H154" s="57"/>
-      <c r="I154" s="57"/>
-      <c r="J154" s="57"/>
-      <c r="K154" s="58"/>
+      <c r="F154" s="60"/>
+      <c r="G154" s="60"/>
+      <c r="H154" s="60"/>
+      <c r="I154" s="60"/>
+      <c r="J154" s="60"/>
+      <c r="K154" s="61"/>
       <c r="Q154" s="5" t="s">
         <v>304</v>
       </c>
@@ -6789,13 +6789,13 @@
     </row>
     <row r="155" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B155" s="17"/>
-      <c r="E155" s="63"/>
-      <c r="F155" s="60"/>
-      <c r="G155" s="60"/>
-      <c r="H155" s="60"/>
-      <c r="I155" s="60"/>
-      <c r="J155" s="60"/>
-      <c r="K155" s="61"/>
+      <c r="E155" s="62"/>
+      <c r="F155" s="57"/>
+      <c r="G155" s="57"/>
+      <c r="H155" s="57"/>
+      <c r="I155" s="57"/>
+      <c r="J155" s="57"/>
+      <c r="K155" s="58"/>
       <c r="Q155" s="5" t="s">
         <v>305</v>
       </c>
@@ -6855,11 +6855,11 @@
         <v>313</v>
       </c>
       <c r="H158" s="19"/>
-      <c r="I158" s="60" t="s">
+      <c r="I158" s="57" t="s">
         <v>321</v>
       </c>
-      <c r="J158" s="60"/>
-      <c r="K158" s="61"/>
+      <c r="J158" s="57"/>
+      <c r="K158" s="58"/>
       <c r="R158">
         <v>200</v>
       </c>
@@ -6929,11 +6929,11 @@
         <v>313</v>
       </c>
       <c r="H162" s="19"/>
-      <c r="I162" s="60" t="s">
+      <c r="I162" s="57" t="s">
         <v>323</v>
       </c>
-      <c r="J162" s="60"/>
-      <c r="K162" s="61"/>
+      <c r="J162" s="57"/>
+      <c r="K162" s="58"/>
       <c r="V162" s="17"/>
     </row>
     <row r="163" spans="2:22" x14ac:dyDescent="0.25">
@@ -7344,6 +7344,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="P30:R30"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="T7:U7"/>
     <mergeCell ref="F181:H181"/>
     <mergeCell ref="I158:K158"/>
     <mergeCell ref="I162:K162"/>
@@ -7356,14 +7364,6 @@
     <mergeCell ref="Q180:R180"/>
     <mergeCell ref="Q176:S176"/>
     <mergeCell ref="E154:K155"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="P30:R30"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="T7:U7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7809,7 +7809,7 @@
   <dimension ref="A2:W98"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="G92" sqref="G92"/>
+      <selection activeCell="J92" sqref="J92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7880,10 +7880,10 @@
       </c>
     </row>
     <row r="15" spans="13:22" x14ac:dyDescent="0.25">
-      <c r="S15" s="67" t="s">
+      <c r="S15" s="65" t="s">
         <v>394</v>
       </c>
-      <c r="T15" s="67"/>
+      <c r="T15" s="65"/>
     </row>
     <row r="16" spans="13:22" x14ac:dyDescent="0.25">
       <c r="P16" s="11" t="s">
@@ -8015,18 +8015,18 @@
       </c>
     </row>
     <row r="42" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="I42" s="68" t="s">
+      <c r="I42" s="66" t="s">
         <v>416</v>
       </c>
-      <c r="J42" s="68"/>
-      <c r="K42" s="68"/>
-      <c r="L42" s="68"/>
-      <c r="M42" s="68"/>
-      <c r="N42" s="68"/>
-      <c r="O42" s="68"/>
-      <c r="P42" s="68"/>
-      <c r="Q42" s="68"/>
-      <c r="R42" s="68"/>
+      <c r="J42" s="66"/>
+      <c r="K42" s="66"/>
+      <c r="L42" s="66"/>
+      <c r="M42" s="66"/>
+      <c r="N42" s="66"/>
+      <c r="O42" s="66"/>
+      <c r="P42" s="66"/>
+      <c r="Q42" s="66"/>
+      <c r="R42" s="66"/>
       <c r="S42" s="48"/>
     </row>
     <row r="45" spans="8:21" x14ac:dyDescent="0.25">
@@ -8043,14 +8043,14 @@
       <c r="U45" s="56"/>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B49" s="65" t="s">
+      <c r="B49" s="67" t="s">
         <v>417</v>
       </c>
-      <c r="C49" s="65"/>
-      <c r="D49" s="65"/>
-      <c r="E49" s="65"/>
-      <c r="F49" s="65"/>
-      <c r="G49" s="65"/>
+      <c r="C49" s="67"/>
+      <c r="D49" s="67"/>
+      <c r="E49" s="67"/>
+      <c r="F49" s="67"/>
+      <c r="G49" s="67"/>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B51" s="3"/>
@@ -8112,13 +8112,13 @@
       <c r="D59" s="55"/>
       <c r="E59" s="55"/>
       <c r="F59" s="55"/>
-      <c r="R59" s="66" t="s">
+      <c r="R59" s="68" t="s">
         <v>420</v>
       </c>
-      <c r="S59" s="66"/>
-      <c r="T59" s="66"/>
-      <c r="U59" s="66"/>
-      <c r="V59" s="66"/>
+      <c r="S59" s="68"/>
+      <c r="T59" s="68"/>
+      <c r="U59" s="68"/>
+      <c r="V59" s="68"/>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" s="55" t="s">
@@ -8499,7 +8499,8 @@
       </c>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="G90" t="s">
+      <c r="F90" s="3"/>
+      <c r="G90" s="3" t="s">
         <v>461</v>
       </c>
     </row>
@@ -8547,12 +8548,11 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="T2:V3"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="P31:S31"/>
-    <mergeCell ref="M45:U45"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="I42:R42"/>
+    <mergeCell ref="D98:G98"/>
+    <mergeCell ref="C76:J76"/>
+    <mergeCell ref="N83:U83"/>
+    <mergeCell ref="B87:I87"/>
+    <mergeCell ref="B88:I88"/>
     <mergeCell ref="B70:D70"/>
     <mergeCell ref="C97:F97"/>
     <mergeCell ref="B49:G49"/>
@@ -8565,11 +8565,12 @@
     <mergeCell ref="A59:F59"/>
     <mergeCell ref="B54:F54"/>
     <mergeCell ref="F89:H89"/>
-    <mergeCell ref="D98:G98"/>
-    <mergeCell ref="C76:J76"/>
-    <mergeCell ref="N83:U83"/>
-    <mergeCell ref="B87:I87"/>
-    <mergeCell ref="B88:I88"/>
+    <mergeCell ref="T2:V3"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="P31:S31"/>
+    <mergeCell ref="M45:U45"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="I42:R42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FreeLance\Mokhtar Elsamhy\Fish Business\FishBusiness\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5553C5D-51B6-4932-AADE-3991941189DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA403B44-5BF2-4A35-8CA8-1DF753EAD15E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1806,6 +1806,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1815,31 +1824,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5063,9 +5063,9 @@
       <c r="Q3" s="17"/>
       <c r="R3" s="17"/>
       <c r="S3" s="17"/>
-      <c r="T3" s="63"/>
-      <c r="U3" s="63"/>
-      <c r="V3" s="63"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="59"/>
       <c r="W3" s="17"/>
       <c r="X3" s="17"/>
     </row>
@@ -5659,11 +5659,11 @@
       <c r="F46" s="26"/>
       <c r="G46" s="27"/>
       <c r="H46" s="27"/>
-      <c r="I46" s="60" t="s">
+      <c r="I46" s="57" t="s">
         <v>256</v>
       </c>
-      <c r="J46" s="60"/>
-      <c r="K46" s="61"/>
+      <c r="J46" s="57"/>
+      <c r="K46" s="58"/>
       <c r="V46" s="17"/>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.25">
@@ -6773,15 +6773,15 @@
     </row>
     <row r="154" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B154" s="17"/>
-      <c r="E154" s="59" t="s">
+      <c r="E154" s="62" t="s">
         <v>297</v>
       </c>
-      <c r="F154" s="60"/>
-      <c r="G154" s="60"/>
-      <c r="H154" s="60"/>
-      <c r="I154" s="60"/>
-      <c r="J154" s="60"/>
-      <c r="K154" s="61"/>
+      <c r="F154" s="57"/>
+      <c r="G154" s="57"/>
+      <c r="H154" s="57"/>
+      <c r="I154" s="57"/>
+      <c r="J154" s="57"/>
+      <c r="K154" s="58"/>
       <c r="Q154" s="5" t="s">
         <v>304</v>
       </c>
@@ -6789,13 +6789,13 @@
     </row>
     <row r="155" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B155" s="17"/>
-      <c r="E155" s="62"/>
-      <c r="F155" s="57"/>
-      <c r="G155" s="57"/>
-      <c r="H155" s="57"/>
-      <c r="I155" s="57"/>
-      <c r="J155" s="57"/>
-      <c r="K155" s="58"/>
+      <c r="E155" s="63"/>
+      <c r="F155" s="60"/>
+      <c r="G155" s="60"/>
+      <c r="H155" s="60"/>
+      <c r="I155" s="60"/>
+      <c r="J155" s="60"/>
+      <c r="K155" s="61"/>
       <c r="Q155" s="5" t="s">
         <v>305</v>
       </c>
@@ -6855,11 +6855,11 @@
         <v>313</v>
       </c>
       <c r="H158" s="19"/>
-      <c r="I158" s="57" t="s">
+      <c r="I158" s="60" t="s">
         <v>321</v>
       </c>
-      <c r="J158" s="57"/>
-      <c r="K158" s="58"/>
+      <c r="J158" s="60"/>
+      <c r="K158" s="61"/>
       <c r="R158">
         <v>200</v>
       </c>
@@ -6929,11 +6929,11 @@
         <v>313</v>
       </c>
       <c r="H162" s="19"/>
-      <c r="I162" s="57" t="s">
+      <c r="I162" s="60" t="s">
         <v>323</v>
       </c>
-      <c r="J162" s="57"/>
-      <c r="K162" s="58"/>
+      <c r="J162" s="60"/>
+      <c r="K162" s="61"/>
       <c r="V162" s="17"/>
     </row>
     <row r="163" spans="2:22" x14ac:dyDescent="0.25">
@@ -7344,14 +7344,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="P30:R30"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="T7:U7"/>
     <mergeCell ref="F181:H181"/>
     <mergeCell ref="I158:K158"/>
     <mergeCell ref="I162:K162"/>
@@ -7364,6 +7356,14 @@
     <mergeCell ref="Q180:R180"/>
     <mergeCell ref="Q176:S176"/>
     <mergeCell ref="E154:K155"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="P30:R30"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="T7:U7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7809,7 +7809,7 @@
   <dimension ref="A2:W98"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="J92" sqref="J92"/>
+      <selection activeCell="I89" sqref="I89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7880,10 +7880,10 @@
       </c>
     </row>
     <row r="15" spans="13:22" x14ac:dyDescent="0.25">
-      <c r="S15" s="65" t="s">
+      <c r="S15" s="67" t="s">
         <v>394</v>
       </c>
-      <c r="T15" s="65"/>
+      <c r="T15" s="67"/>
     </row>
     <row r="16" spans="13:22" x14ac:dyDescent="0.25">
       <c r="P16" s="11" t="s">
@@ -8015,18 +8015,18 @@
       </c>
     </row>
     <row r="42" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="I42" s="66" t="s">
+      <c r="I42" s="68" t="s">
         <v>416</v>
       </c>
-      <c r="J42" s="66"/>
-      <c r="K42" s="66"/>
-      <c r="L42" s="66"/>
-      <c r="M42" s="66"/>
-      <c r="N42" s="66"/>
-      <c r="O42" s="66"/>
-      <c r="P42" s="66"/>
-      <c r="Q42" s="66"/>
-      <c r="R42" s="66"/>
+      <c r="J42" s="68"/>
+      <c r="K42" s="68"/>
+      <c r="L42" s="68"/>
+      <c r="M42" s="68"/>
+      <c r="N42" s="68"/>
+      <c r="O42" s="68"/>
+      <c r="P42" s="68"/>
+      <c r="Q42" s="68"/>
+      <c r="R42" s="68"/>
       <c r="S42" s="48"/>
     </row>
     <row r="45" spans="8:21" x14ac:dyDescent="0.25">
@@ -8043,14 +8043,14 @@
       <c r="U45" s="56"/>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B49" s="67" t="s">
+      <c r="B49" s="65" t="s">
         <v>417</v>
       </c>
-      <c r="C49" s="67"/>
-      <c r="D49" s="67"/>
-      <c r="E49" s="67"/>
-      <c r="F49" s="67"/>
-      <c r="G49" s="67"/>
+      <c r="C49" s="65"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="65"/>
+      <c r="F49" s="65"/>
+      <c r="G49" s="65"/>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B51" s="3"/>
@@ -8112,13 +8112,13 @@
       <c r="D59" s="55"/>
       <c r="E59" s="55"/>
       <c r="F59" s="55"/>
-      <c r="R59" s="68" t="s">
+      <c r="R59" s="66" t="s">
         <v>420</v>
       </c>
-      <c r="S59" s="68"/>
-      <c r="T59" s="68"/>
-      <c r="U59" s="68"/>
-      <c r="V59" s="68"/>
+      <c r="S59" s="66"/>
+      <c r="T59" s="66"/>
+      <c r="U59" s="66"/>
+      <c r="V59" s="66"/>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" s="55" t="s">
@@ -8452,16 +8452,16 @@
       <c r="M86" s="54"/>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B87" s="56" t="s">
+      <c r="B87" s="55" t="s">
         <v>458</v>
       </c>
-      <c r="C87" s="56"/>
-      <c r="D87" s="56"/>
-      <c r="E87" s="56"/>
-      <c r="F87" s="56"/>
-      <c r="G87" s="56"/>
-      <c r="H87" s="56"/>
-      <c r="I87" s="56"/>
+      <c r="C87" s="55"/>
+      <c r="D87" s="55"/>
+      <c r="E87" s="55"/>
+      <c r="F87" s="55"/>
+      <c r="G87" s="55"/>
+      <c r="H87" s="55"/>
+      <c r="I87" s="55"/>
       <c r="J87" s="54">
         <v>1</v>
       </c>
@@ -8548,11 +8548,12 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="D98:G98"/>
-    <mergeCell ref="C76:J76"/>
-    <mergeCell ref="N83:U83"/>
-    <mergeCell ref="B87:I87"/>
-    <mergeCell ref="B88:I88"/>
+    <mergeCell ref="T2:V3"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="P31:S31"/>
+    <mergeCell ref="M45:U45"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="I42:R42"/>
     <mergeCell ref="B70:D70"/>
     <mergeCell ref="C97:F97"/>
     <mergeCell ref="B49:G49"/>
@@ -8565,12 +8566,11 @@
     <mergeCell ref="A59:F59"/>
     <mergeCell ref="B54:F54"/>
     <mergeCell ref="F89:H89"/>
-    <mergeCell ref="T2:V3"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="P31:S31"/>
-    <mergeCell ref="M45:U45"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="I42:R42"/>
+    <mergeCell ref="D98:G98"/>
+    <mergeCell ref="C76:J76"/>
+    <mergeCell ref="N83:U83"/>
+    <mergeCell ref="B87:I87"/>
+    <mergeCell ref="B88:I88"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8582,7 +8582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="F5:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>

--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FreeLance\Mokhtar Elsamhy\Fish Business\FishBusiness\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA403B44-5BF2-4A35-8CA8-1DF753EAD15E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="463">
   <si>
     <t>حلقه سمك</t>
   </si>
@@ -1420,8 +1414,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1806,15 +1800,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1824,22 +1809,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1880,7 +1874,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="WhatsApp Image 2020-08-17 at 1.23.37 AM.jpeg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1929,7 +1923,7 @@
         <xdr:cNvPr id="3" name="Picture 2" descr="Capturea.PNG">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2001,7 +1995,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2033,27 +2027,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2085,24 +2061,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2278,22 +2236,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y117"/>
   <sheetViews>
     <sheetView topLeftCell="A106" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="M1" sqref="M1:M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22">
       <c r="E1">
         <v>2500</v>
       </c>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22">
       <c r="E2">
         <v>3000</v>
       </c>
@@ -2302,7 +2260,7 @@
       </c>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22">
       <c r="E3">
         <v>10000</v>
       </c>
@@ -2311,7 +2269,7 @@
       </c>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22">
       <c r="F4">
         <v>7.5</v>
       </c>
@@ -2320,7 +2278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -2339,7 +2297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
@@ -2351,7 +2309,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -2376,7 +2334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -2398,7 +2356,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -2414,7 +2372,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -2432,7 +2390,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -2442,7 +2400,7 @@
       <c r="I11" s="3"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -2460,7 +2418,7 @@
       </c>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -2482,7 +2440,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -2498,7 +2456,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -2523,7 +2481,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -2542,7 +2500,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -2564,7 +2522,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -2583,7 +2541,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -2599,7 +2557,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -2618,7 +2576,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -2628,7 +2586,7 @@
       </c>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -2641,7 +2599,7 @@
       </c>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -2654,7 +2612,7 @@
       </c>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -2667,7 +2625,7 @@
       </c>
       <c r="M24" s="5"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24">
       <c r="H25" t="s">
         <v>24</v>
       </c>
@@ -2675,12 +2633,12 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24">
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24">
       <c r="E27" t="s">
         <v>26</v>
       </c>
@@ -2691,7 +2649,7 @@
         <v>5650</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24">
       <c r="I28" s="4">
         <v>0.06</v>
       </c>
@@ -2710,12 +2668,12 @@
       <c r="R28" s="6"/>
       <c r="S28" s="6"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24">
       <c r="I29">
         <v>5311</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24">
       <c r="E30">
         <v>100</v>
       </c>
@@ -2732,7 +2690,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24">
       <c r="H31" t="s">
         <v>29</v>
       </c>
@@ -2740,7 +2698,7 @@
         <v>5011</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24">
       <c r="I32">
         <v>2500</v>
       </c>
@@ -2760,7 +2718,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:25">
       <c r="I33">
         <v>2500</v>
       </c>
@@ -2774,7 +2732,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:25">
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5" t="s">
@@ -2793,7 +2751,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:25">
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
@@ -2810,7 +2768,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:25">
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
@@ -2827,7 +2785,7 @@
       <c r="W36" s="5"/>
       <c r="X36" s="5"/>
     </row>
-    <row r="37" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:25">
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
@@ -2838,7 +2796,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="38" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:25">
       <c r="E38" s="5" t="s">
         <v>41</v>
       </c>
@@ -2853,7 +2811,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="39" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:25">
       <c r="F39" t="s">
         <v>34</v>
       </c>
@@ -2866,7 +2824,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="40" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:25">
       <c r="F40" t="s">
         <v>35</v>
       </c>
@@ -2876,7 +2834,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:25">
       <c r="F41" t="s">
         <v>36</v>
       </c>
@@ -2886,7 +2844,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:25">
       <c r="F42" t="s">
         <v>37</v>
       </c>
@@ -2896,7 +2854,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:25">
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
@@ -2910,7 +2868,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:25">
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
@@ -2918,7 +2876,7 @@
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
     </row>
-    <row r="45" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:25">
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
@@ -2926,7 +2884,7 @@
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
     </row>
-    <row r="46" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:25">
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
@@ -2943,7 +2901,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:25">
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
@@ -2960,7 +2918,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:25">
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
@@ -2977,7 +2935,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="8:25">
       <c r="R49" t="s">
         <v>24</v>
       </c>
@@ -2988,22 +2946,22 @@
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="8:25">
       <c r="Y50" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="8:25">
       <c r="X51">
         <v>20000</v>
       </c>
     </row>
-    <row r="52" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="8:25">
       <c r="Y52">
         <v>2000</v>
       </c>
     </row>
-    <row r="58" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="8:25">
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
@@ -3018,7 +2976,7 @@
       <c r="S58" s="5"/>
       <c r="T58" s="5"/>
     </row>
-    <row r="64" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="8:25">
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
@@ -3035,7 +2993,7 @@
       <c r="W64" s="5"/>
       <c r="X64" s="5"/>
     </row>
-    <row r="65" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="8:25">
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
@@ -3054,7 +3012,7 @@
       <c r="W65" s="5"/>
       <c r="X65" s="5"/>
     </row>
-    <row r="66" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="8:25">
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
@@ -3071,7 +3029,7 @@
       <c r="W66" s="5"/>
       <c r="X66" s="5"/>
     </row>
-    <row r="67" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="8:25">
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
@@ -3088,7 +3046,7 @@
       <c r="W67" s="5"/>
       <c r="X67" s="5"/>
     </row>
-    <row r="68" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="8:25">
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
@@ -3107,7 +3065,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="8:25">
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
@@ -3124,7 +3082,7 @@
       <c r="W69" s="5"/>
       <c r="X69" s="5"/>
     </row>
-    <row r="70" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="8:25">
       <c r="H70" s="5"/>
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
@@ -3146,7 +3104,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="71" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="8:25">
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
@@ -3171,7 +3129,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="72" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="8:25">
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
@@ -3191,7 +3149,7 @@
       <c r="W72" s="5"/>
       <c r="X72" s="5"/>
     </row>
-    <row r="73" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="8:25">
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
@@ -3211,7 +3169,7 @@
       <c r="W73" s="5"/>
       <c r="X73" s="5"/>
     </row>
-    <row r="74" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="8:25">
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
@@ -3228,7 +3186,7 @@
       <c r="W74" s="5"/>
       <c r="X74" s="5"/>
     </row>
-    <row r="75" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="8:25">
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
@@ -3245,7 +3203,7 @@
       <c r="W75" s="5"/>
       <c r="X75" s="5"/>
     </row>
-    <row r="76" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="8:25">
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
@@ -3263,7 +3221,7 @@
         <v>5650</v>
       </c>
     </row>
-    <row r="77" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="8:25">
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
@@ -3284,7 +3242,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="78" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="78" spans="8:25">
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
@@ -3299,7 +3257,7 @@
         <v>5311</v>
       </c>
     </row>
-    <row r="79" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="8:25">
       <c r="H79" s="5"/>
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
@@ -3320,7 +3278,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="8:25" x14ac:dyDescent="0.25">
+    <row r="80" spans="8:25">
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
@@ -3338,7 +3296,7 @@
         <v>5011</v>
       </c>
     </row>
-    <row r="81" spans="6:24" x14ac:dyDescent="0.25">
+    <row r="81" spans="6:24">
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
@@ -3355,71 +3313,71 @@
       <c r="W81" s="5"/>
       <c r="X81" s="5"/>
     </row>
-    <row r="82" spans="6:24" x14ac:dyDescent="0.25">
+    <row r="82" spans="6:24">
       <c r="T82" s="5"/>
       <c r="U82" s="5"/>
       <c r="V82" s="5"/>
       <c r="W82" s="5"/>
       <c r="X82" s="5"/>
     </row>
-    <row r="83" spans="6:24" x14ac:dyDescent="0.25">
+    <row r="83" spans="6:24">
       <c r="T83" s="5"/>
       <c r="U83" s="5"/>
       <c r="V83" s="5"/>
       <c r="W83" s="5"/>
       <c r="X83" s="5"/>
     </row>
-    <row r="84" spans="6:24" x14ac:dyDescent="0.25">
+    <row r="84" spans="6:24">
       <c r="T84" s="5"/>
       <c r="U84" s="5"/>
       <c r="V84" s="5"/>
       <c r="W84" s="5"/>
       <c r="X84" s="5"/>
     </row>
-    <row r="85" spans="6:24" x14ac:dyDescent="0.25">
+    <row r="85" spans="6:24">
       <c r="T85" s="5"/>
       <c r="U85" s="5"/>
       <c r="V85" s="5"/>
       <c r="W85" s="5"/>
       <c r="X85" s="5"/>
     </row>
-    <row r="86" spans="6:24" x14ac:dyDescent="0.25">
+    <row r="86" spans="6:24">
       <c r="T86" s="5"/>
       <c r="U86" s="5"/>
       <c r="V86" s="5"/>
       <c r="W86" s="5"/>
       <c r="X86" s="5"/>
     </row>
-    <row r="87" spans="6:24" x14ac:dyDescent="0.25">
+    <row r="87" spans="6:24">
       <c r="T87" s="5"/>
       <c r="U87" s="5"/>
       <c r="V87" s="5"/>
       <c r="W87" s="5"/>
       <c r="X87" s="5"/>
     </row>
-    <row r="88" spans="6:24" x14ac:dyDescent="0.25">
+    <row r="88" spans="6:24">
       <c r="T88" s="5"/>
       <c r="U88" s="5"/>
       <c r="V88" s="5"/>
       <c r="W88" s="5"/>
       <c r="X88" s="5"/>
     </row>
-    <row r="90" spans="6:24" x14ac:dyDescent="0.25">
+    <row r="90" spans="6:24">
       <c r="F90" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="6:24" x14ac:dyDescent="0.25">
+    <row r="95" spans="6:24">
       <c r="V95" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="96" spans="6:24" x14ac:dyDescent="0.25">
+    <row r="96" spans="6:24">
       <c r="V96" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="97" spans="20:22" x14ac:dyDescent="0.25">
+    <row r="97" spans="20:22">
       <c r="U97" t="s">
         <v>64</v>
       </c>
@@ -3427,17 +3385,17 @@
         <v>53</v>
       </c>
     </row>
-    <row r="98" spans="20:22" x14ac:dyDescent="0.25">
+    <row r="98" spans="20:22">
       <c r="V98" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="99" spans="20:22" x14ac:dyDescent="0.25">
+    <row r="99" spans="20:22">
       <c r="V99" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="100" spans="20:22" x14ac:dyDescent="0.25">
+    <row r="100" spans="20:22">
       <c r="T100" t="s">
         <v>60</v>
       </c>
@@ -3445,7 +3403,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="116" spans="20:22" x14ac:dyDescent="0.25">
+    <row r="116" spans="20:22">
       <c r="T116" t="s">
         <v>67</v>
       </c>
@@ -3453,7 +3411,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="117" spans="20:22" x14ac:dyDescent="0.25">
+    <row r="117" spans="20:22">
       <c r="V117" t="s">
         <v>66</v>
       </c>
@@ -3465,24 +3423,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:V84"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I11" sqref="I11:K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" customWidth="1"/>
     <col min="11" max="11" width="7" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" customWidth="1"/>
+    <col min="12" max="12" width="13.44140625" customWidth="1"/>
+    <col min="13" max="13" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:18">
       <c r="D4" s="1" t="s">
         <v>68</v>
       </c>
@@ -3499,7 +3457,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:18">
       <c r="D5" t="s">
         <v>87</v>
       </c>
@@ -3516,7 +3474,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:18">
       <c r="D6" t="s">
         <v>70</v>
       </c>
@@ -3533,7 +3491,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:18">
       <c r="G7" t="s">
         <v>72</v>
       </c>
@@ -3544,7 +3502,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:18">
       <c r="F8" t="s">
         <v>142</v>
       </c>
@@ -3555,14 +3513,14 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:18">
       <c r="F9" s="9"/>
       <c r="G9" s="9" t="s">
         <v>73</v>
       </c>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:18">
       <c r="G10" t="s">
         <v>95</v>
       </c>
@@ -3570,7 +3528,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:18">
       <c r="F11" s="3">
         <v>0</v>
       </c>
@@ -3581,17 +3539,17 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:18">
       <c r="J12" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:18">
       <c r="J13" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:18">
       <c r="M14" s="1" t="s">
         <v>83</v>
       </c>
@@ -3601,7 +3559,7 @@
       </c>
       <c r="R14" s="1"/>
     </row>
-    <row r="15" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:18">
       <c r="M15" t="s">
         <v>86</v>
       </c>
@@ -3609,7 +3567,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:18">
       <c r="M16" t="s">
         <v>78</v>
       </c>
@@ -3617,7 +3575,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:20">
       <c r="D17" s="1" t="s">
         <v>93</v>
       </c>
@@ -3628,7 +3586,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:20">
       <c r="D18" t="s">
         <v>95</v>
       </c>
@@ -3642,7 +3600,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:20">
       <c r="D19" t="s">
         <v>94</v>
       </c>
@@ -3653,7 +3611,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:20">
       <c r="K20">
         <v>600</v>
       </c>
@@ -3664,7 +3622,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:20">
       <c r="L21">
         <v>400</v>
       </c>
@@ -3672,7 +3630,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:20">
       <c r="G22" s="3"/>
       <c r="H22" s="3" t="s">
         <v>130</v>
@@ -3687,7 +3645,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:20">
       <c r="D23" s="1" t="s">
         <v>99</v>
       </c>
@@ -3703,7 +3661,7 @@
       </c>
       <c r="N23" s="3"/>
     </row>
-    <row r="24" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:20">
       <c r="D24" t="s">
         <v>101</v>
       </c>
@@ -3711,7 +3669,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:20">
       <c r="D25" t="s">
         <v>100</v>
       </c>
@@ -3719,17 +3677,17 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:20">
       <c r="G26" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:20">
       <c r="G27" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="28" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:20">
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
@@ -3748,7 +3706,7 @@
       <c r="S28" s="7"/>
       <c r="T28" s="7"/>
     </row>
-    <row r="37" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="6:18">
       <c r="G37" s="1" t="s">
         <v>102</v>
       </c>
@@ -3762,7 +3720,7 @@
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
     </row>
-    <row r="38" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="6:18">
       <c r="G38" t="s">
         <v>106</v>
       </c>
@@ -3773,7 +3731,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="6:18">
       <c r="F39" t="s">
         <v>110</v>
       </c>
@@ -3787,7 +3745,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="6:18">
       <c r="F40">
         <v>20000</v>
       </c>
@@ -3801,7 +3759,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="6:18">
       <c r="K41">
         <v>20000</v>
       </c>
@@ -3812,7 +3770,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="6:18">
       <c r="J42" t="s">
         <v>113</v>
       </c>
@@ -3826,7 +3784,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="6:18">
       <c r="K43">
         <v>5000</v>
       </c>
@@ -3837,7 +3795,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="6:18">
       <c r="K44" t="s">
         <v>111</v>
       </c>
@@ -3845,7 +3803,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="49" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:20">
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -3864,12 +3822,12 @@
       <c r="S49" s="2"/>
       <c r="T49" s="2"/>
     </row>
-    <row r="54" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:20">
       <c r="E54" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="55" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:20">
       <c r="E55" t="s">
         <v>84</v>
       </c>
@@ -3877,7 +3835,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="56" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:20">
       <c r="E56" s="3" t="s">
         <v>100</v>
       </c>
@@ -3888,7 +3846,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="57" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:20">
       <c r="E57" s="3" t="s">
         <v>115</v>
       </c>
@@ -3899,12 +3857,12 @@
         <v>118</v>
       </c>
     </row>
-    <row r="58" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:20">
       <c r="M58" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="60" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:20">
       <c r="L60" t="s">
         <v>122</v>
       </c>
@@ -3912,7 +3870,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:20">
       <c r="K62" s="3"/>
       <c r="L62" s="3" t="s">
         <v>123</v>
@@ -3923,7 +3881,7 @@
       </c>
       <c r="P62" s="3"/>
     </row>
-    <row r="63" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:20">
       <c r="B63" t="s">
         <v>145</v>
       </c>
@@ -3942,7 +3900,7 @@
       </c>
       <c r="P63" s="3"/>
     </row>
-    <row r="64" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:20">
       <c r="B64" t="s">
         <v>147</v>
       </c>
@@ -3954,7 +3912,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:22">
       <c r="B66" t="s">
         <v>150</v>
       </c>
@@ -3965,7 +3923,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:22">
       <c r="B67" t="s">
         <v>151</v>
       </c>
@@ -3979,12 +3937,12 @@
         <v>155</v>
       </c>
     </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:22">
       <c r="G68" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:22">
       <c r="B69">
         <v>20</v>
       </c>
@@ -3998,7 +3956,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:22">
       <c r="B70" t="s">
         <v>152</v>
       </c>
@@ -4018,19 +3976,19 @@
       <c r="U70" s="56"/>
       <c r="V70" s="56"/>
     </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:22">
       <c r="S71" s="56"/>
       <c r="T71" s="56"/>
       <c r="U71" s="56"/>
       <c r="V71" s="56"/>
     </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:22">
       <c r="S72" s="56"/>
       <c r="T72" s="56"/>
       <c r="U72" s="56"/>
       <c r="V72" s="56"/>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:22">
       <c r="N73" s="55" t="s">
         <v>157</v>
       </c>
@@ -4042,7 +4000,7 @@
       <c r="U73" s="56"/>
       <c r="V73" s="56"/>
     </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:22">
       <c r="E74" s="2" t="s">
         <v>140</v>
       </c>
@@ -4063,7 +4021,7 @@
       <c r="U74" s="56"/>
       <c r="V74" s="56"/>
     </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:22">
       <c r="E75" s="3" t="s">
         <v>105</v>
       </c>
@@ -4083,7 +4041,7 @@
       <c r="U75" s="56"/>
       <c r="V75" s="56"/>
     </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:22">
       <c r="E76" s="3" t="s">
         <v>90</v>
       </c>
@@ -4100,7 +4058,7 @@
       <c r="U76" s="56"/>
       <c r="V76" s="56"/>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:22">
       <c r="E77" s="3" t="s">
         <v>137</v>
       </c>
@@ -4113,7 +4071,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="78" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:22">
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
       <c r="I78" s="3" t="s">
@@ -4132,7 +4090,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:22">
       <c r="E79" s="3" t="s">
         <v>112</v>
       </c>
@@ -4150,7 +4108,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:22">
       <c r="E80" s="3" t="s">
         <v>141</v>
       </c>
@@ -4159,7 +4117,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="81" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="13:17">
       <c r="M81" t="s">
         <v>167</v>
       </c>
@@ -4167,7 +4125,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="82" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="13:17">
       <c r="M82" t="s">
         <v>169</v>
       </c>
@@ -4178,7 +4136,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="84" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="13:17">
       <c r="M84" t="s">
         <v>171</v>
       </c>
@@ -4198,20 +4156,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:V68"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21">
       <c r="H2" s="14"/>
       <c r="I2" s="14" t="s">
         <v>48</v>
@@ -4224,7 +4182,7 @@
       </c>
       <c r="O2" s="3"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21">
       <c r="B3" s="13">
         <v>13000</v>
       </c>
@@ -4243,7 +4201,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21">
       <c r="O4" s="3"/>
       <c r="R4" s="5"/>
       <c r="S4" s="5">
@@ -4253,7 +4211,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21">
       <c r="O5" s="3"/>
       <c r="R5" s="5">
         <v>2600</v>
@@ -4265,7 +4223,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21">
       <c r="D6">
         <v>1475</v>
       </c>
@@ -4280,7 +4238,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21">
       <c r="I7" t="s">
         <v>182</v>
       </c>
@@ -4301,7 +4259,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21">
       <c r="E8">
         <v>1475</v>
       </c>
@@ -4326,7 +4284,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21">
       <c r="L9">
         <v>2950</v>
       </c>
@@ -4338,7 +4296,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21">
       <c r="A10">
         <v>245.8</v>
       </c>
@@ -4359,7 +4317,7 @@
         <v>3950</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21">
       <c r="A11">
         <v>250</v>
       </c>
@@ -4370,7 +4328,7 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21">
       <c r="C12">
         <v>3000</v>
       </c>
@@ -4393,7 +4351,7 @@
       <c r="O12" s="3"/>
       <c r="Q12" s="10"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21">
       <c r="D13">
         <v>3000</v>
       </c>
@@ -4411,7 +4369,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21">
       <c r="C14">
         <v>950</v>
       </c>
@@ -4432,7 +4390,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21">
       <c r="O15" s="3"/>
       <c r="R15">
         <v>950</v>
@@ -4444,7 +4402,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21">
       <c r="H16" s="12">
         <v>500</v>
       </c>
@@ -4463,7 +4421,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="17" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:21">
       <c r="L17">
         <v>4045</v>
       </c>
@@ -4472,7 +4430,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:21">
       <c r="D18" t="s">
         <v>189</v>
       </c>
@@ -4493,7 +4451,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="19" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:21">
       <c r="O19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
@@ -4501,7 +4459,7 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
     </row>
-    <row r="20" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:21">
       <c r="H20" s="12"/>
       <c r="J20" s="3">
         <v>3790</v>
@@ -4511,7 +4469,7 @@
       </c>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:21">
       <c r="O21" s="3"/>
       <c r="R21">
         <v>2600</v>
@@ -4523,7 +4481,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:21">
       <c r="F22" t="s">
         <v>192</v>
       </c>
@@ -4541,7 +4499,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="23" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:21">
       <c r="F23">
         <v>129.5</v>
       </c>
@@ -4562,7 +4520,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="24" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:21">
       <c r="F24">
         <v>130</v>
       </c>
@@ -4583,7 +4541,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="25" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:21">
       <c r="G25" t="s">
         <v>193</v>
       </c>
@@ -4601,7 +4559,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="26" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:21">
       <c r="G26">
         <v>1300</v>
       </c>
@@ -4622,13 +4580,13 @@
         <v>179</v>
       </c>
     </row>
-    <row r="27" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:21">
       <c r="O27" s="3"/>
       <c r="R27">
         <v>6430</v>
       </c>
     </row>
-    <row r="28" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:21">
       <c r="J28" t="s">
         <v>198</v>
       </c>
@@ -4640,7 +4598,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="29" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:21">
       <c r="K29">
         <v>4150</v>
       </c>
@@ -4649,7 +4607,7 @@
         <v>6045</v>
       </c>
     </row>
-    <row r="30" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:21">
       <c r="J30" t="s">
         <v>51</v>
       </c>
@@ -4658,7 +4616,7 @@
       </c>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:21">
       <c r="J31" t="s">
         <v>200</v>
       </c>
@@ -4667,13 +4625,13 @@
       </c>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:21">
       <c r="J32" t="s">
         <v>201</v>
       </c>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22">
       <c r="I33" t="s">
         <v>202</v>
       </c>
@@ -4685,10 +4643,10 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22">
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -4705,10 +4663,10 @@
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22">
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22">
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
       <c r="J37" s="14"/>
@@ -4719,10 +4677,10 @@
       </c>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22">
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22">
       <c r="H39" s="12"/>
       <c r="I39">
         <v>6</v>
@@ -4734,13 +4692,13 @@
       </c>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22">
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22">
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22">
       <c r="O42" s="3"/>
       <c r="R42" s="5"/>
       <c r="S42" s="3"/>
@@ -4748,7 +4706,7 @@
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22">
       <c r="H43" s="12"/>
       <c r="I43">
         <v>6</v>
@@ -4760,7 +4718,7 @@
       </c>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22">
       <c r="O44" s="3"/>
       <c r="R44" s="5"/>
       <c r="S44" s="3"/>
@@ -4768,10 +4726,10 @@
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22">
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22">
       <c r="O46" s="3"/>
       <c r="R46" s="5"/>
       <c r="S46" s="3"/>
@@ -4779,7 +4737,7 @@
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22">
       <c r="H47" s="12"/>
       <c r="I47">
         <v>6</v>
@@ -4791,16 +4749,16 @@
       </c>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22">
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="6:22">
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="6:22">
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="6:22">
       <c r="H51" s="12"/>
       <c r="J51" s="3"/>
       <c r="L51" s="11">
@@ -4808,7 +4766,7 @@
       </c>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="6:22">
       <c r="K52" t="s">
         <v>214</v>
       </c>
@@ -4817,25 +4775,25 @@
       </c>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="6:22">
       <c r="L53">
         <v>8090</v>
       </c>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="6:22">
       <c r="K54" t="s">
         <v>198</v>
       </c>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="6:22">
       <c r="L55">
         <v>4045</v>
       </c>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="6:22">
       <c r="J56" t="s">
         <v>215</v>
       </c>
@@ -4850,7 +4808,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="57" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="6:22">
       <c r="K57" t="s">
         <v>205</v>
       </c>
@@ -4871,10 +4829,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="6:22">
       <c r="O58" s="3"/>
     </row>
-    <row r="59" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="6:22">
       <c r="L59" t="s">
         <v>206</v>
       </c>
@@ -4892,7 +4850,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="60" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="6:22">
       <c r="F60" s="5" t="s">
         <v>202</v>
       </c>
@@ -4913,7 +4871,7 @@
       </c>
       <c r="O60" s="3"/>
     </row>
-    <row r="61" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="6:22">
       <c r="G61">
         <v>700</v>
       </c>
@@ -4931,7 +4889,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="62" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="6:22">
       <c r="L62" t="s">
         <v>209</v>
       </c>
@@ -4940,7 +4898,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="63" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="6:22">
       <c r="K63" t="s">
         <v>210</v>
       </c>
@@ -4952,10 +4910,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="64" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="6:22">
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="12:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="12:21">
       <c r="L65" t="s">
         <v>211</v>
       </c>
@@ -4964,16 +4922,16 @@
         <v>170</v>
       </c>
     </row>
-    <row r="66" spans="12:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="12:21">
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="12:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="12:21">
       <c r="L67">
         <v>8400</v>
       </c>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="12:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="12:21">
       <c r="O68" s="3"/>
     </row>
   </sheetData>
@@ -4983,16 +4941,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X208"/>
   <sheetViews>
     <sheetView topLeftCell="E111" workbookViewId="0">
       <selection activeCell="R133" sqref="R133"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:24">
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
@@ -5017,7 +4975,7 @@
       <c r="W1" s="17"/>
       <c r="X1" s="17"/>
     </row>
-    <row r="2" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:24">
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
@@ -5044,7 +5002,7 @@
       <c r="W2" s="56"/>
       <c r="X2" s="17"/>
     </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:24">
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
@@ -5063,13 +5021,13 @@
       <c r="Q3" s="17"/>
       <c r="R3" s="17"/>
       <c r="S3" s="17"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
+      <c r="T3" s="63"/>
+      <c r="U3" s="63"/>
+      <c r="V3" s="63"/>
       <c r="W3" s="17"/>
       <c r="X3" s="17"/>
     </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:24">
       <c r="B4" s="17"/>
       <c r="S4" t="s">
         <v>249</v>
@@ -5081,15 +5039,15 @@
       <c r="V4" s="56"/>
       <c r="X4" s="17"/>
     </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:24">
       <c r="B5" s="17"/>
       <c r="X5" s="17"/>
     </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:24">
       <c r="B6" s="17"/>
       <c r="X6" s="17"/>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:24">
       <c r="B7" s="17"/>
       <c r="R7" t="s">
         <v>335</v>
@@ -5100,11 +5058,11 @@
       <c r="U7" s="56"/>
       <c r="X7" s="17"/>
     </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:24">
       <c r="B8" s="17"/>
       <c r="X8" s="17"/>
     </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:24">
       <c r="B9" s="17"/>
       <c r="L9" t="s">
         <v>240</v>
@@ -5122,7 +5080,7 @@
       <c r="U9" s="56"/>
       <c r="X9" s="17"/>
     </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:24">
       <c r="B10" s="17"/>
       <c r="L10" t="s">
         <v>241</v>
@@ -5132,7 +5090,7 @@
       </c>
       <c r="X10" s="17"/>
     </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:24">
       <c r="B11" s="17"/>
       <c r="L11" t="s">
         <v>242</v>
@@ -5157,7 +5115,7 @@
       </c>
       <c r="X11" s="17"/>
     </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:24">
       <c r="B12" s="17"/>
       <c r="K12" t="s">
         <v>243</v>
@@ -5176,18 +5134,18 @@
       </c>
       <c r="X12" s="17"/>
     </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:24">
       <c r="B13" s="17"/>
       <c r="X13" s="17"/>
     </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:24">
       <c r="B14" s="17"/>
       <c r="V14" s="3">
         <v>17890</v>
       </c>
       <c r="X14" s="17"/>
     </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:24">
       <c r="B15" s="17"/>
       <c r="V15">
         <v>9380</v>
@@ -5197,7 +5155,7 @@
       </c>
       <c r="X15" s="17"/>
     </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:24">
       <c r="B16" s="17"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -5208,7 +5166,7 @@
       <c r="W16" s="5"/>
       <c r="X16" s="17"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24">
       <c r="B17" s="17"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -5219,7 +5177,7 @@
       </c>
       <c r="X17" s="17"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24">
       <c r="B18" s="17"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -5239,7 +5197,7 @@
       </c>
       <c r="X18" s="17"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24">
       <c r="B19" s="17"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -5250,7 +5208,7 @@
       </c>
       <c r="X19" s="17"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24">
       <c r="B20" s="17"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -5266,7 +5224,7 @@
       </c>
       <c r="X20" s="17"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24">
       <c r="B21" s="17"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -5276,7 +5234,7 @@
       <c r="L21" s="3"/>
       <c r="X21" s="17"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24">
       <c r="B22" s="17"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -5286,7 +5244,7 @@
       <c r="L22" s="3"/>
       <c r="X22" s="17"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24">
       <c r="B23" s="17"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -5296,7 +5254,7 @@
       <c r="L23" s="3"/>
       <c r="X23" s="17"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24">
       <c r="B24" s="17"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -5306,18 +5264,18 @@
       <c r="L24" s="3"/>
       <c r="X24" s="17"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24">
       <c r="B25" s="17"/>
       <c r="R25" s="10">
         <v>44013</v>
       </c>
       <c r="X25" s="17"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24">
       <c r="B26" s="17"/>
       <c r="X26" s="17"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24">
       <c r="A27" s="17"/>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
@@ -5343,7 +5301,7 @@
       <c r="W27" s="17"/>
       <c r="X27" s="17"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24">
       <c r="A28" s="17"/>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
@@ -5369,7 +5327,7 @@
       <c r="W28" s="17"/>
       <c r="X28" s="17"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24">
       <c r="A29" s="17"/>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
@@ -5395,7 +5353,7 @@
       <c r="W29" s="17"/>
       <c r="X29" s="17"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24">
       <c r="A30" s="17"/>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
@@ -5421,7 +5379,7 @@
       <c r="U30" s="17"/>
       <c r="V30" s="17"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24">
       <c r="A31" s="17"/>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
@@ -5445,18 +5403,18 @@
       <c r="U31" s="17"/>
       <c r="V31" s="17"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24">
       <c r="A32" s="17"/>
       <c r="I32" t="s">
         <v>253</v>
       </c>
       <c r="V32" s="17"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22">
       <c r="A33" s="17"/>
       <c r="V33" s="17"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22">
       <c r="A34" s="17"/>
       <c r="B34" t="s">
         <v>174</v>
@@ -5489,7 +5447,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22">
       <c r="A35" s="17"/>
       <c r="B35" t="s">
         <v>174</v>
@@ -5520,7 +5478,7 @@
       </c>
       <c r="V35" s="16"/>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22">
       <c r="A36" s="17"/>
       <c r="B36" t="s">
         <v>174</v>
@@ -5542,11 +5500,11 @@
       </c>
       <c r="V36" s="16"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22">
       <c r="A37" s="17"/>
       <c r="V37" s="16"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22">
       <c r="A38" s="17"/>
       <c r="C38" t="s">
         <v>254</v>
@@ -5567,7 +5525,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22">
       <c r="A39" s="17"/>
       <c r="K39">
         <v>250</v>
@@ -5586,7 +5544,7 @@
       </c>
       <c r="V39" s="16"/>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22">
       <c r="A40" s="17"/>
       <c r="B40" t="s">
         <v>333</v>
@@ -5596,11 +5554,11 @@
       </c>
       <c r="V40" s="16"/>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22">
       <c r="A41" s="17"/>
       <c r="V41" s="16"/>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22">
       <c r="A42" s="17"/>
       <c r="G42" t="s">
         <v>346</v>
@@ -5616,13 +5574,13 @@
       </c>
       <c r="V42" s="16"/>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22">
       <c r="A43" s="17"/>
       <c r="V43" s="16" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22">
       <c r="A44" s="17"/>
       <c r="I44" t="s">
         <v>269</v>
@@ -5641,7 +5599,7 @@
       </c>
       <c r="V44" s="17"/>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22">
       <c r="A45" s="17"/>
       <c r="Q45" t="s">
         <v>174</v>
@@ -5654,19 +5612,19 @@
       </c>
       <c r="V45" s="17"/>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22">
       <c r="A46" s="17"/>
       <c r="F46" s="26"/>
       <c r="G46" s="27"/>
       <c r="H46" s="27"/>
-      <c r="I46" s="57" t="s">
+      <c r="I46" s="60" t="s">
         <v>256</v>
       </c>
-      <c r="J46" s="57"/>
-      <c r="K46" s="58"/>
+      <c r="J46" s="60"/>
+      <c r="K46" s="61"/>
       <c r="V46" s="17"/>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22">
       <c r="A47" s="17"/>
       <c r="F47" s="28"/>
       <c r="G47" s="19"/>
@@ -5676,7 +5634,7 @@
       <c r="K47" s="29"/>
       <c r="V47" s="17"/>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22">
       <c r="A48" s="17"/>
       <c r="F48" s="28"/>
       <c r="G48" s="19" t="s">
@@ -5692,7 +5650,7 @@
       </c>
       <c r="V48" s="17"/>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22">
       <c r="A49" s="17"/>
       <c r="F49" s="28"/>
       <c r="G49" s="19" t="s">
@@ -5708,7 +5666,7 @@
       </c>
       <c r="V49" s="17"/>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22">
       <c r="A50" s="17"/>
       <c r="F50" s="30"/>
       <c r="G50" s="20" t="s">
@@ -5724,7 +5682,7 @@
       </c>
       <c r="V50" s="17"/>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22">
       <c r="A51" s="17"/>
       <c r="R51" s="33" t="s">
         <v>329</v>
@@ -5733,7 +5691,7 @@
       <c r="T51" s="33"/>
       <c r="U51" s="33"/>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22">
       <c r="A52" s="17"/>
       <c r="Q52" s="56" t="s">
         <v>330</v>
@@ -5744,7 +5702,7 @@
       <c r="U52" s="56"/>
       <c r="V52" s="56"/>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22">
       <c r="A53" s="17"/>
       <c r="Q53" s="56" t="s">
         <v>331</v>
@@ -5755,20 +5713,20 @@
       <c r="U53" s="56"/>
       <c r="V53" s="17"/>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22">
       <c r="A54" s="17"/>
       <c r="F54" s="21"/>
       <c r="V54" s="17"/>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22">
       <c r="A55" s="17"/>
       <c r="V55" s="17"/>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22">
       <c r="A56" s="17"/>
       <c r="V56" s="17"/>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22">
       <c r="A57" s="17"/>
       <c r="F57" s="21"/>
       <c r="G57" s="21"/>
@@ -5782,7 +5740,7 @@
       <c r="M57" s="21"/>
       <c r="V57" s="17"/>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22">
       <c r="A58" s="17"/>
       <c r="F58" s="21"/>
       <c r="G58" s="21"/>
@@ -5794,7 +5752,7 @@
       <c r="M58" s="21"/>
       <c r="V58" s="17"/>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22">
       <c r="A59" s="17"/>
       <c r="F59" s="21"/>
       <c r="G59" s="21"/>
@@ -5814,7 +5772,7 @@
       <c r="U59" s="18"/>
       <c r="V59" s="17"/>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22">
       <c r="A60" s="17"/>
       <c r="F60" s="21"/>
       <c r="G60" s="21"/>
@@ -5838,7 +5796,7 @@
       <c r="U60" s="18"/>
       <c r="V60" s="17"/>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22">
       <c r="A61" s="17"/>
       <c r="F61" s="21"/>
       <c r="G61" s="21"/>
@@ -5862,7 +5820,7 @@
       <c r="U61" s="18"/>
       <c r="V61" s="17"/>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22">
       <c r="A62" s="17"/>
       <c r="F62" s="21"/>
       <c r="G62" s="21"/>
@@ -5886,7 +5844,7 @@
       <c r="U62" s="18"/>
       <c r="V62" s="17"/>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22">
       <c r="A63" s="17"/>
       <c r="F63" s="21"/>
       <c r="G63" s="21"/>
@@ -5906,7 +5864,7 @@
       <c r="U63" s="18"/>
       <c r="V63" s="17"/>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22">
       <c r="A64" s="17"/>
       <c r="F64" s="21"/>
       <c r="G64" s="21"/>
@@ -5928,7 +5886,7 @@
       <c r="U64" s="18"/>
       <c r="V64" s="17"/>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22">
       <c r="A65" s="17"/>
       <c r="F65" s="21"/>
       <c r="G65" s="21"/>
@@ -5946,7 +5904,7 @@
       <c r="U65" s="18"/>
       <c r="V65" s="17"/>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22">
       <c r="A66" s="17"/>
       <c r="F66" s="21"/>
       <c r="G66" s="21"/>
@@ -5966,7 +5924,7 @@
       <c r="U66" s="18"/>
       <c r="V66" s="17"/>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22">
       <c r="A67" s="17"/>
       <c r="F67" s="21"/>
       <c r="G67" s="21"/>
@@ -5988,7 +5946,7 @@
       <c r="U67" s="18"/>
       <c r="V67" s="17"/>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22">
       <c r="A68" s="17"/>
       <c r="F68" s="21"/>
       <c r="G68" s="21"/>
@@ -6006,7 +5964,7 @@
       <c r="U68" s="18"/>
       <c r="V68" s="17"/>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22">
       <c r="A69" s="17"/>
       <c r="F69" s="21"/>
       <c r="G69" s="21"/>
@@ -6026,7 +5984,7 @@
       <c r="U69" s="18"/>
       <c r="V69" s="17"/>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22">
       <c r="A70" s="17"/>
       <c r="E70" t="s">
         <v>294</v>
@@ -6051,7 +6009,7 @@
       <c r="U70" s="18"/>
       <c r="V70" s="17"/>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22">
       <c r="A71" s="17"/>
       <c r="F71" s="21"/>
       <c r="G71" s="21"/>
@@ -6069,7 +6027,7 @@
       <c r="U71" s="18"/>
       <c r="V71" s="17"/>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22">
       <c r="A72" s="17"/>
       <c r="F72" s="21"/>
       <c r="G72" s="21"/>
@@ -6085,7 +6043,7 @@
       <c r="M72" s="21"/>
       <c r="V72" s="17"/>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22">
       <c r="A73" s="17"/>
       <c r="F73" s="21"/>
       <c r="G73" s="21"/>
@@ -6097,11 +6055,11 @@
       <c r="M73" s="21"/>
       <c r="V73" s="17"/>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22">
       <c r="A74" s="17"/>
       <c r="V74" s="17"/>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22">
       <c r="B75" s="17"/>
       <c r="C75" s="17"/>
       <c r="D75" s="17"/>
@@ -6124,7 +6082,7 @@
       <c r="U75" s="17"/>
       <c r="V75" s="17"/>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22">
       <c r="B76" s="17"/>
       <c r="C76" s="17"/>
       <c r="D76" s="17"/>
@@ -6147,7 +6105,7 @@
       <c r="U76" s="17"/>
       <c r="V76" s="17"/>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22">
       <c r="B77" s="17"/>
       <c r="J77" s="17"/>
       <c r="K77" s="17"/>
@@ -6159,7 +6117,7 @@
       <c r="U77" s="17"/>
       <c r="V77" s="17"/>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22">
       <c r="B78" s="17"/>
       <c r="J78" s="17"/>
       <c r="K78" s="56" t="s">
@@ -6175,7 +6133,7 @@
       <c r="U78" s="56"/>
       <c r="V78" s="17"/>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22">
       <c r="B79" s="17"/>
       <c r="J79" s="17"/>
       <c r="K79" s="17"/>
@@ -6187,7 +6145,7 @@
       <c r="U79" s="17"/>
       <c r="V79" s="17"/>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:22">
       <c r="B80" s="17"/>
       <c r="K80">
         <v>91000</v>
@@ -6203,7 +6161,7 @@
       </c>
       <c r="V80" s="17"/>
     </row>
-    <row r="81" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:22">
       <c r="B81" s="17"/>
       <c r="K81">
         <v>7930</v>
@@ -6219,7 +6177,7 @@
       </c>
       <c r="V81" s="17"/>
     </row>
-    <row r="82" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:22">
       <c r="B82" s="17"/>
       <c r="K82">
         <v>27760</v>
@@ -6235,7 +6193,7 @@
       </c>
       <c r="V82" s="17"/>
     </row>
-    <row r="83" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:22">
       <c r="B83" s="17"/>
       <c r="K83">
         <v>39650</v>
@@ -6251,7 +6209,7 @@
       </c>
       <c r="V83" s="17"/>
     </row>
-    <row r="84" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:22">
       <c r="B84" s="17"/>
       <c r="K84">
         <v>4785</v>
@@ -6267,7 +6225,7 @@
       </c>
       <c r="V84" s="17"/>
     </row>
-    <row r="85" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:22">
       <c r="B85" s="17"/>
       <c r="K85">
         <v>17470</v>
@@ -6283,7 +6241,7 @@
       </c>
       <c r="V85" s="17"/>
     </row>
-    <row r="86" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:22">
       <c r="B86" s="17"/>
       <c r="K86">
         <v>600</v>
@@ -6293,15 +6251,15 @@
       </c>
       <c r="V86" s="17"/>
     </row>
-    <row r="87" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:22">
       <c r="B87" s="17"/>
       <c r="V87" s="17"/>
     </row>
-    <row r="88" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:22">
       <c r="B88" s="17"/>
       <c r="V88" s="17"/>
     </row>
-    <row r="89" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:22">
       <c r="B89" s="17"/>
       <c r="K89">
         <v>189195</v>
@@ -6314,7 +6272,7 @@
       </c>
       <c r="V89" s="17"/>
     </row>
-    <row r="90" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:22">
       <c r="B90" s="17"/>
       <c r="T90">
         <v>200</v>
@@ -6324,22 +6282,22 @@
       </c>
       <c r="V90" s="17"/>
     </row>
-    <row r="91" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:22">
       <c r="B91" s="17"/>
       <c r="V91" s="17"/>
     </row>
-    <row r="92" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:22">
       <c r="B92" s="17"/>
       <c r="V92" s="17"/>
     </row>
-    <row r="93" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:22">
       <c r="B93" s="17"/>
       <c r="U93" t="s">
         <v>282</v>
       </c>
       <c r="V93" s="17"/>
     </row>
-    <row r="94" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:22">
       <c r="B94" s="17"/>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
@@ -6353,7 +6311,7 @@
       </c>
       <c r="V94" s="17"/>
     </row>
-    <row r="95" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:22">
       <c r="B95" s="17"/>
       <c r="S95" t="s">
         <v>287</v>
@@ -6366,7 +6324,7 @@
       </c>
       <c r="V95" s="17"/>
     </row>
-    <row r="96" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:22">
       <c r="B96" s="17"/>
       <c r="S96" t="s">
         <v>288</v>
@@ -6379,7 +6337,7 @@
       </c>
       <c r="V96" s="17"/>
     </row>
-    <row r="97" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:22">
       <c r="B97" s="17"/>
       <c r="S97" t="s">
         <v>148</v>
@@ -6392,14 +6350,14 @@
       </c>
       <c r="V97" s="17"/>
     </row>
-    <row r="98" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:22" ht="15" thickBot="1">
       <c r="B98" s="17"/>
       <c r="T98">
         <v>185350</v>
       </c>
       <c r="V98" s="17"/>
     </row>
-    <row r="99" spans="2:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:22" ht="15.6" thickTop="1" thickBot="1">
       <c r="B99" s="17"/>
       <c r="J99" t="s">
         <v>293</v>
@@ -6421,15 +6379,15 @@
       </c>
       <c r="V99" s="17"/>
     </row>
-    <row r="100" spans="2:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:22" ht="15" thickTop="1">
       <c r="B100" s="17"/>
       <c r="V100" s="17"/>
     </row>
-    <row r="101" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:22">
       <c r="B101" s="17"/>
       <c r="V101" s="17"/>
     </row>
-    <row r="102" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:22">
       <c r="B102" s="17"/>
       <c r="C102" s="17"/>
       <c r="D102" s="17"/>
@@ -6452,7 +6410,7 @@
       <c r="U102" s="17"/>
       <c r="V102" s="17"/>
     </row>
-    <row r="103" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:22">
       <c r="B103" s="17"/>
       <c r="C103" s="17"/>
       <c r="D103" s="17"/>
@@ -6475,7 +6433,7 @@
       <c r="U103" s="17"/>
       <c r="V103" s="17"/>
     </row>
-    <row r="104" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:22">
       <c r="B104" s="17"/>
       <c r="R104" s="17"/>
       <c r="S104" s="17"/>
@@ -6483,7 +6441,7 @@
       <c r="U104" s="17"/>
       <c r="V104" s="17"/>
     </row>
-    <row r="105" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:22">
       <c r="B105" s="17"/>
       <c r="R105" s="17"/>
       <c r="S105" s="55" t="s">
@@ -6493,7 +6451,7 @@
       <c r="U105" s="17"/>
       <c r="V105" s="17"/>
     </row>
-    <row r="106" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:22">
       <c r="B106" s="17"/>
       <c r="R106" s="17"/>
       <c r="S106" s="17"/>
@@ -6501,29 +6459,29 @@
       <c r="U106" s="17"/>
       <c r="V106" s="17"/>
     </row>
-    <row r="107" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:22">
       <c r="B107" s="17"/>
       <c r="V107" s="17"/>
     </row>
-    <row r="108" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:22">
       <c r="B108" s="17"/>
       <c r="V108" s="17"/>
     </row>
-    <row r="109" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:22">
       <c r="B109" s="17"/>
       <c r="S109" s="56"/>
       <c r="T109" s="56"/>
       <c r="U109" s="56"/>
       <c r="V109" s="17"/>
     </row>
-    <row r="110" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:22">
       <c r="B110" s="17"/>
       <c r="Q110" s="6"/>
       <c r="S110" s="37"/>
       <c r="U110" s="3"/>
       <c r="V110" s="17"/>
     </row>
-    <row r="111" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:22">
       <c r="B111" s="17"/>
       <c r="E111" s="9"/>
       <c r="Q111" s="6"/>
@@ -6531,7 +6489,7 @@
       <c r="U111" s="3"/>
       <c r="V111" s="17"/>
     </row>
-    <row r="112" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:22">
       <c r="B112" s="17"/>
       <c r="E112" s="9"/>
       <c r="Q112" s="6"/>
@@ -6539,7 +6497,7 @@
       <c r="U112" s="3"/>
       <c r="V112" s="17"/>
     </row>
-    <row r="113" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:22">
       <c r="B113" s="17"/>
       <c r="E113" s="9"/>
       <c r="Q113" s="6"/>
@@ -6547,7 +6505,7 @@
       <c r="U113" s="3"/>
       <c r="V113" s="17"/>
     </row>
-    <row r="114" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:22">
       <c r="B114" s="17"/>
       <c r="E114" s="9"/>
       <c r="Q114" s="6"/>
@@ -6555,7 +6513,7 @@
       <c r="U114" s="3"/>
       <c r="V114" s="17"/>
     </row>
-    <row r="115" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:22">
       <c r="B115" s="17"/>
       <c r="E115" s="9"/>
       <c r="Q115" s="6"/>
@@ -6563,7 +6521,7 @@
       <c r="U115" s="3"/>
       <c r="V115" s="17"/>
     </row>
-    <row r="116" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:22">
       <c r="B116" s="17"/>
       <c r="E116" s="9"/>
       <c r="Q116" s="6"/>
@@ -6571,7 +6529,7 @@
       <c r="U116" s="3"/>
       <c r="V116" s="17"/>
     </row>
-    <row r="117" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:22">
       <c r="B117" s="17"/>
       <c r="E117" s="9"/>
       <c r="Q117" s="6"/>
@@ -6579,7 +6537,7 @@
       <c r="U117" s="3"/>
       <c r="V117" s="17"/>
     </row>
-    <row r="118" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:22">
       <c r="B118" s="17"/>
       <c r="E118" s="9"/>
       <c r="Q118" s="6"/>
@@ -6587,7 +6545,7 @@
       <c r="U118" s="3"/>
       <c r="V118" s="17"/>
     </row>
-    <row r="119" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:22">
       <c r="B119" s="17"/>
       <c r="E119" s="9"/>
       <c r="Q119" s="6"/>
@@ -6595,7 +6553,7 @@
       <c r="U119" s="3"/>
       <c r="V119" s="17"/>
     </row>
-    <row r="120" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:22">
       <c r="B120" s="17"/>
       <c r="E120" s="9"/>
       <c r="Q120" s="6"/>
@@ -6603,7 +6561,7 @@
       <c r="U120" s="3"/>
       <c r="V120" s="17"/>
     </row>
-    <row r="121" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:22">
       <c r="B121" s="17"/>
       <c r="E121" s="9"/>
       <c r="Q121" s="6"/>
@@ -6611,7 +6569,7 @@
       <c r="U121" s="3"/>
       <c r="V121" s="17"/>
     </row>
-    <row r="122" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:22">
       <c r="B122" s="17"/>
       <c r="E122" s="9"/>
       <c r="Q122" s="6"/>
@@ -6619,7 +6577,7 @@
       <c r="U122" s="3"/>
       <c r="V122" s="17"/>
     </row>
-    <row r="123" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:22">
       <c r="B123" s="17"/>
       <c r="E123" s="9"/>
       <c r="Q123" s="6"/>
@@ -6627,7 +6585,7 @@
       <c r="U123" s="3"/>
       <c r="V123" s="17"/>
     </row>
-    <row r="124" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:22">
       <c r="B124" s="17"/>
       <c r="E124" s="9"/>
       <c r="Q124" s="6"/>
@@ -6635,7 +6593,7 @@
       <c r="U124" s="3"/>
       <c r="V124" s="17"/>
     </row>
-    <row r="125" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:22">
       <c r="B125" s="17"/>
       <c r="E125" s="9"/>
       <c r="Q125" s="6"/>
@@ -6643,7 +6601,7 @@
       <c r="U125" s="3"/>
       <c r="V125" s="17"/>
     </row>
-    <row r="126" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:22">
       <c r="B126" s="17"/>
       <c r="E126" s="9"/>
       <c r="Q126" s="6"/>
@@ -6651,7 +6609,7 @@
       <c r="U126" s="3"/>
       <c r="V126" s="17"/>
     </row>
-    <row r="127" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:22">
       <c r="B127" s="17"/>
       <c r="E127" s="9"/>
       <c r="Q127" s="6"/>
@@ -6659,7 +6617,7 @@
       <c r="U127" s="3"/>
       <c r="V127" s="17"/>
     </row>
-    <row r="128" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:22">
       <c r="B128" s="17"/>
       <c r="E128" s="9"/>
       <c r="Q128" s="6"/>
@@ -6667,141 +6625,141 @@
       <c r="U128" s="3"/>
       <c r="V128" s="17"/>
     </row>
-    <row r="129" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:22">
       <c r="B129" s="17"/>
       <c r="E129" s="9"/>
       <c r="V129" s="17"/>
     </row>
-    <row r="130" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:22">
       <c r="B130" s="17"/>
       <c r="V130" s="17"/>
     </row>
-    <row r="131" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:22">
       <c r="B131" s="17"/>
       <c r="V131" s="17"/>
     </row>
-    <row r="132" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:22">
       <c r="B132" s="17"/>
       <c r="V132" s="17"/>
     </row>
-    <row r="133" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:22">
       <c r="B133" s="17"/>
       <c r="V133" s="17"/>
     </row>
-    <row r="134" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:22">
       <c r="B134" s="17"/>
       <c r="V134" s="17"/>
     </row>
-    <row r="135" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:22">
       <c r="B135" s="17"/>
       <c r="V135" s="17"/>
     </row>
-    <row r="136" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:22">
       <c r="B136" s="17"/>
       <c r="R136" t="s">
         <v>385</v>
       </c>
       <c r="V136" s="17"/>
     </row>
-    <row r="137" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:22">
       <c r="B137" s="17"/>
       <c r="V137" s="17"/>
     </row>
-    <row r="138" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:22">
       <c r="B138" s="17"/>
       <c r="V138" s="17"/>
     </row>
-    <row r="139" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:22">
       <c r="B139" s="17"/>
       <c r="V139" s="17"/>
     </row>
-    <row r="140" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:22">
       <c r="B140" s="17"/>
       <c r="V140" s="17"/>
     </row>
-    <row r="141" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:22">
       <c r="B141" s="17"/>
       <c r="V141" s="17"/>
     </row>
-    <row r="142" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:22">
       <c r="B142" s="17"/>
       <c r="V142" s="17"/>
     </row>
-    <row r="143" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:22">
       <c r="B143" s="17"/>
       <c r="V143" s="17"/>
     </row>
-    <row r="144" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:22">
       <c r="B144" s="17"/>
       <c r="V144" s="17"/>
     </row>
-    <row r="145" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:22">
       <c r="B145" s="17"/>
       <c r="V145" s="17"/>
     </row>
-    <row r="146" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:22">
       <c r="B146" s="17"/>
       <c r="V146" s="17"/>
     </row>
-    <row r="147" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:22">
       <c r="B147" s="17"/>
       <c r="V147" s="17"/>
     </row>
-    <row r="148" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:22">
       <c r="B148" s="17"/>
       <c r="V148" s="17"/>
     </row>
-    <row r="149" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:22">
       <c r="B149" s="17"/>
       <c r="V149" s="17"/>
     </row>
-    <row r="150" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:22">
       <c r="B150" s="17"/>
       <c r="V150" s="17"/>
     </row>
-    <row r="151" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:22">
       <c r="B151" s="17"/>
       <c r="V151" s="17"/>
     </row>
-    <row r="152" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:22">
       <c r="B152" s="17"/>
       <c r="V152" s="17"/>
     </row>
-    <row r="153" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:22">
       <c r="B153" s="17"/>
       <c r="V153" s="17"/>
     </row>
-    <row r="154" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:22">
       <c r="B154" s="17"/>
-      <c r="E154" s="62" t="s">
+      <c r="E154" s="59" t="s">
         <v>297</v>
       </c>
-      <c r="F154" s="57"/>
-      <c r="G154" s="57"/>
-      <c r="H154" s="57"/>
-      <c r="I154" s="57"/>
-      <c r="J154" s="57"/>
-      <c r="K154" s="58"/>
+      <c r="F154" s="60"/>
+      <c r="G154" s="60"/>
+      <c r="H154" s="60"/>
+      <c r="I154" s="60"/>
+      <c r="J154" s="60"/>
+      <c r="K154" s="61"/>
       <c r="Q154" s="5" t="s">
         <v>304</v>
       </c>
       <c r="V154" s="17"/>
     </row>
-    <row r="155" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:22">
       <c r="B155" s="17"/>
-      <c r="E155" s="63"/>
-      <c r="F155" s="60"/>
-      <c r="G155" s="60"/>
-      <c r="H155" s="60"/>
-      <c r="I155" s="60"/>
-      <c r="J155" s="60"/>
-      <c r="K155" s="61"/>
+      <c r="E155" s="62"/>
+      <c r="F155" s="57"/>
+      <c r="G155" s="57"/>
+      <c r="H155" s="57"/>
+      <c r="I155" s="57"/>
+      <c r="J155" s="57"/>
+      <c r="K155" s="58"/>
       <c r="Q155" s="5" t="s">
         <v>305</v>
       </c>
       <c r="V155" s="17"/>
     </row>
-    <row r="156" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:22">
       <c r="B156" s="17"/>
       <c r="E156" s="28"/>
       <c r="F156" s="19"/>
@@ -6826,7 +6784,7 @@
       </c>
       <c r="V156" s="17"/>
     </row>
-    <row r="157" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:22">
       <c r="B157" s="17"/>
       <c r="E157" s="28"/>
       <c r="F157" s="19"/>
@@ -6847,7 +6805,7 @@
       </c>
       <c r="V157" s="17"/>
     </row>
-    <row r="158" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:22">
       <c r="B158" s="17"/>
       <c r="E158" s="28"/>
       <c r="F158" s="19"/>
@@ -6855,11 +6813,11 @@
         <v>313</v>
       </c>
       <c r="H158" s="19"/>
-      <c r="I158" s="60" t="s">
+      <c r="I158" s="57" t="s">
         <v>321</v>
       </c>
-      <c r="J158" s="60"/>
-      <c r="K158" s="61"/>
+      <c r="J158" s="57"/>
+      <c r="K158" s="58"/>
       <c r="R158">
         <v>200</v>
       </c>
@@ -6868,7 +6826,7 @@
       </c>
       <c r="V158" s="17"/>
     </row>
-    <row r="159" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:22">
       <c r="B159" s="17"/>
       <c r="E159" s="28"/>
       <c r="F159" s="19"/>
@@ -6887,7 +6845,7 @@
       </c>
       <c r="V159" s="17"/>
     </row>
-    <row r="160" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:22">
       <c r="B160" s="17"/>
       <c r="E160" s="28"/>
       <c r="F160" s="19"/>
@@ -6904,7 +6862,7 @@
       </c>
       <c r="V160" s="17"/>
     </row>
-    <row r="161" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:22">
       <c r="B161" s="17"/>
       <c r="E161" s="28"/>
       <c r="F161" s="19"/>
@@ -6921,7 +6879,7 @@
       </c>
       <c r="V161" s="17"/>
     </row>
-    <row r="162" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:22">
       <c r="B162" s="17"/>
       <c r="E162" s="28"/>
       <c r="F162" s="19"/>
@@ -6929,14 +6887,14 @@
         <v>313</v>
       </c>
       <c r="H162" s="19"/>
-      <c r="I162" s="60" t="s">
+      <c r="I162" s="57" t="s">
         <v>323</v>
       </c>
-      <c r="J162" s="60"/>
-      <c r="K162" s="61"/>
+      <c r="J162" s="57"/>
+      <c r="K162" s="58"/>
       <c r="V162" s="17"/>
     </row>
-    <row r="163" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:22">
       <c r="B163" s="17"/>
       <c r="E163" s="28"/>
       <c r="F163" s="19"/>
@@ -6952,7 +6910,7 @@
       </c>
       <c r="V163" s="17"/>
     </row>
-    <row r="164" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:22">
       <c r="B164" s="17"/>
       <c r="E164" s="28"/>
       <c r="F164" s="38"/>
@@ -6971,7 +6929,7 @@
       </c>
       <c r="V164" s="17"/>
     </row>
-    <row r="165" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:22">
       <c r="B165" s="17"/>
       <c r="E165" s="28"/>
       <c r="F165" s="19"/>
@@ -6982,7 +6940,7 @@
       <c r="K165" s="29"/>
       <c r="V165" s="17"/>
     </row>
-    <row r="166" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:22">
       <c r="B166" s="17"/>
       <c r="E166" s="28"/>
       <c r="F166" s="19"/>
@@ -6999,7 +6957,7 @@
       </c>
       <c r="V166" s="17"/>
     </row>
-    <row r="167" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:22">
       <c r="B167" s="17"/>
       <c r="E167" s="28"/>
       <c r="F167" s="19"/>
@@ -7016,7 +6974,7 @@
       </c>
       <c r="V167" s="17"/>
     </row>
-    <row r="168" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:22">
       <c r="B168" s="17"/>
       <c r="E168" s="28"/>
       <c r="F168" s="19"/>
@@ -7033,7 +6991,7 @@
       </c>
       <c r="V168" s="17"/>
     </row>
-    <row r="169" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:22">
       <c r="B169" s="17"/>
       <c r="E169" s="28"/>
       <c r="F169" s="19"/>
@@ -7044,7 +7002,7 @@
       <c r="K169" s="29"/>
       <c r="V169" s="17"/>
     </row>
-    <row r="170" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:22">
       <c r="B170" s="17"/>
       <c r="E170" s="30"/>
       <c r="F170" s="20"/>
@@ -7055,11 +7013,11 @@
       <c r="K170" s="31"/>
       <c r="V170" s="17"/>
     </row>
-    <row r="171" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:22">
       <c r="B171" s="17"/>
       <c r="V171" s="17"/>
     </row>
-    <row r="172" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:22">
       <c r="B172" s="17"/>
       <c r="C172" s="17"/>
       <c r="D172" s="17"/>
@@ -7082,7 +7040,7 @@
       <c r="U172" s="17"/>
       <c r="V172" s="17"/>
     </row>
-    <row r="173" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:22">
       <c r="B173" s="17"/>
       <c r="C173" s="17"/>
       <c r="D173" s="17"/>
@@ -7105,17 +7063,17 @@
       <c r="U173" s="17"/>
       <c r="V173" s="17"/>
     </row>
-    <row r="174" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:22">
       <c r="B174" s="17"/>
       <c r="L174" s="32"/>
       <c r="V174" s="17"/>
     </row>
-    <row r="175" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:22">
       <c r="B175" s="17"/>
       <c r="L175" s="32"/>
       <c r="V175" s="17"/>
     </row>
-    <row r="176" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:22">
       <c r="B176" s="17"/>
       <c r="F176" t="s">
         <v>48</v>
@@ -7128,12 +7086,12 @@
       <c r="S176" s="56"/>
       <c r="V176" s="17"/>
     </row>
-    <row r="177" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:22">
       <c r="B177" s="17"/>
       <c r="L177" s="32"/>
       <c r="V177" s="17"/>
     </row>
-    <row r="178" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:22">
       <c r="B178" s="17"/>
       <c r="I178" t="s">
         <v>313</v>
@@ -7144,7 +7102,7 @@
       </c>
       <c r="V178" s="17"/>
     </row>
-    <row r="179" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:22">
       <c r="B179" s="17"/>
       <c r="I179" t="s">
         <v>314</v>
@@ -7155,7 +7113,7 @@
       </c>
       <c r="V179" s="17"/>
     </row>
-    <row r="180" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:22">
       <c r="B180" s="17"/>
       <c r="I180" t="s">
         <v>316</v>
@@ -7173,7 +7131,7 @@
       </c>
       <c r="V180" s="17"/>
     </row>
-    <row r="181" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:22">
       <c r="B181" s="17"/>
       <c r="F181" s="56" t="s">
         <v>317</v>
@@ -7189,52 +7147,52 @@
       </c>
       <c r="V181" s="17"/>
     </row>
-    <row r="182" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:22">
       <c r="B182" s="17"/>
       <c r="L182" s="32"/>
       <c r="V182" s="17"/>
     </row>
-    <row r="183" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:22">
       <c r="B183" s="17"/>
       <c r="L183" s="32"/>
       <c r="V183" s="17"/>
     </row>
-    <row r="184" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:22">
       <c r="B184" s="17"/>
       <c r="L184" s="32"/>
       <c r="V184" s="17"/>
     </row>
-    <row r="185" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:22">
       <c r="B185" s="17"/>
       <c r="L185" s="32"/>
       <c r="V185" s="17"/>
     </row>
-    <row r="186" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:22">
       <c r="B186" s="17"/>
       <c r="L186" s="32"/>
       <c r="V186" s="17"/>
     </row>
-    <row r="187" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:22">
       <c r="B187" s="17"/>
       <c r="L187" s="32"/>
       <c r="V187" s="17"/>
     </row>
-    <row r="188" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:22">
       <c r="B188" s="17"/>
       <c r="L188" s="32"/>
       <c r="V188" s="17"/>
     </row>
-    <row r="189" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:22">
       <c r="B189" s="17"/>
       <c r="L189" s="32"/>
       <c r="V189" s="17"/>
     </row>
-    <row r="190" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:22">
       <c r="B190" s="17"/>
       <c r="L190" s="32"/>
       <c r="V190" s="17"/>
     </row>
-    <row r="191" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:22">
       <c r="B191" s="17"/>
       <c r="C191" s="17"/>
       <c r="D191" s="17"/>
@@ -7257,7 +7215,7 @@
       <c r="U191" s="17"/>
       <c r="V191" s="17"/>
     </row>
-    <row r="192" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:22">
       <c r="B192" s="17"/>
       <c r="C192" s="17"/>
       <c r="D192" s="17"/>
@@ -7280,7 +7238,7 @@
       <c r="U192" s="17"/>
       <c r="V192" s="17"/>
     </row>
-    <row r="193" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:22">
       <c r="B193" s="17"/>
       <c r="C193" s="17"/>
       <c r="D193" s="17"/>
@@ -7303,7 +7261,7 @@
       <c r="U193" s="17"/>
       <c r="V193" s="17"/>
     </row>
-    <row r="203" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:22">
       <c r="P203" s="10" t="s">
         <v>350</v>
       </c>
@@ -7314,7 +7272,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="204" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:22">
       <c r="Q204">
         <v>40</v>
       </c>
@@ -7322,28 +7280,36 @@
         <v>349</v>
       </c>
     </row>
-    <row r="205" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:22">
       <c r="Q205" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="206" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:22">
       <c r="Q206" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="207" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:22">
       <c r="Q207" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="208" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:22">
       <c r="Q208" t="s">
         <v>354</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="P30:R30"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="T7:U7"/>
     <mergeCell ref="F181:H181"/>
     <mergeCell ref="I158:K158"/>
     <mergeCell ref="I162:K162"/>
@@ -7356,14 +7322,6 @@
     <mergeCell ref="Q180:R180"/>
     <mergeCell ref="Q176:S176"/>
     <mergeCell ref="E154:K155"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="P30:R30"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="T7:U7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7372,20 +7330,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B5:V45"/>
   <sheetViews>
     <sheetView topLeftCell="C34" workbookViewId="0">
       <selection activeCell="U36" sqref="U36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="12" max="12" width="8.42578125" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="8.44140625" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="7:20">
       <c r="L5" s="56"/>
       <c r="M5" s="56"/>
       <c r="N5" s="56"/>
@@ -7396,7 +7354,7 @@
       <c r="S5" s="56"/>
       <c r="T5" s="56"/>
     </row>
-    <row r="6" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="7:20">
       <c r="L6" s="16"/>
       <c r="M6" s="16"/>
       <c r="N6" s="16" t="s">
@@ -7408,7 +7366,7 @@
       <c r="R6" s="16"/>
       <c r="S6" s="16"/>
     </row>
-    <row r="7" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="7:20">
       <c r="L7" s="16"/>
       <c r="M7" s="64" t="s">
         <v>355</v>
@@ -7420,7 +7378,7 @@
       <c r="R7" s="64"/>
       <c r="S7" s="64"/>
     </row>
-    <row r="8" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="7:20">
       <c r="L8" s="56" t="s">
         <v>375</v>
       </c>
@@ -7432,7 +7390,7 @@
       <c r="R8" s="56"/>
       <c r="S8" s="56"/>
     </row>
-    <row r="16" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="7:20">
       <c r="G16" t="s">
         <v>359</v>
       </c>
@@ -7440,7 +7398,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:22">
       <c r="E17" t="s">
         <v>361</v>
       </c>
@@ -7460,7 +7418,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:22">
       <c r="B19" t="s">
         <v>365</v>
       </c>
@@ -7468,7 +7426,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:22">
       <c r="C20" t="s">
         <v>370</v>
       </c>
@@ -7476,12 +7434,12 @@
         <v>366</v>
       </c>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:22">
       <c r="G21" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:22">
       <c r="G24" t="s">
         <v>363</v>
       </c>
@@ -7501,7 +7459,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:22">
       <c r="E25" t="s">
         <v>361</v>
       </c>
@@ -7512,12 +7470,12 @@
         <v>357</v>
       </c>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:22">
       <c r="G27" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:22">
       <c r="F30" s="56" t="s">
         <v>371</v>
       </c>
@@ -7532,7 +7490,7 @@
       <c r="U30" s="42"/>
       <c r="V30" s="42"/>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:22">
       <c r="P31" s="42"/>
       <c r="Q31" s="42"/>
       <c r="R31" s="42"/>
@@ -7541,7 +7499,7 @@
       <c r="U31" s="42"/>
       <c r="V31" s="42"/>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:22">
       <c r="P32" s="42"/>
       <c r="Q32" s="45"/>
       <c r="R32" s="45"/>
@@ -7552,7 +7510,7 @@
       <c r="U32" s="45"/>
       <c r="V32" s="42"/>
     </row>
-    <row r="33" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:22">
       <c r="P33" s="42"/>
       <c r="Q33" s="45"/>
       <c r="R33" s="45"/>
@@ -7561,7 +7519,7 @@
       <c r="U33" s="45"/>
       <c r="V33" s="42"/>
     </row>
-    <row r="34" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:22">
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
@@ -7576,7 +7534,7 @@
       <c r="U34" s="42"/>
       <c r="V34" s="42"/>
     </row>
-    <row r="35" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:22">
       <c r="C35" s="39"/>
       <c r="D35" s="40"/>
       <c r="E35" s="40"/>
@@ -7600,7 +7558,7 @@
       <c r="U35" s="42"/>
       <c r="V35" s="42"/>
     </row>
-    <row r="36" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:22">
       <c r="C36" s="40"/>
       <c r="D36" s="40"/>
       <c r="E36" s="40"/>
@@ -7622,7 +7580,7 @@
       <c r="U36" s="42"/>
       <c r="V36" s="42"/>
     </row>
-    <row r="37" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:22">
       <c r="C37" s="40"/>
       <c r="D37" s="40"/>
       <c r="E37" s="40"/>
@@ -7644,7 +7602,7 @@
       <c r="U37" s="41"/>
       <c r="V37" s="41"/>
     </row>
-    <row r="38" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:22">
       <c r="C38" s="40"/>
       <c r="D38" s="40"/>
       <c r="E38" s="40"/>
@@ -7657,7 +7615,7 @@
       <c r="L38" s="40"/>
       <c r="M38" s="40"/>
     </row>
-    <row r="39" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:22">
       <c r="C39" s="40"/>
       <c r="D39" s="40"/>
       <c r="E39" s="40"/>
@@ -7670,7 +7628,7 @@
       <c r="L39" s="40"/>
       <c r="M39" s="40"/>
     </row>
-    <row r="40" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:22">
       <c r="C40" s="40"/>
       <c r="D40" s="40"/>
       <c r="E40" s="40"/>
@@ -7693,7 +7651,7 @@
       <c r="U40" s="55"/>
       <c r="V40" s="55"/>
     </row>
-    <row r="41" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:22">
       <c r="C41" s="40"/>
       <c r="D41" s="40"/>
       <c r="E41" s="40"/>
@@ -7716,7 +7674,7 @@
       <c r="U41" s="55"/>
       <c r="V41" s="3"/>
     </row>
-    <row r="42" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:22">
       <c r="C42" s="40"/>
       <c r="D42" s="40"/>
       <c r="E42" s="40"/>
@@ -7739,7 +7697,7 @@
       <c r="U42" s="55"/>
       <c r="V42" s="3"/>
     </row>
-    <row r="43" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:22">
       <c r="C43" s="40"/>
       <c r="D43" s="40"/>
       <c r="E43" s="40"/>
@@ -7763,7 +7721,7 @@
       <c r="U43" s="55"/>
       <c r="V43" s="55"/>
     </row>
-    <row r="44" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:22">
       <c r="C44" s="40"/>
       <c r="D44" s="40"/>
       <c r="E44" s="40"/>
@@ -7776,7 +7734,7 @@
       <c r="L44" s="40"/>
       <c r="M44" s="40"/>
     </row>
-    <row r="45" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:22">
       <c r="C45" s="40"/>
       <c r="D45" s="40"/>
       <c r="E45" s="40"/>
@@ -7805,41 +7763,41 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:W98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="I89" sqref="I89"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="H96" sqref="H96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="2" spans="13:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="13:22">
       <c r="T2" s="56" t="s">
         <v>386</v>
       </c>
       <c r="U2" s="56"/>
       <c r="V2" s="56"/>
     </row>
-    <row r="3" spans="13:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="13:22">
       <c r="T3" s="56"/>
       <c r="U3" s="56"/>
       <c r="V3" s="56"/>
     </row>
-    <row r="4" spans="13:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="13:22">
       <c r="O4" s="6"/>
       <c r="P4" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="6" spans="13:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="13:22">
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="44" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="7" spans="13:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="13:22">
       <c r="M7" t="s">
         <v>90</v>
       </c>
@@ -7850,42 +7808,42 @@
         <v>388</v>
       </c>
     </row>
-    <row r="8" spans="13:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="13:22">
       <c r="T8" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="9" spans="13:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="13:22">
       <c r="T9" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="10" spans="13:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="13:22">
       <c r="S10" s="6"/>
       <c r="T10" s="6" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="11" spans="13:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="13:22">
       <c r="S11" s="6"/>
       <c r="T11" s="6" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="13" spans="13:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="13:22">
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
       <c r="U13" s="44" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="15" spans="13:22" x14ac:dyDescent="0.25">
-      <c r="S15" s="67" t="s">
+    <row r="15" spans="13:22">
+      <c r="S15" s="65" t="s">
         <v>394</v>
       </c>
-      <c r="T15" s="67"/>
-    </row>
-    <row r="16" spans="13:22" x14ac:dyDescent="0.25">
+      <c r="T15" s="65"/>
+    </row>
+    <row r="16" spans="13:22">
       <c r="P16" s="11" t="s">
         <v>396</v>
       </c>
@@ -7894,12 +7852,12 @@
         <v>395</v>
       </c>
     </row>
-    <row r="17" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="15:20">
       <c r="T17" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="18" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="15:20">
       <c r="O18" s="50"/>
       <c r="P18" s="50" t="s">
         <v>406</v>
@@ -7908,7 +7866,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="19" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="15:20">
       <c r="O19" s="50"/>
       <c r="P19" s="50" t="s">
         <v>407</v>
@@ -7917,54 +7875,54 @@
         <v>398</v>
       </c>
     </row>
-    <row r="20" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="15:20">
       <c r="S20" s="6"/>
       <c r="T20" s="6" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="21" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="15:20">
       <c r="S21" s="6"/>
       <c r="T21" s="6" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="22" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="15:20">
       <c r="S22" s="6" t="s">
         <v>401</v>
       </c>
       <c r="T22" s="6"/>
     </row>
-    <row r="23" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="15:20">
       <c r="S23" s="6" t="s">
         <v>402</v>
       </c>
       <c r="T23" s="6"/>
     </row>
-    <row r="24" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="15:20">
       <c r="S24" s="6" t="s">
         <v>403</v>
       </c>
       <c r="T24" s="6"/>
     </row>
-    <row r="25" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="15:20">
       <c r="S25" s="6"/>
       <c r="T25" s="6" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="26" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="15:20">
       <c r="S26" s="6"/>
       <c r="T26" s="6" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="28" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="15:20">
       <c r="S28">
         <v>200</v>
       </c>
     </row>
-    <row r="31" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="15:20">
       <c r="P31" s="55" t="s">
         <v>408</v>
       </c>
@@ -7972,7 +7930,7 @@
       <c r="R31" s="55"/>
       <c r="S31" s="55"/>
     </row>
-    <row r="32" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="15:20">
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="3" t="s">
@@ -7980,7 +7938,7 @@
       </c>
       <c r="S32" s="3"/>
     </row>
-    <row r="33" spans="8:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="8:21">
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="3" t="s">
@@ -7988,18 +7946,18 @@
       </c>
       <c r="S33" s="3"/>
     </row>
-    <row r="38" spans="8:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="8:21">
       <c r="S38" s="46"/>
       <c r="T38" s="46" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="40" spans="8:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="8:21">
       <c r="S40" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="41" spans="8:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="8:21">
       <c r="H41" s="56"/>
       <c r="I41" s="56"/>
       <c r="J41" s="56"/>
@@ -8014,22 +7972,22 @@
         <v>413</v>
       </c>
     </row>
-    <row r="42" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="I42" s="68" t="s">
+    <row r="42" spans="8:21">
+      <c r="I42" s="66" t="s">
         <v>416</v>
       </c>
-      <c r="J42" s="68"/>
-      <c r="K42" s="68"/>
-      <c r="L42" s="68"/>
-      <c r="M42" s="68"/>
-      <c r="N42" s="68"/>
-      <c r="O42" s="68"/>
-      <c r="P42" s="68"/>
-      <c r="Q42" s="68"/>
-      <c r="R42" s="68"/>
+      <c r="J42" s="66"/>
+      <c r="K42" s="66"/>
+      <c r="L42" s="66"/>
+      <c r="M42" s="66"/>
+      <c r="N42" s="66"/>
+      <c r="O42" s="66"/>
+      <c r="P42" s="66"/>
+      <c r="Q42" s="66"/>
+      <c r="R42" s="66"/>
       <c r="S42" s="48"/>
     </row>
-    <row r="45" spans="8:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="8:21">
       <c r="M45" s="56" t="s">
         <v>414</v>
       </c>
@@ -8042,17 +8000,17 @@
       <c r="T45" s="56"/>
       <c r="U45" s="56"/>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B49" s="65" t="s">
+    <row r="49" spans="1:23">
+      <c r="B49" s="67" t="s">
         <v>417</v>
       </c>
-      <c r="C49" s="65"/>
-      <c r="D49" s="65"/>
-      <c r="E49" s="65"/>
-      <c r="F49" s="65"/>
-      <c r="G49" s="65"/>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C49" s="67"/>
+      <c r="D49" s="67"/>
+      <c r="E49" s="67"/>
+      <c r="F49" s="67"/>
+      <c r="G49" s="67"/>
+    </row>
+    <row r="51" spans="1:23">
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -8061,7 +8019,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23">
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -8069,7 +8027,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23">
       <c r="B54" s="56" t="s">
         <v>451</v>
       </c>
@@ -8078,7 +8036,7 @@
       <c r="E54" s="56"/>
       <c r="F54" s="56"/>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23">
       <c r="A56" s="47"/>
       <c r="B56" s="47"/>
       <c r="C56" s="47"/>
@@ -8103,7 +8061,7 @@
       <c r="V56" s="47"/>
       <c r="W56" s="47"/>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23">
       <c r="A59" s="55" t="s">
         <v>424</v>
       </c>
@@ -8112,15 +8070,15 @@
       <c r="D59" s="55"/>
       <c r="E59" s="55"/>
       <c r="F59" s="55"/>
-      <c r="R59" s="66" t="s">
+      <c r="R59" s="68" t="s">
         <v>420</v>
       </c>
-      <c r="S59" s="66"/>
-      <c r="T59" s="66"/>
-      <c r="U59" s="66"/>
-      <c r="V59" s="66"/>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="S59" s="68"/>
+      <c r="T59" s="68"/>
+      <c r="U59" s="68"/>
+      <c r="V59" s="68"/>
+    </row>
+    <row r="60" spans="1:23">
       <c r="A60" s="55" t="s">
         <v>423</v>
       </c>
@@ -8131,7 +8089,7 @@
       <c r="F60" s="55"/>
       <c r="G60" s="55"/>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23">
       <c r="A61" s="33"/>
       <c r="B61" s="51"/>
       <c r="C61" s="16"/>
@@ -8141,7 +8099,7 @@
       </c>
       <c r="F61" s="33"/>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23">
       <c r="A62" s="33"/>
       <c r="B62" s="51"/>
       <c r="C62" s="16" t="s">
@@ -8177,7 +8135,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23">
       <c r="A63" s="55" t="s">
         <v>433</v>
       </c>
@@ -8198,13 +8156,13 @@
         <v>425</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23">
       <c r="B64" s="33"/>
       <c r="F64" s="53" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13">
       <c r="B65" s="33"/>
       <c r="C65" s="33"/>
       <c r="D65" s="33"/>
@@ -8213,12 +8171,12 @@
         <v>328</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13">
       <c r="F66" s="53" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13">
       <c r="B67" s="56"/>
       <c r="C67" s="56"/>
       <c r="D67" s="56"/>
@@ -8227,7 +8185,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13">
       <c r="B68" s="56"/>
       <c r="C68" s="56"/>
       <c r="D68" s="56"/>
@@ -8236,7 +8194,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13">
       <c r="F69" s="53" t="s">
         <v>328</v>
       </c>
@@ -8244,7 +8202,7 @@
       <c r="K69" s="56"/>
       <c r="L69" s="56"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13">
       <c r="A70" s="45"/>
       <c r="B70" s="55" t="s">
         <v>454</v>
@@ -8261,19 +8219,19 @@
       <c r="K70" s="56"/>
       <c r="L70" s="56"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13">
       <c r="A71" s="33"/>
       <c r="B71" s="33"/>
       <c r="C71" s="33"/>
       <c r="D71" s="33"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13">
       <c r="A72" s="33"/>
       <c r="B72" s="33"/>
       <c r="C72" s="33"/>
       <c r="D72" s="33"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13">
       <c r="A73" s="33"/>
       <c r="B73" s="33"/>
       <c r="C73" s="33"/>
@@ -8288,7 +8246,7 @@
       <c r="L73" s="54"/>
       <c r="M73" s="54"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13">
       <c r="A74" s="33"/>
       <c r="B74" s="33"/>
       <c r="C74" s="33"/>
@@ -8303,7 +8261,7 @@
       <c r="L74" s="54"/>
       <c r="M74" s="54"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13">
       <c r="A75" s="33"/>
       <c r="B75" s="33"/>
       <c r="C75" s="33"/>
@@ -8318,7 +8276,7 @@
       <c r="L75" s="54"/>
       <c r="M75" s="54"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13">
       <c r="A76" s="33"/>
       <c r="B76" s="33"/>
       <c r="C76" s="56"/>
@@ -8333,7 +8291,7 @@
       <c r="L76" s="54"/>
       <c r="M76" s="54"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13">
       <c r="E77" s="54"/>
       <c r="F77" s="54"/>
       <c r="G77" s="54"/>
@@ -8344,7 +8302,7 @@
       <c r="L77" s="54"/>
       <c r="M77" s="54"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13">
       <c r="E78" s="54"/>
       <c r="F78" s="54"/>
       <c r="G78" s="54"/>
@@ -8355,7 +8313,7 @@
       <c r="L78" s="54"/>
       <c r="M78" s="54"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13">
       <c r="E79" s="54"/>
       <c r="F79" s="54"/>
       <c r="G79" s="54"/>
@@ -8366,7 +8324,7 @@
       <c r="L79" s="54"/>
       <c r="M79" s="54"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13">
       <c r="E80" s="54"/>
       <c r="F80" s="54"/>
       <c r="G80" s="54"/>
@@ -8377,7 +8335,7 @@
       <c r="L80" s="54"/>
       <c r="M80" s="54"/>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21">
       <c r="E81" s="54"/>
       <c r="F81" s="54"/>
       <c r="G81" s="54"/>
@@ -8388,7 +8346,7 @@
       <c r="L81" s="54"/>
       <c r="M81" s="54"/>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21">
       <c r="E82" s="54"/>
       <c r="F82" s="54"/>
       <c r="G82" s="54"/>
@@ -8399,7 +8357,7 @@
       <c r="L82" s="54"/>
       <c r="M82" s="54"/>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21">
       <c r="E83" s="54"/>
       <c r="F83" s="54"/>
       <c r="G83" s="54"/>
@@ -8418,7 +8376,7 @@
       <c r="T83" s="56"/>
       <c r="U83" s="56"/>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21">
       <c r="E84" s="54"/>
       <c r="F84" s="54"/>
       <c r="G84" s="54"/>
@@ -8429,7 +8387,7 @@
       <c r="L84" s="54"/>
       <c r="M84" s="54"/>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21">
       <c r="E85" s="54"/>
       <c r="F85" s="54"/>
       <c r="G85" s="54"/>
@@ -8440,7 +8398,7 @@
       <c r="L85" s="54"/>
       <c r="M85" s="54"/>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21">
       <c r="E86" s="54"/>
       <c r="F86" s="54"/>
       <c r="G86" s="54"/>
@@ -8451,7 +8409,7 @@
       <c r="L86" s="54"/>
       <c r="M86" s="54"/>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21">
       <c r="B87" s="55" t="s">
         <v>458</v>
       </c>
@@ -8469,7 +8427,7 @@
       <c r="L87" s="54"/>
       <c r="M87" s="54"/>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21">
       <c r="A88" s="3" t="s">
         <v>460</v>
       </c>
@@ -8488,7 +8446,7 @@
       </c>
       <c r="K88" s="3"/>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21">
       <c r="F89" s="56" t="s">
         <v>459</v>
       </c>
@@ -8498,18 +8456,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21">
       <c r="F90" s="3"/>
       <c r="G90" s="3" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21">
       <c r="G91" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21">
       <c r="F93" t="s">
         <v>426</v>
       </c>
@@ -8517,22 +8475,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21">
       <c r="E94" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21">
       <c r="E95" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="E96" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="97" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:7">
       <c r="C97" s="56" t="s">
         <v>456</v>
       </c>
@@ -8540,7 +8493,7 @@
       <c r="E97" s="56"/>
       <c r="F97" s="56"/>
     </row>
-    <row r="98" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:7">
       <c r="D98" s="56"/>
       <c r="E98" s="56"/>
       <c r="F98" s="56"/>
@@ -8548,12 +8501,11 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="T2:V3"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="P31:S31"/>
-    <mergeCell ref="M45:U45"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="I42:R42"/>
+    <mergeCell ref="D98:G98"/>
+    <mergeCell ref="C76:J76"/>
+    <mergeCell ref="N83:U83"/>
+    <mergeCell ref="B87:I87"/>
+    <mergeCell ref="B88:I88"/>
     <mergeCell ref="B70:D70"/>
     <mergeCell ref="C97:F97"/>
     <mergeCell ref="B49:G49"/>
@@ -8566,11 +8518,12 @@
     <mergeCell ref="A59:F59"/>
     <mergeCell ref="B54:F54"/>
     <mergeCell ref="F89:H89"/>
-    <mergeCell ref="D98:G98"/>
-    <mergeCell ref="C76:J76"/>
-    <mergeCell ref="N83:U83"/>
-    <mergeCell ref="B87:I87"/>
-    <mergeCell ref="B88:I88"/>
+    <mergeCell ref="T2:V3"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="P31:S31"/>
+    <mergeCell ref="M45:U45"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="I42:R42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8579,16 +8532,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="F5:I23"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="5" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="6:9">
       <c r="F5" s="16" t="s">
         <v>434</v>
       </c>
@@ -8597,7 +8550,7 @@
       </c>
       <c r="I5" s="16"/>
     </row>
-    <row r="6" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="6:9">
       <c r="F6" t="s">
         <v>84</v>
       </c>
@@ -8605,7 +8558,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="7" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="6:9">
       <c r="F7" t="s">
         <v>100</v>
       </c>
@@ -8613,7 +8566,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="6:9">
       <c r="F8" t="s">
         <v>435</v>
       </c>
@@ -8621,7 +8574,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="6:9">
       <c r="F9" t="s">
         <v>430</v>
       </c>
@@ -8629,68 +8582,68 @@
         <v>438</v>
       </c>
     </row>
-    <row r="10" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="6:9">
       <c r="F10" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="12" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="6:9">
       <c r="F12" s="16" t="s">
         <v>439</v>
       </c>
       <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="6:9">
       <c r="F13" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="14" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="6:9">
       <c r="F14" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="6:9">
       <c r="F15" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="16" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="6:9">
       <c r="F16" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:6">
       <c r="F17" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:6">
       <c r="F18" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="6:6">
       <c r="F19" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="6:6">
       <c r="F20" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="6:6">
       <c r="F21" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="6:6">
       <c r="F22" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="6:6">
       <c r="F23" t="s">
         <v>449</v>
       </c>

--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FreeLance\Mokhtar Elsamhy\Fish Business\FishBusiness\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA403B44-5BF2-4A35-8CA8-1DF753EAD15E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22CF62A9-BE7B-496A-8BAE-31D83C3B1724}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="466">
   <si>
     <t>حلقه سمك</t>
   </si>
@@ -1415,6 +1415,15 @@
   </si>
   <si>
     <t>مشكلة الهالك</t>
+  </si>
+  <si>
+    <t>زيادة او نقصان العمولات اليومية</t>
+  </si>
+  <si>
+    <t>زيادة او نقصان تحصيل من التجار (داخلي و خارجي)</t>
+  </si>
+  <si>
+    <t>المكاسب</t>
   </si>
 </sst>
 </file>
@@ -7809,7 +7818,7 @@
   <dimension ref="A2:W98"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="I89" sqref="I89"/>
+      <selection activeCell="N88" sqref="N88:S88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8468,6 +8477,14 @@
       <c r="K87" s="54"/>
       <c r="L87" s="54"/>
       <c r="M87" s="54"/>
+      <c r="N87" s="55" t="s">
+        <v>463</v>
+      </c>
+      <c r="O87" s="55"/>
+      <c r="P87" s="55"/>
+      <c r="Q87" s="55"/>
+      <c r="R87" s="55"/>
+      <c r="S87" s="55"/>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
@@ -8487,6 +8504,14 @@
         <v>2</v>
       </c>
       <c r="K88" s="3"/>
+      <c r="N88" s="56" t="s">
+        <v>464</v>
+      </c>
+      <c r="O88" s="56"/>
+      <c r="P88" s="56"/>
+      <c r="Q88" s="56"/>
+      <c r="R88" s="56"/>
+      <c r="S88" s="56"/>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F89" s="56" t="s">
@@ -8497,6 +8522,14 @@
       <c r="J89">
         <v>3</v>
       </c>
+      <c r="N89" s="56" t="s">
+        <v>465</v>
+      </c>
+      <c r="O89" s="56"/>
+      <c r="P89" s="56"/>
+      <c r="Q89" s="56"/>
+      <c r="R89" s="56"/>
+      <c r="S89" s="56"/>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F90" s="3"/>
@@ -8547,7 +8580,7 @@
       <c r="G98" s="56"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="26">
     <mergeCell ref="T2:V3"/>
     <mergeCell ref="S15:T15"/>
     <mergeCell ref="P31:S31"/>
@@ -8566,6 +8599,9 @@
     <mergeCell ref="A59:F59"/>
     <mergeCell ref="B54:F54"/>
     <mergeCell ref="F89:H89"/>
+    <mergeCell ref="N87:S87"/>
+    <mergeCell ref="N88:S88"/>
+    <mergeCell ref="N89:S89"/>
     <mergeCell ref="D98:G98"/>
     <mergeCell ref="C76:J76"/>
     <mergeCell ref="N83:U83"/>

--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FreeLance\Mokhtar Elsamhy\Fish Business\FishBusiness\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9952E22-8947-4652-B6B9-FEAAC3015008}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="465">
   <si>
     <t>حلقه سمك</t>
   </si>
@@ -1409,13 +1415,19 @@
   </si>
   <si>
     <t>مشكلة الهالك</t>
+  </si>
+  <si>
+    <t>لازم</t>
+  </si>
+  <si>
+    <t>جاية من db</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1800,6 +1812,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1809,31 +1830,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1874,7 +1886,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="WhatsApp Image 2020-08-17 at 1.23.37 AM.jpeg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1923,7 +1935,7 @@
         <xdr:cNvPr id="3" name="Picture 2" descr="Capturea.PNG">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1995,7 +2007,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2027,9 +2039,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2061,6 +2091,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2236,22 +2284,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y117"/>
   <sheetViews>
     <sheetView topLeftCell="A106" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="M1" sqref="M1:M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E1">
         <v>2500</v>
       </c>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E2">
         <v>3000</v>
       </c>
@@ -2260,7 +2308,7 @@
       </c>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E3">
         <v>10000</v>
       </c>
@@ -2269,7 +2317,7 @@
       </c>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="F4">
         <v>7.5</v>
       </c>
@@ -2278,7 +2326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -2297,7 +2345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
@@ -2309,7 +2357,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -2334,7 +2382,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -2356,7 +2404,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -2372,7 +2420,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -2390,7 +2438,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -2400,7 +2448,7 @@
       <c r="I11" s="3"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -2418,7 +2466,7 @@
       </c>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -2440,7 +2488,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -2456,7 +2504,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -2481,7 +2529,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -2500,7 +2548,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -2522,7 +2570,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -2541,7 +2589,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:24">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -2557,7 +2605,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -2576,7 +2624,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -2586,7 +2634,7 @@
       </c>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="1:24">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -2599,7 +2647,7 @@
       </c>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="1:24">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -2612,7 +2660,7 @@
       </c>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="1:24">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -2625,7 +2673,7 @@
       </c>
       <c r="M24" s="5"/>
     </row>
-    <row r="25" spans="1:24">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="H25" t="s">
         <v>24</v>
       </c>
@@ -2633,12 +2681,12 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="26" spans="1:24">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="1:24">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
         <v>26</v>
       </c>
@@ -2649,7 +2697,7 @@
         <v>5650</v>
       </c>
     </row>
-    <row r="28" spans="1:24">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="I28" s="4">
         <v>0.06</v>
       </c>
@@ -2668,12 +2716,12 @@
       <c r="R28" s="6"/>
       <c r="S28" s="6"/>
     </row>
-    <row r="29" spans="1:24">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="I29">
         <v>5311</v>
       </c>
     </row>
-    <row r="30" spans="1:24">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E30">
         <v>100</v>
       </c>
@@ -2690,7 +2738,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:24">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="H31" t="s">
         <v>29</v>
       </c>
@@ -2698,7 +2746,7 @@
         <v>5011</v>
       </c>
     </row>
-    <row r="32" spans="1:24">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="I32">
         <v>2500</v>
       </c>
@@ -2718,7 +2766,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="5:25">
+    <row r="33" spans="5:25" x14ac:dyDescent="0.25">
       <c r="I33">
         <v>2500</v>
       </c>
@@ -2732,7 +2780,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="5:25">
+    <row r="34" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5" t="s">
@@ -2751,7 +2799,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="5:25">
+    <row r="35" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
@@ -2768,7 +2816,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="5:25">
+    <row r="36" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
@@ -2785,7 +2833,7 @@
       <c r="W36" s="5"/>
       <c r="X36" s="5"/>
     </row>
-    <row r="37" spans="5:25">
+    <row r="37" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
@@ -2796,7 +2844,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="38" spans="5:25">
+    <row r="38" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E38" s="5" t="s">
         <v>41</v>
       </c>
@@ -2811,7 +2859,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="39" spans="5:25">
+    <row r="39" spans="5:25" x14ac:dyDescent="0.25">
       <c r="F39" t="s">
         <v>34</v>
       </c>
@@ -2824,7 +2872,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="40" spans="5:25">
+    <row r="40" spans="5:25" x14ac:dyDescent="0.25">
       <c r="F40" t="s">
         <v>35</v>
       </c>
@@ -2834,7 +2882,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="5:25">
+    <row r="41" spans="5:25" x14ac:dyDescent="0.25">
       <c r="F41" t="s">
         <v>36</v>
       </c>
@@ -2844,7 +2892,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="5:25">
+    <row r="42" spans="5:25" x14ac:dyDescent="0.25">
       <c r="F42" t="s">
         <v>37</v>
       </c>
@@ -2854,7 +2902,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="5:25">
+    <row r="43" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
@@ -2868,7 +2916,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="5:25">
+    <row r="44" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
@@ -2876,7 +2924,7 @@
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
     </row>
-    <row r="45" spans="5:25">
+    <row r="45" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
@@ -2884,7 +2932,7 @@
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
     </row>
-    <row r="46" spans="5:25">
+    <row r="46" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
@@ -2901,7 +2949,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="5:25">
+    <row r="47" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
@@ -2918,7 +2966,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="5:25">
+    <row r="48" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
@@ -2935,7 +2983,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="8:25">
+    <row r="49" spans="8:25" x14ac:dyDescent="0.25">
       <c r="R49" t="s">
         <v>24</v>
       </c>
@@ -2946,22 +2994,22 @@
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="8:25">
+    <row r="50" spans="8:25" x14ac:dyDescent="0.25">
       <c r="Y50" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="8:25">
+    <row r="51" spans="8:25" x14ac:dyDescent="0.25">
       <c r="X51">
         <v>20000</v>
       </c>
     </row>
-    <row r="52" spans="8:25">
+    <row r="52" spans="8:25" x14ac:dyDescent="0.25">
       <c r="Y52">
         <v>2000</v>
       </c>
     </row>
-    <row r="58" spans="8:25">
+    <row r="58" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
@@ -2976,7 +3024,7 @@
       <c r="S58" s="5"/>
       <c r="T58" s="5"/>
     </row>
-    <row r="64" spans="8:25">
+    <row r="64" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
@@ -2993,7 +3041,7 @@
       <c r="W64" s="5"/>
       <c r="X64" s="5"/>
     </row>
-    <row r="65" spans="8:25">
+    <row r="65" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
@@ -3012,7 +3060,7 @@
       <c r="W65" s="5"/>
       <c r="X65" s="5"/>
     </row>
-    <row r="66" spans="8:25">
+    <row r="66" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
@@ -3029,7 +3077,7 @@
       <c r="W66" s="5"/>
       <c r="X66" s="5"/>
     </row>
-    <row r="67" spans="8:25">
+    <row r="67" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
@@ -3046,7 +3094,7 @@
       <c r="W67" s="5"/>
       <c r="X67" s="5"/>
     </row>
-    <row r="68" spans="8:25">
+    <row r="68" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
@@ -3065,7 +3113,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="8:25">
+    <row r="69" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
@@ -3082,7 +3130,7 @@
       <c r="W69" s="5"/>
       <c r="X69" s="5"/>
     </row>
-    <row r="70" spans="8:25">
+    <row r="70" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H70" s="5"/>
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
@@ -3104,7 +3152,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="71" spans="8:25">
+    <row r="71" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
@@ -3129,7 +3177,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="72" spans="8:25">
+    <row r="72" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
@@ -3149,7 +3197,7 @@
       <c r="W72" s="5"/>
       <c r="X72" s="5"/>
     </row>
-    <row r="73" spans="8:25">
+    <row r="73" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
@@ -3169,7 +3217,7 @@
       <c r="W73" s="5"/>
       <c r="X73" s="5"/>
     </row>
-    <row r="74" spans="8:25">
+    <row r="74" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
@@ -3186,7 +3234,7 @@
       <c r="W74" s="5"/>
       <c r="X74" s="5"/>
     </row>
-    <row r="75" spans="8:25">
+    <row r="75" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
@@ -3203,7 +3251,7 @@
       <c r="W75" s="5"/>
       <c r="X75" s="5"/>
     </row>
-    <row r="76" spans="8:25">
+    <row r="76" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
@@ -3221,7 +3269,7 @@
         <v>5650</v>
       </c>
     </row>
-    <row r="77" spans="8:25">
+    <row r="77" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
@@ -3242,7 +3290,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="78" spans="8:25">
+    <row r="78" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
@@ -3257,7 +3305,7 @@
         <v>5311</v>
       </c>
     </row>
-    <row r="79" spans="8:25">
+    <row r="79" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H79" s="5"/>
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
@@ -3278,7 +3326,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="8:25">
+    <row r="80" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
@@ -3296,7 +3344,7 @@
         <v>5011</v>
       </c>
     </row>
-    <row r="81" spans="6:24">
+    <row r="81" spans="6:24" x14ac:dyDescent="0.25">
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
@@ -3313,71 +3361,71 @@
       <c r="W81" s="5"/>
       <c r="X81" s="5"/>
     </row>
-    <row r="82" spans="6:24">
+    <row r="82" spans="6:24" x14ac:dyDescent="0.25">
       <c r="T82" s="5"/>
       <c r="U82" s="5"/>
       <c r="V82" s="5"/>
       <c r="W82" s="5"/>
       <c r="X82" s="5"/>
     </row>
-    <row r="83" spans="6:24">
+    <row r="83" spans="6:24" x14ac:dyDescent="0.25">
       <c r="T83" s="5"/>
       <c r="U83" s="5"/>
       <c r="V83" s="5"/>
       <c r="W83" s="5"/>
       <c r="X83" s="5"/>
     </row>
-    <row r="84" spans="6:24">
+    <row r="84" spans="6:24" x14ac:dyDescent="0.25">
       <c r="T84" s="5"/>
       <c r="U84" s="5"/>
       <c r="V84" s="5"/>
       <c r="W84" s="5"/>
       <c r="X84" s="5"/>
     </row>
-    <row r="85" spans="6:24">
+    <row r="85" spans="6:24" x14ac:dyDescent="0.25">
       <c r="T85" s="5"/>
       <c r="U85" s="5"/>
       <c r="V85" s="5"/>
       <c r="W85" s="5"/>
       <c r="X85" s="5"/>
     </row>
-    <row r="86" spans="6:24">
+    <row r="86" spans="6:24" x14ac:dyDescent="0.25">
       <c r="T86" s="5"/>
       <c r="U86" s="5"/>
       <c r="V86" s="5"/>
       <c r="W86" s="5"/>
       <c r="X86" s="5"/>
     </row>
-    <row r="87" spans="6:24">
+    <row r="87" spans="6:24" x14ac:dyDescent="0.25">
       <c r="T87" s="5"/>
       <c r="U87" s="5"/>
       <c r="V87" s="5"/>
       <c r="W87" s="5"/>
       <c r="X87" s="5"/>
     </row>
-    <row r="88" spans="6:24">
+    <row r="88" spans="6:24" x14ac:dyDescent="0.25">
       <c r="T88" s="5"/>
       <c r="U88" s="5"/>
       <c r="V88" s="5"/>
       <c r="W88" s="5"/>
       <c r="X88" s="5"/>
     </row>
-    <row r="90" spans="6:24">
+    <row r="90" spans="6:24" x14ac:dyDescent="0.25">
       <c r="F90" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="6:24">
+    <row r="95" spans="6:24" x14ac:dyDescent="0.25">
       <c r="V95" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="96" spans="6:24">
+    <row r="96" spans="6:24" x14ac:dyDescent="0.25">
       <c r="V96" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="97" spans="20:22">
+    <row r="97" spans="20:22" x14ac:dyDescent="0.25">
       <c r="U97" t="s">
         <v>64</v>
       </c>
@@ -3385,17 +3433,17 @@
         <v>53</v>
       </c>
     </row>
-    <row r="98" spans="20:22">
+    <row r="98" spans="20:22" x14ac:dyDescent="0.25">
       <c r="V98" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="99" spans="20:22">
+    <row r="99" spans="20:22" x14ac:dyDescent="0.25">
       <c r="V99" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="100" spans="20:22">
+    <row r="100" spans="20:22" x14ac:dyDescent="0.25">
       <c r="T100" t="s">
         <v>60</v>
       </c>
@@ -3403,7 +3451,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="116" spans="20:22">
+    <row r="116" spans="20:22" x14ac:dyDescent="0.25">
       <c r="T116" t="s">
         <v>67</v>
       </c>
@@ -3411,7 +3459,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="117" spans="20:22">
+    <row r="117" spans="20:22" x14ac:dyDescent="0.25">
       <c r="V117" t="s">
         <v>66</v>
       </c>
@@ -3423,24 +3471,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B4:V84"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I11" sqref="I11:K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" customWidth="1"/>
-    <col min="10" max="10" width="6.6640625" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" customWidth="1"/>
     <col min="11" max="11" width="7" customWidth="1"/>
-    <col min="12" max="12" width="13.44140625" customWidth="1"/>
-    <col min="13" max="13" width="15.5546875" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:18">
+    <row r="4" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D4" s="1" t="s">
         <v>68</v>
       </c>
@@ -3457,7 +3505,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="4:18">
+    <row r="5" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>87</v>
       </c>
@@ -3474,7 +3522,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="4:18">
+    <row r="6" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>70</v>
       </c>
@@ -3491,7 +3539,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="4:18">
+    <row r="7" spans="4:18" x14ac:dyDescent="0.25">
       <c r="G7" t="s">
         <v>72</v>
       </c>
@@ -3502,7 +3550,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="4:18">
+    <row r="8" spans="4:18" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
         <v>142</v>
       </c>
@@ -3513,14 +3561,14 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="4:18">
+    <row r="9" spans="4:18" x14ac:dyDescent="0.25">
       <c r="F9" s="9"/>
       <c r="G9" s="9" t="s">
         <v>73</v>
       </c>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="4:18">
+    <row r="10" spans="4:18" x14ac:dyDescent="0.25">
       <c r="G10" t="s">
         <v>95</v>
       </c>
@@ -3528,7 +3576,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="4:18">
+    <row r="11" spans="4:18" x14ac:dyDescent="0.25">
       <c r="F11" s="3">
         <v>0</v>
       </c>
@@ -3539,17 +3587,17 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="4:18">
+    <row r="12" spans="4:18" x14ac:dyDescent="0.25">
       <c r="J12" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="4:18">
+    <row r="13" spans="4:18" x14ac:dyDescent="0.25">
       <c r="J13" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="4:18">
+    <row r="14" spans="4:18" x14ac:dyDescent="0.25">
       <c r="M14" s="1" t="s">
         <v>83</v>
       </c>
@@ -3559,7 +3607,7 @@
       </c>
       <c r="R14" s="1"/>
     </row>
-    <row r="15" spans="4:18">
+    <row r="15" spans="4:18" x14ac:dyDescent="0.25">
       <c r="M15" t="s">
         <v>86</v>
       </c>
@@ -3567,7 +3615,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="4:18">
+    <row r="16" spans="4:18" x14ac:dyDescent="0.25">
       <c r="M16" t="s">
         <v>78</v>
       </c>
@@ -3575,7 +3623,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="4:20">
+    <row r="17" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D17" s="1" t="s">
         <v>93</v>
       </c>
@@ -3586,7 +3634,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="4:20">
+    <row r="18" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>95</v>
       </c>
@@ -3600,7 +3648,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="4:20">
+    <row r="19" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>94</v>
       </c>
@@ -3611,7 +3659,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="4:20">
+    <row r="20" spans="4:20" x14ac:dyDescent="0.25">
       <c r="K20">
         <v>600</v>
       </c>
@@ -3622,7 +3670,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="4:20">
+    <row r="21" spans="4:20" x14ac:dyDescent="0.25">
       <c r="L21">
         <v>400</v>
       </c>
@@ -3630,7 +3678,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="4:20">
+    <row r="22" spans="4:20" x14ac:dyDescent="0.25">
       <c r="G22" s="3"/>
       <c r="H22" s="3" t="s">
         <v>130</v>
@@ -3645,7 +3693,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="4:20">
+    <row r="23" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D23" s="1" t="s">
         <v>99</v>
       </c>
@@ -3661,7 +3709,7 @@
       </c>
       <c r="N23" s="3"/>
     </row>
-    <row r="24" spans="4:20">
+    <row r="24" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>101</v>
       </c>
@@ -3669,7 +3717,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="4:20">
+    <row r="25" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>100</v>
       </c>
@@ -3677,17 +3725,17 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="4:20">
+    <row r="26" spans="4:20" x14ac:dyDescent="0.25">
       <c r="G26" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="4:20">
+    <row r="27" spans="4:20" x14ac:dyDescent="0.25">
       <c r="G27" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="28" spans="4:20">
+    <row r="28" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
@@ -3706,7 +3754,7 @@
       <c r="S28" s="7"/>
       <c r="T28" s="7"/>
     </row>
-    <row r="37" spans="6:18">
+    <row r="37" spans="6:18" x14ac:dyDescent="0.25">
       <c r="G37" s="1" t="s">
         <v>102</v>
       </c>
@@ -3720,7 +3768,7 @@
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
     </row>
-    <row r="38" spans="6:18">
+    <row r="38" spans="6:18" x14ac:dyDescent="0.25">
       <c r="G38" t="s">
         <v>106</v>
       </c>
@@ -3731,7 +3779,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="6:18">
+    <row r="39" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F39" t="s">
         <v>110</v>
       </c>
@@ -3745,7 +3793,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="6:18">
+    <row r="40" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F40">
         <v>20000</v>
       </c>
@@ -3759,7 +3807,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="6:18">
+    <row r="41" spans="6:18" x14ac:dyDescent="0.25">
       <c r="K41">
         <v>20000</v>
       </c>
@@ -3770,7 +3818,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="6:18">
+    <row r="42" spans="6:18" x14ac:dyDescent="0.25">
       <c r="J42" t="s">
         <v>113</v>
       </c>
@@ -3784,7 +3832,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="6:18">
+    <row r="43" spans="6:18" x14ac:dyDescent="0.25">
       <c r="K43">
         <v>5000</v>
       </c>
@@ -3795,7 +3843,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="6:18">
+    <row r="44" spans="6:18" x14ac:dyDescent="0.25">
       <c r="K44" t="s">
         <v>111</v>
       </c>
@@ -3803,7 +3851,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="49" spans="2:20">
+    <row r="49" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -3822,12 +3870,12 @@
       <c r="S49" s="2"/>
       <c r="T49" s="2"/>
     </row>
-    <row r="54" spans="2:20">
+    <row r="54" spans="2:20" x14ac:dyDescent="0.25">
       <c r="E54" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="55" spans="2:20">
+    <row r="55" spans="2:20" x14ac:dyDescent="0.25">
       <c r="E55" t="s">
         <v>84</v>
       </c>
@@ -3835,7 +3883,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="56" spans="2:20">
+    <row r="56" spans="2:20" x14ac:dyDescent="0.25">
       <c r="E56" s="3" t="s">
         <v>100</v>
       </c>
@@ -3846,7 +3894,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="57" spans="2:20">
+    <row r="57" spans="2:20" x14ac:dyDescent="0.25">
       <c r="E57" s="3" t="s">
         <v>115</v>
       </c>
@@ -3857,12 +3905,12 @@
         <v>118</v>
       </c>
     </row>
-    <row r="58" spans="2:20">
+    <row r="58" spans="2:20" x14ac:dyDescent="0.25">
       <c r="M58" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="60" spans="2:20">
+    <row r="60" spans="2:20" x14ac:dyDescent="0.25">
       <c r="L60" t="s">
         <v>122</v>
       </c>
@@ -3870,7 +3918,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="2:20">
+    <row r="62" spans="2:20" x14ac:dyDescent="0.25">
       <c r="K62" s="3"/>
       <c r="L62" s="3" t="s">
         <v>123</v>
@@ -3881,7 +3929,7 @@
       </c>
       <c r="P62" s="3"/>
     </row>
-    <row r="63" spans="2:20">
+    <row r="63" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>145</v>
       </c>
@@ -3900,7 +3948,7 @@
       </c>
       <c r="P63" s="3"/>
     </row>
-    <row r="64" spans="2:20">
+    <row r="64" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>147</v>
       </c>
@@ -3912,7 +3960,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="66" spans="2:22">
+    <row r="66" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>150</v>
       </c>
@@ -3923,7 +3971,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="67" spans="2:22">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>151</v>
       </c>
@@ -3937,12 +3985,12 @@
         <v>155</v>
       </c>
     </row>
-    <row r="68" spans="2:22">
+    <row r="68" spans="2:22" x14ac:dyDescent="0.25">
       <c r="G68" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="69" spans="2:22">
+    <row r="69" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>20</v>
       </c>
@@ -3956,7 +4004,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="70" spans="2:22">
+    <row r="70" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>152</v>
       </c>
@@ -3976,19 +4024,19 @@
       <c r="U70" s="56"/>
       <c r="V70" s="56"/>
     </row>
-    <row r="71" spans="2:22">
+    <row r="71" spans="2:22" x14ac:dyDescent="0.25">
       <c r="S71" s="56"/>
       <c r="T71" s="56"/>
       <c r="U71" s="56"/>
       <c r="V71" s="56"/>
     </row>
-    <row r="72" spans="2:22">
+    <row r="72" spans="2:22" x14ac:dyDescent="0.25">
       <c r="S72" s="56"/>
       <c r="T72" s="56"/>
       <c r="U72" s="56"/>
       <c r="V72" s="56"/>
     </row>
-    <row r="73" spans="2:22">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.25">
       <c r="N73" s="55" t="s">
         <v>157</v>
       </c>
@@ -4000,7 +4048,7 @@
       <c r="U73" s="56"/>
       <c r="V73" s="56"/>
     </row>
-    <row r="74" spans="2:22">
+    <row r="74" spans="2:22" x14ac:dyDescent="0.25">
       <c r="E74" s="2" t="s">
         <v>140</v>
       </c>
@@ -4021,7 +4069,7 @@
       <c r="U74" s="56"/>
       <c r="V74" s="56"/>
     </row>
-    <row r="75" spans="2:22">
+    <row r="75" spans="2:22" x14ac:dyDescent="0.25">
       <c r="E75" s="3" t="s">
         <v>105</v>
       </c>
@@ -4041,7 +4089,7 @@
       <c r="U75" s="56"/>
       <c r="V75" s="56"/>
     </row>
-    <row r="76" spans="2:22">
+    <row r="76" spans="2:22" x14ac:dyDescent="0.25">
       <c r="E76" s="3" t="s">
         <v>90</v>
       </c>
@@ -4058,7 +4106,7 @@
       <c r="U76" s="56"/>
       <c r="V76" s="56"/>
     </row>
-    <row r="77" spans="2:22">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.25">
       <c r="E77" s="3" t="s">
         <v>137</v>
       </c>
@@ -4071,7 +4119,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="78" spans="2:22">
+    <row r="78" spans="2:22" x14ac:dyDescent="0.25">
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
       <c r="I78" s="3" t="s">
@@ -4090,7 +4138,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="79" spans="2:22">
+    <row r="79" spans="2:22" x14ac:dyDescent="0.25">
       <c r="E79" s="3" t="s">
         <v>112</v>
       </c>
@@ -4108,7 +4156,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="80" spans="2:22">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.25">
       <c r="E80" s="3" t="s">
         <v>141</v>
       </c>
@@ -4117,7 +4165,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="81" spans="13:17">
+    <row r="81" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M81" t="s">
         <v>167</v>
       </c>
@@ -4125,7 +4173,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="82" spans="13:17">
+    <row r="82" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M82" t="s">
         <v>169</v>
       </c>
@@ -4136,7 +4184,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="84" spans="13:17">
+    <row r="84" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M84" t="s">
         <v>171</v>
       </c>
@@ -4156,20 +4204,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:V68"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="H2" s="14"/>
       <c r="I2" s="14" t="s">
         <v>48</v>
@@ -4182,7 +4230,7 @@
       </c>
       <c r="O2" s="3"/>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B3" s="13">
         <v>13000</v>
       </c>
@@ -4201,7 +4249,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O4" s="3"/>
       <c r="R4" s="5"/>
       <c r="S4" s="5">
@@ -4211,7 +4259,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O5" s="3"/>
       <c r="R5" s="5">
         <v>2600</v>
@@ -4223,7 +4271,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D6">
         <v>1475</v>
       </c>
@@ -4238,7 +4286,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I7" t="s">
         <v>182</v>
       </c>
@@ -4259,7 +4307,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E8">
         <v>1475</v>
       </c>
@@ -4284,7 +4332,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="L9">
         <v>2950</v>
       </c>
@@ -4296,7 +4344,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>245.8</v>
       </c>
@@ -4317,7 +4365,7 @@
         <v>3950</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>250</v>
       </c>
@@ -4328,7 +4376,7 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>3000</v>
       </c>
@@ -4351,7 +4399,7 @@
       <c r="O12" s="3"/>
       <c r="Q12" s="10"/>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D13">
         <v>3000</v>
       </c>
@@ -4369,7 +4417,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C14">
         <v>950</v>
       </c>
@@ -4390,7 +4438,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O15" s="3"/>
       <c r="R15">
         <v>950</v>
@@ -4402,7 +4450,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="H16" s="12">
         <v>500</v>
       </c>
@@ -4421,7 +4469,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="17" spans="4:21">
+    <row r="17" spans="4:21" x14ac:dyDescent="0.25">
       <c r="L17">
         <v>4045</v>
       </c>
@@ -4430,7 +4478,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="4:21">
+    <row r="18" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>189</v>
       </c>
@@ -4451,7 +4499,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="19" spans="4:21">
+    <row r="19" spans="4:21" x14ac:dyDescent="0.25">
       <c r="O19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
@@ -4459,7 +4507,7 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
     </row>
-    <row r="20" spans="4:21">
+    <row r="20" spans="4:21" x14ac:dyDescent="0.25">
       <c r="H20" s="12"/>
       <c r="J20" s="3">
         <v>3790</v>
@@ -4469,7 +4517,7 @@
       </c>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="4:21">
+    <row r="21" spans="4:21" x14ac:dyDescent="0.25">
       <c r="O21" s="3"/>
       <c r="R21">
         <v>2600</v>
@@ -4481,7 +4529,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="4:21">
+    <row r="22" spans="4:21" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
         <v>192</v>
       </c>
@@ -4499,7 +4547,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="23" spans="4:21">
+    <row r="23" spans="4:21" x14ac:dyDescent="0.25">
       <c r="F23">
         <v>129.5</v>
       </c>
@@ -4520,7 +4568,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="24" spans="4:21">
+    <row r="24" spans="4:21" x14ac:dyDescent="0.25">
       <c r="F24">
         <v>130</v>
       </c>
@@ -4541,7 +4589,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="25" spans="4:21">
+    <row r="25" spans="4:21" x14ac:dyDescent="0.25">
       <c r="G25" t="s">
         <v>193</v>
       </c>
@@ -4559,7 +4607,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="26" spans="4:21">
+    <row r="26" spans="4:21" x14ac:dyDescent="0.25">
       <c r="G26">
         <v>1300</v>
       </c>
@@ -4580,13 +4628,13 @@
         <v>179</v>
       </c>
     </row>
-    <row r="27" spans="4:21">
+    <row r="27" spans="4:21" x14ac:dyDescent="0.25">
       <c r="O27" s="3"/>
       <c r="R27">
         <v>6430</v>
       </c>
     </row>
-    <row r="28" spans="4:21">
+    <row r="28" spans="4:21" x14ac:dyDescent="0.25">
       <c r="J28" t="s">
         <v>198</v>
       </c>
@@ -4598,7 +4646,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="29" spans="4:21">
+    <row r="29" spans="4:21" x14ac:dyDescent="0.25">
       <c r="K29">
         <v>4150</v>
       </c>
@@ -4607,7 +4655,7 @@
         <v>6045</v>
       </c>
     </row>
-    <row r="30" spans="4:21">
+    <row r="30" spans="4:21" x14ac:dyDescent="0.25">
       <c r="J30" t="s">
         <v>51</v>
       </c>
@@ -4616,7 +4664,7 @@
       </c>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="4:21">
+    <row r="31" spans="4:21" x14ac:dyDescent="0.25">
       <c r="J31" t="s">
         <v>200</v>
       </c>
@@ -4625,13 +4673,13 @@
       </c>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="4:21">
+    <row r="32" spans="4:21" x14ac:dyDescent="0.25">
       <c r="J32" t="s">
         <v>201</v>
       </c>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:22">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="I33" t="s">
         <v>202</v>
       </c>
@@ -4643,10 +4691,10 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="34" spans="1:22">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:22">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -4663,10 +4711,10 @@
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:22">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:22">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
       <c r="J37" s="14"/>
@@ -4677,10 +4725,10 @@
       </c>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:22">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:22">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H39" s="12"/>
       <c r="I39">
         <v>6</v>
@@ -4692,13 +4740,13 @@
       </c>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:22">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:22">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:22">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O42" s="3"/>
       <c r="R42" s="5"/>
       <c r="S42" s="3"/>
@@ -4706,7 +4754,7 @@
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
     </row>
-    <row r="43" spans="1:22">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H43" s="12"/>
       <c r="I43">
         <v>6</v>
@@ -4718,7 +4766,7 @@
       </c>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:22">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O44" s="3"/>
       <c r="R44" s="5"/>
       <c r="S44" s="3"/>
@@ -4726,10 +4774,10 @@
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
     </row>
-    <row r="45" spans="1:22">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:22">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O46" s="3"/>
       <c r="R46" s="5"/>
       <c r="S46" s="3"/>
@@ -4737,7 +4785,7 @@
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
     </row>
-    <row r="47" spans="1:22">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H47" s="12"/>
       <c r="I47">
         <v>6</v>
@@ -4749,16 +4797,16 @@
       </c>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:22">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="6:22">
+    <row r="49" spans="6:22" x14ac:dyDescent="0.25">
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="6:22">
+    <row r="50" spans="6:22" x14ac:dyDescent="0.25">
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="6:22">
+    <row r="51" spans="6:22" x14ac:dyDescent="0.25">
       <c r="H51" s="12"/>
       <c r="J51" s="3"/>
       <c r="L51" s="11">
@@ -4766,7 +4814,7 @@
       </c>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="6:22">
+    <row r="52" spans="6:22" x14ac:dyDescent="0.25">
       <c r="K52" t="s">
         <v>214</v>
       </c>
@@ -4775,25 +4823,25 @@
       </c>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="6:22">
+    <row r="53" spans="6:22" x14ac:dyDescent="0.25">
       <c r="L53">
         <v>8090</v>
       </c>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="6:22">
+    <row r="54" spans="6:22" x14ac:dyDescent="0.25">
       <c r="K54" t="s">
         <v>198</v>
       </c>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="6:22">
+    <row r="55" spans="6:22" x14ac:dyDescent="0.25">
       <c r="L55">
         <v>4045</v>
       </c>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="6:22">
+    <row r="56" spans="6:22" x14ac:dyDescent="0.25">
       <c r="J56" t="s">
         <v>215</v>
       </c>
@@ -4808,7 +4856,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="57" spans="6:22">
+    <row r="57" spans="6:22" x14ac:dyDescent="0.25">
       <c r="K57" t="s">
         <v>205</v>
       </c>
@@ -4829,10 +4877,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="6:22">
+    <row r="58" spans="6:22" x14ac:dyDescent="0.25">
       <c r="O58" s="3"/>
     </row>
-    <row r="59" spans="6:22">
+    <row r="59" spans="6:22" x14ac:dyDescent="0.25">
       <c r="L59" t="s">
         <v>206</v>
       </c>
@@ -4850,7 +4898,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="60" spans="6:22">
+    <row r="60" spans="6:22" x14ac:dyDescent="0.25">
       <c r="F60" s="5" t="s">
         <v>202</v>
       </c>
@@ -4871,7 +4919,7 @@
       </c>
       <c r="O60" s="3"/>
     </row>
-    <row r="61" spans="6:22">
+    <row r="61" spans="6:22" x14ac:dyDescent="0.25">
       <c r="G61">
         <v>700</v>
       </c>
@@ -4889,7 +4937,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="62" spans="6:22">
+    <row r="62" spans="6:22" x14ac:dyDescent="0.25">
       <c r="L62" t="s">
         <v>209</v>
       </c>
@@ -4898,7 +4946,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="63" spans="6:22">
+    <row r="63" spans="6:22" x14ac:dyDescent="0.25">
       <c r="K63" t="s">
         <v>210</v>
       </c>
@@ -4910,10 +4958,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="64" spans="6:22">
+    <row r="64" spans="6:22" x14ac:dyDescent="0.25">
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="12:21">
+    <row r="65" spans="12:21" x14ac:dyDescent="0.25">
       <c r="L65" t="s">
         <v>211</v>
       </c>
@@ -4922,16 +4970,16 @@
         <v>170</v>
       </c>
     </row>
-    <row r="66" spans="12:21">
+    <row r="66" spans="12:21" x14ac:dyDescent="0.25">
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="12:21">
+    <row r="67" spans="12:21" x14ac:dyDescent="0.25">
       <c r="L67">
         <v>8400</v>
       </c>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="12:21">
+    <row r="68" spans="12:21" x14ac:dyDescent="0.25">
       <c r="O68" s="3"/>
     </row>
   </sheetData>
@@ -4941,16 +4989,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:X208"/>
   <sheetViews>
     <sheetView topLeftCell="E111" workbookViewId="0">
       <selection activeCell="R133" sqref="R133"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:24">
+    <row r="1" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
@@ -4975,7 +5023,7 @@
       <c r="W1" s="17"/>
       <c r="X1" s="17"/>
     </row>
-    <row r="2" spans="2:24">
+    <row r="2" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
@@ -5002,7 +5050,7 @@
       <c r="W2" s="56"/>
       <c r="X2" s="17"/>
     </row>
-    <row r="3" spans="2:24">
+    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
@@ -5021,13 +5069,13 @@
       <c r="Q3" s="17"/>
       <c r="R3" s="17"/>
       <c r="S3" s="17"/>
-      <c r="T3" s="63"/>
-      <c r="U3" s="63"/>
-      <c r="V3" s="63"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="59"/>
       <c r="W3" s="17"/>
       <c r="X3" s="17"/>
     </row>
-    <row r="4" spans="2:24">
+    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B4" s="17"/>
       <c r="S4" t="s">
         <v>249</v>
@@ -5039,15 +5087,15 @@
       <c r="V4" s="56"/>
       <c r="X4" s="17"/>
     </row>
-    <row r="5" spans="2:24">
+    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B5" s="17"/>
       <c r="X5" s="17"/>
     </row>
-    <row r="6" spans="2:24">
+    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B6" s="17"/>
       <c r="X6" s="17"/>
     </row>
-    <row r="7" spans="2:24">
+    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B7" s="17"/>
       <c r="R7" t="s">
         <v>335</v>
@@ -5058,11 +5106,11 @@
       <c r="U7" s="56"/>
       <c r="X7" s="17"/>
     </row>
-    <row r="8" spans="2:24">
+    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B8" s="17"/>
       <c r="X8" s="17"/>
     </row>
-    <row r="9" spans="2:24">
+    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B9" s="17"/>
       <c r="L9" t="s">
         <v>240</v>
@@ -5080,7 +5128,7 @@
       <c r="U9" s="56"/>
       <c r="X9" s="17"/>
     </row>
-    <row r="10" spans="2:24">
+    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B10" s="17"/>
       <c r="L10" t="s">
         <v>241</v>
@@ -5090,7 +5138,7 @@
       </c>
       <c r="X10" s="17"/>
     </row>
-    <row r="11" spans="2:24">
+    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B11" s="17"/>
       <c r="L11" t="s">
         <v>242</v>
@@ -5115,7 +5163,7 @@
       </c>
       <c r="X11" s="17"/>
     </row>
-    <row r="12" spans="2:24">
+    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B12" s="17"/>
       <c r="K12" t="s">
         <v>243</v>
@@ -5134,18 +5182,18 @@
       </c>
       <c r="X12" s="17"/>
     </row>
-    <row r="13" spans="2:24">
+    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B13" s="17"/>
       <c r="X13" s="17"/>
     </row>
-    <row r="14" spans="2:24">
+    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B14" s="17"/>
       <c r="V14" s="3">
         <v>17890</v>
       </c>
       <c r="X14" s="17"/>
     </row>
-    <row r="15" spans="2:24">
+    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B15" s="17"/>
       <c r="V15">
         <v>9380</v>
@@ -5155,7 +5203,7 @@
       </c>
       <c r="X15" s="17"/>
     </row>
-    <row r="16" spans="2:24">
+    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B16" s="17"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -5166,7 +5214,7 @@
       <c r="W16" s="5"/>
       <c r="X16" s="17"/>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B17" s="17"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -5177,7 +5225,7 @@
       </c>
       <c r="X17" s="17"/>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B18" s="17"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -5197,7 +5245,7 @@
       </c>
       <c r="X18" s="17"/>
     </row>
-    <row r="19" spans="1:24">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B19" s="17"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -5208,7 +5256,7 @@
       </c>
       <c r="X19" s="17"/>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B20" s="17"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -5224,7 +5272,7 @@
       </c>
       <c r="X20" s="17"/>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B21" s="17"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -5234,7 +5282,7 @@
       <c r="L21" s="3"/>
       <c r="X21" s="17"/>
     </row>
-    <row r="22" spans="1:24">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B22" s="17"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -5244,7 +5292,7 @@
       <c r="L22" s="3"/>
       <c r="X22" s="17"/>
     </row>
-    <row r="23" spans="1:24">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B23" s="17"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -5254,7 +5302,7 @@
       <c r="L23" s="3"/>
       <c r="X23" s="17"/>
     </row>
-    <row r="24" spans="1:24">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B24" s="17"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -5264,18 +5312,18 @@
       <c r="L24" s="3"/>
       <c r="X24" s="17"/>
     </row>
-    <row r="25" spans="1:24">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B25" s="17"/>
       <c r="R25" s="10">
         <v>44013</v>
       </c>
       <c r="X25" s="17"/>
     </row>
-    <row r="26" spans="1:24">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B26" s="17"/>
       <c r="X26" s="17"/>
     </row>
-    <row r="27" spans="1:24">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="17"/>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
@@ -5301,7 +5349,7 @@
       <c r="W27" s="17"/>
       <c r="X27" s="17"/>
     </row>
-    <row r="28" spans="1:24">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="17"/>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
@@ -5327,7 +5375,7 @@
       <c r="W28" s="17"/>
       <c r="X28" s="17"/>
     </row>
-    <row r="29" spans="1:24">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="17"/>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
@@ -5353,7 +5401,7 @@
       <c r="W29" s="17"/>
       <c r="X29" s="17"/>
     </row>
-    <row r="30" spans="1:24">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
@@ -5379,7 +5427,7 @@
       <c r="U30" s="17"/>
       <c r="V30" s="17"/>
     </row>
-    <row r="31" spans="1:24">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="17"/>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
@@ -5403,18 +5451,18 @@
       <c r="U31" s="17"/>
       <c r="V31" s="17"/>
     </row>
-    <row r="32" spans="1:24">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="17"/>
       <c r="I32" t="s">
         <v>253</v>
       </c>
       <c r="V32" s="17"/>
     </row>
-    <row r="33" spans="1:22">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="17"/>
       <c r="V33" s="17"/>
     </row>
-    <row r="34" spans="1:22">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="17"/>
       <c r="B34" t="s">
         <v>174</v>
@@ -5447,7 +5495,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="35" spans="1:22">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="17"/>
       <c r="B35" t="s">
         <v>174</v>
@@ -5478,7 +5526,7 @@
       </c>
       <c r="V35" s="16"/>
     </row>
-    <row r="36" spans="1:22">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="17"/>
       <c r="B36" t="s">
         <v>174</v>
@@ -5500,11 +5548,11 @@
       </c>
       <c r="V36" s="16"/>
     </row>
-    <row r="37" spans="1:22">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="17"/>
       <c r="V37" s="16"/>
     </row>
-    <row r="38" spans="1:22">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="17"/>
       <c r="C38" t="s">
         <v>254</v>
@@ -5525,7 +5573,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="39" spans="1:22">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="17"/>
       <c r="K39">
         <v>250</v>
@@ -5544,7 +5592,7 @@
       </c>
       <c r="V39" s="16"/>
     </row>
-    <row r="40" spans="1:22">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="17"/>
       <c r="B40" t="s">
         <v>333</v>
@@ -5554,11 +5602,11 @@
       </c>
       <c r="V40" s="16"/>
     </row>
-    <row r="41" spans="1:22">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="17"/>
       <c r="V41" s="16"/>
     </row>
-    <row r="42" spans="1:22">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="17"/>
       <c r="G42" t="s">
         <v>346</v>
@@ -5574,13 +5622,13 @@
       </c>
       <c r="V42" s="16"/>
     </row>
-    <row r="43" spans="1:22">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="17"/>
       <c r="V43" s="16" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="44" spans="1:22">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="17"/>
       <c r="I44" t="s">
         <v>269</v>
@@ -5599,7 +5647,7 @@
       </c>
       <c r="V44" s="17"/>
     </row>
-    <row r="45" spans="1:22">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="17"/>
       <c r="Q45" t="s">
         <v>174</v>
@@ -5612,19 +5660,19 @@
       </c>
       <c r="V45" s="17"/>
     </row>
-    <row r="46" spans="1:22">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="17"/>
       <c r="F46" s="26"/>
       <c r="G46" s="27"/>
       <c r="H46" s="27"/>
-      <c r="I46" s="60" t="s">
+      <c r="I46" s="57" t="s">
         <v>256</v>
       </c>
-      <c r="J46" s="60"/>
-      <c r="K46" s="61"/>
+      <c r="J46" s="57"/>
+      <c r="K46" s="58"/>
       <c r="V46" s="17"/>
     </row>
-    <row r="47" spans="1:22">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="17"/>
       <c r="F47" s="28"/>
       <c r="G47" s="19"/>
@@ -5634,7 +5682,7 @@
       <c r="K47" s="29"/>
       <c r="V47" s="17"/>
     </row>
-    <row r="48" spans="1:22">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="17"/>
       <c r="F48" s="28"/>
       <c r="G48" s="19" t="s">
@@ -5650,7 +5698,7 @@
       </c>
       <c r="V48" s="17"/>
     </row>
-    <row r="49" spans="1:22">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="17"/>
       <c r="F49" s="28"/>
       <c r="G49" s="19" t="s">
@@ -5666,7 +5714,7 @@
       </c>
       <c r="V49" s="17"/>
     </row>
-    <row r="50" spans="1:22">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="17"/>
       <c r="F50" s="30"/>
       <c r="G50" s="20" t="s">
@@ -5682,7 +5730,7 @@
       </c>
       <c r="V50" s="17"/>
     </row>
-    <row r="51" spans="1:22">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="17"/>
       <c r="R51" s="33" t="s">
         <v>329</v>
@@ -5691,7 +5739,7 @@
       <c r="T51" s="33"/>
       <c r="U51" s="33"/>
     </row>
-    <row r="52" spans="1:22">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="17"/>
       <c r="Q52" s="56" t="s">
         <v>330</v>
@@ -5702,7 +5750,7 @@
       <c r="U52" s="56"/>
       <c r="V52" s="56"/>
     </row>
-    <row r="53" spans="1:22">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="17"/>
       <c r="Q53" s="56" t="s">
         <v>331</v>
@@ -5713,20 +5761,20 @@
       <c r="U53" s="56"/>
       <c r="V53" s="17"/>
     </row>
-    <row r="54" spans="1:22">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="17"/>
       <c r="F54" s="21"/>
       <c r="V54" s="17"/>
     </row>
-    <row r="55" spans="1:22">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="17"/>
       <c r="V55" s="17"/>
     </row>
-    <row r="56" spans="1:22">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" s="17"/>
       <c r="V56" s="17"/>
     </row>
-    <row r="57" spans="1:22">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" s="17"/>
       <c r="F57" s="21"/>
       <c r="G57" s="21"/>
@@ -5740,7 +5788,7 @@
       <c r="M57" s="21"/>
       <c r="V57" s="17"/>
     </row>
-    <row r="58" spans="1:22">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" s="17"/>
       <c r="F58" s="21"/>
       <c r="G58" s="21"/>
@@ -5752,7 +5800,7 @@
       <c r="M58" s="21"/>
       <c r="V58" s="17"/>
     </row>
-    <row r="59" spans="1:22">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" s="17"/>
       <c r="F59" s="21"/>
       <c r="G59" s="21"/>
@@ -5772,7 +5820,7 @@
       <c r="U59" s="18"/>
       <c r="V59" s="17"/>
     </row>
-    <row r="60" spans="1:22">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" s="17"/>
       <c r="F60" s="21"/>
       <c r="G60" s="21"/>
@@ -5796,7 +5844,7 @@
       <c r="U60" s="18"/>
       <c r="V60" s="17"/>
     </row>
-    <row r="61" spans="1:22">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61" s="17"/>
       <c r="F61" s="21"/>
       <c r="G61" s="21"/>
@@ -5820,7 +5868,7 @@
       <c r="U61" s="18"/>
       <c r="V61" s="17"/>
     </row>
-    <row r="62" spans="1:22">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62" s="17"/>
       <c r="F62" s="21"/>
       <c r="G62" s="21"/>
@@ -5844,7 +5892,7 @@
       <c r="U62" s="18"/>
       <c r="V62" s="17"/>
     </row>
-    <row r="63" spans="1:22">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" s="17"/>
       <c r="F63" s="21"/>
       <c r="G63" s="21"/>
@@ -5864,7 +5912,7 @@
       <c r="U63" s="18"/>
       <c r="V63" s="17"/>
     </row>
-    <row r="64" spans="1:22">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64" s="17"/>
       <c r="F64" s="21"/>
       <c r="G64" s="21"/>
@@ -5886,7 +5934,7 @@
       <c r="U64" s="18"/>
       <c r="V64" s="17"/>
     </row>
-    <row r="65" spans="1:22">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" s="17"/>
       <c r="F65" s="21"/>
       <c r="G65" s="21"/>
@@ -5904,7 +5952,7 @@
       <c r="U65" s="18"/>
       <c r="V65" s="17"/>
     </row>
-    <row r="66" spans="1:22">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" s="17"/>
       <c r="F66" s="21"/>
       <c r="G66" s="21"/>
@@ -5924,7 +5972,7 @@
       <c r="U66" s="18"/>
       <c r="V66" s="17"/>
     </row>
-    <row r="67" spans="1:22">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" s="17"/>
       <c r="F67" s="21"/>
       <c r="G67" s="21"/>
@@ -5946,7 +5994,7 @@
       <c r="U67" s="18"/>
       <c r="V67" s="17"/>
     </row>
-    <row r="68" spans="1:22">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" s="17"/>
       <c r="F68" s="21"/>
       <c r="G68" s="21"/>
@@ -5964,7 +6012,7 @@
       <c r="U68" s="18"/>
       <c r="V68" s="17"/>
     </row>
-    <row r="69" spans="1:22">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69" s="17"/>
       <c r="F69" s="21"/>
       <c r="G69" s="21"/>
@@ -5984,7 +6032,7 @@
       <c r="U69" s="18"/>
       <c r="V69" s="17"/>
     </row>
-    <row r="70" spans="1:22">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70" s="17"/>
       <c r="E70" t="s">
         <v>294</v>
@@ -6009,7 +6057,7 @@
       <c r="U70" s="18"/>
       <c r="V70" s="17"/>
     </row>
-    <row r="71" spans="1:22">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71" s="17"/>
       <c r="F71" s="21"/>
       <c r="G71" s="21"/>
@@ -6027,7 +6075,7 @@
       <c r="U71" s="18"/>
       <c r="V71" s="17"/>
     </row>
-    <row r="72" spans="1:22">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" s="17"/>
       <c r="F72" s="21"/>
       <c r="G72" s="21"/>
@@ -6043,7 +6091,7 @@
       <c r="M72" s="21"/>
       <c r="V72" s="17"/>
     </row>
-    <row r="73" spans="1:22">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73" s="17"/>
       <c r="F73" s="21"/>
       <c r="G73" s="21"/>
@@ -6055,11 +6103,11 @@
       <c r="M73" s="21"/>
       <c r="V73" s="17"/>
     </row>
-    <row r="74" spans="1:22">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" s="17"/>
       <c r="V74" s="17"/>
     </row>
-    <row r="75" spans="1:22">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B75" s="17"/>
       <c r="C75" s="17"/>
       <c r="D75" s="17"/>
@@ -6082,7 +6130,7 @@
       <c r="U75" s="17"/>
       <c r="V75" s="17"/>
     </row>
-    <row r="76" spans="1:22">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B76" s="17"/>
       <c r="C76" s="17"/>
       <c r="D76" s="17"/>
@@ -6105,7 +6153,7 @@
       <c r="U76" s="17"/>
       <c r="V76" s="17"/>
     </row>
-    <row r="77" spans="1:22">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B77" s="17"/>
       <c r="J77" s="17"/>
       <c r="K77" s="17"/>
@@ -6117,7 +6165,7 @@
       <c r="U77" s="17"/>
       <c r="V77" s="17"/>
     </row>
-    <row r="78" spans="1:22">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B78" s="17"/>
       <c r="J78" s="17"/>
       <c r="K78" s="56" t="s">
@@ -6133,7 +6181,7 @@
       <c r="U78" s="56"/>
       <c r="V78" s="17"/>
     </row>
-    <row r="79" spans="1:22">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B79" s="17"/>
       <c r="J79" s="17"/>
       <c r="K79" s="17"/>
@@ -6145,7 +6193,7 @@
       <c r="U79" s="17"/>
       <c r="V79" s="17"/>
     </row>
-    <row r="80" spans="1:22">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B80" s="17"/>
       <c r="K80">
         <v>91000</v>
@@ -6161,7 +6209,7 @@
       </c>
       <c r="V80" s="17"/>
     </row>
-    <row r="81" spans="2:22">
+    <row r="81" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B81" s="17"/>
       <c r="K81">
         <v>7930</v>
@@ -6177,7 +6225,7 @@
       </c>
       <c r="V81" s="17"/>
     </row>
-    <row r="82" spans="2:22">
+    <row r="82" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B82" s="17"/>
       <c r="K82">
         <v>27760</v>
@@ -6193,7 +6241,7 @@
       </c>
       <c r="V82" s="17"/>
     </row>
-    <row r="83" spans="2:22">
+    <row r="83" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B83" s="17"/>
       <c r="K83">
         <v>39650</v>
@@ -6209,7 +6257,7 @@
       </c>
       <c r="V83" s="17"/>
     </row>
-    <row r="84" spans="2:22">
+    <row r="84" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B84" s="17"/>
       <c r="K84">
         <v>4785</v>
@@ -6225,7 +6273,7 @@
       </c>
       <c r="V84" s="17"/>
     </row>
-    <row r="85" spans="2:22">
+    <row r="85" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B85" s="17"/>
       <c r="K85">
         <v>17470</v>
@@ -6241,7 +6289,7 @@
       </c>
       <c r="V85" s="17"/>
     </row>
-    <row r="86" spans="2:22">
+    <row r="86" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B86" s="17"/>
       <c r="K86">
         <v>600</v>
@@ -6251,15 +6299,15 @@
       </c>
       <c r="V86" s="17"/>
     </row>
-    <row r="87" spans="2:22">
+    <row r="87" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B87" s="17"/>
       <c r="V87" s="17"/>
     </row>
-    <row r="88" spans="2:22">
+    <row r="88" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B88" s="17"/>
       <c r="V88" s="17"/>
     </row>
-    <row r="89" spans="2:22">
+    <row r="89" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B89" s="17"/>
       <c r="K89">
         <v>189195</v>
@@ -6272,7 +6320,7 @@
       </c>
       <c r="V89" s="17"/>
     </row>
-    <row r="90" spans="2:22">
+    <row r="90" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B90" s="17"/>
       <c r="T90">
         <v>200</v>
@@ -6282,22 +6330,22 @@
       </c>
       <c r="V90" s="17"/>
     </row>
-    <row r="91" spans="2:22">
+    <row r="91" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B91" s="17"/>
       <c r="V91" s="17"/>
     </row>
-    <row r="92" spans="2:22">
+    <row r="92" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B92" s="17"/>
       <c r="V92" s="17"/>
     </row>
-    <row r="93" spans="2:22">
+    <row r="93" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B93" s="17"/>
       <c r="U93" t="s">
         <v>282</v>
       </c>
       <c r="V93" s="17"/>
     </row>
-    <row r="94" spans="2:22">
+    <row r="94" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B94" s="17"/>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
@@ -6311,7 +6359,7 @@
       </c>
       <c r="V94" s="17"/>
     </row>
-    <row r="95" spans="2:22">
+    <row r="95" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B95" s="17"/>
       <c r="S95" t="s">
         <v>287</v>
@@ -6324,7 +6372,7 @@
       </c>
       <c r="V95" s="17"/>
     </row>
-    <row r="96" spans="2:22">
+    <row r="96" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B96" s="17"/>
       <c r="S96" t="s">
         <v>288</v>
@@ -6337,7 +6385,7 @@
       </c>
       <c r="V96" s="17"/>
     </row>
-    <row r="97" spans="2:22">
+    <row r="97" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B97" s="17"/>
       <c r="S97" t="s">
         <v>148</v>
@@ -6350,14 +6398,14 @@
       </c>
       <c r="V97" s="17"/>
     </row>
-    <row r="98" spans="2:22" ht="15" thickBot="1">
+    <row r="98" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B98" s="17"/>
       <c r="T98">
         <v>185350</v>
       </c>
       <c r="V98" s="17"/>
     </row>
-    <row r="99" spans="2:22" ht="15.6" thickTop="1" thickBot="1">
+    <row r="99" spans="2:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B99" s="17"/>
       <c r="J99" t="s">
         <v>293</v>
@@ -6379,15 +6427,15 @@
       </c>
       <c r="V99" s="17"/>
     </row>
-    <row r="100" spans="2:22" ht="15" thickTop="1">
+    <row r="100" spans="2:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B100" s="17"/>
       <c r="V100" s="17"/>
     </row>
-    <row r="101" spans="2:22">
+    <row r="101" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B101" s="17"/>
       <c r="V101" s="17"/>
     </row>
-    <row r="102" spans="2:22">
+    <row r="102" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B102" s="17"/>
       <c r="C102" s="17"/>
       <c r="D102" s="17"/>
@@ -6410,7 +6458,7 @@
       <c r="U102" s="17"/>
       <c r="V102" s="17"/>
     </row>
-    <row r="103" spans="2:22">
+    <row r="103" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B103" s="17"/>
       <c r="C103" s="17"/>
       <c r="D103" s="17"/>
@@ -6433,7 +6481,7 @@
       <c r="U103" s="17"/>
       <c r="V103" s="17"/>
     </row>
-    <row r="104" spans="2:22">
+    <row r="104" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B104" s="17"/>
       <c r="R104" s="17"/>
       <c r="S104" s="17"/>
@@ -6441,7 +6489,7 @@
       <c r="U104" s="17"/>
       <c r="V104" s="17"/>
     </row>
-    <row r="105" spans="2:22">
+    <row r="105" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B105" s="17"/>
       <c r="R105" s="17"/>
       <c r="S105" s="55" t="s">
@@ -6451,7 +6499,7 @@
       <c r="U105" s="17"/>
       <c r="V105" s="17"/>
     </row>
-    <row r="106" spans="2:22">
+    <row r="106" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B106" s="17"/>
       <c r="R106" s="17"/>
       <c r="S106" s="17"/>
@@ -6459,29 +6507,29 @@
       <c r="U106" s="17"/>
       <c r="V106" s="17"/>
     </row>
-    <row r="107" spans="2:22">
+    <row r="107" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B107" s="17"/>
       <c r="V107" s="17"/>
     </row>
-    <row r="108" spans="2:22">
+    <row r="108" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B108" s="17"/>
       <c r="V108" s="17"/>
     </row>
-    <row r="109" spans="2:22">
+    <row r="109" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B109" s="17"/>
       <c r="S109" s="56"/>
       <c r="T109" s="56"/>
       <c r="U109" s="56"/>
       <c r="V109" s="17"/>
     </row>
-    <row r="110" spans="2:22">
+    <row r="110" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B110" s="17"/>
       <c r="Q110" s="6"/>
       <c r="S110" s="37"/>
       <c r="U110" s="3"/>
       <c r="V110" s="17"/>
     </row>
-    <row r="111" spans="2:22">
+    <row r="111" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B111" s="17"/>
       <c r="E111" s="9"/>
       <c r="Q111" s="6"/>
@@ -6489,7 +6537,7 @@
       <c r="U111" s="3"/>
       <c r="V111" s="17"/>
     </row>
-    <row r="112" spans="2:22">
+    <row r="112" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B112" s="17"/>
       <c r="E112" s="9"/>
       <c r="Q112" s="6"/>
@@ -6497,7 +6545,7 @@
       <c r="U112" s="3"/>
       <c r="V112" s="17"/>
     </row>
-    <row r="113" spans="2:22">
+    <row r="113" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B113" s="17"/>
       <c r="E113" s="9"/>
       <c r="Q113" s="6"/>
@@ -6505,7 +6553,7 @@
       <c r="U113" s="3"/>
       <c r="V113" s="17"/>
     </row>
-    <row r="114" spans="2:22">
+    <row r="114" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B114" s="17"/>
       <c r="E114" s="9"/>
       <c r="Q114" s="6"/>
@@ -6513,7 +6561,7 @@
       <c r="U114" s="3"/>
       <c r="V114" s="17"/>
     </row>
-    <row r="115" spans="2:22">
+    <row r="115" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B115" s="17"/>
       <c r="E115" s="9"/>
       <c r="Q115" s="6"/>
@@ -6521,7 +6569,7 @@
       <c r="U115" s="3"/>
       <c r="V115" s="17"/>
     </row>
-    <row r="116" spans="2:22">
+    <row r="116" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B116" s="17"/>
       <c r="E116" s="9"/>
       <c r="Q116" s="6"/>
@@ -6529,7 +6577,7 @@
       <c r="U116" s="3"/>
       <c r="V116" s="17"/>
     </row>
-    <row r="117" spans="2:22">
+    <row r="117" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B117" s="17"/>
       <c r="E117" s="9"/>
       <c r="Q117" s="6"/>
@@ -6537,7 +6585,7 @@
       <c r="U117" s="3"/>
       <c r="V117" s="17"/>
     </row>
-    <row r="118" spans="2:22">
+    <row r="118" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B118" s="17"/>
       <c r="E118" s="9"/>
       <c r="Q118" s="6"/>
@@ -6545,7 +6593,7 @@
       <c r="U118" s="3"/>
       <c r="V118" s="17"/>
     </row>
-    <row r="119" spans="2:22">
+    <row r="119" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B119" s="17"/>
       <c r="E119" s="9"/>
       <c r="Q119" s="6"/>
@@ -6553,7 +6601,7 @@
       <c r="U119" s="3"/>
       <c r="V119" s="17"/>
     </row>
-    <row r="120" spans="2:22">
+    <row r="120" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B120" s="17"/>
       <c r="E120" s="9"/>
       <c r="Q120" s="6"/>
@@ -6561,7 +6609,7 @@
       <c r="U120" s="3"/>
       <c r="V120" s="17"/>
     </row>
-    <row r="121" spans="2:22">
+    <row r="121" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B121" s="17"/>
       <c r="E121" s="9"/>
       <c r="Q121" s="6"/>
@@ -6569,7 +6617,7 @@
       <c r="U121" s="3"/>
       <c r="V121" s="17"/>
     </row>
-    <row r="122" spans="2:22">
+    <row r="122" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B122" s="17"/>
       <c r="E122" s="9"/>
       <c r="Q122" s="6"/>
@@ -6577,7 +6625,7 @@
       <c r="U122" s="3"/>
       <c r="V122" s="17"/>
     </row>
-    <row r="123" spans="2:22">
+    <row r="123" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B123" s="17"/>
       <c r="E123" s="9"/>
       <c r="Q123" s="6"/>
@@ -6585,7 +6633,7 @@
       <c r="U123" s="3"/>
       <c r="V123" s="17"/>
     </row>
-    <row r="124" spans="2:22">
+    <row r="124" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B124" s="17"/>
       <c r="E124" s="9"/>
       <c r="Q124" s="6"/>
@@ -6593,7 +6641,7 @@
       <c r="U124" s="3"/>
       <c r="V124" s="17"/>
     </row>
-    <row r="125" spans="2:22">
+    <row r="125" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B125" s="17"/>
       <c r="E125" s="9"/>
       <c r="Q125" s="6"/>
@@ -6601,7 +6649,7 @@
       <c r="U125" s="3"/>
       <c r="V125" s="17"/>
     </row>
-    <row r="126" spans="2:22">
+    <row r="126" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B126" s="17"/>
       <c r="E126" s="9"/>
       <c r="Q126" s="6"/>
@@ -6609,7 +6657,7 @@
       <c r="U126" s="3"/>
       <c r="V126" s="17"/>
     </row>
-    <row r="127" spans="2:22">
+    <row r="127" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B127" s="17"/>
       <c r="E127" s="9"/>
       <c r="Q127" s="6"/>
@@ -6617,7 +6665,7 @@
       <c r="U127" s="3"/>
       <c r="V127" s="17"/>
     </row>
-    <row r="128" spans="2:22">
+    <row r="128" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B128" s="17"/>
       <c r="E128" s="9"/>
       <c r="Q128" s="6"/>
@@ -6625,141 +6673,141 @@
       <c r="U128" s="3"/>
       <c r="V128" s="17"/>
     </row>
-    <row r="129" spans="2:22">
+    <row r="129" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B129" s="17"/>
       <c r="E129" s="9"/>
       <c r="V129" s="17"/>
     </row>
-    <row r="130" spans="2:22">
+    <row r="130" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B130" s="17"/>
       <c r="V130" s="17"/>
     </row>
-    <row r="131" spans="2:22">
+    <row r="131" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B131" s="17"/>
       <c r="V131" s="17"/>
     </row>
-    <row r="132" spans="2:22">
+    <row r="132" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B132" s="17"/>
       <c r="V132" s="17"/>
     </row>
-    <row r="133" spans="2:22">
+    <row r="133" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B133" s="17"/>
       <c r="V133" s="17"/>
     </row>
-    <row r="134" spans="2:22">
+    <row r="134" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B134" s="17"/>
       <c r="V134" s="17"/>
     </row>
-    <row r="135" spans="2:22">
+    <row r="135" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B135" s="17"/>
       <c r="V135" s="17"/>
     </row>
-    <row r="136" spans="2:22">
+    <row r="136" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B136" s="17"/>
       <c r="R136" t="s">
         <v>385</v>
       </c>
       <c r="V136" s="17"/>
     </row>
-    <row r="137" spans="2:22">
+    <row r="137" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B137" s="17"/>
       <c r="V137" s="17"/>
     </row>
-    <row r="138" spans="2:22">
+    <row r="138" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B138" s="17"/>
       <c r="V138" s="17"/>
     </row>
-    <row r="139" spans="2:22">
+    <row r="139" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B139" s="17"/>
       <c r="V139" s="17"/>
     </row>
-    <row r="140" spans="2:22">
+    <row r="140" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B140" s="17"/>
       <c r="V140" s="17"/>
     </row>
-    <row r="141" spans="2:22">
+    <row r="141" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B141" s="17"/>
       <c r="V141" s="17"/>
     </row>
-    <row r="142" spans="2:22">
+    <row r="142" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B142" s="17"/>
       <c r="V142" s="17"/>
     </row>
-    <row r="143" spans="2:22">
+    <row r="143" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B143" s="17"/>
       <c r="V143" s="17"/>
     </row>
-    <row r="144" spans="2:22">
+    <row r="144" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B144" s="17"/>
       <c r="V144" s="17"/>
     </row>
-    <row r="145" spans="2:22">
+    <row r="145" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B145" s="17"/>
       <c r="V145" s="17"/>
     </row>
-    <row r="146" spans="2:22">
+    <row r="146" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B146" s="17"/>
       <c r="V146" s="17"/>
     </row>
-    <row r="147" spans="2:22">
+    <row r="147" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B147" s="17"/>
       <c r="V147" s="17"/>
     </row>
-    <row r="148" spans="2:22">
+    <row r="148" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B148" s="17"/>
       <c r="V148" s="17"/>
     </row>
-    <row r="149" spans="2:22">
+    <row r="149" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B149" s="17"/>
       <c r="V149" s="17"/>
     </row>
-    <row r="150" spans="2:22">
+    <row r="150" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B150" s="17"/>
       <c r="V150" s="17"/>
     </row>
-    <row r="151" spans="2:22">
+    <row r="151" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B151" s="17"/>
       <c r="V151" s="17"/>
     </row>
-    <row r="152" spans="2:22">
+    <row r="152" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B152" s="17"/>
       <c r="V152" s="17"/>
     </row>
-    <row r="153" spans="2:22">
+    <row r="153" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B153" s="17"/>
       <c r="V153" s="17"/>
     </row>
-    <row r="154" spans="2:22">
+    <row r="154" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B154" s="17"/>
-      <c r="E154" s="59" t="s">
+      <c r="E154" s="62" t="s">
         <v>297</v>
       </c>
-      <c r="F154" s="60"/>
-      <c r="G154" s="60"/>
-      <c r="H154" s="60"/>
-      <c r="I154" s="60"/>
-      <c r="J154" s="60"/>
-      <c r="K154" s="61"/>
+      <c r="F154" s="57"/>
+      <c r="G154" s="57"/>
+      <c r="H154" s="57"/>
+      <c r="I154" s="57"/>
+      <c r="J154" s="57"/>
+      <c r="K154" s="58"/>
       <c r="Q154" s="5" t="s">
         <v>304</v>
       </c>
       <c r="V154" s="17"/>
     </row>
-    <row r="155" spans="2:22">
+    <row r="155" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B155" s="17"/>
-      <c r="E155" s="62"/>
-      <c r="F155" s="57"/>
-      <c r="G155" s="57"/>
-      <c r="H155" s="57"/>
-      <c r="I155" s="57"/>
-      <c r="J155" s="57"/>
-      <c r="K155" s="58"/>
+      <c r="E155" s="63"/>
+      <c r="F155" s="60"/>
+      <c r="G155" s="60"/>
+      <c r="H155" s="60"/>
+      <c r="I155" s="60"/>
+      <c r="J155" s="60"/>
+      <c r="K155" s="61"/>
       <c r="Q155" s="5" t="s">
         <v>305</v>
       </c>
       <c r="V155" s="17"/>
     </row>
-    <row r="156" spans="2:22">
+    <row r="156" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B156" s="17"/>
       <c r="E156" s="28"/>
       <c r="F156" s="19"/>
@@ -6784,7 +6832,7 @@
       </c>
       <c r="V156" s="17"/>
     </row>
-    <row r="157" spans="2:22">
+    <row r="157" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B157" s="17"/>
       <c r="E157" s="28"/>
       <c r="F157" s="19"/>
@@ -6805,7 +6853,7 @@
       </c>
       <c r="V157" s="17"/>
     </row>
-    <row r="158" spans="2:22">
+    <row r="158" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B158" s="17"/>
       <c r="E158" s="28"/>
       <c r="F158" s="19"/>
@@ -6813,11 +6861,11 @@
         <v>313</v>
       </c>
       <c r="H158" s="19"/>
-      <c r="I158" s="57" t="s">
+      <c r="I158" s="60" t="s">
         <v>321</v>
       </c>
-      <c r="J158" s="57"/>
-      <c r="K158" s="58"/>
+      <c r="J158" s="60"/>
+      <c r="K158" s="61"/>
       <c r="R158">
         <v>200</v>
       </c>
@@ -6826,7 +6874,7 @@
       </c>
       <c r="V158" s="17"/>
     </row>
-    <row r="159" spans="2:22">
+    <row r="159" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B159" s="17"/>
       <c r="E159" s="28"/>
       <c r="F159" s="19"/>
@@ -6845,7 +6893,7 @@
       </c>
       <c r="V159" s="17"/>
     </row>
-    <row r="160" spans="2:22">
+    <row r="160" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B160" s="17"/>
       <c r="E160" s="28"/>
       <c r="F160" s="19"/>
@@ -6862,7 +6910,7 @@
       </c>
       <c r="V160" s="17"/>
     </row>
-    <row r="161" spans="2:22">
+    <row r="161" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B161" s="17"/>
       <c r="E161" s="28"/>
       <c r="F161" s="19"/>
@@ -6879,7 +6927,7 @@
       </c>
       <c r="V161" s="17"/>
     </row>
-    <row r="162" spans="2:22">
+    <row r="162" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B162" s="17"/>
       <c r="E162" s="28"/>
       <c r="F162" s="19"/>
@@ -6887,14 +6935,14 @@
         <v>313</v>
       </c>
       <c r="H162" s="19"/>
-      <c r="I162" s="57" t="s">
+      <c r="I162" s="60" t="s">
         <v>323</v>
       </c>
-      <c r="J162" s="57"/>
-      <c r="K162" s="58"/>
+      <c r="J162" s="60"/>
+      <c r="K162" s="61"/>
       <c r="V162" s="17"/>
     </row>
-    <row r="163" spans="2:22">
+    <row r="163" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B163" s="17"/>
       <c r="E163" s="28"/>
       <c r="F163" s="19"/>
@@ -6910,7 +6958,7 @@
       </c>
       <c r="V163" s="17"/>
     </row>
-    <row r="164" spans="2:22">
+    <row r="164" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B164" s="17"/>
       <c r="E164" s="28"/>
       <c r="F164" s="38"/>
@@ -6929,7 +6977,7 @@
       </c>
       <c r="V164" s="17"/>
     </row>
-    <row r="165" spans="2:22">
+    <row r="165" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B165" s="17"/>
       <c r="E165" s="28"/>
       <c r="F165" s="19"/>
@@ -6940,7 +6988,7 @@
       <c r="K165" s="29"/>
       <c r="V165" s="17"/>
     </row>
-    <row r="166" spans="2:22">
+    <row r="166" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B166" s="17"/>
       <c r="E166" s="28"/>
       <c r="F166" s="19"/>
@@ -6957,7 +7005,7 @@
       </c>
       <c r="V166" s="17"/>
     </row>
-    <row r="167" spans="2:22">
+    <row r="167" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B167" s="17"/>
       <c r="E167" s="28"/>
       <c r="F167" s="19"/>
@@ -6974,7 +7022,7 @@
       </c>
       <c r="V167" s="17"/>
     </row>
-    <row r="168" spans="2:22">
+    <row r="168" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B168" s="17"/>
       <c r="E168" s="28"/>
       <c r="F168" s="19"/>
@@ -6991,7 +7039,7 @@
       </c>
       <c r="V168" s="17"/>
     </row>
-    <row r="169" spans="2:22">
+    <row r="169" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B169" s="17"/>
       <c r="E169" s="28"/>
       <c r="F169" s="19"/>
@@ -7002,7 +7050,7 @@
       <c r="K169" s="29"/>
       <c r="V169" s="17"/>
     </row>
-    <row r="170" spans="2:22">
+    <row r="170" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B170" s="17"/>
       <c r="E170" s="30"/>
       <c r="F170" s="20"/>
@@ -7013,11 +7061,11 @@
       <c r="K170" s="31"/>
       <c r="V170" s="17"/>
     </row>
-    <row r="171" spans="2:22">
+    <row r="171" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B171" s="17"/>
       <c r="V171" s="17"/>
     </row>
-    <row r="172" spans="2:22">
+    <row r="172" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B172" s="17"/>
       <c r="C172" s="17"/>
       <c r="D172" s="17"/>
@@ -7040,7 +7088,7 @@
       <c r="U172" s="17"/>
       <c r="V172" s="17"/>
     </row>
-    <row r="173" spans="2:22">
+    <row r="173" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B173" s="17"/>
       <c r="C173" s="17"/>
       <c r="D173" s="17"/>
@@ -7063,17 +7111,17 @@
       <c r="U173" s="17"/>
       <c r="V173" s="17"/>
     </row>
-    <row r="174" spans="2:22">
+    <row r="174" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B174" s="17"/>
       <c r="L174" s="32"/>
       <c r="V174" s="17"/>
     </row>
-    <row r="175" spans="2:22">
+    <row r="175" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B175" s="17"/>
       <c r="L175" s="32"/>
       <c r="V175" s="17"/>
     </row>
-    <row r="176" spans="2:22">
+    <row r="176" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B176" s="17"/>
       <c r="F176" t="s">
         <v>48</v>
@@ -7086,12 +7134,12 @@
       <c r="S176" s="56"/>
       <c r="V176" s="17"/>
     </row>
-    <row r="177" spans="2:22">
+    <row r="177" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B177" s="17"/>
       <c r="L177" s="32"/>
       <c r="V177" s="17"/>
     </row>
-    <row r="178" spans="2:22">
+    <row r="178" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B178" s="17"/>
       <c r="I178" t="s">
         <v>313</v>
@@ -7102,7 +7150,7 @@
       </c>
       <c r="V178" s="17"/>
     </row>
-    <row r="179" spans="2:22">
+    <row r="179" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B179" s="17"/>
       <c r="I179" t="s">
         <v>314</v>
@@ -7113,7 +7161,7 @@
       </c>
       <c r="V179" s="17"/>
     </row>
-    <row r="180" spans="2:22">
+    <row r="180" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B180" s="17"/>
       <c r="I180" t="s">
         <v>316</v>
@@ -7131,7 +7179,7 @@
       </c>
       <c r="V180" s="17"/>
     </row>
-    <row r="181" spans="2:22">
+    <row r="181" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B181" s="17"/>
       <c r="F181" s="56" t="s">
         <v>317</v>
@@ -7147,52 +7195,52 @@
       </c>
       <c r="V181" s="17"/>
     </row>
-    <row r="182" spans="2:22">
+    <row r="182" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B182" s="17"/>
       <c r="L182" s="32"/>
       <c r="V182" s="17"/>
     </row>
-    <row r="183" spans="2:22">
+    <row r="183" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B183" s="17"/>
       <c r="L183" s="32"/>
       <c r="V183" s="17"/>
     </row>
-    <row r="184" spans="2:22">
+    <row r="184" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B184" s="17"/>
       <c r="L184" s="32"/>
       <c r="V184" s="17"/>
     </row>
-    <row r="185" spans="2:22">
+    <row r="185" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B185" s="17"/>
       <c r="L185" s="32"/>
       <c r="V185" s="17"/>
     </row>
-    <row r="186" spans="2:22">
+    <row r="186" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B186" s="17"/>
       <c r="L186" s="32"/>
       <c r="V186" s="17"/>
     </row>
-    <row r="187" spans="2:22">
+    <row r="187" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B187" s="17"/>
       <c r="L187" s="32"/>
       <c r="V187" s="17"/>
     </row>
-    <row r="188" spans="2:22">
+    <row r="188" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B188" s="17"/>
       <c r="L188" s="32"/>
       <c r="V188" s="17"/>
     </row>
-    <row r="189" spans="2:22">
+    <row r="189" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B189" s="17"/>
       <c r="L189" s="32"/>
       <c r="V189" s="17"/>
     </row>
-    <row r="190" spans="2:22">
+    <row r="190" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B190" s="17"/>
       <c r="L190" s="32"/>
       <c r="V190" s="17"/>
     </row>
-    <row r="191" spans="2:22">
+    <row r="191" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B191" s="17"/>
       <c r="C191" s="17"/>
       <c r="D191" s="17"/>
@@ -7215,7 +7263,7 @@
       <c r="U191" s="17"/>
       <c r="V191" s="17"/>
     </row>
-    <row r="192" spans="2:22">
+    <row r="192" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B192" s="17"/>
       <c r="C192" s="17"/>
       <c r="D192" s="17"/>
@@ -7238,7 +7286,7 @@
       <c r="U192" s="17"/>
       <c r="V192" s="17"/>
     </row>
-    <row r="193" spans="2:22">
+    <row r="193" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B193" s="17"/>
       <c r="C193" s="17"/>
       <c r="D193" s="17"/>
@@ -7261,7 +7309,7 @@
       <c r="U193" s="17"/>
       <c r="V193" s="17"/>
     </row>
-    <row r="203" spans="2:22">
+    <row r="203" spans="2:22" x14ac:dyDescent="0.25">
       <c r="P203" s="10" t="s">
         <v>350</v>
       </c>
@@ -7272,7 +7320,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="204" spans="2:22">
+    <row r="204" spans="2:22" x14ac:dyDescent="0.25">
       <c r="Q204">
         <v>40</v>
       </c>
@@ -7280,36 +7328,28 @@
         <v>349</v>
       </c>
     </row>
-    <row r="205" spans="2:22">
+    <row r="205" spans="2:22" x14ac:dyDescent="0.25">
       <c r="Q205" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="206" spans="2:22">
+    <row r="206" spans="2:22" x14ac:dyDescent="0.25">
       <c r="Q206" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="207" spans="2:22">
+    <row r="207" spans="2:22" x14ac:dyDescent="0.25">
       <c r="Q207" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="208" spans="2:22">
+    <row r="208" spans="2:22" x14ac:dyDescent="0.25">
       <c r="Q208" t="s">
         <v>354</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="P30:R30"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="T7:U7"/>
     <mergeCell ref="F181:H181"/>
     <mergeCell ref="I158:K158"/>
     <mergeCell ref="I162:K162"/>
@@ -7322,6 +7362,14 @@
     <mergeCell ref="Q180:R180"/>
     <mergeCell ref="Q176:S176"/>
     <mergeCell ref="E154:K155"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="P30:R30"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="T7:U7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7330,20 +7378,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B5:V45"/>
   <sheetViews>
     <sheetView topLeftCell="C34" workbookViewId="0">
       <selection activeCell="U36" sqref="U36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="12" max="12" width="8.44140625" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="8.42578125" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="7:20">
+    <row r="5" spans="7:20" x14ac:dyDescent="0.25">
       <c r="L5" s="56"/>
       <c r="M5" s="56"/>
       <c r="N5" s="56"/>
@@ -7354,7 +7402,7 @@
       <c r="S5" s="56"/>
       <c r="T5" s="56"/>
     </row>
-    <row r="6" spans="7:20">
+    <row r="6" spans="7:20" x14ac:dyDescent="0.25">
       <c r="L6" s="16"/>
       <c r="M6" s="16"/>
       <c r="N6" s="16" t="s">
@@ -7366,7 +7414,7 @@
       <c r="R6" s="16"/>
       <c r="S6" s="16"/>
     </row>
-    <row r="7" spans="7:20">
+    <row r="7" spans="7:20" x14ac:dyDescent="0.25">
       <c r="L7" s="16"/>
       <c r="M7" s="64" t="s">
         <v>355</v>
@@ -7378,7 +7426,7 @@
       <c r="R7" s="64"/>
       <c r="S7" s="64"/>
     </row>
-    <row r="8" spans="7:20">
+    <row r="8" spans="7:20" x14ac:dyDescent="0.25">
       <c r="L8" s="56" t="s">
         <v>375</v>
       </c>
@@ -7390,7 +7438,7 @@
       <c r="R8" s="56"/>
       <c r="S8" s="56"/>
     </row>
-    <row r="16" spans="7:20">
+    <row r="16" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G16" t="s">
         <v>359</v>
       </c>
@@ -7398,7 +7446,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="17" spans="2:22">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
         <v>361</v>
       </c>
@@ -7418,7 +7466,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="19" spans="2:22">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>365</v>
       </c>
@@ -7426,7 +7474,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="20" spans="2:22">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>370</v>
       </c>
@@ -7434,12 +7482,12 @@
         <v>366</v>
       </c>
     </row>
-    <row r="21" spans="2:22">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
       <c r="G21" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="24" spans="2:22">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
       <c r="G24" t="s">
         <v>363</v>
       </c>
@@ -7459,7 +7507,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="25" spans="2:22">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
         <v>361</v>
       </c>
@@ -7470,12 +7518,12 @@
         <v>357</v>
       </c>
     </row>
-    <row r="27" spans="2:22">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="G27" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="30" spans="2:22">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
       <c r="F30" s="56" t="s">
         <v>371</v>
       </c>
@@ -7490,7 +7538,7 @@
       <c r="U30" s="42"/>
       <c r="V30" s="42"/>
     </row>
-    <row r="31" spans="2:22">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
       <c r="P31" s="42"/>
       <c r="Q31" s="42"/>
       <c r="R31" s="42"/>
@@ -7499,7 +7547,7 @@
       <c r="U31" s="42"/>
       <c r="V31" s="42"/>
     </row>
-    <row r="32" spans="2:22">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
       <c r="P32" s="42"/>
       <c r="Q32" s="45"/>
       <c r="R32" s="45"/>
@@ -7510,7 +7558,7 @@
       <c r="U32" s="45"/>
       <c r="V32" s="42"/>
     </row>
-    <row r="33" spans="3:22">
+    <row r="33" spans="3:22" x14ac:dyDescent="0.25">
       <c r="P33" s="42"/>
       <c r="Q33" s="45"/>
       <c r="R33" s="45"/>
@@ -7519,7 +7567,7 @@
       <c r="U33" s="45"/>
       <c r="V33" s="42"/>
     </row>
-    <row r="34" spans="3:22">
+    <row r="34" spans="3:22" x14ac:dyDescent="0.25">
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
@@ -7534,7 +7582,7 @@
       <c r="U34" s="42"/>
       <c r="V34" s="42"/>
     </row>
-    <row r="35" spans="3:22">
+    <row r="35" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C35" s="39"/>
       <c r="D35" s="40"/>
       <c r="E35" s="40"/>
@@ -7558,7 +7606,7 @@
       <c r="U35" s="42"/>
       <c r="V35" s="42"/>
     </row>
-    <row r="36" spans="3:22">
+    <row r="36" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C36" s="40"/>
       <c r="D36" s="40"/>
       <c r="E36" s="40"/>
@@ -7580,7 +7628,7 @@
       <c r="U36" s="42"/>
       <c r="V36" s="42"/>
     </row>
-    <row r="37" spans="3:22">
+    <row r="37" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C37" s="40"/>
       <c r="D37" s="40"/>
       <c r="E37" s="40"/>
@@ -7602,7 +7650,7 @@
       <c r="U37" s="41"/>
       <c r="V37" s="41"/>
     </row>
-    <row r="38" spans="3:22">
+    <row r="38" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C38" s="40"/>
       <c r="D38" s="40"/>
       <c r="E38" s="40"/>
@@ -7615,7 +7663,7 @@
       <c r="L38" s="40"/>
       <c r="M38" s="40"/>
     </row>
-    <row r="39" spans="3:22">
+    <row r="39" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C39" s="40"/>
       <c r="D39" s="40"/>
       <c r="E39" s="40"/>
@@ -7628,7 +7676,7 @@
       <c r="L39" s="40"/>
       <c r="M39" s="40"/>
     </row>
-    <row r="40" spans="3:22">
+    <row r="40" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C40" s="40"/>
       <c r="D40" s="40"/>
       <c r="E40" s="40"/>
@@ -7651,7 +7699,7 @@
       <c r="U40" s="55"/>
       <c r="V40" s="55"/>
     </row>
-    <row r="41" spans="3:22">
+    <row r="41" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C41" s="40"/>
       <c r="D41" s="40"/>
       <c r="E41" s="40"/>
@@ -7674,7 +7722,7 @@
       <c r="U41" s="55"/>
       <c r="V41" s="3"/>
     </row>
-    <row r="42" spans="3:22">
+    <row r="42" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C42" s="40"/>
       <c r="D42" s="40"/>
       <c r="E42" s="40"/>
@@ -7697,7 +7745,7 @@
       <c r="U42" s="55"/>
       <c r="V42" s="3"/>
     </row>
-    <row r="43" spans="3:22">
+    <row r="43" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C43" s="40"/>
       <c r="D43" s="40"/>
       <c r="E43" s="40"/>
@@ -7721,7 +7769,7 @@
       <c r="U43" s="55"/>
       <c r="V43" s="55"/>
     </row>
-    <row r="44" spans="3:22">
+    <row r="44" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C44" s="40"/>
       <c r="D44" s="40"/>
       <c r="E44" s="40"/>
@@ -7734,7 +7782,7 @@
       <c r="L44" s="40"/>
       <c r="M44" s="40"/>
     </row>
-    <row r="45" spans="3:22">
+    <row r="45" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C45" s="40"/>
       <c r="D45" s="40"/>
       <c r="E45" s="40"/>
@@ -7763,41 +7811,41 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:W98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="H96" sqref="H96"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="13:22">
+    <row r="2" spans="13:22" x14ac:dyDescent="0.25">
       <c r="T2" s="56" t="s">
         <v>386</v>
       </c>
       <c r="U2" s="56"/>
       <c r="V2" s="56"/>
     </row>
-    <row r="3" spans="13:22">
+    <row r="3" spans="13:22" x14ac:dyDescent="0.25">
       <c r="T3" s="56"/>
       <c r="U3" s="56"/>
       <c r="V3" s="56"/>
     </row>
-    <row r="4" spans="13:22">
+    <row r="4" spans="13:22" x14ac:dyDescent="0.25">
       <c r="O4" s="6"/>
       <c r="P4" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="6" spans="13:22">
+    <row r="6" spans="13:22" x14ac:dyDescent="0.25">
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="44" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="7" spans="13:22">
+    <row r="7" spans="13:22" x14ac:dyDescent="0.25">
       <c r="M7" t="s">
         <v>90</v>
       </c>
@@ -7808,42 +7856,48 @@
         <v>388</v>
       </c>
     </row>
-    <row r="8" spans="13:22">
+    <row r="8" spans="13:22" x14ac:dyDescent="0.25">
+      <c r="R8" t="s">
+        <v>463</v>
+      </c>
       <c r="T8" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="9" spans="13:22">
+    <row r="9" spans="13:22" x14ac:dyDescent="0.25">
+      <c r="R9" t="s">
+        <v>464</v>
+      </c>
       <c r="T9" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="10" spans="13:22">
+    <row r="10" spans="13:22" x14ac:dyDescent="0.25">
       <c r="S10" s="6"/>
       <c r="T10" s="6" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="11" spans="13:22">
+    <row r="11" spans="13:22" x14ac:dyDescent="0.25">
       <c r="S11" s="6"/>
       <c r="T11" s="6" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="13" spans="13:22">
+    <row r="13" spans="13:22" x14ac:dyDescent="0.25">
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
       <c r="U13" s="44" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="15" spans="13:22">
-      <c r="S15" s="65" t="s">
+    <row r="15" spans="13:22" x14ac:dyDescent="0.25">
+      <c r="S15" s="67" t="s">
         <v>394</v>
       </c>
-      <c r="T15" s="65"/>
-    </row>
-    <row r="16" spans="13:22">
+      <c r="T15" s="67"/>
+    </row>
+    <row r="16" spans="13:22" x14ac:dyDescent="0.25">
       <c r="P16" s="11" t="s">
         <v>396</v>
       </c>
@@ -7852,12 +7906,12 @@
         <v>395</v>
       </c>
     </row>
-    <row r="17" spans="15:20">
+    <row r="17" spans="15:20" x14ac:dyDescent="0.25">
       <c r="T17" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="18" spans="15:20">
+    <row r="18" spans="15:20" x14ac:dyDescent="0.25">
       <c r="O18" s="50"/>
       <c r="P18" s="50" t="s">
         <v>406</v>
@@ -7866,7 +7920,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="19" spans="15:20">
+    <row r="19" spans="15:20" x14ac:dyDescent="0.25">
       <c r="O19" s="50"/>
       <c r="P19" s="50" t="s">
         <v>407</v>
@@ -7875,54 +7929,54 @@
         <v>398</v>
       </c>
     </row>
-    <row r="20" spans="15:20">
+    <row r="20" spans="15:20" x14ac:dyDescent="0.25">
       <c r="S20" s="6"/>
       <c r="T20" s="6" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="21" spans="15:20">
+    <row r="21" spans="15:20" x14ac:dyDescent="0.25">
       <c r="S21" s="6"/>
       <c r="T21" s="6" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="22" spans="15:20">
+    <row r="22" spans="15:20" x14ac:dyDescent="0.25">
       <c r="S22" s="6" t="s">
         <v>401</v>
       </c>
       <c r="T22" s="6"/>
     </row>
-    <row r="23" spans="15:20">
+    <row r="23" spans="15:20" x14ac:dyDescent="0.25">
       <c r="S23" s="6" t="s">
         <v>402</v>
       </c>
       <c r="T23" s="6"/>
     </row>
-    <row r="24" spans="15:20">
+    <row r="24" spans="15:20" x14ac:dyDescent="0.25">
       <c r="S24" s="6" t="s">
         <v>403</v>
       </c>
       <c r="T24" s="6"/>
     </row>
-    <row r="25" spans="15:20">
+    <row r="25" spans="15:20" x14ac:dyDescent="0.25">
       <c r="S25" s="6"/>
       <c r="T25" s="6" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="26" spans="15:20">
+    <row r="26" spans="15:20" x14ac:dyDescent="0.25">
       <c r="S26" s="6"/>
       <c r="T26" s="6" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="28" spans="15:20">
+    <row r="28" spans="15:20" x14ac:dyDescent="0.25">
       <c r="S28">
         <v>200</v>
       </c>
     </row>
-    <row r="31" spans="15:20">
+    <row r="31" spans="15:20" x14ac:dyDescent="0.25">
       <c r="P31" s="55" t="s">
         <v>408</v>
       </c>
@@ -7930,7 +7984,7 @@
       <c r="R31" s="55"/>
       <c r="S31" s="55"/>
     </row>
-    <row r="32" spans="15:20">
+    <row r="32" spans="15:20" x14ac:dyDescent="0.25">
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="3" t="s">
@@ -7938,7 +7992,7 @@
       </c>
       <c r="S32" s="3"/>
     </row>
-    <row r="33" spans="8:21">
+    <row r="33" spans="8:21" x14ac:dyDescent="0.25">
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="3" t="s">
@@ -7946,18 +8000,21 @@
       </c>
       <c r="S33" s="3"/>
     </row>
-    <row r="38" spans="8:21">
+    <row r="38" spans="8:21" x14ac:dyDescent="0.25">
       <c r="S38" s="46"/>
       <c r="T38" s="46" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="40" spans="8:21">
+    <row r="40" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="Q40" t="s">
+        <v>464</v>
+      </c>
       <c r="S40" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="41" spans="8:21">
+    <row r="41" spans="8:21" x14ac:dyDescent="0.25">
       <c r="H41" s="56"/>
       <c r="I41" s="56"/>
       <c r="J41" s="56"/>
@@ -7972,22 +8029,22 @@
         <v>413</v>
       </c>
     </row>
-    <row r="42" spans="8:21">
-      <c r="I42" s="66" t="s">
+    <row r="42" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="I42" s="68" t="s">
         <v>416</v>
       </c>
-      <c r="J42" s="66"/>
-      <c r="K42" s="66"/>
-      <c r="L42" s="66"/>
-      <c r="M42" s="66"/>
-      <c r="N42" s="66"/>
-      <c r="O42" s="66"/>
-      <c r="P42" s="66"/>
-      <c r="Q42" s="66"/>
-      <c r="R42" s="66"/>
+      <c r="J42" s="68"/>
+      <c r="K42" s="68"/>
+      <c r="L42" s="68"/>
+      <c r="M42" s="68"/>
+      <c r="N42" s="68"/>
+      <c r="O42" s="68"/>
+      <c r="P42" s="68"/>
+      <c r="Q42" s="68"/>
+      <c r="R42" s="68"/>
       <c r="S42" s="48"/>
     </row>
-    <row r="45" spans="8:21">
+    <row r="45" spans="8:21" x14ac:dyDescent="0.25">
       <c r="M45" s="56" t="s">
         <v>414</v>
       </c>
@@ -8000,17 +8057,17 @@
       <c r="T45" s="56"/>
       <c r="U45" s="56"/>
     </row>
-    <row r="49" spans="1:23">
-      <c r="B49" s="67" t="s">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B49" s="65" t="s">
         <v>417</v>
       </c>
-      <c r="C49" s="67"/>
-      <c r="D49" s="67"/>
-      <c r="E49" s="67"/>
-      <c r="F49" s="67"/>
-      <c r="G49" s="67"/>
-    </row>
-    <row r="51" spans="1:23">
+      <c r="C49" s="65"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="65"/>
+      <c r="F49" s="65"/>
+      <c r="G49" s="65"/>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -8019,7 +8076,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="52" spans="1:23">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -8027,7 +8084,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="54" spans="1:23">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B54" s="56" t="s">
         <v>451</v>
       </c>
@@ -8036,7 +8093,7 @@
       <c r="E54" s="56"/>
       <c r="F54" s="56"/>
     </row>
-    <row r="56" spans="1:23">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" s="47"/>
       <c r="B56" s="47"/>
       <c r="C56" s="47"/>
@@ -8061,7 +8118,7 @@
       <c r="V56" s="47"/>
       <c r="W56" s="47"/>
     </row>
-    <row r="59" spans="1:23">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" s="55" t="s">
         <v>424</v>
       </c>
@@ -8070,15 +8127,15 @@
       <c r="D59" s="55"/>
       <c r="E59" s="55"/>
       <c r="F59" s="55"/>
-      <c r="R59" s="68" t="s">
+      <c r="R59" s="66" t="s">
         <v>420</v>
       </c>
-      <c r="S59" s="68"/>
-      <c r="T59" s="68"/>
-      <c r="U59" s="68"/>
-      <c r="V59" s="68"/>
-    </row>
-    <row r="60" spans="1:23">
+      <c r="S59" s="66"/>
+      <c r="T59" s="66"/>
+      <c r="U59" s="66"/>
+      <c r="V59" s="66"/>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" s="55" t="s">
         <v>423</v>
       </c>
@@ -8089,7 +8146,7 @@
       <c r="F60" s="55"/>
       <c r="G60" s="55"/>
     </row>
-    <row r="61" spans="1:23">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" s="33"/>
       <c r="B61" s="51"/>
       <c r="C61" s="16"/>
@@ -8099,7 +8156,7 @@
       </c>
       <c r="F61" s="33"/>
     </row>
-    <row r="62" spans="1:23">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" s="33"/>
       <c r="B62" s="51"/>
       <c r="C62" s="16" t="s">
@@ -8135,7 +8192,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="63" spans="1:23">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" s="55" t="s">
         <v>433</v>
       </c>
@@ -8156,13 +8213,13 @@
         <v>425</v>
       </c>
     </row>
-    <row r="64" spans="1:23">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B64" s="33"/>
       <c r="F64" s="53" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B65" s="33"/>
       <c r="C65" s="33"/>
       <c r="D65" s="33"/>
@@ -8171,12 +8228,12 @@
         <v>328</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F66" s="53" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B67" s="56"/>
       <c r="C67" s="56"/>
       <c r="D67" s="56"/>
@@ -8185,7 +8242,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B68" s="56"/>
       <c r="C68" s="56"/>
       <c r="D68" s="56"/>
@@ -8194,7 +8251,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F69" s="53" t="s">
         <v>328</v>
       </c>
@@ -8202,7 +8259,7 @@
       <c r="K69" s="56"/>
       <c r="L69" s="56"/>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="45"/>
       <c r="B70" s="55" t="s">
         <v>454</v>
@@ -8219,19 +8276,19 @@
       <c r="K70" s="56"/>
       <c r="L70" s="56"/>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="33"/>
       <c r="B71" s="33"/>
       <c r="C71" s="33"/>
       <c r="D71" s="33"/>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="33"/>
       <c r="B72" s="33"/>
       <c r="C72" s="33"/>
       <c r="D72" s="33"/>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="33"/>
       <c r="B73" s="33"/>
       <c r="C73" s="33"/>
@@ -8246,7 +8303,7 @@
       <c r="L73" s="54"/>
       <c r="M73" s="54"/>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="33"/>
       <c r="B74" s="33"/>
       <c r="C74" s="33"/>
@@ -8261,7 +8318,7 @@
       <c r="L74" s="54"/>
       <c r="M74" s="54"/>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="33"/>
       <c r="B75" s="33"/>
       <c r="C75" s="33"/>
@@ -8276,7 +8333,7 @@
       <c r="L75" s="54"/>
       <c r="M75" s="54"/>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="33"/>
       <c r="B76" s="33"/>
       <c r="C76" s="56"/>
@@ -8291,7 +8348,7 @@
       <c r="L76" s="54"/>
       <c r="M76" s="54"/>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E77" s="54"/>
       <c r="F77" s="54"/>
       <c r="G77" s="54"/>
@@ -8302,7 +8359,7 @@
       <c r="L77" s="54"/>
       <c r="M77" s="54"/>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E78" s="54"/>
       <c r="F78" s="54"/>
       <c r="G78" s="54"/>
@@ -8313,7 +8370,7 @@
       <c r="L78" s="54"/>
       <c r="M78" s="54"/>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E79" s="54"/>
       <c r="F79" s="54"/>
       <c r="G79" s="54"/>
@@ -8324,7 +8381,7 @@
       <c r="L79" s="54"/>
       <c r="M79" s="54"/>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E80" s="54"/>
       <c r="F80" s="54"/>
       <c r="G80" s="54"/>
@@ -8335,7 +8392,7 @@
       <c r="L80" s="54"/>
       <c r="M80" s="54"/>
     </row>
-    <row r="81" spans="1:21">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E81" s="54"/>
       <c r="F81" s="54"/>
       <c r="G81" s="54"/>
@@ -8346,7 +8403,7 @@
       <c r="L81" s="54"/>
       <c r="M81" s="54"/>
     </row>
-    <row r="82" spans="1:21">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E82" s="54"/>
       <c r="F82" s="54"/>
       <c r="G82" s="54"/>
@@ -8357,7 +8414,7 @@
       <c r="L82" s="54"/>
       <c r="M82" s="54"/>
     </row>
-    <row r="83" spans="1:21">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E83" s="54"/>
       <c r="F83" s="54"/>
       <c r="G83" s="54"/>
@@ -8376,7 +8433,7 @@
       <c r="T83" s="56"/>
       <c r="U83" s="56"/>
     </row>
-    <row r="84" spans="1:21">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E84" s="54"/>
       <c r="F84" s="54"/>
       <c r="G84" s="54"/>
@@ -8387,7 +8444,7 @@
       <c r="L84" s="54"/>
       <c r="M84" s="54"/>
     </row>
-    <row r="85" spans="1:21">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E85" s="54"/>
       <c r="F85" s="54"/>
       <c r="G85" s="54"/>
@@ -8398,7 +8455,7 @@
       <c r="L85" s="54"/>
       <c r="M85" s="54"/>
     </row>
-    <row r="86" spans="1:21">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E86" s="54"/>
       <c r="F86" s="54"/>
       <c r="G86" s="54"/>
@@ -8409,7 +8466,7 @@
       <c r="L86" s="54"/>
       <c r="M86" s="54"/>
     </row>
-    <row r="87" spans="1:21">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B87" s="55" t="s">
         <v>458</v>
       </c>
@@ -8427,7 +8484,7 @@
       <c r="L87" s="54"/>
       <c r="M87" s="54"/>
     </row>
-    <row r="88" spans="1:21">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>460</v>
       </c>
@@ -8446,28 +8503,29 @@
       </c>
       <c r="K88" s="3"/>
     </row>
-    <row r="89" spans="1:21">
-      <c r="F89" s="56" t="s">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F89" s="55" t="s">
         <v>459</v>
       </c>
-      <c r="G89" s="56"/>
-      <c r="H89" s="56"/>
+      <c r="G89" s="55"/>
+      <c r="H89" s="55"/>
       <c r="J89">
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:21">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F90" s="3"/>
       <c r="G90" s="3" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="91" spans="1:21">
-      <c r="G91" t="s">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F91" s="3"/>
+      <c r="G91" s="3" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="93" spans="1:21">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F93" t="s">
         <v>426</v>
       </c>
@@ -8475,17 +8533,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:21">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E94" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="95" spans="1:21">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E95" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="97" spans="3:7">
+    <row r="97" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C97" s="56" t="s">
         <v>456</v>
       </c>
@@ -8493,7 +8551,7 @@
       <c r="E97" s="56"/>
       <c r="F97" s="56"/>
     </row>
-    <row r="98" spans="3:7">
+    <row r="98" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D98" s="56"/>
       <c r="E98" s="56"/>
       <c r="F98" s="56"/>
@@ -8501,11 +8559,12 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="D98:G98"/>
-    <mergeCell ref="C76:J76"/>
-    <mergeCell ref="N83:U83"/>
-    <mergeCell ref="B87:I87"/>
-    <mergeCell ref="B88:I88"/>
+    <mergeCell ref="T2:V3"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="P31:S31"/>
+    <mergeCell ref="M45:U45"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="I42:R42"/>
     <mergeCell ref="B70:D70"/>
     <mergeCell ref="C97:F97"/>
     <mergeCell ref="B49:G49"/>
@@ -8518,12 +8577,11 @@
     <mergeCell ref="A59:F59"/>
     <mergeCell ref="B54:F54"/>
     <mergeCell ref="F89:H89"/>
-    <mergeCell ref="T2:V3"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="P31:S31"/>
-    <mergeCell ref="M45:U45"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="I42:R42"/>
+    <mergeCell ref="D98:G98"/>
+    <mergeCell ref="C76:J76"/>
+    <mergeCell ref="N83:U83"/>
+    <mergeCell ref="B87:I87"/>
+    <mergeCell ref="B88:I88"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8532,16 +8590,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="F5:I23"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="5" spans="6:9">
+    <row r="5" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F5" s="16" t="s">
         <v>434</v>
       </c>
@@ -8550,7 +8608,7 @@
       </c>
       <c r="I5" s="16"/>
     </row>
-    <row r="6" spans="6:9">
+    <row r="6" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
         <v>84</v>
       </c>
@@ -8558,7 +8616,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="7" spans="6:9">
+    <row r="7" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
         <v>100</v>
       </c>
@@ -8566,7 +8624,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="6:9">
+    <row r="8" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
         <v>435</v>
       </c>
@@ -8574,7 +8632,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="6:9">
+    <row r="9" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
         <v>430</v>
       </c>
@@ -8582,68 +8640,68 @@
         <v>438</v>
       </c>
     </row>
-    <row r="10" spans="6:9">
+    <row r="10" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="12" spans="6:9">
+    <row r="12" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F12" s="16" t="s">
         <v>439</v>
       </c>
       <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="6:9">
+    <row r="13" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="14" spans="6:9">
+    <row r="14" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="6:9">
+    <row r="15" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="16" spans="6:9">
+    <row r="16" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="17" spans="6:6">
+    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="18" spans="6:6">
+    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="19" spans="6:6">
+    <row r="19" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="20" spans="6:6">
+    <row r="20" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="21" spans="6:6">
+    <row r="21" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F21" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="22" spans="6:6">
+    <row r="22" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="23" spans="6:6">
+    <row r="23" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F23" t="s">
         <v>449</v>
       </c>

--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="466">
   <si>
     <t>حلقه سمك</t>
   </si>
@@ -1409,6 +1409,15 @@
   </si>
   <si>
     <t>مشكلة الهالك</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تتم الاضافه لو الهالك موجود لنفس السرحه ونفس المركب ونفس الشخص ونفس التاريخ </t>
+  </si>
+  <si>
+    <t>لو التاريخ اتغير مع نفس الشخص يتم عمل هالك جديد</t>
+  </si>
+  <si>
+    <t>يعنى تقريبا لازم نخلى التاريخ جزء من ال pk</t>
   </si>
 </sst>
 </file>
@@ -1466,7 +1475,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1598,6 +1607,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -1722,7 +1737,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1800,6 +1815,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1809,19 +1833,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1830,10 +1851,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1874,7 +1893,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="WhatsApp Image 2020-08-17 at 1.23.37 AM.jpeg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1923,7 +1942,7 @@
         <xdr:cNvPr id="3" name="Picture 2" descr="Capturea.PNG">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5021,9 +5040,9 @@
       <c r="Q3" s="17"/>
       <c r="R3" s="17"/>
       <c r="S3" s="17"/>
-      <c r="T3" s="63"/>
-      <c r="U3" s="63"/>
-      <c r="V3" s="63"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="59"/>
       <c r="W3" s="17"/>
       <c r="X3" s="17"/>
     </row>
@@ -5617,11 +5636,11 @@
       <c r="F46" s="26"/>
       <c r="G46" s="27"/>
       <c r="H46" s="27"/>
-      <c r="I46" s="60" t="s">
+      <c r="I46" s="57" t="s">
         <v>256</v>
       </c>
-      <c r="J46" s="60"/>
-      <c r="K46" s="61"/>
+      <c r="J46" s="57"/>
+      <c r="K46" s="58"/>
       <c r="V46" s="17"/>
     </row>
     <row r="47" spans="1:22">
@@ -6731,15 +6750,15 @@
     </row>
     <row r="154" spans="2:22">
       <c r="B154" s="17"/>
-      <c r="E154" s="59" t="s">
+      <c r="E154" s="62" t="s">
         <v>297</v>
       </c>
-      <c r="F154" s="60"/>
-      <c r="G154" s="60"/>
-      <c r="H154" s="60"/>
-      <c r="I154" s="60"/>
-      <c r="J154" s="60"/>
-      <c r="K154" s="61"/>
+      <c r="F154" s="57"/>
+      <c r="G154" s="57"/>
+      <c r="H154" s="57"/>
+      <c r="I154" s="57"/>
+      <c r="J154" s="57"/>
+      <c r="K154" s="58"/>
       <c r="Q154" s="5" t="s">
         <v>304</v>
       </c>
@@ -6747,13 +6766,13 @@
     </row>
     <row r="155" spans="2:22">
       <c r="B155" s="17"/>
-      <c r="E155" s="62"/>
-      <c r="F155" s="57"/>
-      <c r="G155" s="57"/>
-      <c r="H155" s="57"/>
-      <c r="I155" s="57"/>
-      <c r="J155" s="57"/>
-      <c r="K155" s="58"/>
+      <c r="E155" s="63"/>
+      <c r="F155" s="60"/>
+      <c r="G155" s="60"/>
+      <c r="H155" s="60"/>
+      <c r="I155" s="60"/>
+      <c r="J155" s="60"/>
+      <c r="K155" s="61"/>
       <c r="Q155" s="5" t="s">
         <v>305</v>
       </c>
@@ -6813,11 +6832,11 @@
         <v>313</v>
       </c>
       <c r="H158" s="19"/>
-      <c r="I158" s="57" t="s">
+      <c r="I158" s="60" t="s">
         <v>321</v>
       </c>
-      <c r="J158" s="57"/>
-      <c r="K158" s="58"/>
+      <c r="J158" s="60"/>
+      <c r="K158" s="61"/>
       <c r="R158">
         <v>200</v>
       </c>
@@ -6887,11 +6906,11 @@
         <v>313</v>
       </c>
       <c r="H162" s="19"/>
-      <c r="I162" s="57" t="s">
+      <c r="I162" s="60" t="s">
         <v>323</v>
       </c>
-      <c r="J162" s="57"/>
-      <c r="K162" s="58"/>
+      <c r="J162" s="60"/>
+      <c r="K162" s="61"/>
       <c r="V162" s="17"/>
     </row>
     <row r="163" spans="2:22">
@@ -7302,14 +7321,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="P30:R30"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="T7:U7"/>
     <mergeCell ref="F181:H181"/>
     <mergeCell ref="I158:K158"/>
     <mergeCell ref="I162:K162"/>
@@ -7322,6 +7333,14 @@
     <mergeCell ref="Q180:R180"/>
     <mergeCell ref="Q176:S176"/>
     <mergeCell ref="E154:K155"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="P30:R30"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="T7:U7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7766,8 +7785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:W98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="H96" sqref="H96"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="L99" sqref="L99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7838,10 +7857,10 @@
       </c>
     </row>
     <row r="15" spans="13:22">
-      <c r="S15" s="65" t="s">
+      <c r="S15" s="67" t="s">
         <v>394</v>
       </c>
-      <c r="T15" s="65"/>
+      <c r="T15" s="67"/>
     </row>
     <row r="16" spans="13:22">
       <c r="P16" s="11" t="s">
@@ -7973,18 +7992,18 @@
       </c>
     </row>
     <row r="42" spans="8:21">
-      <c r="I42" s="66" t="s">
+      <c r="I42" s="68" t="s">
         <v>416</v>
       </c>
-      <c r="J42" s="66"/>
-      <c r="K42" s="66"/>
-      <c r="L42" s="66"/>
-      <c r="M42" s="66"/>
-      <c r="N42" s="66"/>
-      <c r="O42" s="66"/>
-      <c r="P42" s="66"/>
-      <c r="Q42" s="66"/>
-      <c r="R42" s="66"/>
+      <c r="J42" s="68"/>
+      <c r="K42" s="68"/>
+      <c r="L42" s="68"/>
+      <c r="M42" s="68"/>
+      <c r="N42" s="68"/>
+      <c r="O42" s="68"/>
+      <c r="P42" s="68"/>
+      <c r="Q42" s="68"/>
+      <c r="R42" s="68"/>
       <c r="S42" s="48"/>
     </row>
     <row r="45" spans="8:21">
@@ -8001,14 +8020,14 @@
       <c r="U45" s="56"/>
     </row>
     <row r="49" spans="1:23">
-      <c r="B49" s="67" t="s">
+      <c r="B49" s="65" t="s">
         <v>417</v>
       </c>
-      <c r="C49" s="67"/>
-      <c r="D49" s="67"/>
-      <c r="E49" s="67"/>
-      <c r="F49" s="67"/>
-      <c r="G49" s="67"/>
+      <c r="C49" s="65"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="65"/>
+      <c r="F49" s="65"/>
+      <c r="G49" s="65"/>
     </row>
     <row r="51" spans="1:23">
       <c r="B51" s="3"/>
@@ -8070,13 +8089,13 @@
       <c r="D59" s="55"/>
       <c r="E59" s="55"/>
       <c r="F59" s="55"/>
-      <c r="R59" s="68" t="s">
+      <c r="R59" s="66" t="s">
         <v>420</v>
       </c>
-      <c r="S59" s="68"/>
-      <c r="T59" s="68"/>
-      <c r="U59" s="68"/>
-      <c r="V59" s="68"/>
+      <c r="S59" s="66"/>
+      <c r="T59" s="66"/>
+      <c r="U59" s="66"/>
+      <c r="V59" s="66"/>
     </row>
     <row r="60" spans="1:23">
       <c r="A60" s="55" t="s">
@@ -8447,11 +8466,11 @@
       <c r="K88" s="3"/>
     </row>
     <row r="89" spans="1:21">
-      <c r="F89" s="56" t="s">
+      <c r="F89" s="55" t="s">
         <v>459</v>
       </c>
-      <c r="G89" s="56"/>
-      <c r="H89" s="56"/>
+      <c r="G89" s="55"/>
+      <c r="H89" s="55"/>
       <c r="J89">
         <v>3</v>
       </c>
@@ -8463,17 +8482,47 @@
       </c>
     </row>
     <row r="91" spans="1:21">
-      <c r="G91" t="s">
+      <c r="F91" s="69"/>
+      <c r="G91" s="69" t="s">
         <v>462</v>
       </c>
+      <c r="H91" s="70" t="s">
+        <v>463</v>
+      </c>
+      <c r="I91" s="70"/>
+      <c r="J91" s="70"/>
+      <c r="K91" s="70"/>
+      <c r="L91" s="70"/>
+      <c r="M91" s="70"/>
+      <c r="N91" s="70"/>
+      <c r="O91" s="70"/>
+    </row>
+    <row r="92" spans="1:21">
+      <c r="H92" s="70" t="s">
+        <v>464</v>
+      </c>
+      <c r="I92" s="70"/>
+      <c r="J92" s="70"/>
+      <c r="K92" s="70"/>
+      <c r="L92" s="70"/>
+      <c r="M92" s="70"/>
+      <c r="N92" s="70"/>
+      <c r="O92" s="69"/>
     </row>
     <row r="93" spans="1:21">
       <c r="F93" t="s">
         <v>426</v>
       </c>
-      <c r="J93">
-        <v>4</v>
-      </c>
+      <c r="H93" s="70" t="s">
+        <v>465</v>
+      </c>
+      <c r="I93" s="70"/>
+      <c r="J93" s="70"/>
+      <c r="K93" s="70"/>
+      <c r="L93" s="70"/>
+      <c r="M93" s="70"/>
+      <c r="N93" s="70"/>
+      <c r="O93" s="69"/>
     </row>
     <row r="94" spans="1:21">
       <c r="E94" t="s">
@@ -8500,12 +8549,13 @@
       <c r="G98" s="56"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="D98:G98"/>
-    <mergeCell ref="C76:J76"/>
-    <mergeCell ref="N83:U83"/>
-    <mergeCell ref="B87:I87"/>
-    <mergeCell ref="B88:I88"/>
+  <mergeCells count="26">
+    <mergeCell ref="T2:V3"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="P31:S31"/>
+    <mergeCell ref="M45:U45"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="I42:R42"/>
     <mergeCell ref="B70:D70"/>
     <mergeCell ref="C97:F97"/>
     <mergeCell ref="B49:G49"/>
@@ -8518,12 +8568,14 @@
     <mergeCell ref="A59:F59"/>
     <mergeCell ref="B54:F54"/>
     <mergeCell ref="F89:H89"/>
-    <mergeCell ref="T2:V3"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="P31:S31"/>
-    <mergeCell ref="M45:U45"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="I42:R42"/>
+    <mergeCell ref="H91:O91"/>
+    <mergeCell ref="H92:N92"/>
+    <mergeCell ref="H93:N93"/>
+    <mergeCell ref="D98:G98"/>
+    <mergeCell ref="C76:J76"/>
+    <mergeCell ref="N83:U83"/>
+    <mergeCell ref="B87:I87"/>
+    <mergeCell ref="B88:I88"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
